--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Dropbox\Github_Dropbox\AlkaneStudy.Gromacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7D45611-8741-4620-BEC7-D44FA2812F20}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F991ABC3-6B2C-4F96-A482-E3B22A80BB80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
   </bookViews>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="905" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="207">
   <si>
     <t>Study</t>
   </si>
@@ -635,28 +635,55 @@
     </r>
   </si>
   <si>
-    <t>Tests performed (if needed)</t>
-  </si>
-  <si>
     <t>Flex-Williams 4T</t>
   </si>
   <si>
     <t>COMPASS</t>
   </si>
   <si>
-    <t>Sim notes</t>
-  </si>
-  <si>
     <t>Force field notes</t>
   </si>
   <si>
-    <t>Should test parameter versions 4 and 7</t>
-  </si>
-  <si>
-    <t>Also test with and without C-H bond constraints</t>
-  </si>
-  <si>
     <t>GPU</t>
+  </si>
+  <si>
+    <t>COMPASS 9-6</t>
+  </si>
+  <si>
+    <t>Trying to simplify COMPASS for Gromacs is probably a bad idea,</t>
+  </si>
+  <si>
+    <t>better to use the 9-6 non-bonded potential with a standard harmonic+dihedral bonding potential.</t>
+  </si>
+  <si>
+    <t>Tests performed</t>
+  </si>
+  <si>
+    <t>Outstanding problems</t>
+  </si>
+  <si>
+    <t>FlexWilliams</t>
+  </si>
+  <si>
+    <t>Simulation notes</t>
+  </si>
+  <si>
+    <t>Should test parameter versions 4 and 7.</t>
+  </si>
+  <si>
+    <t>Also test with and without C-H bond constraints.</t>
+  </si>
+  <si>
+    <t>After correcting bonding parameters, C16 now freezes at 298K so can't measure properties.</t>
+  </si>
+  <si>
+    <t>Box volume fluctuates wildly - maybe a resonance effect.</t>
+  </si>
+  <si>
+    <t>Try Lincs version, untabulated version, or shorter cutoffs (Williams used &lt;0.7 nm)</t>
+  </si>
+  <si>
+    <t>Try changing time constant of pressure couping. Check FF parameters.</t>
   </si>
 </sst>
 </file>
@@ -669,7 +696,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="12">
+  <fonts count="13">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -755,13 +782,26 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="9">
@@ -858,7 +898,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1062,6 +1102,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2527,10 +2572,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E6099B-77F6-4CCD-9B30-DB7CF2E469C9}">
-  <dimension ref="B2:O23"/>
+  <dimension ref="B2:L45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -2544,19 +2589,19 @@
     <col min="12" max="12" width="27.5" style="19" customWidth="1"/>
     <col min="13" max="13" width="17.625" style="19" customWidth="1"/>
     <col min="14" max="14" width="32.5" style="19" customWidth="1"/>
-    <col min="15" max="15" width="56.625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="65.625" style="19" customWidth="1"/>
     <col min="16" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:15">
+    <row r="2" spans="2:12">
       <c r="H2" s="19" t="s">
         <v>168</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="3" spans="2:15" s="20" customFormat="1">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="20" customFormat="1">
       <c r="D3" s="20" t="s">
         <v>177</v>
       </c>
@@ -2570,7 +2615,7 @@
         <v>180</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>182</v>
@@ -2578,11 +2623,8 @@
       <c r="K3" s="20" t="s">
         <v>184</v>
       </c>
-      <c r="N3" s="20" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="4" spans="2:15" ht="15.75" customHeight="1">
+    </row>
+    <row r="4" spans="2:12" ht="15.75" customHeight="1">
       <c r="B4" s="19" t="s">
         <v>44</v>
       </c>
@@ -2602,7 +2644,7 @@
         <v>2</v>
       </c>
       <c r="H4" s="19">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I4" s="19">
         <v>2</v>
@@ -2613,11 +2655,8 @@
       <c r="L4" s="19" t="s">
         <v>187</v>
       </c>
-      <c r="N4" s="70" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="5" spans="2:15">
+    </row>
+    <row r="5" spans="2:12">
       <c r="C5" s="19" t="s">
         <v>189</v>
       </c>
@@ -2634,7 +2673,7 @@
         <v>2</v>
       </c>
       <c r="H5" s="19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" s="19">
         <v>0</v>
@@ -2645,11 +2684,8 @@
       <c r="L5" s="19" t="s">
         <v>185</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="6" spans="2:15">
+    </row>
+    <row r="6" spans="2:12">
       <c r="C6" s="19" t="s">
         <v>176</v>
       </c>
@@ -2675,13 +2711,10 @@
         <v>2</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>190</v>
-      </c>
-      <c r="N6" s="19" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="7" spans="2:15">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
       <c r="B7" s="19" t="s">
         <v>43</v>
       </c>
@@ -2695,13 +2728,13 @@
         <v>3</v>
       </c>
       <c r="F7" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G7" s="19">
         <v>0</v>
       </c>
       <c r="H7" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="19">
         <v>0</v>
@@ -2713,7 +2746,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="8" spans="2:15">
+    <row r="8" spans="2:12">
       <c r="C8" s="19" t="s">
         <v>189</v>
       </c>
@@ -2721,7 +2754,7 @@
         <v>0</v>
       </c>
       <c r="E8" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F8" s="19">
         <v>3</v>
@@ -2742,7 +2775,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="9" spans="2:15">
+    <row r="9" spans="2:12">
       <c r="C9" s="19" t="s">
         <v>176</v>
       </c>
@@ -2765,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="2:15">
+    <row r="10" spans="2:12">
       <c r="B10" s="19" t="s">
         <v>35</v>
       </c>
@@ -2791,7 +2824,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:15">
+    <row r="11" spans="2:12">
       <c r="C11" s="19" t="s">
         <v>189</v>
       </c>
@@ -2814,7 +2847,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="2:15">
+    <row r="12" spans="2:12">
       <c r="C12" s="19" t="s">
         <v>176</v>
       </c>
@@ -2837,7 +2870,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="2:15" s="20" customFormat="1">
+    <row r="14" spans="2:12" s="20" customFormat="1">
       <c r="D14" s="20" t="s">
         <v>177</v>
       </c>
@@ -2851,49 +2884,37 @@
         <v>180</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="N14" s="20" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="15" spans="2:15">
+    </row>
+    <row r="15" spans="2:12">
       <c r="B15" s="19" t="s">
         <v>44</v>
       </c>
       <c r="C15" s="19" t="s">
         <v>183</v>
       </c>
-      <c r="N15" s="19" t="s">
-        <v>181</v>
-      </c>
-      <c r="O15" s="19" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="16" spans="2:15">
+    </row>
+    <row r="16" spans="2:12">
       <c r="C16" s="19" t="s">
         <v>189</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>197</v>
-      </c>
-      <c r="O16" s="19" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
       <c r="C17" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="18" spans="2:7">
+    <row r="18" spans="2:12">
       <c r="B18" s="19" t="s">
         <v>43</v>
       </c>
@@ -2901,23 +2922,23 @@
         <v>183</v>
       </c>
     </row>
-    <row r="19" spans="2:7">
+    <row r="19" spans="2:12">
       <c r="C19" s="19" t="s">
         <v>189</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
       <c r="C20" s="19" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="21" spans="2:7">
+    <row r="21" spans="2:12">
       <c r="B21" s="19" t="s">
         <v>35</v>
       </c>
@@ -2925,21 +2946,175 @@
         <v>183</v>
       </c>
     </row>
-    <row r="22" spans="2:7">
+    <row r="22" spans="2:12">
       <c r="C22" s="19" t="s">
         <v>189</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
       <c r="C23" s="19" t="s">
         <v>176</v>
       </c>
+    </row>
+    <row r="27" spans="2:12" s="20" customFormat="1">
+      <c r="C27" s="73" t="s">
+        <v>192</v>
+      </c>
+      <c r="L27" s="73" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="C28" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="71" t="s">
+        <v>201</v>
+      </c>
+      <c r="E28" s="71"/>
+      <c r="F28" s="71"/>
+      <c r="G28" s="71"/>
+      <c r="H28" s="71"/>
+      <c r="I28" s="71"/>
+      <c r="L28" s="70" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="D29" t="s">
+        <v>202</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="L29" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="C30" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="D30" t="s">
+        <v>195</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="L30" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="D31" t="s">
+        <v>196</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="3:12" s="20" customFormat="1">
+      <c r="C36" s="73" t="s">
+        <v>198</v>
+      </c>
+      <c r="D36" s="72"/>
+      <c r="E36" s="72"/>
+      <c r="F36" s="72"/>
+      <c r="G36" s="72"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="19" t="s">
+        <v>199</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>203</v>
+      </c>
+      <c r="L37" s="50" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="C38" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="D38" s="50" t="s">
+        <v>204</v>
+      </c>
+      <c r="L38" s="50" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="D39" s="50"/>
+      <c r="L39" s="50"/>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="D40" s="50"/>
+      <c r="L40" s="50"/>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="D41" s="50"/>
+      <c r="L41" s="50"/>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="D42" s="50"/>
+      <c r="L42" s="50"/>
+    </row>
+    <row r="43" spans="3:12">
+      <c r="D43" s="50"/>
+      <c r="L43" s="50"/>
+    </row>
+    <row r="44" spans="3:12">
+      <c r="L44" s="50"/>
+    </row>
+    <row r="45" spans="3:12">
+      <c r="L45" s="50"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K4:K9">
@@ -5855,8 +6030,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAA431D-5536-2842-8755-AEE6B34A948B}">
   <dimension ref="B2:AA17"/>
   <sheetViews>
-    <sheetView topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="Z18" sqref="Z18"/>
+    <sheetView topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="Z26" sqref="Z26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Dropbox\Github_Dropbox\AlkaneStudy.Gromacs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephen/Dropbox/Github_Dropbox/AlkaneStudy.Gromacs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F991ABC3-6B2C-4F96-A482-E3B22A80BB80}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C0B97D75-6C15-6242-91D0-228F8C7205D0}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="16000" activeTab="4" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim matrix" sheetId="13" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="965" uniqueCount="237">
   <si>
     <t>Study</t>
   </si>
@@ -612,9 +612,6 @@
     <t>Input files prepared</t>
   </si>
   <si>
-    <t>Simulation ran</t>
-  </si>
-  <si>
     <t>Not started</t>
   </si>
   <si>
@@ -656,9 +653,6 @@
     <t>better to use the 9-6 non-bonded potential with a standard harmonic+dihedral bonding potential.</t>
   </si>
   <si>
-    <t>Tests performed</t>
-  </si>
-  <si>
     <t>Outstanding problems</t>
   </si>
   <si>
@@ -677,13 +671,132 @@
     <t>After correcting bonding parameters, C16 now freezes at 298K so can't measure properties.</t>
   </si>
   <si>
+    <t>Possible solutions</t>
+  </si>
+  <si>
     <t>Box volume fluctuates wildly - maybe a resonance effect.</t>
   </si>
   <si>
-    <t>Try Lincs version, untabulated version, or shorter cutoffs (Williams used &lt;0.7 nm)</t>
-  </si>
-  <si>
     <t>Try changing time constant of pressure couping. Check FF parameters.</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>Try alternative bonding potential - needs to be dihedral potential without 1-4 interactions</t>
+  </si>
+  <si>
+    <t>Choice of time step</t>
+  </si>
+  <si>
+    <t>If we decide to fix C-H bonds (probable), then 1fs time step may be unnecessary</t>
+  </si>
+  <si>
+    <t>Stick with 1fs for the main all-atom sims, but do some with 2fs as tests or for longer runs when needed</t>
+  </si>
+  <si>
+    <t>▪ V4 Lincs version (C-H length fixed) seems better - avoids inaccuracies due to fast C-H vibration frequency? Still crystalizes at 298K given enough time.</t>
+  </si>
+  <si>
+    <t>▪ OPLS-UA torsion (as used by TraPPE) can be used if 1-5 CH and 1-6 HH interactions excluded (Chen, J. Phys. Chem. B 1998, 102, 2578)</t>
+  </si>
+  <si>
+    <t>Slow performance when using Buckingham potential instead of tabulated version</t>
+  </si>
+  <si>
+    <t>Try different Gromacs version</t>
+  </si>
+  <si>
+    <t>Flex Williams</t>
+  </si>
+  <si>
+    <t>Unclear which bonding potential to use</t>
+  </si>
+  <si>
+    <t>Just compare the simplified COMPASS to a generic alternative like OPLS</t>
+  </si>
+  <si>
+    <t>Production simulation ran</t>
+  </si>
+  <si>
+    <t>Testing ongoing</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>FlexWilliams4TL_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Das (2003)</t>
+  </si>
+  <si>
+    <t>FlexWilliams7TL_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>OPLS-UA</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1786 Std. Dev. = 0.1535 Error = 0.0048</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1877 Std. Dev. = 0.1574 Error = 0.0049</t>
+  </si>
+  <si>
+    <t>Torsion</t>
+  </si>
+  <si>
+    <t>Bond/angle</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>OPLS</t>
+  </si>
+  <si>
+    <t>▪ Try optimizing geometry using H-C-H angle of 106 degrees to get consistent C-C-C and C-C-H angles</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Try Lincs version, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>untabulated version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, or shorter cutoffs (Williams used &lt;0.7 nm)</t>
+    </r>
+  </si>
+  <si>
+    <t>FlexWilliams4TL-OPLS_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>FlexWilliams7TL-OPLS_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1779 Std. Dev. = 0.1373 Error = 0.0043</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1812 Std. Dev. = 0.1503 Error = 0.0047</t>
   </si>
 </sst>
 </file>
@@ -696,7 +809,7 @@
     <numFmt numFmtId="166" formatCode="0.0"/>
     <numFmt numFmtId="167" formatCode="0.00000"/>
   </numFmts>
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -789,6 +902,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -804,7 +923,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -894,11 +1013,40 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="74">
+  <cellXfs count="87">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1083,6 +1231,53 @@
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1099,14 +1294,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -2572,24 +2759,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E6099B-77F6-4CCD-9B30-DB7CF2E469C9}">
-  <dimension ref="B2:L45"/>
+  <dimension ref="B2:L50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L39" sqref="L39"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K49" sqref="K49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="16"/>
   <cols>
     <col min="1" max="2" width="9" style="19"/>
-    <col min="3" max="3" width="44.625" style="19" customWidth="1"/>
-    <col min="4" max="7" width="12.625" style="19" customWidth="1"/>
-    <col min="8" max="8" width="15.25" style="19" customWidth="1"/>
-    <col min="9" max="9" width="12.625" style="19" customWidth="1"/>
+    <col min="3" max="3" width="44.6640625" style="19" customWidth="1"/>
+    <col min="4" max="7" width="12.6640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="15.1640625" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.6640625" style="19" customWidth="1"/>
     <col min="10" max="11" width="9" style="19"/>
     <col min="12" max="12" width="27.5" style="19" customWidth="1"/>
-    <col min="13" max="13" width="17.625" style="19" customWidth="1"/>
+    <col min="13" max="13" width="17.6640625" style="19" customWidth="1"/>
     <col min="14" max="14" width="32.5" style="19" customWidth="1"/>
-    <col min="15" max="15" width="65.625" style="19" customWidth="1"/>
+    <col min="15" max="15" width="65.6640625" style="19" customWidth="1"/>
     <col min="16" max="16384" width="9" style="19"/>
   </cols>
   <sheetData>
@@ -2598,7 +2785,7 @@
         <v>168</v>
       </c>
       <c r="I2" s="19" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="3" spans="2:12" s="20" customFormat="1">
@@ -2615,7 +2802,7 @@
         <v>180</v>
       </c>
       <c r="H3" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I3" s="20" t="s">
         <v>182</v>
@@ -2653,15 +2840,15 @@
         <v>0</v>
       </c>
       <c r="L4" s="19" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="5" spans="2:12">
       <c r="C5" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D5" s="19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="E5" s="19">
         <v>3</v>
@@ -2711,7 +2898,7 @@
         <v>2</v>
       </c>
       <c r="L6" s="19" t="s">
-        <v>197</v>
+        <v>219</v>
       </c>
     </row>
     <row r="7" spans="2:12">
@@ -2743,15 +2930,15 @@
         <v>3</v>
       </c>
       <c r="L7" s="19" t="s">
-        <v>186</v>
+        <v>218</v>
       </c>
     </row>
     <row r="8" spans="2:12">
       <c r="C8" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D8" s="19">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="E8" s="19">
         <v>3</v>
@@ -2772,7 +2959,7 @@
         <v>4</v>
       </c>
       <c r="L8" s="19" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="9" spans="2:12">
@@ -2826,7 +3013,7 @@
     </row>
     <row r="11" spans="2:12">
       <c r="C11" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D11" s="19">
         <v>0</v>
@@ -2884,7 +3071,7 @@
         <v>180</v>
       </c>
       <c r="H14" s="20" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="I14" s="20" t="s">
         <v>182</v>
@@ -2900,19 +3087,25 @@
     </row>
     <row r="16" spans="2:12">
       <c r="C16" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>205</v>
       </c>
       <c r="F16" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="17" spans="2:12">
       <c r="C17" s="19" t="s">
         <v>176</v>
       </c>
+      <c r="F17" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="18" spans="2:12">
       <c r="B18" s="19" t="s">
@@ -2924,19 +3117,25 @@
     </row>
     <row r="19" spans="2:12">
       <c r="C19" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>206</v>
       </c>
       <c r="F19" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G19" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="2:12">
       <c r="C20" s="19" t="s">
         <v>176</v>
       </c>
+      <c r="F20" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="21" spans="2:12">
       <c r="B21" s="19" t="s">
@@ -2948,47 +3147,50 @@
     </row>
     <row r="22" spans="2:12">
       <c r="C22" s="19" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="F22" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="G22" s="19" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="23" spans="2:12">
       <c r="C23" s="19" t="s">
         <v>176</v>
       </c>
+      <c r="F23" s="19" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="27" spans="2:12" s="20" customFormat="1">
-      <c r="C27" s="73" t="s">
-        <v>192</v>
-      </c>
-      <c r="L27" s="73" t="s">
-        <v>200</v>
+      <c r="C27" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" s="67" t="s">
+        <v>198</v>
       </c>
     </row>
     <row r="28" spans="2:12">
       <c r="C28" s="19" t="s">
         <v>181</v>
       </c>
-      <c r="D28" s="71" t="s">
-        <v>201</v>
-      </c>
-      <c r="E28" s="71"/>
-      <c r="F28" s="71"/>
-      <c r="G28" s="71"/>
-      <c r="H28" s="71"/>
-      <c r="I28" s="71"/>
-      <c r="L28" s="70" t="s">
+      <c r="D28" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="L28" s="64" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="29" spans="2:12">
       <c r="D29" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E29"/>
       <c r="F29"/>
@@ -3001,10 +3203,10 @@
     </row>
     <row r="30" spans="2:12">
       <c r="C30" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" t="s">
         <v>194</v>
-      </c>
-      <c r="D30" t="s">
-        <v>195</v>
       </c>
       <c r="E30"/>
       <c r="F30"/>
@@ -3017,7 +3219,7 @@
     </row>
     <row r="31" spans="2:12">
       <c r="D31" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="E31"/>
       <c r="F31"/>
@@ -3058,63 +3260,115 @@
       <c r="I35"/>
     </row>
     <row r="36" spans="3:12" s="20" customFormat="1">
-      <c r="C36" s="73" t="s">
-        <v>198</v>
-      </c>
-      <c r="D36" s="72"/>
-      <c r="E36" s="72"/>
-      <c r="F36" s="72"/>
-      <c r="G36" s="72"/>
-      <c r="H36" s="72"/>
-      <c r="I36" s="72"/>
+      <c r="C36" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="L36" s="67" t="s">
+        <v>202</v>
+      </c>
     </row>
     <row r="37" spans="3:12">
       <c r="C37" s="19" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D37" s="50" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="L37" s="50" t="s">
-        <v>205</v>
+        <v>232</v>
       </c>
     </row>
     <row r="38" spans="3:12">
-      <c r="C38" s="19" t="s">
-        <v>180</v>
-      </c>
-      <c r="D38" s="50" t="s">
-        <v>204</v>
-      </c>
-      <c r="L38" s="50" t="s">
-        <v>206</v>
+      <c r="D38" s="50"/>
+      <c r="L38" s="68" t="s">
+        <v>211</v>
       </c>
     </row>
     <row r="39" spans="3:12">
       <c r="D39" s="50"/>
-      <c r="L39" s="50"/>
+      <c r="L39" s="68" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="40" spans="3:12">
       <c r="D40" s="50"/>
-      <c r="L40" s="50"/>
+      <c r="L40" s="68" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="41" spans="3:12">
       <c r="D41" s="50"/>
-      <c r="L41" s="50"/>
-    </row>
-    <row r="42" spans="3:12">
-      <c r="D42" s="50"/>
-      <c r="L42" s="50"/>
-    </row>
-    <row r="43" spans="3:12">
-      <c r="D43" s="50"/>
-      <c r="L43" s="50"/>
-    </row>
-    <row r="44" spans="3:12">
-      <c r="L44" s="50"/>
-    </row>
-    <row r="45" spans="3:12">
-      <c r="L45" s="50"/>
+      <c r="L41" s="68" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12" s="69" customFormat="1">
+      <c r="C42" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D42" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="L42" s="71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" s="74" customFormat="1">
+      <c r="C43" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D43" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="L43" s="75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" s="74" customFormat="1">
+      <c r="C44" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="L44" s="75" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" s="72" customFormat="1">
+      <c r="C45" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D45" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="L45" s="73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12">
+      <c r="D46" s="50"/>
+      <c r="L46" s="50"/>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="D47" s="50"/>
+      <c r="L47" s="50"/>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="D48" s="50"/>
+      <c r="L48" s="50"/>
+    </row>
+    <row r="49" spans="12:12">
+      <c r="L49" s="50"/>
+    </row>
+    <row r="50" spans="12:12">
+      <c r="L50" s="50"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="K4:K9">
@@ -3154,9 +3408,9 @@
       <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="3" max="3" width="187.125" customWidth="1"/>
+    <col min="3" max="3" width="187.1640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:3">
@@ -3368,7 +3622,7 @@
       <selection activeCell="AL22" sqref="AL22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16"/>
   <cols>
     <col min="8" max="12" width="4" customWidth="1"/>
     <col min="20" max="24" width="4" customWidth="1"/>
@@ -3427,51 +3681,51 @@
       <c r="F4" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="68" t="s">
+      <c r="H4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="68"/>
-      <c r="J4" s="68"/>
-      <c r="K4" s="68"/>
-      <c r="L4" s="68"/>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
       <c r="O4" s="6"/>
       <c r="P4" s="6"/>
       <c r="Q4" s="6"/>
       <c r="R4" s="6"/>
       <c r="S4" s="6"/>
-      <c r="T4" s="68" t="s">
+      <c r="T4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
       <c r="AC4" s="7"/>
       <c r="AD4" s="8"/>
-      <c r="AF4" s="68" t="s">
+      <c r="AF4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
       <c r="AN4" s="12"/>
       <c r="AP4" s="8"/>
-      <c r="AR4" s="68" t="s">
+      <c r="AR4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="AS4" s="68"/>
-      <c r="AT4" s="68"/>
-      <c r="AU4" s="68"/>
-      <c r="AV4" s="68"/>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
       <c r="BB4" s="8"/>
-      <c r="BD4" s="68" t="s">
+      <c r="BD4" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="BE4" s="68"/>
-      <c r="BF4" s="68"/>
-      <c r="BG4" s="68"/>
-      <c r="BH4" s="68"/>
+      <c r="BE4" s="85"/>
+      <c r="BF4" s="85"/>
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="85"/>
     </row>
     <row r="5" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="17" t="s">
@@ -4526,17 +4780,17 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="10.875" style="1"/>
-    <col min="2" max="2" width="38.375" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.83203125" style="1"/>
+    <col min="2" max="2" width="38.33203125" style="1" customWidth="1"/>
     <col min="3" max="3" width="13" style="1" customWidth="1"/>
-    <col min="4" max="5" width="10.875" style="1"/>
-    <col min="6" max="6" width="21.375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
-    <col min="8" max="8" width="10.875" style="1"/>
-    <col min="9" max="9" width="56.125" style="1" customWidth="1"/>
-    <col min="10" max="16384" width="10.875" style="1"/>
+    <col min="4" max="5" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="21.33203125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.1640625" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.83203125" style="1"/>
+    <col min="9" max="9" width="56.1640625" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:9" s="2" customFormat="1">
@@ -4680,27 +4934,27 @@
       <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
-    <col min="4" max="4" width="8.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.1640625" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.33203125" style="19" customWidth="1"/>
     <col min="5" max="5" width="18" style="19" customWidth="1"/>
-    <col min="6" max="11" width="10.875" style="19"/>
-    <col min="12" max="12" width="11.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="12.875" style="19" customWidth="1"/>
+    <col min="6" max="11" width="10.83203125" style="19"/>
+    <col min="12" max="12" width="11.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.83203125" style="19" customWidth="1"/>
     <col min="14" max="14" width="10.5" style="19" customWidth="1"/>
-    <col min="15" max="15" width="8.375" style="19" customWidth="1"/>
-    <col min="16" max="16" width="10.875" style="26"/>
+    <col min="15" max="15" width="8.33203125" style="19" customWidth="1"/>
+    <col min="16" max="16" width="10.83203125" style="26"/>
     <col min="17" max="17" width="9" style="19" customWidth="1"/>
     <col min="18" max="18" width="9" style="32" customWidth="1"/>
     <col min="19" max="20" width="9" style="19" customWidth="1"/>
     <col min="21" max="21" width="9" style="32" customWidth="1"/>
     <col min="22" max="22" width="9" style="19" customWidth="1"/>
-    <col min="23" max="23" width="38.625" style="19" customWidth="1"/>
-    <col min="24" max="24" width="37.125" style="19" customWidth="1"/>
-    <col min="25" max="16384" width="10.875" style="19"/>
+    <col min="23" max="23" width="38.6640625" style="19" customWidth="1"/>
+    <col min="24" max="24" width="37.1640625" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
@@ -4716,20 +4970,20 @@
       <c r="K3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="M3" s="64" t="s">
+      <c r="M3" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="N3" s="64"/>
-      <c r="O3" s="64"/>
-      <c r="Q3" s="64" t="s">
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="Q3" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
     </row>
     <row r="4" spans="2:24" s="20" customFormat="1">
       <c r="B4" s="20" t="s">
@@ -5592,21 +5846,21 @@
       <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="44.5" style="19" customWidth="1"/>
-    <col min="3" max="3" width="10.625" style="19" customWidth="1"/>
-    <col min="4" max="6" width="9.125" style="19" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.6640625" style="19" customWidth="1"/>
+    <col min="4" max="6" width="9.1640625" style="19" customWidth="1"/>
+    <col min="7" max="7" width="11.1640625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.33203125" style="19" customWidth="1"/>
     <col min="9" max="9" width="18" style="19" customWidth="1"/>
-    <col min="10" max="15" width="10.875" style="19"/>
-    <col min="16" max="16" width="11.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.875" style="19" customWidth="1"/>
+    <col min="10" max="15" width="10.83203125" style="19"/>
+    <col min="16" max="16" width="11.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.83203125" style="19" customWidth="1"/>
     <col min="18" max="18" width="10.5" style="19" customWidth="1"/>
-    <col min="19" max="19" width="8.375" style="26" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="48"/>
+    <col min="19" max="19" width="8.33203125" style="26" customWidth="1"/>
+    <col min="20" max="20" width="10.83203125" style="48"/>
     <col min="21" max="21" width="9" style="19" customWidth="1"/>
     <col min="22" max="22" width="9" style="32" customWidth="1"/>
     <col min="23" max="24" width="9" style="19" customWidth="1"/>
@@ -5614,7 +5868,7 @@
     <col min="26" max="26" width="9" style="19" customWidth="1"/>
     <col min="27" max="27" width="47" style="19" customWidth="1"/>
     <col min="28" max="28" width="68" style="50" customWidth="1"/>
-    <col min="29" max="16384" width="10.875" style="19"/>
+    <col min="29" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:28">
@@ -5630,20 +5884,20 @@
       <c r="O3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="Q3" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
-      <c r="U3" s="64" t="s">
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
+      <c r="U3" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
     </row>
     <row r="4" spans="2:28" s="20" customFormat="1">
       <c r="B4" s="20" t="s">
@@ -6028,780 +6282,1236 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAA431D-5536-2842-8755-AEE6B34A948B}">
-  <dimension ref="B2:AA17"/>
+  <dimension ref="B2:AC50"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="Z26" sqref="Z26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="AC7" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="AC27" sqref="AC27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
-    <col min="2" max="2" width="47.875" style="19" customWidth="1"/>
-    <col min="3" max="3" width="11.875" style="19" customWidth="1"/>
-    <col min="4" max="6" width="9.125" style="23" customWidth="1"/>
-    <col min="7" max="7" width="11.125" style="19" customWidth="1"/>
-    <col min="8" max="8" width="8.375" style="19" customWidth="1"/>
-    <col min="9" max="9" width="18" style="19" customWidth="1"/>
-    <col min="10" max="15" width="10.875" style="19"/>
-    <col min="16" max="16" width="11.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.875" style="19" customWidth="1"/>
-    <col min="18" max="18" width="10.5" style="19" customWidth="1"/>
-    <col min="19" max="19" width="8.375" style="26" customWidth="1"/>
-    <col min="20" max="20" width="10.875" style="48"/>
-    <col min="21" max="21" width="9" style="19" customWidth="1"/>
-    <col min="22" max="22" width="9" style="32" customWidth="1"/>
-    <col min="23" max="24" width="9" style="19" customWidth="1"/>
-    <col min="25" max="25" width="9" style="32" customWidth="1"/>
-    <col min="26" max="26" width="9" style="38" customWidth="1"/>
-    <col min="27" max="27" width="47" style="19" customWidth="1"/>
-    <col min="28" max="16384" width="10.875" style="19"/>
+    <col min="1" max="1" width="3.83203125" style="19" customWidth="1"/>
+    <col min="2" max="2" width="47.83203125" style="19" customWidth="1"/>
+    <col min="3" max="5" width="11.83203125" style="19" customWidth="1"/>
+    <col min="6" max="8" width="9.1640625" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.1640625" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.33203125" style="19" customWidth="1"/>
+    <col min="11" max="11" width="18" style="19" customWidth="1"/>
+    <col min="12" max="17" width="10.83203125" style="19"/>
+    <col min="18" max="18" width="11.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.83203125" style="19" customWidth="1"/>
+    <col min="20" max="20" width="10.5" style="19" customWidth="1"/>
+    <col min="21" max="21" width="8.33203125" style="26" customWidth="1"/>
+    <col min="22" max="22" width="10.83203125" style="48"/>
+    <col min="23" max="23" width="9" style="19" customWidth="1"/>
+    <col min="24" max="24" width="9" style="32" customWidth="1"/>
+    <col min="25" max="26" width="9" style="19" customWidth="1"/>
+    <col min="27" max="27" width="9" style="32" customWidth="1"/>
+    <col min="28" max="28" width="9" style="38" customWidth="1"/>
+    <col min="29" max="29" width="47" style="19" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27">
-      <c r="U2"/>
-      <c r="V2" s="30"/>
+    <row r="2" spans="2:29">
       <c r="W2"/>
-      <c r="X2"/>
-    </row>
-    <row r="3" spans="2:27">
+      <c r="X2" s="30"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="2:29">
       <c r="C3" s="19" t="s">
         <v>148</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="Q3" s="64" t="s">
+      <c r="S3" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="65"/>
-      <c r="U3" s="64" t="s">
+      <c r="T3" s="81"/>
+      <c r="U3" s="82"/>
+      <c r="W3" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-    </row>
-    <row r="4" spans="2:27" s="20" customFormat="1">
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+    </row>
+    <row r="4" spans="2:29" s="20" customFormat="1">
       <c r="B4" s="20" t="s">
         <v>81</v>
       </c>
       <c r="C4" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D4" s="24" t="s">
+      <c r="D4" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="24" t="s">
         <v>133</v>
       </c>
-      <c r="E4" s="24" t="s">
+      <c r="G4" s="24" t="s">
         <v>134</v>
       </c>
-      <c r="F4" s="24" t="s">
+      <c r="H4" s="24" t="s">
         <v>135</v>
       </c>
-      <c r="G4" s="20" t="s">
+      <c r="I4" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="H4" s="20" t="s">
+      <c r="J4" s="20" t="s">
         <v>64</v>
       </c>
-      <c r="I4" s="20" t="s">
+      <c r="K4" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="J4" s="20" t="s">
+      <c r="L4" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="K4" s="20" t="s">
+      <c r="M4" s="20" t="s">
         <v>84</v>
       </c>
-      <c r="L4" s="20" t="s">
+      <c r="N4" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="M4" s="20" t="s">
+      <c r="O4" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="N4" s="20" t="s">
+      <c r="P4" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="O4" s="20" t="s">
+      <c r="Q4" s="20" t="s">
         <v>86</v>
       </c>
-      <c r="P4" s="20" t="s">
+      <c r="R4" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="Q4" s="20" t="s">
+      <c r="S4" s="20" t="s">
         <v>97</v>
       </c>
-      <c r="R4" s="20" t="s">
+      <c r="T4" s="20" t="s">
         <v>98</v>
       </c>
-      <c r="S4" s="27" t="s">
+      <c r="U4" s="27" t="s">
         <v>94</v>
       </c>
-      <c r="T4" s="49" t="s">
+      <c r="V4" s="49" t="s">
         <v>142</v>
       </c>
-      <c r="U4" s="20" t="s">
+      <c r="W4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="V4" s="31" t="s">
+      <c r="X4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="W4" s="20" t="s">
+      <c r="Y4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="X4" s="20" t="s">
+      <c r="Z4" s="20" t="s">
         <v>104</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="AA4" s="31" t="s">
         <v>106</v>
       </c>
-      <c r="Z4" s="39" t="s">
+      <c r="AB4" s="39" t="s">
         <v>105</v>
       </c>
-      <c r="AA4" s="20" t="s">
+      <c r="AC4" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="2:27" s="52" customFormat="1">
+    <row r="5" spans="2:29" s="52" customFormat="1">
       <c r="B5" s="52" t="s">
         <v>152</v>
       </c>
       <c r="C5" s="52">
         <v>7</v>
       </c>
-      <c r="D5" s="58">
+      <c r="F5" s="58">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E5" s="59">
+      <c r="G5" s="59">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F5" s="59">
+      <c r="H5" s="59">
         <v>1.05</v>
       </c>
-      <c r="G5" s="52" t="s">
+      <c r="I5" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H5" s="52">
+      <c r="J5" s="52">
         <v>1024</v>
       </c>
-      <c r="I5" s="52" t="s">
+      <c r="K5" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="52" t="s">
+      <c r="L5" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="52">
+      <c r="M5" s="52">
         <v>298</v>
-      </c>
-      <c r="L5" s="52">
-        <v>1</v>
-      </c>
-      <c r="M5" s="53" t="s">
-        <v>57</v>
       </c>
       <c r="N5" s="52">
         <v>1</v>
       </c>
-      <c r="O5" s="52">
+      <c r="O5" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="52">
         <v>5</v>
       </c>
-      <c r="P5" s="52">
-        <f t="shared" ref="P5:P6" si="0">1000000*O5/N5</f>
+      <c r="R5" s="52">
+        <f t="shared" ref="R5:R6" si="0">1000000*Q5/P5</f>
         <v>5000000</v>
       </c>
-      <c r="S5" s="54"/>
-      <c r="T5" s="55">
+      <c r="U5" s="54"/>
+      <c r="V5" s="55">
         <v>13.738</v>
       </c>
-      <c r="U5" s="52" t="s">
+      <c r="W5" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V5" s="52" t="s">
+      <c r="X5" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="W5" s="52">
+      <c r="Y5" s="52">
         <v>786.67399999999998</v>
       </c>
-      <c r="X5" s="52" t="s">
+      <c r="Z5" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Y5" s="56" t="s">
+      <c r="AA5" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="Z5" s="60">
+      <c r="AB5" s="60">
         <v>0.32929999999999998</v>
       </c>
-      <c r="AA5" s="53" t="s">
+      <c r="AC5" s="53" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="6" spans="2:27" s="52" customFormat="1">
+    <row r="6" spans="2:29" s="52" customFormat="1">
       <c r="C6" s="52">
         <v>7</v>
       </c>
-      <c r="D6" s="59">
-        <v>1.05</v>
-      </c>
-      <c r="E6" s="59">
-        <v>1.05</v>
-      </c>
       <c r="F6" s="59">
         <v>1.05</v>
       </c>
-      <c r="G6" s="52" t="s">
+      <c r="G6" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="H6" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="I6" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H6" s="52">
+      <c r="J6" s="52">
         <v>1024</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="K6" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J6" s="52" t="s">
+      <c r="L6" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="52">
+      <c r="M6" s="52">
         <v>298</v>
-      </c>
-      <c r="L6" s="52">
-        <v>1</v>
-      </c>
-      <c r="M6" s="53" t="s">
-        <v>57</v>
       </c>
       <c r="N6" s="52">
         <v>1</v>
       </c>
-      <c r="O6" s="52">
+      <c r="O6" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="52">
         <v>5</v>
       </c>
-      <c r="P6" s="52">
+      <c r="R6" s="52">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
-      <c r="S6" s="54"/>
-      <c r="T6" s="55">
+      <c r="U6" s="54"/>
+      <c r="V6" s="55">
         <v>15.555</v>
       </c>
-      <c r="U6" s="52" t="s">
+      <c r="W6" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V6" s="52" t="s">
+      <c r="X6" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="W6" s="52">
+      <c r="Y6" s="52">
         <v>786.36199999999997</v>
       </c>
-      <c r="X6" s="52" t="s">
+      <c r="Z6" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Y6" s="56" t="s">
+      <c r="AA6" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="Z6" s="60">
+      <c r="AB6" s="60">
         <v>0.33310000000000001</v>
       </c>
-      <c r="AA6" s="53" t="s">
+      <c r="AC6" s="53" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="7" spans="2:27" s="52" customFormat="1">
+    <row r="7" spans="2:29" s="52" customFormat="1">
       <c r="B7" s="52" t="s">
         <v>151</v>
       </c>
       <c r="C7" s="52">
         <v>4</v>
       </c>
-      <c r="D7" s="58">
+      <c r="F7" s="58">
         <v>1.1499999999999999</v>
       </c>
-      <c r="E7" s="59">
+      <c r="G7" s="59">
         <v>1.1499999999999999</v>
       </c>
-      <c r="F7" s="59">
+      <c r="H7" s="59">
         <v>1.05</v>
       </c>
-      <c r="G7" s="52" t="s">
+      <c r="I7" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="52">
+      <c r="J7" s="52">
         <v>1024</v>
       </c>
-      <c r="I7" s="52" t="s">
+      <c r="K7" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J7" s="52" t="s">
+      <c r="L7" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="52">
+      <c r="M7" s="52">
         <v>298</v>
-      </c>
-      <c r="L7" s="52">
-        <v>1</v>
-      </c>
-      <c r="M7" s="53" t="s">
-        <v>57</v>
       </c>
       <c r="N7" s="52">
         <v>1</v>
       </c>
-      <c r="O7" s="52">
+      <c r="O7" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="52">
         <v>5</v>
       </c>
-      <c r="P7" s="52">
-        <f t="shared" ref="P7:P8" si="1">1000000*O7/N7</f>
+      <c r="R7" s="52">
+        <f t="shared" ref="R7:R8" si="1">1000000*Q7/P7</f>
         <v>5000000</v>
       </c>
-      <c r="S7" s="54"/>
-      <c r="T7" s="55">
+      <c r="U7" s="54"/>
+      <c r="V7" s="55">
         <v>14.615</v>
       </c>
-      <c r="U7" s="52" t="s">
+      <c r="W7" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V7" s="52" t="s">
+      <c r="X7" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="W7" s="52">
+      <c r="Y7" s="52">
         <v>790.35900000000004</v>
       </c>
-      <c r="X7" s="52" t="s">
+      <c r="Z7" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Y7" s="56" t="s">
+      <c r="AA7" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="Z7" s="60">
+      <c r="AB7" s="60">
         <v>0.29289999999999999</v>
       </c>
-      <c r="AA7" s="52" t="s">
+      <c r="AC7" s="52" t="s">
         <v>153</v>
       </c>
     </row>
-    <row r="8" spans="2:27" s="52" customFormat="1">
+    <row r="8" spans="2:29" s="52" customFormat="1">
       <c r="C8" s="52">
         <v>4</v>
       </c>
-      <c r="D8" s="59">
-        <v>1.05</v>
-      </c>
-      <c r="E8" s="59">
-        <v>1.05</v>
-      </c>
       <c r="F8" s="59">
         <v>1.05</v>
       </c>
-      <c r="G8" s="52" t="s">
+      <c r="G8" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="H8" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="I8" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H8" s="52">
+      <c r="J8" s="52">
         <v>1024</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="K8" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J8" s="52" t="s">
+      <c r="L8" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="52">
+      <c r="M8" s="52">
         <v>298</v>
-      </c>
-      <c r="L8" s="52">
-        <v>1</v>
-      </c>
-      <c r="M8" s="53" t="s">
-        <v>57</v>
       </c>
       <c r="N8" s="52">
         <v>1</v>
       </c>
-      <c r="O8" s="52">
+      <c r="O8" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="52">
         <v>5</v>
       </c>
-      <c r="P8" s="52">
+      <c r="R8" s="52">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
-      <c r="S8" s="54"/>
-      <c r="T8" s="55">
+      <c r="U8" s="54"/>
+      <c r="V8" s="55">
         <v>16.268999999999998</v>
       </c>
-      <c r="U8" s="52" t="s">
+      <c r="W8" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V8" s="52" t="s">
+      <c r="X8" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="W8" s="52">
+      <c r="Y8" s="52">
         <v>790.34900000000005</v>
       </c>
-      <c r="X8" s="52" t="s">
+      <c r="Z8" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Y8" s="56" t="s">
+      <c r="AA8" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="Z8" s="60">
+      <c r="AB8" s="60">
         <v>0.30399999999999999</v>
       </c>
-      <c r="AA8" s="52" t="s">
+      <c r="AC8" s="52" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="9" spans="2:27" s="52" customFormat="1">
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
+    <row r="9" spans="2:29" s="52" customFormat="1">
       <c r="F9" s="59"/>
-      <c r="S9" s="54"/>
-      <c r="T9" s="55"/>
-      <c r="Z9" s="60"/>
-    </row>
-    <row r="10" spans="2:27" s="52" customFormat="1">
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
+      <c r="AB9" s="60"/>
+    </row>
+    <row r="10" spans="2:29" s="52" customFormat="1">
       <c r="B10" s="52" t="s">
         <v>167</v>
       </c>
       <c r="C10" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D10" s="59">
-        <v>1.05</v>
-      </c>
-      <c r="E10" s="59">
-        <v>1.05</v>
-      </c>
       <c r="F10" s="59">
         <v>1.05</v>
       </c>
-      <c r="G10" s="52" t="s">
+      <c r="G10" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="H10" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="I10" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H10" s="52">
+      <c r="J10" s="52">
         <v>1024</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="K10" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J10" s="52" t="s">
+      <c r="L10" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="52">
+      <c r="M10" s="52">
         <v>298</v>
-      </c>
-      <c r="L10" s="52">
-        <v>1</v>
-      </c>
-      <c r="M10" s="53" t="s">
-        <v>57</v>
       </c>
       <c r="N10" s="52">
         <v>1</v>
       </c>
-      <c r="O10" s="52">
+      <c r="O10" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="52">
         <v>5</v>
       </c>
-      <c r="P10" s="52">
-        <f t="shared" ref="P10" si="2">1000000*O10/N10</f>
+      <c r="R10" s="52">
+        <f t="shared" ref="R10" si="2">1000000*Q10/P10</f>
         <v>5000000</v>
       </c>
-      <c r="S10" s="54"/>
-      <c r="T10" s="55">
+      <c r="U10" s="54"/>
+      <c r="V10" s="55">
         <v>40.869</v>
       </c>
-      <c r="U10" s="52" t="s">
+      <c r="W10" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V10" s="52" t="s">
+      <c r="X10" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="W10" s="52">
+      <c r="Y10" s="52">
         <v>787.04600000000005</v>
       </c>
-      <c r="X10" s="52" t="s">
+      <c r="Z10" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Y10" s="56" t="s">
+      <c r="AA10" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="Z10" s="60">
+      <c r="AB10" s="60">
         <v>0.31109999999999999</v>
       </c>
-      <c r="AA10" s="52" t="s">
+      <c r="AC10" s="52" t="s">
         <v>155</v>
       </c>
     </row>
-    <row r="11" spans="2:27" s="52" customFormat="1">
+    <row r="11" spans="2:29" s="52" customFormat="1">
       <c r="B11" s="52" t="s">
         <v>171</v>
       </c>
       <c r="C11" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D11" s="58">
+      <c r="F11" s="58">
         <v>1.05</v>
       </c>
-      <c r="E11" s="59">
+      <c r="G11" s="59">
         <v>1.05</v>
       </c>
-      <c r="F11" s="59">
+      <c r="H11" s="59">
         <v>1</v>
       </c>
-      <c r="G11" s="52" t="s">
+      <c r="I11" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H11" s="52">
+      <c r="J11" s="52">
         <v>1024</v>
       </c>
-      <c r="I11" s="52" t="s">
+      <c r="K11" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J11" s="52" t="s">
+      <c r="L11" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="52">
+      <c r="M11" s="52">
         <v>298</v>
-      </c>
-      <c r="L11" s="52">
-        <v>1</v>
-      </c>
-      <c r="M11" s="53" t="s">
-        <v>57</v>
       </c>
       <c r="N11" s="52">
         <v>1</v>
       </c>
-      <c r="O11" s="52">
+      <c r="O11" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="52">
         <v>5</v>
       </c>
-      <c r="P11" s="52">
-        <f t="shared" ref="P11" si="3">1000000*O11/N11</f>
+      <c r="R11" s="52">
+        <f t="shared" ref="R11" si="3">1000000*Q11/P11</f>
         <v>5000000</v>
       </c>
-      <c r="S11" s="54"/>
-      <c r="T11" s="55"/>
-      <c r="U11" s="52" t="s">
+      <c r="U11" s="54"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V11" s="52" t="s">
+      <c r="X11" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="X11" s="52" t="s">
+      <c r="Z11" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Y11" s="56" t="s">
+      <c r="AA11" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="Z11" s="60"/>
-    </row>
-    <row r="12" spans="2:27" s="52" customFormat="1">
+      <c r="AB11" s="60"/>
+    </row>
+    <row r="12" spans="2:29" s="52" customFormat="1">
       <c r="B12" s="52" t="s">
         <v>170</v>
       </c>
       <c r="C12" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D12" s="59">
-        <v>1</v>
-      </c>
-      <c r="E12" s="59">
-        <v>1</v>
-      </c>
       <c r="F12" s="59">
         <v>1</v>
       </c>
-      <c r="G12" s="52" t="s">
+      <c r="G12" s="59">
+        <v>1</v>
+      </c>
+      <c r="H12" s="59">
+        <v>1</v>
+      </c>
+      <c r="I12" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H12" s="52">
+      <c r="J12" s="52">
         <v>1024</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="K12" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J12" s="52" t="s">
+      <c r="L12" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="52">
+      <c r="M12" s="52">
         <v>298</v>
-      </c>
-      <c r="L12" s="52">
-        <v>1</v>
-      </c>
-      <c r="M12" s="53" t="s">
-        <v>57</v>
       </c>
       <c r="N12" s="52">
         <v>1</v>
       </c>
-      <c r="O12" s="52">
+      <c r="O12" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="52">
         <v>5</v>
       </c>
-      <c r="P12" s="52">
-        <f t="shared" ref="P12" si="4">1000000*O12/N12</f>
+      <c r="R12" s="52">
+        <f t="shared" ref="R12" si="4">1000000*Q12/P12</f>
         <v>5000000</v>
       </c>
-      <c r="S12" s="54"/>
-      <c r="T12" s="55"/>
-      <c r="U12" s="52" t="s">
+      <c r="U12" s="54"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V12" s="52" t="s">
+      <c r="X12" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="X12" s="52" t="s">
+      <c r="Z12" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Y12" s="56" t="s">
+      <c r="AA12" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="Z12" s="60"/>
-    </row>
-    <row r="13" spans="2:27" s="52" customFormat="1">
+      <c r="AB12" s="60"/>
+    </row>
+    <row r="13" spans="2:29" s="52" customFormat="1">
       <c r="B13" s="53" t="s">
         <v>172</v>
       </c>
       <c r="C13" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D13" s="58">
+      <c r="F13" s="58">
         <v>1.05</v>
       </c>
-      <c r="E13" s="59">
+      <c r="G13" s="59">
         <v>1.05</v>
       </c>
-      <c r="F13" s="59">
+      <c r="H13" s="59">
         <v>1.05</v>
       </c>
-      <c r="G13" s="52" t="s">
+      <c r="I13" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="52">
+      <c r="J13" s="52">
         <v>1024</v>
       </c>
-      <c r="I13" s="52" t="s">
+      <c r="K13" s="52" t="s">
         <v>101</v>
       </c>
-      <c r="J13" s="52" t="s">
+      <c r="L13" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="52">
+      <c r="M13" s="52">
         <v>298</v>
-      </c>
-      <c r="L13" s="52">
-        <v>1</v>
-      </c>
-      <c r="M13" s="53" t="s">
-        <v>57</v>
       </c>
       <c r="N13" s="52">
         <v>1</v>
       </c>
-      <c r="O13" s="52">
+      <c r="O13" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="52">
         <v>5</v>
       </c>
-      <c r="P13" s="52">
-        <f t="shared" ref="P13:P15" si="5">1000000*O13/N13</f>
+      <c r="R13" s="52">
+        <f t="shared" ref="R13:R15" si="5">1000000*Q13/P13</f>
         <v>5000000</v>
       </c>
-      <c r="S13" s="54"/>
-      <c r="T13" s="55">
+      <c r="U13" s="54"/>
+      <c r="V13" s="55">
         <v>19.827999999999999</v>
       </c>
-      <c r="U13" s="52" t="s">
+      <c r="W13" s="52" t="s">
         <v>23</v>
       </c>
-      <c r="V13" s="52" t="s">
+      <c r="X13" s="52" t="s">
         <v>137</v>
       </c>
-      <c r="W13" s="52">
+      <c r="Y13" s="52">
         <v>786.56299999999999</v>
       </c>
-      <c r="X13" s="52" t="s">
+      <c r="Z13" s="52" t="s">
         <v>26</v>
       </c>
-      <c r="Y13" s="56" t="s">
+      <c r="AA13" s="56" t="s">
         <v>137</v>
       </c>
-      <c r="Z13" s="60">
+      <c r="AB13" s="60">
         <v>0.31119999999999998</v>
       </c>
-      <c r="AA13" s="52" t="s">
+      <c r="AC13" s="52" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="14" spans="2:27" s="52" customFormat="1">
-      <c r="D14" s="59"/>
-      <c r="E14" s="59"/>
+    <row r="14" spans="2:29" s="52" customFormat="1">
       <c r="F14" s="59"/>
-      <c r="S14" s="54"/>
-      <c r="T14" s="55"/>
-      <c r="Z14" s="60"/>
-    </row>
-    <row r="15" spans="2:27" s="52" customFormat="1">
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="55"/>
+      <c r="AB14" s="60"/>
+    </row>
+    <row r="15" spans="2:29" s="52" customFormat="1">
       <c r="B15" s="52" t="s">
         <v>166</v>
       </c>
       <c r="C15" s="52" t="s">
         <v>165</v>
       </c>
-      <c r="D15" s="59">
-        <v>1</v>
-      </c>
-      <c r="E15" s="59">
-        <v>1</v>
-      </c>
       <c r="F15" s="59">
         <v>1</v>
       </c>
-      <c r="G15" s="52" t="s">
+      <c r="G15" s="59">
+        <v>1</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="52" t="s">
         <v>44</v>
       </c>
-      <c r="H15" s="52">
+      <c r="J15" s="52">
         <v>1024</v>
       </c>
-      <c r="I15" s="52" t="s">
+      <c r="K15" s="52" t="s">
         <v>164</v>
       </c>
-      <c r="J15" s="52" t="s">
+      <c r="L15" s="52" t="s">
         <v>7</v>
-      </c>
-      <c r="L15" s="52">
-        <v>1</v>
       </c>
       <c r="N15" s="52">
         <v>1</v>
       </c>
-      <c r="O15" s="52">
+      <c r="P15" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="52">
         <v>100</v>
       </c>
-      <c r="P15" s="52">
+      <c r="R15" s="52">
         <f t="shared" si="5"/>
         <v>100000000</v>
       </c>
-      <c r="S15" s="54"/>
-      <c r="T15" s="55"/>
-      <c r="Z15" s="60"/>
-    </row>
-    <row r="17" spans="2:26" s="20" customFormat="1">
+      <c r="U15" s="54"/>
+      <c r="V15" s="55"/>
+      <c r="AB15" s="60"/>
+    </row>
+    <row r="17" spans="2:29" s="20" customFormat="1">
       <c r="B17" s="20" t="s">
         <v>173</v>
       </c>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
       <c r="F17" s="24"/>
-      <c r="S17" s="27"/>
-      <c r="T17" s="49"/>
-      <c r="V17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="39"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="49"/>
+      <c r="X17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="39"/>
+    </row>
+    <row r="18" spans="2:29" s="77" customFormat="1">
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="79"/>
+      <c r="AB18" s="80"/>
+    </row>
+    <row r="19" spans="2:29" s="77" customFormat="1">
+      <c r="B19" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G19" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H19" s="76">
+        <v>1</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M19" s="77">
+        <v>298</v>
+      </c>
+      <c r="N19" s="77">
+        <v>1</v>
+      </c>
+      <c r="U19" s="78"/>
+      <c r="V19" s="79"/>
+      <c r="AB19" s="80"/>
+    </row>
+    <row r="20" spans="2:29" s="77" customFormat="1">
+      <c r="B20" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G20" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H20" s="76">
+        <v>1</v>
+      </c>
+      <c r="I20" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M20" s="77">
+        <v>298</v>
+      </c>
+      <c r="N20" s="77">
+        <v>1</v>
+      </c>
+      <c r="U20" s="78"/>
+      <c r="V20" s="79"/>
+      <c r="AB20" s="80"/>
+    </row>
+    <row r="21" spans="2:29" s="77" customFormat="1">
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="79"/>
+      <c r="AB21" s="80"/>
+    </row>
+    <row r="22" spans="2:29" s="77" customFormat="1">
+      <c r="C22" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G22" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H22" s="76">
+        <v>1</v>
+      </c>
+      <c r="I22" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M22" s="77">
+        <v>298</v>
+      </c>
+      <c r="N22" s="77">
+        <v>1</v>
+      </c>
+      <c r="U22" s="78"/>
+      <c r="V22" s="79"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" s="77" customFormat="1">
+      <c r="C23" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G23" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H23" s="76">
+        <v>1</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M23" s="77">
+        <v>298</v>
+      </c>
+      <c r="N23" s="77">
+        <v>1</v>
+      </c>
+      <c r="U23" s="78"/>
+      <c r="V23" s="79"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="77" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" s="77" customFormat="1">
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="79"/>
+      <c r="AB24" s="80"/>
+    </row>
+    <row r="25" spans="2:29" s="77" customFormat="1">
+      <c r="B25" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G25" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H25" s="76">
+        <v>1</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M25" s="77">
+        <v>298</v>
+      </c>
+      <c r="N25" s="77">
+        <v>1</v>
+      </c>
+      <c r="U25" s="78"/>
+      <c r="V25" s="79"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" s="77" customFormat="1">
+      <c r="B26" s="77" t="s">
+        <v>234</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G26" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H26" s="76">
+        <v>1</v>
+      </c>
+      <c r="I26" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M26" s="77">
+        <v>298</v>
+      </c>
+      <c r="N26" s="77">
+        <v>1</v>
+      </c>
+      <c r="U26" s="78"/>
+      <c r="V26" s="79"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="77" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" s="77" customFormat="1">
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="79"/>
+      <c r="AB27" s="80"/>
+    </row>
+    <row r="28" spans="2:29" s="77" customFormat="1">
+      <c r="C28" s="77">
+        <v>4</v>
+      </c>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="79"/>
+      <c r="AB28" s="80"/>
+    </row>
+    <row r="29" spans="2:29" s="77" customFormat="1">
+      <c r="C29" s="77">
+        <v>7</v>
+      </c>
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="79"/>
+      <c r="AB29" s="80"/>
+    </row>
+    <row r="30" spans="2:29" s="77" customFormat="1">
+      <c r="F30" s="76"/>
+      <c r="G30" s="76"/>
+      <c r="H30" s="76"/>
+      <c r="U30" s="78"/>
+      <c r="V30" s="79"/>
+      <c r="AB30" s="80"/>
+    </row>
+    <row r="31" spans="2:29" s="77" customFormat="1">
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="79"/>
+      <c r="AB31" s="80"/>
+    </row>
+    <row r="32" spans="2:29" s="77" customFormat="1">
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="79"/>
+      <c r="AB32" s="80"/>
+    </row>
+    <row r="33" spans="6:28" s="77" customFormat="1">
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="79"/>
+      <c r="AB33" s="80"/>
+    </row>
+    <row r="34" spans="6:28" s="77" customFormat="1">
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="79"/>
+      <c r="AB34" s="80"/>
+    </row>
+    <row r="35" spans="6:28" s="77" customFormat="1">
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="79"/>
+      <c r="AB35" s="80"/>
+    </row>
+    <row r="36" spans="6:28" s="77" customFormat="1">
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="79"/>
+      <c r="AB36" s="80"/>
+    </row>
+    <row r="37" spans="6:28" s="77" customFormat="1">
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="79"/>
+      <c r="AB37" s="80"/>
+    </row>
+    <row r="38" spans="6:28" s="77" customFormat="1">
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="79"/>
+      <c r="AB38" s="80"/>
+    </row>
+    <row r="39" spans="6:28" s="77" customFormat="1">
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="79"/>
+      <c r="AB39" s="80"/>
+    </row>
+    <row r="40" spans="6:28" s="77" customFormat="1">
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="79"/>
+      <c r="AB40" s="80"/>
+    </row>
+    <row r="41" spans="6:28" s="77" customFormat="1">
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="79"/>
+      <c r="AB41" s="80"/>
+    </row>
+    <row r="42" spans="6:28" s="77" customFormat="1">
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="79"/>
+      <c r="AB42" s="80"/>
+    </row>
+    <row r="43" spans="6:28" s="77" customFormat="1">
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="79"/>
+      <c r="AB43" s="80"/>
+    </row>
+    <row r="44" spans="6:28" s="77" customFormat="1">
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="79"/>
+      <c r="AB44" s="80"/>
+    </row>
+    <row r="45" spans="6:28" s="77" customFormat="1">
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="U45" s="78"/>
+      <c r="V45" s="79"/>
+      <c r="AB45" s="80"/>
+    </row>
+    <row r="46" spans="6:28" s="77" customFormat="1">
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="U46" s="78"/>
+      <c r="V46" s="79"/>
+      <c r="AB46" s="80"/>
+    </row>
+    <row r="47" spans="6:28" s="77" customFormat="1">
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="U47" s="78"/>
+      <c r="V47" s="79"/>
+      <c r="AB47" s="80"/>
+    </row>
+    <row r="48" spans="6:28" s="77" customFormat="1">
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="79"/>
+      <c r="AB48" s="80"/>
+    </row>
+    <row r="49" spans="6:28" s="77" customFormat="1">
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="79"/>
+      <c r="AB49" s="80"/>
+    </row>
+    <row r="50" spans="6:28" s="77" customFormat="1">
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="79"/>
+      <c r="AB50" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="Q3:S3"/>
-    <mergeCell ref="U3:AA3"/>
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6815,20 +7525,20 @@
       <selection activeCell="X13" sqref="X13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="3.83203125" style="19" customWidth="1"/>
     <col min="2" max="2" width="58.5" style="19" customWidth="1"/>
     <col min="3" max="3" width="12" style="19" customWidth="1"/>
-    <col min="4" max="4" width="11.125" style="19" customWidth="1"/>
-    <col min="5" max="5" width="8.375" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.1640625" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.33203125" style="19" customWidth="1"/>
     <col min="6" max="6" width="18" style="19" customWidth="1"/>
-    <col min="7" max="12" width="10.875" style="19"/>
-    <col min="13" max="13" width="11.125" style="19" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="12.875" style="19" customWidth="1"/>
+    <col min="7" max="12" width="10.83203125" style="19"/>
+    <col min="13" max="13" width="11.1640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.83203125" style="19" customWidth="1"/>
     <col min="15" max="15" width="10.5" style="19" customWidth="1"/>
-    <col min="16" max="16" width="8.375" style="26" customWidth="1"/>
-    <col min="17" max="17" width="10.875" style="48"/>
+    <col min="16" max="16" width="8.33203125" style="26" customWidth="1"/>
+    <col min="17" max="17" width="10.83203125" style="48"/>
     <col min="18" max="18" width="9" style="19" customWidth="1"/>
     <col min="19" max="19" width="9" style="32" customWidth="1"/>
     <col min="20" max="21" width="9" style="19" customWidth="1"/>
@@ -6836,7 +7546,7 @@
     <col min="23" max="23" width="9" style="38" customWidth="1"/>
     <col min="24" max="24" width="47" style="19" customWidth="1"/>
     <col min="25" max="25" width="34" style="19" customWidth="1"/>
-    <col min="26" max="16384" width="10.875" style="19"/>
+    <col min="26" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:25">
@@ -6849,20 +7559,20 @@
       <c r="L3" s="19" t="s">
         <v>87</v>
       </c>
-      <c r="N3" s="64" t="s">
+      <c r="N3" s="81" t="s">
         <v>82</v>
       </c>
-      <c r="O3" s="64"/>
-      <c r="P3" s="65"/>
-      <c r="R3" s="64" t="s">
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
+      <c r="R3" s="81" t="s">
         <v>103</v>
       </c>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
     </row>
     <row r="4" spans="2:25" s="20" customFormat="1">
       <c r="B4" s="20" t="s">
@@ -7128,13 +7838,13 @@
       <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="7" width="10.875" style="19"/>
-    <col min="8" max="8" width="10.875" style="21"/>
-    <col min="9" max="10" width="10.875" style="23"/>
-    <col min="11" max="11" width="10.875" style="28"/>
-    <col min="12" max="16384" width="10.875" style="19"/>
+    <col min="1" max="7" width="10.83203125" style="19"/>
+    <col min="8" max="8" width="10.83203125" style="21"/>
+    <col min="9" max="10" width="10.83203125" style="23"/>
+    <col min="11" max="11" width="10.83203125" style="28"/>
+    <col min="12" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:11">
@@ -7349,42 +8059,42 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16"/>
   <cols>
-    <col min="1" max="4" width="10.875" style="19"/>
-    <col min="5" max="5" width="10.875" style="34"/>
-    <col min="6" max="6" width="10.875" style="36"/>
-    <col min="7" max="7" width="12.125" style="38" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="34" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="43" customWidth="1"/>
-    <col min="10" max="11" width="10.875" style="38"/>
-    <col min="12" max="16384" width="10.875" style="19"/>
+    <col min="1" max="4" width="10.83203125" style="19"/>
+    <col min="5" max="5" width="10.83203125" style="34"/>
+    <col min="6" max="6" width="10.83203125" style="36"/>
+    <col min="7" max="7" width="12.1640625" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.1640625" style="34" customWidth="1"/>
+    <col min="9" max="9" width="15.6640625" style="43" customWidth="1"/>
+    <col min="10" max="11" width="10.83203125" style="38"/>
+    <col min="12" max="16384" width="10.83203125" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="I1" s="66" t="s">
+      <c r="I1" s="83" t="s">
         <v>123</v>
       </c>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="C2" s="64" t="s">
+      <c r="C2" s="81" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="64"/>
+      <c r="D2" s="81"/>
       <c r="F2" s="36" t="s">
         <v>119</v>
       </c>
-      <c r="I2" s="66" t="s">
+      <c r="I2" s="83" t="s">
         <v>121</v>
       </c>
-      <c r="J2" s="66"/>
-      <c r="K2" s="66"/>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
       <c r="L2" s="19" t="s">
         <v>122</v>
       </c>
@@ -7803,35 +8513,35 @@
       <selection activeCell="T48" sqref="T48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="7.83203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="4" width="7.875" style="4"/>
-    <col min="5" max="5" width="7.875" style="7"/>
-    <col min="6" max="7" width="7.875" style="4"/>
-    <col min="8" max="12" width="3.625" style="10" customWidth="1"/>
+    <col min="2" max="4" width="7.83203125" style="4"/>
+    <col min="5" max="5" width="7.83203125" style="7"/>
+    <col min="6" max="7" width="7.83203125" style="4"/>
+    <col min="8" max="12" width="3.6640625" style="10" customWidth="1"/>
     <col min="13" max="13" width="5" style="4" customWidth="1"/>
-    <col min="14" max="19" width="7.875" style="4"/>
-    <col min="20" max="24" width="3.625" style="10" customWidth="1"/>
+    <col min="14" max="19" width="7.83203125" style="4"/>
+    <col min="20" max="24" width="3.6640625" style="10" customWidth="1"/>
     <col min="25" max="25" width="5" style="4" customWidth="1"/>
-    <col min="26" max="28" width="7.875" style="4"/>
-    <col min="29" max="29" width="7.875" style="7"/>
-    <col min="30" max="30" width="7.875" style="8"/>
-    <col min="31" max="31" width="7.875" style="4"/>
-    <col min="32" max="36" width="3.625" style="10" customWidth="1"/>
+    <col min="26" max="28" width="7.83203125" style="4"/>
+    <col min="29" max="29" width="7.83203125" style="7"/>
+    <col min="30" max="30" width="7.83203125" style="8"/>
+    <col min="31" max="31" width="7.83203125" style="4"/>
+    <col min="32" max="36" width="3.6640625" style="10" customWidth="1"/>
     <col min="37" max="37" width="5" style="4" customWidth="1"/>
-    <col min="38" max="39" width="7.875" style="4"/>
-    <col min="40" max="40" width="7.875" style="12"/>
-    <col min="41" max="41" width="7.875" style="4"/>
-    <col min="42" max="42" width="7.875" style="8"/>
-    <col min="43" max="43" width="7.875" style="4"/>
-    <col min="44" max="48" width="3.625" style="10" customWidth="1"/>
+    <col min="38" max="39" width="7.83203125" style="4"/>
+    <col min="40" max="40" width="7.83203125" style="12"/>
+    <col min="41" max="41" width="7.83203125" style="4"/>
+    <col min="42" max="42" width="7.83203125" style="8"/>
+    <col min="43" max="43" width="7.83203125" style="4"/>
+    <col min="44" max="48" width="3.6640625" style="10" customWidth="1"/>
     <col min="49" max="49" width="5" style="4" customWidth="1"/>
-    <col min="50" max="53" width="7.875" style="4"/>
-    <col min="54" max="54" width="7.875" style="8"/>
-    <col min="55" max="55" width="7.875" style="4"/>
-    <col min="56" max="60" width="3.625" style="10" customWidth="1"/>
-    <col min="61" max="16384" width="7.875" style="4"/>
+    <col min="50" max="53" width="7.83203125" style="4"/>
+    <col min="54" max="54" width="7.83203125" style="8"/>
+    <col min="55" max="55" width="7.83203125" style="4"/>
+    <col min="56" max="60" width="3.6640625" style="10" customWidth="1"/>
+    <col min="61" max="16384" width="7.83203125" style="4"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:55" ht="15" customHeight="1">
@@ -7843,54 +8553,54 @@
       <c r="B2" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C2" s="67" t="s">
+      <c r="C2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="68" t="s">
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
       <c r="N2" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="O2" s="67" t="s">
+      <c r="O2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
       <c r="Z2" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="AA2" s="67" t="s">
+      <c r="AA2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
       <c r="AL2" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="AM2" s="67" t="s">
+      <c r="AM2" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="AN2" s="67"/>
-      <c r="AO2" s="67"/>
-      <c r="AP2" s="67"/>
-      <c r="AQ2" s="67"/>
-      <c r="AY2" s="69" t="s">
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AY2" s="86" t="s">
         <v>22</v>
       </c>
-      <c r="AZ2" s="69"/>
+      <c r="AZ2" s="86"/>
       <c r="BA2" s="15"/>
       <c r="BB2" s="15"/>
       <c r="BC2" s="15"/>
@@ -9004,13 +9714,13 @@
       <c r="B18" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="67" t="s">
+      <c r="C18" s="84" t="s">
         <v>19</v>
       </c>
-      <c r="D18" s="67"/>
-      <c r="E18" s="67"/>
-      <c r="F18" s="67"/>
-      <c r="G18" s="67"/>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
     </row>
     <row r="19" spans="2:43" ht="15" customHeight="1">
       <c r="B19" s="17" t="s">

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -1,3 +1,1300 @@
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="245">
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Length (ns)</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Equilibrium properties</t>
+  </si>
+  <si>
+    <t>NPT</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>gmx energy</t>
+  </si>
+  <si>
+    <t>Diffusion coeff.</t>
+  </si>
+  <si>
+    <t>gmx msd</t>
+  </si>
+  <si>
+    <t>NVT-interface</t>
+  </si>
+  <si>
+    <t>Surface tension</t>
+  </si>
+  <si>
+    <t>Water interface tension</t>
+  </si>
+  <si>
+    <t>Viscosity</t>
+  </si>
+  <si>
+    <t>Melting point (hysteresis method)</t>
+  </si>
+  <si>
+    <t>Melting point (dihedral evolution method)</t>
+  </si>
+  <si>
+    <t>Pressure-induced phase change</t>
+  </si>
+  <si>
+    <t>Temperature (°C)</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Self diffusion coefficient</t>
+  </si>
+  <si>
+    <t>Melting temperature</t>
+  </si>
+  <si>
+    <t>ρ</t>
+  </si>
+  <si>
+    <t>η</t>
+  </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Tmelt (K)</t>
+  </si>
+  <si>
+    <t>Tmelt (°C)</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Old layout:</t>
+  </si>
+  <si>
+    <t>mPa.s</t>
+  </si>
+  <si>
+    <t>mN/m</t>
+  </si>
+  <si>
+    <t>1E-9m2/s</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>melt</t>
+    </r>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>15C</t>
+  </si>
+  <si>
+    <t>20C</t>
+  </si>
+  <si>
+    <t>25C</t>
+  </si>
+  <si>
+    <t>30C</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Refs</t>
+  </si>
+  <si>
+    <t>Tofts, P. S., et al. "Test liquids for quantitative MRI measurements of self‐diffusion coefficient in vivo." Magnetic Resonance in Medicine: An Official Journal of the International Society for Magnetic Resonance in Medicine 43.3 (2000): 368-374.</t>
+  </si>
+  <si>
+    <t>Jasper, Joseph J., E. Robert Kerr, and Frederick Gregorich. "The Orthobaric Surface Tensions and Thermodynamic Properties of the Liquid Surfaces of the n—Alkanes, C5 to C28." Journal of the American Chemical Society 75.21 (1953): 5252-5254.</t>
+  </si>
+  <si>
+    <t>Jasper, Joseph J. "The surface tension of pure liquid compounds." Journal of physical and chemical reference data 1.4 (1972): 841-1010.</t>
+  </si>
+  <si>
+    <t>Dymond, J. H., and H. A. O/ye. "Viscosity of selected liquid n‐alkanes." Journal of physical and chemical reference data 23.1 (1994): 41-53.</t>
+  </si>
+  <si>
+    <t>Ramos-Estrada, Mariana, Gustavo A. Iglesias-Silva, and Kenneth R. Hall. "Experimental measurements and prediction of liquid densities for n-alkane mixtures." The Journal of Chemical Thermodynamics 38.3 (2006): 337-347.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>kg/mol</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>nm3</t>
+  </si>
+  <si>
+    <t>Buffer/Tol</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>Angstom</t>
+  </si>
+  <si>
+    <t>Cos-acceleration viscosity (NEMD)</t>
+  </si>
+  <si>
+    <t>Has to average pressure tensor, which fluctuates a lot</t>
+  </si>
+  <si>
+    <t>Characteristic time scale L^2/ν, velocity profile has to equilibrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not used before, </t>
+  </si>
+  <si>
+    <t>Chronological list of simulations</t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Annealing schedule</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC16_measure_properties</t>
+  </si>
+  <si>
+    <t>T (K)</t>
+  </si>
+  <si>
+    <t>P (bar)</t>
+  </si>
+  <si>
+    <t>t (ns)</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>Δt (fs)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>cos-acc</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC16_anneal_340-240-340K_100ns_x2</t>
+  </si>
+  <si>
+    <t>n-alkane</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>340-240-340</t>
+  </si>
+  <si>
+    <t>0-50-100</t>
+  </si>
+  <si>
+    <t>Temps (K)</t>
+  </si>
+  <si>
+    <t>Times (ns)</t>
+  </si>
+  <si>
+    <t>Density, Diffusion</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC15_measure_properties</t>
+  </si>
+  <si>
+    <t>Density, diffusion</t>
+  </si>
+  <si>
+    <t>NVT</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Prop.</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>t range</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>6,10</t>
+  </si>
+  <si>
+    <t>4,10</t>
+  </si>
+  <si>
+    <t>T cycle (large range)</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC15_anneal_340-240-340K_100ns_x2</t>
+  </si>
+  <si>
+    <t>-mol; Std. Dev. = 0.3693 Error = 0.0115</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC8_measure_properties</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>Experimental values</t>
+  </si>
+  <si>
+    <t>η (mPs)</t>
+  </si>
+  <si>
+    <t>ρ (kg/m3)</t>
+  </si>
+  <si>
+    <t>max shear</t>
+  </si>
+  <si>
+    <t>(ps-1)</t>
+  </si>
+  <si>
+    <t>Lz (nm)</t>
+  </si>
+  <si>
+    <t>4ns</t>
+  </si>
+  <si>
+    <t>10ns</t>
+  </si>
+  <si>
+    <t>Viscosity (from MD)</t>
+  </si>
+  <si>
+    <t>x10 nst energy</t>
+  </si>
+  <si>
+    <t>τ_R (ps)</t>
+  </si>
+  <si>
+    <t>L_packmol</t>
+  </si>
+  <si>
+    <t>8ns @ a=0.01</t>
+  </si>
+  <si>
+    <t>Var run time NPT</t>
+  </si>
+  <si>
+    <t>Var run time NVT</t>
+  </si>
+  <si>
+    <t>Coulomb</t>
+  </si>
+  <si>
+    <t>RF0</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>rlist</t>
+  </si>
+  <si>
+    <t>rcoulomb</t>
+  </si>
+  <si>
+    <t>rvdw</t>
+  </si>
+  <si>
+    <t>COMPASS_PME-vs-RF0_1024xC16_298K_1bar_tests</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>CG = charge groups</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2346 Std. Dev. = 0.1910 Error = 0.0060</t>
+  </si>
+  <si>
+    <t>RF0, CGs</t>
+  </si>
+  <si>
+    <t>PME, CGs</t>
+  </si>
+  <si>
+    <t>ns/day</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2481 Std. Dev. = 0.2071 Error = 0.0065</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2143 Std. Dev. = 0.1602 Error = 0.0050</t>
+  </si>
+  <si>
+    <t>Error logs</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2478 Std. Dev. = 0.1982 Error = 0.0062</t>
+  </si>
+  <si>
+    <t>Good balance of accuracy and speed</t>
+  </si>
+  <si>
+    <t>Param set.</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3342 Std. Dev. = 0.2569 Error = 0.0080</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3256 Std. Dev. = 0.2601 Error = 0.0081</t>
+  </si>
+  <si>
+    <t>FlexWilliams4_1024xC16_298K_1bar_tests</t>
+  </si>
+  <si>
+    <t>FlexWilliams7_1024xC16_298K_1bar_tests</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2950 Std. Dev. = 0.2232 Error = 0.0070</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3029 Std. Dev. = 0.2292 Error = 0.0072</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3124 Std. Dev. = 0.2604 Error = 0.0081</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3137 Std. Dev. = 0.2464 Error = 0.0077</t>
+  </si>
+  <si>
+    <t>CHARMM36_1024xC16_298K_1bar_tests</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2665 Std. Dev. = 0.1961 Error = 0.0061</t>
+  </si>
+  <si>
+    <t>atom types</t>
+  </si>
+  <si>
+    <t>CTL, HAL</t>
+  </si>
+  <si>
+    <t>CG, HGA</t>
+  </si>
+  <si>
+    <t>GPU-101_CHARMM36-CTL_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1437 Std. Dev. = 0.1162 Error = 0.0036</t>
+  </si>
+  <si>
+    <t>Annealing</t>
+  </si>
+  <si>
+    <t>7T</t>
+  </si>
+  <si>
+    <t>FlexWilliams7T_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>FlexWilliams7T_1024xC16_298K_1bar_tests</t>
+  </si>
+  <si>
+    <t>T = tabulated</t>
+  </si>
+  <si>
+    <t>Lipid parameters seem better</t>
+  </si>
+  <si>
+    <t>Unbuffered 1.0nm</t>
+  </si>
+  <si>
+    <t>Buffered 1.05-1.0nm</t>
+  </si>
+  <si>
+    <t>0.001 nm table spacing</t>
+  </si>
+  <si>
+    <t>Correct sims below this line</t>
+  </si>
+  <si>
+    <t>N2</t>
+  </si>
+  <si>
+    <t>25 interp</t>
+  </si>
+  <si>
+    <t>Mixed phase evolution</t>
+  </si>
+  <si>
+    <t>TraPPE</t>
+  </si>
+  <si>
+    <t>PYS</t>
+  </si>
+  <si>
+    <t>CHARMM36</t>
+  </si>
+  <si>
+    <t>L-OPLS</t>
+  </si>
+  <si>
+    <t>Flex-Williams</t>
+  </si>
+  <si>
+    <t>Flex 9-6</t>
+  </si>
+  <si>
+    <t>Properties (NPT +  NVT interface)</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Input files prepared</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Results checked</t>
+  </si>
+  <si>
+    <r>
+      <t>Annealing (</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 50K)</t>
+    </r>
+  </si>
+  <si>
+    <t>Flex-Williams 4T</t>
+  </si>
+  <si>
+    <t>COMPASS</t>
+  </si>
+  <si>
+    <t>Force field notes</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>COMPASS 9-6</t>
+  </si>
+  <si>
+    <t>Trying to simplify COMPASS for Gromacs is probably a bad idea,</t>
+  </si>
+  <si>
+    <t>better to use the 9-6 non-bonded potential with a standard harmonic+dihedral bonding potential.</t>
+  </si>
+  <si>
+    <t>Outstanding problems</t>
+  </si>
+  <si>
+    <t>FlexWilliams</t>
+  </si>
+  <si>
+    <t>Simulation notes</t>
+  </si>
+  <si>
+    <t>Should test parameter versions 4 and 7.</t>
+  </si>
+  <si>
+    <t>Also test with and without C-H bond constraints.</t>
+  </si>
+  <si>
+    <t>After correcting bonding parameters, C16 now freezes at 298K so can't measure properties.</t>
+  </si>
+  <si>
+    <t>Possible solutions</t>
+  </si>
+  <si>
+    <t>Box volume fluctuates wildly - maybe a resonance effect.</t>
+  </si>
+  <si>
+    <t>Try changing time constant of pressure couping. Check FF parameters.</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>Try alternative bonding potential - needs to be dihedral potential without 1-4 interactions</t>
+  </si>
+  <si>
+    <t>Choice of time step</t>
+  </si>
+  <si>
+    <t>If we decide to fix C-H bonds (probable), then 1fs time step may be unnecessary</t>
+  </si>
+  <si>
+    <t>Stick with 1fs for the main all-atom sims, but do some with 2fs as tests or for longer runs when needed</t>
+  </si>
+  <si>
+    <t>▪ V4 Lincs version (C-H length fixed) seems better - avoids inaccuracies due to fast C-H vibration frequency? Still crystalizes at 298K given enough time.</t>
+  </si>
+  <si>
+    <t>▪ OPLS-UA torsion (as used by TraPPE) can be used if 1-5 CH and 1-6 HH interactions excluded (Chen, J. Phys. Chem. B 1998, 102, 2578)</t>
+  </si>
+  <si>
+    <t>Slow performance when using Buckingham potential instead of tabulated version</t>
+  </si>
+  <si>
+    <t>Try different Gromacs version</t>
+  </si>
+  <si>
+    <t>Flex Williams</t>
+  </si>
+  <si>
+    <t>Unclear which bonding potential to use</t>
+  </si>
+  <si>
+    <t>Just compare the simplified COMPASS to a generic alternative like OPLS</t>
+  </si>
+  <si>
+    <t>Production simulation ran</t>
+  </si>
+  <si>
+    <t>Testing ongoing</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>FlexWilliams4TL_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Das (2003)</t>
+  </si>
+  <si>
+    <t>FlexWilliams7TL_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>OPLS-UA</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1786 Std. Dev. = 0.1535 Error = 0.0048</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1877 Std. Dev. = 0.1574 Error = 0.0049</t>
+  </si>
+  <si>
+    <t>Torsion</t>
+  </si>
+  <si>
+    <t>Bond/angle</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>OPLS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Try Lincs version, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>untabulated version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, or shorter cutoffs (Williams used &lt;0.7 nm)</t>
+    </r>
+  </si>
+  <si>
+    <t>FlexWilliams4TL-OPLS_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>FlexWilliams7TL-OPLS_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1779 Std. Dev. = 0.1373 Error = 0.0043</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1812 Std. Dev. = 0.1503 Error = 0.0047</t>
+  </si>
+  <si>
+    <t>FlexWilliams4L-OPLS_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1834 Std. Dev. = 0.1476 Error = 0.0046</t>
+  </si>
+  <si>
+    <t>Try optimizing geometry using H-C-H angle of 106 degrees to get consistent C-C-C and C-C-H angles</t>
+  </si>
+  <si>
+    <t>Try shorter cutoff, shift potential in table file and zero after cutoff</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2048 Std. Dev. = 0.1764 Error = 0.0055</t>
+  </si>
+  <si>
+    <t>FlexWilliams4L-OPLS_rc0.8_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>FlexWilliams7L-rescaled_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Corrected sims below this line</t>
+  </si>
+  <si>
+    <t>FlexWilliams4L-OPLS_rc0.6_1024xC16_properties_298K_1bar</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="4">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+  </numFmts>
+  <fonts count="14">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="3">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="12">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="87">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -1146,4 +2443,7571 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E6099B-77F6-4CCD-9B30-DB7CF2E469C9}">
+  <dimension ref="B2:L51"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="2" width="9" style="19"/>
+    <col min="3" max="3" width="44.625" style="19" customWidth="1"/>
+    <col min="4" max="7" width="12.625" style="19" customWidth="1"/>
+    <col min="8" max="8" width="15.125" style="19" customWidth="1"/>
+    <col min="9" max="9" width="12.625" style="19" customWidth="1"/>
+    <col min="10" max="11" width="9" style="19"/>
+    <col min="12" max="12" width="27.5" style="19" customWidth="1"/>
+    <col min="13" max="13" width="17.625" style="19" customWidth="1"/>
+    <col min="14" max="14" width="32.5" style="19" customWidth="1"/>
+    <col min="15" max="15" width="65.625" style="19" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:12">
+      <c r="H2" s="19" t="s">
+        <v>168</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" s="20" customFormat="1">
+      <c r="D3" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F3" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G3" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I3" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="K3" s="20" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12" ht="15.75" customHeight="1">
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D4" s="19">
+        <v>3</v>
+      </c>
+      <c r="E4" s="19">
+        <v>3</v>
+      </c>
+      <c r="F4" s="19">
+        <v>3</v>
+      </c>
+      <c r="G4" s="19">
+        <v>2</v>
+      </c>
+      <c r="H4" s="19">
+        <v>2</v>
+      </c>
+      <c r="I4" s="19">
+        <v>2</v>
+      </c>
+      <c r="K4" s="19">
+        <v>0</v>
+      </c>
+      <c r="L4" s="19" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="C5" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D5" s="19">
+        <v>3</v>
+      </c>
+      <c r="E5" s="19">
+        <v>3</v>
+      </c>
+      <c r="F5" s="19">
+        <v>3</v>
+      </c>
+      <c r="G5" s="19">
+        <v>2</v>
+      </c>
+      <c r="H5" s="19">
+        <v>2</v>
+      </c>
+      <c r="I5" s="19">
+        <v>0</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="C6" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0</v>
+      </c>
+      <c r="E6" s="19">
+        <v>0</v>
+      </c>
+      <c r="F6" s="19">
+        <v>0</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0</v>
+      </c>
+      <c r="H6" s="19">
+        <v>0</v>
+      </c>
+      <c r="I6" s="19">
+        <v>0</v>
+      </c>
+      <c r="K6" s="19">
+        <v>2</v>
+      </c>
+      <c r="L6" s="19" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D7" s="19">
+        <v>3</v>
+      </c>
+      <c r="E7" s="19">
+        <v>3</v>
+      </c>
+      <c r="F7" s="19">
+        <v>3</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0</v>
+      </c>
+      <c r="H7" s="19">
+        <v>1</v>
+      </c>
+      <c r="I7" s="19">
+        <v>0</v>
+      </c>
+      <c r="K7" s="19">
+        <v>3</v>
+      </c>
+      <c r="L7" s="19" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="C8" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D8" s="19">
+        <v>1</v>
+      </c>
+      <c r="E8" s="19">
+        <v>3</v>
+      </c>
+      <c r="F8" s="19">
+        <v>3</v>
+      </c>
+      <c r="G8" s="19">
+        <v>0</v>
+      </c>
+      <c r="H8" s="19">
+        <v>0</v>
+      </c>
+      <c r="I8" s="19">
+        <v>0</v>
+      </c>
+      <c r="K8" s="19">
+        <v>4</v>
+      </c>
+      <c r="L8" s="19" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="C9" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D9" s="19">
+        <v>0</v>
+      </c>
+      <c r="E9" s="19">
+        <v>0</v>
+      </c>
+      <c r="F9" s="19">
+        <v>0</v>
+      </c>
+      <c r="G9" s="19">
+        <v>0</v>
+      </c>
+      <c r="H9" s="19">
+        <v>0</v>
+      </c>
+      <c r="I9" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C10" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D10" s="19">
+        <v>3</v>
+      </c>
+      <c r="E10" s="19">
+        <v>3</v>
+      </c>
+      <c r="F10" s="19">
+        <v>0</v>
+      </c>
+      <c r="G10" s="19">
+        <v>0</v>
+      </c>
+      <c r="H10" s="19">
+        <v>0</v>
+      </c>
+      <c r="I10" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="C11" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D11" s="19">
+        <v>1</v>
+      </c>
+      <c r="E11" s="19">
+        <v>0</v>
+      </c>
+      <c r="F11" s="19">
+        <v>3</v>
+      </c>
+      <c r="G11" s="19">
+        <v>0</v>
+      </c>
+      <c r="H11" s="19">
+        <v>0</v>
+      </c>
+      <c r="I11" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="C12" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0</v>
+      </c>
+      <c r="E12" s="19">
+        <v>0</v>
+      </c>
+      <c r="F12" s="19">
+        <v>0</v>
+      </c>
+      <c r="G12" s="19">
+        <v>0</v>
+      </c>
+      <c r="H12" s="19">
+        <v>0</v>
+      </c>
+      <c r="I12" s="19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" s="20" customFormat="1">
+      <c r="D14" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="E14" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="G14" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="H14" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="I14" s="20" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12">
+      <c r="B15" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12">
+      <c r="C16" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D16" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="17" spans="2:12">
+      <c r="C17" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F17" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="18" spans="2:12">
+      <c r="B18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="19" spans="2:12">
+      <c r="C19" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>206</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="20" spans="2:12">
+      <c r="C20" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:12">
+      <c r="B21" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" s="19" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="22" spans="2:12">
+      <c r="C22" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="D22" s="19" t="s">
+        <v>205</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="23" spans="2:12">
+      <c r="C23" s="19" t="s">
+        <v>176</v>
+      </c>
+      <c r="F23" s="19" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="27" spans="2:12" s="20" customFormat="1">
+      <c r="C27" s="67" t="s">
+        <v>191</v>
+      </c>
+      <c r="L27" s="67" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="28" spans="2:12">
+      <c r="C28" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D28" s="65" t="s">
+        <v>199</v>
+      </c>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="L28" s="64" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="29" spans="2:12">
+      <c r="D29" t="s">
+        <v>200</v>
+      </c>
+      <c r="E29"/>
+      <c r="F29"/>
+      <c r="G29"/>
+      <c r="H29"/>
+      <c r="I29"/>
+      <c r="L29" s="19" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="30" spans="2:12">
+      <c r="C30" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="D30" t="s">
+        <v>194</v>
+      </c>
+      <c r="E30"/>
+      <c r="F30"/>
+      <c r="G30"/>
+      <c r="H30"/>
+      <c r="I30"/>
+      <c r="L30" s="19" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="31" spans="2:12">
+      <c r="D31" t="s">
+        <v>195</v>
+      </c>
+      <c r="E31"/>
+      <c r="F31"/>
+      <c r="G31"/>
+      <c r="H31"/>
+      <c r="I31"/>
+    </row>
+    <row r="32" spans="2:12">
+      <c r="D32"/>
+      <c r="E32"/>
+      <c r="F32"/>
+      <c r="G32"/>
+      <c r="H32"/>
+      <c r="I32"/>
+    </row>
+    <row r="33" spans="3:12">
+      <c r="D33"/>
+      <c r="E33"/>
+      <c r="F33"/>
+      <c r="G33"/>
+      <c r="H33"/>
+      <c r="I33"/>
+    </row>
+    <row r="34" spans="3:12">
+      <c r="D34"/>
+      <c r="E34"/>
+      <c r="F34"/>
+      <c r="G34"/>
+      <c r="H34"/>
+      <c r="I34"/>
+    </row>
+    <row r="35" spans="3:12">
+      <c r="D35"/>
+      <c r="E35"/>
+      <c r="F35"/>
+      <c r="G35"/>
+      <c r="H35"/>
+      <c r="I35"/>
+    </row>
+    <row r="36" spans="3:12" s="20" customFormat="1">
+      <c r="C36" s="67" t="s">
+        <v>196</v>
+      </c>
+      <c r="D36" s="66"/>
+      <c r="E36" s="66"/>
+      <c r="F36" s="66"/>
+      <c r="G36" s="66"/>
+      <c r="H36" s="66"/>
+      <c r="I36" s="66"/>
+      <c r="L36" s="67" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="37" spans="3:12">
+      <c r="C37" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="D37" s="50" t="s">
+        <v>201</v>
+      </c>
+      <c r="L37" s="50" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="38" spans="3:12">
+      <c r="D38" s="50"/>
+      <c r="L38" s="68" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="39" spans="3:12">
+      <c r="D39" s="50"/>
+      <c r="L39" s="68" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="40" spans="3:12">
+      <c r="D40" s="50"/>
+      <c r="L40" s="68" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="41" spans="3:12">
+      <c r="D41" s="50"/>
+      <c r="L41" s="68" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="42" spans="3:12">
+      <c r="D42" s="50"/>
+      <c r="L42" s="68" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="43" spans="3:12" s="69" customFormat="1">
+      <c r="C43" s="69" t="s">
+        <v>215</v>
+      </c>
+      <c r="D43" s="70" t="s">
+        <v>213</v>
+      </c>
+      <c r="L43" s="71" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="44" spans="3:12" s="74" customFormat="1">
+      <c r="C44" s="74" t="s">
+        <v>180</v>
+      </c>
+      <c r="D44" s="75" t="s">
+        <v>203</v>
+      </c>
+      <c r="L44" s="75" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="45" spans="3:12" s="74" customFormat="1">
+      <c r="C45" s="74" t="s">
+        <v>208</v>
+      </c>
+      <c r="D45" s="75" t="s">
+        <v>209</v>
+      </c>
+      <c r="L45" s="75" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="46" spans="3:12" s="72" customFormat="1">
+      <c r="C46" s="72" t="s">
+        <v>190</v>
+      </c>
+      <c r="D46" s="73" t="s">
+        <v>216</v>
+      </c>
+      <c r="L46" s="73" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="47" spans="3:12">
+      <c r="D47" s="50"/>
+      <c r="L47" s="50"/>
+    </row>
+    <row r="48" spans="3:12">
+      <c r="D48" s="50"/>
+      <c r="L48" s="50"/>
+    </row>
+    <row r="49" spans="4:12">
+      <c r="D49" s="50"/>
+      <c r="L49" s="50"/>
+    </row>
+    <row r="50" spans="4:12">
+      <c r="L50" s="50"/>
+    </row>
+    <row r="51" spans="4:12">
+      <c r="L51" s="50"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="K4:K9">
+    <cfRule type="colorScale" priority="4">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="D4:I12">
+    <cfRule type="colorScale" priority="5">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color theme="5" tint="0.39997558519241921"/>
+        <color theme="7" tint="0.59999389629810485"/>
+        <color theme="9" tint="0.59999389629810485"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDCE98-34D0-4ABF-8516-E6ECC928D09D}">
+  <dimension ref="B2:C32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="187.125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:3">
+      <c r="B2" s="3"/>
+      <c r="C2" s="9" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3">
+      <c r="B3" s="3">
+        <v>1</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3">
+      <c r="B4" s="3">
+        <v>2</v>
+      </c>
+      <c r="C4" s="9" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3">
+      <c r="B5" s="3">
+        <v>3</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3">
+      <c r="B6" s="3">
+        <v>4</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3">
+      <c r="B7" s="3">
+        <v>5</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3">
+      <c r="B8" s="3">
+        <v>6</v>
+      </c>
+      <c r="C8" s="9"/>
+    </row>
+    <row r="9" spans="2:3">
+      <c r="B9" s="3">
+        <v>7</v>
+      </c>
+      <c r="C9" s="9"/>
+    </row>
+    <row r="10" spans="2:3">
+      <c r="B10" s="3">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9"/>
+    </row>
+    <row r="11" spans="2:3">
+      <c r="B11" s="3">
+        <v>9</v>
+      </c>
+      <c r="C11" s="9"/>
+    </row>
+    <row r="12" spans="2:3">
+      <c r="B12" s="3">
+        <v>10</v>
+      </c>
+      <c r="C12" s="9"/>
+    </row>
+    <row r="13" spans="2:3">
+      <c r="B13" s="3">
+        <v>11</v>
+      </c>
+      <c r="C13" s="9"/>
+    </row>
+    <row r="14" spans="2:3">
+      <c r="B14" s="3">
+        <v>12</v>
+      </c>
+      <c r="C14" s="9"/>
+    </row>
+    <row r="15" spans="2:3">
+      <c r="B15" s="3">
+        <v>13</v>
+      </c>
+      <c r="C15" s="9"/>
+    </row>
+    <row r="16" spans="2:3">
+      <c r="B16" s="3">
+        <v>14</v>
+      </c>
+      <c r="C16" s="9"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="3">
+        <v>15</v>
+      </c>
+      <c r="C17" s="9"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="3">
+        <v>16</v>
+      </c>
+      <c r="C18" s="9"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="3">
+        <v>17</v>
+      </c>
+      <c r="C19" s="9"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="3">
+        <v>18</v>
+      </c>
+      <c r="C20" s="9"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="3">
+        <v>19</v>
+      </c>
+      <c r="C21" s="9"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="3">
+        <v>20</v>
+      </c>
+      <c r="C22" s="9"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="3">
+        <v>21</v>
+      </c>
+      <c r="C23" s="9"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="3">
+        <v>22</v>
+      </c>
+      <c r="C24" s="9"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="3">
+        <v>23</v>
+      </c>
+      <c r="C25" s="9"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="3">
+        <v>24</v>
+      </c>
+      <c r="C26" s="9"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="3">
+        <v>25</v>
+      </c>
+      <c r="C27" s="9"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="3">
+        <v>26</v>
+      </c>
+      <c r="C28" s="9"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="3">
+        <v>27</v>
+      </c>
+      <c r="C29" s="9"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="3">
+        <v>28</v>
+      </c>
+      <c r="C30" s="9"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="3">
+        <v>29</v>
+      </c>
+      <c r="C31" s="9"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="3">
+        <v>30</v>
+      </c>
+      <c r="C32" s="9"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C044A9FB-F8D3-4917-BFAB-FBE43DD433AF}">
+  <dimension ref="B3:BH17"/>
+  <sheetViews>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="8" max="12" width="4" customWidth="1"/>
+    <col min="20" max="24" width="4" customWidth="1"/>
+    <col min="32" max="36" width="4" customWidth="1"/>
+    <col min="44" max="48" width="4" customWidth="1"/>
+    <col min="56" max="60" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="10"/>
+      <c r="I3" s="10"/>
+      <c r="J3" s="10"/>
+      <c r="K3" s="10"/>
+      <c r="L3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
+      <c r="V3" s="10"/>
+      <c r="W3" s="10"/>
+      <c r="X3" s="10"/>
+      <c r="AC3" s="7"/>
+      <c r="AD3" s="8"/>
+      <c r="AF3" s="10"/>
+      <c r="AG3" s="10"/>
+      <c r="AH3" s="10"/>
+      <c r="AI3" s="10"/>
+      <c r="AJ3" s="10"/>
+      <c r="AN3" s="12"/>
+      <c r="AP3" s="8"/>
+      <c r="AR3" s="10"/>
+      <c r="AS3" s="10"/>
+      <c r="AT3" s="10"/>
+      <c r="AU3" s="10"/>
+      <c r="AV3" s="10"/>
+      <c r="BB3" s="8"/>
+      <c r="BD3" s="10"/>
+      <c r="BE3" s="10"/>
+      <c r="BF3" s="10"/>
+      <c r="BG3" s="10"/>
+      <c r="BH3" s="10"/>
+    </row>
+    <row r="4" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="D4" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="H4" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="85"/>
+      <c r="J4" s="85"/>
+      <c r="K4" s="85"/>
+      <c r="L4" s="85"/>
+      <c r="O4" s="6"/>
+      <c r="P4" s="6"/>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="6"/>
+      <c r="S4" s="6"/>
+      <c r="T4" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="U4" s="85"/>
+      <c r="V4" s="85"/>
+      <c r="W4" s="85"/>
+      <c r="X4" s="85"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="8"/>
+      <c r="AF4" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="AG4" s="85"/>
+      <c r="AH4" s="85"/>
+      <c r="AI4" s="85"/>
+      <c r="AJ4" s="85"/>
+      <c r="AN4" s="12"/>
+      <c r="AP4" s="8"/>
+      <c r="AR4" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="AS4" s="85"/>
+      <c r="AT4" s="85"/>
+      <c r="AU4" s="85"/>
+      <c r="AV4" s="85"/>
+      <c r="BB4" s="8"/>
+      <c r="BD4" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="BE4" s="85"/>
+      <c r="BF4" s="85"/>
+      <c r="BG4" s="85"/>
+      <c r="BH4" s="85"/>
+    </row>
+    <row r="5" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="N5" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="R5" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="S5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="T5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="U5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="V5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="X5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="Z5" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="AA5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AB5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AC5" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="AD5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AE5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AG5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AH5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AI5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AL5" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="AM5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AN5" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="AP5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="AQ5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="AR5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="AS5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="AT5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="AU5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="AV5" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="AX5" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="AY5" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="AZ5" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="BA5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="BB5" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="BC5" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="BD5" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="BE5" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="BF5" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="BG5" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="BH5" s="10" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="6" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="E6" s="7">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6" s="10"/>
+      <c r="L6" s="10"/>
+      <c r="N6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="T6" s="10"/>
+      <c r="U6" s="10"/>
+      <c r="V6" s="10"/>
+      <c r="W6" s="10"/>
+      <c r="X6" s="10"/>
+      <c r="Z6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>16.05</v>
+      </c>
+      <c r="AD6" s="8"/>
+      <c r="AF6" s="10"/>
+      <c r="AG6" s="10"/>
+      <c r="AH6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI6" s="10"/>
+      <c r="AJ6" s="10"/>
+      <c r="AL6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AN6" s="12"/>
+      <c r="AP6" s="8"/>
+      <c r="AR6" s="10"/>
+      <c r="AS6" s="10"/>
+      <c r="AT6" s="10"/>
+      <c r="AU6" s="10"/>
+      <c r="AV6" s="10"/>
+      <c r="AX6" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="BA6" s="4">
+        <v>14.94</v>
+      </c>
+      <c r="BB6" s="8"/>
+      <c r="BD6" s="10"/>
+      <c r="BE6" s="10"/>
+      <c r="BF6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG6" s="10"/>
+      <c r="BH6" s="10"/>
+    </row>
+    <row r="7" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E7" s="7">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="H7" s="10"/>
+      <c r="I7" s="10"/>
+      <c r="J7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7" s="10"/>
+      <c r="L7" s="10"/>
+      <c r="N7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="T7" s="10"/>
+      <c r="U7" s="10"/>
+      <c r="V7" s="10"/>
+      <c r="W7" s="10"/>
+      <c r="X7" s="10"/>
+      <c r="Z7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AD7" s="8"/>
+      <c r="AF7" s="10"/>
+      <c r="AG7" s="10"/>
+      <c r="AH7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI7" s="10"/>
+      <c r="AJ7" s="10"/>
+      <c r="AL7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN7" s="12">
+        <v>0.2949</v>
+      </c>
+      <c r="AP7" s="8"/>
+      <c r="AR7" s="10"/>
+      <c r="AS7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT7" s="10"/>
+      <c r="AU7" s="10"/>
+      <c r="AV7" s="10"/>
+      <c r="AX7" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA7" s="4">
+        <v>17.38</v>
+      </c>
+      <c r="BB7" s="8"/>
+      <c r="BD7" s="10"/>
+      <c r="BE7" s="10"/>
+      <c r="BF7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG7" s="10"/>
+      <c r="BH7" s="10"/>
+    </row>
+    <row r="8" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="E8" s="7">
+        <v>21.12</v>
+      </c>
+      <c r="H8" s="10"/>
+      <c r="I8" s="10"/>
+      <c r="J8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="10"/>
+      <c r="L8" s="10"/>
+      <c r="N8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="T8" s="10"/>
+      <c r="U8" s="10"/>
+      <c r="V8" s="10"/>
+      <c r="W8" s="10"/>
+      <c r="X8" s="10"/>
+      <c r="Z8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>20.14</v>
+      </c>
+      <c r="AD8" s="8"/>
+      <c r="AF8" s="10"/>
+      <c r="AG8" s="10"/>
+      <c r="AH8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI8" s="10"/>
+      <c r="AJ8" s="10"/>
+      <c r="AL8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AN8" s="12">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AP8" s="8"/>
+      <c r="AR8" s="10"/>
+      <c r="AS8" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT8" s="10"/>
+      <c r="AU8" s="10"/>
+      <c r="AV8" s="10"/>
+      <c r="AX8" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="BA8" s="4">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="BB8" s="8"/>
+      <c r="BD8" s="10"/>
+      <c r="BE8" s="10"/>
+      <c r="BF8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG8" s="10"/>
+      <c r="BH8" s="10"/>
+    </row>
+    <row r="9" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" s="7">
+        <v>22.57</v>
+      </c>
+      <c r="H9" s="10"/>
+      <c r="I9" s="10"/>
+      <c r="J9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K9" s="10"/>
+      <c r="L9" s="10"/>
+      <c r="N9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="T9" s="10"/>
+      <c r="U9" s="10"/>
+      <c r="V9" s="10"/>
+      <c r="W9" s="10"/>
+      <c r="X9" s="10"/>
+      <c r="Z9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>21.62</v>
+      </c>
+      <c r="AD9" s="8"/>
+      <c r="AF9" s="10"/>
+      <c r="AG9" s="10"/>
+      <c r="AH9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI9" s="10"/>
+      <c r="AJ9" s="10"/>
+      <c r="AL9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN9" s="12">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="AP9" s="8"/>
+      <c r="AR9" s="10"/>
+      <c r="AS9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT9" s="10"/>
+      <c r="AU9" s="10"/>
+      <c r="AV9" s="10"/>
+      <c r="AX9" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA9" s="4">
+        <v>20.67</v>
+      </c>
+      <c r="BB9" s="8"/>
+      <c r="BD9" s="10"/>
+      <c r="BE9" s="10"/>
+      <c r="BF9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG9" s="10"/>
+      <c r="BH9" s="10"/>
+    </row>
+    <row r="10" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="E10" s="7">
+        <v>23.79</v>
+      </c>
+      <c r="H10" s="10"/>
+      <c r="I10" s="10"/>
+      <c r="J10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K10" s="10"/>
+      <c r="L10" s="10"/>
+      <c r="N10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="T10" s="10"/>
+      <c r="U10" s="10"/>
+      <c r="V10" s="10"/>
+      <c r="W10" s="10"/>
+      <c r="X10" s="10"/>
+      <c r="Z10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>22.85</v>
+      </c>
+      <c r="AD10" s="8"/>
+      <c r="AF10" s="10"/>
+      <c r="AG10" s="10"/>
+      <c r="AH10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI10" s="10"/>
+      <c r="AJ10" s="10"/>
+      <c r="AL10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN10" s="12"/>
+      <c r="AP10" s="8"/>
+      <c r="AR10" s="10"/>
+      <c r="AS10" s="10"/>
+      <c r="AT10" s="10"/>
+      <c r="AU10" s="10"/>
+      <c r="AV10" s="10"/>
+      <c r="AX10" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA10" s="4">
+        <v>21.92</v>
+      </c>
+      <c r="BB10" s="8"/>
+      <c r="BD10" s="10"/>
+      <c r="BE10" s="10"/>
+      <c r="BF10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG10" s="10"/>
+      <c r="BH10" s="10"/>
+    </row>
+    <row r="11" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="E11" s="7">
+        <v>24.75</v>
+      </c>
+      <c r="H11" s="10"/>
+      <c r="I11" s="10"/>
+      <c r="J11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K11" s="10"/>
+      <c r="L11" s="10"/>
+      <c r="N11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="R11" s="4">
+        <v>1.165</v>
+      </c>
+      <c r="T11" s="10"/>
+      <c r="U11" s="10"/>
+      <c r="V11" s="10"/>
+      <c r="W11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X11" s="10"/>
+      <c r="Z11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>23.83</v>
+      </c>
+      <c r="AD11" s="8">
+        <v>1.268</v>
+      </c>
+      <c r="AF11" s="10"/>
+      <c r="AG11" s="10"/>
+      <c r="AH11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ11" s="10"/>
+      <c r="AL11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN11" s="12">
+        <v>0.8498</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="AR11" s="10"/>
+      <c r="AS11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT11" s="10"/>
+      <c r="AU11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV11" s="10"/>
+      <c r="AX11" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA11" s="4">
+        <v>22.91</v>
+      </c>
+      <c r="BB11" s="8">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="BD11" s="10"/>
+      <c r="BE11" s="10"/>
+      <c r="BF11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH11" s="10"/>
+    </row>
+    <row r="12" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E12" s="7">
+        <v>25.56</v>
+      </c>
+      <c r="H12" s="10"/>
+      <c r="I12" s="10"/>
+      <c r="J12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="10"/>
+      <c r="L12" s="10"/>
+      <c r="N12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="R12" s="4">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10"/>
+      <c r="V12" s="10"/>
+      <c r="W12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X12" s="10"/>
+      <c r="Z12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>24.66</v>
+      </c>
+      <c r="AD12" s="8">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="AF12" s="10"/>
+      <c r="AG12" s="10"/>
+      <c r="AH12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ12" s="10"/>
+      <c r="AL12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN12" s="12"/>
+      <c r="AP12" s="8">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="AR12" s="10"/>
+      <c r="AS12" s="10"/>
+      <c r="AT12" s="10"/>
+      <c r="AU12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV12" s="10"/>
+      <c r="AX12" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA12" s="4">
+        <v>23.76</v>
+      </c>
+      <c r="BB12" s="8">
+        <v>1.248</v>
+      </c>
+      <c r="BD12" s="10"/>
+      <c r="BE12" s="10"/>
+      <c r="BF12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH12" s="10"/>
+    </row>
+    <row r="13" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="7">
+        <v>26.24</v>
+      </c>
+      <c r="H13" s="10"/>
+      <c r="I13" s="10"/>
+      <c r="J13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K13" s="10"/>
+      <c r="L13" s="10"/>
+      <c r="N13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="R13" s="4">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10"/>
+      <c r="V13" s="10"/>
+      <c r="W13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X13" s="10"/>
+      <c r="Z13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="AD13" s="8">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AF13" s="10"/>
+      <c r="AG13" s="10"/>
+      <c r="AH13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ13" s="10"/>
+      <c r="AL13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN13" s="12">
+        <v>1.3585</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>0.871</v>
+      </c>
+      <c r="AR13" s="10"/>
+      <c r="AS13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT13" s="10"/>
+      <c r="AU13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV13" s="10"/>
+      <c r="AX13" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA13" s="4">
+        <v>24.47</v>
+      </c>
+      <c r="BB13" s="8">
+        <v>0.996</v>
+      </c>
+      <c r="BD13" s="10"/>
+      <c r="BE13" s="10"/>
+      <c r="BF13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH13" s="10"/>
+    </row>
+    <row r="14" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="E14" s="7">
+        <v>26.86</v>
+      </c>
+      <c r="H14" s="10"/>
+      <c r="I14" s="10"/>
+      <c r="J14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K14" s="10"/>
+      <c r="L14" s="10"/>
+      <c r="N14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="R14" s="4">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10"/>
+      <c r="V14" s="10"/>
+      <c r="W14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X14" s="10"/>
+      <c r="Z14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>25.99</v>
+      </c>
+      <c r="AD14" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="AF14" s="10"/>
+      <c r="AG14" s="10"/>
+      <c r="AH14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ14" s="10"/>
+      <c r="AL14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN14" s="12"/>
+      <c r="AP14" s="8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AR14" s="10"/>
+      <c r="AS14" s="10"/>
+      <c r="AT14" s="10"/>
+      <c r="AU14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV14" s="10"/>
+      <c r="AX14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA14" s="4">
+        <v>25.11</v>
+      </c>
+      <c r="BB14" s="8">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="BD14" s="10"/>
+      <c r="BE14" s="10"/>
+      <c r="BF14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH14" s="10"/>
+    </row>
+    <row r="15" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="E15" s="7">
+        <v>27.43</v>
+      </c>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="K15" s="10"/>
+      <c r="L15" s="10"/>
+      <c r="N15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0.443</v>
+      </c>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10"/>
+      <c r="V15" s="10"/>
+      <c r="W15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X15" s="10"/>
+      <c r="Z15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>26.56</v>
+      </c>
+      <c r="AD15" s="8">
+        <v>0.495</v>
+      </c>
+      <c r="AF15" s="10"/>
+      <c r="AG15" s="10"/>
+      <c r="AH15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ15" s="10"/>
+      <c r="AL15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN15" s="12">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="AP15" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AR15" s="10"/>
+      <c r="AS15" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="AT15" s="10"/>
+      <c r="AU15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV15" s="10"/>
+      <c r="AX15" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA15" s="4">
+        <v>25.69</v>
+      </c>
+      <c r="BB15" s="8">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="BD15" s="10"/>
+      <c r="BE15" s="10"/>
+      <c r="BF15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH15" s="10"/>
+    </row>
+    <row r="16" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E16" s="7"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
+      <c r="K16" s="10"/>
+      <c r="L16" s="10"/>
+      <c r="N16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="R16" s="4">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="T16" s="10"/>
+      <c r="U16" s="10"/>
+      <c r="V16" s="10"/>
+      <c r="W16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="X16" s="10"/>
+      <c r="Z16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC16" s="7">
+        <v>27.07</v>
+      </c>
+      <c r="AD16" s="8">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AF16" s="10"/>
+      <c r="AG16" s="10"/>
+      <c r="AH16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ16" s="10"/>
+      <c r="AL16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AN16" s="12"/>
+      <c r="AP16" s="8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AR16" s="10"/>
+      <c r="AS16" s="10"/>
+      <c r="AT16" s="10"/>
+      <c r="AU16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV16" s="10"/>
+      <c r="AX16" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="BA16" s="4">
+        <v>26.21</v>
+      </c>
+      <c r="BB16" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="BD16" s="10"/>
+      <c r="BE16" s="10"/>
+      <c r="BF16" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG16" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH16" s="10"/>
+    </row>
+    <row r="17" spans="2:60" s="4" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="7"/>
+      <c r="F17" s="5"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="N17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R17" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Z17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC17" s="7">
+        <v>27.47</v>
+      </c>
+      <c r="AD17" s="8">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
+      <c r="AH17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AI17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AJ17" s="10"/>
+      <c r="AL17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AN17" s="12"/>
+      <c r="AP17" s="8">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="AR17" s="10"/>
+      <c r="AS17" s="10"/>
+      <c r="AT17" s="10"/>
+      <c r="AU17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV17" s="10"/>
+      <c r="AX17" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="BA17" s="4">
+        <v>26.62</v>
+      </c>
+      <c r="BB17" s="8">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="BD17" s="10"/>
+      <c r="BE17" s="10"/>
+      <c r="BF17" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="BG17" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH17" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="BD4:BH4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AR4:AV4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16583C72-0DB7-F547-92F8-D3AA5971D5C0}">
+  <dimension ref="B2:I19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="10.875" style="1"/>
+    <col min="2" max="2" width="38.375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="1" customWidth="1"/>
+    <col min="4" max="5" width="10.875" style="1"/>
+    <col min="6" max="6" width="21.375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.125" style="1" customWidth="1"/>
+    <col min="8" max="8" width="10.875" style="1"/>
+    <col min="9" max="9" width="56.125" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="10.875" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:9" s="2" customFormat="1">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9">
+      <c r="B3" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E3" s="1">
+        <v>10</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9">
+      <c r="F4" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9">
+      <c r="F5" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9">
+      <c r="C7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E7" s="1">
+        <v>10</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I7" s="1" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9">
+      <c r="E8" s="1">
+        <v>10</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="2:9">
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="1">
+        <v>10</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9">
+      <c r="B13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E13" s="1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="16" spans="2:9">
+      <c r="B16" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E16" s="1">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="E19" s="1">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13AB50C4-06A1-EC49-9F2B-EE3AB2341EED}">
+  <dimension ref="B2:X38"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="11.125" style="19" customWidth="1"/>
+    <col min="4" max="4" width="8.375" style="19" customWidth="1"/>
+    <col min="5" max="5" width="18" style="19" customWidth="1"/>
+    <col min="6" max="11" width="10.875" style="19"/>
+    <col min="12" max="12" width="11.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.875" style="19" customWidth="1"/>
+    <col min="14" max="14" width="10.5" style="19" customWidth="1"/>
+    <col min="15" max="15" width="8.375" style="19" customWidth="1"/>
+    <col min="16" max="16" width="10.875" style="26"/>
+    <col min="17" max="17" width="9" style="19" customWidth="1"/>
+    <col min="18" max="18" width="9" style="32" customWidth="1"/>
+    <col min="19" max="20" width="9" style="19" customWidth="1"/>
+    <col min="21" max="21" width="9" style="32" customWidth="1"/>
+    <col min="22" max="22" width="9" style="19" customWidth="1"/>
+    <col min="23" max="23" width="38.625" style="19" customWidth="1"/>
+    <col min="24" max="24" width="37.125" style="19" customWidth="1"/>
+    <col min="25" max="16384" width="10.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:24">
+      <c r="B2" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2"/>
+      <c r="R2" s="30"/>
+      <c r="S2"/>
+      <c r="T2"/>
+    </row>
+    <row r="3" spans="2:24">
+      <c r="K3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="M3" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="N3" s="81"/>
+      <c r="O3" s="81"/>
+      <c r="Q3" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="R3" s="81"/>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+    </row>
+    <row r="4" spans="2:24" s="20" customFormat="1">
+      <c r="B4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="R4" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="U4" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="V4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:24" s="52" customFormat="1">
+      <c r="B5" s="52" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="52">
+        <v>1024</v>
+      </c>
+      <c r="E5" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="F5" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="52">
+        <v>298</v>
+      </c>
+      <c r="H5" s="52">
+        <v>1</v>
+      </c>
+      <c r="I5" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J5" s="52">
+        <v>2</v>
+      </c>
+      <c r="K5" s="52">
+        <v>10</v>
+      </c>
+      <c r="L5" s="52">
+        <f t="shared" ref="L5:L10" si="0">1000000*K5/J5</f>
+        <v>5000000</v>
+      </c>
+      <c r="P5" s="54"/>
+      <c r="Q5" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="S5" s="52">
+        <v>794.41200000000003</v>
+      </c>
+      <c r="T5" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="U5" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="V5" s="52">
+        <v>0.4728</v>
+      </c>
+      <c r="W5" s="53" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="6" spans="2:24" s="52" customFormat="1">
+      <c r="D6" s="53"/>
+      <c r="E6" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="52">
+        <v>298</v>
+      </c>
+      <c r="H6" s="52">
+        <v>1</v>
+      </c>
+      <c r="J6" s="52">
+        <v>2</v>
+      </c>
+      <c r="K6" s="52">
+        <v>10</v>
+      </c>
+      <c r="L6" s="52">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="P6" s="54"/>
+      <c r="Q6" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R6" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="7" spans="2:24" s="52" customFormat="1">
+      <c r="E7" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="52">
+        <v>298</v>
+      </c>
+      <c r="H7" s="52">
+        <v>1</v>
+      </c>
+      <c r="J7" s="52">
+        <v>2</v>
+      </c>
+      <c r="K7" s="52">
+        <v>10</v>
+      </c>
+      <c r="L7" s="52">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="P7" s="54"/>
+      <c r="Q7" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R7" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="8" spans="2:24" s="52" customFormat="1">
+      <c r="E8" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="52">
+        <v>298</v>
+      </c>
+      <c r="H8" s="52">
+        <v>1</v>
+      </c>
+      <c r="J8" s="52">
+        <v>2</v>
+      </c>
+      <c r="K8" s="52">
+        <v>10</v>
+      </c>
+      <c r="L8" s="52">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="P8" s="54"/>
+      <c r="Q8" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R8" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="9" spans="2:24" s="52" customFormat="1">
+      <c r="E9" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="52">
+        <v>298</v>
+      </c>
+      <c r="H9" s="52">
+        <v>1</v>
+      </c>
+      <c r="J9" s="52">
+        <v>2</v>
+      </c>
+      <c r="K9" s="52">
+        <v>10</v>
+      </c>
+      <c r="L9" s="52">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="P9" s="54"/>
+      <c r="Q9" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R9" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="2:24" s="52" customFormat="1">
+      <c r="E10" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G10" s="52">
+        <v>298</v>
+      </c>
+      <c r="H10" s="52">
+        <v>1</v>
+      </c>
+      <c r="J10" s="52">
+        <v>2</v>
+      </c>
+      <c r="K10" s="52">
+        <v>10</v>
+      </c>
+      <c r="L10" s="52">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="P10" s="54"/>
+      <c r="Q10" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R10" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="2:24" s="52" customFormat="1">
+      <c r="E11" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F11" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="P11" s="54"/>
+    </row>
+    <row r="12" spans="2:24" s="52" customFormat="1">
+      <c r="P12" s="54"/>
+    </row>
+    <row r="13" spans="2:24" s="52" customFormat="1">
+      <c r="B13" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="52">
+        <v>1024</v>
+      </c>
+      <c r="E13" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F13" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H13" s="52">
+        <v>1</v>
+      </c>
+      <c r="I13" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J13" s="52">
+        <v>2</v>
+      </c>
+      <c r="K13" s="52">
+        <v>200</v>
+      </c>
+      <c r="L13" s="52">
+        <f>1000000*K13/J13</f>
+        <v>100000000</v>
+      </c>
+      <c r="M13" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="N13" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="O13" s="52">
+        <v>2</v>
+      </c>
+      <c r="P13" s="54"/>
+    </row>
+    <row r="14" spans="2:24" s="52" customFormat="1">
+      <c r="P14" s="54"/>
+    </row>
+    <row r="15" spans="2:24" s="52" customFormat="1">
+      <c r="P15" s="54"/>
+    </row>
+    <row r="16" spans="2:24" s="52" customFormat="1">
+      <c r="P16" s="54"/>
+    </row>
+    <row r="17" spans="2:22" s="52" customFormat="1">
+      <c r="P17" s="54"/>
+    </row>
+    <row r="18" spans="2:22" s="61" customFormat="1">
+      <c r="P18" s="62"/>
+    </row>
+    <row r="19" spans="2:22" s="52" customFormat="1">
+      <c r="B19" s="52" t="s">
+        <v>100</v>
+      </c>
+      <c r="C19" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D19" s="52">
+        <v>1024</v>
+      </c>
+      <c r="E19" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G19" s="52">
+        <v>298</v>
+      </c>
+      <c r="H19" s="52">
+        <v>1</v>
+      </c>
+      <c r="I19" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J19" s="52">
+        <v>2</v>
+      </c>
+      <c r="K19" s="52">
+        <v>10</v>
+      </c>
+      <c r="L19" s="52">
+        <f t="shared" ref="L19:L24" si="1">1000000*K19/J19</f>
+        <v>5000000</v>
+      </c>
+      <c r="P19" s="54"/>
+      <c r="Q19" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="R19" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="S19" s="52">
+        <v>786.97</v>
+      </c>
+      <c r="T19" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="U19" s="56" t="s">
+        <v>108</v>
+      </c>
+      <c r="V19" s="52">
+        <v>0.623</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22" s="52" customFormat="1">
+      <c r="D20" s="53"/>
+      <c r="E20" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G20" s="52">
+        <v>298</v>
+      </c>
+      <c r="H20" s="52">
+        <v>1</v>
+      </c>
+      <c r="J20" s="52">
+        <v>2</v>
+      </c>
+      <c r="K20" s="52">
+        <v>10</v>
+      </c>
+      <c r="L20" s="52">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="P20" s="54"/>
+      <c r="Q20" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R20" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22" s="52" customFormat="1">
+      <c r="E21" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G21" s="52">
+        <v>298</v>
+      </c>
+      <c r="H21" s="52">
+        <v>1</v>
+      </c>
+      <c r="J21" s="52">
+        <v>2</v>
+      </c>
+      <c r="K21" s="52">
+        <v>10</v>
+      </c>
+      <c r="L21" s="52">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="P21" s="54"/>
+      <c r="Q21" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R21" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22" s="52" customFormat="1">
+      <c r="E22" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G22" s="52">
+        <v>298</v>
+      </c>
+      <c r="H22" s="52">
+        <v>1</v>
+      </c>
+      <c r="J22" s="52">
+        <v>2</v>
+      </c>
+      <c r="K22" s="52">
+        <v>10</v>
+      </c>
+      <c r="L22" s="52">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="P22" s="54"/>
+      <c r="Q22" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R22" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22" s="52" customFormat="1">
+      <c r="E23" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G23" s="52">
+        <v>298</v>
+      </c>
+      <c r="H23" s="52">
+        <v>1</v>
+      </c>
+      <c r="J23" s="52">
+        <v>2</v>
+      </c>
+      <c r="K23" s="52">
+        <v>10</v>
+      </c>
+      <c r="L23" s="52">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="P23" s="54"/>
+      <c r="Q23" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R23" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22" s="52" customFormat="1">
+      <c r="E24" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="52">
+        <v>298</v>
+      </c>
+      <c r="H24" s="52">
+        <v>1</v>
+      </c>
+      <c r="J24" s="52">
+        <v>2</v>
+      </c>
+      <c r="K24" s="52">
+        <v>10</v>
+      </c>
+      <c r="L24" s="52">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="P24" s="54"/>
+      <c r="Q24" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R24" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="25" spans="2:22" s="52" customFormat="1">
+      <c r="E25" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="F25" s="52" t="s">
+        <v>102</v>
+      </c>
+      <c r="P25" s="54"/>
+    </row>
+    <row r="26" spans="2:22" s="52" customFormat="1">
+      <c r="P26" s="54"/>
+    </row>
+    <row r="27" spans="2:22" s="52" customFormat="1">
+      <c r="B27" s="52" t="s">
+        <v>111</v>
+      </c>
+      <c r="C27" s="52" t="s">
+        <v>43</v>
+      </c>
+      <c r="D27" s="52">
+        <v>1024</v>
+      </c>
+      <c r="E27" s="52" t="s">
+        <v>110</v>
+      </c>
+      <c r="F27" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G27" s="52" t="s">
+        <v>90</v>
+      </c>
+      <c r="H27" s="52">
+        <v>1</v>
+      </c>
+      <c r="I27" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J27" s="52">
+        <v>2</v>
+      </c>
+      <c r="K27" s="52">
+        <v>200</v>
+      </c>
+      <c r="L27" s="52">
+        <f>1000000*K27/J27</f>
+        <v>100000000</v>
+      </c>
+      <c r="M27" s="52" t="s">
+        <v>95</v>
+      </c>
+      <c r="N27" s="52" t="s">
+        <v>96</v>
+      </c>
+      <c r="O27" s="52">
+        <v>2</v>
+      </c>
+      <c r="P27" s="54"/>
+    </row>
+    <row r="28" spans="2:22" s="52" customFormat="1">
+      <c r="P28" s="54"/>
+    </row>
+    <row r="29" spans="2:22" s="52" customFormat="1">
+      <c r="P29" s="54"/>
+    </row>
+    <row r="30" spans="2:22" s="52" customFormat="1">
+      <c r="P30" s="54"/>
+    </row>
+    <row r="31" spans="2:22" s="61" customFormat="1">
+      <c r="P31" s="62"/>
+    </row>
+    <row r="32" spans="2:22" s="52" customFormat="1">
+      <c r="B32" s="52" t="s">
+        <v>113</v>
+      </c>
+      <c r="C32" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" s="52">
+        <v>2048</v>
+      </c>
+      <c r="E32" s="52" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G32" s="52">
+        <v>298</v>
+      </c>
+      <c r="H32" s="52">
+        <v>1</v>
+      </c>
+      <c r="I32" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="J32" s="52">
+        <v>2</v>
+      </c>
+      <c r="K32" s="52">
+        <v>10</v>
+      </c>
+      <c r="L32" s="52">
+        <f t="shared" ref="L32:L37" si="2">1000000*K32/J32</f>
+        <v>5000000</v>
+      </c>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="R32" s="52" t="s">
+        <v>107</v>
+      </c>
+      <c r="T32" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="U32" s="56" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="33" spans="5:18" s="52" customFormat="1">
+      <c r="E33" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G33" s="52">
+        <v>298</v>
+      </c>
+      <c r="H33" s="52">
+        <v>1</v>
+      </c>
+      <c r="J33" s="52">
+        <v>2</v>
+      </c>
+      <c r="K33" s="52">
+        <v>10</v>
+      </c>
+      <c r="L33" s="52">
+        <f t="shared" si="2"/>
+        <v>5000000</v>
+      </c>
+      <c r="P33" s="54"/>
+      <c r="Q33" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R33" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="34" spans="5:18" s="52" customFormat="1">
+      <c r="E34" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G34" s="52">
+        <v>298</v>
+      </c>
+      <c r="H34" s="52">
+        <v>1</v>
+      </c>
+      <c r="J34" s="52">
+        <v>2</v>
+      </c>
+      <c r="K34" s="52">
+        <v>10</v>
+      </c>
+      <c r="L34" s="52">
+        <f t="shared" si="2"/>
+        <v>5000000</v>
+      </c>
+      <c r="P34" s="54"/>
+      <c r="Q34" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R34" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="35" spans="5:18" s="52" customFormat="1">
+      <c r="E35" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G35" s="52">
+        <v>298</v>
+      </c>
+      <c r="H35" s="52">
+        <v>1</v>
+      </c>
+      <c r="J35" s="52">
+        <v>2</v>
+      </c>
+      <c r="K35" s="52">
+        <v>10</v>
+      </c>
+      <c r="L35" s="52">
+        <f t="shared" si="2"/>
+        <v>5000000</v>
+      </c>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R35" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="36" spans="5:18" s="52" customFormat="1">
+      <c r="E36" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G36" s="52">
+        <v>298</v>
+      </c>
+      <c r="H36" s="52">
+        <v>1</v>
+      </c>
+      <c r="J36" s="52">
+        <v>2</v>
+      </c>
+      <c r="K36" s="52">
+        <v>10</v>
+      </c>
+      <c r="L36" s="52">
+        <f t="shared" si="2"/>
+        <v>5000000</v>
+      </c>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R36" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="37" spans="5:18" s="52" customFormat="1">
+      <c r="E37" s="52" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="G37" s="52">
+        <v>298</v>
+      </c>
+      <c r="H37" s="52">
+        <v>1</v>
+      </c>
+      <c r="J37" s="52">
+        <v>2</v>
+      </c>
+      <c r="K37" s="52">
+        <v>10</v>
+      </c>
+      <c r="L37" s="52">
+        <f t="shared" si="2"/>
+        <v>5000000</v>
+      </c>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R37" s="52" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="38" spans="5:18" s="52" customFormat="1">
+      <c r="P38" s="54"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="M3:O3"/>
+    <mergeCell ref="Q3:W3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16F8A057-00E8-1E48-9B6B-FADB282B23F9}">
+  <dimension ref="B2:AB11"/>
+  <sheetViews>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="44.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="10.625" style="19" customWidth="1"/>
+    <col min="4" max="6" width="9.125" style="23" customWidth="1"/>
+    <col min="7" max="7" width="11.125" style="19" customWidth="1"/>
+    <col min="8" max="8" width="8.375" style="19" customWidth="1"/>
+    <col min="9" max="9" width="18" style="19" customWidth="1"/>
+    <col min="10" max="15" width="10.875" style="19"/>
+    <col min="16" max="16" width="11.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="12.875" style="19" customWidth="1"/>
+    <col min="18" max="18" width="10.5" style="19" customWidth="1"/>
+    <col min="19" max="19" width="8.375" style="26" customWidth="1"/>
+    <col min="20" max="20" width="10.875" style="48"/>
+    <col min="21" max="21" width="9" style="19" customWidth="1"/>
+    <col min="22" max="22" width="9" style="32" customWidth="1"/>
+    <col min="23" max="24" width="9" style="19" customWidth="1"/>
+    <col min="25" max="25" width="9" style="32" customWidth="1"/>
+    <col min="26" max="26" width="9" style="19" customWidth="1"/>
+    <col min="27" max="27" width="47" style="19" customWidth="1"/>
+    <col min="28" max="28" width="68" style="50" customWidth="1"/>
+    <col min="29" max="16384" width="10.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:28">
+      <c r="U2"/>
+      <c r="V2" s="30"/>
+      <c r="W2"/>
+      <c r="X2"/>
+    </row>
+    <row r="3" spans="2:28">
+      <c r="C3" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q3" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="R3" s="81"/>
+      <c r="S3" s="82"/>
+      <c r="U3" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+    </row>
+    <row r="4" spans="2:28" s="20" customFormat="1">
+      <c r="B4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>130</v>
+      </c>
+      <c r="D4" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="S4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Y4" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="AA4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="AB4" s="51" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:28" s="52" customFormat="1">
+      <c r="B5" s="52" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" s="52" t="s">
+        <v>140</v>
+      </c>
+      <c r="D5" s="59">
+        <v>1.25</v>
+      </c>
+      <c r="E5" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="F5" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="G5" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H5" s="52">
+        <v>1024</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J5" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K5" s="52">
+        <v>298</v>
+      </c>
+      <c r="L5" s="52">
+        <v>1</v>
+      </c>
+      <c r="M5" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="N5" s="52">
+        <v>1</v>
+      </c>
+      <c r="O5" s="52">
+        <v>5</v>
+      </c>
+      <c r="P5" s="52">
+        <f t="shared" ref="P5" si="0">1000000*O5/N5</f>
+        <v>5000000</v>
+      </c>
+      <c r="S5" s="54"/>
+      <c r="T5" s="55">
+        <v>27.507000000000001</v>
+      </c>
+      <c r="U5" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="V5" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="W5" s="52">
+        <v>767.95699999999999</v>
+      </c>
+      <c r="X5" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y5" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z5" s="52">
+        <v>0.23219999999999999</v>
+      </c>
+      <c r="AA5" s="53" t="s">
+        <v>139</v>
+      </c>
+      <c r="AB5" s="57"/>
+    </row>
+    <row r="6" spans="2:28" s="52" customFormat="1">
+      <c r="C6" s="52" t="s">
+        <v>131</v>
+      </c>
+      <c r="D6" s="59">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E6" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="F6" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="G6" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H6" s="52">
+        <v>1024</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J6" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K6" s="52">
+        <v>298</v>
+      </c>
+      <c r="L6" s="52">
+        <v>1</v>
+      </c>
+      <c r="M6" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="N6" s="52">
+        <v>1</v>
+      </c>
+      <c r="O6" s="52">
+        <v>5</v>
+      </c>
+      <c r="P6" s="52">
+        <f t="shared" ref="P6:P7" si="1">1000000*O6/N6</f>
+        <v>5000000</v>
+      </c>
+      <c r="S6" s="54"/>
+      <c r="T6" s="55">
+        <v>31.248999999999999</v>
+      </c>
+      <c r="U6" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="V6" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="W6" s="52">
+        <v>768.41700000000003</v>
+      </c>
+      <c r="X6" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y6" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z6" s="52">
+        <v>0.24929999999999999</v>
+      </c>
+      <c r="AA6" s="53" t="s">
+        <v>143</v>
+      </c>
+      <c r="AB6" s="57"/>
+    </row>
+    <row r="7" spans="2:28" s="52" customFormat="1">
+      <c r="C7" s="52" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" s="59">
+        <v>1.25</v>
+      </c>
+      <c r="E7" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="F7" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="G7" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H7" s="52">
+        <v>1024</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J7" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K7" s="52">
+        <v>298</v>
+      </c>
+      <c r="L7" s="52">
+        <v>1</v>
+      </c>
+      <c r="M7" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="N7" s="52">
+        <v>1</v>
+      </c>
+      <c r="O7" s="52">
+        <v>5</v>
+      </c>
+      <c r="P7" s="52">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="S7" s="54"/>
+      <c r="T7" s="55">
+        <v>22.291</v>
+      </c>
+      <c r="U7" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="V7" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="W7" s="52">
+        <v>775.88400000000001</v>
+      </c>
+      <c r="X7" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y7" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z7" s="52">
+        <v>0.21210000000000001</v>
+      </c>
+      <c r="AA7" s="53" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB7" s="57"/>
+    </row>
+    <row r="8" spans="2:28" s="52" customFormat="1">
+      <c r="C8" s="52" t="s">
+        <v>132</v>
+      </c>
+      <c r="D8" s="59">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="E8" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="F8" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="G8" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="H8" s="52">
+        <v>1024</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="J8" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="K8" s="52">
+        <v>298</v>
+      </c>
+      <c r="L8" s="52">
+        <v>1</v>
+      </c>
+      <c r="M8" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="N8" s="52">
+        <v>1</v>
+      </c>
+      <c r="O8" s="52">
+        <v>5</v>
+      </c>
+      <c r="P8" s="52">
+        <f t="shared" ref="P8" si="2">1000000*O8/N8</f>
+        <v>5000000</v>
+      </c>
+      <c r="S8" s="54"/>
+      <c r="T8" s="55">
+        <v>26.669</v>
+      </c>
+      <c r="U8" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="V8" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="W8" s="52">
+        <v>771.99900000000002</v>
+      </c>
+      <c r="X8" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y8" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z8" s="52">
+        <v>0.2487</v>
+      </c>
+      <c r="AA8" s="52" t="s">
+        <v>146</v>
+      </c>
+      <c r="AB8" s="57" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="10" spans="2:28" s="20" customFormat="1">
+      <c r="B10" s="20" t="s">
+        <v>243</v>
+      </c>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="S10" s="27"/>
+      <c r="T10" s="49"/>
+      <c r="V10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="AB10" s="51"/>
+    </row>
+    <row r="11" spans="2:28">
+      <c r="D11" s="23">
+        <v>1.05</v>
+      </c>
+      <c r="E11" s="23">
+        <v>1</v>
+      </c>
+      <c r="F11" s="23">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="Q3:S3"/>
+    <mergeCell ref="U3:AA3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAA431D-5536-2842-8755-AEE6B34A948B}">
+  <dimension ref="B2:AC50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1"/>
+      <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
+      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="55.25" style="19" customWidth="1"/>
+    <col min="3" max="5" width="11.875" style="19" customWidth="1"/>
+    <col min="6" max="8" width="9.125" style="23" customWidth="1"/>
+    <col min="9" max="9" width="11.125" style="19" customWidth="1"/>
+    <col min="10" max="10" width="8.375" style="19" customWidth="1"/>
+    <col min="11" max="11" width="18" style="19" customWidth="1"/>
+    <col min="12" max="17" width="10.875" style="19"/>
+    <col min="18" max="18" width="11.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="12.875" style="19" customWidth="1"/>
+    <col min="20" max="20" width="10.5" style="19" customWidth="1"/>
+    <col min="21" max="21" width="8.375" style="26" customWidth="1"/>
+    <col min="22" max="22" width="10.875" style="48"/>
+    <col min="23" max="23" width="9" style="19" customWidth="1"/>
+    <col min="24" max="24" width="9" style="32" customWidth="1"/>
+    <col min="25" max="26" width="9" style="19" customWidth="1"/>
+    <col min="27" max="27" width="9" style="32" customWidth="1"/>
+    <col min="28" max="28" width="9" style="38" customWidth="1"/>
+    <col min="29" max="29" width="47" style="19" customWidth="1"/>
+    <col min="30" max="16384" width="10.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:29">
+      <c r="W2"/>
+      <c r="X2" s="30"/>
+      <c r="Y2"/>
+      <c r="Z2"/>
+    </row>
+    <row r="3" spans="2:29">
+      <c r="C3" s="19" t="s">
+        <v>148</v>
+      </c>
+      <c r="Q3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="S3" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="T3" s="81"/>
+      <c r="U3" s="82"/>
+      <c r="W3" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="X3" s="81"/>
+      <c r="Y3" s="81"/>
+      <c r="Z3" s="81"/>
+      <c r="AA3" s="81"/>
+      <c r="AB3" s="81"/>
+      <c r="AC3" s="81"/>
+    </row>
+    <row r="4" spans="2:29" s="20" customFormat="1">
+      <c r="B4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>168</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>227</v>
+      </c>
+      <c r="F4" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>134</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="P4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="S4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="V4" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="W4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="X4" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="Z4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="AA4" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB4" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="AC4" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:29" s="52" customFormat="1">
+      <c r="B5" s="52" t="s">
+        <v>152</v>
+      </c>
+      <c r="C5" s="52">
+        <v>7</v>
+      </c>
+      <c r="F5" s="58">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G5" s="59">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H5" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="I5" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" s="52">
+        <v>1024</v>
+      </c>
+      <c r="K5" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L5" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M5" s="52">
+        <v>298</v>
+      </c>
+      <c r="N5" s="52">
+        <v>1</v>
+      </c>
+      <c r="O5" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P5" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q5" s="52">
+        <v>5</v>
+      </c>
+      <c r="R5" s="52">
+        <f t="shared" ref="R5:R6" si="0">1000000*Q5/P5</f>
+        <v>5000000</v>
+      </c>
+      <c r="U5" s="54"/>
+      <c r="V5" s="55">
+        <v>13.738</v>
+      </c>
+      <c r="W5" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="X5" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y5" s="52">
+        <v>786.67399999999998</v>
+      </c>
+      <c r="Z5" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA5" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB5" s="60">
+        <v>0.32929999999999998</v>
+      </c>
+      <c r="AC5" s="53" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="6" spans="2:29" s="52" customFormat="1">
+      <c r="C6" s="52">
+        <v>7</v>
+      </c>
+      <c r="F6" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="G6" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="H6" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="I6" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J6" s="52">
+        <v>1024</v>
+      </c>
+      <c r="K6" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L6" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M6" s="52">
+        <v>298</v>
+      </c>
+      <c r="N6" s="52">
+        <v>1</v>
+      </c>
+      <c r="O6" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P6" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q6" s="52">
+        <v>5</v>
+      </c>
+      <c r="R6" s="52">
+        <f t="shared" si="0"/>
+        <v>5000000</v>
+      </c>
+      <c r="U6" s="54"/>
+      <c r="V6" s="55">
+        <v>15.555</v>
+      </c>
+      <c r="W6" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="X6" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y6" s="52">
+        <v>786.36199999999997</v>
+      </c>
+      <c r="Z6" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA6" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB6" s="60">
+        <v>0.33310000000000001</v>
+      </c>
+      <c r="AC6" s="53" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="7" spans="2:29" s="52" customFormat="1">
+      <c r="B7" s="52" t="s">
+        <v>151</v>
+      </c>
+      <c r="C7" s="52">
+        <v>4</v>
+      </c>
+      <c r="F7" s="58">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="G7" s="59">
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="H7" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="I7" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J7" s="52">
+        <v>1024</v>
+      </c>
+      <c r="K7" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L7" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M7" s="52">
+        <v>298</v>
+      </c>
+      <c r="N7" s="52">
+        <v>1</v>
+      </c>
+      <c r="O7" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P7" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q7" s="52">
+        <v>5</v>
+      </c>
+      <c r="R7" s="52">
+        <f t="shared" ref="R7:R8" si="1">1000000*Q7/P7</f>
+        <v>5000000</v>
+      </c>
+      <c r="U7" s="54"/>
+      <c r="V7" s="55">
+        <v>14.615</v>
+      </c>
+      <c r="W7" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="X7" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y7" s="52">
+        <v>790.35900000000004</v>
+      </c>
+      <c r="Z7" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA7" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB7" s="60">
+        <v>0.29289999999999999</v>
+      </c>
+      <c r="AC7" s="52" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="8" spans="2:29" s="52" customFormat="1">
+      <c r="C8" s="52">
+        <v>4</v>
+      </c>
+      <c r="F8" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="G8" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="H8" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="I8" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" s="52">
+        <v>1024</v>
+      </c>
+      <c r="K8" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L8" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M8" s="52">
+        <v>298</v>
+      </c>
+      <c r="N8" s="52">
+        <v>1</v>
+      </c>
+      <c r="O8" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P8" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q8" s="52">
+        <v>5</v>
+      </c>
+      <c r="R8" s="52">
+        <f t="shared" si="1"/>
+        <v>5000000</v>
+      </c>
+      <c r="U8" s="54"/>
+      <c r="V8" s="55">
+        <v>16.268999999999998</v>
+      </c>
+      <c r="W8" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="X8" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y8" s="52">
+        <v>790.34900000000005</v>
+      </c>
+      <c r="Z8" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA8" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB8" s="60">
+        <v>0.30399999999999999</v>
+      </c>
+      <c r="AC8" s="52" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="9" spans="2:29" s="52" customFormat="1">
+      <c r="F9" s="59"/>
+      <c r="G9" s="59"/>
+      <c r="H9" s="59"/>
+      <c r="U9" s="54"/>
+      <c r="V9" s="55"/>
+      <c r="AB9" s="60"/>
+    </row>
+    <row r="10" spans="2:29" s="52" customFormat="1">
+      <c r="B10" s="52" t="s">
+        <v>167</v>
+      </c>
+      <c r="C10" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F10" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="G10" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="H10" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="I10" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J10" s="52">
+        <v>1024</v>
+      </c>
+      <c r="K10" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="52">
+        <v>298</v>
+      </c>
+      <c r="N10" s="52">
+        <v>1</v>
+      </c>
+      <c r="O10" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P10" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q10" s="52">
+        <v>5</v>
+      </c>
+      <c r="R10" s="52">
+        <f t="shared" ref="R10" si="2">1000000*Q10/P10</f>
+        <v>5000000</v>
+      </c>
+      <c r="U10" s="54"/>
+      <c r="V10" s="55">
+        <v>40.869</v>
+      </c>
+      <c r="W10" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="X10" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y10" s="52">
+        <v>787.04600000000005</v>
+      </c>
+      <c r="Z10" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA10" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB10" s="60">
+        <v>0.31109999999999999</v>
+      </c>
+      <c r="AC10" s="52" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" spans="2:29" s="52" customFormat="1">
+      <c r="B11" s="52" t="s">
+        <v>171</v>
+      </c>
+      <c r="C11" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F11" s="58">
+        <v>1.05</v>
+      </c>
+      <c r="G11" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="H11" s="59">
+        <v>1</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J11" s="52">
+        <v>1024</v>
+      </c>
+      <c r="K11" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L11" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M11" s="52">
+        <v>298</v>
+      </c>
+      <c r="N11" s="52">
+        <v>1</v>
+      </c>
+      <c r="O11" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P11" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q11" s="52">
+        <v>5</v>
+      </c>
+      <c r="R11" s="52">
+        <f t="shared" ref="R11" si="3">1000000*Q11/P11</f>
+        <v>5000000</v>
+      </c>
+      <c r="U11" s="54"/>
+      <c r="V11" s="55"/>
+      <c r="W11" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="X11" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z11" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA11" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB11" s="60"/>
+    </row>
+    <row r="12" spans="2:29" s="52" customFormat="1">
+      <c r="B12" s="52" t="s">
+        <v>170</v>
+      </c>
+      <c r="C12" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="59">
+        <v>1</v>
+      </c>
+      <c r="G12" s="59">
+        <v>1</v>
+      </c>
+      <c r="H12" s="59">
+        <v>1</v>
+      </c>
+      <c r="I12" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J12" s="52">
+        <v>1024</v>
+      </c>
+      <c r="K12" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L12" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M12" s="52">
+        <v>298</v>
+      </c>
+      <c r="N12" s="52">
+        <v>1</v>
+      </c>
+      <c r="O12" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P12" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q12" s="52">
+        <v>5</v>
+      </c>
+      <c r="R12" s="52">
+        <f t="shared" ref="R12" si="4">1000000*Q12/P12</f>
+        <v>5000000</v>
+      </c>
+      <c r="U12" s="54"/>
+      <c r="V12" s="55"/>
+      <c r="W12" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="X12" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z12" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA12" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB12" s="60"/>
+    </row>
+    <row r="13" spans="2:29" s="52" customFormat="1">
+      <c r="B13" s="53" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F13" s="58">
+        <v>1.05</v>
+      </c>
+      <c r="G13" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="H13" s="59">
+        <v>1.05</v>
+      </c>
+      <c r="I13" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J13" s="52">
+        <v>1024</v>
+      </c>
+      <c r="K13" s="52" t="s">
+        <v>101</v>
+      </c>
+      <c r="L13" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="M13" s="52">
+        <v>298</v>
+      </c>
+      <c r="N13" s="52">
+        <v>1</v>
+      </c>
+      <c r="O13" s="53" t="s">
+        <v>57</v>
+      </c>
+      <c r="P13" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q13" s="52">
+        <v>5</v>
+      </c>
+      <c r="R13" s="52">
+        <f t="shared" ref="R13:R15" si="5">1000000*Q13/P13</f>
+        <v>5000000</v>
+      </c>
+      <c r="U13" s="54"/>
+      <c r="V13" s="55">
+        <v>19.827999999999999</v>
+      </c>
+      <c r="W13" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="X13" s="52" t="s">
+        <v>137</v>
+      </c>
+      <c r="Y13" s="52">
+        <v>786.56299999999999</v>
+      </c>
+      <c r="Z13" s="52" t="s">
+        <v>26</v>
+      </c>
+      <c r="AA13" s="56" t="s">
+        <v>137</v>
+      </c>
+      <c r="AB13" s="60">
+        <v>0.31119999999999998</v>
+      </c>
+      <c r="AC13" s="52" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="14" spans="2:29" s="52" customFormat="1">
+      <c r="F14" s="59"/>
+      <c r="G14" s="59"/>
+      <c r="H14" s="59"/>
+      <c r="U14" s="54"/>
+      <c r="V14" s="55"/>
+      <c r="AB14" s="60"/>
+    </row>
+    <row r="15" spans="2:29" s="52" customFormat="1">
+      <c r="B15" s="52" t="s">
+        <v>166</v>
+      </c>
+      <c r="C15" s="52" t="s">
+        <v>165</v>
+      </c>
+      <c r="F15" s="59">
+        <v>1</v>
+      </c>
+      <c r="G15" s="59">
+        <v>1</v>
+      </c>
+      <c r="H15" s="59">
+        <v>1</v>
+      </c>
+      <c r="I15" s="52" t="s">
+        <v>44</v>
+      </c>
+      <c r="J15" s="52">
+        <v>1024</v>
+      </c>
+      <c r="K15" s="52" t="s">
+        <v>164</v>
+      </c>
+      <c r="L15" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="N15" s="52">
+        <v>1</v>
+      </c>
+      <c r="P15" s="52">
+        <v>1</v>
+      </c>
+      <c r="Q15" s="52">
+        <v>100</v>
+      </c>
+      <c r="R15" s="52">
+        <f t="shared" si="5"/>
+        <v>100000000</v>
+      </c>
+      <c r="U15" s="54"/>
+      <c r="V15" s="55"/>
+      <c r="AB15" s="60"/>
+    </row>
+    <row r="17" spans="2:29" s="20" customFormat="1">
+      <c r="B17" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="U17" s="27"/>
+      <c r="V17" s="49"/>
+      <c r="X17" s="31"/>
+      <c r="AA17" s="31"/>
+      <c r="AB17" s="39"/>
+    </row>
+    <row r="18" spans="2:29" s="77" customFormat="1">
+      <c r="F18" s="76"/>
+      <c r="G18" s="76"/>
+      <c r="H18" s="76"/>
+      <c r="U18" s="78"/>
+      <c r="V18" s="79"/>
+      <c r="AB18" s="80"/>
+    </row>
+    <row r="19" spans="2:29" s="77" customFormat="1">
+      <c r="B19" s="77" t="s">
+        <v>221</v>
+      </c>
+      <c r="C19" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D19" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E19" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="F19" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G19" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H19" s="76">
+        <v>1</v>
+      </c>
+      <c r="I19" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M19" s="77">
+        <v>298</v>
+      </c>
+      <c r="N19" s="77">
+        <v>1</v>
+      </c>
+      <c r="U19" s="78"/>
+      <c r="V19" s="79"/>
+      <c r="AB19" s="80"/>
+    </row>
+    <row r="20" spans="2:29" s="77" customFormat="1">
+      <c r="B20" s="77" t="s">
+        <v>223</v>
+      </c>
+      <c r="C20" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E20" s="77" t="s">
+        <v>222</v>
+      </c>
+      <c r="F20" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G20" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H20" s="76">
+        <v>1</v>
+      </c>
+      <c r="I20" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J20" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M20" s="77">
+        <v>298</v>
+      </c>
+      <c r="N20" s="77">
+        <v>1</v>
+      </c>
+      <c r="U20" s="78"/>
+      <c r="V20" s="79"/>
+      <c r="AB20" s="80"/>
+    </row>
+    <row r="21" spans="2:29" s="77" customFormat="1">
+      <c r="F21" s="76"/>
+      <c r="G21" s="76"/>
+      <c r="H21" s="76"/>
+      <c r="U21" s="78"/>
+      <c r="V21" s="79"/>
+      <c r="AB21" s="80"/>
+    </row>
+    <row r="22" spans="2:29" s="77" customFormat="1">
+      <c r="C22" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D22" s="77" t="s">
+        <v>229</v>
+      </c>
+      <c r="E22" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F22" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G22" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H22" s="76">
+        <v>1</v>
+      </c>
+      <c r="I22" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M22" s="77">
+        <v>298</v>
+      </c>
+      <c r="N22" s="77">
+        <v>1</v>
+      </c>
+      <c r="U22" s="78"/>
+      <c r="V22" s="79"/>
+      <c r="AB22" s="80"/>
+      <c r="AC22" s="77" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="23" spans="2:29" s="77" customFormat="1">
+      <c r="C23" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E23" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F23" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G23" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H23" s="76">
+        <v>1</v>
+      </c>
+      <c r="I23" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J23" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M23" s="77">
+        <v>298</v>
+      </c>
+      <c r="N23" s="77">
+        <v>1</v>
+      </c>
+      <c r="U23" s="78"/>
+      <c r="V23" s="79"/>
+      <c r="AB23" s="80"/>
+      <c r="AC23" s="77" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="24" spans="2:29" s="77" customFormat="1">
+      <c r="F24" s="76"/>
+      <c r="G24" s="76"/>
+      <c r="H24" s="76"/>
+      <c r="U24" s="78"/>
+      <c r="V24" s="79"/>
+      <c r="AB24" s="80"/>
+    </row>
+    <row r="25" spans="2:29" s="77" customFormat="1">
+      <c r="B25" s="77" t="s">
+        <v>232</v>
+      </c>
+      <c r="C25" s="77" t="s">
+        <v>220</v>
+      </c>
+      <c r="D25" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="E25" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F25" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G25" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H25" s="76">
+        <v>1</v>
+      </c>
+      <c r="I25" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J25" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M25" s="77">
+        <v>298</v>
+      </c>
+      <c r="N25" s="77">
+        <v>1</v>
+      </c>
+      <c r="U25" s="78"/>
+      <c r="V25" s="79"/>
+      <c r="AB25" s="80"/>
+      <c r="AC25" s="77" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="26" spans="2:29" s="77" customFormat="1">
+      <c r="B26" s="77" t="s">
+        <v>233</v>
+      </c>
+      <c r="C26" s="77" t="s">
+        <v>165</v>
+      </c>
+      <c r="E26" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F26" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="G26" s="76">
+        <v>1.05</v>
+      </c>
+      <c r="H26" s="76">
+        <v>1</v>
+      </c>
+      <c r="I26" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J26" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M26" s="77">
+        <v>298</v>
+      </c>
+      <c r="N26" s="77">
+        <v>1</v>
+      </c>
+      <c r="U26" s="78"/>
+      <c r="V26" s="79"/>
+      <c r="AB26" s="80"/>
+      <c r="AC26" s="77" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="27" spans="2:29" s="77" customFormat="1">
+      <c r="F27" s="76"/>
+      <c r="G27" s="76"/>
+      <c r="H27" s="76"/>
+      <c r="U27" s="78"/>
+      <c r="V27" s="79"/>
+      <c r="AB27" s="80"/>
+    </row>
+    <row r="28" spans="2:29" s="77" customFormat="1">
+      <c r="B28" s="77" t="s">
+        <v>236</v>
+      </c>
+      <c r="C28" s="77">
+        <v>4</v>
+      </c>
+      <c r="F28" s="76"/>
+      <c r="G28" s="76"/>
+      <c r="H28" s="76"/>
+      <c r="U28" s="78"/>
+      <c r="V28" s="79"/>
+      <c r="AB28" s="80"/>
+      <c r="AC28" s="77" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="29" spans="2:29" s="77" customFormat="1">
+      <c r="F29" s="76"/>
+      <c r="G29" s="76"/>
+      <c r="H29" s="76"/>
+      <c r="U29" s="78"/>
+      <c r="V29" s="79"/>
+      <c r="AB29" s="80"/>
+    </row>
+    <row r="30" spans="2:29" s="77" customFormat="1">
+      <c r="B30" s="77" t="s">
+        <v>241</v>
+      </c>
+      <c r="C30" s="77">
+        <v>4</v>
+      </c>
+      <c r="D30" s="77" t="s">
+        <v>230</v>
+      </c>
+      <c r="E30" s="77" t="s">
+        <v>224</v>
+      </c>
+      <c r="F30" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="G30" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="H30" s="76">
+        <v>0.8</v>
+      </c>
+      <c r="I30" s="77" t="s">
+        <v>44</v>
+      </c>
+      <c r="J30" s="77">
+        <v>1024</v>
+      </c>
+      <c r="M30" s="77">
+        <v>298</v>
+      </c>
+      <c r="N30" s="77">
+        <v>1</v>
+      </c>
+      <c r="U30" s="78"/>
+      <c r="V30" s="79"/>
+      <c r="AB30" s="80"/>
+      <c r="AC30" s="77" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="31" spans="2:29" s="77" customFormat="1">
+      <c r="B31" s="77" t="s">
+        <v>244</v>
+      </c>
+      <c r="F31" s="76"/>
+      <c r="G31" s="76"/>
+      <c r="H31" s="76"/>
+      <c r="U31" s="78"/>
+      <c r="V31" s="79"/>
+      <c r="AB31" s="80"/>
+    </row>
+    <row r="32" spans="2:29" s="77" customFormat="1">
+      <c r="F32" s="76"/>
+      <c r="G32" s="76"/>
+      <c r="H32" s="76"/>
+      <c r="U32" s="78"/>
+      <c r="V32" s="79"/>
+      <c r="AB32" s="80"/>
+    </row>
+    <row r="33" spans="2:28" s="77" customFormat="1">
+      <c r="B33" s="77" t="s">
+        <v>242</v>
+      </c>
+      <c r="F33" s="76"/>
+      <c r="G33" s="76"/>
+      <c r="H33" s="76"/>
+      <c r="U33" s="78"/>
+      <c r="V33" s="79"/>
+      <c r="AB33" s="80"/>
+    </row>
+    <row r="34" spans="2:28" s="77" customFormat="1">
+      <c r="F34" s="76"/>
+      <c r="G34" s="76"/>
+      <c r="H34" s="76"/>
+      <c r="U34" s="78"/>
+      <c r="V34" s="79"/>
+      <c r="AB34" s="80"/>
+    </row>
+    <row r="35" spans="2:28" s="77" customFormat="1">
+      <c r="F35" s="76"/>
+      <c r="G35" s="76"/>
+      <c r="H35" s="76"/>
+      <c r="U35" s="78"/>
+      <c r="V35" s="79"/>
+      <c r="AB35" s="80"/>
+    </row>
+    <row r="36" spans="2:28" s="77" customFormat="1">
+      <c r="F36" s="76"/>
+      <c r="G36" s="76"/>
+      <c r="H36" s="76"/>
+      <c r="U36" s="78"/>
+      <c r="V36" s="79"/>
+      <c r="AB36" s="80"/>
+    </row>
+    <row r="37" spans="2:28" s="77" customFormat="1">
+      <c r="F37" s="76"/>
+      <c r="G37" s="76"/>
+      <c r="H37" s="76"/>
+      <c r="U37" s="78"/>
+      <c r="V37" s="79"/>
+      <c r="AB37" s="80"/>
+    </row>
+    <row r="38" spans="2:28" s="77" customFormat="1">
+      <c r="F38" s="76"/>
+      <c r="G38" s="76"/>
+      <c r="H38" s="76"/>
+      <c r="U38" s="78"/>
+      <c r="V38" s="79"/>
+      <c r="AB38" s="80"/>
+    </row>
+    <row r="39" spans="2:28" s="77" customFormat="1">
+      <c r="F39" s="76"/>
+      <c r="G39" s="76"/>
+      <c r="H39" s="76"/>
+      <c r="U39" s="78"/>
+      <c r="V39" s="79"/>
+      <c r="AB39" s="80"/>
+    </row>
+    <row r="40" spans="2:28" s="77" customFormat="1">
+      <c r="F40" s="76"/>
+      <c r="G40" s="76"/>
+      <c r="H40" s="76"/>
+      <c r="U40" s="78"/>
+      <c r="V40" s="79"/>
+      <c r="AB40" s="80"/>
+    </row>
+    <row r="41" spans="2:28" s="77" customFormat="1">
+      <c r="F41" s="76"/>
+      <c r="G41" s="76"/>
+      <c r="H41" s="76"/>
+      <c r="U41" s="78"/>
+      <c r="V41" s="79"/>
+      <c r="AB41" s="80"/>
+    </row>
+    <row r="42" spans="2:28" s="77" customFormat="1">
+      <c r="F42" s="76"/>
+      <c r="G42" s="76"/>
+      <c r="H42" s="76"/>
+      <c r="U42" s="78"/>
+      <c r="V42" s="79"/>
+      <c r="AB42" s="80"/>
+    </row>
+    <row r="43" spans="2:28" s="77" customFormat="1">
+      <c r="F43" s="76"/>
+      <c r="G43" s="76"/>
+      <c r="H43" s="76"/>
+      <c r="U43" s="78"/>
+      <c r="V43" s="79"/>
+      <c r="AB43" s="80"/>
+    </row>
+    <row r="44" spans="2:28" s="77" customFormat="1">
+      <c r="F44" s="76"/>
+      <c r="G44" s="76"/>
+      <c r="H44" s="76"/>
+      <c r="U44" s="78"/>
+      <c r="V44" s="79"/>
+      <c r="AB44" s="80"/>
+    </row>
+    <row r="45" spans="2:28" s="77" customFormat="1">
+      <c r="F45" s="76"/>
+      <c r="G45" s="76"/>
+      <c r="H45" s="76"/>
+      <c r="U45" s="78"/>
+      <c r="V45" s="79"/>
+      <c r="AB45" s="80"/>
+    </row>
+    <row r="46" spans="2:28" s="77" customFormat="1">
+      <c r="F46" s="76"/>
+      <c r="G46" s="76"/>
+      <c r="H46" s="76"/>
+      <c r="U46" s="78"/>
+      <c r="V46" s="79"/>
+      <c r="AB46" s="80"/>
+    </row>
+    <row r="47" spans="2:28" s="77" customFormat="1">
+      <c r="F47" s="76"/>
+      <c r="G47" s="76"/>
+      <c r="H47" s="76"/>
+      <c r="U47" s="78"/>
+      <c r="V47" s="79"/>
+      <c r="AB47" s="80"/>
+    </row>
+    <row r="48" spans="2:28" s="77" customFormat="1">
+      <c r="F48" s="76"/>
+      <c r="G48" s="76"/>
+      <c r="H48" s="76"/>
+      <c r="U48" s="78"/>
+      <c r="V48" s="79"/>
+      <c r="AB48" s="80"/>
+    </row>
+    <row r="49" spans="6:28" s="77" customFormat="1">
+      <c r="F49" s="76"/>
+      <c r="G49" s="76"/>
+      <c r="H49" s="76"/>
+      <c r="U49" s="78"/>
+      <c r="V49" s="79"/>
+      <c r="AB49" s="80"/>
+    </row>
+    <row r="50" spans="6:28" s="77" customFormat="1">
+      <c r="F50" s="76"/>
+      <c r="G50" s="76"/>
+      <c r="H50" s="76"/>
+      <c r="U50" s="78"/>
+      <c r="V50" s="79"/>
+      <c r="AB50" s="80"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="S3:U3"/>
+    <mergeCell ref="W3:AC3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BA409B-F542-984C-90DD-63A5E341973F}">
+  <dimension ref="B2:Y9"/>
+  <sheetViews>
+    <sheetView topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="X13" sqref="X13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.875" style="19" customWidth="1"/>
+    <col min="2" max="2" width="58.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="12" style="19" customWidth="1"/>
+    <col min="4" max="4" width="11.125" style="19" customWidth="1"/>
+    <col min="5" max="5" width="8.375" style="19" customWidth="1"/>
+    <col min="6" max="6" width="18" style="19" customWidth="1"/>
+    <col min="7" max="12" width="10.875" style="19"/>
+    <col min="13" max="13" width="11.125" style="19" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.875" style="19" customWidth="1"/>
+    <col min="15" max="15" width="10.5" style="19" customWidth="1"/>
+    <col min="16" max="16" width="8.375" style="26" customWidth="1"/>
+    <col min="17" max="17" width="10.875" style="48"/>
+    <col min="18" max="18" width="9" style="19" customWidth="1"/>
+    <col min="19" max="19" width="9" style="32" customWidth="1"/>
+    <col min="20" max="21" width="9" style="19" customWidth="1"/>
+    <col min="22" max="22" width="9" style="32" customWidth="1"/>
+    <col min="23" max="23" width="9" style="38" customWidth="1"/>
+    <col min="24" max="24" width="47" style="19" customWidth="1"/>
+    <col min="25" max="25" width="34" style="19" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:25">
+      <c r="R2"/>
+      <c r="S2" s="30"/>
+      <c r="T2"/>
+      <c r="U2"/>
+    </row>
+    <row r="3" spans="2:25">
+      <c r="L3" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="N3" s="81" t="s">
+        <v>82</v>
+      </c>
+      <c r="O3" s="81"/>
+      <c r="P3" s="82"/>
+      <c r="R3" s="81" t="s">
+        <v>103</v>
+      </c>
+      <c r="S3" s="81"/>
+      <c r="T3" s="81"/>
+      <c r="U3" s="81"/>
+      <c r="V3" s="81"/>
+      <c r="W3" s="81"/>
+      <c r="X3" s="81"/>
+    </row>
+    <row r="4" spans="2:25" s="20" customFormat="1">
+      <c r="B4" s="20" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>93</v>
+      </c>
+      <c r="E4" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" s="20" t="s">
+        <v>0</v>
+      </c>
+      <c r="G4" s="20" t="s">
+        <v>1</v>
+      </c>
+      <c r="H4" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="I4" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="J4" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="K4" s="20" t="s">
+        <v>89</v>
+      </c>
+      <c r="L4" s="20" t="s">
+        <v>86</v>
+      </c>
+      <c r="M4" s="20" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="O4" s="20" t="s">
+        <v>98</v>
+      </c>
+      <c r="P4" s="27" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q4" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="R4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="S4" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="T4" s="20" t="s">
+        <v>105</v>
+      </c>
+      <c r="U4" s="20" t="s">
+        <v>104</v>
+      </c>
+      <c r="V4" s="31" t="s">
+        <v>106</v>
+      </c>
+      <c r="W4" s="39" t="s">
+        <v>105</v>
+      </c>
+      <c r="X4" s="20" t="s">
+        <v>5</v>
+      </c>
+      <c r="Y4" s="20" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="2:25">
+      <c r="B5" s="19" t="s">
+        <v>157</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E5" s="19">
+        <v>1024</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5" s="19">
+        <v>298</v>
+      </c>
+      <c r="I5" s="19">
+        <v>1</v>
+      </c>
+      <c r="J5" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K5" s="19">
+        <v>1</v>
+      </c>
+      <c r="L5" s="19">
+        <v>5</v>
+      </c>
+      <c r="M5" s="19">
+        <f t="shared" ref="M5" si="0">1000000*L5/K5</f>
+        <v>5000000</v>
+      </c>
+      <c r="Q5" s="48">
+        <v>41.469000000000001</v>
+      </c>
+      <c r="R5" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S5" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="T5" s="19">
+        <v>775.06899999999996</v>
+      </c>
+      <c r="U5" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V5" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="W5" s="38">
+        <v>0.2656</v>
+      </c>
+      <c r="X5" s="25" t="s">
+        <v>158</v>
+      </c>
+      <c r="Y5" s="19" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:25">
+      <c r="C6" s="19" t="s">
+        <v>161</v>
+      </c>
+      <c r="D6" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E6" s="19">
+        <v>1024</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H6" s="19">
+        <v>298</v>
+      </c>
+      <c r="I6" s="19">
+        <v>1</v>
+      </c>
+      <c r="J6" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K6" s="19">
+        <v>1</v>
+      </c>
+      <c r="L6" s="19">
+        <v>5</v>
+      </c>
+      <c r="M6" s="19">
+        <f t="shared" ref="M6" si="1">1000000*L6/K6</f>
+        <v>5000000</v>
+      </c>
+      <c r="Q6" s="48">
+        <v>40.271000000000001</v>
+      </c>
+      <c r="R6" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="S6" s="32" t="s">
+        <v>137</v>
+      </c>
+      <c r="T6" s="19">
+        <v>790.25</v>
+      </c>
+      <c r="U6" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="V6" s="33" t="s">
+        <v>137</v>
+      </c>
+      <c r="W6" s="38">
+        <v>0.1439</v>
+      </c>
+      <c r="X6" s="19" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="9" spans="2:25">
+      <c r="B9" s="19" t="s">
+        <v>162</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>160</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="19">
+        <v>1024</v>
+      </c>
+      <c r="F9" s="19" t="s">
+        <v>164</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="H9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="I9" s="19">
+        <v>1</v>
+      </c>
+      <c r="J9" s="25" t="s">
+        <v>57</v>
+      </c>
+      <c r="K9" s="19">
+        <v>1</v>
+      </c>
+      <c r="L9" s="19">
+        <v>100</v>
+      </c>
+      <c r="M9" s="19">
+        <v>100000000</v>
+      </c>
+      <c r="N9" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="O9" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="P9" s="19">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="R3:X3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDBDFB-84C9-0D42-9872-D0E4DAFE61DB}">
+  <dimension ref="B1:K9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="K6" sqref="K6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="7" width="10.875" style="19"/>
+    <col min="8" max="8" width="10.875" style="21"/>
+    <col min="9" max="10" width="10.875" style="23"/>
+    <col min="11" max="11" width="10.875" style="28"/>
+    <col min="12" max="16384" width="10.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="D1" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="E1" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="G1" s="19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>72</v>
+      </c>
+      <c r="J1" s="23" t="s">
+        <v>74</v>
+      </c>
+      <c r="K1" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" s="20" customFormat="1">
+      <c r="B2" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C2" s="20" t="s">
+        <v>64</v>
+      </c>
+      <c r="D2" s="20" t="s">
+        <v>65</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" s="20" t="s">
+        <v>66</v>
+      </c>
+      <c r="G2" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="H2" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="I2" s="24" t="s">
+        <v>70</v>
+      </c>
+      <c r="J2" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="K2" s="29" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="19">
+        <v>1024</v>
+      </c>
+      <c r="D3" s="19">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="E3" s="7">
+        <v>770.1</v>
+      </c>
+      <c r="F3" s="19">
+        <v>0.7</v>
+      </c>
+      <c r="G3" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="21">
+        <f>C3*D3/(E3*F3*0.0006022)</f>
+        <v>714.15168393046042</v>
+      </c>
+      <c r="I3" s="23">
+        <f>H3^(1/3)</f>
+        <v>8.9384762016850914</v>
+      </c>
+      <c r="J3" s="23">
+        <f>H3^(1/3)-G3</f>
+        <v>8.7384762016850921</v>
+      </c>
+      <c r="K3" s="28">
+        <f>J3*10</f>
+        <v>87.384762016850914</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="19">
+        <v>1024</v>
+      </c>
+      <c r="D4" s="19">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="E4" s="7">
+        <v>768.5</v>
+      </c>
+      <c r="F4" s="19">
+        <v>1</v>
+      </c>
+      <c r="G4" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H4" s="21">
+        <f>C4*D4/(E4*F4*0.0006022)</f>
+        <v>469.96968608055437</v>
+      </c>
+      <c r="I4" s="23">
+        <f>H4^(1/3)</f>
+        <v>7.7748129376349988</v>
+      </c>
+      <c r="J4" s="23">
+        <f>H4^(1/3)-G4</f>
+        <v>7.5248129376349988</v>
+      </c>
+      <c r="K4" s="28">
+        <f>J4*10</f>
+        <v>75.248129376349993</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="C6" s="19">
+        <v>2048</v>
+      </c>
+      <c r="D6" s="19">
+        <v>0.1142</v>
+      </c>
+      <c r="E6" s="7">
+        <v>698.6</v>
+      </c>
+      <c r="F6" s="19">
+        <v>1</v>
+      </c>
+      <c r="G6" s="19">
+        <v>0.2</v>
+      </c>
+      <c r="H6" s="21">
+        <f>C6*D6/(E6*F6*0.0006022)</f>
+        <v>555.93846515443943</v>
+      </c>
+      <c r="I6" s="23">
+        <f>H6^(1/3)</f>
+        <v>8.2225951532387516</v>
+      </c>
+      <c r="J6" s="23">
+        <f>H6^(1/3)-G6</f>
+        <v>8.0225951532387523</v>
+      </c>
+      <c r="K6" s="28">
+        <f>J6*10</f>
+        <v>80.225951532387526</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="B7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7" s="19">
+        <v>2048</v>
+      </c>
+      <c r="D7" s="19">
+        <v>0.1002</v>
+      </c>
+      <c r="E7" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="F7" s="19">
+        <v>1</v>
+      </c>
+      <c r="G7" s="19">
+        <v>0.25</v>
+      </c>
+      <c r="H7" s="21">
+        <f>C7*D7/(E7*F7*0.0006022)</f>
+        <v>501.49598638692709</v>
+      </c>
+      <c r="I7" s="23">
+        <f>H7^(1/3)</f>
+        <v>7.9449131462311176</v>
+      </c>
+      <c r="J7" s="23">
+        <f>H7^(1/3)-G7</f>
+        <v>7.6949131462311176</v>
+      </c>
+      <c r="K7" s="28">
+        <f>J7*10</f>
+        <v>76.949131462311172</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="E9" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E95DD15-E630-164A-9911-8F448DFCB0FA}">
+  <dimension ref="B1:Q33"/>
+  <sheetViews>
+    <sheetView zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="4" width="10.875" style="19"/>
+    <col min="5" max="5" width="10.875" style="34"/>
+    <col min="6" max="6" width="10.875" style="36"/>
+    <col min="7" max="7" width="12.125" style="38" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="34" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="43" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="38"/>
+    <col min="12" max="16384" width="10.875" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="I1" s="83" t="s">
+        <v>123</v>
+      </c>
+      <c r="J1" s="83"/>
+      <c r="K1" s="83"/>
+      <c r="L1" s="83"/>
+      <c r="M1" s="83"/>
+      <c r="N1" s="83"/>
+      <c r="O1" s="83"/>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="C2" s="81" t="s">
+        <v>115</v>
+      </c>
+      <c r="D2" s="81"/>
+      <c r="F2" s="36" t="s">
+        <v>119</v>
+      </c>
+      <c r="I2" s="83" t="s">
+        <v>121</v>
+      </c>
+      <c r="J2" s="83"/>
+      <c r="K2" s="83"/>
+      <c r="L2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="M2" s="19" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="20" customFormat="1">
+      <c r="B3" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>116</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>117</v>
+      </c>
+      <c r="E3" s="35" t="s">
+        <v>120</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>118</v>
+      </c>
+      <c r="G3" s="39" t="s">
+        <v>91</v>
+      </c>
+      <c r="H3" s="20" t="s">
+        <v>125</v>
+      </c>
+      <c r="I3" s="42"/>
+      <c r="J3" s="40"/>
+      <c r="K3" s="40"/>
+      <c r="M3" s="20" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" s="19">
+        <v>3.01</v>
+      </c>
+      <c r="D4" s="19">
+        <v>770</v>
+      </c>
+      <c r="E4" s="34">
+        <v>7.8543099999999999</v>
+      </c>
+      <c r="F4" s="36">
+        <f>1/332</f>
+        <v>3.0120481927710845E-3</v>
+      </c>
+      <c r="G4" s="44">
+        <f>2*PI()*F4*C4*1000/(D4*E4)</f>
+        <v>9.4191023645437116E-3</v>
+      </c>
+      <c r="H4" s="41">
+        <f>D4*E4*E4*(0.000001)/(C4*0.001)</f>
+        <v>15.78121026365349</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="36">
+        <f>1/300</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="G5" s="44"/>
+      <c r="H5" s="41"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="41"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="G7" s="44"/>
+      <c r="H7" s="41"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="G8" s="44"/>
+      <c r="H8" s="41"/>
+    </row>
+    <row r="9" spans="2:17" s="20" customFormat="1">
+      <c r="E9" s="35"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="45"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="47"/>
+      <c r="J9" s="39"/>
+      <c r="K9" s="39"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G10" s="38">
+        <v>1E-3</v>
+      </c>
+      <c r="I10" s="43">
+        <f>1000/587.575</f>
+        <v>1.7019103944177338</v>
+      </c>
+      <c r="J10" s="38">
+        <f>1000/393.087</f>
+        <v>2.5439660940198991</v>
+      </c>
+      <c r="K10" s="38">
+        <f>1000/524.365</f>
+        <v>1.9070685495790145</v>
+      </c>
+      <c r="L10" s="19">
+        <f>1000/429.592</f>
+        <v>2.3277900892009162</v>
+      </c>
+      <c r="M10" s="19">
+        <f>1000/471.267</f>
+        <v>2.1219393677045071</v>
+      </c>
+      <c r="P10" s="36">
+        <f>SUM(I10:O10)/5</f>
+        <v>2.1205348989844142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="G11" s="38">
+        <v>2E-3</v>
+      </c>
+      <c r="I11" s="43">
+        <f>1000/ 539.436</f>
+        <v>1.8537880304614447</v>
+      </c>
+      <c r="J11" s="38">
+        <f>1000/427.898</f>
+        <v>2.3370055480511711</v>
+      </c>
+      <c r="K11" s="38">
+        <f>1000/482.665</f>
+        <v>2.0718303585302436</v>
+      </c>
+      <c r="L11" s="19">
+        <f>1000/425.574</f>
+        <v>2.3497676079835705</v>
+      </c>
+      <c r="M11" s="19">
+        <f>1000/450.603</f>
+        <v>2.2192484293269241</v>
+      </c>
+      <c r="P11" s="36">
+        <f t="shared" ref="P11:P14" si="0">SUM(I11:O11)/5</f>
+        <v>2.1663279948706711</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="G12" s="38">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="43">
+        <f>1000/511.599</f>
+        <v>1.9546558926033866</v>
+      </c>
+      <c r="J12" s="38">
+        <f>1000/463.492</f>
+        <v>2.1575345421280194</v>
+      </c>
+      <c r="K12" s="38">
+        <f>1000/428.438</f>
+        <v>2.3340600040145834</v>
+      </c>
+      <c r="L12" s="19">
+        <f>1000/484.767</f>
+        <v>2.0628466871713629</v>
+      </c>
+      <c r="M12" s="19">
+        <f>1000/456.876</f>
+        <v>2.1887776989817809</v>
+      </c>
+      <c r="P12" s="36">
+        <f t="shared" si="0"/>
+        <v>2.1395749649798268</v>
+      </c>
+      <c r="Q12" s="36"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="G13" s="38">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="43">
+        <f>1000/468.013</f>
+        <v>2.1366927841747985</v>
+      </c>
+      <c r="J13" s="38">
+        <f>1000/484.467</f>
+        <v>2.0641240786266146</v>
+      </c>
+      <c r="K13" s="38">
+        <f>1000/495.902</f>
+        <v>2.01652745905441</v>
+      </c>
+      <c r="L13" s="19">
+        <f>1000/476.432</f>
+        <v>2.0989354199549988</v>
+      </c>
+      <c r="M13" s="19">
+        <f>1000/480.887</f>
+        <v>2.0794906079806692</v>
+      </c>
+      <c r="P13" s="36">
+        <f t="shared" si="0"/>
+        <v>2.0791540699582982</v>
+      </c>
+      <c r="Q13" s="36"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="G14" s="38">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I14" s="43">
+        <f>1000/561.938</f>
+        <v>1.7795557517021452</v>
+      </c>
+      <c r="J14" s="38">
+        <f>1000/567.598</f>
+        <v>1.7618102953146417</v>
+      </c>
+      <c r="K14" s="38">
+        <f>1000/573.548</f>
+        <v>1.7435332352305299</v>
+      </c>
+      <c r="L14" s="19">
+        <f>1000/580.314</f>
+        <v>1.7232050234872847</v>
+      </c>
+      <c r="M14" s="19">
+        <f>1000/559.257</f>
+        <v>1.7880866935952524</v>
+      </c>
+      <c r="P14" s="36">
+        <f t="shared" si="0"/>
+        <v>1.7592381998659707</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="I15" s="43" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="I16" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="G17" s="38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I17" s="43">
+        <f>1000/447.965</f>
+        <v>2.232317256928555</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="G18" s="38">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I18" s="43">
+        <f>1000/462.314</f>
+        <v>2.1630320518089436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="G19" s="38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="43">
+        <f>1000/473.077</f>
+        <v>2.1138207945006839</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="G20" s="38">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I20" s="43">
+        <f>1000/490.985</f>
+        <v>2.0367220994531401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="G21" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="43">
+        <f>1000/537.393</f>
+        <v>1.8608355523797295</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="G22" s="38">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I22" s="43">
+        <f>1000/618.682</f>
+        <v>1.6163392502125487</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="G23" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="I23" s="43">
+        <f>1000/768.18</f>
+        <v>1.3017782290608972</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="I25" s="43" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="I26" s="43" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="G27" s="38">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I27" s="43">
+        <f>1000/450.232</f>
+        <v>2.2210771335666943</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="G28" s="38">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I28" s="43">
+        <f>1000/467.009</f>
+        <v>2.1412863563657232</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="G29" s="38">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="43">
+        <f>1000/468.867</f>
+        <v>2.132800986207176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="G30" s="38">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I30" s="43">
+        <f>1000/490.496</f>
+        <v>2.0387526096033404</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="G31" s="38">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="43">
+        <f>1000/523.234</f>
+        <v>1.9111907865314561</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="G32" s="38">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I32" s="43">
+        <f>1000/599.115</f>
+        <v>1.6691286313979787</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="38">
+        <v>0.02</v>
+      </c>
+      <c r="I33" s="43">
+        <f>1000/741.736</f>
+        <v>1.348188573832199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB14C90-9A0C-E346-B9BD-40AE56D235C4}">
+  <dimension ref="B1:BH46"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="T48" sqref="T48"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5" style="4" customWidth="1"/>
+    <col min="2" max="4" width="7.875" style="4"/>
+    <col min="5" max="5" width="7.875" style="7"/>
+    <col min="6" max="7" width="7.875" style="4"/>
+    <col min="8" max="12" width="3.625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="5" style="4" customWidth="1"/>
+    <col min="14" max="19" width="7.875" style="4"/>
+    <col min="20" max="24" width="3.625" style="10" customWidth="1"/>
+    <col min="25" max="25" width="5" style="4" customWidth="1"/>
+    <col min="26" max="28" width="7.875" style="4"/>
+    <col min="29" max="29" width="7.875" style="7"/>
+    <col min="30" max="30" width="7.875" style="8"/>
+    <col min="31" max="31" width="7.875" style="4"/>
+    <col min="32" max="36" width="3.625" style="10" customWidth="1"/>
+    <col min="37" max="37" width="5" style="4" customWidth="1"/>
+    <col min="38" max="39" width="7.875" style="4"/>
+    <col min="40" max="40" width="7.875" style="12"/>
+    <col min="41" max="41" width="7.875" style="4"/>
+    <col min="42" max="42" width="7.875" style="8"/>
+    <col min="43" max="43" width="7.875" style="4"/>
+    <col min="44" max="48" width="3.625" style="10" customWidth="1"/>
+    <col min="49" max="49" width="5" style="4" customWidth="1"/>
+    <col min="50" max="53" width="7.875" style="4"/>
+    <col min="54" max="54" width="7.875" style="8"/>
+    <col min="55" max="55" width="7.875" style="4"/>
+    <col min="56" max="60" width="3.625" style="10" customWidth="1"/>
+    <col min="61" max="16384" width="7.875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:55" ht="15" customHeight="1">
+      <c r="Z1" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="2:55" ht="15" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="N2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="Z2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AL2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AY2" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+    </row>
+    <row r="3" spans="2:55" ht="15" customHeight="1">
+      <c r="B3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30</v>
+      </c>
+      <c r="H3" s="10">
+        <v>10</v>
+      </c>
+      <c r="I3" s="10">
+        <v>15</v>
+      </c>
+      <c r="J3" s="10">
+        <v>20</v>
+      </c>
+      <c r="K3" s="10">
+        <v>25</v>
+      </c>
+      <c r="L3" s="10">
+        <v>30</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="4">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>20</v>
+      </c>
+      <c r="R3" s="4">
+        <v>25</v>
+      </c>
+      <c r="S3" s="4">
+        <v>30</v>
+      </c>
+      <c r="T3" s="10">
+        <v>10</v>
+      </c>
+      <c r="U3" s="10">
+        <v>15</v>
+      </c>
+      <c r="V3" s="10">
+        <v>20</v>
+      </c>
+      <c r="W3" s="10">
+        <v>25</v>
+      </c>
+      <c r="X3" s="10">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>25</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="10">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="10">
+        <v>15</v>
+      </c>
+      <c r="AT3" s="10">
+        <v>20</v>
+      </c>
+      <c r="AU3" s="10">
+        <v>25</v>
+      </c>
+      <c r="AV3" s="10">
+        <v>30</v>
+      </c>
+      <c r="AY3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB3" s="4"/>
+    </row>
+    <row r="4" spans="2:55" ht="15" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7">
+        <v>635.9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>631.04</v>
+      </c>
+      <c r="E4" s="7">
+        <v>626.12</v>
+      </c>
+      <c r="F4" s="7">
+        <v>621.14</v>
+      </c>
+      <c r="G4" s="7">
+        <v>616.11</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="12"/>
+      <c r="Z4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>16.05</v>
+      </c>
+      <c r="AD4" s="63">
+        <f>0.5*(AC4+AE4)</f>
+        <v>15.495000000000001</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>14.94</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AX4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>143.5</v>
+      </c>
+      <c r="AZ4" s="18">
+        <f t="shared" ref="AZ4:AZ15" si="0">AY4-273.15</f>
+        <v>-129.64999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:55" ht="15" customHeight="1">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7">
+        <v>668.37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>663.91</v>
+      </c>
+      <c r="E5" s="7">
+        <v>659.42</v>
+      </c>
+      <c r="F5" s="7">
+        <v>654.89</v>
+      </c>
+      <c r="G5" s="7">
+        <v>650.33000000000004</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="12">
+        <v>0.2949</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AD5" s="63">
+        <f t="shared" ref="AD5:AD15" si="1">0.5*(AC5+AE5)</f>
+        <v>17.89</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>17.38</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AX5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>177.8</v>
+      </c>
+      <c r="AZ5" s="18">
+        <f t="shared" si="0"/>
+        <v>-95.349999999999966</v>
+      </c>
+    </row>
+    <row r="6" spans="2:55" ht="15" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7">
+        <v>692.4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>688.2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>683.99</v>
+      </c>
+      <c r="F6" s="7">
+        <v>679.75</v>
+      </c>
+      <c r="G6" s="7">
+        <v>675.49</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="12">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>21.12</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>20.14</v>
+      </c>
+      <c r="AD6" s="63">
+        <f t="shared" si="1"/>
+        <v>19.655000000000001</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AX6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>182.6</v>
+      </c>
+      <c r="AZ6" s="18">
+        <f t="shared" si="0"/>
+        <v>-90.549999999999983</v>
+      </c>
+    </row>
+    <row r="7" spans="2:55" ht="15" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="N7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="12">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>22.57</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>21.62</v>
+      </c>
+      <c r="AD7" s="63">
+        <f t="shared" si="1"/>
+        <v>21.145000000000003</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>20.67</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8">
+        <v>1.988</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>2.14</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>2.633</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>216.4</v>
+      </c>
+      <c r="AZ7" s="18">
+        <f t="shared" si="0"/>
+        <v>-56.749999999999972</v>
+      </c>
+    </row>
+    <row r="8" spans="2:55" ht="15" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="N8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="12"/>
+      <c r="Z8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>23.79</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>22.85</v>
+      </c>
+      <c r="AD8" s="63">
+        <f t="shared" si="1"/>
+        <v>22.385000000000002</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>21.92</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>1.772</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>219.7</v>
+      </c>
+      <c r="AZ8" s="18">
+        <f t="shared" si="0"/>
+        <v>-53.449999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="2:55" ht="15" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="N9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="12">
+        <v>0.8498</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>24.75</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>23.83</v>
+      </c>
+      <c r="AD9" s="63">
+        <f t="shared" si="1"/>
+        <v>23.369999999999997</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>22.91</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8">
+        <v>1.165</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>1.268</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY9" s="4">
+        <v>243.5</v>
+      </c>
+      <c r="AZ9" s="18">
+        <f t="shared" si="0"/>
+        <v>-29.649999999999977</v>
+      </c>
+    </row>
+    <row r="10" spans="2:55" ht="15" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="N10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="12"/>
+      <c r="Z10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>25.56</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>24.66</v>
+      </c>
+      <c r="AD10" s="63">
+        <f t="shared" si="1"/>
+        <v>24.21</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>23.76</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>1.248</v>
+      </c>
+      <c r="AS10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>247.6</v>
+      </c>
+      <c r="AZ10" s="18">
+        <f t="shared" si="0"/>
+        <v>-25.549999999999983</v>
+      </c>
+    </row>
+    <row r="11" spans="2:55" ht="15" customHeight="1">
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="N11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="12">
+        <v>1.3585</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>26.24</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="AD11" s="63">
+        <f t="shared" si="1"/>
+        <v>24.91</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>24.47</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>0.871</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>0.996</v>
+      </c>
+      <c r="AS11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="AZ11" s="18">
+        <f t="shared" si="0"/>
+        <v>-9.5499999999999545</v>
+      </c>
+    </row>
+    <row r="12" spans="2:55" ht="15" customHeight="1">
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="N12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="12"/>
+      <c r="Z12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>26.86</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>25.99</v>
+      </c>
+      <c r="AD12" s="63">
+        <f t="shared" si="1"/>
+        <v>25.549999999999997</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>25.11</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AS12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY12" s="4">
+        <v>267.8</v>
+      </c>
+      <c r="AZ12" s="18">
+        <f t="shared" si="0"/>
+        <v>-5.3499999999999659</v>
+      </c>
+    </row>
+    <row r="13" spans="2:55" ht="15" customHeight="1">
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="N13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="12">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>27.43</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>26.56</v>
+      </c>
+      <c r="AD13" s="63">
+        <f t="shared" si="1"/>
+        <v>26.125</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>25.69</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8">
+        <v>0.443</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>0.495</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AS13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>279</v>
+      </c>
+      <c r="AZ13" s="18">
+        <f t="shared" si="0"/>
+        <v>5.8500000000000227</v>
+      </c>
+    </row>
+    <row r="14" spans="2:55" ht="15" customHeight="1">
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="N14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="Z14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>27.07</v>
+      </c>
+      <c r="AD14" s="63">
+        <f t="shared" si="1"/>
+        <v>26.64</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>26.21</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AS14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY14" s="4">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="AZ14" s="18">
+        <f t="shared" si="0"/>
+        <v>9.9500000000000455</v>
+      </c>
+    </row>
+    <row r="15" spans="2:55" ht="15" customHeight="1">
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="N15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="Z15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>27.47</v>
+      </c>
+      <c r="AD15" s="63">
+        <f t="shared" si="1"/>
+        <v>27.045000000000002</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>26.62</v>
+      </c>
+      <c r="AH15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="8">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AP15" s="8">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AT15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="AZ15" s="18">
+        <f t="shared" si="0"/>
+        <v>17.950000000000045</v>
+      </c>
+    </row>
+    <row r="16" spans="2:55" ht="15" customHeight="1">
+      <c r="Q16" s="7"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="8"/>
+      <c r="AQ16" s="8"/>
+    </row>
+    <row r="17" spans="2:43" ht="15" customHeight="1">
+      <c r="Q17" s="7"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="8"/>
+      <c r="AQ17" s="8"/>
+    </row>
+    <row r="18" spans="2:43" ht="15" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+    </row>
+    <row r="19" spans="2:43" ht="15" customHeight="1">
+      <c r="B19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4">
+        <v>30</v>
+      </c>
+      <c r="H19" s="10">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10">
+        <v>15</v>
+      </c>
+      <c r="J19" s="10">
+        <v>20</v>
+      </c>
+      <c r="K19" s="10">
+        <v>25</v>
+      </c>
+      <c r="L19" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:43" ht="15" customHeight="1">
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="J20" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:43" ht="15" customHeight="1">
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="7">
+        <v>660.6</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="K21" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:43" ht="15" customHeight="1">
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:43" ht="15" customHeight="1">
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="7">
+        <v>698.6</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="K23" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43" ht="15" customHeight="1">
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>719.2</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="J24" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:43" ht="15" customHeight="1">
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="7">
+        <v>726.6</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:43" ht="15" customHeight="1">
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <v>740.2</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="J26" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:43" ht="15" customHeight="1">
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
+        <v>749.5</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="J27" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:43" ht="15" customHeight="1">
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <v>756.4</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="J28" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:43" ht="15" customHeight="1">
+      <c r="B29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
+        <v>759.6</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="J29" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:43" ht="15" customHeight="1">
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
+        <v>768.5</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="J30" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43" ht="15" customHeight="1">
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="7">
+        <v>770.1</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="K31" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" ht="15" customHeight="1">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="46" spans="6:14" ht="15" customHeight="1">
+      <c r="N46" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AM2:AQ2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -1,6 +1,49 @@
+
+<file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Stephen\Dropbox\github_dropbox\alkanestudy.gromacs\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{77EB5834-9D33-427E-A8BD-4DD7A0B3033C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" activeTab="5" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
+  </bookViews>
+  <sheets>
+    <sheet name="Sim matrix" sheetId="13" r:id="rId1"/>
+    <sheet name="Outline" sheetId="1" r:id="rId2"/>
+    <sheet name="PYS-W" sheetId="6" r:id="rId3"/>
+    <sheet name="Sun9-6" sheetId="9" r:id="rId4"/>
+    <sheet name="FlexWilliams" sheetId="10" r:id="rId5"/>
+    <sheet name="WilliamsOpt" sheetId="14" r:id="rId6"/>
+    <sheet name="CHARMM36" sheetId="11" r:id="rId7"/>
+    <sheet name="box_sizes" sheetId="5" r:id="rId8"/>
+    <sheet name="cos-acc tests" sheetId="7" r:id="rId9"/>
+    <sheet name="Expr data" sheetId="2" r:id="rId10"/>
+    <sheet name="Ref" sheetId="3" r:id="rId11"/>
+    <sheet name="Expr old" sheetId="4" state="hidden" r:id="rId12"/>
+  </sheets>
+  <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
+</workbook>
+</file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="977" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="999" uniqueCount="253">
   <si>
     <t>Study</t>
   </si>
@@ -780,6 +823,30 @@
   </si>
   <si>
     <t>FlexWilliams4L-OPLS_rc0.6_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Δε</t>
+  </si>
+  <si>
+    <t>Experiment</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>L (sim)</t>
+  </si>
+  <si>
+    <t>D - FSC</t>
+  </si>
+  <si>
+    <t>FSC = finite size correction</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Phase 2</t>
   </si>
 </sst>
 </file>
@@ -1029,7 +1096,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="87">
+  <cellXfs count="91">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1279,6 +1346,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3393,6 +3470,1454 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB14C90-9A0C-E346-B9BD-40AE56D235C4}">
+  <dimension ref="B1:BH46"/>
+  <sheetViews>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="AP15" sqref="AP15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5" style="4" customWidth="1"/>
+    <col min="2" max="4" width="7.875" style="4"/>
+    <col min="5" max="5" width="7.875" style="7"/>
+    <col min="6" max="7" width="7.875" style="4"/>
+    <col min="8" max="12" width="3.625" style="10" customWidth="1"/>
+    <col min="13" max="13" width="5" style="4" customWidth="1"/>
+    <col min="14" max="19" width="7.875" style="4"/>
+    <col min="20" max="24" width="3.625" style="10" customWidth="1"/>
+    <col min="25" max="25" width="5" style="4" customWidth="1"/>
+    <col min="26" max="28" width="7.875" style="4"/>
+    <col min="29" max="29" width="7.875" style="7"/>
+    <col min="30" max="30" width="7.875" style="8"/>
+    <col min="31" max="31" width="7.875" style="4"/>
+    <col min="32" max="36" width="3.625" style="10" customWidth="1"/>
+    <col min="37" max="37" width="5" style="4" customWidth="1"/>
+    <col min="38" max="39" width="7.875" style="4"/>
+    <col min="40" max="40" width="7.875" style="12"/>
+    <col min="41" max="41" width="7.875" style="4"/>
+    <col min="42" max="42" width="7.875" style="8"/>
+    <col min="43" max="43" width="7.875" style="4"/>
+    <col min="44" max="48" width="3.625" style="10" customWidth="1"/>
+    <col min="49" max="49" width="5" style="4" customWidth="1"/>
+    <col min="50" max="53" width="7.875" style="4"/>
+    <col min="54" max="54" width="7.875" style="8"/>
+    <col min="55" max="55" width="7.875" style="4"/>
+    <col min="56" max="60" width="3.625" style="10" customWidth="1"/>
+    <col min="61" max="16384" width="7.875" style="4"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:55" ht="15" customHeight="1">
+      <c r="Z1" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="2" spans="2:55" ht="15" customHeight="1">
+      <c r="B2" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="84"/>
+      <c r="E2" s="84"/>
+      <c r="F2" s="84"/>
+      <c r="G2" s="84"/>
+      <c r="H2" s="85" t="s">
+        <v>20</v>
+      </c>
+      <c r="I2" s="85"/>
+      <c r="J2" s="85"/>
+      <c r="K2" s="85"/>
+      <c r="L2" s="85"/>
+      <c r="N2" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="O2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="P2" s="84"/>
+      <c r="Q2" s="84"/>
+      <c r="R2" s="84"/>
+      <c r="S2" s="84"/>
+      <c r="Z2" s="13" t="s">
+        <v>13</v>
+      </c>
+      <c r="AA2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="AB2" s="84"/>
+      <c r="AC2" s="84"/>
+      <c r="AD2" s="84"/>
+      <c r="AE2" s="84"/>
+      <c r="AL2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="AM2" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN2" s="84"/>
+      <c r="AO2" s="84"/>
+      <c r="AP2" s="84"/>
+      <c r="AQ2" s="84"/>
+      <c r="AY2" s="86" t="s">
+        <v>22</v>
+      </c>
+      <c r="AZ2" s="86"/>
+      <c r="BA2" s="15"/>
+      <c r="BB2" s="15"/>
+      <c r="BC2" s="15"/>
+    </row>
+    <row r="3" spans="2:55" ht="15" customHeight="1">
+      <c r="B3" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4">
+        <v>10</v>
+      </c>
+      <c r="D3" s="4">
+        <v>15</v>
+      </c>
+      <c r="E3" s="4">
+        <v>20</v>
+      </c>
+      <c r="F3" s="4">
+        <v>25</v>
+      </c>
+      <c r="G3" s="4">
+        <v>30</v>
+      </c>
+      <c r="H3" s="10">
+        <v>10</v>
+      </c>
+      <c r="I3" s="10">
+        <v>15</v>
+      </c>
+      <c r="J3" s="10">
+        <v>20</v>
+      </c>
+      <c r="K3" s="10">
+        <v>25</v>
+      </c>
+      <c r="L3" s="10">
+        <v>30</v>
+      </c>
+      <c r="N3" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="O3" s="4">
+        <v>10</v>
+      </c>
+      <c r="P3" s="4">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="4">
+        <v>20</v>
+      </c>
+      <c r="R3" s="4">
+        <v>25</v>
+      </c>
+      <c r="S3" s="4">
+        <v>30</v>
+      </c>
+      <c r="T3" s="10">
+        <v>10</v>
+      </c>
+      <c r="U3" s="10">
+        <v>15</v>
+      </c>
+      <c r="V3" s="10">
+        <v>20</v>
+      </c>
+      <c r="W3" s="10">
+        <v>25</v>
+      </c>
+      <c r="X3" s="10">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="4">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="4">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="AE3" s="4">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="10">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="10">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="10">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="10">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="10">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="AM3" s="4">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="4">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="4">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="4">
+        <v>25</v>
+      </c>
+      <c r="AQ3" s="4">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="10">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="10">
+        <v>15</v>
+      </c>
+      <c r="AT3" s="10">
+        <v>20</v>
+      </c>
+      <c r="AU3" s="10">
+        <v>25</v>
+      </c>
+      <c r="AV3" s="10">
+        <v>30</v>
+      </c>
+      <c r="AY3" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="AZ3" s="18" t="s">
+        <v>28</v>
+      </c>
+      <c r="BB3" s="4"/>
+    </row>
+    <row r="4" spans="2:55" ht="15" customHeight="1">
+      <c r="B4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="7">
+        <v>635.9</v>
+      </c>
+      <c r="D4" s="7">
+        <v>631.04</v>
+      </c>
+      <c r="E4" s="7">
+        <v>626.12</v>
+      </c>
+      <c r="F4" s="7">
+        <v>621.14</v>
+      </c>
+      <c r="G4" s="7">
+        <v>616.11</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L4" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="12"/>
+      <c r="Z4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AA4" s="7">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="AC4" s="7">
+        <v>16.05</v>
+      </c>
+      <c r="AD4" s="63">
+        <f>0.5*(AC4+AE4)</f>
+        <v>15.495000000000001</v>
+      </c>
+      <c r="AE4" s="4">
+        <v>14.94</v>
+      </c>
+      <c r="AF4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ4" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AM4" s="8"/>
+      <c r="AN4" s="8"/>
+      <c r="AO4" s="8"/>
+      <c r="AQ4" s="8"/>
+      <c r="AX4" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AY4" s="4">
+        <v>143.5</v>
+      </c>
+      <c r="AZ4" s="18">
+        <f t="shared" ref="AZ4:AZ15" si="0">AY4-273.15</f>
+        <v>-129.64999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:55" ht="15" customHeight="1">
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="7">
+        <v>668.37</v>
+      </c>
+      <c r="D5" s="7">
+        <v>663.91</v>
+      </c>
+      <c r="E5" s="7">
+        <v>659.42</v>
+      </c>
+      <c r="F5" s="7">
+        <v>654.89</v>
+      </c>
+      <c r="G5" s="7">
+        <v>650.33000000000004</v>
+      </c>
+      <c r="H5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q5" s="7"/>
+      <c r="R5" s="12">
+        <v>0.2949</v>
+      </c>
+      <c r="W5" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA5" s="7">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="AC5" s="7">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AD5" s="63">
+        <f t="shared" ref="AD5:AD15" si="1">0.5*(AC5+AE5)</f>
+        <v>17.89</v>
+      </c>
+      <c r="AE5" s="4">
+        <v>17.38</v>
+      </c>
+      <c r="AF5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ5" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM5" s="8"/>
+      <c r="AN5" s="8"/>
+      <c r="AO5" s="8"/>
+      <c r="AQ5" s="8"/>
+      <c r="AX5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY5" s="4">
+        <v>177.8</v>
+      </c>
+      <c r="AZ5" s="18">
+        <f t="shared" si="0"/>
+        <v>-95.349999999999966</v>
+      </c>
+    </row>
+    <row r="6" spans="2:55" ht="15" customHeight="1">
+      <c r="B6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="7">
+        <v>692.4</v>
+      </c>
+      <c r="D6" s="7">
+        <v>688.2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>683.99</v>
+      </c>
+      <c r="F6" s="7">
+        <v>679.75</v>
+      </c>
+      <c r="G6" s="7">
+        <v>675.49</v>
+      </c>
+      <c r="H6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="I6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q6" s="7"/>
+      <c r="R6" s="12">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="W6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AA6" s="7">
+        <v>21.12</v>
+      </c>
+      <c r="AC6" s="7">
+        <v>20.14</v>
+      </c>
+      <c r="AD6" s="63">
+        <f t="shared" si="1"/>
+        <v>19.655000000000001</v>
+      </c>
+      <c r="AE6" s="4">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="AF6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ6" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AM6" s="8"/>
+      <c r="AN6" s="8"/>
+      <c r="AO6" s="8"/>
+      <c r="AQ6" s="8"/>
+      <c r="AX6" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="AY6" s="4">
+        <v>182.6</v>
+      </c>
+      <c r="AZ6" s="18">
+        <f t="shared" si="0"/>
+        <v>-90.549999999999983</v>
+      </c>
+    </row>
+    <row r="7" spans="2:55" ht="15" customHeight="1">
+      <c r="B7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7"/>
+      <c r="D7" s="7"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="N7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="12">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="W7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA7" s="7">
+        <v>22.57</v>
+      </c>
+      <c r="AC7" s="7">
+        <v>21.62</v>
+      </c>
+      <c r="AD7" s="63">
+        <f t="shared" si="1"/>
+        <v>21.145000000000003</v>
+      </c>
+      <c r="AE7" s="4">
+        <v>20.67</v>
+      </c>
+      <c r="AF7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM7" s="8"/>
+      <c r="AN7" s="8">
+        <v>1.988</v>
+      </c>
+      <c r="AO7" s="8">
+        <v>2.14</v>
+      </c>
+      <c r="AP7" s="8">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="AQ7" s="8">
+        <v>2.633</v>
+      </c>
+      <c r="AS7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV7" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX7" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY7" s="4">
+        <v>216.4</v>
+      </c>
+      <c r="AZ7" s="18">
+        <f t="shared" si="0"/>
+        <v>-56.749999999999972</v>
+      </c>
+    </row>
+    <row r="8" spans="2:55" ht="15" customHeight="1">
+      <c r="B8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" s="7"/>
+      <c r="D8" s="7"/>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="N8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="12"/>
+      <c r="Z8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA8" s="7">
+        <v>23.79</v>
+      </c>
+      <c r="AC8" s="7">
+        <v>22.85</v>
+      </c>
+      <c r="AD8" s="63">
+        <f t="shared" si="1"/>
+        <v>22.385000000000002</v>
+      </c>
+      <c r="AE8" s="4">
+        <v>21.92</v>
+      </c>
+      <c r="AF8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ8" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM8" s="8"/>
+      <c r="AN8" s="8">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="AO8" s="8">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="AP8" s="8">
+        <v>1.772</v>
+      </c>
+      <c r="AQ8" s="8">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="AS8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV8" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX8" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY8" s="4">
+        <v>219.7</v>
+      </c>
+      <c r="AZ8" s="18">
+        <f t="shared" si="0"/>
+        <v>-53.449999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="2:55" ht="15" customHeight="1">
+      <c r="B9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="N9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="12">
+        <v>0.8498</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA9" s="7">
+        <v>24.75</v>
+      </c>
+      <c r="AC9" s="7">
+        <v>23.83</v>
+      </c>
+      <c r="AD9" s="63">
+        <f t="shared" si="1"/>
+        <v>23.369999999999997</v>
+      </c>
+      <c r="AE9" s="4">
+        <v>22.91</v>
+      </c>
+      <c r="AF9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ9" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM9" s="8"/>
+      <c r="AN9" s="8">
+        <v>1.165</v>
+      </c>
+      <c r="AO9" s="8">
+        <v>1.268</v>
+      </c>
+      <c r="AP9" s="8">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="AQ9" s="8">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="AS9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV9" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX9" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY9" s="4">
+        <v>243.5</v>
+      </c>
+      <c r="AZ9" s="18">
+        <f t="shared" si="0"/>
+        <v>-29.649999999999977</v>
+      </c>
+    </row>
+    <row r="10" spans="2:55" ht="15" customHeight="1">
+      <c r="B10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="N10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="12"/>
+      <c r="Z10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA10" s="7">
+        <v>25.56</v>
+      </c>
+      <c r="AC10" s="7">
+        <v>24.66</v>
+      </c>
+      <c r="AD10" s="63">
+        <f t="shared" si="1"/>
+        <v>24.21</v>
+      </c>
+      <c r="AE10" s="4">
+        <v>23.76</v>
+      </c>
+      <c r="AF10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ10" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM10" s="8"/>
+      <c r="AN10" s="8">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AO10" s="8">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="AP10" s="8">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="AQ10" s="8">
+        <v>1.248</v>
+      </c>
+      <c r="AS10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV10" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX10" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY10" s="4">
+        <v>247.6</v>
+      </c>
+      <c r="AZ10" s="18">
+        <f t="shared" si="0"/>
+        <v>-25.549999999999983</v>
+      </c>
+    </row>
+    <row r="11" spans="2:55" ht="15" customHeight="1">
+      <c r="B11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="N11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="12">
+        <v>1.3585</v>
+      </c>
+      <c r="W11" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA11" s="7">
+        <v>26.24</v>
+      </c>
+      <c r="AC11" s="7">
+        <v>25.35</v>
+      </c>
+      <c r="AD11" s="63">
+        <f t="shared" si="1"/>
+        <v>24.91</v>
+      </c>
+      <c r="AE11" s="4">
+        <v>24.47</v>
+      </c>
+      <c r="AF11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ11" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM11" s="8"/>
+      <c r="AN11" s="8">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AO11" s="8">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AP11" s="8">
+        <v>0.871</v>
+      </c>
+      <c r="AQ11" s="8">
+        <v>0.996</v>
+      </c>
+      <c r="AS11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV11" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX11" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY11" s="4">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="AZ11" s="18">
+        <f t="shared" si="0"/>
+        <v>-9.5499999999999545</v>
+      </c>
+    </row>
+    <row r="12" spans="2:55" ht="15" customHeight="1">
+      <c r="B12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="F12" s="7"/>
+      <c r="G12" s="7"/>
+      <c r="N12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="12"/>
+      <c r="Z12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AA12" s="7">
+        <v>26.86</v>
+      </c>
+      <c r="AC12" s="7">
+        <v>25.99</v>
+      </c>
+      <c r="AD12" s="63">
+        <f t="shared" si="1"/>
+        <v>25.549999999999997</v>
+      </c>
+      <c r="AE12" s="4">
+        <v>25.11</v>
+      </c>
+      <c r="AF12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ12" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM12" s="8"/>
+      <c r="AN12" s="8">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AO12" s="8">
+        <v>0.64</v>
+      </c>
+      <c r="AP12" s="8">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AQ12" s="8">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AS12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY12" s="4">
+        <v>267.8</v>
+      </c>
+      <c r="AZ12" s="18">
+        <f t="shared" si="0"/>
+        <v>-5.3499999999999659</v>
+      </c>
+    </row>
+    <row r="13" spans="2:55" ht="15" customHeight="1">
+      <c r="B13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="F13" s="7"/>
+      <c r="G13" s="7"/>
+      <c r="N13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q13" s="7"/>
+      <c r="R13" s="12">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="Z13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AA13" s="7">
+        <v>27.43</v>
+      </c>
+      <c r="AC13" s="7">
+        <v>26.56</v>
+      </c>
+      <c r="AD13" s="63">
+        <f t="shared" si="1"/>
+        <v>26.125</v>
+      </c>
+      <c r="AE13" s="4">
+        <v>25.69</v>
+      </c>
+      <c r="AF13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ13" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM13" s="8"/>
+      <c r="AN13" s="8">
+        <v>0.443</v>
+      </c>
+      <c r="AO13" s="8">
+        <v>0.495</v>
+      </c>
+      <c r="AP13" s="8">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AQ13" s="8">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AS13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX13" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY13" s="4">
+        <v>279</v>
+      </c>
+      <c r="AZ13" s="18">
+        <f t="shared" si="0"/>
+        <v>5.8500000000000227</v>
+      </c>
+    </row>
+    <row r="14" spans="2:55" ht="15" customHeight="1">
+      <c r="B14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="F14" s="7"/>
+      <c r="G14" s="7"/>
+      <c r="N14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="7"/>
+      <c r="Z14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AC14" s="7">
+        <v>27.07</v>
+      </c>
+      <c r="AD14" s="63">
+        <f t="shared" si="1"/>
+        <v>26.64</v>
+      </c>
+      <c r="AE14" s="4">
+        <v>26.21</v>
+      </c>
+      <c r="AH14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ14" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AM14" s="8"/>
+      <c r="AN14" s="8">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AO14" s="8">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AP14" s="8">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AQ14" s="8">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AS14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AT14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX14" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="AY14" s="4">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="AZ14" s="18">
+        <f t="shared" si="0"/>
+        <v>9.9500000000000455</v>
+      </c>
+    </row>
+    <row r="15" spans="2:55" ht="15" customHeight="1">
+      <c r="B15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C15" s="7"/>
+      <c r="D15" s="7"/>
+      <c r="F15" s="7"/>
+      <c r="G15" s="7"/>
+      <c r="N15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q15" s="7"/>
+      <c r="Z15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AC15" s="7">
+        <v>27.47</v>
+      </c>
+      <c r="AD15" s="63">
+        <f t="shared" si="1"/>
+        <v>27.045000000000002</v>
+      </c>
+      <c r="AE15" s="4">
+        <v>26.62</v>
+      </c>
+      <c r="AH15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AJ15" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="AL15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AM15" s="8"/>
+      <c r="AN15" s="16"/>
+      <c r="AO15" s="8">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AP15" s="8">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="AQ15" s="8">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AT15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AU15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AV15" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AX15" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="AY15" s="4">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="AZ15" s="18">
+        <f t="shared" si="0"/>
+        <v>17.950000000000045</v>
+      </c>
+    </row>
+    <row r="16" spans="2:55" ht="15" customHeight="1">
+      <c r="Q16" s="7"/>
+      <c r="AM16" s="8"/>
+      <c r="AN16" s="16"/>
+      <c r="AO16" s="8"/>
+      <c r="AQ16" s="8"/>
+    </row>
+    <row r="17" spans="2:43" ht="15" customHeight="1">
+      <c r="Q17" s="7"/>
+      <c r="AM17" s="8"/>
+      <c r="AN17" s="16"/>
+      <c r="AO17" s="8"/>
+      <c r="AQ17" s="8"/>
+    </row>
+    <row r="18" spans="2:43" ht="15" customHeight="1">
+      <c r="B18" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18" s="84" t="s">
+        <v>19</v>
+      </c>
+      <c r="D18" s="84"/>
+      <c r="E18" s="84"/>
+      <c r="F18" s="84"/>
+      <c r="G18" s="84"/>
+    </row>
+    <row r="19" spans="2:43" ht="15" customHeight="1">
+      <c r="B19" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="4">
+        <v>10</v>
+      </c>
+      <c r="D19" s="4">
+        <v>15</v>
+      </c>
+      <c r="E19" s="4">
+        <v>20</v>
+      </c>
+      <c r="F19" s="4">
+        <v>25</v>
+      </c>
+      <c r="G19" s="4">
+        <v>30</v>
+      </c>
+      <c r="H19" s="10">
+        <v>10</v>
+      </c>
+      <c r="I19" s="10">
+        <v>15</v>
+      </c>
+      <c r="J19" s="10">
+        <v>20</v>
+      </c>
+      <c r="K19" s="10">
+        <v>25</v>
+      </c>
+      <c r="L19" s="10">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:43" ht="15" customHeight="1">
+      <c r="B20" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="J20" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="2:43" ht="15" customHeight="1">
+      <c r="B21" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="7"/>
+      <c r="D21" s="7"/>
+      <c r="F21" s="7">
+        <v>660.6</v>
+      </c>
+      <c r="G21" s="7"/>
+      <c r="K21" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="22" spans="2:43" ht="15" customHeight="1">
+      <c r="B22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="7"/>
+      <c r="D22" s="7"/>
+      <c r="F22" s="7">
+        <v>679.5</v>
+      </c>
+      <c r="G22" s="7"/>
+      <c r="K22" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="2:43" ht="15" customHeight="1">
+      <c r="B23" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="7"/>
+      <c r="D23" s="7"/>
+      <c r="F23" s="7">
+        <v>698.6</v>
+      </c>
+      <c r="G23" s="7"/>
+      <c r="K23" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="2:43" ht="15" customHeight="1">
+      <c r="B24" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="C24" s="7"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="7">
+        <v>719.2</v>
+      </c>
+      <c r="F24" s="7"/>
+      <c r="G24" s="7"/>
+      <c r="J24" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="2:43" ht="15" customHeight="1">
+      <c r="B25" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="7"/>
+      <c r="D25" s="7"/>
+      <c r="F25" s="7">
+        <v>726.6</v>
+      </c>
+      <c r="G25" s="7"/>
+      <c r="K25" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="2:43" ht="15" customHeight="1">
+      <c r="B26" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="C26" s="7"/>
+      <c r="D26" s="7"/>
+      <c r="E26" s="7">
+        <v>740.2</v>
+      </c>
+      <c r="F26" s="7"/>
+      <c r="G26" s="7"/>
+      <c r="J26" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="27" spans="2:43" ht="15" customHeight="1">
+      <c r="B27" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="C27" s="7"/>
+      <c r="D27" s="7"/>
+      <c r="E27" s="7">
+        <v>749.5</v>
+      </c>
+      <c r="F27" s="7"/>
+      <c r="G27" s="7"/>
+      <c r="J27" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="28" spans="2:43" ht="15" customHeight="1">
+      <c r="B28" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="C28" s="7"/>
+      <c r="D28" s="7"/>
+      <c r="E28" s="7">
+        <v>756.4</v>
+      </c>
+      <c r="F28" s="7"/>
+      <c r="G28" s="7"/>
+      <c r="J28" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="2:43" ht="15" customHeight="1">
+      <c r="B29" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" s="7"/>
+      <c r="D29" s="7"/>
+      <c r="E29" s="7">
+        <v>759.6</v>
+      </c>
+      <c r="F29" s="7"/>
+      <c r="G29" s="7"/>
+      <c r="J29" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="2:43" ht="15" customHeight="1">
+      <c r="B30" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30" s="7"/>
+      <c r="D30" s="7"/>
+      <c r="E30" s="7">
+        <v>768.5</v>
+      </c>
+      <c r="F30" s="7"/>
+      <c r="G30" s="7"/>
+      <c r="J30" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="31" spans="2:43" ht="15" customHeight="1">
+      <c r="B31" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C31" s="7"/>
+      <c r="D31" s="7"/>
+      <c r="F31" s="7">
+        <v>770.1</v>
+      </c>
+      <c r="G31" s="7"/>
+      <c r="K31" s="10" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="33" spans="6:14" ht="15" customHeight="1">
+      <c r="F33" s="5"/>
+    </row>
+    <row r="46" spans="6:14" ht="15" customHeight="1">
+      <c r="N46" s="17"/>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="C18:G18"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="AY2:AZ2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AM2:AQ2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDCE98-34D0-4ABF-8516-E6ECC928D09D}">
   <dimension ref="B2:C32"/>
   <sheetViews>
@@ -3606,7 +5131,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C044A9FB-F8D3-4917-BFAB-FBE43DD433AF}">
   <dimension ref="B3:BH17"/>
   <sheetViews>
@@ -6301,11 +7826,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BDAA431D-5536-2842-8755-AEE6B34A948B}">
   <dimension ref="B2:AC50"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="D41" sqref="D41"/>
+      <selection pane="bottomRight" activeCell="A13" sqref="A13:XFD13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -7577,6 +9102,317 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2C844C-ED1A-4540-A821-8B893B2A81D6}">
+  <dimension ref="B1:K43"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F33" sqref="F33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="9" style="19"/>
+    <col min="2" max="2" width="17.5" style="19" customWidth="1"/>
+    <col min="3" max="3" width="9" style="19"/>
+    <col min="4" max="4" width="9" style="34"/>
+    <col min="5" max="16384" width="9" style="19"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="G1" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11">
+      <c r="E2" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="F2" s="87" t="s">
+        <v>24</v>
+      </c>
+      <c r="G2" s="19" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" s="50" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="19" t="s">
+        <v>246</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D3" s="19"/>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="C4" s="19" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11">
+      <c r="C5" s="19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11">
+      <c r="C7" s="81" t="s">
+        <v>251</v>
+      </c>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="H7" s="81" t="s">
+        <v>252</v>
+      </c>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="90"/>
+    </row>
+    <row r="8" spans="2:11" s="20" customFormat="1">
+      <c r="D8" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="E8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="F8" s="88" t="s">
+        <v>23</v>
+      </c>
+      <c r="H8" s="89" t="s">
+        <v>245</v>
+      </c>
+      <c r="I8" s="20" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="88" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11">
+      <c r="B9" s="19" t="s">
+        <v>247</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="34">
+        <v>0.01</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="D10" s="34">
+        <v>1.2E-2</v>
+      </c>
+      <c r="H10" s="19">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:11">
+      <c r="D11" s="34">
+        <v>1.4E-2</v>
+      </c>
+      <c r="H11" s="19">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11">
+      <c r="D12" s="34">
+        <v>1.6E-2</v>
+      </c>
+      <c r="H12" s="19">
+        <v>1.7000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11">
+      <c r="D13" s="34">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="H13" s="19">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="2:11">
+      <c r="D14" s="34">
+        <v>0.02</v>
+      </c>
+      <c r="H14" s="19">
+        <v>1.9E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11">
+      <c r="D15" s="34">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="H15" s="19">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11">
+      <c r="D16" s="34">
+        <v>2.4E-2</v>
+      </c>
+      <c r="H16" s="19">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8">
+      <c r="D17" s="34">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="H17" s="19">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8">
+      <c r="D18" s="34">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="H18" s="19">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8">
+      <c r="D19" s="34">
+        <v>0.03</v>
+      </c>
+      <c r="H19" s="19">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8">
+      <c r="C21" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="D21" s="34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8">
+      <c r="D22" s="34">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8">
+      <c r="D23" s="34">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8">
+      <c r="D24" s="34">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8">
+      <c r="D25" s="34">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8">
+      <c r="D26" s="34">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8">
+      <c r="D27" s="34">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8">
+      <c r="D28" s="34">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8">
+      <c r="D29" s="34">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8">
+      <c r="D30" s="34">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8">
+      <c r="D31" s="34">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="33" spans="3:4">
+      <c r="C33" s="19" t="s">
+        <v>35</v>
+      </c>
+      <c r="D33" s="34">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="34" spans="3:4">
+      <c r="D34" s="34">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="3:4">
+      <c r="D35" s="34">
+        <v>1.4E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="3:4">
+      <c r="D36" s="34">
+        <v>1.6E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="3:4">
+      <c r="D37" s="34">
+        <v>1.7999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="3:4">
+      <c r="D38" s="34">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="39" spans="3:4">
+      <c r="D39" s="34">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="3:4">
+      <c r="D40" s="34">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="3:4">
+      <c r="D41" s="34">
+        <v>2.5999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="3:4">
+      <c r="D42" s="34">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="3:4">
+      <c r="D43" s="34">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="H7:J7"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92BA409B-F542-984C-90DD-63A5E341973F}">
   <dimension ref="B2:Y9"/>
   <sheetViews>
@@ -7889,7 +9725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDBDFB-84C9-0D42-9872-D0E4DAFE61DB}">
   <dimension ref="B1:K9"/>
   <sheetViews>
@@ -8110,7 +9946,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E95DD15-E630-164A-9911-8F448DFCB0FA}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
@@ -8562,1452 +10398,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB14C90-9A0C-E346-B9BD-40AE56D235C4}">
-  <dimension ref="B1:BH46"/>
-  <sheetViews>
-    <sheetView topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="T48" sqref="T48"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15" customHeight="1"/>
-  <cols>
-    <col min="1" max="1" width="5" style="4" customWidth="1"/>
-    <col min="2" max="4" width="7.875" style="4"/>
-    <col min="5" max="5" width="7.875" style="7"/>
-    <col min="6" max="7" width="7.875" style="4"/>
-    <col min="8" max="12" width="3.625" style="10" customWidth="1"/>
-    <col min="13" max="13" width="5" style="4" customWidth="1"/>
-    <col min="14" max="19" width="7.875" style="4"/>
-    <col min="20" max="24" width="3.625" style="10" customWidth="1"/>
-    <col min="25" max="25" width="5" style="4" customWidth="1"/>
-    <col min="26" max="28" width="7.875" style="4"/>
-    <col min="29" max="29" width="7.875" style="7"/>
-    <col min="30" max="30" width="7.875" style="8"/>
-    <col min="31" max="31" width="7.875" style="4"/>
-    <col min="32" max="36" width="3.625" style="10" customWidth="1"/>
-    <col min="37" max="37" width="5" style="4" customWidth="1"/>
-    <col min="38" max="39" width="7.875" style="4"/>
-    <col min="40" max="40" width="7.875" style="12"/>
-    <col min="41" max="41" width="7.875" style="4"/>
-    <col min="42" max="42" width="7.875" style="8"/>
-    <col min="43" max="43" width="7.875" style="4"/>
-    <col min="44" max="48" width="3.625" style="10" customWidth="1"/>
-    <col min="49" max="49" width="5" style="4" customWidth="1"/>
-    <col min="50" max="53" width="7.875" style="4"/>
-    <col min="54" max="54" width="7.875" style="8"/>
-    <col min="55" max="55" width="7.875" style="4"/>
-    <col min="56" max="60" width="3.625" style="10" customWidth="1"/>
-    <col min="61" max="16384" width="7.875" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:55" ht="15" customHeight="1">
-      <c r="Z1" s="4" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="2" spans="2:55" ht="15" customHeight="1">
-      <c r="B2" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="84"/>
-      <c r="E2" s="84"/>
-      <c r="F2" s="84"/>
-      <c r="G2" s="84"/>
-      <c r="H2" s="85" t="s">
-        <v>20</v>
-      </c>
-      <c r="I2" s="85"/>
-      <c r="J2" s="85"/>
-      <c r="K2" s="85"/>
-      <c r="L2" s="85"/>
-      <c r="N2" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="O2" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="P2" s="84"/>
-      <c r="Q2" s="84"/>
-      <c r="R2" s="84"/>
-      <c r="S2" s="84"/>
-      <c r="Z2" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="AA2" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="AB2" s="84"/>
-      <c r="AC2" s="84"/>
-      <c r="AD2" s="84"/>
-      <c r="AE2" s="84"/>
-      <c r="AL2" s="15" t="s">
-        <v>21</v>
-      </c>
-      <c r="AM2" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="AN2" s="84"/>
-      <c r="AO2" s="84"/>
-      <c r="AP2" s="84"/>
-      <c r="AQ2" s="84"/>
-      <c r="AY2" s="86" t="s">
-        <v>22</v>
-      </c>
-      <c r="AZ2" s="86"/>
-      <c r="BA2" s="15"/>
-      <c r="BB2" s="15"/>
-      <c r="BC2" s="15"/>
-    </row>
-    <row r="3" spans="2:55" ht="15" customHeight="1">
-      <c r="B3" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" s="4">
-        <v>10</v>
-      </c>
-      <c r="D3" s="4">
-        <v>15</v>
-      </c>
-      <c r="E3" s="4">
-        <v>20</v>
-      </c>
-      <c r="F3" s="4">
-        <v>25</v>
-      </c>
-      <c r="G3" s="4">
-        <v>30</v>
-      </c>
-      <c r="H3" s="10">
-        <v>10</v>
-      </c>
-      <c r="I3" s="10">
-        <v>15</v>
-      </c>
-      <c r="J3" s="10">
-        <v>20</v>
-      </c>
-      <c r="K3" s="10">
-        <v>25</v>
-      </c>
-      <c r="L3" s="10">
-        <v>30</v>
-      </c>
-      <c r="N3" s="17" t="s">
-        <v>24</v>
-      </c>
-      <c r="O3" s="4">
-        <v>10</v>
-      </c>
-      <c r="P3" s="4">
-        <v>15</v>
-      </c>
-      <c r="Q3" s="4">
-        <v>20</v>
-      </c>
-      <c r="R3" s="4">
-        <v>25</v>
-      </c>
-      <c r="S3" s="4">
-        <v>30</v>
-      </c>
-      <c r="T3" s="10">
-        <v>10</v>
-      </c>
-      <c r="U3" s="10">
-        <v>15</v>
-      </c>
-      <c r="V3" s="10">
-        <v>20</v>
-      </c>
-      <c r="W3" s="10">
-        <v>25</v>
-      </c>
-      <c r="X3" s="10">
-        <v>30</v>
-      </c>
-      <c r="Z3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="AA3" s="4">
-        <v>10</v>
-      </c>
-      <c r="AB3" s="4">
-        <v>15</v>
-      </c>
-      <c r="AC3" s="4">
-        <v>20</v>
-      </c>
-      <c r="AD3" s="4" t="s">
-        <v>175</v>
-      </c>
-      <c r="AE3" s="4">
-        <v>30</v>
-      </c>
-      <c r="AF3" s="10">
-        <v>10</v>
-      </c>
-      <c r="AG3" s="10">
-        <v>15</v>
-      </c>
-      <c r="AH3" s="10">
-        <v>20</v>
-      </c>
-      <c r="AI3" s="10">
-        <v>25</v>
-      </c>
-      <c r="AJ3" s="10">
-        <v>30</v>
-      </c>
-      <c r="AL3" s="17" t="s">
-        <v>26</v>
-      </c>
-      <c r="AM3" s="4">
-        <v>10</v>
-      </c>
-      <c r="AN3" s="4">
-        <v>15</v>
-      </c>
-      <c r="AO3" s="4">
-        <v>20</v>
-      </c>
-      <c r="AP3" s="4">
-        <v>25</v>
-      </c>
-      <c r="AQ3" s="4">
-        <v>30</v>
-      </c>
-      <c r="AR3" s="10">
-        <v>10</v>
-      </c>
-      <c r="AS3" s="10">
-        <v>15</v>
-      </c>
-      <c r="AT3" s="10">
-        <v>20</v>
-      </c>
-      <c r="AU3" s="10">
-        <v>25</v>
-      </c>
-      <c r="AV3" s="10">
-        <v>30</v>
-      </c>
-      <c r="AY3" s="17" t="s">
-        <v>27</v>
-      </c>
-      <c r="AZ3" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="BB3" s="4"/>
-    </row>
-    <row r="4" spans="2:55" ht="15" customHeight="1">
-      <c r="B4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C4" s="7">
-        <v>635.9</v>
-      </c>
-      <c r="D4" s="7">
-        <v>631.04</v>
-      </c>
-      <c r="E4" s="7">
-        <v>626.12</v>
-      </c>
-      <c r="F4" s="7">
-        <v>621.14</v>
-      </c>
-      <c r="G4" s="7">
-        <v>616.11</v>
-      </c>
-      <c r="H4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L4" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q4" s="7"/>
-      <c r="R4" s="12"/>
-      <c r="Z4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AA4" s="7">
-        <v>17.149999999999999</v>
-      </c>
-      <c r="AC4" s="7">
-        <v>16.05</v>
-      </c>
-      <c r="AD4" s="63">
-        <f>0.5*(AC4+AE4)</f>
-        <v>15.495000000000001</v>
-      </c>
-      <c r="AE4" s="4">
-        <v>14.94</v>
-      </c>
-      <c r="AF4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ4" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AX4" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="AY4" s="4">
-        <v>143.5</v>
-      </c>
-      <c r="AZ4" s="18">
-        <f t="shared" ref="AZ4:AZ15" si="0">AY4-273.15</f>
-        <v>-129.64999999999998</v>
-      </c>
-    </row>
-    <row r="5" spans="2:55" ht="15" customHeight="1">
-      <c r="B5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C5" s="7">
-        <v>668.37</v>
-      </c>
-      <c r="D5" s="7">
-        <v>663.91</v>
-      </c>
-      <c r="E5" s="7">
-        <v>659.42</v>
-      </c>
-      <c r="F5" s="7">
-        <v>654.89</v>
-      </c>
-      <c r="G5" s="7">
-        <v>650.33000000000004</v>
-      </c>
-      <c r="H5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q5" s="7"/>
-      <c r="R5" s="12">
-        <v>0.2949</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="7">
-        <v>19.420000000000002</v>
-      </c>
-      <c r="AC5" s="7">
-        <v>18.399999999999999</v>
-      </c>
-      <c r="AD5" s="63">
-        <f t="shared" ref="AD5:AD15" si="1">0.5*(AC5+AE5)</f>
-        <v>17.89</v>
-      </c>
-      <c r="AE5" s="4">
-        <v>17.38</v>
-      </c>
-      <c r="AF5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ5" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AM5" s="8"/>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8"/>
-      <c r="AQ5" s="8"/>
-      <c r="AX5" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="AY5" s="4">
-        <v>177.8</v>
-      </c>
-      <c r="AZ5" s="18">
-        <f t="shared" si="0"/>
-        <v>-95.349999999999966</v>
-      </c>
-    </row>
-    <row r="6" spans="2:55" ht="15" customHeight="1">
-      <c r="B6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C6" s="7">
-        <v>692.4</v>
-      </c>
-      <c r="D6" s="7">
-        <v>688.2</v>
-      </c>
-      <c r="E6" s="7">
-        <v>683.99</v>
-      </c>
-      <c r="F6" s="7">
-        <v>679.75</v>
-      </c>
-      <c r="G6" s="7">
-        <v>675.49</v>
-      </c>
-      <c r="H6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="I6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="J6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="L6" s="10" t="s">
-        <v>30</v>
-      </c>
-      <c r="N6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q6" s="7"/>
-      <c r="R6" s="12">
-        <v>0.38900000000000001</v>
-      </c>
-      <c r="W6" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AA6" s="7">
-        <v>21.12</v>
-      </c>
-      <c r="AC6" s="7">
-        <v>20.14</v>
-      </c>
-      <c r="AD6" s="63">
-        <f t="shared" si="1"/>
-        <v>19.655000000000001</v>
-      </c>
-      <c r="AE6" s="4">
-        <v>19.170000000000002</v>
-      </c>
-      <c r="AF6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ6" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AX6" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="AY6" s="4">
-        <v>182.6</v>
-      </c>
-      <c r="AZ6" s="18">
-        <f t="shared" si="0"/>
-        <v>-90.549999999999983</v>
-      </c>
-    </row>
-    <row r="7" spans="2:55" ht="15" customHeight="1">
-      <c r="B7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="N7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="12">
-        <v>0.50919999999999999</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AA7" s="7">
-        <v>22.57</v>
-      </c>
-      <c r="AC7" s="7">
-        <v>21.62</v>
-      </c>
-      <c r="AD7" s="63">
-        <f t="shared" si="1"/>
-        <v>21.145000000000003</v>
-      </c>
-      <c r="AE7" s="4">
-        <v>20.67</v>
-      </c>
-      <c r="AF7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ7" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AM7" s="8"/>
-      <c r="AN7" s="8">
-        <v>1.988</v>
-      </c>
-      <c r="AO7" s="8">
-        <v>2.14</v>
-      </c>
-      <c r="AP7" s="8">
-        <v>2.3559999999999999</v>
-      </c>
-      <c r="AQ7" s="8">
-        <v>2.633</v>
-      </c>
-      <c r="AS7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV7" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX7" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="AY7" s="4">
-        <v>216.4</v>
-      </c>
-      <c r="AZ7" s="18">
-        <f t="shared" si="0"/>
-        <v>-56.749999999999972</v>
-      </c>
-    </row>
-    <row r="8" spans="2:55" ht="15" customHeight="1">
-      <c r="B8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="N8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="12"/>
-      <c r="Z8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AA8" s="7">
-        <v>23.79</v>
-      </c>
-      <c r="AC8" s="7">
-        <v>22.85</v>
-      </c>
-      <c r="AD8" s="63">
-        <f t="shared" si="1"/>
-        <v>22.385000000000002</v>
-      </c>
-      <c r="AE8" s="4">
-        <v>21.92</v>
-      </c>
-      <c r="AF8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ8" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AM8" s="8"/>
-      <c r="AN8" s="8">
-        <v>1.5249999999999999</v>
-      </c>
-      <c r="AO8" s="8">
-        <v>1.6259999999999999</v>
-      </c>
-      <c r="AP8" s="8">
-        <v>1.772</v>
-      </c>
-      <c r="AQ8" s="8">
-        <v>1.9610000000000001</v>
-      </c>
-      <c r="AS8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV8" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX8" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="AY8" s="4">
-        <v>219.7</v>
-      </c>
-      <c r="AZ8" s="18">
-        <f t="shared" si="0"/>
-        <v>-53.449999999999989</v>
-      </c>
-    </row>
-    <row r="9" spans="2:55" ht="15" customHeight="1">
-      <c r="B9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="N9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="12">
-        <v>0.8498</v>
-      </c>
-      <c r="W9" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AA9" s="7">
-        <v>24.75</v>
-      </c>
-      <c r="AC9" s="7">
-        <v>23.83</v>
-      </c>
-      <c r="AD9" s="63">
-        <f t="shared" si="1"/>
-        <v>23.369999999999997</v>
-      </c>
-      <c r="AE9" s="4">
-        <v>22.91</v>
-      </c>
-      <c r="AF9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ9" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AM9" s="8"/>
-      <c r="AN9" s="8">
-        <v>1.165</v>
-      </c>
-      <c r="AO9" s="8">
-        <v>1.268</v>
-      </c>
-      <c r="AP9" s="8">
-        <v>1.3859999999999999</v>
-      </c>
-      <c r="AQ9" s="8">
-        <v>1.5589999999999999</v>
-      </c>
-      <c r="AS9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV9" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="AY9" s="4">
-        <v>243.5</v>
-      </c>
-      <c r="AZ9" s="18">
-        <f t="shared" si="0"/>
-        <v>-29.649999999999977</v>
-      </c>
-    </row>
-    <row r="10" spans="2:55" ht="15" customHeight="1">
-      <c r="B10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="N10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="12"/>
-      <c r="Z10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA10" s="7">
-        <v>25.56</v>
-      </c>
-      <c r="AC10" s="7">
-        <v>24.66</v>
-      </c>
-      <c r="AD10" s="63">
-        <f t="shared" si="1"/>
-        <v>24.21</v>
-      </c>
-      <c r="AE10" s="4">
-        <v>23.76</v>
-      </c>
-      <c r="AF10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ10" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AM10" s="8"/>
-      <c r="AN10" s="8">
-        <v>0.93100000000000005</v>
-      </c>
-      <c r="AO10" s="8">
-        <v>1.0089999999999999</v>
-      </c>
-      <c r="AP10" s="8">
-        <v>1.1120000000000001</v>
-      </c>
-      <c r="AQ10" s="8">
-        <v>1.248</v>
-      </c>
-      <c r="AS10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV10" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX10" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="AY10" s="4">
-        <v>247.6</v>
-      </c>
-      <c r="AZ10" s="18">
-        <f t="shared" si="0"/>
-        <v>-25.549999999999983</v>
-      </c>
-    </row>
-    <row r="11" spans="2:55" ht="15" customHeight="1">
-      <c r="B11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="N11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="12">
-        <v>1.3585</v>
-      </c>
-      <c r="W11" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AA11" s="7">
-        <v>26.24</v>
-      </c>
-      <c r="AC11" s="7">
-        <v>25.35</v>
-      </c>
-      <c r="AD11" s="63">
-        <f t="shared" si="1"/>
-        <v>24.91</v>
-      </c>
-      <c r="AE11" s="4">
-        <v>24.47</v>
-      </c>
-      <c r="AF11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ11" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AM11" s="8"/>
-      <c r="AN11" s="8">
-        <v>0.70799999999999996</v>
-      </c>
-      <c r="AO11" s="8">
-        <v>0.78800000000000003</v>
-      </c>
-      <c r="AP11" s="8">
-        <v>0.871</v>
-      </c>
-      <c r="AQ11" s="8">
-        <v>0.996</v>
-      </c>
-      <c r="AS11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV11" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="AY11" s="4">
-        <v>263.60000000000002</v>
-      </c>
-      <c r="AZ11" s="18">
-        <f t="shared" si="0"/>
-        <v>-9.5499999999999545</v>
-      </c>
-    </row>
-    <row r="12" spans="2:55" ht="15" customHeight="1">
-      <c r="B12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="N12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="Q12" s="7"/>
-      <c r="R12" s="12"/>
-      <c r="Z12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AA12" s="7">
-        <v>26.86</v>
-      </c>
-      <c r="AC12" s="7">
-        <v>25.99</v>
-      </c>
-      <c r="AD12" s="63">
-        <f t="shared" si="1"/>
-        <v>25.549999999999997</v>
-      </c>
-      <c r="AE12" s="4">
-        <v>25.11</v>
-      </c>
-      <c r="AF12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ12" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AM12" s="8"/>
-      <c r="AN12" s="8">
-        <v>0.56499999999999995</v>
-      </c>
-      <c r="AO12" s="8">
-        <v>0.64</v>
-      </c>
-      <c r="AP12" s="8">
-        <v>0.70699999999999996</v>
-      </c>
-      <c r="AQ12" s="8">
-        <v>0.80500000000000005</v>
-      </c>
-      <c r="AS12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV12" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX12" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="AY12" s="4">
-        <v>267.8</v>
-      </c>
-      <c r="AZ12" s="18">
-        <f t="shared" si="0"/>
-        <v>-5.3499999999999659</v>
-      </c>
-    </row>
-    <row r="13" spans="2:55" ht="15" customHeight="1">
-      <c r="B13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="N13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="Q13" s="7"/>
-      <c r="R13" s="12">
-        <v>2.0779999999999998</v>
-      </c>
-      <c r="W13" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="Z13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AA13" s="7">
-        <v>27.43</v>
-      </c>
-      <c r="AC13" s="7">
-        <v>26.56</v>
-      </c>
-      <c r="AD13" s="63">
-        <f t="shared" si="1"/>
-        <v>26.125</v>
-      </c>
-      <c r="AE13" s="4">
-        <v>25.69</v>
-      </c>
-      <c r="AF13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ13" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AM13" s="8"/>
-      <c r="AN13" s="8">
-        <v>0.443</v>
-      </c>
-      <c r="AO13" s="8">
-        <v>0.495</v>
-      </c>
-      <c r="AP13" s="8">
-        <v>0.55000000000000004</v>
-      </c>
-      <c r="AQ13" s="8">
-        <v>0.63700000000000001</v>
-      </c>
-      <c r="AS13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV13" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX13" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="AY13" s="4">
-        <v>279</v>
-      </c>
-      <c r="AZ13" s="18">
-        <f t="shared" si="0"/>
-        <v>5.8500000000000227</v>
-      </c>
-    </row>
-    <row r="14" spans="2:55" ht="15" customHeight="1">
-      <c r="B14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C14" s="7"/>
-      <c r="D14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="N14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q14" s="7"/>
-      <c r="Z14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AC14" s="7">
-        <v>27.07</v>
-      </c>
-      <c r="AD14" s="63">
-        <f t="shared" si="1"/>
-        <v>26.64</v>
-      </c>
-      <c r="AE14" s="4">
-        <v>26.21</v>
-      </c>
-      <c r="AH14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ14" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AM14" s="8"/>
-      <c r="AN14" s="8">
-        <v>0.35699999999999998</v>
-      </c>
-      <c r="AO14" s="8">
-        <v>0.40400000000000003</v>
-      </c>
-      <c r="AP14" s="8">
-        <v>0.46100000000000002</v>
-      </c>
-      <c r="AQ14" s="8">
-        <v>0.53500000000000003</v>
-      </c>
-      <c r="AS14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AT14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV14" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX14" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="AY14" s="4">
-        <v>283.10000000000002</v>
-      </c>
-      <c r="AZ14" s="18">
-        <f t="shared" si="0"/>
-        <v>9.9500000000000455</v>
-      </c>
-    </row>
-    <row r="15" spans="2:55" ht="15" customHeight="1">
-      <c r="B15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C15" s="7"/>
-      <c r="D15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="N15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q15" s="7"/>
-      <c r="Z15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AC15" s="7">
-        <v>27.47</v>
-      </c>
-      <c r="AD15" s="63">
-        <f t="shared" si="1"/>
-        <v>27.045000000000002</v>
-      </c>
-      <c r="AE15" s="4">
-        <v>26.62</v>
-      </c>
-      <c r="AH15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AJ15" s="10" t="s">
-        <v>31</v>
-      </c>
-      <c r="AL15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AM15" s="8"/>
-      <c r="AN15" s="16"/>
-      <c r="AO15" s="8">
-        <v>0.34100000000000003</v>
-      </c>
-      <c r="AP15" s="8">
-        <v>0.38700000000000001</v>
-      </c>
-      <c r="AQ15" s="8">
-        <v>0.44600000000000001</v>
-      </c>
-      <c r="AT15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AU15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AV15" s="10" t="s">
-        <v>36</v>
-      </c>
-      <c r="AX15" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="AY15" s="4">
-        <v>291.10000000000002</v>
-      </c>
-      <c r="AZ15" s="18">
-        <f t="shared" si="0"/>
-        <v>17.950000000000045</v>
-      </c>
-    </row>
-    <row r="16" spans="2:55" ht="15" customHeight="1">
-      <c r="Q16" s="7"/>
-      <c r="AM16" s="8"/>
-      <c r="AN16" s="16"/>
-      <c r="AO16" s="8"/>
-      <c r="AQ16" s="8"/>
-    </row>
-    <row r="17" spans="2:43" ht="15" customHeight="1">
-      <c r="Q17" s="7"/>
-      <c r="AM17" s="8"/>
-      <c r="AN17" s="16"/>
-      <c r="AO17" s="8"/>
-      <c r="AQ17" s="8"/>
-    </row>
-    <row r="18" spans="2:43" ht="15" customHeight="1">
-      <c r="B18" s="17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18" s="84" t="s">
-        <v>19</v>
-      </c>
-      <c r="D18" s="84"/>
-      <c r="E18" s="84"/>
-      <c r="F18" s="84"/>
-      <c r="G18" s="84"/>
-    </row>
-    <row r="19" spans="2:43" ht="15" customHeight="1">
-      <c r="B19" s="17" t="s">
-        <v>23</v>
-      </c>
-      <c r="C19" s="4">
-        <v>10</v>
-      </c>
-      <c r="D19" s="4">
-        <v>15</v>
-      </c>
-      <c r="E19" s="4">
-        <v>20</v>
-      </c>
-      <c r="F19" s="4">
-        <v>25</v>
-      </c>
-      <c r="G19" s="4">
-        <v>30</v>
-      </c>
-      <c r="H19" s="10">
-        <v>10</v>
-      </c>
-      <c r="I19" s="10">
-        <v>15</v>
-      </c>
-      <c r="J19" s="10">
-        <v>20</v>
-      </c>
-      <c r="K19" s="10">
-        <v>25</v>
-      </c>
-      <c r="L19" s="10">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="20" spans="2:43" ht="15" customHeight="1">
-      <c r="B20" s="4" t="s">
-        <v>29</v>
-      </c>
-      <c r="C20" s="7"/>
-      <c r="D20" s="7"/>
-      <c r="E20" s="7">
-        <v>626.20000000000005</v>
-      </c>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="J20" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="2:43" ht="15" customHeight="1">
-      <c r="B21" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="C21" s="7"/>
-      <c r="D21" s="7"/>
-      <c r="F21" s="7">
-        <v>660.6</v>
-      </c>
-      <c r="G21" s="7"/>
-      <c r="K21" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:43" ht="15" customHeight="1">
-      <c r="B22" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="7"/>
-      <c r="D22" s="7"/>
-      <c r="F22" s="7">
-        <v>679.5</v>
-      </c>
-      <c r="G22" s="7"/>
-      <c r="K22" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="23" spans="2:43" ht="15" customHeight="1">
-      <c r="B23" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="C23" s="7"/>
-      <c r="D23" s="7"/>
-      <c r="F23" s="7">
-        <v>698.6</v>
-      </c>
-      <c r="G23" s="7"/>
-      <c r="K23" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="24" spans="2:43" ht="15" customHeight="1">
-      <c r="B24" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="C24" s="7"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7">
-        <v>719.2</v>
-      </c>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="J24" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="2:43" ht="15" customHeight="1">
-      <c r="B25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="7"/>
-      <c r="D25" s="7"/>
-      <c r="F25" s="7">
-        <v>726.6</v>
-      </c>
-      <c r="G25" s="7"/>
-      <c r="K25" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="2:43" ht="15" customHeight="1">
-      <c r="B26" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C26" s="7"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7">
-        <v>740.2</v>
-      </c>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="J26" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="27" spans="2:43" ht="15" customHeight="1">
-      <c r="B27" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C27" s="7"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7">
-        <v>749.5</v>
-      </c>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="J27" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="28" spans="2:43" ht="15" customHeight="1">
-      <c r="B28" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="7"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7">
-        <v>756.4</v>
-      </c>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="J28" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="29" spans="2:43" ht="15" customHeight="1">
-      <c r="B29" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C29" s="7"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7">
-        <v>759.6</v>
-      </c>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="J29" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="30" spans="2:43" ht="15" customHeight="1">
-      <c r="B30" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C30" s="7"/>
-      <c r="D30" s="7"/>
-      <c r="E30" s="7">
-        <v>768.5</v>
-      </c>
-      <c r="F30" s="7"/>
-      <c r="G30" s="7"/>
-      <c r="J30" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="2:43" ht="15" customHeight="1">
-      <c r="B31" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C31" s="7"/>
-      <c r="D31" s="7"/>
-      <c r="F31" s="7">
-        <v>770.1</v>
-      </c>
-      <c r="G31" s="7"/>
-      <c r="K31" s="10" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="33" spans="6:14" ht="15" customHeight="1">
-      <c r="F33" s="5"/>
-    </row>
-    <row r="46" spans="6:14" ht="15" customHeight="1">
-      <c r="N46" s="17"/>
-    </row>
-  </sheetData>
-  <mergeCells count="7">
-    <mergeCell ref="C18:G18"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="AY2:AZ2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AM2:AQ2"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\Github_Dropbox\AlkaneStudy.Gromacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{028A75F5-F758-40C8-9F99-83CE0157445E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCCD05-51E5-425A-A12D-F899509B68CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
   </bookViews>
@@ -4129,7 +4129,7 @@
   <dimension ref="B2:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="H2" sqref="H2:H15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4400,7 +4400,7 @@
         <v>0</v>
       </c>
       <c r="J10" s="14">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="2:13">

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\Github_Dropbox\AlkaneStudy.Gromacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72FCCD05-51E5-425A-A12D-F899509B68CA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7783D95-0E6F-44FB-80DD-E1DFB780B4F3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
   </bookViews>
@@ -27,7 +27,6 @@
     <sheet name="Expr old" sheetId="4" state="hidden" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -43,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1134" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1138" uniqueCount="281">
   <si>
     <t>Study</t>
   </si>
@@ -1027,6 +1026,12 @@
   <si>
     <t>Ref</t>
   </si>
+  <si>
+    <t>FlexWilliams4TL-UA-torsion_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>ORIG</t>
+  </si>
 </sst>
 </file>
 
@@ -1039,7 +1044,7 @@
     <numFmt numFmtId="167" formatCode="0.00000"/>
     <numFmt numFmtId="168" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="22">
+  <fonts count="21">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1154,13 +1159,6 @@
     </font>
     <font>
       <vertAlign val="superscript"/>
-      <sz val="12"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -1341,7 +1339,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="123">
+  <cellXfs count="126">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1623,19 +1621,19 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="17" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1644,13 +1642,13 @@
     <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="21" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1667,6 +1665,12 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1690,7 +1694,10 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1800,7 +1807,37 @@
             <c:trendlineType val="poly"/>
             <c:order val="2"/>
             <c:dispRSqr val="0"/>
-            <c:dispEq val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
           </c:trendline>
           <c:xVal>
             <c:numRef>
@@ -1851,37 +1888,37 @@
                 <c:formatCode>0.000000</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>0.15080993086311401</c:v>
+                  <c:v>2.5134988477185666E-2</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.10392223160637679</c:v>
+                  <c:v>1.7320371934396131E-2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6.846090679015647E-2</c:v>
+                  <c:v>1.1410151131692746E-2</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>6.3899020788525177E-2</c:v>
+                  <c:v>1.0649836798087529E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.6418088036741173E-2</c:v>
+                  <c:v>2.7363480061235288E-3</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>3.4159613555745184E-2</c:v>
+                  <c:v>5.6932689259575307E-3</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>2.3377149515878035E-2</c:v>
+                  <c:v>3.8961915859796726E-3</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4.916235671942655E-2</c:v>
+                  <c:v>8.1937261199044251E-3</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>9.3731112624836202E-2</c:v>
+                  <c:v>1.5621852104139368E-2</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.10666187349319943</c:v>
+                  <c:v>1.7776978915533238E-2</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.18810473179140902</c:v>
+                  <c:v>3.1350788631901501E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -4129,7 +4166,7 @@
   <dimension ref="B2:M57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H2" sqref="H2:H15"/>
+      <selection activeCell="H31" sqref="H31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -4455,7 +4492,7 @@
         <v>0</v>
       </c>
       <c r="J12" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="13" spans="2:13" s="92" customFormat="1">
@@ -4623,6 +4660,9 @@
       <c r="G24" s="14" t="s">
         <v>188</v>
       </c>
+      <c r="J24" s="14" t="s">
+        <v>201</v>
+      </c>
     </row>
     <row r="25" spans="2:10">
       <c r="C25" s="14" t="s">
@@ -4638,6 +4678,9 @@
       </c>
       <c r="C26" s="14" t="s">
         <v>180</v>
+      </c>
+      <c r="J26" s="14" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="27" spans="2:10" s="92" customFormat="1">
@@ -5142,7 +5185,7 @@
   <dimension ref="B1:Q33"/>
   <sheetViews>
     <sheetView zoomScale="102" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -5158,29 +5201,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="I1" s="121" t="s">
+      <c r="I1" s="123" t="s">
         <v>122</v>
       </c>
-      <c r="J1" s="121"/>
-      <c r="K1" s="121"/>
-      <c r="L1" s="121"/>
-      <c r="M1" s="121"/>
-      <c r="N1" s="121"/>
-      <c r="O1" s="121"/>
+      <c r="J1" s="123"/>
+      <c r="K1" s="123"/>
+      <c r="L1" s="123"/>
+      <c r="M1" s="123"/>
+      <c r="N1" s="123"/>
+      <c r="O1" s="123"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="C2" s="115" t="s">
+      <c r="C2" s="117" t="s">
         <v>114</v>
       </c>
-      <c r="D2" s="115"/>
+      <c r="D2" s="117"/>
       <c r="F2" s="31" t="s">
         <v>118</v>
       </c>
-      <c r="I2" s="121" t="s">
+      <c r="I2" s="123" t="s">
         <v>120</v>
       </c>
-      <c r="J2" s="121"/>
-      <c r="K2" s="121"/>
+      <c r="J2" s="123"/>
+      <c r="K2" s="123"/>
       <c r="L2" s="14" t="s">
         <v>121</v>
       </c>
@@ -5658,51 +5701,51 @@
       <c r="F4" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="119" t="s">
+      <c r="H4" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="119"/>
-      <c r="J4" s="119"/>
-      <c r="K4" s="119"/>
-      <c r="L4" s="119"/>
+      <c r="I4" s="121"/>
+      <c r="J4" s="121"/>
+      <c r="K4" s="121"/>
+      <c r="L4" s="121"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="119" t="s">
+      <c r="T4" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="U4" s="119"/>
-      <c r="V4" s="119"/>
-      <c r="W4" s="119"/>
-      <c r="X4" s="119"/>
+      <c r="U4" s="121"/>
+      <c r="V4" s="121"/>
+      <c r="W4" s="121"/>
+      <c r="X4" s="121"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
-      <c r="AF4" s="119" t="s">
+      <c r="AF4" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="AG4" s="119"/>
-      <c r="AH4" s="119"/>
-      <c r="AI4" s="119"/>
-      <c r="AJ4" s="119"/>
+      <c r="AG4" s="121"/>
+      <c r="AH4" s="121"/>
+      <c r="AI4" s="121"/>
+      <c r="AJ4" s="121"/>
       <c r="AN4" s="10"/>
       <c r="AP4" s="7"/>
-      <c r="AR4" s="119" t="s">
+      <c r="AR4" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="AS4" s="119"/>
-      <c r="AT4" s="119"/>
-      <c r="AU4" s="119"/>
-      <c r="AV4" s="119"/>
+      <c r="AS4" s="121"/>
+      <c r="AT4" s="121"/>
+      <c r="AU4" s="121"/>
+      <c r="AV4" s="121"/>
       <c r="BB4" s="7"/>
-      <c r="BD4" s="119" t="s">
+      <c r="BD4" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="BE4" s="119"/>
-      <c r="BF4" s="119"/>
-      <c r="BG4" s="119"/>
-      <c r="BH4" s="119"/>
+      <c r="BE4" s="121"/>
+      <c r="BF4" s="121"/>
+      <c r="BG4" s="121"/>
+      <c r="BH4" s="121"/>
     </row>
     <row r="5" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="12" t="s">
@@ -6947,20 +6990,20 @@
       <c r="K3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="M3" s="115" t="s">
+      <c r="M3" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="N3" s="115"/>
-      <c r="O3" s="115"/>
-      <c r="Q3" s="115" t="s">
+      <c r="N3" s="117"/>
+      <c r="O3" s="117"/>
+      <c r="Q3" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="R3" s="115"/>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
+      <c r="R3" s="117"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
     </row>
     <row r="4" spans="2:24" s="15" customFormat="1">
       <c r="B4" s="15" t="s">
@@ -7861,20 +7904,20 @@
       <c r="O3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="Q3" s="115" t="s">
+      <c r="Q3" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="R3" s="115"/>
-      <c r="S3" s="116"/>
-      <c r="U3" s="115" t="s">
+      <c r="R3" s="117"/>
+      <c r="S3" s="118"/>
+      <c r="U3" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
     </row>
     <row r="4" spans="2:28" s="15" customFormat="1">
       <c r="B4" s="15" t="s">
@@ -8287,10 +8330,10 @@
   <dimension ref="B2:AC50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="2" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="4" topLeftCell="J5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="J35" sqref="J35"/>
+      <selection pane="bottomRight" activeCell="AC22" sqref="AC22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -8330,20 +8373,20 @@
       <c r="Q3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="S3" s="115" t="s">
+      <c r="S3" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="T3" s="115"/>
-      <c r="U3" s="116"/>
-      <c r="W3" s="115" t="s">
+      <c r="T3" s="117"/>
+      <c r="U3" s="118"/>
+      <c r="W3" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="X3" s="115"/>
-      <c r="Y3" s="115"/>
-      <c r="Z3" s="115"/>
-      <c r="AA3" s="115"/>
-      <c r="AB3" s="115"/>
-      <c r="AC3" s="115"/>
+      <c r="X3" s="117"/>
+      <c r="Y3" s="117"/>
+      <c r="Z3" s="117"/>
+      <c r="AA3" s="117"/>
+      <c r="AB3" s="117"/>
+      <c r="AC3" s="117"/>
     </row>
     <row r="4" spans="2:29" s="15" customFormat="1">
       <c r="B4" s="15" t="s">
@@ -9153,6 +9196,9 @@
       <c r="AB21" s="74"/>
     </row>
     <row r="22" spans="2:29" s="71" customFormat="1">
+      <c r="B22" s="71" t="s">
+        <v>279</v>
+      </c>
       <c r="C22" s="71" t="s">
         <v>216</v>
       </c>
@@ -9563,10 +9609,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB2C844C-ED1A-4540-A821-8B893B2A81D6}">
-  <dimension ref="B1:U43"/>
+  <dimension ref="B1:U46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M25" sqref="M25"/>
+      <selection activeCell="I46" sqref="I46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -9680,19 +9726,19 @@
       </c>
     </row>
     <row r="7" spans="2:21">
-      <c r="C7" s="117" t="s">
+      <c r="C7" s="119" t="s">
         <v>243</v>
       </c>
-      <c r="D7" s="117"/>
-      <c r="E7" s="117"/>
-      <c r="F7" s="117"/>
-      <c r="G7" s="117"/>
+      <c r="D7" s="119"/>
+      <c r="E7" s="119"/>
+      <c r="F7" s="119"/>
+      <c r="G7" s="119"/>
       <c r="H7" s="89"/>
-      <c r="L7" s="117" t="s">
+      <c r="L7" s="119" t="s">
         <v>244</v>
       </c>
-      <c r="M7" s="117"/>
-      <c r="N7" s="117"/>
+      <c r="M7" s="119"/>
+      <c r="N7" s="119"/>
     </row>
     <row r="8" spans="2:21" s="90" customFormat="1">
       <c r="D8" s="80" t="s">
@@ -9757,8 +9803,8 @@
         <v>8.3302353252099337E-2</v>
       </c>
       <c r="J9" s="114">
-        <f>I9+I21+I33</f>
-        <v>0.15080993086311401</v>
+        <f>(I9+I21+I33)/6</f>
+        <v>2.5134988477185666E-2</v>
       </c>
       <c r="L9" s="85">
         <v>1.4E-2</v>
@@ -9795,8 +9841,8 @@
         <v>5.9288271597642751E-2</v>
       </c>
       <c r="J10" s="114">
-        <f t="shared" ref="J10:J19" si="2">I10+I22+I34</f>
-        <v>0.10392223160637679</v>
+        <f t="shared" ref="J10:J19" si="2">(I10+I22+I34)/6</f>
+        <v>1.7320371934396131E-2</v>
       </c>
       <c r="L10" s="85">
         <v>1.4999999999999999E-2</v>
@@ -9834,7 +9880,7 @@
       </c>
       <c r="J11" s="114">
         <f t="shared" si="2"/>
-        <v>6.846090679015647E-2</v>
+        <v>1.1410151131692746E-2</v>
       </c>
       <c r="L11" s="85">
         <v>1.6E-2</v>
@@ -9872,7 +9918,7 @@
       </c>
       <c r="J12" s="114">
         <f t="shared" si="2"/>
-        <v>6.3899020788525177E-2</v>
+        <v>1.0649836798087529E-2</v>
       </c>
       <c r="L12" s="85">
         <v>1.7000000000000001E-2</v>
@@ -9910,7 +9956,7 @@
       </c>
       <c r="J13" s="114">
         <f t="shared" si="2"/>
-        <v>1.6418088036741173E-2</v>
+        <v>2.7363480061235288E-3</v>
       </c>
       <c r="L13" s="85">
         <v>1.7999999999999999E-2</v>
@@ -9925,41 +9971,41 @@
         <v>0.3322</v>
       </c>
     </row>
-    <row r="14" spans="2:21">
-      <c r="D14" s="84">
+    <row r="14" spans="2:21" s="124" customFormat="1">
+      <c r="D14" s="36">
         <v>0.02</v>
       </c>
-      <c r="E14" s="84">
+      <c r="E14" s="36">
         <v>7.9587500000000002</v>
       </c>
-      <c r="F14" s="88">
+      <c r="F14" s="124">
         <v>763.78099999999995</v>
       </c>
-      <c r="G14" s="87">
+      <c r="G14" s="39">
         <v>0.32100000000000001</v>
       </c>
-      <c r="H14" s="84">
+      <c r="H14" s="36">
         <f t="shared" si="0"/>
         <v>0.34331847401325505</v>
       </c>
-      <c r="I14" s="114">
+      <c r="I14" s="125">
         <f t="shared" si="1"/>
         <v>1.2807453588471695E-2</v>
       </c>
       <c r="J14" s="114">
         <f t="shared" si="2"/>
-        <v>3.4159613555745184E-2</v>
-      </c>
-      <c r="L14" s="85">
+        <v>5.6932689259575307E-3</v>
+      </c>
+      <c r="L14" s="124">
         <v>1.9E-2</v>
       </c>
-      <c r="S14" s="84">
+      <c r="S14" s="36">
         <v>7.9587500000000002</v>
       </c>
-      <c r="T14" s="85">
+      <c r="T14" s="124">
         <v>763.78099999999995</v>
       </c>
-      <c r="U14" s="87">
+      <c r="U14" s="39">
         <v>0.3241</v>
       </c>
     </row>
@@ -9986,7 +10032,7 @@
       </c>
       <c r="J15" s="114">
         <f t="shared" si="2"/>
-        <v>2.3377149515878035E-2</v>
+        <v>3.8961915859796726E-3</v>
       </c>
       <c r="L15" s="85">
         <v>0.02</v>
@@ -10024,7 +10070,7 @@
       </c>
       <c r="J16" s="114">
         <f t="shared" si="2"/>
-        <v>4.916235671942655E-2</v>
+        <v>8.1937261199044251E-3</v>
       </c>
       <c r="L16" s="85">
         <v>2.1000000000000001E-2</v>
@@ -10062,7 +10108,7 @@
       </c>
       <c r="J17" s="114">
         <f t="shared" si="2"/>
-        <v>9.3731112624836202E-2</v>
+        <v>1.5621852104139368E-2</v>
       </c>
       <c r="L17" s="85">
         <v>2.1999999999999999E-2</v>
@@ -10100,7 +10146,7 @@
       </c>
       <c r="J18" s="114">
         <f t="shared" si="2"/>
-        <v>0.10666187349319943</v>
+        <v>1.7776978915533238E-2</v>
       </c>
       <c r="L18" s="85">
         <v>2.3E-2</v>
@@ -10138,7 +10184,7 @@
       </c>
       <c r="J19" s="114">
         <f t="shared" si="2"/>
-        <v>0.18810473179140902</v>
+        <v>3.1350788631901501E-2</v>
       </c>
       <c r="L19" s="85">
         <v>2.4E-2</v>
@@ -10269,24 +10315,24 @@
         <v>2.7507353427601283E-3</v>
       </c>
     </row>
-    <row r="26" spans="3:21">
-      <c r="D26" s="84">
+    <row r="26" spans="3:21" s="124" customFormat="1">
+      <c r="D26" s="36">
         <v>0.02</v>
       </c>
-      <c r="E26" s="84">
+      <c r="E26" s="36">
         <v>7.8100699999999996</v>
       </c>
-      <c r="F26" s="88">
+      <c r="F26" s="124">
         <v>758.17200000000003</v>
       </c>
-      <c r="G26" s="87">
+      <c r="G26" s="39">
         <v>0.38090000000000002</v>
       </c>
-      <c r="H26" s="84">
+      <c r="H26" s="36">
         <f t="shared" si="3"/>
         <v>0.40863828884320291</v>
       </c>
-      <c r="I26" s="114">
+      <c r="I26" s="125">
         <f t="shared" si="4"/>
         <v>1.2980044410776503E-2</v>
       </c>
@@ -10517,24 +10563,24 @@
         <v>2.5050208716763923E-3</v>
       </c>
     </row>
-    <row r="38" spans="3:9">
-      <c r="D38" s="84">
+    <row r="38" spans="3:9" s="124" customFormat="1">
+      <c r="D38" s="36">
         <v>0.02</v>
       </c>
-      <c r="E38" s="84">
+      <c r="E38" s="36">
         <v>8.2729499999999998</v>
       </c>
-      <c r="F38" s="88">
+      <c r="F38" s="124">
         <v>686.07799999999997</v>
       </c>
-      <c r="G38" s="87">
+      <c r="G38" s="39">
         <v>2.4076</v>
       </c>
-      <c r="H38" s="84">
+      <c r="H38" s="36">
         <f t="shared" si="5"/>
         <v>2.5673954490450415</v>
       </c>
-      <c r="I38" s="114">
+      <c r="I38" s="125">
         <f t="shared" si="6"/>
         <v>8.3721155564969868E-3</v>
       </c>
@@ -10647,6 +10693,31 @@
       <c r="I43" s="114">
         <f t="shared" si="6"/>
         <v>0.11415500926748777</v>
+      </c>
+    </row>
+    <row r="46" spans="3:9">
+      <c r="C46" s="85" t="s">
+        <v>280</v>
+      </c>
+      <c r="D46" s="84">
+        <v>0.01</v>
+      </c>
+      <c r="E46" s="84">
+        <v>7.8995300000000004</v>
+      </c>
+      <c r="F46" s="116">
+        <v>802</v>
+      </c>
+      <c r="G46" s="87">
+        <v>0.19</v>
+      </c>
+      <c r="H46" s="84">
+        <f>G46/(1-$I$3*F$3/E46)</f>
+        <v>0.20331628558821369</v>
+      </c>
+      <c r="I46" s="114">
+        <f>((F46-$G$3)/$G$3)^2 + ((H46-$D$3)/$D$3)^2</f>
+        <v>0.226994189013701</v>
       </c>
     </row>
   </sheetData>
@@ -10702,20 +10773,20 @@
       <c r="L3" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="N3" s="115" t="s">
+      <c r="N3" s="117" t="s">
         <v>81</v>
       </c>
-      <c r="O3" s="115"/>
-      <c r="P3" s="116"/>
-      <c r="R3" s="115" t="s">
+      <c r="O3" s="117"/>
+      <c r="P3" s="118"/>
+      <c r="R3" s="117" t="s">
         <v>102</v>
       </c>
-      <c r="S3" s="115"/>
-      <c r="T3" s="115"/>
-      <c r="U3" s="115"/>
-      <c r="V3" s="115"/>
-      <c r="W3" s="115"/>
-      <c r="X3" s="115"/>
+      <c r="S3" s="117"/>
+      <c r="T3" s="117"/>
+      <c r="U3" s="117"/>
+      <c r="V3" s="117"/>
+      <c r="W3" s="117"/>
+      <c r="X3" s="117"/>
     </row>
     <row r="4" spans="2:25" s="15" customFormat="1">
       <c r="B4" s="15" t="s">
@@ -10977,8 +11048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB14C90-9A0C-E346-B9BD-40AE56D235C4}">
   <dimension ref="B1:BH45"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="BA4" sqref="BA4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="R48" sqref="R48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15" customHeight="1"/>
@@ -11039,30 +11110,30 @@
       <c r="B2" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="C2" s="120" t="s">
+      <c r="C2" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="120"/>
-      <c r="E2" s="120"/>
-      <c r="F2" s="120"/>
-      <c r="G2" s="120"/>
-      <c r="H2" s="119" t="s">
+      <c r="D2" s="122"/>
+      <c r="E2" s="122"/>
+      <c r="F2" s="122"/>
+      <c r="G2" s="122"/>
+      <c r="H2" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
+      <c r="I2" s="121"/>
+      <c r="J2" s="121"/>
+      <c r="K2" s="121"/>
+      <c r="L2" s="121"/>
       <c r="N2" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="O2" s="120" t="s">
+      <c r="O2" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="120"/>
-      <c r="Q2" s="120"/>
-      <c r="R2" s="120"/>
-      <c r="S2" s="120"/>
+      <c r="P2" s="122"/>
+      <c r="Q2" s="122"/>
+      <c r="R2" s="122"/>
+      <c r="S2" s="122"/>
       <c r="T2" s="76"/>
       <c r="U2" s="76"/>
       <c r="V2" s="76"/>
@@ -11071,13 +11142,13 @@
       <c r="Z2" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="AA2" s="120" t="s">
+      <c r="AA2" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AB2" s="120"/>
-      <c r="AC2" s="120"/>
-      <c r="AD2" s="120"/>
-      <c r="AE2" s="120"/>
+      <c r="AB2" s="122"/>
+      <c r="AC2" s="122"/>
+      <c r="AD2" s="122"/>
+      <c r="AE2" s="122"/>
       <c r="AF2" s="76"/>
       <c r="AG2" s="76"/>
       <c r="AH2" s="76"/>
@@ -11086,13 +11157,13 @@
       <c r="AL2" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="AM2" s="120" t="s">
+      <c r="AM2" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AN2" s="120"/>
-      <c r="AO2" s="120"/>
-      <c r="AP2" s="120"/>
-      <c r="AQ2" s="120"/>
+      <c r="AN2" s="122"/>
+      <c r="AO2" s="122"/>
+      <c r="AP2" s="122"/>
+      <c r="AQ2" s="122"/>
       <c r="AR2" s="76"/>
       <c r="AS2" s="76"/>
       <c r="AT2" s="76"/>
@@ -11250,7 +11321,7 @@
       <c r="AZ3" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="BA3" s="122" t="s">
+      <c r="BA3" s="115" t="s">
         <v>278</v>
       </c>
       <c r="BD3" s="76"/>
@@ -12232,33 +12303,33 @@
       <c r="B17" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="C17" s="118" t="s">
+      <c r="C17" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="118"/>
-      <c r="E17" s="118"/>
-      <c r="F17" s="118"/>
-      <c r="G17" s="118"/>
+      <c r="D17" s="120"/>
+      <c r="E17" s="120"/>
+      <c r="F17" s="120"/>
+      <c r="G17" s="120"/>
       <c r="N17" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="O17" s="118" t="s">
+      <c r="O17" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P17" s="118"/>
-      <c r="Q17" s="118"/>
-      <c r="R17" s="118"/>
-      <c r="S17" s="118"/>
+      <c r="P17" s="120"/>
+      <c r="Q17" s="120"/>
+      <c r="R17" s="120"/>
+      <c r="S17" s="120"/>
       <c r="AL17" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="AM17" s="120" t="s">
+      <c r="AM17" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AN17" s="120"/>
-      <c r="AO17" s="120"/>
-      <c r="AP17" s="120"/>
-      <c r="AQ17" s="120"/>
+      <c r="AN17" s="122"/>
+      <c r="AO17" s="122"/>
+      <c r="AP17" s="122"/>
+      <c r="AQ17" s="122"/>
       <c r="AR17" s="76"/>
       <c r="AS17" s="76"/>
       <c r="AT17" s="76"/>
@@ -12879,40 +12950,40 @@
       <c r="B32" s="93" t="s">
         <v>259</v>
       </c>
-      <c r="C32" s="120" t="s">
+      <c r="C32" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="120"/>
-      <c r="E32" s="120"/>
-      <c r="F32" s="120"/>
-      <c r="G32" s="120"/>
-      <c r="H32" s="119" t="s">
+      <c r="D32" s="122"/>
+      <c r="E32" s="122"/>
+      <c r="F32" s="122"/>
+      <c r="G32" s="122"/>
+      <c r="H32" s="121" t="s">
         <v>20</v>
       </c>
-      <c r="I32" s="119"/>
-      <c r="J32" s="119"/>
-      <c r="K32" s="119"/>
-      <c r="L32" s="119"/>
+      <c r="I32" s="121"/>
+      <c r="J32" s="121"/>
+      <c r="K32" s="121"/>
+      <c r="L32" s="121"/>
       <c r="N32" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="O32" s="118" t="s">
+      <c r="O32" s="120" t="s">
         <v>19</v>
       </c>
-      <c r="P32" s="118"/>
-      <c r="Q32" s="118"/>
-      <c r="R32" s="118"/>
-      <c r="S32" s="118"/>
+      <c r="P32" s="120"/>
+      <c r="Q32" s="120"/>
+      <c r="R32" s="120"/>
+      <c r="S32" s="120"/>
       <c r="AL32" s="84" t="s">
         <v>260</v>
       </c>
-      <c r="AM32" s="120" t="s">
+      <c r="AM32" s="122" t="s">
         <v>19</v>
       </c>
-      <c r="AN32" s="120"/>
-      <c r="AO32" s="120"/>
-      <c r="AP32" s="120"/>
-      <c r="AQ32" s="120"/>
+      <c r="AN32" s="122"/>
+      <c r="AO32" s="122"/>
+      <c r="AP32" s="122"/>
+      <c r="AQ32" s="122"/>
       <c r="AR32" s="76"/>
       <c r="AS32" s="76"/>
       <c r="AT32" s="76"/>

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\Github_Dropbox\AlkaneStudy.Gromacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{844C1BE8-3281-4434-8108-05D8EED0A70C}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{931579BA-072F-42D3-A40C-6509B79114D6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" firstSheet="1" activeTab="10" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
+    <workbookView xWindow="345" yWindow="345" windowWidth="2400" windowHeight="585" activeTab="10" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim matrix" sheetId="13" r:id="rId1"/>
@@ -23,14 +23,15 @@
     <sheet name="Williams7" sheetId="19" r:id="rId8"/>
     <sheet name="FlexWilliams_old" sheetId="10" r:id="rId9"/>
     <sheet name="WilliamsOpt" sheetId="14" r:id="rId10"/>
-    <sheet name="C16_cryst" sheetId="21" r:id="rId11"/>
-    <sheet name="Williams2019" sheetId="18" r:id="rId12"/>
-    <sheet name="GMX_dihedral" sheetId="15" r:id="rId13"/>
-    <sheet name="Expr data" sheetId="2" r:id="rId14"/>
-    <sheet name="Ref" sheetId="3" r:id="rId15"/>
-    <sheet name="box_sizes" sheetId="5" r:id="rId16"/>
-    <sheet name="cos-acc tests" sheetId="7" state="hidden" r:id="rId17"/>
-    <sheet name="Expr old" sheetId="4" state="hidden" r:id="rId18"/>
+    <sheet name="Unit cells" sheetId="22" r:id="rId11"/>
+    <sheet name="Super-cells" sheetId="21" r:id="rId12"/>
+    <sheet name="Williams2019" sheetId="18" r:id="rId13"/>
+    <sheet name="GMX_dihedral" sheetId="15" r:id="rId14"/>
+    <sheet name="Expr data" sheetId="2" r:id="rId15"/>
+    <sheet name="Ref" sheetId="3" r:id="rId16"/>
+    <sheet name="box_sizes" sheetId="5" r:id="rId17"/>
+    <sheet name="cos-acc tests" sheetId="7" state="hidden" r:id="rId18"/>
+    <sheet name="Expr old" sheetId="4" state="hidden" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -48,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2015" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2033" uniqueCount="454">
   <si>
     <t>Study</t>
   </si>
@@ -1466,9 +1467,6 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Triclinic unit cell</t>
-  </si>
-  <si>
     <t>na</t>
   </si>
   <si>
@@ -1527,9 +1525,6 @@
     <t>GPU-113_CHARMM36-CTL_1024xC8_anneal_260-160-260K_100ns</t>
   </si>
   <si>
-    <t>GPU-112</t>
-  </si>
-  <si>
     <t>GPU-111_CHARMM36-CTL_512xC16_anneal_340-240-340K_100ns</t>
   </si>
   <si>
@@ -1560,13 +1555,40 @@
     <t>β</t>
   </si>
   <si>
-    <t>SG</t>
-  </si>
-  <si>
     <t>Triclinic</t>
   </si>
   <si>
     <t>Orthorhombic</t>
+  </si>
+  <si>
+    <t>GPU-112_CHARMM36-CTL_512xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>Space group</t>
+  </si>
+  <si>
+    <t>QQQFBP01</t>
+  </si>
+  <si>
+    <t>QQQFBD</t>
+  </si>
+  <si>
+    <t>C16 Triclinic unit cell</t>
+  </si>
+  <si>
+    <t>QQQFBA</t>
+  </si>
+  <si>
+    <t>Pbcm</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Craig, J. MATER. CHEM., 1994, 4(6), 977-981</t>
   </si>
 </sst>
 </file>
@@ -1912,7 +1934,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="215">
+  <cellXfs count="213">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2508,28 +2530,22 @@
     <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -9423,8 +9439,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5E6099B-77F6-4CCD-9B30-DB7CF2E469C9}">
   <dimension ref="B1:M60"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="J50" sqref="J50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -13940,207 +13956,424 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54734A79-229D-40A1-9EF2-2AA48E78AAE8}">
-  <dimension ref="B2:AE11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CE14D2-6A31-4EE7-987E-9C9B413F95A3}">
+  <dimension ref="B2:L12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17:F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="5.75" style="68" customWidth="1"/>
-    <col min="2" max="2" width="41.625" style="68" customWidth="1"/>
-    <col min="3" max="5" width="7.5" style="68" customWidth="1"/>
-    <col min="6" max="6" width="9" style="68"/>
-    <col min="7" max="15" width="9" style="71"/>
-    <col min="16" max="18" width="9" style="68"/>
-    <col min="19" max="19" width="3.25" style="68" customWidth="1"/>
-    <col min="20" max="20" width="9" style="211"/>
-    <col min="21" max="22" width="9" style="68"/>
-    <col min="23" max="24" width="17" style="68" customWidth="1"/>
-    <col min="25" max="16384" width="9" style="68"/>
+    <col min="1" max="1" width="7.125" customWidth="1"/>
+    <col min="3" max="3" width="12.125" customWidth="1"/>
+    <col min="4" max="4" width="17.25" customWidth="1"/>
+    <col min="5" max="5" width="13" customWidth="1"/>
+    <col min="12" max="12" width="47.625" style="186" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:31" s="187" customFormat="1">
+    <row r="2" spans="2:12">
+      <c r="B2" s="163"/>
+      <c r="C2" s="163" t="s">
+        <v>436</v>
+      </c>
+      <c r="D2" s="163" t="s">
+        <v>286</v>
+      </c>
+      <c r="E2" s="163" t="s">
+        <v>446</v>
+      </c>
+      <c r="F2" s="163" t="s">
+        <v>437</v>
+      </c>
+      <c r="G2" s="163" t="s">
+        <v>438</v>
+      </c>
+      <c r="H2" s="163" t="s">
+        <v>439</v>
+      </c>
+      <c r="I2" s="210" t="s">
+        <v>440</v>
+      </c>
+      <c r="J2" s="174" t="s">
+        <v>441</v>
+      </c>
+      <c r="K2" s="174" t="s">
+        <v>23</v>
+      </c>
+      <c r="L2" s="212" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12">
+      <c r="B3" s="68" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="68" t="s">
+        <v>447</v>
+      </c>
+      <c r="D3" s="68" t="s">
+        <v>442</v>
+      </c>
+      <c r="E3" s="68" t="s">
+        <v>445</v>
+      </c>
+      <c r="F3" s="68">
+        <v>4.2698999999999998</v>
+      </c>
+      <c r="G3" s="68">
+        <v>4.8105000000000002</v>
+      </c>
+      <c r="H3" s="71">
+        <v>22.344999999999999</v>
+      </c>
+      <c r="I3" s="71">
+        <v>84.541200000000003</v>
+      </c>
+      <c r="J3" s="71">
+        <v>67.427800000000005</v>
+      </c>
+      <c r="K3" s="71">
+        <v>72.995900000000006</v>
+      </c>
+    </row>
+    <row r="4" spans="2:12">
+      <c r="B4" s="68" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="68"/>
+      <c r="D4" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="E4" s="68"/>
+      <c r="F4" s="68"/>
+      <c r="G4" s="68"/>
+      <c r="H4" s="71"/>
+      <c r="I4" s="71"/>
+      <c r="J4" s="71"/>
+      <c r="K4" s="71"/>
+    </row>
+    <row r="5" spans="2:12">
+      <c r="B5" s="68" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="68"/>
+      <c r="D5" s="68"/>
+      <c r="E5" s="68"/>
+      <c r="F5" s="68"/>
+      <c r="G5" s="68"/>
+      <c r="H5" s="71"/>
+      <c r="I5" s="71"/>
+      <c r="J5" s="71"/>
+      <c r="K5" s="71"/>
+    </row>
+    <row r="6" spans="2:12">
+      <c r="B6" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="68" t="s">
+        <v>448</v>
+      </c>
+      <c r="D6" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="E6" s="68" t="s">
+        <v>451</v>
+      </c>
+      <c r="F6" s="68">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="G6" s="68">
+        <v>7.29</v>
+      </c>
+      <c r="H6" s="68">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="I6" s="68">
+        <v>90</v>
+      </c>
+      <c r="J6" s="68">
+        <v>90</v>
+      </c>
+      <c r="K6" s="68">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12">
+      <c r="B7" s="68" t="s">
+        <v>39</v>
+      </c>
+      <c r="C7" s="68"/>
+      <c r="D7" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="E7" s="68" t="s">
+        <v>451</v>
+      </c>
+      <c r="F7" s="68">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="G7" s="68">
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="H7" s="68">
+        <v>36.808</v>
+      </c>
+      <c r="I7" s="68">
+        <v>90</v>
+      </c>
+      <c r="J7" s="68">
+        <v>90</v>
+      </c>
+      <c r="K7" s="68">
+        <v>90</v>
+      </c>
+      <c r="L7" s="186" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12">
+      <c r="B8" s="68" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" s="68"/>
+      <c r="D8" s="68"/>
+      <c r="E8" s="68"/>
+      <c r="F8" s="68"/>
+      <c r="G8" s="68"/>
+      <c r="H8" s="68"/>
+      <c r="I8" s="68"/>
+      <c r="J8" s="68"/>
+      <c r="K8" s="68"/>
+    </row>
+    <row r="9" spans="2:12">
+      <c r="B9" s="68" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="68" t="s">
+        <v>450</v>
+      </c>
+      <c r="D9" s="68" t="s">
+        <v>443</v>
+      </c>
+      <c r="E9" s="68" t="s">
+        <v>452</v>
+      </c>
+      <c r="F9" s="68">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="G9" s="68">
+        <v>7.22</v>
+      </c>
+      <c r="H9" s="68">
+        <v>31.53</v>
+      </c>
+      <c r="I9" s="68">
+        <v>90</v>
+      </c>
+      <c r="J9" s="68">
+        <v>90</v>
+      </c>
+      <c r="K9" s="68">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="10" spans="2:12">
+      <c r="B10" s="68" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" s="68"/>
+      <c r="D10" s="68"/>
+      <c r="E10" s="68"/>
+      <c r="F10" s="68"/>
+      <c r="G10" s="68"/>
+      <c r="H10" s="68"/>
+      <c r="I10" s="68"/>
+      <c r="J10" s="68"/>
+      <c r="K10" s="68"/>
+    </row>
+    <row r="11" spans="2:12">
+      <c r="B11" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11" s="68"/>
+      <c r="D11" s="68"/>
+      <c r="E11" s="68"/>
+      <c r="F11" s="68"/>
+      <c r="G11" s="68"/>
+      <c r="H11" s="68"/>
+      <c r="I11" s="68"/>
+      <c r="J11" s="68"/>
+      <c r="K11" s="68"/>
+    </row>
+    <row r="12" spans="2:12">
+      <c r="B12" s="68" t="s">
+        <v>33</v>
+      </c>
+      <c r="C12" s="68"/>
+      <c r="D12" s="68"/>
+      <c r="E12" s="68"/>
+      <c r="F12" s="68"/>
+      <c r="G12" s="68"/>
+      <c r="H12" s="68"/>
+      <c r="I12" s="68"/>
+      <c r="J12" s="68"/>
+      <c r="K12" s="68"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54734A79-229D-40A1-9EF2-2AA48E78AAE8}">
+  <dimension ref="B2:R11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="68" customWidth="1"/>
+    <col min="2" max="2" width="40.25" style="68" customWidth="1"/>
+    <col min="3" max="5" width="6.625" style="68" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="68" customWidth="1"/>
+    <col min="7" max="15" width="8" style="207" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="68"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" s="187" customFormat="1">
       <c r="C2" s="191" t="s">
         <v>414</v>
       </c>
       <c r="D2" s="191"/>
       <c r="E2" s="191"/>
-      <c r="G2" s="160"/>
-      <c r="H2" s="160"/>
-      <c r="I2" s="160"/>
-      <c r="J2" s="160"/>
-      <c r="K2" s="160"/>
-      <c r="L2" s="160"/>
-      <c r="M2" s="160"/>
-      <c r="N2" s="160"/>
-      <c r="O2" s="160"/>
+      <c r="G2" s="166"/>
+      <c r="H2" s="166"/>
+      <c r="I2" s="166"/>
+      <c r="J2" s="166"/>
+      <c r="K2" s="166"/>
+      <c r="L2" s="166"/>
+      <c r="M2" s="166"/>
+      <c r="N2" s="166"/>
+      <c r="O2" s="166"/>
       <c r="Q2" s="187" t="s">
         <v>413</v>
       </c>
-      <c r="T2" s="212"/>
-    </row>
-    <row r="3" spans="2:31" s="163" customFormat="1">
+    </row>
+    <row r="3" spans="2:18" s="163" customFormat="1">
       <c r="B3" s="163" t="s">
         <v>415</v>
       </c>
       <c r="C3" s="163" t="s">
+        <v>416</v>
+      </c>
+      <c r="D3" s="163" t="s">
         <v>417</v>
       </c>
-      <c r="D3" s="163" t="s">
+      <c r="E3" s="163" t="s">
         <v>418</v>
       </c>
-      <c r="E3" s="163" t="s">
+      <c r="F3" s="163" t="s">
         <v>419</v>
       </c>
-      <c r="F3" s="163" t="s">
-        <v>420</v>
-      </c>
-      <c r="G3" s="174" t="s">
+      <c r="G3" s="165" t="s">
         <v>404</v>
       </c>
-      <c r="H3" s="174" t="s">
+      <c r="H3" s="165" t="s">
         <v>405</v>
       </c>
-      <c r="I3" s="174" t="s">
+      <c r="I3" s="165" t="s">
         <v>406</v>
       </c>
-      <c r="J3" s="174" t="s">
+      <c r="J3" s="165" t="s">
         <v>407</v>
       </c>
-      <c r="K3" s="174" t="s">
+      <c r="K3" s="165" t="s">
         <v>408</v>
       </c>
-      <c r="L3" s="174" t="s">
+      <c r="L3" s="165" t="s">
         <v>409</v>
       </c>
-      <c r="M3" s="174" t="s">
+      <c r="M3" s="165" t="s">
         <v>410</v>
       </c>
-      <c r="N3" s="174" t="s">
+      <c r="N3" s="165" t="s">
         <v>411</v>
       </c>
-      <c r="O3" s="174" t="s">
+      <c r="O3" s="165" t="s">
         <v>412</v>
       </c>
-      <c r="P3" s="207" t="s">
+      <c r="P3" s="208" t="s">
+        <v>424</v>
+      </c>
+      <c r="Q3" s="208" t="s">
         <v>425</v>
       </c>
-      <c r="Q3" s="207" t="s">
+      <c r="R3" s="208" t="s">
         <v>426</v>
       </c>
-      <c r="R3" s="207" t="s">
-        <v>427</v>
-      </c>
-      <c r="S3" s="207"/>
-      <c r="T3" s="213"/>
-      <c r="V3" s="163" t="s">
-        <v>438</v>
-      </c>
-      <c r="W3" s="163" t="s">
-        <v>286</v>
-      </c>
-      <c r="X3" s="163" t="s">
-        <v>444</v>
-      </c>
-      <c r="Y3" s="163" t="s">
-        <v>439</v>
-      </c>
-      <c r="Z3" s="163" t="s">
-        <v>440</v>
-      </c>
-      <c r="AA3" s="163" t="s">
-        <v>441</v>
-      </c>
-      <c r="AB3" s="210" t="s">
-        <v>442</v>
-      </c>
-      <c r="AC3" s="174" t="s">
-        <v>443</v>
-      </c>
-      <c r="AD3" s="174" t="s">
-        <v>23</v>
-      </c>
-      <c r="AE3" s="174" t="s">
-        <v>444</v>
-      </c>
-    </row>
-    <row r="4" spans="2:31" s="208" customFormat="1">
-      <c r="B4" s="208" t="s">
-        <v>416</v>
-      </c>
-      <c r="C4" s="208">
+    </row>
+    <row r="4" spans="2:18" s="209" customFormat="1">
+      <c r="B4" s="209" t="s">
+        <v>449</v>
+      </c>
+      <c r="C4" s="209">
         <v>1</v>
       </c>
-      <c r="D4" s="208">
+      <c r="D4" s="209">
         <v>1</v>
       </c>
-      <c r="E4" s="208">
+      <c r="E4" s="209">
         <v>1</v>
       </c>
-      <c r="F4" s="208">
+      <c r="F4" s="209">
         <f>C4*D4*E4</f>
         <v>1</v>
       </c>
-      <c r="G4" s="209">
+      <c r="G4" s="211">
         <v>0.42698999999999998</v>
       </c>
-      <c r="H4" s="209">
+      <c r="H4" s="211">
         <v>0.46002999999999999</v>
       </c>
-      <c r="I4" s="209">
+      <c r="I4" s="211">
         <v>2.06298</v>
       </c>
-      <c r="J4" s="209">
+      <c r="J4" s="211">
         <v>0</v>
       </c>
-      <c r="K4" s="209">
+      <c r="K4" s="211">
         <v>0</v>
       </c>
-      <c r="L4" s="209">
+      <c r="L4" s="211">
         <v>0.14065</v>
       </c>
-      <c r="M4" s="209">
+      <c r="M4" s="211">
         <v>0</v>
       </c>
-      <c r="N4" s="209">
+      <c r="N4" s="211">
         <v>0.85763</v>
       </c>
-      <c r="O4" s="209">
+      <c r="O4" s="211">
         <v>-3.9870000000000003E-2</v>
       </c>
-      <c r="P4" s="208" t="b">
+      <c r="P4" s="209" t="b">
         <f>IF(G4 &gt; 2*L4, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="208" t="b">
+      <c r="Q4" s="209" t="b">
         <f>IF(G4 &gt; 2*N4, TRUE)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="208" t="b">
+      <c r="R4" s="209" t="b">
         <f>IF(H4 &gt; 2*O4,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="T4" s="214"/>
-      <c r="U4" s="68" t="s">
-        <v>42</v>
-      </c>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68" t="s">
-        <v>445</v>
-      </c>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-    </row>
-    <row r="5" spans="2:31">
+    </row>
+    <row r="5" spans="2:18">
       <c r="C5" s="68">
         <v>4</v>
       </c>
@@ -14154,39 +14387,39 @@
         <f>C5*D5*E5</f>
         <v>16</v>
       </c>
-      <c r="G5" s="71">
+      <c r="G5" s="207">
         <f>C5*G$4</f>
         <v>1.7079599999999999</v>
       </c>
-      <c r="H5" s="71">
+      <c r="H5" s="207">
         <f>D5*H$4</f>
         <v>1.84012</v>
       </c>
-      <c r="I5" s="71">
+      <c r="I5" s="207">
         <f>E5*I$4</f>
         <v>2.06298</v>
       </c>
-      <c r="J5" s="71">
+      <c r="J5" s="207">
         <f>C5*J$4</f>
         <v>0</v>
       </c>
-      <c r="K5" s="71">
+      <c r="K5" s="207">
         <f>C5*K$4</f>
         <v>0</v>
       </c>
-      <c r="L5" s="71">
+      <c r="L5" s="207">
         <f>D5*L$4</f>
         <v>0.56259999999999999</v>
       </c>
-      <c r="M5" s="71">
+      <c r="M5" s="207">
         <f>D5*M$4</f>
         <v>0</v>
       </c>
-      <c r="N5" s="71">
+      <c r="N5" s="207">
         <f>E5*N$4</f>
         <v>0.85763</v>
       </c>
-      <c r="O5" s="71">
+      <c r="O5" s="207">
         <f>E5*O$4</f>
         <v>-3.9870000000000003E-2</v>
       </c>
@@ -14202,22 +14435,10 @@
         <f t="shared" ref="R5:R8" si="2">IF(H5 &gt; 2*O5,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="S5" s="187"/>
-      <c r="U5" s="68" t="s">
-        <v>41</v>
-      </c>
-      <c r="W5" s="68" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA5" s="71"/>
-      <c r="AB5" s="71"/>
-      <c r="AC5" s="71"/>
-      <c r="AD5" s="71"/>
-      <c r="AE5" s="71"/>
-    </row>
-    <row r="6" spans="2:31">
+    </row>
+    <row r="6" spans="2:18">
       <c r="B6" s="68" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C6" s="68">
         <v>5</v>
@@ -14232,39 +14453,39 @@
         <f>C6*D6*E6</f>
         <v>25</v>
       </c>
-      <c r="G6" s="71">
+      <c r="G6" s="207">
         <f>C6*G$4</f>
         <v>2.1349499999999999</v>
       </c>
-      <c r="H6" s="71">
+      <c r="H6" s="207">
         <f>D6*H$4</f>
         <v>2.3001499999999999</v>
       </c>
-      <c r="I6" s="71">
+      <c r="I6" s="207">
         <f>E6*I$4</f>
         <v>2.06298</v>
       </c>
-      <c r="J6" s="71">
+      <c r="J6" s="207">
         <f>C6*J$4</f>
         <v>0</v>
       </c>
-      <c r="K6" s="71">
+      <c r="K6" s="207">
         <f>C6*K$4</f>
         <v>0</v>
       </c>
-      <c r="L6" s="71">
+      <c r="L6" s="207">
         <f>D6*L$4</f>
         <v>0.70324999999999993</v>
       </c>
-      <c r="M6" s="71">
+      <c r="M6" s="207">
         <f>D6*M$4</f>
         <v>0</v>
       </c>
-      <c r="N6" s="71">
+      <c r="N6" s="207">
         <f>E6*N$4</f>
         <v>0.85763</v>
       </c>
-      <c r="O6" s="71">
+      <c r="O6" s="207">
         <f>E6*O$4</f>
         <v>-3.9870000000000003E-2</v>
       </c>
@@ -14280,19 +14501,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S6" s="187"/>
-      <c r="U6" s="68" t="s">
-        <v>33</v>
-      </c>
-      <c r="AA6" s="71"/>
-      <c r="AB6" s="71"/>
-      <c r="AC6" s="71"/>
-      <c r="AD6" s="71"/>
-      <c r="AE6" s="71"/>
-    </row>
-    <row r="7" spans="2:31">
+    </row>
+    <row r="7" spans="2:18">
       <c r="B7" s="68" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="C7" s="68">
         <f>2*C6</f>
@@ -14310,39 +14522,39 @@
         <f>C7*D7*E7</f>
         <v>200</v>
       </c>
-      <c r="G7" s="71">
+      <c r="G7" s="207">
         <f>C7*G$4</f>
         <v>4.2698999999999998</v>
       </c>
-      <c r="H7" s="71">
+      <c r="H7" s="207">
         <f>D7*H$4</f>
         <v>4.6002999999999998</v>
       </c>
-      <c r="I7" s="71">
+      <c r="I7" s="207">
         <f>E7*I$4</f>
         <v>4.1259600000000001</v>
       </c>
-      <c r="J7" s="71">
+      <c r="J7" s="207">
         <f>C7*J$4</f>
         <v>0</v>
       </c>
-      <c r="K7" s="71">
+      <c r="K7" s="207">
         <f>C7*K$4</f>
         <v>0</v>
       </c>
-      <c r="L7" s="71">
+      <c r="L7" s="207">
         <f>D7*L$4</f>
         <v>1.4064999999999999</v>
       </c>
-      <c r="M7" s="71">
+      <c r="M7" s="207">
         <f>D7*M$4</f>
         <v>0</v>
       </c>
-      <c r="N7" s="71">
+      <c r="N7" s="207">
         <f>E7*N$4</f>
         <v>1.71526</v>
       </c>
-      <c r="O7" s="71">
+      <c r="O7" s="207">
         <f>E7*O$4</f>
         <v>-7.9740000000000005E-2</v>
       </c>
@@ -14358,11 +14570,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S7" s="187"/>
-    </row>
-    <row r="8" spans="2:31">
+    </row>
+    <row r="8" spans="2:18">
       <c r="B8" s="68" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="C8" s="68">
         <f>3*C6</f>
@@ -14380,39 +14591,39 @@
         <f>C8*D8*E8</f>
         <v>675</v>
       </c>
-      <c r="G8" s="71">
+      <c r="G8" s="207">
         <f>C8*G$4</f>
         <v>6.4048499999999997</v>
       </c>
-      <c r="H8" s="71">
+      <c r="H8" s="207">
         <f>D8*H$4</f>
         <v>6.9004500000000002</v>
       </c>
-      <c r="I8" s="71">
+      <c r="I8" s="207">
         <f>E8*I$4</f>
         <v>6.1889400000000006</v>
       </c>
-      <c r="J8" s="71">
+      <c r="J8" s="207">
         <f>C8*J$4</f>
         <v>0</v>
       </c>
-      <c r="K8" s="71">
+      <c r="K8" s="207">
         <f>C8*K$4</f>
         <v>0</v>
       </c>
-      <c r="L8" s="71">
+      <c r="L8" s="207">
         <f>D8*L$4</f>
         <v>2.10975</v>
       </c>
-      <c r="M8" s="71">
+      <c r="M8" s="207">
         <f>D8*M$4</f>
         <v>0</v>
       </c>
-      <c r="N8" s="71">
+      <c r="N8" s="207">
         <f>E8*N$4</f>
         <v>2.5728900000000001</v>
       </c>
-      <c r="O8" s="71">
+      <c r="O8" s="207">
         <f>E8*O$4</f>
         <v>-0.11961000000000001</v>
       </c>
@@ -14428,11 +14639,10 @@
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="S8" s="187"/>
-    </row>
-    <row r="9" spans="2:31">
+    </row>
+    <row r="9" spans="2:18">
       <c r="B9" s="68" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="C9" s="68">
         <f>4*C6</f>
@@ -14450,39 +14660,39 @@
         <f>C9*D9*E9</f>
         <v>1600</v>
       </c>
-      <c r="G9" s="71">
+      <c r="G9" s="207">
         <f>C9*G$4</f>
         <v>8.5397999999999996</v>
       </c>
-      <c r="H9" s="71">
+      <c r="H9" s="207">
         <f>D9*H$4</f>
         <v>9.2005999999999997</v>
       </c>
-      <c r="I9" s="71">
+      <c r="I9" s="207">
         <f>E9*I$4</f>
         <v>8.2519200000000001</v>
       </c>
-      <c r="J9" s="71">
+      <c r="J9" s="207">
         <f>C9*J$4</f>
         <v>0</v>
       </c>
-      <c r="K9" s="71">
+      <c r="K9" s="207">
         <f>C9*K$4</f>
         <v>0</v>
       </c>
-      <c r="L9" s="71">
+      <c r="L9" s="207">
         <f>D9*L$4</f>
         <v>2.8129999999999997</v>
       </c>
-      <c r="M9" s="71">
+      <c r="M9" s="207">
         <f>D9*M$4</f>
         <v>0</v>
       </c>
-      <c r="N9" s="71">
+      <c r="N9" s="207">
         <f>E9*N$4</f>
         <v>3.43052</v>
       </c>
-      <c r="O9" s="71">
+      <c r="O9" s="207">
         <f>E9*O$4</f>
         <v>-0.15948000000000001</v>
       </c>
@@ -14498,11 +14708,10 @@
         <f>IF(H9 &gt; 2*O9,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="S9" s="187"/>
-    </row>
-    <row r="10" spans="2:31">
+    </row>
+    <row r="10" spans="2:18">
       <c r="B10" s="68" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C10" s="68">
         <v>16</v>
@@ -14517,39 +14726,39 @@
         <f>C10*D10*E10</f>
         <v>768</v>
       </c>
-      <c r="G10" s="71">
+      <c r="G10" s="207">
         <f>C10*G$4</f>
         <v>6.8318399999999997</v>
       </c>
-      <c r="H10" s="71">
+      <c r="H10" s="207">
         <f>D10*H$4</f>
         <v>7.3604799999999999</v>
       </c>
-      <c r="I10" s="71">
+      <c r="I10" s="207">
         <f>E10*I$4</f>
         <v>6.1889400000000006</v>
       </c>
-      <c r="J10" s="71">
+      <c r="J10" s="207">
         <f>C10*J$4</f>
         <v>0</v>
       </c>
-      <c r="K10" s="71">
+      <c r="K10" s="207">
         <f>C10*K$4</f>
         <v>0</v>
       </c>
-      <c r="L10" s="71">
+      <c r="L10" s="207">
         <f>D10*L$4</f>
         <v>2.2504</v>
       </c>
-      <c r="M10" s="71">
+      <c r="M10" s="207">
         <f>D10*M$4</f>
         <v>0</v>
       </c>
-      <c r="N10" s="71">
+      <c r="N10" s="207">
         <f>E10*N$4</f>
         <v>2.5728900000000001</v>
       </c>
-      <c r="O10" s="71">
+      <c r="O10" s="207">
         <f>E10*O$4</f>
         <v>-0.11961000000000001</v>
       </c>
@@ -14565,9 +14774,8 @@
         <f>IF(H10 &gt; 2*O10,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="S10" s="187"/>
-    </row>
-    <row r="11" spans="2:31">
+    </row>
+    <row r="11" spans="2:18">
       <c r="C11" s="68">
         <v>18</v>
       </c>
@@ -14581,39 +14789,39 @@
         <f>C11*D11*E11</f>
         <v>1296</v>
       </c>
-      <c r="G11" s="71">
+      <c r="G11" s="207">
         <f>C11*G$4</f>
         <v>7.6858199999999997</v>
       </c>
-      <c r="H11" s="71">
+      <c r="H11" s="207">
         <f>D11*H$4</f>
         <v>8.2805400000000002</v>
       </c>
-      <c r="I11" s="71">
+      <c r="I11" s="207">
         <f>E11*I$4</f>
         <v>8.2519200000000001</v>
       </c>
-      <c r="J11" s="71">
+      <c r="J11" s="207">
         <f>C11*J$4</f>
         <v>0</v>
       </c>
-      <c r="K11" s="71">
+      <c r="K11" s="207">
         <f>C11*K$4</f>
         <v>0</v>
       </c>
-      <c r="L11" s="71">
+      <c r="L11" s="207">
         <f>D11*L$4</f>
         <v>2.5316999999999998</v>
       </c>
-      <c r="M11" s="71">
+      <c r="M11" s="207">
         <f>D11*M$4</f>
         <v>0</v>
       </c>
-      <c r="N11" s="71">
+      <c r="N11" s="207">
         <f>E11*N$4</f>
         <v>3.43052</v>
       </c>
-      <c r="O11" s="71">
+      <c r="O11" s="207">
         <f>E11*O$4</f>
         <v>-0.15948000000000001</v>
       </c>
@@ -14629,13 +14837,12 @@
         <f>IF(H11 &gt; 2*O11,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="S11" s="187"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="P4:S11">
+  <conditionalFormatting sqref="P4:R11">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -14645,7 +14852,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BEE901DC-C123-4CCA-841E-6DF30D04B418}">
   <dimension ref="B1:AA35"/>
   <sheetViews>
@@ -15351,7 +15558,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF03F4-0D0E-4240-A36F-5BB31F518425}">
   <dimension ref="B2:E61"/>
   <sheetViews>
@@ -16226,7 +16433,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB14C90-9A0C-E346-B9BD-40AE56D235C4}">
   <dimension ref="B1:BH45"/>
   <sheetViews>
@@ -18741,7 +18948,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDCE98-34D0-4ABF-8516-E6ECC928D09D}">
   <dimension ref="B2:D32"/>
   <sheetViews>
@@ -18976,7 +19183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDBDFB-84C9-0D42-9872-D0E4DAFE61DB}">
   <dimension ref="B1:K10"/>
   <sheetViews>
@@ -19233,7 +19440,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E95DD15-E630-164A-9911-8F448DFCB0FA}">
   <dimension ref="B1:Q33"/>
   <sheetViews>
@@ -19687,7 +19894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C044A9FB-F8D3-4917-BFAB-FBE43DD433AF}">
   <dimension ref="B3:BH17"/>
   <sheetViews>
@@ -22576,7 +22783,7 @@
   <dimension ref="B2:W69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C87" sqref="C87"/>
+      <selection activeCell="B87" sqref="B87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -24243,7 +24450,7 @@
   <dimension ref="B2:W34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H44" sqref="H44"/>
+      <selection activeCell="H39" sqref="H39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -24614,7 +24821,7 @@
     </row>
     <row r="15" spans="2:23">
       <c r="B15" s="69" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="C15" s="155" t="s">
         <v>42</v>
@@ -24648,7 +24855,7 @@
         <v>92</v>
       </c>
       <c r="P15" s="70" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="Q15" s="155" t="s">
         <v>304</v>
@@ -24818,7 +25025,7 @@
     </row>
     <row r="23" spans="2:19">
       <c r="B23" s="69" t="s">
-        <v>433</v>
+        <v>444</v>
       </c>
       <c r="C23" s="184" t="s">
         <v>41</v>
@@ -25019,7 +25226,7 @@
     </row>
     <row r="31" spans="2:19" s="187" customFormat="1">
       <c r="B31" s="69" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="C31" s="187" t="s">
         <v>33</v>
@@ -25047,13 +25254,13 @@
         <v>100000000</v>
       </c>
       <c r="N31" s="188" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="O31" s="186" t="s">
         <v>92</v>
       </c>
       <c r="P31" s="70" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="S31" s="166"/>
     </row>
@@ -25066,7 +25273,7 @@
     </row>
     <row r="33" spans="2:19">
       <c r="B33" s="69" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C33" s="184" t="s">
         <v>33</v>
@@ -27039,7 +27246,7 @@
         <v>92</v>
       </c>
       <c r="P28" s="42" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="V28" s="141"/>
       <c r="X28" s="141"/>
@@ -27251,7 +27458,7 @@
         <v>92</v>
       </c>
       <c r="P38" s="42" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="41" spans="2:27" s="15" customFormat="1">

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2171" uniqueCount="511">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2189" uniqueCount="522">
   <si>
     <t>Study</t>
   </si>
@@ -1659,9 +1659,6 @@
     <t>Testing if tau-p = 4 reduces box fluctuations - it does</t>
   </si>
   <si>
-    <t xml:space="preserve">Analyse </t>
-  </si>
-  <si>
     <t>Wait to see effect of tau-p = 4 for Williams</t>
   </si>
   <si>
@@ -1711,6 +1708,72 @@
   </si>
   <si>
     <t>Running heating 873366</t>
+  </si>
+  <si>
+    <t>Strange behaviour (lack of thermal motion in 2nd half)</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <r>
+      <t>cos(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cos(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cos(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>γ)</t>
+    </r>
+  </si>
+  <si>
+    <t>M [g/mol]</t>
+  </si>
+  <si>
+    <t>Navo</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Berendsen</t>
+  </si>
+  <si>
+    <t>Nose-Hoover</t>
+  </si>
+  <si>
+    <t>mdp notes</t>
   </si>
 </sst>
 </file>
@@ -2091,7 +2154,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="278">
+  <cellXfs count="290">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2856,6 +2919,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2898,6 +2982,15 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -10811,6 +10904,2279 @@
 </a:theme>
 </file>
 
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CE14D2-6A31-4EE7-987E-9C9B413F95A3}">
+  <dimension ref="B2:T21"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="R6" sqref="R6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="3" max="3" width="9" customWidth="1"/>
+    <col min="4" max="4" width="12.125" customWidth="1"/>
+    <col min="5" max="5" width="17.25" customWidth="1"/>
+    <col min="6" max="6" width="13" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="287" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.125" style="287" customWidth="1"/>
+    <col min="19" max="19" width="47.625" style="180" customWidth="1"/>
+    <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:20">
+      <c r="B2" t="s">
+        <v>516</v>
+      </c>
+      <c r="C2" s="289">
+        <v>6.0221407599999999E+23</v>
+      </c>
+      <c r="S2" s="266"/>
+    </row>
+    <row r="3" spans="2:20">
+      <c r="S3" s="266"/>
+    </row>
+    <row r="4" spans="2:20">
+      <c r="S4" s="266"/>
+    </row>
+    <row r="5" spans="2:20">
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158" t="s">
+        <v>417</v>
+      </c>
+      <c r="E5" s="158" t="s">
+        <v>282</v>
+      </c>
+      <c r="F5" s="158" t="s">
+        <v>427</v>
+      </c>
+      <c r="G5" s="158" t="s">
+        <v>418</v>
+      </c>
+      <c r="H5" s="158" t="s">
+        <v>419</v>
+      </c>
+      <c r="I5" s="158" t="s">
+        <v>420</v>
+      </c>
+      <c r="J5" s="190" t="s">
+        <v>421</v>
+      </c>
+      <c r="K5" s="169" t="s">
+        <v>422</v>
+      </c>
+      <c r="L5" s="169" t="s">
+        <v>23</v>
+      </c>
+      <c r="M5" s="169" t="s">
+        <v>512</v>
+      </c>
+      <c r="N5" s="169" t="s">
+        <v>513</v>
+      </c>
+      <c r="O5" s="169" t="s">
+        <v>514</v>
+      </c>
+      <c r="P5" s="286" t="s">
+        <v>511</v>
+      </c>
+      <c r="Q5" s="286" t="s">
+        <v>515</v>
+      </c>
+      <c r="R5" s="288" t="s">
+        <v>21</v>
+      </c>
+      <c r="S5" s="192" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="6" spans="2:20">
+      <c r="B6" s="67" t="s">
+        <v>42</v>
+      </c>
+      <c r="C6" s="67">
+        <v>1</v>
+      </c>
+      <c r="D6" s="67" t="s">
+        <v>428</v>
+      </c>
+      <c r="E6" s="67" t="s">
+        <v>423</v>
+      </c>
+      <c r="F6" s="67" t="s">
+        <v>426</v>
+      </c>
+      <c r="G6" s="234">
+        <v>4.2698999999999998</v>
+      </c>
+      <c r="H6" s="234">
+        <v>4.8105000000000002</v>
+      </c>
+      <c r="I6" s="235">
+        <v>22.344999999999999</v>
+      </c>
+      <c r="J6" s="70">
+        <v>84.541200000000003</v>
+      </c>
+      <c r="K6" s="70">
+        <v>67.427800000000005</v>
+      </c>
+      <c r="L6" s="70">
+        <v>72.995900000000006</v>
+      </c>
+      <c r="M6" s="70">
+        <f>COS(J6*PI()/180)</f>
+        <v>9.5129962632275217E-2</v>
+      </c>
+      <c r="N6" s="70">
+        <f t="shared" ref="N6:O6" si="0">COS(K6*PI()/180)</f>
+        <v>0.3838473344301252</v>
+      </c>
+      <c r="O6" s="70">
+        <f t="shared" si="0"/>
+        <v>0.29244013570735672</v>
+      </c>
+      <c r="P6" s="213">
+        <f>G6*H6*I6*SQRT(1-M6^2-N6^2-O6^2 + 2*M6*N6*O6)</f>
+        <v>405.21143318047041</v>
+      </c>
+      <c r="Q6" s="213">
+        <v>226.44800000000001</v>
+      </c>
+      <c r="R6" s="213">
+        <f>C6*(Q6/P6)*(1E+27)/$C$2</f>
+        <v>927.97418802324705</v>
+      </c>
+      <c r="T6" s="285"/>
+    </row>
+    <row r="7" spans="2:20">
+      <c r="B7" s="67"/>
+      <c r="C7" s="67"/>
+      <c r="D7" s="67"/>
+      <c r="E7" s="67" t="s">
+        <v>474</v>
+      </c>
+      <c r="F7" s="67"/>
+      <c r="G7" s="67"/>
+      <c r="H7" s="67"/>
+      <c r="I7" s="70">
+        <v>22.2</v>
+      </c>
+      <c r="J7" s="70"/>
+      <c r="K7" s="70"/>
+      <c r="L7" s="70"/>
+      <c r="M7" s="70"/>
+      <c r="N7" s="70"/>
+      <c r="O7" s="70"/>
+      <c r="P7" s="213"/>
+      <c r="Q7" s="213"/>
+      <c r="R7" s="213"/>
+      <c r="S7" s="206"/>
+    </row>
+    <row r="8" spans="2:20">
+      <c r="B8" s="67"/>
+      <c r="C8" s="67"/>
+      <c r="D8" s="67"/>
+      <c r="E8" s="67" t="s">
+        <v>475</v>
+      </c>
+      <c r="F8" s="67"/>
+      <c r="G8" s="67"/>
+      <c r="H8" s="67"/>
+      <c r="I8" s="70">
+        <v>20.6</v>
+      </c>
+      <c r="J8" s="70"/>
+      <c r="K8" s="70"/>
+      <c r="L8" s="70"/>
+      <c r="M8" s="70"/>
+      <c r="N8" s="70"/>
+      <c r="O8" s="70"/>
+      <c r="P8" s="213"/>
+      <c r="Q8" s="213"/>
+      <c r="R8" s="213"/>
+      <c r="S8" s="206"/>
+    </row>
+    <row r="9" spans="2:20">
+      <c r="B9" s="67" t="s">
+        <v>41</v>
+      </c>
+      <c r="C9" s="67"/>
+      <c r="D9" s="67"/>
+      <c r="E9" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="F9" s="67"/>
+      <c r="G9" s="67"/>
+      <c r="H9" s="67"/>
+      <c r="I9" s="70"/>
+      <c r="J9" s="70"/>
+      <c r="K9" s="70"/>
+      <c r="L9" s="70"/>
+      <c r="M9" s="70"/>
+      <c r="N9" s="70"/>
+      <c r="O9" s="70"/>
+      <c r="P9" s="213"/>
+      <c r="Q9" s="213"/>
+      <c r="R9" s="213"/>
+    </row>
+    <row r="10" spans="2:20">
+      <c r="B10" s="67" t="s">
+        <v>40</v>
+      </c>
+      <c r="C10" s="67"/>
+      <c r="D10" s="67"/>
+      <c r="E10" s="67"/>
+      <c r="F10" s="67"/>
+      <c r="G10" s="67"/>
+      <c r="H10" s="67"/>
+      <c r="I10" s="70"/>
+      <c r="J10" s="70"/>
+      <c r="K10" s="70"/>
+      <c r="L10" s="70"/>
+      <c r="M10" s="70"/>
+      <c r="N10" s="70"/>
+      <c r="O10" s="70"/>
+      <c r="P10" s="213"/>
+      <c r="Q10" s="213"/>
+      <c r="R10" s="213"/>
+    </row>
+    <row r="11" spans="2:20">
+      <c r="B11" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C11" s="67">
+        <v>4</v>
+      </c>
+      <c r="D11" s="67" t="s">
+        <v>429</v>
+      </c>
+      <c r="E11" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="F11" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="G11" s="67">
+        <v>4.9400000000000004</v>
+      </c>
+      <c r="H11" s="67">
+        <v>7.29</v>
+      </c>
+      <c r="I11" s="67">
+        <v>36.590000000000003</v>
+      </c>
+      <c r="J11" s="67">
+        <v>90</v>
+      </c>
+      <c r="K11" s="67">
+        <v>90</v>
+      </c>
+      <c r="L11" s="67">
+        <v>90</v>
+      </c>
+      <c r="M11" s="70">
+        <f>COS(J11*PI()/180)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="N11" s="70">
+        <f t="shared" ref="N11" si="1">COS(K11*PI()/180)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="O11" s="70">
+        <f t="shared" ref="O11" si="2">COS(L11*PI()/180)</f>
+        <v>6.1257422745431001E-17</v>
+      </c>
+      <c r="P11" s="213">
+        <f>G11*H11*I11*(1-M11^2-N11^2-O11^2) + 2*SQRT(M11*N11*O11)</f>
+        <v>1317.7010340000004</v>
+      </c>
+      <c r="Q11" s="213">
+        <v>184.36699999999999</v>
+      </c>
+      <c r="R11" s="213">
+        <f>C11*(Q11/P11)*(1E+27)/$C$2</f>
+        <v>929.34162848244534</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20">
+      <c r="B12" s="67" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="67"/>
+      <c r="D12" s="67"/>
+      <c r="E12" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="F12" s="67" t="s">
+        <v>432</v>
+      </c>
+      <c r="G12" s="67">
+        <v>5.1040000000000001</v>
+      </c>
+      <c r="H12" s="67">
+        <v>7.5069999999999997</v>
+      </c>
+      <c r="I12" s="67">
+        <v>36.808</v>
+      </c>
+      <c r="J12" s="67">
+        <v>90</v>
+      </c>
+      <c r="K12" s="67">
+        <v>90</v>
+      </c>
+      <c r="L12" s="67">
+        <v>90</v>
+      </c>
+      <c r="M12" s="67"/>
+      <c r="N12" s="67"/>
+      <c r="O12" s="67"/>
+      <c r="P12" s="213"/>
+      <c r="Q12" s="213"/>
+      <c r="R12" s="213"/>
+      <c r="S12" s="180" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20">
+      <c r="B13" s="67" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="67"/>
+      <c r="D13" s="67"/>
+      <c r="E13" s="67"/>
+      <c r="F13" s="67"/>
+      <c r="G13" s="67"/>
+      <c r="H13" s="67"/>
+      <c r="I13" s="67"/>
+      <c r="J13" s="67"/>
+      <c r="K13" s="67"/>
+      <c r="L13" s="67"/>
+      <c r="M13" s="67"/>
+      <c r="N13" s="67"/>
+      <c r="O13" s="67"/>
+      <c r="P13" s="213"/>
+      <c r="Q13" s="213"/>
+      <c r="R13" s="213"/>
+    </row>
+    <row r="14" spans="2:20">
+      <c r="B14" s="67" t="s">
+        <v>37</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="67" t="s">
+        <v>431</v>
+      </c>
+      <c r="E14" s="67" t="s">
+        <v>424</v>
+      </c>
+      <c r="F14" s="67" t="s">
+        <v>440</v>
+      </c>
+      <c r="G14" s="67">
+        <v>4.8899999999999997</v>
+      </c>
+      <c r="H14" s="67">
+        <v>7.22</v>
+      </c>
+      <c r="I14" s="67">
+        <v>31.53</v>
+      </c>
+      <c r="J14" s="67">
+        <v>90</v>
+      </c>
+      <c r="K14" s="67">
+        <v>90</v>
+      </c>
+      <c r="L14" s="67">
+        <v>90</v>
+      </c>
+      <c r="M14" s="67"/>
+      <c r="N14" s="67"/>
+      <c r="O14" s="67"/>
+      <c r="P14" s="213"/>
+      <c r="Q14" s="213"/>
+      <c r="R14" s="213"/>
+    </row>
+    <row r="15" spans="2:20">
+      <c r="B15" s="67" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="67"/>
+      <c r="E15" s="67"/>
+      <c r="F15" s="67"/>
+      <c r="G15" s="67"/>
+      <c r="H15" s="67"/>
+      <c r="I15" s="67"/>
+      <c r="J15" s="67"/>
+      <c r="K15" s="67"/>
+      <c r="L15" s="67"/>
+      <c r="M15" s="67"/>
+      <c r="N15" s="67"/>
+      <c r="O15" s="67"/>
+      <c r="P15" s="213"/>
+      <c r="Q15" s="213"/>
+      <c r="R15" s="213"/>
+    </row>
+    <row r="16" spans="2:20">
+      <c r="B16" s="67" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="67"/>
+      <c r="E16" s="67"/>
+      <c r="F16" s="67"/>
+      <c r="G16" s="67"/>
+      <c r="H16" s="67"/>
+      <c r="I16" s="67"/>
+      <c r="J16" s="67"/>
+      <c r="K16" s="67"/>
+      <c r="L16" s="67"/>
+      <c r="M16" s="67"/>
+      <c r="N16" s="67"/>
+      <c r="O16" s="67"/>
+      <c r="P16" s="213"/>
+      <c r="Q16" s="213"/>
+      <c r="R16" s="213"/>
+    </row>
+    <row r="17" spans="2:18">
+      <c r="B17" s="67" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="67"/>
+      <c r="D17" s="67"/>
+      <c r="E17" s="67"/>
+      <c r="F17" s="67"/>
+      <c r="G17" s="67"/>
+      <c r="H17" s="67"/>
+      <c r="I17" s="67" t="s">
+        <v>476</v>
+      </c>
+      <c r="J17" s="67"/>
+      <c r="K17" s="67"/>
+      <c r="L17" s="67"/>
+      <c r="M17" s="67"/>
+      <c r="N17" s="67"/>
+      <c r="O17" s="67"/>
+      <c r="P17" s="213"/>
+      <c r="Q17" s="213"/>
+      <c r="R17" s="213"/>
+    </row>
+    <row r="18" spans="2:18">
+      <c r="I18">
+        <v>22.849893420000001</v>
+      </c>
+    </row>
+    <row r="19" spans="2:18">
+      <c r="I19">
+        <v>22.204071710000001</v>
+      </c>
+      <c r="J19">
+        <f>I19/I21*I6</f>
+        <v>24.081716133267037</v>
+      </c>
+    </row>
+    <row r="20" spans="2:18">
+      <c r="I20">
+        <v>21.157608700000001</v>
+      </c>
+    </row>
+    <row r="21" spans="2:18">
+      <c r="I21">
+        <v>20.60276683</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54734A79-229D-40A1-9EF2-2AA48E78AAE8}">
+  <dimension ref="B2:R16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q4" sqref="Q4:Q5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="1" width="3.375" style="67" customWidth="1"/>
+    <col min="2" max="2" width="40.25" style="67" customWidth="1"/>
+    <col min="3" max="5" width="6.625" style="67" customWidth="1"/>
+    <col min="6" max="6" width="7.875" style="67" customWidth="1"/>
+    <col min="7" max="15" width="8" style="187" customWidth="1"/>
+    <col min="16" max="16384" width="9" style="67"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:18" s="181" customFormat="1">
+      <c r="C2" s="271" t="s">
+        <v>396</v>
+      </c>
+      <c r="D2" s="271"/>
+      <c r="E2" s="271"/>
+      <c r="G2" s="161"/>
+      <c r="H2" s="161"/>
+      <c r="I2" s="161"/>
+      <c r="J2" s="161"/>
+      <c r="K2" s="161"/>
+      <c r="L2" s="161"/>
+      <c r="M2" s="161"/>
+      <c r="N2" s="161"/>
+      <c r="O2" s="161"/>
+      <c r="Q2" s="181" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="3" spans="2:18" s="158" customFormat="1">
+      <c r="B3" s="158" t="s">
+        <v>442</v>
+      </c>
+      <c r="C3" s="158" t="s">
+        <v>397</v>
+      </c>
+      <c r="D3" s="158" t="s">
+        <v>398</v>
+      </c>
+      <c r="E3" s="158" t="s">
+        <v>399</v>
+      </c>
+      <c r="F3" s="158" t="s">
+        <v>400</v>
+      </c>
+      <c r="G3" s="160" t="s">
+        <v>386</v>
+      </c>
+      <c r="H3" s="160" t="s">
+        <v>387</v>
+      </c>
+      <c r="I3" s="160" t="s">
+        <v>388</v>
+      </c>
+      <c r="J3" s="160" t="s">
+        <v>389</v>
+      </c>
+      <c r="K3" s="160" t="s">
+        <v>390</v>
+      </c>
+      <c r="L3" s="160" t="s">
+        <v>391</v>
+      </c>
+      <c r="M3" s="160" t="s">
+        <v>392</v>
+      </c>
+      <c r="N3" s="160" t="s">
+        <v>393</v>
+      </c>
+      <c r="O3" s="160" t="s">
+        <v>394</v>
+      </c>
+      <c r="P3" s="188" t="s">
+        <v>405</v>
+      </c>
+      <c r="Q3" s="188" t="s">
+        <v>406</v>
+      </c>
+      <c r="R3" s="188" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="4" spans="2:18" s="189" customFormat="1">
+      <c r="B4" s="189" t="s">
+        <v>430</v>
+      </c>
+      <c r="C4" s="189">
+        <v>1</v>
+      </c>
+      <c r="D4" s="189">
+        <v>1</v>
+      </c>
+      <c r="E4" s="189">
+        <v>1</v>
+      </c>
+      <c r="F4" s="189">
+        <f t="shared" ref="F4:F11" si="0">C4*D4*E4</f>
+        <v>1</v>
+      </c>
+      <c r="G4" s="191">
+        <v>0.42698999999999998</v>
+      </c>
+      <c r="H4" s="191">
+        <v>0.46002999999999999</v>
+      </c>
+      <c r="I4" s="191">
+        <v>2.06298</v>
+      </c>
+      <c r="J4" s="191">
+        <v>0</v>
+      </c>
+      <c r="K4" s="191">
+        <v>0</v>
+      </c>
+      <c r="L4" s="191">
+        <v>0.14065</v>
+      </c>
+      <c r="M4" s="191">
+        <v>0</v>
+      </c>
+      <c r="N4" s="191">
+        <v>0.85763</v>
+      </c>
+      <c r="O4" s="191">
+        <v>-3.9870000000000003E-2</v>
+      </c>
+      <c r="P4" s="189" t="b">
+        <f>IF(G4 &gt; 2*L4, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q4" s="189" t="b">
+        <f>IF(G4 &gt; 2*N4, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="R4" s="189" t="b">
+        <f>IF(H4 &gt; 2*O4,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:18">
+      <c r="C5" s="67">
+        <v>4</v>
+      </c>
+      <c r="D5" s="67">
+        <v>4</v>
+      </c>
+      <c r="E5" s="67">
+        <v>1</v>
+      </c>
+      <c r="F5" s="181">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="G5" s="187">
+        <f t="shared" ref="G5:I11" si="1">C5*G$4</f>
+        <v>1.7079599999999999</v>
+      </c>
+      <c r="H5" s="187">
+        <f t="shared" si="1"/>
+        <v>1.84012</v>
+      </c>
+      <c r="I5" s="187">
+        <f t="shared" si="1"/>
+        <v>2.06298</v>
+      </c>
+      <c r="J5" s="187">
+        <f t="shared" ref="J5:J11" si="2">C5*J$4</f>
+        <v>0</v>
+      </c>
+      <c r="K5" s="187">
+        <f t="shared" ref="K5:L11" si="3">C5*K$4</f>
+        <v>0</v>
+      </c>
+      <c r="L5" s="187">
+        <f t="shared" si="3"/>
+        <v>0.56259999999999999</v>
+      </c>
+      <c r="M5" s="187">
+        <f t="shared" ref="M5:N11" si="4">D5*M$4</f>
+        <v>0</v>
+      </c>
+      <c r="N5" s="187">
+        <f t="shared" si="4"/>
+        <v>0.85763</v>
+      </c>
+      <c r="O5" s="187">
+        <f t="shared" ref="O5:O11" si="5">E5*O$4</f>
+        <v>-3.9870000000000003E-2</v>
+      </c>
+      <c r="P5" s="181" t="b">
+        <f t="shared" ref="P5:P8" si="6">IF(G5 &gt; 2*L5, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q5" s="181" t="b">
+        <f t="shared" ref="Q5:Q8" si="7">IF(G5 &gt; 2*N5, TRUE)</f>
+        <v>0</v>
+      </c>
+      <c r="R5" s="181" t="b">
+        <f t="shared" ref="R5:R8" si="8">IF(H5 &gt; 2*O5,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:18">
+      <c r="B6" s="67" t="s">
+        <v>401</v>
+      </c>
+      <c r="C6" s="67">
+        <v>5</v>
+      </c>
+      <c r="D6" s="67">
+        <v>5</v>
+      </c>
+      <c r="E6" s="67">
+        <v>1</v>
+      </c>
+      <c r="F6" s="184">
+        <f t="shared" si="0"/>
+        <v>25</v>
+      </c>
+      <c r="G6" s="187">
+        <f t="shared" si="1"/>
+        <v>2.1349499999999999</v>
+      </c>
+      <c r="H6" s="187">
+        <f t="shared" si="1"/>
+        <v>2.3001499999999999</v>
+      </c>
+      <c r="I6" s="187">
+        <f t="shared" si="1"/>
+        <v>2.06298</v>
+      </c>
+      <c r="J6" s="187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="187">
+        <f t="shared" si="3"/>
+        <v>0.70324999999999993</v>
+      </c>
+      <c r="M6" s="187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="187">
+        <f t="shared" si="4"/>
+        <v>0.85763</v>
+      </c>
+      <c r="O6" s="187">
+        <f t="shared" si="5"/>
+        <v>-3.9870000000000003E-2</v>
+      </c>
+      <c r="P6" s="181" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q6" s="181" t="b">
+        <f>IF(G6 &gt; 2*N6, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R6" s="181" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:18">
+      <c r="B7" s="67" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="67">
+        <f>2*C6</f>
+        <v>10</v>
+      </c>
+      <c r="D7" s="67">
+        <f t="shared" ref="D7:E7" si="9">2*D6</f>
+        <v>10</v>
+      </c>
+      <c r="E7" s="67">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="F7" s="184">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="G7" s="187">
+        <f t="shared" si="1"/>
+        <v>4.2698999999999998</v>
+      </c>
+      <c r="H7" s="187">
+        <f t="shared" si="1"/>
+        <v>4.6002999999999998</v>
+      </c>
+      <c r="I7" s="187">
+        <f t="shared" si="1"/>
+        <v>4.1259600000000001</v>
+      </c>
+      <c r="J7" s="187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K7" s="187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L7" s="187">
+        <f t="shared" si="3"/>
+        <v>1.4064999999999999</v>
+      </c>
+      <c r="M7" s="187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N7" s="187">
+        <f t="shared" si="4"/>
+        <v>1.71526</v>
+      </c>
+      <c r="O7" s="187">
+        <f t="shared" si="5"/>
+        <v>-7.9740000000000005E-2</v>
+      </c>
+      <c r="P7" s="181" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q7" s="181" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R7" s="181" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="2:18">
+      <c r="B8" s="67" t="s">
+        <v>403</v>
+      </c>
+      <c r="C8" s="67">
+        <f>3*C6</f>
+        <v>15</v>
+      </c>
+      <c r="D8" s="67">
+        <f t="shared" ref="D8:E8" si="10">3*D6</f>
+        <v>15</v>
+      </c>
+      <c r="E8" s="67">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+      <c r="F8" s="184">
+        <f t="shared" si="0"/>
+        <v>675</v>
+      </c>
+      <c r="G8" s="187">
+        <f t="shared" si="1"/>
+        <v>6.4048499999999997</v>
+      </c>
+      <c r="H8" s="187">
+        <f t="shared" si="1"/>
+        <v>6.9004500000000002</v>
+      </c>
+      <c r="I8" s="187">
+        <f t="shared" si="1"/>
+        <v>6.1889400000000006</v>
+      </c>
+      <c r="J8" s="187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K8" s="187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L8" s="187">
+        <f t="shared" si="3"/>
+        <v>2.10975</v>
+      </c>
+      <c r="M8" s="187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N8" s="187">
+        <f t="shared" si="4"/>
+        <v>2.5728900000000001</v>
+      </c>
+      <c r="O8" s="187">
+        <f t="shared" si="5"/>
+        <v>-0.11961000000000001</v>
+      </c>
+      <c r="P8" s="181" t="b">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="Q8" s="181" t="b">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="R8" s="181" t="b">
+        <f t="shared" si="8"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="2:18">
+      <c r="B9" s="67" t="s">
+        <v>404</v>
+      </c>
+      <c r="C9" s="67">
+        <f>4*C6</f>
+        <v>20</v>
+      </c>
+      <c r="D9" s="67">
+        <f t="shared" ref="D9:E9" si="11">4*D6</f>
+        <v>20</v>
+      </c>
+      <c r="E9" s="67">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="F9" s="184">
+        <f t="shared" si="0"/>
+        <v>1600</v>
+      </c>
+      <c r="G9" s="187">
+        <f t="shared" si="1"/>
+        <v>8.5397999999999996</v>
+      </c>
+      <c r="H9" s="187">
+        <f t="shared" si="1"/>
+        <v>9.2005999999999997</v>
+      </c>
+      <c r="I9" s="187">
+        <f t="shared" si="1"/>
+        <v>8.2519200000000001</v>
+      </c>
+      <c r="J9" s="187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K9" s="187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L9" s="187">
+        <f t="shared" si="3"/>
+        <v>2.8129999999999997</v>
+      </c>
+      <c r="M9" s="187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N9" s="187">
+        <f t="shared" si="4"/>
+        <v>3.43052</v>
+      </c>
+      <c r="O9" s="187">
+        <f t="shared" si="5"/>
+        <v>-0.15948000000000001</v>
+      </c>
+      <c r="P9" s="181" t="b">
+        <f t="shared" ref="P9:P14" si="12">IF(G9 &gt; 2*L9, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q9" s="181" t="b">
+        <f>IF(G9 &gt; 2*N9, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R9" s="181" t="b">
+        <f>IF(H9 &gt; 2*O9,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="2:18">
+      <c r="B10" s="67" t="s">
+        <v>408</v>
+      </c>
+      <c r="C10" s="67">
+        <v>16</v>
+      </c>
+      <c r="D10" s="67">
+        <v>16</v>
+      </c>
+      <c r="E10" s="67">
+        <v>3</v>
+      </c>
+      <c r="F10" s="184">
+        <f t="shared" si="0"/>
+        <v>768</v>
+      </c>
+      <c r="G10" s="187">
+        <f t="shared" si="1"/>
+        <v>6.8318399999999997</v>
+      </c>
+      <c r="H10" s="187">
+        <f t="shared" si="1"/>
+        <v>7.3604799999999999</v>
+      </c>
+      <c r="I10" s="187">
+        <f t="shared" si="1"/>
+        <v>6.1889400000000006</v>
+      </c>
+      <c r="J10" s="187">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K10" s="187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L10" s="187">
+        <f t="shared" si="3"/>
+        <v>2.2504</v>
+      </c>
+      <c r="M10" s="187">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N10" s="187">
+        <f t="shared" si="4"/>
+        <v>2.5728900000000001</v>
+      </c>
+      <c r="O10" s="187">
+        <f t="shared" si="5"/>
+        <v>-0.11961000000000001</v>
+      </c>
+      <c r="P10" s="181" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q10" s="181" t="b">
+        <f>IF(G10 &gt; 2*N10, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R10" s="181" t="b">
+        <f>IF(H10 &gt; 2*O10,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="2:18" s="243" customFormat="1">
+      <c r="C11" s="243">
+        <v>18</v>
+      </c>
+      <c r="D11" s="243">
+        <v>18</v>
+      </c>
+      <c r="E11" s="243">
+        <v>4</v>
+      </c>
+      <c r="F11" s="243">
+        <f t="shared" si="0"/>
+        <v>1296</v>
+      </c>
+      <c r="G11" s="244">
+        <f t="shared" si="1"/>
+        <v>7.6858199999999997</v>
+      </c>
+      <c r="H11" s="244">
+        <f t="shared" si="1"/>
+        <v>8.2805400000000002</v>
+      </c>
+      <c r="I11" s="244">
+        <f t="shared" si="1"/>
+        <v>8.2519200000000001</v>
+      </c>
+      <c r="J11" s="244">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="K11" s="244">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="L11" s="244">
+        <f t="shared" si="3"/>
+        <v>2.5316999999999998</v>
+      </c>
+      <c r="M11" s="244">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N11" s="244">
+        <f t="shared" si="4"/>
+        <v>3.43052</v>
+      </c>
+      <c r="O11" s="244">
+        <f t="shared" si="5"/>
+        <v>-0.15948000000000001</v>
+      </c>
+      <c r="P11" s="243" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q11" s="243" t="b">
+        <f>IF(G11 &gt; 2*N11, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R11" s="243" t="b">
+        <f>IF(H11 &gt; 2*O11,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:18" s="196" customFormat="1">
+      <c r="B12" s="196" t="s">
+        <v>441</v>
+      </c>
+      <c r="C12" s="196">
+        <v>1</v>
+      </c>
+      <c r="D12" s="196">
+        <v>1</v>
+      </c>
+      <c r="E12" s="196">
+        <v>1</v>
+      </c>
+      <c r="F12" s="189">
+        <f>C12*D12*E12*4</f>
+        <v>4</v>
+      </c>
+      <c r="G12" s="197">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="H12" s="197">
+        <v>0.753</v>
+      </c>
+      <c r="I12" s="197">
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="J12" s="197">
+        <v>0</v>
+      </c>
+      <c r="K12" s="197">
+        <v>0</v>
+      </c>
+      <c r="L12" s="197">
+        <v>0</v>
+      </c>
+      <c r="M12" s="197">
+        <v>0</v>
+      </c>
+      <c r="N12" s="197">
+        <v>0</v>
+      </c>
+      <c r="O12" s="197">
+        <v>0</v>
+      </c>
+      <c r="P12" s="189" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="189" t="b">
+        <f>IF(G12 &gt; 2*N12, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="189" t="b">
+        <f>IF(H12 &gt; 2*O12,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:18">
+      <c r="C13" s="67">
+        <v>8</v>
+      </c>
+      <c r="D13" s="67">
+        <v>6</v>
+      </c>
+      <c r="E13" s="67">
+        <v>1</v>
+      </c>
+      <c r="F13" s="67">
+        <f>C13*D13*E13*4</f>
+        <v>192</v>
+      </c>
+      <c r="G13" s="187">
+        <f t="shared" ref="G13:I14" si="13">C13*G$12</f>
+        <v>4.0640000000000001</v>
+      </c>
+      <c r="H13" s="187">
+        <f t="shared" si="13"/>
+        <v>4.5179999999999998</v>
+      </c>
+      <c r="I13" s="187">
+        <f t="shared" si="13"/>
+        <v>4.1120000000000001</v>
+      </c>
+      <c r="J13" s="187">
+        <f>C13*J$12</f>
+        <v>0</v>
+      </c>
+      <c r="K13" s="187">
+        <f t="shared" ref="K13:L16" si="14">C13*K$12</f>
+        <v>0</v>
+      </c>
+      <c r="L13" s="187">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M13" s="187">
+        <f t="shared" ref="M13:N16" si="15">D13*M$12</f>
+        <v>0</v>
+      </c>
+      <c r="N13" s="187">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O13" s="187">
+        <f>E13*O$12</f>
+        <v>0</v>
+      </c>
+      <c r="P13" s="184" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="184" t="b">
+        <f t="shared" ref="Q13" si="16">IF(G13 &gt; 2*N13, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="184" t="b">
+        <f t="shared" ref="R13" si="17">IF(H13 &gt; 2*O13,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="2:18">
+      <c r="C14" s="67">
+        <v>15</v>
+      </c>
+      <c r="D14" s="67">
+        <v>10</v>
+      </c>
+      <c r="E14" s="67">
+        <v>2</v>
+      </c>
+      <c r="F14" s="67">
+        <f>C14*D14*E14*4</f>
+        <v>1200</v>
+      </c>
+      <c r="G14" s="187">
+        <f t="shared" si="13"/>
+        <v>7.62</v>
+      </c>
+      <c r="H14" s="187">
+        <f t="shared" si="13"/>
+        <v>7.53</v>
+      </c>
+      <c r="I14" s="187">
+        <f t="shared" si="13"/>
+        <v>8.2240000000000002</v>
+      </c>
+      <c r="J14" s="187">
+        <f>C14*J$12</f>
+        <v>0</v>
+      </c>
+      <c r="K14" s="187">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L14" s="187">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M14" s="187">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N14" s="187">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O14" s="187">
+        <f>E14*O$12</f>
+        <v>0</v>
+      </c>
+      <c r="P14" s="240" t="b">
+        <f t="shared" si="12"/>
+        <v>1</v>
+      </c>
+      <c r="Q14" s="240" t="b">
+        <f t="shared" ref="Q14" si="18">IF(G14 &gt; 2*N14, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R14" s="240" t="b">
+        <f t="shared" ref="R14" si="19">IF(H14 &gt; 2*O14,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="2:18">
+      <c r="C15" s="67">
+        <v>12</v>
+      </c>
+      <c r="D15" s="67">
+        <v>8</v>
+      </c>
+      <c r="E15" s="67">
+        <v>3</v>
+      </c>
+      <c r="F15" s="67">
+        <f>C15*D15*E15*4</f>
+        <v>1152</v>
+      </c>
+      <c r="G15" s="187">
+        <f t="shared" ref="G15" si="20">C15*G$12</f>
+        <v>6.0960000000000001</v>
+      </c>
+      <c r="H15" s="187">
+        <f t="shared" ref="H15" si="21">D15*H$12</f>
+        <v>6.024</v>
+      </c>
+      <c r="I15" s="187">
+        <f t="shared" ref="I15" si="22">E15*I$12</f>
+        <v>12.336</v>
+      </c>
+      <c r="J15" s="187">
+        <f>C15*J$12</f>
+        <v>0</v>
+      </c>
+      <c r="K15" s="187">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L15" s="187">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M15" s="187">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N15" s="187">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O15" s="187">
+        <f>E15*O$12</f>
+        <v>0</v>
+      </c>
+      <c r="P15" s="237" t="b">
+        <f t="shared" ref="P15" si="23">IF(G15 &gt; 2*L15, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q15" s="237" t="b">
+        <f t="shared" ref="Q15" si="24">IF(G15 &gt; 2*N15, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R15" s="237" t="b">
+        <f t="shared" ref="R15" si="25">IF(H15 &gt; 2*O15,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:18" s="234" customFormat="1">
+      <c r="C16" s="234">
+        <v>15</v>
+      </c>
+      <c r="D16" s="234">
+        <v>10</v>
+      </c>
+      <c r="E16" s="234">
+        <v>3</v>
+      </c>
+      <c r="F16" s="234">
+        <f>C16*D16*E16*4</f>
+        <v>1800</v>
+      </c>
+      <c r="G16" s="245">
+        <f t="shared" ref="G16" si="26">C16*G$12</f>
+        <v>7.62</v>
+      </c>
+      <c r="H16" s="245">
+        <f t="shared" ref="H16" si="27">D16*H$12</f>
+        <v>7.53</v>
+      </c>
+      <c r="I16" s="245">
+        <f t="shared" ref="I16" si="28">E16*I$12</f>
+        <v>12.336</v>
+      </c>
+      <c r="J16" s="245">
+        <f>C16*J$12</f>
+        <v>0</v>
+      </c>
+      <c r="K16" s="245">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="L16" s="245">
+        <f t="shared" si="14"/>
+        <v>0</v>
+      </c>
+      <c r="M16" s="245">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="N16" s="245">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="O16" s="245">
+        <f>E16*O$12</f>
+        <v>0</v>
+      </c>
+      <c r="P16" s="246" t="b">
+        <f t="shared" ref="P16" si="29">IF(G16 &gt; 2*L16, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q16" s="246" t="b">
+        <f t="shared" ref="Q16" si="30">IF(G16 &gt; 2*N16, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R16" s="246" t="b">
+        <f t="shared" ref="R16" si="31">IF(H16 &gt; 2*O16,TRUE)</f>
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:E2"/>
+  </mergeCells>
+  <conditionalFormatting sqref="P4:R11">
+    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P12:R12">
+    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P13:R15">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="P16:R16">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>TRUE</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9DD18-B806-45D2-93AF-832D747FF56C}">
+  <dimension ref="A2:Q29"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O30" sqref="O30"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="3" width="9" style="193"/>
+    <col min="4" max="4" width="9" style="195"/>
+    <col min="5" max="5" width="23.5" style="194" customWidth="1"/>
+    <col min="6" max="6" width="10" style="238" customWidth="1"/>
+    <col min="7" max="7" width="10" style="193" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="193" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="239" customWidth="1"/>
+    <col min="10" max="10" width="7.75" style="256" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="239" customWidth="1"/>
+    <col min="12" max="12" width="6.375" style="239" customWidth="1"/>
+    <col min="13" max="14" width="14.375" style="18" customWidth="1"/>
+    <col min="15" max="15" width="14.5" style="193" customWidth="1"/>
+    <col min="16" max="16" width="13" style="29" customWidth="1"/>
+    <col min="17" max="17" width="71.125" style="193" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="193"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:17">
+      <c r="B2" s="270" t="s">
+        <v>444</v>
+      </c>
+      <c r="C2" s="270"/>
+      <c r="D2" s="273"/>
+      <c r="F2" s="238" t="s">
+        <v>477</v>
+      </c>
+      <c r="G2" s="193" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" s="15" customFormat="1">
+      <c r="B3" s="74" t="s">
+        <v>447</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>443</v>
+      </c>
+      <c r="D3" s="21" t="s">
+        <v>331</v>
+      </c>
+      <c r="E3" s="15" t="s">
+        <v>448</v>
+      </c>
+      <c r="F3" s="15">
+        <v>40</v>
+      </c>
+      <c r="G3" s="15">
+        <v>10</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="I3" s="15" t="s">
+        <v>482</v>
+      </c>
+      <c r="J3" s="257" t="s">
+        <v>488</v>
+      </c>
+      <c r="K3" s="15" t="s">
+        <v>481</v>
+      </c>
+      <c r="L3" s="15" t="s">
+        <v>489</v>
+      </c>
+      <c r="M3" s="19" t="s">
+        <v>483</v>
+      </c>
+      <c r="N3" s="19" t="s">
+        <v>521</v>
+      </c>
+      <c r="O3" s="15" t="s">
+        <v>480</v>
+      </c>
+      <c r="P3" s="30" t="s">
+        <v>490</v>
+      </c>
+      <c r="Q3" s="15" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
+      <c r="A4" s="193" t="s">
+        <v>446</v>
+      </c>
+      <c r="D4" s="195">
+        <v>283</v>
+      </c>
+      <c r="E4" s="194" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="241">
+        <f t="shared" ref="F4:F15" si="0">$D$4-$F$3</f>
+        <v>243</v>
+      </c>
+      <c r="G4" s="239">
+        <f t="shared" ref="G4:G15" si="1">$D$4+$G$3</f>
+        <v>293</v>
+      </c>
+      <c r="H4" s="239" t="s">
+        <v>479</v>
+      </c>
+      <c r="I4" s="239">
+        <v>1800</v>
+      </c>
+      <c r="K4" s="239">
+        <v>72</v>
+      </c>
+      <c r="L4" s="239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
+      <c r="E5" s="194" t="s">
+        <v>167</v>
+      </c>
+      <c r="F5" s="241">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G5" s="239">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H5" s="239" t="s">
+        <v>479</v>
+      </c>
+      <c r="I5" s="239">
+        <v>1800</v>
+      </c>
+      <c r="J5" s="256">
+        <v>2</v>
+      </c>
+      <c r="K5" s="239">
+        <v>72</v>
+      </c>
+      <c r="L5" s="239">
+        <v>2</v>
+      </c>
+      <c r="O5" s="193">
+        <v>853183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
+      <c r="E6" s="194" t="s">
+        <v>168</v>
+      </c>
+      <c r="F6" s="238">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G6" s="193">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H6" s="193" t="s">
+        <v>479</v>
+      </c>
+      <c r="I6" s="239">
+        <v>1800</v>
+      </c>
+      <c r="J6" s="256">
+        <v>2</v>
+      </c>
+      <c r="K6" s="239">
+        <v>96</v>
+      </c>
+      <c r="L6" s="239">
+        <v>1</v>
+      </c>
+      <c r="M6" s="18">
+        <f>(K6/72)*33.408*(1024/I6)</f>
+        <v>25.340586666666663</v>
+      </c>
+      <c r="O6" s="193">
+        <v>852665</v>
+      </c>
+      <c r="P6" s="29">
+        <v>5.5367399999999997E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" s="239" customFormat="1">
+      <c r="D7" s="242"/>
+      <c r="E7" s="249" t="s">
+        <v>168</v>
+      </c>
+      <c r="F7" s="249">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G7" s="247">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H7" s="247" t="s">
+        <v>479</v>
+      </c>
+      <c r="I7" s="247">
+        <v>1800</v>
+      </c>
+      <c r="J7" s="256">
+        <v>4</v>
+      </c>
+      <c r="M7" s="18"/>
+      <c r="N7" s="18"/>
+      <c r="O7" s="239">
+        <v>854061</v>
+      </c>
+      <c r="P7" s="29">
+        <v>1.6237999999999999E-2</v>
+      </c>
+      <c r="Q7" s="239" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
+      <c r="E8" s="194" t="s">
+        <v>169</v>
+      </c>
+      <c r="F8" s="241">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G8" s="239">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H8" s="239" t="s">
+        <v>479</v>
+      </c>
+      <c r="I8" s="239">
+        <v>1800</v>
+      </c>
+      <c r="J8" s="256">
+        <v>4</v>
+      </c>
+      <c r="K8" s="239">
+        <v>96</v>
+      </c>
+      <c r="L8" s="239">
+        <v>2</v>
+      </c>
+      <c r="M8" s="18">
+        <f>42.237*L8/2</f>
+        <v>42.237000000000002</v>
+      </c>
+      <c r="O8" s="193">
+        <v>854917</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" s="263" customFormat="1">
+      <c r="D9" s="265"/>
+      <c r="E9" s="264"/>
+      <c r="F9" s="264">
+        <v>283</v>
+      </c>
+      <c r="G9" s="263">
+        <v>333</v>
+      </c>
+      <c r="J9" s="256"/>
+      <c r="M9" s="18"/>
+      <c r="N9" s="18"/>
+      <c r="P9" s="29"/>
+    </row>
+    <row r="10" spans="1:17">
+      <c r="E10" s="194" t="s">
+        <v>449</v>
+      </c>
+      <c r="F10" s="241">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G10" s="239">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H10" s="239" t="s">
+        <v>479</v>
+      </c>
+      <c r="I10" s="239">
+        <v>1800</v>
+      </c>
+      <c r="J10" s="256">
+        <v>2</v>
+      </c>
+      <c r="K10" s="239">
+        <v>120</v>
+      </c>
+      <c r="L10" s="239">
+        <v>1</v>
+      </c>
+      <c r="M10" s="18">
+        <f>(K10/96)*27.775*(1024/I10)</f>
+        <v>19.751111111111111</v>
+      </c>
+      <c r="O10" s="193" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" s="247" customFormat="1">
+      <c r="D11" s="250"/>
+      <c r="E11" s="249" t="s">
+        <v>449</v>
+      </c>
+      <c r="F11" s="249">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G11" s="247">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H11" s="247" t="s">
+        <v>479</v>
+      </c>
+      <c r="I11" s="247">
+        <v>1800</v>
+      </c>
+      <c r="J11" s="256">
+        <v>4</v>
+      </c>
+      <c r="K11" s="247">
+        <v>120</v>
+      </c>
+      <c r="L11" s="247">
+        <v>1</v>
+      </c>
+      <c r="M11" s="18">
+        <f>(K11/96)*27.775*(1024/I11)</f>
+        <v>19.751111111111111</v>
+      </c>
+      <c r="N11" s="18"/>
+      <c r="O11" s="247">
+        <v>857921</v>
+      </c>
+      <c r="P11" s="29"/>
+    </row>
+    <row r="12" spans="1:17">
+      <c r="E12" s="194" t="s">
+        <v>450</v>
+      </c>
+      <c r="F12" s="241">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G12" s="239">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H12" s="239" t="s">
+        <v>479</v>
+      </c>
+      <c r="I12" s="239">
+        <v>1800</v>
+      </c>
+      <c r="J12" s="256">
+        <v>2</v>
+      </c>
+      <c r="K12" s="239">
+        <v>96</v>
+      </c>
+      <c r="L12" s="239">
+        <v>1</v>
+      </c>
+      <c r="M12" s="18">
+        <f>(K12/72)*29.913*(1024/I12)</f>
+        <v>22.689564444444443</v>
+      </c>
+      <c r="O12" s="193">
+        <v>853936</v>
+      </c>
+      <c r="P12" s="29">
+        <v>8.9042999999999997E-2</v>
+      </c>
+      <c r="Q12" s="193" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" s="247" customFormat="1">
+      <c r="D13" s="250"/>
+      <c r="E13" s="249" t="s">
+        <v>450</v>
+      </c>
+      <c r="F13" s="249">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G13" s="247">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H13" s="247" t="s">
+        <v>479</v>
+      </c>
+      <c r="I13" s="247">
+        <v>1800</v>
+      </c>
+      <c r="J13" s="256">
+        <v>4</v>
+      </c>
+      <c r="K13" s="247">
+        <v>96</v>
+      </c>
+      <c r="L13" s="247">
+        <v>1</v>
+      </c>
+      <c r="M13" s="18">
+        <f>(K13/72)*29.913*(1024/I13)</f>
+        <v>22.689564444444443</v>
+      </c>
+      <c r="N13" s="18"/>
+      <c r="O13" s="255">
+        <v>856418</v>
+      </c>
+      <c r="P13" s="29">
+        <v>1.2351900000000001E-2</v>
+      </c>
+      <c r="Q13" s="247" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
+      <c r="E14" s="194" t="s">
+        <v>451</v>
+      </c>
+      <c r="F14" s="241">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G14" s="239">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H14" s="239" t="s">
+        <v>479</v>
+      </c>
+      <c r="I14" s="239">
+        <v>1800</v>
+      </c>
+      <c r="J14" s="256">
+        <v>2</v>
+      </c>
+      <c r="K14" s="239">
+        <v>96</v>
+      </c>
+      <c r="L14" s="239">
+        <v>1</v>
+      </c>
+      <c r="M14" s="18">
+        <f t="shared" ref="M14:M15" si="2">(K14/72)*29.913*(1024/I14)</f>
+        <v>22.689564444444443</v>
+      </c>
+      <c r="O14" s="251">
+        <v>855571</v>
+      </c>
+      <c r="P14" s="29">
+        <v>4.2958799999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" s="247" customFormat="1">
+      <c r="D15" s="250"/>
+      <c r="E15" s="249" t="s">
+        <v>451</v>
+      </c>
+      <c r="F15" s="249">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="G15" s="247">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="H15" s="247" t="s">
+        <v>479</v>
+      </c>
+      <c r="I15" s="247">
+        <v>1800</v>
+      </c>
+      <c r="J15" s="256">
+        <v>4</v>
+      </c>
+      <c r="K15" s="247">
+        <v>96</v>
+      </c>
+      <c r="L15" s="247">
+        <v>1</v>
+      </c>
+      <c r="M15" s="18">
+        <f t="shared" si="2"/>
+        <v>22.689564444444443</v>
+      </c>
+      <c r="N15" s="18"/>
+      <c r="O15" s="251">
+        <v>857920</v>
+      </c>
+      <c r="P15" s="29"/>
+    </row>
+    <row r="16" spans="1:17">
+      <c r="E16" s="194" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" s="15" customFormat="1">
+      <c r="D17" s="21"/>
+      <c r="J17" s="257"/>
+      <c r="M17" s="19"/>
+      <c r="N17" s="19"/>
+      <c r="P17" s="30"/>
+    </row>
+    <row r="18" spans="1:17">
+      <c r="E18" s="194" t="s">
+        <v>486</v>
+      </c>
+      <c r="F18" s="238">
+        <v>280</v>
+      </c>
+      <c r="G18" s="193">
+        <v>280</v>
+      </c>
+      <c r="H18" s="193" t="s">
+        <v>487</v>
+      </c>
+      <c r="I18" s="239">
+        <v>1800</v>
+      </c>
+      <c r="K18" s="239">
+        <v>96</v>
+      </c>
+      <c r="O18" s="193">
+        <v>853816</v>
+      </c>
+      <c r="Q18" s="193" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" s="15" customFormat="1">
+      <c r="D19" s="21"/>
+      <c r="J19" s="257"/>
+      <c r="M19" s="19"/>
+      <c r="N19" s="19"/>
+      <c r="P19" s="30"/>
+    </row>
+    <row r="20" spans="1:17">
+      <c r="A20" s="193" t="s">
+        <v>445</v>
+      </c>
+      <c r="D20" s="195">
+        <v>291</v>
+      </c>
+      <c r="E20" s="200" t="s">
+        <v>166</v>
+      </c>
+      <c r="F20" s="238">
+        <f>$D$20-$F$3</f>
+        <v>251</v>
+      </c>
+      <c r="G20" s="236">
+        <f>$D$20+$G$3</f>
+        <v>301</v>
+      </c>
+      <c r="H20" s="239" t="s">
+        <v>479</v>
+      </c>
+      <c r="I20" s="239">
+        <v>1296</v>
+      </c>
+      <c r="K20" s="239">
+        <v>72</v>
+      </c>
+      <c r="L20" s="239">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="E21" s="200" t="s">
+        <v>167</v>
+      </c>
+      <c r="F21" s="241">
+        <f>$D$20-$F$3</f>
+        <v>251</v>
+      </c>
+      <c r="G21" s="239">
+        <f>$D$20+$G$3</f>
+        <v>301</v>
+      </c>
+      <c r="H21" s="239" t="s">
+        <v>479</v>
+      </c>
+      <c r="I21" s="239">
+        <v>1296</v>
+      </c>
+      <c r="J21" s="256">
+        <v>2</v>
+      </c>
+      <c r="K21" s="239">
+        <v>72</v>
+      </c>
+      <c r="L21" s="239">
+        <v>2</v>
+      </c>
+      <c r="O21" s="251">
+        <v>856325</v>
+      </c>
+      <c r="Q21" s="193" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" s="266" customFormat="1">
+      <c r="D22" s="268"/>
+      <c r="E22" s="267" t="s">
+        <v>167</v>
+      </c>
+      <c r="F22" s="267">
+        <f>$D$20-$F$3</f>
+        <v>251</v>
+      </c>
+      <c r="G22" s="266">
+        <f>$D$20+$G$3</f>
+        <v>301</v>
+      </c>
+      <c r="H22" s="266" t="s">
+        <v>479</v>
+      </c>
+      <c r="I22" s="266">
+        <v>1296</v>
+      </c>
+      <c r="J22" s="256">
+        <v>4</v>
+      </c>
+      <c r="K22" s="266">
+        <v>72</v>
+      </c>
+      <c r="L22" s="266">
+        <v>2</v>
+      </c>
+      <c r="M22" s="18"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="269">
+        <v>905125</v>
+      </c>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="266" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" s="266" customFormat="1">
+      <c r="D23" s="268"/>
+      <c r="E23" s="267" t="s">
+        <v>167</v>
+      </c>
+      <c r="F23" s="267">
+        <f>$D$20-$F$3</f>
+        <v>251</v>
+      </c>
+      <c r="G23" s="266">
+        <f>$D$20+$G$3</f>
+        <v>301</v>
+      </c>
+      <c r="H23" s="266" t="s">
+        <v>479</v>
+      </c>
+      <c r="I23" s="266">
+        <v>1296</v>
+      </c>
+      <c r="J23" s="256" t="s">
+        <v>518</v>
+      </c>
+      <c r="K23" s="266">
+        <v>72</v>
+      </c>
+      <c r="L23" s="266">
+        <v>2</v>
+      </c>
+      <c r="M23" s="18"/>
+      <c r="N23" s="266" t="s">
+        <v>519</v>
+      </c>
+      <c r="O23" s="269">
+        <v>905240</v>
+      </c>
+      <c r="P23" s="29"/>
+    </row>
+    <row r="24" spans="1:17" s="266" customFormat="1">
+      <c r="D24" s="268"/>
+      <c r="E24" s="267" t="s">
+        <v>167</v>
+      </c>
+      <c r="F24" s="267">
+        <f>$D$20-$F$3</f>
+        <v>251</v>
+      </c>
+      <c r="G24" s="266">
+        <f>$D$20+$G$3</f>
+        <v>301</v>
+      </c>
+      <c r="H24" s="266" t="s">
+        <v>479</v>
+      </c>
+      <c r="I24" s="266">
+        <v>1296</v>
+      </c>
+      <c r="J24" s="256">
+        <v>4</v>
+      </c>
+      <c r="K24" s="266">
+        <v>72</v>
+      </c>
+      <c r="L24" s="266">
+        <v>2</v>
+      </c>
+      <c r="M24" s="18"/>
+      <c r="N24" s="266" t="s">
+        <v>520</v>
+      </c>
+      <c r="O24" s="269">
+        <v>905252</v>
+      </c>
+      <c r="P24" s="29"/>
+    </row>
+    <row r="25" spans="1:17">
+      <c r="E25" s="200" t="s">
+        <v>168</v>
+      </c>
+      <c r="F25" s="249">
+        <f>$D$20-$F$3</f>
+        <v>251</v>
+      </c>
+      <c r="G25" s="247">
+        <f>$D$20+$G$3</f>
+        <v>301</v>
+      </c>
+      <c r="H25" s="247" t="s">
+        <v>479</v>
+      </c>
+      <c r="I25" s="247">
+        <v>1296</v>
+      </c>
+      <c r="J25" s="256">
+        <v>4</v>
+      </c>
+      <c r="K25" s="239">
+        <v>96</v>
+      </c>
+      <c r="L25" s="239">
+        <v>1</v>
+      </c>
+      <c r="M25" s="18">
+        <f>22.652*K25/72</f>
+        <v>30.202666666666669</v>
+      </c>
+      <c r="O25" s="251">
+        <v>856353</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17">
+      <c r="E26" s="200" t="s">
+        <v>169</v>
+      </c>
+      <c r="F26" s="249">
+        <f>$D$20-$F$3</f>
+        <v>251</v>
+      </c>
+      <c r="G26" s="247">
+        <f>$D$20+$G$3</f>
+        <v>301</v>
+      </c>
+      <c r="H26" s="247" t="s">
+        <v>479</v>
+      </c>
+      <c r="I26" s="247">
+        <v>1296</v>
+      </c>
+      <c r="J26" s="256">
+        <v>4</v>
+      </c>
+      <c r="K26" s="239">
+        <v>96</v>
+      </c>
+      <c r="L26" s="239">
+        <v>2</v>
+      </c>
+      <c r="O26" s="251">
+        <v>856416</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17">
+      <c r="E27" s="200" t="s">
+        <v>449</v>
+      </c>
+      <c r="Q27" s="193" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17">
+      <c r="E28" s="200" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="E29" s="200" t="s">
+        <v>451</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="B2:D2"/>
+  </mergeCells>
+  <phoneticPr fontId="29" type="noConversion"/>
+  <conditionalFormatting sqref="J1:J1048576">
+    <cfRule type="colorScale" priority="1">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF03F4-0D0E-4240-A36F-5BB31F518425}">
   <dimension ref="B2:E61"/>
@@ -11752,30 +14118,30 @@
       <c r="B2" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="276" t="s">
+      <c r="C2" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="276"/>
-      <c r="E2" s="276"/>
-      <c r="F2" s="276"/>
-      <c r="G2" s="276"/>
-      <c r="H2" s="275" t="s">
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="275"/>
-      <c r="J2" s="275"/>
-      <c r="K2" s="275"/>
-      <c r="L2" s="275"/>
+      <c r="I2" s="282"/>
+      <c r="J2" s="282"/>
+      <c r="K2" s="282"/>
+      <c r="L2" s="282"/>
       <c r="N2" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="276" t="s">
+      <c r="O2" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="276"/>
-      <c r="Q2" s="276"/>
-      <c r="R2" s="276"/>
-      <c r="S2" s="276"/>
+      <c r="P2" s="283"/>
+      <c r="Q2" s="283"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
       <c r="T2" s="72"/>
       <c r="U2" s="72"/>
       <c r="V2" s="72"/>
@@ -11784,13 +14150,13 @@
       <c r="Z2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="276" t="s">
+      <c r="AA2" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="276"/>
-      <c r="AC2" s="276"/>
-      <c r="AD2" s="276"/>
-      <c r="AE2" s="276"/>
+      <c r="AB2" s="283"/>
+      <c r="AC2" s="283"/>
+      <c r="AD2" s="283"/>
+      <c r="AE2" s="283"/>
       <c r="AF2" s="72"/>
       <c r="AG2" s="72"/>
       <c r="AH2" s="72"/>
@@ -11799,13 +14165,13 @@
       <c r="AL2" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM2" s="276" t="s">
+      <c r="AM2" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="AN2" s="276"/>
-      <c r="AO2" s="276"/>
-      <c r="AP2" s="276"/>
-      <c r="AQ2" s="276"/>
+      <c r="AN2" s="283"/>
+      <c r="AO2" s="283"/>
+      <c r="AP2" s="283"/>
+      <c r="AQ2" s="283"/>
       <c r="AR2" s="72"/>
       <c r="AS2" s="72"/>
       <c r="AT2" s="72"/>
@@ -12945,33 +15311,33 @@
       <c r="B17" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="274" t="s">
+      <c r="C17" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="274"/>
-      <c r="E17" s="274"/>
-      <c r="F17" s="274"/>
-      <c r="G17" s="274"/>
+      <c r="D17" s="281"/>
+      <c r="E17" s="281"/>
+      <c r="F17" s="281"/>
+      <c r="G17" s="281"/>
       <c r="N17" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="274" t="s">
+      <c r="O17" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="274"/>
-      <c r="Q17" s="274"/>
-      <c r="R17" s="274"/>
-      <c r="S17" s="274"/>
+      <c r="P17" s="281"/>
+      <c r="Q17" s="281"/>
+      <c r="R17" s="281"/>
+      <c r="S17" s="281"/>
       <c r="AL17" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM17" s="276" t="s">
+      <c r="AM17" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="AN17" s="276"/>
-      <c r="AO17" s="276"/>
-      <c r="AP17" s="276"/>
-      <c r="AQ17" s="276"/>
+      <c r="AN17" s="283"/>
+      <c r="AO17" s="283"/>
+      <c r="AP17" s="283"/>
+      <c r="AQ17" s="283"/>
       <c r="AR17" s="72"/>
       <c r="AS17" s="72"/>
       <c r="AT17" s="72"/>
@@ -13592,40 +15958,40 @@
       <c r="B32" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="276" t="s">
+      <c r="C32" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="276"/>
-      <c r="E32" s="276"/>
-      <c r="F32" s="276"/>
-      <c r="G32" s="276"/>
-      <c r="H32" s="275" t="s">
+      <c r="D32" s="283"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="283"/>
+      <c r="G32" s="283"/>
+      <c r="H32" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="275"/>
-      <c r="J32" s="275"/>
-      <c r="K32" s="275"/>
-      <c r="L32" s="275"/>
+      <c r="I32" s="282"/>
+      <c r="J32" s="282"/>
+      <c r="K32" s="282"/>
+      <c r="L32" s="282"/>
       <c r="N32" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="274" t="s">
+      <c r="O32" s="281" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="274"/>
-      <c r="Q32" s="274"/>
-      <c r="R32" s="274"/>
-      <c r="S32" s="274"/>
+      <c r="P32" s="281"/>
+      <c r="Q32" s="281"/>
+      <c r="R32" s="281"/>
+      <c r="S32" s="281"/>
       <c r="AL32" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM32" s="276" t="s">
+      <c r="AM32" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="AN32" s="276"/>
-      <c r="AO32" s="276"/>
-      <c r="AP32" s="276"/>
-      <c r="AQ32" s="276"/>
+      <c r="AN32" s="283"/>
+      <c r="AO32" s="283"/>
+      <c r="AP32" s="283"/>
+      <c r="AQ32" s="283"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
       <c r="AT32" s="72"/>
@@ -14714,29 +17080,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="I1" s="277" t="s">
+      <c r="I1" s="284" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="277"/>
-      <c r="K1" s="277"/>
-      <c r="L1" s="277"/>
-      <c r="M1" s="277"/>
-      <c r="N1" s="277"/>
-      <c r="O1" s="277"/>
+      <c r="J1" s="284"/>
+      <c r="K1" s="284"/>
+      <c r="L1" s="284"/>
+      <c r="M1" s="284"/>
+      <c r="N1" s="284"/>
+      <c r="O1" s="284"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="C2" s="263" t="s">
+      <c r="C2" s="270" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="263"/>
+      <c r="D2" s="270"/>
       <c r="F2" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="277" t="s">
+      <c r="I2" s="284" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="277"/>
-      <c r="K2" s="277"/>
+      <c r="J2" s="284"/>
+      <c r="K2" s="284"/>
       <c r="L2" s="14" t="s">
         <v>118</v>
       </c>
@@ -15214,51 +17580,51 @@
       <c r="F4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="275" t="s">
+      <c r="H4" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="275"/>
-      <c r="J4" s="275"/>
-      <c r="K4" s="275"/>
-      <c r="L4" s="275"/>
+      <c r="I4" s="282"/>
+      <c r="J4" s="282"/>
+      <c r="K4" s="282"/>
+      <c r="L4" s="282"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="275" t="s">
+      <c r="T4" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="275"/>
-      <c r="V4" s="275"/>
-      <c r="W4" s="275"/>
-      <c r="X4" s="275"/>
+      <c r="U4" s="282"/>
+      <c r="V4" s="282"/>
+      <c r="W4" s="282"/>
+      <c r="X4" s="282"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
-      <c r="AF4" s="275" t="s">
+      <c r="AF4" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="275"/>
-      <c r="AH4" s="275"/>
-      <c r="AI4" s="275"/>
-      <c r="AJ4" s="275"/>
+      <c r="AG4" s="282"/>
+      <c r="AH4" s="282"/>
+      <c r="AI4" s="282"/>
+      <c r="AJ4" s="282"/>
       <c r="AN4" s="10"/>
       <c r="AP4" s="7"/>
-      <c r="AR4" s="275" t="s">
+      <c r="AR4" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="AS4" s="275"/>
-      <c r="AT4" s="275"/>
-      <c r="AU4" s="275"/>
-      <c r="AV4" s="275"/>
+      <c r="AS4" s="282"/>
+      <c r="AT4" s="282"/>
+      <c r="AU4" s="282"/>
+      <c r="AV4" s="282"/>
       <c r="BB4" s="7"/>
-      <c r="BD4" s="275" t="s">
+      <c r="BD4" s="282" t="s">
         <v>18</v>
       </c>
-      <c r="BE4" s="275"/>
-      <c r="BF4" s="275"/>
-      <c r="BG4" s="275"/>
-      <c r="BH4" s="275"/>
+      <c r="BE4" s="282"/>
+      <c r="BF4" s="282"/>
+      <c r="BG4" s="282"/>
+      <c r="BH4" s="282"/>
     </row>
     <row r="5" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="12" t="s">

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\Github_Dropbox\AlkaneStudy.Gromacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCFCBAF3-AA0E-497C-BDC4-85AA3A84BFDD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C9918B-256D-48AC-89A3-B893FC84C81D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="646" firstSheet="1" activeTab="13" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="646" firstSheet="11" activeTab="11" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim matrix" sheetId="13" r:id="rId1"/>
@@ -24,15 +24,16 @@
     <sheet name="FlexWilliams_old" sheetId="10" state="hidden" r:id="rId9"/>
     <sheet name="WilliamsOpt" sheetId="14" r:id="rId10"/>
     <sheet name="Williams2019" sheetId="18" r:id="rId11"/>
-    <sheet name="Unit cells" sheetId="22" r:id="rId12"/>
-    <sheet name="Super-cells" sheetId="21" r:id="rId13"/>
-    <sheet name="Crystal sims" sheetId="23" r:id="rId14"/>
-    <sheet name="GMX_dihedral" sheetId="15" r:id="rId15"/>
-    <sheet name="Expr data" sheetId="2" r:id="rId16"/>
-    <sheet name="Ref" sheetId="3" r:id="rId17"/>
-    <sheet name="box_sizes" sheetId="5" r:id="rId18"/>
-    <sheet name="cos-acc tests" sheetId="7" r:id="rId19"/>
-    <sheet name="Expr old" sheetId="4" state="hidden" r:id="rId20"/>
+    <sheet name="MixedPhase" sheetId="24" r:id="rId12"/>
+    <sheet name="Unit cells" sheetId="22" r:id="rId13"/>
+    <sheet name="Super-cells" sheetId="21" r:id="rId14"/>
+    <sheet name="Crystal sims" sheetId="23" r:id="rId15"/>
+    <sheet name="GMX_dihedral" sheetId="15" r:id="rId16"/>
+    <sheet name="Expr data" sheetId="2" r:id="rId17"/>
+    <sheet name="Ref" sheetId="3" r:id="rId18"/>
+    <sheet name="box_sizes" sheetId="5" r:id="rId19"/>
+    <sheet name="cos-acc tests" sheetId="7" r:id="rId20"/>
+    <sheet name="Expr old" sheetId="4" state="hidden" r:id="rId21"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2226" uniqueCount="530">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="541">
   <si>
     <t>Study</t>
   </si>
@@ -1848,6 +1849,39 @@
   </si>
   <si>
     <t>283 fixed</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Melted</t>
+  </si>
+  <si>
+    <t>Decreased</t>
+  </si>
+  <si>
+    <t>Increased</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Underdermined (barely changed)</t>
+  </si>
+  <si>
+    <t>Froze</t>
+  </si>
+  <si>
+    <t>1.2nm cut</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Molecule</t>
   </si>
 </sst>
 </file>
@@ -2236,7 +2270,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="292">
+  <cellXfs count="293">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3025,6 +3059,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3065,18 +3114,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="23" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11903,11 +11940,11 @@
       <c r="AH1" s="204"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="279" t="s">
+      <c r="B2" s="286" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="279"/>
-      <c r="D2" s="279"/>
+      <c r="C2" s="286"/>
+      <c r="D2" s="286"/>
       <c r="AC2" s="211"/>
       <c r="AD2" s="224"/>
       <c r="AE2" s="212"/>
@@ -12128,18 +12165,18 @@
       <c r="E15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="77"/>
-      <c r="L15" s="278" t="s">
+      <c r="L15" s="285" t="s">
         <v>465</v>
       </c>
-      <c r="M15" s="278"/>
-      <c r="N15" s="278"/>
-      <c r="O15" s="278"/>
-      <c r="P15" s="278"/>
-      <c r="Q15" s="278"/>
-      <c r="R15" s="278"/>
-      <c r="S15" s="278"/>
-      <c r="T15" s="278"/>
-      <c r="U15" s="278"/>
+      <c r="M15" s="285"/>
+      <c r="N15" s="285"/>
+      <c r="O15" s="285"/>
+      <c r="P15" s="285"/>
+      <c r="Q15" s="285"/>
+      <c r="R15" s="285"/>
+      <c r="S15" s="285"/>
+      <c r="T15" s="285"/>
+      <c r="U15" s="285"/>
       <c r="V15" s="77"/>
       <c r="W15" s="114"/>
       <c r="X15" s="77"/>
@@ -12156,48 +12193,48 @@
       <c r="AJ15" s="205"/>
     </row>
     <row r="16" spans="2:36">
-      <c r="C16" s="279" t="s">
+      <c r="C16" s="286" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="279"/>
-      <c r="E16" s="279"/>
-      <c r="F16" s="279"/>
-      <c r="G16" s="279"/>
-      <c r="H16" s="279"/>
-      <c r="I16" s="279"/>
-      <c r="J16" s="279"/>
+      <c r="D16" s="286"/>
+      <c r="E16" s="286"/>
+      <c r="F16" s="286"/>
+      <c r="G16" s="286"/>
+      <c r="H16" s="286"/>
+      <c r="I16" s="286"/>
+      <c r="J16" s="286"/>
       <c r="K16" s="148"/>
       <c r="L16" s="172"/>
-      <c r="M16" s="280">
+      <c r="M16" s="287">
         <v>1</v>
       </c>
-      <c r="N16" s="280"/>
-      <c r="O16" s="280"/>
-      <c r="P16" s="280">
+      <c r="N16" s="287"/>
+      <c r="O16" s="287"/>
+      <c r="P16" s="287">
         <v>2</v>
       </c>
-      <c r="Q16" s="280"/>
-      <c r="R16" s="280"/>
-      <c r="S16" s="280">
+      <c r="Q16" s="287"/>
+      <c r="R16" s="287"/>
+      <c r="S16" s="287">
         <v>3</v>
       </c>
-      <c r="T16" s="280"/>
-      <c r="U16" s="280"/>
-      <c r="V16" s="280">
+      <c r="T16" s="287"/>
+      <c r="U16" s="287"/>
+      <c r="V16" s="287">
         <v>4</v>
       </c>
-      <c r="W16" s="280"/>
-      <c r="X16" s="280"/>
-      <c r="Y16" s="280">
+      <c r="W16" s="287"/>
+      <c r="X16" s="287"/>
+      <c r="Y16" s="287">
         <v>5</v>
       </c>
-      <c r="Z16" s="280"/>
-      <c r="AA16" s="281"/>
-      <c r="AB16" s="275" t="s">
+      <c r="Z16" s="287"/>
+      <c r="AA16" s="288"/>
+      <c r="AB16" s="282" t="s">
         <v>278</v>
       </c>
-      <c r="AC16" s="276"/>
-      <c r="AD16" s="277"/>
+      <c r="AC16" s="283"/>
+      <c r="AD16" s="284"/>
     </row>
     <row r="17" spans="2:46" s="79" customFormat="1">
       <c r="D17" s="75" t="s">
@@ -16917,23 +16954,23 @@
     <row r="4" spans="2:27">
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
-      <c r="J4" s="273" t="s">
+      <c r="J4" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="K4" s="273"/>
-      <c r="N4" s="273" t="s">
+      <c r="K4" s="280"/>
+      <c r="N4" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="273"/>
-      <c r="Q4" s="273" t="s">
+      <c r="O4" s="280"/>
+      <c r="Q4" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="273"/>
-      <c r="S4" s="273"/>
-      <c r="T4" s="273"/>
-      <c r="U4" s="273"/>
-      <c r="V4" s="273"/>
-      <c r="W4" s="273"/>
+      <c r="R4" s="280"/>
+      <c r="S4" s="280"/>
+      <c r="T4" s="280"/>
+      <c r="U4" s="280"/>
+      <c r="V4" s="280"/>
+      <c r="W4" s="280"/>
       <c r="X4" s="146"/>
       <c r="AA4" s="146"/>
     </row>
@@ -17558,6 +17595,170 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3949D05-7376-4059-B96D-BFD0734F58BD}">
+  <dimension ref="B2:AA7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.75"/>
+  <cols>
+    <col min="4" max="4" width="13.125" customWidth="1"/>
+    <col min="5" max="24" width="5" style="271" customWidth="1"/>
+    <col min="27" max="30" width="31" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:27" s="56" customFormat="1">
+      <c r="B2" s="56" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" s="56" t="s">
+        <v>539</v>
+      </c>
+      <c r="D2" s="56" t="s">
+        <v>5</v>
+      </c>
+      <c r="E2" s="15">
+        <v>280</v>
+      </c>
+      <c r="F2" s="15">
+        <v>282</v>
+      </c>
+      <c r="G2" s="15">
+        <v>284</v>
+      </c>
+      <c r="H2" s="15">
+        <v>286</v>
+      </c>
+      <c r="I2" s="15">
+        <v>288</v>
+      </c>
+      <c r="J2" s="15">
+        <v>290</v>
+      </c>
+      <c r="K2" s="15">
+        <v>292</v>
+      </c>
+      <c r="L2" s="15">
+        <v>294</v>
+      </c>
+      <c r="M2" s="15">
+        <v>296</v>
+      </c>
+      <c r="N2" s="15">
+        <v>298</v>
+      </c>
+      <c r="O2" s="15">
+        <v>300</v>
+      </c>
+      <c r="P2" s="15">
+        <v>302</v>
+      </c>
+      <c r="Q2" s="15">
+        <v>304</v>
+      </c>
+      <c r="R2" s="15">
+        <v>306</v>
+      </c>
+      <c r="S2" s="15">
+        <v>308</v>
+      </c>
+      <c r="T2" s="15">
+        <v>310</v>
+      </c>
+      <c r="U2" s="15">
+        <v>312</v>
+      </c>
+      <c r="V2" s="15">
+        <v>314</v>
+      </c>
+      <c r="W2" s="15">
+        <v>316</v>
+      </c>
+      <c r="X2" s="15">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="3" spans="2:27">
+      <c r="B3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D3" t="s">
+        <v>538</v>
+      </c>
+      <c r="O3" s="271" t="s">
+        <v>530</v>
+      </c>
+      <c r="P3" s="271" t="s">
+        <v>470</v>
+      </c>
+      <c r="Q3" s="271" t="s">
+        <v>470</v>
+      </c>
+      <c r="R3" s="271" t="s">
+        <v>531</v>
+      </c>
+      <c r="S3" s="271" t="s">
+        <v>470</v>
+      </c>
+      <c r="T3" s="271" t="s">
+        <v>470</v>
+      </c>
+      <c r="U3" s="271" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" s="271" t="s">
+        <v>62</v>
+      </c>
+      <c r="Z3" t="s">
+        <v>62</v>
+      </c>
+      <c r="AA3" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="4" spans="2:27">
+      <c r="Z4" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA4" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="5" spans="2:27">
+      <c r="Z5" t="s">
+        <v>535</v>
+      </c>
+      <c r="AA5" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="6" spans="2:27">
+      <c r="Z6" t="s">
+        <v>531</v>
+      </c>
+      <c r="AA6" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="7" spans="2:27">
+      <c r="Z7" t="s">
+        <v>530</v>
+      </c>
+      <c r="AA7" t="s">
+        <v>537</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68CE14D2-6A31-4EE7-987E-9C9B413F95A3}">
   <dimension ref="B2:T21"/>
   <sheetViews>
@@ -17571,8 +17772,8 @@
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="288" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.125" style="288" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="274" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.125" style="274" customWidth="1"/>
     <col min="19" max="19" width="47.625" style="180" customWidth="1"/>
     <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -17581,7 +17782,7 @@
       <c r="B2" t="s">
         <v>516</v>
       </c>
-      <c r="C2" s="290">
+      <c r="C2" s="276">
         <v>6.0221407599999999E+23</v>
       </c>
       <c r="S2" s="266"/>
@@ -17631,13 +17832,13 @@
       <c r="O5" s="169" t="s">
         <v>514</v>
       </c>
-      <c r="P5" s="287" t="s">
+      <c r="P5" s="273" t="s">
         <v>511</v>
       </c>
-      <c r="Q5" s="287" t="s">
+      <c r="Q5" s="273" t="s">
         <v>515</v>
       </c>
-      <c r="R5" s="289" t="s">
+      <c r="R5" s="275" t="s">
         <v>21</v>
       </c>
       <c r="S5" s="192" t="s">
@@ -17701,7 +17902,7 @@
         <f>C6*(Q6/P6)*(1E+27)/$C$2</f>
         <v>927.97418802324705</v>
       </c>
-      <c r="T6" s="286"/>
+      <c r="T6" s="272"/>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="67"/>
@@ -18048,7 +18249,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54734A79-229D-40A1-9EF2-2AA48E78AAE8}">
   <dimension ref="B2:R16"/>
   <sheetViews>
@@ -18067,11 +18268,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:18" s="181" customFormat="1">
-      <c r="C2" s="272" t="s">
+      <c r="C2" s="279" t="s">
         <v>396</v>
       </c>
-      <c r="D2" s="272"/>
-      <c r="E2" s="272"/>
+      <c r="D2" s="279"/>
+      <c r="E2" s="279"/>
       <c r="G2" s="161"/>
       <c r="H2" s="161"/>
       <c r="I2" s="161"/>
@@ -18998,11 +19199,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9DD18-B806-45D2-93AF-832D747FF56C}">
   <dimension ref="A2:R36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
@@ -19028,11 +19229,11 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="B2" s="271" t="s">
+      <c r="B2" s="278" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="271"/>
-      <c r="D2" s="274"/>
+      <c r="C2" s="278"/>
+      <c r="D2" s="281"/>
       <c r="F2" s="238" t="s">
         <v>477</v>
       </c>
@@ -19694,11 +19895,11 @@
         <v>166</v>
       </c>
       <c r="F26" s="238">
-        <f>$D$26-$F$3</f>
+        <f t="shared" ref="F26:F33" si="2">$D$26-$F$3</f>
         <v>251</v>
       </c>
       <c r="G26" s="236">
-        <f>$D$26+$G$3</f>
+        <f t="shared" ref="G26:G33" si="3">$D$26+$G$3</f>
         <v>301</v>
       </c>
       <c r="H26" s="239" t="s">
@@ -19718,15 +19919,15 @@
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="E27" s="291" t="s">
+      <c r="E27" s="277" t="s">
         <v>167</v>
       </c>
       <c r="F27" s="241">
-        <f>$D$26-$F$3</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G27" s="239">
-        <f>$D$26+$G$3</f>
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
       <c r="H27" s="239" t="s">
@@ -19756,15 +19957,15 @@
     </row>
     <row r="28" spans="1:18" s="266" customFormat="1">
       <c r="D28" s="269"/>
-      <c r="E28" s="291" t="s">
+      <c r="E28" s="277" t="s">
         <v>167</v>
       </c>
       <c r="F28" s="268">
-        <f>$D$26-$F$3</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G28" s="266">
-        <f>$D$26+$G$3</f>
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
       <c r="H28" s="266" t="s">
@@ -19797,15 +19998,15 @@
     </row>
     <row r="29" spans="1:18" s="266" customFormat="1">
       <c r="D29" s="269"/>
-      <c r="E29" s="291" t="s">
+      <c r="E29" s="277" t="s">
         <v>167</v>
       </c>
       <c r="F29" s="268">
-        <f>$D$26-$F$3</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G29" s="266">
-        <f>$D$26+$G$3</f>
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
       <c r="H29" s="266" t="s">
@@ -19837,15 +20038,15 @@
     </row>
     <row r="30" spans="1:18" s="266" customFormat="1">
       <c r="D30" s="269"/>
-      <c r="E30" s="291" t="s">
+      <c r="E30" s="277" t="s">
         <v>167</v>
       </c>
       <c r="F30" s="268">
-        <f>$D$26-$F$3</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G30" s="266">
-        <f>$D$26+$G$3</f>
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
       <c r="H30" s="266" t="s">
@@ -19877,15 +20078,15 @@
     </row>
     <row r="31" spans="1:18" s="266" customFormat="1">
       <c r="D31" s="269"/>
-      <c r="E31" s="291" t="s">
+      <c r="E31" s="277" t="s">
         <v>167</v>
       </c>
       <c r="F31" s="268">
-        <f>$D$26-$F$3</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G31" s="266">
-        <f>$D$26+$G$3</f>
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
       <c r="H31" s="266" t="s">
@@ -19920,11 +20121,11 @@
         <v>168</v>
       </c>
       <c r="F32" s="249">
-        <f>$D$26-$F$3</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G32" s="247">
-        <f>$D$26+$G$3</f>
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
       <c r="H32" s="247" t="s">
@@ -19958,11 +20159,11 @@
         <v>169</v>
       </c>
       <c r="F33" s="249">
-        <f>$D$26-$F$3</f>
+        <f t="shared" si="2"/>
         <v>251</v>
       </c>
       <c r="G33" s="247">
-        <f>$D$26+$G$3</f>
+        <f t="shared" si="3"/>
         <v>301</v>
       </c>
       <c r="H33" s="247" t="s">
@@ -20025,7 +20226,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF03F4-0D0E-4240-A36F-5BB31F518425}">
   <dimension ref="B2:E61"/>
   <sheetViews>
@@ -20900,7 +21101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB14C90-9A0C-E346-B9BD-40AE56D235C4}">
   <dimension ref="B1:BH45"/>
   <sheetViews>
@@ -20966,30 +21167,30 @@
       <c r="B2" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="284" t="s">
+      <c r="C2" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="284"/>
-      <c r="E2" s="284"/>
-      <c r="F2" s="284"/>
-      <c r="G2" s="284"/>
-      <c r="H2" s="283" t="s">
+      <c r="D2" s="291"/>
+      <c r="E2" s="291"/>
+      <c r="F2" s="291"/>
+      <c r="G2" s="291"/>
+      <c r="H2" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="283"/>
-      <c r="J2" s="283"/>
-      <c r="K2" s="283"/>
-      <c r="L2" s="283"/>
+      <c r="I2" s="290"/>
+      <c r="J2" s="290"/>
+      <c r="K2" s="290"/>
+      <c r="L2" s="290"/>
       <c r="N2" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="284" t="s">
+      <c r="O2" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="284"/>
-      <c r="Q2" s="284"/>
-      <c r="R2" s="284"/>
-      <c r="S2" s="284"/>
+      <c r="P2" s="291"/>
+      <c r="Q2" s="291"/>
+      <c r="R2" s="291"/>
+      <c r="S2" s="291"/>
       <c r="T2" s="72"/>
       <c r="U2" s="72"/>
       <c r="V2" s="72"/>
@@ -20998,13 +21199,13 @@
       <c r="Z2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="284" t="s">
+      <c r="AA2" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="284"/>
-      <c r="AC2" s="284"/>
-      <c r="AD2" s="284"/>
-      <c r="AE2" s="284"/>
+      <c r="AB2" s="291"/>
+      <c r="AC2" s="291"/>
+      <c r="AD2" s="291"/>
+      <c r="AE2" s="291"/>
       <c r="AF2" s="72"/>
       <c r="AG2" s="72"/>
       <c r="AH2" s="72"/>
@@ -21013,13 +21214,13 @@
       <c r="AL2" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM2" s="284" t="s">
+      <c r="AM2" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="AN2" s="284"/>
-      <c r="AO2" s="284"/>
-      <c r="AP2" s="284"/>
-      <c r="AQ2" s="284"/>
+      <c r="AN2" s="291"/>
+      <c r="AO2" s="291"/>
+      <c r="AP2" s="291"/>
+      <c r="AQ2" s="291"/>
       <c r="AR2" s="72"/>
       <c r="AS2" s="72"/>
       <c r="AT2" s="72"/>
@@ -22159,33 +22360,33 @@
       <c r="B17" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="282" t="s">
+      <c r="C17" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="282"/>
-      <c r="E17" s="282"/>
-      <c r="F17" s="282"/>
-      <c r="G17" s="282"/>
+      <c r="D17" s="289"/>
+      <c r="E17" s="289"/>
+      <c r="F17" s="289"/>
+      <c r="G17" s="289"/>
       <c r="N17" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="282" t="s">
+      <c r="O17" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="282"/>
-      <c r="Q17" s="282"/>
-      <c r="R17" s="282"/>
-      <c r="S17" s="282"/>
+      <c r="P17" s="289"/>
+      <c r="Q17" s="289"/>
+      <c r="R17" s="289"/>
+      <c r="S17" s="289"/>
       <c r="AL17" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM17" s="284" t="s">
+      <c r="AM17" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="AN17" s="284"/>
-      <c r="AO17" s="284"/>
-      <c r="AP17" s="284"/>
-      <c r="AQ17" s="284"/>
+      <c r="AN17" s="291"/>
+      <c r="AO17" s="291"/>
+      <c r="AP17" s="291"/>
+      <c r="AQ17" s="291"/>
       <c r="AR17" s="72"/>
       <c r="AS17" s="72"/>
       <c r="AT17" s="72"/>
@@ -22806,40 +23007,40 @@
       <c r="B32" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="284" t="s">
+      <c r="C32" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="284"/>
-      <c r="E32" s="284"/>
-      <c r="F32" s="284"/>
-      <c r="G32" s="284"/>
-      <c r="H32" s="283" t="s">
+      <c r="D32" s="291"/>
+      <c r="E32" s="291"/>
+      <c r="F32" s="291"/>
+      <c r="G32" s="291"/>
+      <c r="H32" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="283"/>
-      <c r="J32" s="283"/>
-      <c r="K32" s="283"/>
-      <c r="L32" s="283"/>
+      <c r="I32" s="290"/>
+      <c r="J32" s="290"/>
+      <c r="K32" s="290"/>
+      <c r="L32" s="290"/>
       <c r="N32" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="282" t="s">
+      <c r="O32" s="289" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="282"/>
-      <c r="Q32" s="282"/>
-      <c r="R32" s="282"/>
-      <c r="S32" s="282"/>
+      <c r="P32" s="289"/>
+      <c r="Q32" s="289"/>
+      <c r="R32" s="289"/>
+      <c r="S32" s="289"/>
       <c r="AL32" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM32" s="284" t="s">
+      <c r="AM32" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="AN32" s="284"/>
-      <c r="AO32" s="284"/>
-      <c r="AP32" s="284"/>
-      <c r="AQ32" s="284"/>
+      <c r="AN32" s="291"/>
+      <c r="AO32" s="291"/>
+      <c r="AP32" s="291"/>
+      <c r="AQ32" s="291"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
       <c r="AT32" s="72"/>
@@ -23415,7 +23616,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDCE98-34D0-4ABF-8516-E6ECC928D09D}">
   <dimension ref="B2:D32"/>
   <sheetViews>
@@ -23650,7 +23851,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDBDFB-84C9-0D42-9872-D0E4DAFE61DB}">
   <dimension ref="B1:K10"/>
   <sheetViews>
@@ -23904,460 +24105,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E95DD15-E630-164A-9911-8F448DFCB0FA}">
-  <dimension ref="B1:Q33"/>
-  <sheetViews>
-    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="R13" sqref="R13"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
-  <cols>
-    <col min="1" max="4" width="10.875" style="14"/>
-    <col min="5" max="5" width="10.875" style="27"/>
-    <col min="6" max="6" width="10.875" style="29"/>
-    <col min="7" max="7" width="12.125" style="31" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.125" style="27" customWidth="1"/>
-    <col min="9" max="9" width="15.625" style="36" customWidth="1"/>
-    <col min="10" max="11" width="10.875" style="31"/>
-    <col min="12" max="16384" width="10.875" style="14"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:17">
-      <c r="I1" s="285" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="285"/>
-      <c r="K1" s="285"/>
-      <c r="L1" s="285"/>
-      <c r="M1" s="285"/>
-      <c r="N1" s="285"/>
-      <c r="O1" s="285"/>
-    </row>
-    <row r="2" spans="2:17">
-      <c r="C2" s="271" t="s">
-        <v>111</v>
-      </c>
-      <c r="D2" s="271"/>
-      <c r="F2" s="29" t="s">
-        <v>115</v>
-      </c>
-      <c r="I2" s="285" t="s">
-        <v>117</v>
-      </c>
-      <c r="J2" s="285"/>
-      <c r="K2" s="285"/>
-      <c r="L2" s="14" t="s">
-        <v>118</v>
-      </c>
-      <c r="M2" s="14" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="3" spans="2:17" s="15" customFormat="1">
-      <c r="B3" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="F3" s="30" t="s">
-        <v>114</v>
-      </c>
-      <c r="G3" s="32" t="s">
-        <v>87</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="I3" s="35"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="M3" s="15" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="4" spans="2:17">
-      <c r="B4" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="C4" s="14">
-        <v>3.01</v>
-      </c>
-      <c r="D4" s="14">
-        <v>770</v>
-      </c>
-      <c r="E4" s="27">
-        <v>7.8543099999999999</v>
-      </c>
-      <c r="F4" s="29">
-        <f>1/332</f>
-        <v>3.0120481927710845E-3</v>
-      </c>
-      <c r="G4" s="37">
-        <f>2*PI()*F4*C4*1000/(D4*E4)</f>
-        <v>9.4191023645437116E-3</v>
-      </c>
-      <c r="H4" s="34">
-        <f>D4*E4*E4*(0.000001)/(C4*0.001)</f>
-        <v>15.78121026365349</v>
-      </c>
-    </row>
-    <row r="5" spans="2:17">
-      <c r="B5" s="14" t="s">
-        <v>41</v>
-      </c>
-      <c r="F5" s="29">
-        <f>1/300</f>
-        <v>3.3333333333333335E-3</v>
-      </c>
-      <c r="G5" s="37"/>
-      <c r="H5" s="34"/>
-    </row>
-    <row r="6" spans="2:17">
-      <c r="B6" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="G6" s="37"/>
-      <c r="H6" s="34"/>
-    </row>
-    <row r="7" spans="2:17">
-      <c r="B7" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="G7" s="37"/>
-      <c r="H7" s="34"/>
-    </row>
-    <row r="8" spans="2:17">
-      <c r="G8" s="37"/>
-      <c r="H8" s="34"/>
-    </row>
-    <row r="9" spans="2:17" s="15" customFormat="1">
-      <c r="E9" s="28"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40"/>
-      <c r="J9" s="32"/>
-      <c r="K9" s="32"/>
-    </row>
-    <row r="10" spans="2:17">
-      <c r="B10" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G10" s="31">
-        <v>1E-3</v>
-      </c>
-      <c r="I10" s="36">
-        <f>1000/587.575</f>
-        <v>1.7019103944177338</v>
-      </c>
-      <c r="J10" s="31">
-        <f>1000/393.087</f>
-        <v>2.5439660940198991</v>
-      </c>
-      <c r="K10" s="31">
-        <f>1000/524.365</f>
-        <v>1.9070685495790145</v>
-      </c>
-      <c r="L10" s="14">
-        <f>1000/429.592</f>
-        <v>2.3277900892009162</v>
-      </c>
-      <c r="M10" s="14">
-        <f>1000/471.267</f>
-        <v>2.1219393677045071</v>
-      </c>
-      <c r="P10" s="29">
-        <f>SUM(I10:O10)/5</f>
-        <v>2.1205348989844142</v>
-      </c>
-    </row>
-    <row r="11" spans="2:17">
-      <c r="G11" s="31">
-        <v>2E-3</v>
-      </c>
-      <c r="I11" s="36">
-        <f>1000/ 539.436</f>
-        <v>1.8537880304614447</v>
-      </c>
-      <c r="J11" s="31">
-        <f>1000/427.898</f>
-        <v>2.3370055480511711</v>
-      </c>
-      <c r="K11" s="31">
-        <f>1000/482.665</f>
-        <v>2.0718303585302436</v>
-      </c>
-      <c r="L11" s="14">
-        <f>1000/425.574</f>
-        <v>2.3497676079835705</v>
-      </c>
-      <c r="M11" s="14">
-        <f>1000/450.603</f>
-        <v>2.2192484293269241</v>
-      </c>
-      <c r="P11" s="29">
-        <f>SUM(I11:O11)/5</f>
-        <v>2.1663279948706711</v>
-      </c>
-    </row>
-    <row r="12" spans="2:17">
-      <c r="G12" s="31">
-        <v>3.0000000000000001E-3</v>
-      </c>
-      <c r="I12" s="36">
-        <f>1000/511.599</f>
-        <v>1.9546558926033866</v>
-      </c>
-      <c r="J12" s="31">
-        <f>1000/463.492</f>
-        <v>2.1575345421280194</v>
-      </c>
-      <c r="K12" s="31">
-        <f>1000/428.438</f>
-        <v>2.3340600040145834</v>
-      </c>
-      <c r="L12" s="14">
-        <f>1000/484.767</f>
-        <v>2.0628466871713629</v>
-      </c>
-      <c r="M12" s="14">
-        <f>1000/456.876</f>
-        <v>2.1887776989817809</v>
-      </c>
-      <c r="P12" s="29">
-        <f>SUM(I12:O12)/5</f>
-        <v>2.1395749649798268</v>
-      </c>
-      <c r="Q12" s="29"/>
-    </row>
-    <row r="13" spans="2:17">
-      <c r="G13" s="31">
-        <v>6.0000000000000001E-3</v>
-      </c>
-      <c r="I13" s="36">
-        <f>1000/468.013</f>
-        <v>2.1366927841747985</v>
-      </c>
-      <c r="J13" s="31">
-        <f>1000/484.467</f>
-        <v>2.0641240786266146</v>
-      </c>
-      <c r="K13" s="31">
-        <f>1000/495.902</f>
-        <v>2.01652745905441</v>
-      </c>
-      <c r="L13" s="14">
-        <f>1000/476.432</f>
-        <v>2.0989354199549988</v>
-      </c>
-      <c r="M13" s="14">
-        <f>1000/480.887</f>
-        <v>2.0794906079806692</v>
-      </c>
-      <c r="P13" s="29">
-        <f>SUM(I13:O13)/5</f>
-        <v>2.0791540699582982</v>
-      </c>
-      <c r="Q13" s="29"/>
-    </row>
-    <row r="14" spans="2:17">
-      <c r="G14" s="31">
-        <v>1.2E-2</v>
-      </c>
-      <c r="I14" s="36">
-        <f>1000/561.938</f>
-        <v>1.7795557517021452</v>
-      </c>
-      <c r="J14" s="31">
-        <f>1000/567.598</f>
-        <v>1.7618102953146417</v>
-      </c>
-      <c r="K14" s="31">
-        <f>1000/573.548</f>
-        <v>1.7435332352305299</v>
-      </c>
-      <c r="L14" s="14">
-        <f>1000/580.314</f>
-        <v>1.7232050234872847</v>
-      </c>
-      <c r="M14" s="14">
-        <f>1000/559.257</f>
-        <v>1.7880866935952524</v>
-      </c>
-      <c r="P14" s="29">
-        <f>SUM(I14:O14)/5</f>
-        <v>1.7592381998659707</v>
-      </c>
-    </row>
-    <row r="15" spans="2:17">
-      <c r="I15" s="36" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="16" spans="2:17">
-      <c r="I16" s="36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9">
-      <c r="B17" s="14" t="s">
-        <v>42</v>
-      </c>
-      <c r="G17" s="31">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I17" s="36">
-        <f>1000/447.965</f>
-        <v>2.232317256928555</v>
-      </c>
-    </row>
-    <row r="18" spans="2:9">
-      <c r="G18" s="31">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="I18" s="36">
-        <f>1000/462.314</f>
-        <v>2.1630320518089436</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9">
-      <c r="G19" s="31">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I19" s="36">
-        <f>1000/473.077</f>
-        <v>2.1138207945006839</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9">
-      <c r="G20" s="31">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="I20" s="36">
-        <f>1000/490.985</f>
-        <v>2.0367220994531401</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9">
-      <c r="G21" s="31">
-        <v>0.01</v>
-      </c>
-      <c r="I21" s="36">
-        <f>1000/537.393</f>
-        <v>1.8608355523797295</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9">
-      <c r="G22" s="31">
-        <v>1.41E-2</v>
-      </c>
-      <c r="I22" s="36">
-        <f>1000/618.682</f>
-        <v>1.6163392502125487</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9">
-      <c r="G23" s="31">
-        <v>0.02</v>
-      </c>
-      <c r="I23" s="36">
-        <f>1000/768.18</f>
-        <v>1.3017782290608972</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9">
-      <c r="I25" s="36" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="26" spans="2:9">
-      <c r="I26" s="36" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="27" spans="2:9">
-      <c r="G27" s="31">
-        <v>2.5000000000000001E-3</v>
-      </c>
-      <c r="I27" s="36">
-        <f>1000/450.232</f>
-        <v>2.2210771335666943</v>
-      </c>
-    </row>
-    <row r="28" spans="2:9">
-      <c r="G28" s="31">
-        <v>3.5000000000000001E-3</v>
-      </c>
-      <c r="I28" s="36">
-        <f>1000/467.009</f>
-        <v>2.1412863563657232</v>
-      </c>
-    </row>
-    <row r="29" spans="2:9">
-      <c r="G29" s="31">
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="I29" s="36">
-        <f>1000/468.867</f>
-        <v>2.132800986207176</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9">
-      <c r="G30" s="31">
-        <v>7.1000000000000004E-3</v>
-      </c>
-      <c r="I30" s="36">
-        <f>1000/490.496</f>
-        <v>2.0387526096033404</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9">
-      <c r="G31" s="31">
-        <v>0.01</v>
-      </c>
-      <c r="I31" s="36">
-        <f>1000/523.234</f>
-        <v>1.9111907865314561</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9">
-      <c r="G32" s="31">
-        <v>1.41E-2</v>
-      </c>
-      <c r="I32" s="36">
-        <f>1000/599.115</f>
-        <v>1.6691286313979787</v>
-      </c>
-    </row>
-    <row r="33" spans="7:9">
-      <c r="G33" s="31">
-        <v>0.02</v>
-      </c>
-      <c r="I33" s="36">
-        <f>1000/741.736</f>
-        <v>1.348188573832199</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="I2:K2"/>
-    <mergeCell ref="I1:O1"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -24542,6 +24289,460 @@
 </file>
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E95DD15-E630-164A-9911-8F448DFCB0FA}">
+  <dimension ref="B1:Q33"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="4" width="10.875" style="14"/>
+    <col min="5" max="5" width="10.875" style="27"/>
+    <col min="6" max="6" width="10.875" style="29"/>
+    <col min="7" max="7" width="12.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="36" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="31"/>
+    <col min="12" max="16384" width="10.875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="I1" s="292" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="292"/>
+      <c r="K1" s="292"/>
+      <c r="L1" s="292"/>
+      <c r="M1" s="292"/>
+      <c r="N1" s="292"/>
+      <c r="O1" s="292"/>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="C2" s="278" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="278"/>
+      <c r="F2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="292" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="15" customFormat="1">
+      <c r="B3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="M3" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3.01</v>
+      </c>
+      <c r="D4" s="14">
+        <v>770</v>
+      </c>
+      <c r="E4" s="27">
+        <v>7.8543099999999999</v>
+      </c>
+      <c r="F4" s="29">
+        <f>1/332</f>
+        <v>3.0120481927710845E-3</v>
+      </c>
+      <c r="G4" s="37">
+        <f>2*PI()*F4*C4*1000/(D4*E4)</f>
+        <v>9.4191023645437116E-3</v>
+      </c>
+      <c r="H4" s="34">
+        <f>D4*E4*E4*(0.000001)/(C4*0.001)</f>
+        <v>15.78121026365349</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="29">
+        <f>1/300</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="G8" s="37"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:17" s="15" customFormat="1">
+      <c r="E9" s="28"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="I10" s="36">
+        <f>1000/587.575</f>
+        <v>1.7019103944177338</v>
+      </c>
+      <c r="J10" s="31">
+        <f>1000/393.087</f>
+        <v>2.5439660940198991</v>
+      </c>
+      <c r="K10" s="31">
+        <f>1000/524.365</f>
+        <v>1.9070685495790145</v>
+      </c>
+      <c r="L10" s="14">
+        <f>1000/429.592</f>
+        <v>2.3277900892009162</v>
+      </c>
+      <c r="M10" s="14">
+        <f>1000/471.267</f>
+        <v>2.1219393677045071</v>
+      </c>
+      <c r="P10" s="29">
+        <f>SUM(I10:O10)/5</f>
+        <v>2.1205348989844142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="G11" s="31">
+        <v>2E-3</v>
+      </c>
+      <c r="I11" s="36">
+        <f>1000/ 539.436</f>
+        <v>1.8537880304614447</v>
+      </c>
+      <c r="J11" s="31">
+        <f>1000/427.898</f>
+        <v>2.3370055480511711</v>
+      </c>
+      <c r="K11" s="31">
+        <f>1000/482.665</f>
+        <v>2.0718303585302436</v>
+      </c>
+      <c r="L11" s="14">
+        <f>1000/425.574</f>
+        <v>2.3497676079835705</v>
+      </c>
+      <c r="M11" s="14">
+        <f>1000/450.603</f>
+        <v>2.2192484293269241</v>
+      </c>
+      <c r="P11" s="29">
+        <f>SUM(I11:O11)/5</f>
+        <v>2.1663279948706711</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="G12" s="31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="36">
+        <f>1000/511.599</f>
+        <v>1.9546558926033866</v>
+      </c>
+      <c r="J12" s="31">
+        <f>1000/463.492</f>
+        <v>2.1575345421280194</v>
+      </c>
+      <c r="K12" s="31">
+        <f>1000/428.438</f>
+        <v>2.3340600040145834</v>
+      </c>
+      <c r="L12" s="14">
+        <f>1000/484.767</f>
+        <v>2.0628466871713629</v>
+      </c>
+      <c r="M12" s="14">
+        <f>1000/456.876</f>
+        <v>2.1887776989817809</v>
+      </c>
+      <c r="P12" s="29">
+        <f>SUM(I12:O12)/5</f>
+        <v>2.1395749649798268</v>
+      </c>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="G13" s="31">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="36">
+        <f>1000/468.013</f>
+        <v>2.1366927841747985</v>
+      </c>
+      <c r="J13" s="31">
+        <f>1000/484.467</f>
+        <v>2.0641240786266146</v>
+      </c>
+      <c r="K13" s="31">
+        <f>1000/495.902</f>
+        <v>2.01652745905441</v>
+      </c>
+      <c r="L13" s="14">
+        <f>1000/476.432</f>
+        <v>2.0989354199549988</v>
+      </c>
+      <c r="M13" s="14">
+        <f>1000/480.887</f>
+        <v>2.0794906079806692</v>
+      </c>
+      <c r="P13" s="29">
+        <f>SUM(I13:O13)/5</f>
+        <v>2.0791540699582982</v>
+      </c>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="G14" s="31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I14" s="36">
+        <f>1000/561.938</f>
+        <v>1.7795557517021452</v>
+      </c>
+      <c r="J14" s="31">
+        <f>1000/567.598</f>
+        <v>1.7618102953146417</v>
+      </c>
+      <c r="K14" s="31">
+        <f>1000/573.548</f>
+        <v>1.7435332352305299</v>
+      </c>
+      <c r="L14" s="14">
+        <f>1000/580.314</f>
+        <v>1.7232050234872847</v>
+      </c>
+      <c r="M14" s="14">
+        <f>1000/559.257</f>
+        <v>1.7880866935952524</v>
+      </c>
+      <c r="P14" s="29">
+        <f>SUM(I14:O14)/5</f>
+        <v>1.7592381998659707</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="I15" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="I16" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="31">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I17" s="36">
+        <f>1000/447.965</f>
+        <v>2.232317256928555</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="G18" s="31">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I18" s="36">
+        <f>1000/462.314</f>
+        <v>2.1630320518089436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="G19" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="36">
+        <f>1000/473.077</f>
+        <v>2.1138207945006839</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="G20" s="31">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I20" s="36">
+        <f>1000/490.985</f>
+        <v>2.0367220994531401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="G21" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="36">
+        <f>1000/537.393</f>
+        <v>1.8608355523797295</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="G22" s="31">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I22" s="36">
+        <f>1000/618.682</f>
+        <v>1.6163392502125487</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="G23" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="I23" s="36">
+        <f>1000/768.18</f>
+        <v>1.3017782290608972</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="I25" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="I26" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="G27" s="31">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I27" s="36">
+        <f>1000/450.232</f>
+        <v>2.2210771335666943</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="G28" s="31">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I28" s="36">
+        <f>1000/467.009</f>
+        <v>2.1412863563657232</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="G29" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="36">
+        <f>1000/468.867</f>
+        <v>2.132800986207176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="G30" s="31">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I30" s="36">
+        <f>1000/490.496</f>
+        <v>2.0387526096033404</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="G31" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="36">
+        <f>1000/523.234</f>
+        <v>1.9111907865314561</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="G32" s="31">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I32" s="36">
+        <f>1000/599.115</f>
+        <v>1.6691286313979787</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="I33" s="36">
+        <f>1000/741.736</f>
+        <v>1.348188573832199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C044A9FB-F8D3-4917-BFAB-FBE43DD433AF}">
   <dimension ref="B3:BH17"/>
   <sheetViews>
@@ -24608,51 +24809,51 @@
       <c r="F4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="283" t="s">
+      <c r="H4" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="283"/>
-      <c r="J4" s="283"/>
-      <c r="K4" s="283"/>
-      <c r="L4" s="283"/>
+      <c r="I4" s="290"/>
+      <c r="J4" s="290"/>
+      <c r="K4" s="290"/>
+      <c r="L4" s="290"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="283" t="s">
+      <c r="T4" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="283"/>
-      <c r="V4" s="283"/>
-      <c r="W4" s="283"/>
-      <c r="X4" s="283"/>
+      <c r="U4" s="290"/>
+      <c r="V4" s="290"/>
+      <c r="W4" s="290"/>
+      <c r="X4" s="290"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
-      <c r="AF4" s="283" t="s">
+      <c r="AF4" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="283"/>
-      <c r="AH4" s="283"/>
-      <c r="AI4" s="283"/>
-      <c r="AJ4" s="283"/>
+      <c r="AG4" s="290"/>
+      <c r="AH4" s="290"/>
+      <c r="AI4" s="290"/>
+      <c r="AJ4" s="290"/>
       <c r="AN4" s="10"/>
       <c r="AP4" s="7"/>
-      <c r="AR4" s="283" t="s">
+      <c r="AR4" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="AS4" s="283"/>
-      <c r="AT4" s="283"/>
-      <c r="AU4" s="283"/>
-      <c r="AV4" s="283"/>
+      <c r="AS4" s="290"/>
+      <c r="AT4" s="290"/>
+      <c r="AU4" s="290"/>
+      <c r="AV4" s="290"/>
       <c r="BB4" s="7"/>
-      <c r="BD4" s="283" t="s">
+      <c r="BD4" s="290" t="s">
         <v>18</v>
       </c>
-      <c r="BE4" s="283"/>
-      <c r="BF4" s="283"/>
-      <c r="BG4" s="283"/>
-      <c r="BH4" s="283"/>
+      <c r="BE4" s="290"/>
+      <c r="BF4" s="290"/>
+      <c r="BG4" s="290"/>
+      <c r="BH4" s="290"/>
     </row>
     <row r="5" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="12" t="s">
@@ -25735,23 +25936,23 @@
       <c r="T2" s="260"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="J3" s="271" t="s">
+      <c r="J3" s="278" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="271"/>
-      <c r="N3" s="271" t="s">
+      <c r="K3" s="278"/>
+      <c r="N3" s="278" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="271"/>
-      <c r="Q3" s="271" t="s">
+      <c r="O3" s="278"/>
+      <c r="Q3" s="278" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="271"/>
-      <c r="S3" s="271"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271"/>
-      <c r="W3" s="271"/>
+      <c r="R3" s="278"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278"/>
+      <c r="W3" s="278"/>
     </row>
     <row r="4" spans="2:24" s="15" customFormat="1">
       <c r="B4" s="21" t="s">
@@ -27408,23 +27609,23 @@
       <c r="U2"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="K3" s="271" t="s">
+      <c r="K3" s="278" t="s">
         <v>289</v>
       </c>
-      <c r="L3" s="271"/>
-      <c r="O3" s="271" t="s">
+      <c r="L3" s="278"/>
+      <c r="O3" s="278" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="271"/>
-      <c r="R3" s="271" t="s">
+      <c r="P3" s="278"/>
+      <c r="R3" s="278" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="271"/>
-      <c r="T3" s="271"/>
-      <c r="U3" s="271"/>
-      <c r="V3" s="271"/>
-      <c r="W3" s="271"/>
-      <c r="X3" s="271"/>
+      <c r="S3" s="278"/>
+      <c r="T3" s="278"/>
+      <c r="U3" s="278"/>
+      <c r="V3" s="278"/>
+      <c r="W3" s="278"/>
+      <c r="X3" s="278"/>
     </row>
     <row r="4" spans="2:24" s="15" customFormat="1">
       <c r="B4" s="21" t="s">
@@ -29214,23 +29415,23 @@
       <c r="T2" s="152"/>
     </row>
     <row r="3" spans="2:23">
-      <c r="J3" s="272" t="s">
+      <c r="J3" s="279" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="272"/>
-      <c r="N3" s="272" t="s">
+      <c r="K3" s="279"/>
+      <c r="N3" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="272"/>
-      <c r="Q3" s="272" t="s">
+      <c r="O3" s="279"/>
+      <c r="Q3" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="272"/>
-      <c r="S3" s="272"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="279"/>
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
     </row>
     <row r="4" spans="2:23" s="158" customFormat="1">
       <c r="B4" s="162" t="s">
@@ -30171,19 +30372,19 @@
       <c r="O3" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="273" t="s">
+      <c r="Q3" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="U3" s="273" t="s">
+      <c r="R3" s="280"/>
+      <c r="S3" s="280"/>
+      <c r="U3" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
+      <c r="V3" s="280"/>
+      <c r="W3" s="280"/>
+      <c r="X3" s="280"/>
+      <c r="Y3" s="280"/>
+      <c r="Z3" s="280"/>
     </row>
     <row r="4" spans="2:27" hidden="1">
       <c r="B4" s="147" t="s">
@@ -30544,23 +30745,23 @@
     <row r="10" spans="2:27">
       <c r="E10" s="146"/>
       <c r="F10" s="146"/>
-      <c r="J10" s="273" t="s">
+      <c r="J10" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="K10" s="273"/>
-      <c r="N10" s="273" t="s">
+      <c r="K10" s="280"/>
+      <c r="N10" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="273"/>
-      <c r="Q10" s="273" t="s">
+      <c r="O10" s="280"/>
+      <c r="Q10" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="273"/>
-      <c r="S10" s="273"/>
-      <c r="T10" s="273"/>
-      <c r="U10" s="273"/>
-      <c r="V10" s="273"/>
-      <c r="W10" s="273"/>
+      <c r="R10" s="280"/>
+      <c r="S10" s="280"/>
+      <c r="T10" s="280"/>
+      <c r="U10" s="280"/>
+      <c r="V10" s="280"/>
+      <c r="W10" s="280"/>
       <c r="X10" s="146"/>
       <c r="AA10" s="146"/>
     </row>
@@ -31230,19 +31431,19 @@
       <c r="O3" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="273" t="s">
+      <c r="Q3" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="U3" s="273" t="s">
+      <c r="R3" s="280"/>
+      <c r="S3" s="280"/>
+      <c r="U3" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
-      <c r="X3" s="273"/>
-      <c r="Y3" s="273"/>
-      <c r="Z3" s="273"/>
+      <c r="V3" s="280"/>
+      <c r="W3" s="280"/>
+      <c r="X3" s="280"/>
+      <c r="Y3" s="280"/>
+      <c r="Z3" s="280"/>
     </row>
     <row r="4" spans="2:27" hidden="1">
       <c r="B4" s="129" t="s">
@@ -31603,23 +31804,23 @@
     <row r="10" spans="2:27">
       <c r="E10" s="134"/>
       <c r="F10" s="134"/>
-      <c r="J10" s="273" t="s">
+      <c r="J10" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="K10" s="273"/>
-      <c r="N10" s="273" t="s">
+      <c r="K10" s="280"/>
+      <c r="N10" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="273"/>
-      <c r="Q10" s="273" t="s">
+      <c r="O10" s="280"/>
+      <c r="Q10" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="273"/>
-      <c r="S10" s="273"/>
-      <c r="T10" s="273"/>
-      <c r="U10" s="273"/>
-      <c r="V10" s="273"/>
-      <c r="W10" s="273"/>
+      <c r="R10" s="280"/>
+      <c r="S10" s="280"/>
+      <c r="T10" s="280"/>
+      <c r="U10" s="280"/>
+      <c r="V10" s="280"/>
+      <c r="W10" s="280"/>
       <c r="X10" s="134"/>
       <c r="AA10" s="134"/>
     </row>
@@ -32449,23 +32650,23 @@
     <row r="4" spans="2:27">
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
-      <c r="J4" s="273" t="s">
+      <c r="J4" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="K4" s="273"/>
-      <c r="N4" s="273" t="s">
+      <c r="K4" s="280"/>
+      <c r="N4" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="273"/>
-      <c r="Q4" s="273" t="s">
+      <c r="O4" s="280"/>
+      <c r="Q4" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="273"/>
-      <c r="S4" s="273"/>
-      <c r="T4" s="273"/>
-      <c r="U4" s="273"/>
-      <c r="V4" s="273"/>
-      <c r="W4" s="273"/>
+      <c r="R4" s="280"/>
+      <c r="S4" s="280"/>
+      <c r="T4" s="280"/>
+      <c r="U4" s="280"/>
+      <c r="V4" s="280"/>
+      <c r="W4" s="280"/>
       <c r="X4" s="146"/>
       <c r="AA4" s="146"/>
     </row>
@@ -33270,20 +33471,20 @@
       <c r="Q3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="271" t="s">
+      <c r="S3" s="278" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="271"/>
-      <c r="U3" s="274"/>
-      <c r="W3" s="271" t="s">
+      <c r="T3" s="278"/>
+      <c r="U3" s="281"/>
+      <c r="W3" s="278" t="s">
         <v>99</v>
       </c>
-      <c r="X3" s="271"/>
-      <c r="Y3" s="271"/>
-      <c r="Z3" s="271"/>
-      <c r="AA3" s="271"/>
-      <c r="AB3" s="271"/>
-      <c r="AC3" s="271"/>
+      <c r="X3" s="278"/>
+      <c r="Y3" s="278"/>
+      <c r="Z3" s="278"/>
+      <c r="AA3" s="278"/>
+      <c r="AB3" s="278"/>
+      <c r="AC3" s="278"/>
     </row>
     <row r="4" spans="2:29" s="15" customFormat="1">
       <c r="B4" s="15" t="s">

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\Github_Dropbox\AlkaneStudy.Gromacs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Dropbox\github_dropbox\alkanestudy.gromacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99C9918B-256D-48AC-89A3-B893FC84C81D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D20BB-2866-4C84-BEFB-954B81DF0E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="646" firstSheet="11" activeTab="11" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" firstSheet="6" activeTab="13" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim matrix" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2250" uniqueCount="541">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="544">
   <si>
     <t>Study</t>
   </si>
@@ -1882,6 +1882,15 @@
   </si>
   <si>
     <t>Molecule</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Crystal sims</t>
+  </si>
+  <si>
+    <t>Interface sims</t>
   </si>
 </sst>
 </file>
@@ -2270,7 +2279,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="293">
+  <cellXfs count="287">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -2797,9 +2806,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2956,34 +2962,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3071,6 +3059,9 @@
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3104,13 +3095,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -3120,14 +3111,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <fill>
         <patternFill>
@@ -11242,29 +11226,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:13" s="198" customFormat="1">
-      <c r="C11" s="198" t="s">
+    <row r="11" spans="2:13" s="197" customFormat="1">
+      <c r="C11" s="197" t="s">
         <v>452</v>
       </c>
-      <c r="D11" s="198">
+      <c r="D11" s="197">
         <v>0</v>
       </c>
-      <c r="E11" s="198">
+      <c r="E11" s="197">
         <v>0</v>
       </c>
-      <c r="F11" s="198">
+      <c r="F11" s="197">
         <v>0</v>
       </c>
-      <c r="G11" s="198">
+      <c r="G11" s="197">
         <v>0</v>
       </c>
-      <c r="H11" s="198">
+      <c r="H11" s="197">
         <v>0</v>
       </c>
-      <c r="I11" s="198">
+      <c r="I11" s="197">
         <v>0</v>
       </c>
-      <c r="J11" s="198">
+      <c r="J11" s="197">
         <v>0</v>
       </c>
     </row>
@@ -11375,29 +11359,29 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="2:13" s="198" customFormat="1">
-      <c r="C16" s="198" t="s">
+    <row r="16" spans="2:13" s="197" customFormat="1">
+      <c r="C16" s="197" t="s">
         <v>452</v>
       </c>
-      <c r="D16" s="198">
+      <c r="D16" s="197">
         <v>0</v>
       </c>
-      <c r="E16" s="198">
+      <c r="E16" s="197">
         <v>0</v>
       </c>
-      <c r="F16" s="198">
+      <c r="F16" s="197">
         <v>0</v>
       </c>
-      <c r="G16" s="198">
+      <c r="G16" s="197">
         <v>0</v>
       </c>
-      <c r="H16" s="198">
+      <c r="H16" s="197">
         <v>0</v>
       </c>
-      <c r="I16" s="198">
+      <c r="I16" s="197">
         <v>0</v>
       </c>
-      <c r="J16" s="198">
+      <c r="J16" s="197">
         <v>0</v>
       </c>
     </row>
@@ -11920,48 +11904,48 @@
     <col min="27" max="27" width="9" style="77"/>
     <col min="28" max="28" width="9" style="113"/>
     <col min="29" max="29" width="9" style="116"/>
-    <col min="30" max="30" width="9" style="227"/>
+    <col min="30" max="30" width="9" style="226"/>
     <col min="31" max="31" width="9" style="176"/>
     <col min="32" max="32" width="9" style="104"/>
-    <col min="33" max="33" width="9" style="205"/>
+    <col min="33" max="33" width="9" style="204"/>
     <col min="34" max="34" width="11.875" style="104" bestFit="1" customWidth="1"/>
     <col min="35" max="35" width="9" style="104"/>
-    <col min="36" max="36" width="9" style="205"/>
+    <col min="36" max="36" width="9" style="204"/>
     <col min="37" max="37" width="9.375" style="104" bestFit="1" customWidth="1"/>
     <col min="38" max="16384" width="9" style="104"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:36">
-      <c r="AC1" s="211"/>
-      <c r="AD1" s="224"/>
-      <c r="AE1" s="212"/>
-      <c r="AF1" s="204"/>
-      <c r="AG1" s="204"/>
-      <c r="AH1" s="204"/>
+      <c r="AC1" s="210"/>
+      <c r="AD1" s="223"/>
+      <c r="AE1" s="211"/>
+      <c r="AF1" s="203"/>
+      <c r="AG1" s="203"/>
+      <c r="AH1" s="203"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="286" t="s">
+      <c r="B2" s="280" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="286"/>
-      <c r="D2" s="286"/>
-      <c r="AC2" s="211"/>
-      <c r="AD2" s="224"/>
-      <c r="AE2" s="212"/>
-      <c r="AF2" s="204"/>
-      <c r="AG2" s="204"/>
-      <c r="AH2" s="204"/>
+      <c r="C2" s="280"/>
+      <c r="D2" s="280"/>
+      <c r="AC2" s="210"/>
+      <c r="AD2" s="223"/>
+      <c r="AE2" s="211"/>
+      <c r="AF2" s="203"/>
+      <c r="AG2" s="203"/>
+      <c r="AH2" s="203"/>
     </row>
     <row r="3" spans="2:36">
       <c r="C3" s="104" t="s">
         <v>267</v>
       </c>
-      <c r="AC3" s="211"/>
-      <c r="AD3" s="224"/>
-      <c r="AE3" s="212"/>
-      <c r="AF3" s="204"/>
-      <c r="AG3" s="204"/>
-      <c r="AH3" s="204"/>
+      <c r="AC3" s="210"/>
+      <c r="AD3" s="223"/>
+      <c r="AE3" s="211"/>
+      <c r="AF3" s="203"/>
+      <c r="AG3" s="203"/>
+      <c r="AH3" s="203"/>
     </row>
     <row r="4" spans="2:36">
       <c r="B4" s="79" t="s">
@@ -11970,12 +11954,12 @@
       <c r="C4" s="79" t="s">
         <v>271</v>
       </c>
-      <c r="AC4" s="211"/>
-      <c r="AD4" s="224"/>
-      <c r="AE4" s="212"/>
-      <c r="AF4" s="204"/>
-      <c r="AG4" s="204"/>
-      <c r="AH4" s="204"/>
+      <c r="AC4" s="210"/>
+      <c r="AD4" s="223"/>
+      <c r="AE4" s="211"/>
+      <c r="AF4" s="203"/>
+      <c r="AG4" s="203"/>
+      <c r="AH4" s="203"/>
     </row>
     <row r="5" spans="2:36">
       <c r="B5" s="104" t="s">
@@ -11987,12 +11971,12 @@
       <c r="D5" s="77" t="s">
         <v>277</v>
       </c>
-      <c r="AC5" s="211"/>
-      <c r="AD5" s="224"/>
-      <c r="AE5" s="212"/>
-      <c r="AF5" s="204"/>
-      <c r="AG5" s="204"/>
-      <c r="AH5" s="204"/>
+      <c r="AC5" s="210"/>
+      <c r="AD5" s="223"/>
+      <c r="AE5" s="211"/>
+      <c r="AF5" s="203"/>
+      <c r="AG5" s="203"/>
+      <c r="AH5" s="203"/>
     </row>
     <row r="6" spans="2:36">
       <c r="B6" s="104" t="s">
@@ -12001,31 +11985,31 @@
       <c r="C6" s="104">
         <v>109.2</v>
       </c>
-      <c r="AC6" s="211"/>
-      <c r="AD6" s="224"/>
-      <c r="AE6" s="212"/>
-      <c r="AF6" s="204"/>
-      <c r="AG6" s="204"/>
-      <c r="AH6" s="204"/>
+      <c r="AC6" s="210"/>
+      <c r="AD6" s="223"/>
+      <c r="AE6" s="211"/>
+      <c r="AF6" s="203"/>
+      <c r="AG6" s="203"/>
+      <c r="AH6" s="203"/>
     </row>
     <row r="7" spans="2:36">
-      <c r="AC7" s="211"/>
-      <c r="AD7" s="224"/>
-      <c r="AE7" s="212"/>
-      <c r="AF7" s="204"/>
-      <c r="AG7" s="204"/>
-      <c r="AH7" s="204"/>
+      <c r="AC7" s="210"/>
+      <c r="AD7" s="223"/>
+      <c r="AE7" s="211"/>
+      <c r="AF7" s="203"/>
+      <c r="AG7" s="203"/>
+      <c r="AH7" s="203"/>
     </row>
     <row r="8" spans="2:36">
       <c r="B8" s="104" t="s">
         <v>272</v>
       </c>
-      <c r="AC8" s="211"/>
-      <c r="AD8" s="224"/>
-      <c r="AE8" s="212"/>
-      <c r="AF8" s="204"/>
-      <c r="AG8" s="204"/>
-      <c r="AH8" s="204"/>
+      <c r="AC8" s="210"/>
+      <c r="AD8" s="223"/>
+      <c r="AE8" s="211"/>
+      <c r="AF8" s="203"/>
+      <c r="AG8" s="203"/>
+      <c r="AH8" s="203"/>
     </row>
     <row r="9" spans="2:36" ht="18">
       <c r="D9" s="77" t="s">
@@ -12037,12 +12021,12 @@
       <c r="F9" s="104" t="s">
         <v>71</v>
       </c>
-      <c r="AC9" s="211"/>
-      <c r="AD9" s="224"/>
-      <c r="AE9" s="212"/>
-      <c r="AF9" s="204"/>
-      <c r="AG9" s="204"/>
-      <c r="AH9" s="204"/>
+      <c r="AC9" s="210"/>
+      <c r="AD9" s="223"/>
+      <c r="AE9" s="211"/>
+      <c r="AF9" s="203"/>
+      <c r="AG9" s="203"/>
+      <c r="AH9" s="203"/>
     </row>
     <row r="10" spans="2:36">
       <c r="B10" s="79" t="s">
@@ -12067,12 +12051,12 @@
       <c r="I10" s="75" t="s">
         <v>237</v>
       </c>
-      <c r="AC10" s="211"/>
-      <c r="AD10" s="224"/>
-      <c r="AE10" s="212"/>
-      <c r="AF10" s="204"/>
-      <c r="AG10" s="204"/>
-      <c r="AH10" s="204"/>
+      <c r="AC10" s="210"/>
+      <c r="AD10" s="223"/>
+      <c r="AE10" s="211"/>
+      <c r="AF10" s="203"/>
+      <c r="AG10" s="203"/>
+      <c r="AH10" s="203"/>
     </row>
     <row r="11" spans="2:36">
       <c r="B11" s="104">
@@ -12097,12 +12081,12 @@
       <c r="I11" s="78">
         <v>2.837297</v>
       </c>
-      <c r="AC11" s="211"/>
-      <c r="AD11" s="224"/>
-      <c r="AE11" s="212"/>
-      <c r="AF11" s="204"/>
-      <c r="AG11" s="204"/>
-      <c r="AH11" s="204"/>
+      <c r="AC11" s="210"/>
+      <c r="AD11" s="223"/>
+      <c r="AE11" s="211"/>
+      <c r="AF11" s="203"/>
+      <c r="AG11" s="203"/>
+      <c r="AH11" s="203"/>
     </row>
     <row r="12" spans="2:36">
       <c r="C12" s="104" t="s">
@@ -12121,12 +12105,12 @@
       <c r="G12" s="101">
         <v>764.97</v>
       </c>
-      <c r="AC12" s="211"/>
-      <c r="AD12" s="224"/>
-      <c r="AE12" s="212"/>
-      <c r="AF12" s="204"/>
-      <c r="AG12" s="204"/>
-      <c r="AH12" s="204"/>
+      <c r="AC12" s="210"/>
+      <c r="AD12" s="223"/>
+      <c r="AE12" s="211"/>
+      <c r="AF12" s="203"/>
+      <c r="AG12" s="203"/>
+      <c r="AH12" s="203"/>
     </row>
     <row r="13" spans="2:36">
       <c r="C13" s="104" t="s">
@@ -12145,38 +12129,38 @@
       <c r="G13" s="101">
         <v>698.6</v>
       </c>
-      <c r="AC13" s="211"/>
-      <c r="AD13" s="224"/>
-      <c r="AE13" s="212"/>
-      <c r="AF13" s="204"/>
-      <c r="AG13" s="204"/>
-      <c r="AH13" s="204"/>
+      <c r="AC13" s="210"/>
+      <c r="AD13" s="223"/>
+      <c r="AE13" s="211"/>
+      <c r="AF13" s="203"/>
+      <c r="AG13" s="203"/>
+      <c r="AH13" s="203"/>
     </row>
     <row r="14" spans="2:36">
-      <c r="AC14" s="211"/>
-      <c r="AD14" s="224"/>
-      <c r="AE14" s="212"/>
-      <c r="AF14" s="204"/>
-      <c r="AG14" s="204"/>
-      <c r="AH14" s="204"/>
+      <c r="AC14" s="210"/>
+      <c r="AD14" s="223"/>
+      <c r="AE14" s="211"/>
+      <c r="AF14" s="203"/>
+      <c r="AG14" s="203"/>
+      <c r="AH14" s="203"/>
     </row>
     <row r="15" spans="2:36" s="149" customFormat="1">
       <c r="D15" s="77"/>
       <c r="E15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="77"/>
-      <c r="L15" s="285" t="s">
+      <c r="L15" s="279" t="s">
         <v>465</v>
       </c>
-      <c r="M15" s="285"/>
-      <c r="N15" s="285"/>
-      <c r="O15" s="285"/>
-      <c r="P15" s="285"/>
-      <c r="Q15" s="285"/>
-      <c r="R15" s="285"/>
-      <c r="S15" s="285"/>
-      <c r="T15" s="285"/>
-      <c r="U15" s="285"/>
+      <c r="M15" s="279"/>
+      <c r="N15" s="279"/>
+      <c r="O15" s="279"/>
+      <c r="P15" s="279"/>
+      <c r="Q15" s="279"/>
+      <c r="R15" s="279"/>
+      <c r="S15" s="279"/>
+      <c r="T15" s="279"/>
+      <c r="U15" s="279"/>
       <c r="V15" s="77"/>
       <c r="W15" s="114"/>
       <c r="X15" s="77"/>
@@ -12184,57 +12168,57 @@
       <c r="Z15" s="114"/>
       <c r="AA15" s="77"/>
       <c r="AB15" s="113"/>
-      <c r="AC15" s="211"/>
-      <c r="AD15" s="224"/>
-      <c r="AE15" s="212"/>
-      <c r="AF15" s="204"/>
-      <c r="AG15" s="204"/>
-      <c r="AH15" s="204"/>
-      <c r="AJ15" s="205"/>
+      <c r="AC15" s="210"/>
+      <c r="AD15" s="223"/>
+      <c r="AE15" s="211"/>
+      <c r="AF15" s="203"/>
+      <c r="AG15" s="203"/>
+      <c r="AH15" s="203"/>
+      <c r="AJ15" s="204"/>
     </row>
     <row r="16" spans="2:36">
-      <c r="C16" s="286" t="s">
+      <c r="C16" s="280" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="286"/>
-      <c r="E16" s="286"/>
-      <c r="F16" s="286"/>
-      <c r="G16" s="286"/>
-      <c r="H16" s="286"/>
-      <c r="I16" s="286"/>
-      <c r="J16" s="286"/>
+      <c r="D16" s="280"/>
+      <c r="E16" s="280"/>
+      <c r="F16" s="280"/>
+      <c r="G16" s="280"/>
+      <c r="H16" s="280"/>
+      <c r="I16" s="280"/>
+      <c r="J16" s="280"/>
       <c r="K16" s="148"/>
       <c r="L16" s="172"/>
-      <c r="M16" s="287">
+      <c r="M16" s="281">
         <v>1</v>
       </c>
-      <c r="N16" s="287"/>
-      <c r="O16" s="287"/>
-      <c r="P16" s="287">
+      <c r="N16" s="281"/>
+      <c r="O16" s="281"/>
+      <c r="P16" s="281">
         <v>2</v>
       </c>
-      <c r="Q16" s="287"/>
-      <c r="R16" s="287"/>
-      <c r="S16" s="287">
+      <c r="Q16" s="281"/>
+      <c r="R16" s="281"/>
+      <c r="S16" s="281">
         <v>3</v>
       </c>
-      <c r="T16" s="287"/>
-      <c r="U16" s="287"/>
-      <c r="V16" s="287">
+      <c r="T16" s="281"/>
+      <c r="U16" s="281"/>
+      <c r="V16" s="281">
         <v>4</v>
       </c>
-      <c r="W16" s="287"/>
-      <c r="X16" s="287"/>
-      <c r="Y16" s="287">
+      <c r="W16" s="281"/>
+      <c r="X16" s="281"/>
+      <c r="Y16" s="281">
         <v>5</v>
       </c>
-      <c r="Z16" s="287"/>
-      <c r="AA16" s="288"/>
-      <c r="AB16" s="282" t="s">
+      <c r="Z16" s="281"/>
+      <c r="AA16" s="282"/>
+      <c r="AB16" s="276" t="s">
         <v>278</v>
       </c>
-      <c r="AC16" s="283"/>
-      <c r="AD16" s="284"/>
+      <c r="AC16" s="277"/>
+      <c r="AD16" s="278"/>
     </row>
     <row r="17" spans="2:46" s="79" customFormat="1">
       <c r="D17" s="75" t="s">
@@ -12313,10 +12297,10 @@
       <c r="AC17" s="117" t="s">
         <v>21</v>
       </c>
-      <c r="AD17" s="225" t="s">
+      <c r="AD17" s="224" t="s">
         <v>24</v>
       </c>
-      <c r="AE17" s="210" t="s">
+      <c r="AE17" s="209" t="s">
         <v>236</v>
       </c>
       <c r="AF17" s="79" t="s">
@@ -12382,43 +12366,43 @@
       <c r="L18" s="174">
         <v>0</v>
       </c>
-      <c r="M18" s="202">
+      <c r="M18" s="201">
         <v>7.8752300000000002</v>
       </c>
       <c r="N18" s="114">
         <v>788.34</v>
       </c>
-      <c r="O18" s="202">
+      <c r="O18" s="201">
         <v>0.23599999999999999</v>
       </c>
-      <c r="P18" s="202">
+      <c r="P18" s="201">
         <v>7.8764500000000002</v>
       </c>
       <c r="Q18" s="114">
         <v>787.976</v>
       </c>
-      <c r="R18" s="202">
+      <c r="R18" s="201">
         <v>0.22620000000000001</v>
       </c>
-      <c r="S18" s="202">
+      <c r="S18" s="201">
         <v>7.8759399999999999</v>
       </c>
       <c r="T18" s="114">
         <v>788.12800000000004</v>
       </c>
-      <c r="U18" s="202">
+      <c r="U18" s="201">
         <v>0.25219999999999998</v>
       </c>
-      <c r="V18" s="202">
+      <c r="V18" s="201">
         <v>7.8750900000000001</v>
       </c>
       <c r="W18" s="114">
         <v>788.38300000000004</v>
       </c>
-      <c r="X18" s="202">
+      <c r="X18" s="201">
         <v>0.24</v>
       </c>
-      <c r="Y18" s="202">
+      <c r="Y18" s="201">
         <v>7.8756399999999998</v>
       </c>
       <c r="Z18" s="114">
@@ -12435,7 +12419,7 @@
         <f>AVERAGE(N18,Q18,T18,W18,Z18)</f>
         <v>788.20920000000001</v>
       </c>
-      <c r="AD18" s="226">
+      <c r="AD18" s="225">
         <f>AVERAGE(O18,R18,U18,X18,AA18)</f>
         <v>0.23443999999999998</v>
       </c>
@@ -12447,19 +12431,19 @@
         <f t="shared" ref="AF18:AF19" si="1">((AC18-$G$11)/$G$11)^2 + ((AE18-$D$11)/$D$11)^2</f>
         <v>0.12418757434425153</v>
       </c>
-      <c r="AG18" s="209">
+      <c r="AG18" s="208">
         <f t="shared" ref="AG18:AG19" si="2">AVERAGE(AF18,AF33,AF48)</f>
         <v>7.9172221805712512E-2</v>
       </c>
-      <c r="AH18" s="203">
+      <c r="AH18" s="202">
         <f t="shared" ref="AH18:AH19" si="3">((AC18-$G$11)/$G$11)^2</f>
         <v>5.5297345454252884E-4</v>
       </c>
-      <c r="AI18" s="209">
+      <c r="AI18" s="208">
         <f t="shared" ref="AI18:AI19" si="4">AVERAGE(AH18,AH33,AH48)</f>
         <v>4.5588749724199317E-4</v>
       </c>
-      <c r="AJ18" s="205">
+      <c r="AJ18" s="204">
         <f t="shared" ref="AJ18:AJ19" si="5">AI18/MAX(AI$20:AI$31)</f>
         <v>0.22424441231811351</v>
       </c>
@@ -12467,15 +12451,15 @@
         <f t="shared" ref="AK18:AK19" si="6" xml:space="preserve"> ((AE18-$D$11)/$D$11)^2</f>
         <v>0.123634600889709</v>
       </c>
-      <c r="AL18" s="223">
+      <c r="AL18" s="222">
         <f t="shared" ref="AL18:AL19" si="7">AVERAGE(AK18,AK33,AK48)</f>
         <v>7.8716334308470512E-2</v>
       </c>
-      <c r="AM18" s="204">
+      <c r="AM18" s="203">
         <f t="shared" ref="AM18:AM19" si="8">AL18/MAX(AL$20:AL$31)</f>
         <v>0.82030803679879782</v>
       </c>
-      <c r="AN18" s="204">
+      <c r="AN18" s="203">
         <f t="shared" ref="AN18:AN19" si="9">(AJ18+AM18)/2</f>
         <v>0.52227622455845568</v>
       </c>
@@ -12512,43 +12496,43 @@
       <c r="L19" s="174">
         <v>2E-3</v>
       </c>
-      <c r="M19" s="202">
+      <c r="M19" s="201">
         <v>7.8869499999999997</v>
       </c>
       <c r="N19" s="114">
         <v>784.83199999999999</v>
       </c>
-      <c r="O19" s="202">
+      <c r="O19" s="201">
         <v>0.245</v>
       </c>
-      <c r="P19" s="202">
+      <c r="P19" s="201">
         <v>7.8866100000000001</v>
       </c>
       <c r="Q19" s="114">
         <v>784.93200000000002</v>
       </c>
-      <c r="R19" s="202">
+      <c r="R19" s="201">
         <v>0.25569999999999998</v>
       </c>
-      <c r="S19" s="202">
+      <c r="S19" s="201">
         <v>7.8878899999999996</v>
       </c>
       <c r="T19" s="114">
         <v>784.55100000000004</v>
       </c>
-      <c r="U19" s="202">
+      <c r="U19" s="201">
         <v>0.26219999999999999</v>
       </c>
-      <c r="V19" s="202">
+      <c r="V19" s="201">
         <v>7.8864400000000003</v>
       </c>
       <c r="W19" s="114">
         <v>784.98299999999995</v>
       </c>
-      <c r="X19" s="202">
+      <c r="X19" s="201">
         <v>0.25790000000000002</v>
       </c>
-      <c r="Y19" s="202">
+      <c r="Y19" s="201">
         <v>7.8883099999999997</v>
       </c>
       <c r="Z19" s="114">
@@ -12565,7 +12549,7 @@
         <f t="shared" ref="AC19:AC31" si="13">AVERAGE(N19,Q19,T19,W19,Z19)</f>
         <v>784.745</v>
       </c>
-      <c r="AD19" s="226">
+      <c r="AD19" s="225">
         <f t="shared" ref="AD19:AD31" si="14">AVERAGE(O19,R19,U19,X19,AA19)</f>
         <v>0.25375999999999999</v>
       </c>
@@ -12577,19 +12561,19 @@
         <f t="shared" si="1"/>
         <v>8.9318780031918676E-2</v>
       </c>
-      <c r="AG19" s="209">
+      <c r="AG19" s="208">
         <f t="shared" si="2"/>
         <v>5.5857269810384795E-2</v>
       </c>
-      <c r="AH19" s="203">
+      <c r="AH19" s="202">
         <f t="shared" si="3"/>
         <v>3.616466989237615E-4</v>
       </c>
-      <c r="AI19" s="209">
+      <c r="AI19" s="208">
         <f t="shared" si="4"/>
         <v>2.7964245639908506E-4</v>
       </c>
-      <c r="AJ19" s="205">
+      <c r="AJ19" s="204">
         <f t="shared" si="5"/>
         <v>0.13755204666453016</v>
       </c>
@@ -12597,15 +12581,15 @@
         <f t="shared" si="6"/>
         <v>8.8957133332994917E-2</v>
       </c>
-      <c r="AL19" s="223">
+      <c r="AL19" s="222">
         <f t="shared" si="7"/>
         <v>5.5577627353985699E-2</v>
       </c>
-      <c r="AM19" s="204">
+      <c r="AM19" s="203">
         <f t="shared" si="8"/>
         <v>0.57917806749008172</v>
       </c>
-      <c r="AN19" s="204">
+      <c r="AN19" s="203">
         <f t="shared" si="9"/>
         <v>0.35836505707730593</v>
       </c>
@@ -12648,40 +12632,40 @@
       <c r="O20" s="77">
         <v>0.25719999999999998</v>
       </c>
-      <c r="P20" s="202">
+      <c r="P20" s="201">
         <v>7.8979400000000002</v>
       </c>
       <c r="Q20" s="114">
         <v>781.56</v>
       </c>
-      <c r="R20" s="202">
+      <c r="R20" s="201">
         <v>0.26740000000000003</v>
       </c>
-      <c r="S20" s="202">
+      <c r="S20" s="201">
         <v>7.8989799999999999</v>
       </c>
       <c r="T20" s="114">
         <v>781.25199999999995</v>
       </c>
-      <c r="U20" s="202">
+      <c r="U20" s="201">
         <v>0.25409999999999999</v>
       </c>
-      <c r="V20" s="202">
+      <c r="V20" s="201">
         <v>7.8992300000000002</v>
       </c>
       <c r="W20" s="114">
         <v>781.178</v>
       </c>
-      <c r="X20" s="202">
+      <c r="X20" s="201">
         <v>0.2787</v>
       </c>
-      <c r="Y20" s="187">
+      <c r="Y20" s="186">
         <v>7.8985399999999997</v>
       </c>
-      <c r="Z20" s="213">
+      <c r="Z20" s="212">
         <v>781.38099999999997</v>
       </c>
-      <c r="AA20" s="214">
+      <c r="AA20" s="213">
         <v>0.2702</v>
       </c>
       <c r="AB20" s="113">
@@ -12692,7 +12676,7 @@
         <f t="shared" si="13"/>
         <v>781.34299999999996</v>
       </c>
-      <c r="AD20" s="226">
+      <c r="AD20" s="225">
         <f t="shared" si="14"/>
         <v>0.26551999999999998</v>
       </c>
@@ -12704,19 +12688,19 @@
         <f>((AC20-$G$11)/$G$11)^2 + ((AE20-$D$11)/$D$11)^2</f>
         <v>7.0868384652496688E-2</v>
       </c>
-      <c r="AG20" s="209">
+      <c r="AG20" s="208">
         <f t="shared" ref="AG20:AG31" si="16">AVERAGE(AF20,AF35,AF50)</f>
         <v>4.4199405667272922E-2</v>
       </c>
-      <c r="AH20" s="203">
+      <c r="AH20" s="202">
         <f>((AC20-$G$11)/$G$11)^2</f>
         <v>2.1314255846613126E-4</v>
       </c>
-      <c r="AI20" s="209">
+      <c r="AI20" s="208">
         <f t="shared" ref="AI20:AI31" si="17">AVERAGE(AH20,AH35,AH50)</f>
         <v>1.4787124062663171E-4</v>
       </c>
-      <c r="AJ20" s="205">
+      <c r="AJ20" s="204">
         <f t="shared" ref="AJ20:AJ31" si="18">AI20/MAX(AI$20:AI$31)</f>
         <v>7.273570706298145E-2</v>
       </c>
@@ -12724,15 +12708,15 @@
         <f xml:space="preserve"> ((AE20-$D$11)/$D$11)^2</f>
         <v>7.0655242094030554E-2</v>
       </c>
-      <c r="AL20" s="223">
+      <c r="AL20" s="222">
         <f t="shared" ref="AL20:AL31" si="19">AVERAGE(AK20,AK35,AK50)</f>
         <v>4.4051534426646298E-2</v>
       </c>
-      <c r="AM20" s="204">
+      <c r="AM20" s="203">
         <f t="shared" ref="AM20:AM31" si="20">AL20/MAX(AL$20:AL$31)</f>
         <v>0.45906390383842316</v>
       </c>
-      <c r="AN20" s="204">
+      <c r="AN20" s="203">
         <f>(AJ20+AM20)/2</f>
         <v>0.2658998054507023</v>
       </c>
@@ -12802,13 +12786,13 @@
       <c r="X21" s="77">
         <v>0.28889999999999999</v>
       </c>
-      <c r="Y21" s="187">
+      <c r="Y21" s="186">
         <v>7.9113600000000002</v>
       </c>
-      <c r="Z21" s="213">
+      <c r="Z21" s="212">
         <v>777.58900000000006</v>
       </c>
-      <c r="AA21" s="214">
+      <c r="AA21" s="213">
         <v>0.25640000000000002</v>
       </c>
       <c r="AB21" s="113">
@@ -12819,7 +12803,7 @@
         <f t="shared" si="13"/>
         <v>777.86860000000001</v>
       </c>
-      <c r="AD21" s="226">
+      <c r="AD21" s="225">
         <f t="shared" si="14"/>
         <v>0.27583999999999997</v>
       </c>
@@ -12831,19 +12815,19 @@
         <f t="shared" ref="AF21:AF31" si="22">((AC21-$G$11)/$G$11)^2 + ((AE21-$D$11)/$D$11)^2</f>
         <v>5.6438709077886604E-2</v>
       </c>
-      <c r="AG21" s="209">
+      <c r="AG21" s="208">
         <f t="shared" si="16"/>
         <v>3.2063050535106795E-2</v>
       </c>
-      <c r="AH21" s="203">
+      <c r="AH21" s="202">
         <f t="shared" ref="AH21:AH31" si="23">((AC21-$G$11)/$G$11)^2</f>
         <v>1.0176332162394431E-4</v>
       </c>
-      <c r="AI21" s="209">
+      <c r="AI21" s="208">
         <f t="shared" si="17"/>
         <v>6.4496859282964377E-5</v>
       </c>
-      <c r="AJ21" s="205">
+      <c r="AJ21" s="204">
         <f t="shared" si="18"/>
         <v>3.172506461302483E-2</v>
       </c>
@@ -12851,15 +12835,15 @@
         <f t="shared" ref="AK21:AK31" si="24" xml:space="preserve"> ((AE21-$D$11)/$D$11)^2</f>
         <v>5.6336945756262656E-2</v>
       </c>
-      <c r="AL21" s="223">
+      <c r="AL21" s="222">
         <f t="shared" si="19"/>
         <v>3.1998553675823833E-2</v>
       </c>
-      <c r="AM21" s="204">
+      <c r="AM21" s="203">
         <f t="shared" si="20"/>
         <v>0.33345900792780481</v>
       </c>
-      <c r="AN21" s="204">
+      <c r="AN21" s="203">
         <f t="shared" ref="AN21:AN31" si="25">(AJ21+AM21)/2</f>
         <v>0.18259203627041481</v>
       </c>
@@ -12929,13 +12913,13 @@
       <c r="X22" s="77">
         <v>0.28149999999999997</v>
       </c>
-      <c r="Y22" s="187">
+      <c r="Y22" s="186">
         <v>7.9214599999999997</v>
       </c>
-      <c r="Z22" s="213">
+      <c r="Z22" s="212">
         <v>774.61800000000005</v>
       </c>
-      <c r="AA22" s="214">
+      <c r="AA22" s="213">
         <v>0.28360000000000002</v>
       </c>
       <c r="AB22" s="113">
@@ -12946,7 +12930,7 @@
         <f t="shared" si="13"/>
         <v>774.4896</v>
       </c>
-      <c r="AD22" s="226">
+      <c r="AD22" s="225">
         <f t="shared" si="14"/>
         <v>0.29094000000000003</v>
       </c>
@@ -12958,19 +12942,19 @@
         <f t="shared" si="22"/>
         <v>3.8325894451561739E-2</v>
       </c>
-      <c r="AG22" s="209">
+      <c r="AG22" s="208">
         <f t="shared" si="16"/>
         <v>2.0113125309989526E-2</v>
       </c>
-      <c r="AH22" s="203">
+      <c r="AH22" s="202">
         <f t="shared" si="23"/>
         <v>3.249044409968624E-5</v>
       </c>
-      <c r="AI22" s="209">
+      <c r="AI22" s="208">
         <f t="shared" si="17"/>
         <v>2.6545963205419891E-5</v>
       </c>
-      <c r="AJ22" s="205">
+      <c r="AJ22" s="204">
         <f t="shared" si="18"/>
         <v>1.305757221777417E-2</v>
       </c>
@@ -12978,15 +12962,15 @@
         <f t="shared" si="24"/>
         <v>3.8293404007462055E-2</v>
       </c>
-      <c r="AL22" s="223">
+      <c r="AL22" s="222">
         <f t="shared" si="19"/>
         <v>2.0086579346784105E-2</v>
       </c>
-      <c r="AM22" s="204">
+      <c r="AM22" s="203">
         <f t="shared" si="20"/>
         <v>0.20932354910473353</v>
       </c>
-      <c r="AN22" s="204">
+      <c r="AN22" s="203">
         <f t="shared" si="25"/>
         <v>0.11119056066125385</v>
       </c>
@@ -13056,13 +13040,13 @@
       <c r="X23" s="77">
         <v>0.2878</v>
       </c>
-      <c r="Y23" s="187">
+      <c r="Y23" s="186">
         <v>7.9344999999999999</v>
       </c>
-      <c r="Z23" s="213">
+      <c r="Z23" s="212">
         <v>770.80600000000004</v>
       </c>
-      <c r="AA23" s="214">
+      <c r="AA23" s="213">
         <v>0.30230000000000001</v>
       </c>
       <c r="AB23" s="113">
@@ -13073,7 +13057,7 @@
         <f t="shared" si="13"/>
         <v>770.85719999999992</v>
       </c>
-      <c r="AD23" s="226">
+      <c r="AD23" s="225">
         <f t="shared" si="14"/>
         <v>0.30224000000000001</v>
       </c>
@@ -13085,19 +13069,19 @@
         <f t="shared" si="22"/>
         <v>2.7074110707141771E-2</v>
       </c>
-      <c r="AG23" s="209">
+      <c r="AG23" s="208">
         <f t="shared" si="16"/>
         <v>1.4359552226687172E-2</v>
       </c>
-      <c r="AH23" s="203">
+      <c r="AH23" s="202">
         <f t="shared" si="23"/>
         <v>9.6677845581019748E-7</v>
       </c>
-      <c r="AI23" s="209">
+      <c r="AI23" s="208">
         <f t="shared" si="17"/>
         <v>3.6638926172018246E-5</v>
       </c>
-      <c r="AJ23" s="205">
+      <c r="AJ23" s="204">
         <f t="shared" si="18"/>
         <v>1.8022153529360211E-2</v>
       </c>
@@ -13105,15 +13089,15 @@
         <f t="shared" si="24"/>
         <v>2.7073143928685959E-2</v>
       </c>
-      <c r="AL23" s="223">
+      <c r="AL23" s="222">
         <f t="shared" si="19"/>
         <v>1.4322913300515152E-2</v>
       </c>
-      <c r="AM23" s="204">
+      <c r="AM23" s="203">
         <f t="shared" si="20"/>
         <v>0.14926001056836136</v>
       </c>
-      <c r="AN23" s="204">
+      <c r="AN23" s="203">
         <f t="shared" si="25"/>
         <v>8.3641082048860782E-2</v>
       </c>
@@ -13183,13 +13167,13 @@
       <c r="X24" s="77">
         <v>0.3422</v>
       </c>
-      <c r="Y24" s="187">
+      <c r="Y24" s="186">
         <v>7.9451999999999998</v>
       </c>
-      <c r="Z24" s="213">
+      <c r="Z24" s="212">
         <v>767.69600000000003</v>
       </c>
-      <c r="AA24" s="214">
+      <c r="AA24" s="213">
         <v>0.31690000000000002</v>
       </c>
       <c r="AB24" s="113">
@@ -13200,7 +13184,7 @@
         <f t="shared" si="13"/>
         <v>767.66340000000002</v>
       </c>
-      <c r="AD24" s="226">
+      <c r="AD24" s="225">
         <f t="shared" si="14"/>
         <v>0.32745999999999997</v>
       </c>
@@ -13212,19 +13196,19 @@
         <f t="shared" si="22"/>
         <v>9.0184204173420837E-3</v>
       </c>
-      <c r="AG24" s="209">
+      <c r="AG24" s="208">
         <f t="shared" si="16"/>
         <v>7.9582249881878751E-3</v>
       </c>
-      <c r="AH24" s="203">
+      <c r="AH24" s="202">
         <f t="shared" si="23"/>
         <v>1.0010925581634619E-5</v>
       </c>
-      <c r="AI24" s="209">
+      <c r="AI24" s="208">
         <f t="shared" si="17"/>
         <v>9.5193087852289443E-5</v>
       </c>
-      <c r="AJ24" s="205">
+      <c r="AJ24" s="204">
         <f t="shared" si="18"/>
         <v>4.6824091845739053E-2</v>
       </c>
@@ -13232,15 +13216,15 @@
         <f t="shared" si="24"/>
         <v>9.0084094917604485E-3</v>
       </c>
-      <c r="AL24" s="223">
+      <c r="AL24" s="222">
         <f t="shared" si="19"/>
         <v>7.8630319003355851E-3</v>
       </c>
-      <c r="AM24" s="204">
+      <c r="AM24" s="203">
         <f t="shared" si="20"/>
         <v>8.1941166571275675E-2</v>
       </c>
-      <c r="AN24" s="204">
+      <c r="AN24" s="203">
         <f t="shared" si="25"/>
         <v>6.4382629208507361E-2</v>
       </c>
@@ -13310,13 +13294,13 @@
       <c r="X25" s="77">
         <v>0.32579999999999998</v>
       </c>
-      <c r="Y25" s="187">
+      <c r="Y25" s="186">
         <v>7.9586199999999998</v>
       </c>
-      <c r="Z25" s="213">
+      <c r="Z25" s="212">
         <v>763.81899999999996</v>
       </c>
-      <c r="AA25" s="214">
+      <c r="AA25" s="213">
         <v>0.35110000000000002</v>
       </c>
       <c r="AB25" s="113">
@@ -13327,7 +13311,7 @@
         <f t="shared" si="13"/>
         <v>764.04340000000002</v>
       </c>
-      <c r="AD25" s="226">
+      <c r="AD25" s="225">
         <f t="shared" si="14"/>
         <v>0.33501999999999998</v>
       </c>
@@ -13339,19 +13323,19 @@
         <f t="shared" si="22"/>
         <v>5.5554238976532177E-3</v>
       </c>
-      <c r="AG25" s="209">
+      <c r="AG25" s="208">
         <f t="shared" si="16"/>
         <v>7.5795139155868203E-3</v>
       </c>
-      <c r="AH25" s="203">
+      <c r="AH25" s="202">
         <f t="shared" si="23"/>
         <v>6.1853394364536949E-5</v>
       </c>
-      <c r="AI25" s="209">
+      <c r="AI25" s="208">
         <f t="shared" si="17"/>
         <v>2.0367665392931268E-4</v>
       </c>
-      <c r="AJ25" s="205">
+      <c r="AJ25" s="204">
         <f t="shared" si="18"/>
         <v>0.10018557613360975</v>
       </c>
@@ -13359,15 +13343,15 @@
         <f t="shared" si="24"/>
         <v>5.4935705032886804E-3</v>
       </c>
-      <c r="AL25" s="223">
+      <c r="AL25" s="222">
         <f t="shared" si="19"/>
         <v>7.3758372616575078E-3</v>
       </c>
-      <c r="AM25" s="204">
+      <c r="AM25" s="203">
         <f t="shared" si="20"/>
         <v>7.6864079571431626E-2</v>
       </c>
-      <c r="AN25" s="204">
+      <c r="AN25" s="203">
         <f t="shared" si="25"/>
         <v>8.8524827852520693E-2</v>
       </c>
@@ -13437,13 +13421,13 @@
       <c r="X26" s="77">
         <v>0.36259999999999998</v>
       </c>
-      <c r="Y26" s="187">
+      <c r="Y26" s="186">
         <v>7.9694599999999998</v>
       </c>
-      <c r="Z26" s="213">
+      <c r="Z26" s="212">
         <v>760.70500000000004</v>
       </c>
-      <c r="AA26" s="214">
+      <c r="AA26" s="213">
         <v>0.36849999999999999</v>
       </c>
       <c r="AB26" s="113">
@@ -13454,7 +13438,7 @@
         <f t="shared" si="13"/>
         <v>760.33560000000011</v>
       </c>
-      <c r="AD26" s="226">
+      <c r="AD26" s="225">
         <f t="shared" si="14"/>
         <v>0.35700000000000004</v>
       </c>
@@ -13466,19 +13450,19 @@
         <f t="shared" si="22"/>
         <v>3.4259878837219088E-4</v>
       </c>
-      <c r="AG26" s="209">
+      <c r="AG26" s="208">
         <f t="shared" si="16"/>
         <v>8.915444507150946E-3</v>
       </c>
-      <c r="AH26" s="203">
+      <c r="AH26" s="202">
         <f t="shared" si="23"/>
         <v>1.607669887604305E-4</v>
       </c>
-      <c r="AI26" s="209">
+      <c r="AI26" s="208">
         <f t="shared" si="17"/>
         <v>3.6827814227987694E-4</v>
       </c>
-      <c r="AJ26" s="205">
+      <c r="AJ26" s="204">
         <f t="shared" si="18"/>
         <v>0.18115064809798981</v>
       </c>
@@ -13486,15 +13470,15 @@
         <f t="shared" si="24"/>
         <v>1.8183179961176038E-4</v>
       </c>
-      <c r="AL26" s="223">
+      <c r="AL26" s="222">
         <f t="shared" si="19"/>
         <v>8.5471663648710675E-3</v>
       </c>
-      <c r="AM26" s="204">
+      <c r="AM26" s="203">
         <f t="shared" si="20"/>
         <v>8.9070576298490425E-2</v>
       </c>
-      <c r="AN26" s="204">
+      <c r="AN26" s="203">
         <f t="shared" si="25"/>
         <v>0.13511061219824011</v>
       </c>
@@ -13564,13 +13548,13 @@
       <c r="X27" s="77">
         <v>0.41460000000000002</v>
       </c>
-      <c r="Y27" s="187">
+      <c r="Y27" s="186">
         <v>7.98407</v>
       </c>
-      <c r="Z27" s="213">
+      <c r="Z27" s="212">
         <v>756.53800000000001</v>
       </c>
-      <c r="AA27" s="214">
+      <c r="AA27" s="213">
         <v>0.4042</v>
       </c>
       <c r="AB27" s="113">
@@ -13581,7 +13565,7 @@
         <f t="shared" si="13"/>
         <v>756.78340000000003</v>
       </c>
-      <c r="AD27" s="226">
+      <c r="AD27" s="225">
         <f t="shared" si="14"/>
         <v>0.38566</v>
       </c>
@@ -13593,19 +13577,19 @@
         <f>((AC27-$G$11)/$G$11)^2 + ((AE27-$D$11)/$D$11)^2</f>
         <v>4.6020700476169926E-3</v>
       </c>
-      <c r="AG27" s="209">
+      <c r="AG27" s="208">
         <f t="shared" si="16"/>
         <v>1.5852397761509901E-2</v>
       </c>
-      <c r="AH27" s="203">
+      <c r="AH27" s="202">
         <f t="shared" si="23"/>
         <v>2.9901464718196547E-4</v>
       </c>
-      <c r="AI27" s="209">
+      <c r="AI27" s="208">
         <f t="shared" si="17"/>
         <v>5.7647310893134244E-4</v>
       </c>
-      <c r="AJ27" s="205">
+      <c r="AJ27" s="204">
         <f t="shared" si="18"/>
         <v>0.28355871637533731</v>
       </c>
@@ -13613,15 +13597,15 @@
         <f t="shared" si="24"/>
         <v>4.3030554004350272E-3</v>
       </c>
-      <c r="AL27" s="223">
+      <c r="AL27" s="222">
         <f t="shared" si="19"/>
         <v>1.5275924652578557E-2</v>
       </c>
-      <c r="AM27" s="204">
+      <c r="AM27" s="203">
         <f t="shared" si="20"/>
         <v>0.1591914038188976</v>
       </c>
-      <c r="AN27" s="204">
+      <c r="AN27" s="203">
         <f t="shared" si="25"/>
         <v>0.22137506009711744</v>
       </c>
@@ -13673,13 +13657,13 @@
       <c r="R28" s="77">
         <v>0.4047</v>
       </c>
-      <c r="S28" s="187">
+      <c r="S28" s="186">
         <v>7.9965299999999999</v>
       </c>
-      <c r="T28" s="213">
+      <c r="T28" s="212">
         <v>753.00800000000004</v>
       </c>
-      <c r="U28" s="187">
+      <c r="U28" s="186">
         <v>0.3866</v>
       </c>
       <c r="V28" s="77">
@@ -13691,24 +13675,24 @@
       <c r="X28" s="77">
         <v>0.4269</v>
       </c>
-      <c r="Y28" s="187">
+      <c r="Y28" s="186">
         <v>7.9958200000000001</v>
       </c>
-      <c r="Z28" s="213">
+      <c r="Z28" s="212">
         <v>753.20699999999999</v>
       </c>
-      <c r="AA28" s="214">
+      <c r="AA28" s="213">
         <v>0.38740000000000002</v>
       </c>
-      <c r="AB28" s="231">
+      <c r="AB28" s="230">
         <f t="shared" si="12"/>
         <v>7.9961000000000002</v>
       </c>
-      <c r="AC28" s="232">
+      <c r="AC28" s="231">
         <f t="shared" si="13"/>
         <v>753.12940000000003</v>
       </c>
-      <c r="AD28" s="233">
+      <c r="AD28" s="232">
         <f t="shared" si="14"/>
         <v>0.40104000000000006</v>
       </c>
@@ -13720,19 +13704,19 @@
         <f t="shared" si="22"/>
         <v>1.2143059360961618E-2</v>
       </c>
-      <c r="AG28" s="209">
+      <c r="AG28" s="208">
         <f t="shared" si="16"/>
         <v>3.1256467218190302E-2</v>
       </c>
-      <c r="AH28" s="203">
+      <c r="AH28" s="202">
         <f t="shared" si="23"/>
         <v>4.8562400642059511E-4</v>
       </c>
-      <c r="AI28" s="209">
+      <c r="AI28" s="208">
         <f t="shared" si="17"/>
         <v>8.5450713207754162E-4</v>
       </c>
-      <c r="AJ28" s="205">
+      <c r="AJ28" s="204">
         <f t="shared" si="18"/>
         <v>0.42031959817632475</v>
       </c>
@@ -13740,15 +13724,15 @@
         <f t="shared" si="24"/>
         <v>1.1657435354541022E-2</v>
       </c>
-      <c r="AL28" s="223">
+      <c r="AL28" s="222">
         <f t="shared" si="19"/>
         <v>3.0401960086112761E-2</v>
       </c>
-      <c r="AM28" s="204">
+      <c r="AM28" s="203">
         <f t="shared" si="20"/>
         <v>0.31682080234255694</v>
       </c>
-      <c r="AN28" s="204">
+      <c r="AN28" s="203">
         <f t="shared" si="25"/>
         <v>0.36857020025944087</v>
       </c>
@@ -13782,13 +13766,13 @@
       <c r="R29" s="77">
         <v>0.42870000000000003</v>
       </c>
-      <c r="S29" s="187">
+      <c r="S29" s="186">
         <v>8.0101700000000005</v>
       </c>
-      <c r="T29" s="213">
+      <c r="T29" s="212">
         <v>749.16800000000001</v>
       </c>
-      <c r="U29" s="187">
+      <c r="U29" s="186">
         <v>0.40550000000000003</v>
       </c>
       <c r="V29" s="77">
@@ -13800,24 +13784,24 @@
       <c r="X29" s="77">
         <v>0.4017</v>
       </c>
-      <c r="Y29" s="187">
+      <c r="Y29" s="186">
         <v>8.0105000000000004</v>
       </c>
-      <c r="Z29" s="213">
+      <c r="Z29" s="212">
         <v>749.07399999999996</v>
       </c>
-      <c r="AA29" s="214">
+      <c r="AA29" s="213">
         <v>0.41360000000000002</v>
       </c>
-      <c r="AB29" s="231">
+      <c r="AB29" s="230">
         <f t="shared" si="12"/>
         <v>8.0100420000000003</v>
       </c>
-      <c r="AC29" s="232">
+      <c r="AC29" s="231">
         <f t="shared" si="13"/>
         <v>749.20360000000005</v>
       </c>
-      <c r="AD29" s="233">
+      <c r="AD29" s="232">
         <f t="shared" si="14"/>
         <v>0.41283999999999998</v>
       </c>
@@ -13829,19 +13813,19 @@
         <f t="shared" si="22"/>
         <v>2.0457611180917316E-2</v>
       </c>
-      <c r="AG29" s="209">
+      <c r="AG29" s="208">
         <f t="shared" si="16"/>
         <v>4.4721053831354857E-2</v>
       </c>
-      <c r="AH29" s="203">
+      <c r="AH29" s="202">
         <f t="shared" si="23"/>
         <v>7.3628965591177574E-4</v>
       </c>
-      <c r="AI29" s="209">
+      <c r="AI29" s="208">
         <f t="shared" si="17"/>
         <v>1.1847081379912764E-3</v>
       </c>
-      <c r="AJ29" s="205">
+      <c r="AJ29" s="204">
         <f t="shared" si="18"/>
         <v>0.5827406581218898</v>
       </c>
@@ -13849,27 +13833,27 @@
         <f t="shared" si="24"/>
         <v>1.9721321525005539E-2</v>
       </c>
-      <c r="AL29" s="223">
+      <c r="AL29" s="222">
         <f t="shared" si="19"/>
         <v>4.3536345693363586E-2</v>
       </c>
-      <c r="AM29" s="204">
+      <c r="AM29" s="203">
         <f t="shared" si="20"/>
         <v>0.45369508855894281</v>
       </c>
-      <c r="AN29" s="204">
+      <c r="AN29" s="203">
         <f t="shared" si="25"/>
         <v>0.51821787334041636</v>
       </c>
     </row>
-    <row r="30" spans="2:46" s="203" customFormat="1">
-      <c r="D30" s="202"/>
-      <c r="E30" s="202"/>
+    <row r="30" spans="2:46" s="202" customFormat="1">
+      <c r="D30" s="201"/>
+      <c r="E30" s="201"/>
       <c r="G30" s="78"/>
-      <c r="H30" s="202"/>
+      <c r="H30" s="201"/>
       <c r="I30" s="102"/>
       <c r="J30" s="102"/>
-      <c r="K30" s="205"/>
+      <c r="K30" s="204"/>
       <c r="L30" s="174">
         <v>2.4E-2</v>
       </c>
@@ -13891,13 +13875,13 @@
       <c r="R30" s="77">
         <v>0.44979999999999998</v>
       </c>
-      <c r="S30" s="187">
+      <c r="S30" s="186">
         <v>8.0225799999999996</v>
       </c>
-      <c r="T30" s="213">
+      <c r="T30" s="212">
         <v>745.69600000000003</v>
       </c>
-      <c r="U30" s="187">
+      <c r="U30" s="186">
         <v>0.43509999999999999</v>
       </c>
       <c r="V30" s="77">
@@ -13909,24 +13893,24 @@
       <c r="X30" s="77">
         <v>0.4602</v>
       </c>
-      <c r="Y30" s="187">
+      <c r="Y30" s="186">
         <v>8.0231899999999996</v>
       </c>
-      <c r="Z30" s="213">
+      <c r="Z30" s="212">
         <v>745.52700000000004</v>
       </c>
-      <c r="AA30" s="214">
+      <c r="AA30" s="213">
         <v>0.44619999999999999</v>
       </c>
-      <c r="AB30" s="231">
+      <c r="AB30" s="230">
         <f t="shared" si="12"/>
         <v>8.0225979999999986</v>
       </c>
-      <c r="AC30" s="232">
+      <c r="AC30" s="231">
         <f t="shared" si="13"/>
         <v>745.69179999999994</v>
       </c>
-      <c r="AD30" s="233">
+      <c r="AD30" s="232">
         <f t="shared" si="14"/>
         <v>0.44298000000000004</v>
       </c>
@@ -13938,19 +13922,19 @@
         <f t="shared" si="22"/>
         <v>5.0983357400704109E-2</v>
       </c>
-      <c r="AG30" s="209">
+      <c r="AG30" s="208">
         <f t="shared" si="16"/>
         <v>7.3738325194352597E-2</v>
       </c>
-      <c r="AH30" s="203">
+      <c r="AH30" s="202">
         <f t="shared" si="23"/>
         <v>1.0045631885028544E-3</v>
       </c>
-      <c r="AI30" s="209">
+      <c r="AI30" s="208">
         <f t="shared" si="17"/>
         <v>1.577925805470253E-3</v>
       </c>
-      <c r="AJ30" s="205">
+      <c r="AJ30" s="204">
         <f t="shared" si="18"/>
         <v>0.77615869500680268</v>
       </c>
@@ -13958,27 +13942,27 @@
         <f t="shared" si="24"/>
         <v>4.9978794212201257E-2</v>
       </c>
-      <c r="AL30" s="223">
+      <c r="AL30" s="222">
         <f t="shared" si="19"/>
         <v>7.2160399388882357E-2</v>
       </c>
-      <c r="AM30" s="204">
+      <c r="AM30" s="203">
         <f t="shared" si="20"/>
         <v>0.75198821283197792</v>
       </c>
-      <c r="AN30" s="204">
+      <c r="AN30" s="203">
         <f t="shared" si="25"/>
         <v>0.7640734539193903</v>
       </c>
     </row>
-    <row r="31" spans="2:46" s="203" customFormat="1">
-      <c r="D31" s="202"/>
-      <c r="E31" s="202"/>
+    <row r="31" spans="2:46" s="202" customFormat="1">
+      <c r="D31" s="201"/>
+      <c r="E31" s="201"/>
       <c r="G31" s="78"/>
-      <c r="H31" s="202"/>
+      <c r="H31" s="201"/>
       <c r="I31" s="102"/>
       <c r="J31" s="102"/>
-      <c r="K31" s="205"/>
+      <c r="K31" s="204"/>
       <c r="L31" s="174">
         <v>2.5999999999999999E-2</v>
       </c>
@@ -14000,13 +13984,13 @@
       <c r="R31" s="77">
         <v>0.48039999999999999</v>
       </c>
-      <c r="S31" s="187">
+      <c r="S31" s="186">
         <v>8.0371900000000007</v>
       </c>
-      <c r="T31" s="213">
+      <c r="T31" s="212">
         <v>741.63800000000003</v>
       </c>
-      <c r="U31" s="187">
+      <c r="U31" s="186">
         <v>0.433</v>
       </c>
       <c r="V31" s="77">
@@ -14018,24 +14002,24 @@
       <c r="X31" s="77">
         <v>0.43569999999999998</v>
       </c>
-      <c r="Y31" s="187">
+      <c r="Y31" s="186">
         <v>8.0369399999999995</v>
       </c>
-      <c r="Z31" s="213">
+      <c r="Z31" s="212">
         <v>741.70799999999997</v>
       </c>
-      <c r="AA31" s="214">
+      <c r="AA31" s="213">
         <v>0.46710000000000002</v>
       </c>
-      <c r="AB31" s="231">
+      <c r="AB31" s="230">
         <f t="shared" si="12"/>
         <v>8.036958000000002</v>
       </c>
-      <c r="AC31" s="232">
+      <c r="AC31" s="231">
         <f t="shared" si="13"/>
         <v>741.702</v>
       </c>
-      <c r="AD31" s="233">
+      <c r="AD31" s="232">
         <f t="shared" si="14"/>
         <v>0.45405999999999996</v>
       </c>
@@ -14047,19 +14031,19 @@
         <f t="shared" si="22"/>
         <v>6.5880438508083755E-2</v>
       </c>
-      <c r="AG31" s="209">
+      <c r="AG31" s="208">
         <f t="shared" si="16"/>
         <v>9.7992475808530433E-2</v>
       </c>
-      <c r="AH31" s="203">
+      <c r="AH31" s="202">
         <f t="shared" si="23"/>
         <v>1.3598194943492605E-3</v>
       </c>
-      <c r="AI31" s="209">
+      <c r="AI31" s="208">
         <f t="shared" si="17"/>
         <v>2.0329937880247842E-3</v>
       </c>
-      <c r="AJ31" s="205">
+      <c r="AJ31" s="204">
         <f t="shared" si="18"/>
         <v>1</v>
       </c>
@@ -14067,15 +14051,15 @@
         <f t="shared" si="24"/>
         <v>6.4520619013734501E-2</v>
       </c>
-      <c r="AL31" s="223">
+      <c r="AL31" s="222">
         <f t="shared" si="19"/>
         <v>9.5959482020505638E-2</v>
       </c>
-      <c r="AM31" s="204">
+      <c r="AM31" s="203">
         <f t="shared" si="20"/>
         <v>1</v>
       </c>
-      <c r="AN31" s="204">
+      <c r="AN31" s="203">
         <f t="shared" si="25"/>
         <v>1</v>
       </c>
@@ -14084,26 +14068,26 @@
       <c r="I32" s="102"/>
       <c r="K32" s="148"/>
       <c r="L32" s="174"/>
-      <c r="M32" s="202"/>
-      <c r="O32" s="202"/>
-      <c r="P32" s="202"/>
-      <c r="R32" s="202"/>
-      <c r="S32" s="202"/>
-      <c r="U32" s="202"/>
-      <c r="V32" s="202"/>
-      <c r="X32" s="202"/>
-      <c r="Y32" s="187"/>
-      <c r="Z32" s="213"/>
-      <c r="AA32" s="214"/>
-      <c r="AD32" s="226"/>
+      <c r="M32" s="201"/>
+      <c r="O32" s="201"/>
+      <c r="P32" s="201"/>
+      <c r="R32" s="201"/>
+      <c r="S32" s="201"/>
+      <c r="U32" s="201"/>
+      <c r="V32" s="201"/>
+      <c r="X32" s="201"/>
+      <c r="Y32" s="186"/>
+      <c r="Z32" s="212"/>
+      <c r="AA32" s="213"/>
+      <c r="AD32" s="225"/>
       <c r="AF32" s="102"/>
-      <c r="AG32" s="209"/>
-      <c r="AH32" s="203"/>
-      <c r="AI32" s="223"/>
+      <c r="AG32" s="208"/>
+      <c r="AH32" s="202"/>
+      <c r="AI32" s="222"/>
       <c r="AK32" s="102"/>
-      <c r="AL32" s="223"/>
-      <c r="AM32" s="204"/>
-      <c r="AN32" s="204"/>
+      <c r="AL32" s="222"/>
+      <c r="AM32" s="203"/>
+      <c r="AN32" s="203"/>
     </row>
     <row r="33" spans="3:40">
       <c r="C33" s="104" t="s">
@@ -14133,60 +14117,60 @@
       <c r="L33" s="174">
         <v>0</v>
       </c>
-      <c r="M33" s="202">
+      <c r="M33" s="201">
         <v>7.7266399999999997</v>
       </c>
       <c r="N33" s="114">
         <v>782.99699999999996</v>
       </c>
-      <c r="O33" s="202">
+      <c r="O33" s="201">
         <v>0.26700000000000002</v>
       </c>
-      <c r="P33" s="202">
+      <c r="P33" s="201">
         <v>7.7293000000000003</v>
       </c>
       <c r="Q33" s="114">
         <v>782.18899999999996</v>
       </c>
-      <c r="R33" s="202">
+      <c r="R33" s="201">
         <v>0.31780000000000003</v>
       </c>
-      <c r="S33" s="202">
+      <c r="S33" s="201">
         <v>7.7270899999999996</v>
       </c>
       <c r="T33" s="114">
         <v>782.86099999999999</v>
       </c>
-      <c r="U33" s="202">
+      <c r="U33" s="201">
         <v>0.28839999999999999</v>
       </c>
-      <c r="V33" s="202">
+      <c r="V33" s="201">
         <v>7.7286000000000001</v>
       </c>
       <c r="W33" s="114">
         <v>782.404</v>
       </c>
-      <c r="X33" s="202">
+      <c r="X33" s="201">
         <v>0.30249999999999999</v>
       </c>
-      <c r="Y33" s="228">
+      <c r="Y33" s="227">
         <v>7.7271599999999996</v>
       </c>
-      <c r="Z33" s="229">
+      <c r="Z33" s="228">
         <v>782.84</v>
       </c>
-      <c r="AA33" s="230">
+      <c r="AA33" s="229">
         <v>0.30049999999999999</v>
       </c>
-      <c r="AB33" s="231">
+      <c r="AB33" s="230">
         <f t="shared" ref="AB33:AB34" si="26">AVERAGE(M33,P33,S33,V33,Y33)</f>
         <v>7.7277579999999997</v>
       </c>
-      <c r="AC33" s="232">
+      <c r="AC33" s="231">
         <f t="shared" ref="AC33:AC34" si="27">AVERAGE(N33,Q33,T33,W33,Z33)</f>
         <v>782.65820000000008</v>
       </c>
-      <c r="AD33" s="233">
+      <c r="AD33" s="232">
         <f t="shared" ref="AD33:AD34" si="28">AVERAGE(O33,R33,U33,X33,AA33)</f>
         <v>0.29524</v>
       </c>
@@ -14198,18 +14182,18 @@
         <f t="shared" ref="AF33:AF34" si="29">((AC33-$G$12)/$G$12)^2 + ((AE33-$D$12)/$D$12)^2</f>
         <v>9.8124970041099269E-2</v>
       </c>
-      <c r="AH33" s="203">
+      <c r="AH33" s="202">
         <f t="shared" ref="AH33:AH34" si="30">((AC33-$G$12)/$G$12)^2</f>
         <v>5.3466095894198372E-4</v>
       </c>
-      <c r="AI33" s="203"/>
+      <c r="AI33" s="202"/>
       <c r="AK33" s="102">
         <f t="shared" ref="AK33:AK34" si="31" xml:space="preserve"> ((AE33-$D$12)/$D$12)^2</f>
         <v>9.7590309082157281E-2</v>
       </c>
-      <c r="AL33" s="223"/>
-      <c r="AM33" s="204"/>
-      <c r="AN33" s="203"/>
+      <c r="AL33" s="222"/>
+      <c r="AM33" s="203"/>
+      <c r="AN33" s="202"/>
     </row>
     <row r="34" spans="3:40">
       <c r="D34" s="77">
@@ -14236,60 +14220,60 @@
       <c r="L34" s="174">
         <v>2E-3</v>
       </c>
-      <c r="M34" s="202">
+      <c r="M34" s="201">
         <v>7.7402199999999999</v>
       </c>
       <c r="N34" s="114">
         <v>778.88499999999999</v>
       </c>
-      <c r="O34" s="202">
+      <c r="O34" s="201">
         <v>0.30259999999999998</v>
       </c>
-      <c r="P34" s="202">
+      <c r="P34" s="201">
         <v>7.7378</v>
       </c>
       <c r="Q34" s="114">
         <v>779.61400000000003</v>
       </c>
-      <c r="R34" s="202">
+      <c r="R34" s="201">
         <v>0.3357</v>
       </c>
-      <c r="S34" s="202">
+      <c r="S34" s="201">
         <v>7.7392700000000003</v>
       </c>
       <c r="T34" s="114">
         <v>779.17200000000003</v>
       </c>
-      <c r="U34" s="202">
+      <c r="U34" s="201">
         <v>0.28470000000000001</v>
       </c>
-      <c r="V34" s="202">
+      <c r="V34" s="201">
         <v>7.7405499999999998</v>
       </c>
       <c r="W34" s="114">
         <v>778.78300000000002</v>
       </c>
-      <c r="X34" s="202">
+      <c r="X34" s="201">
         <v>0.3281</v>
       </c>
-      <c r="Y34" s="228">
+      <c r="Y34" s="227">
         <v>7.73963</v>
       </c>
-      <c r="Z34" s="229">
+      <c r="Z34" s="228">
         <v>779.06100000000004</v>
       </c>
-      <c r="AA34" s="230">
+      <c r="AA34" s="229">
         <v>0.32919999999999999</v>
       </c>
-      <c r="AB34" s="231">
+      <c r="AB34" s="230">
         <f t="shared" si="26"/>
         <v>7.7394940000000005</v>
       </c>
-      <c r="AC34" s="232">
+      <c r="AC34" s="231">
         <f t="shared" si="27"/>
         <v>779.10300000000007</v>
       </c>
-      <c r="AD34" s="233">
+      <c r="AD34" s="232">
         <f t="shared" si="28"/>
         <v>0.31606000000000001</v>
       </c>
@@ -14301,11 +14285,11 @@
         <f t="shared" si="29"/>
         <v>7.0030732837494211E-2</v>
       </c>
-      <c r="AH34" s="203">
+      <c r="AH34" s="202">
         <f t="shared" si="30"/>
         <v>3.4133428328660446E-4</v>
       </c>
-      <c r="AI34" s="203"/>
+      <c r="AI34" s="202"/>
       <c r="AK34" s="102">
         <f t="shared" si="31"/>
         <v>6.968939855420761E-2</v>
@@ -14336,43 +14320,43 @@
       <c r="L35" s="174">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M35" s="202">
+      <c r="M35" s="201">
         <v>7.7508900000000001</v>
       </c>
       <c r="N35" s="114">
         <v>775.67100000000005</v>
       </c>
-      <c r="O35" s="202">
+      <c r="O35" s="201">
         <v>0.34160000000000001</v>
       </c>
-      <c r="P35" s="202">
+      <c r="P35" s="201">
         <v>7.7509899999999998</v>
       </c>
       <c r="Q35" s="114">
         <v>775.64200000000005</v>
       </c>
-      <c r="R35" s="202">
+      <c r="R35" s="201">
         <v>0.3251</v>
       </c>
-      <c r="S35" s="202">
+      <c r="S35" s="201">
         <v>7.7496799999999997</v>
       </c>
       <c r="T35" s="114">
         <v>776.03499999999997</v>
       </c>
-      <c r="U35" s="202">
+      <c r="U35" s="201">
         <v>0.31769999999999998</v>
       </c>
-      <c r="V35" s="202">
+      <c r="V35" s="201">
         <v>7.7513300000000003</v>
       </c>
       <c r="W35" s="114">
         <v>775.54100000000005</v>
       </c>
-      <c r="X35" s="202">
+      <c r="X35" s="201">
         <v>0.3241</v>
       </c>
-      <c r="Y35" s="202">
+      <c r="Y35" s="201">
         <v>7.7518000000000002</v>
       </c>
       <c r="Z35" s="114">
@@ -14389,7 +14373,7 @@
         <f t="shared" ref="AC35:AC46" si="36">AVERAGE(N35,Q35,T35,W35,Z35)</f>
         <v>775.65740000000005</v>
       </c>
-      <c r="AD35" s="226">
+      <c r="AD35" s="225">
         <f t="shared" ref="AD35:AD46" si="37">AVERAGE(O35,R35,U35,X35,AA35)</f>
         <v>0.32755999999999996</v>
       </c>
@@ -14401,7 +14385,7 @@
         <f>((AC35-$G$12)/$G$12)^2 + ((AE35-$D$12)/$D$12)^2</f>
         <v>5.6501793180556592E-2</v>
       </c>
-      <c r="AH35" s="203">
+      <c r="AH35" s="202">
         <f>((AC35-$G$12)/$G$12)^2</f>
         <v>1.9518899185622048E-4</v>
       </c>
@@ -14435,13 +14419,13 @@
       <c r="L36" s="174">
         <v>6.0000000000000001E-3</v>
       </c>
-      <c r="M36" s="202">
+      <c r="M36" s="201">
         <v>7.76328</v>
       </c>
       <c r="N36" s="114">
         <v>771.96400000000006</v>
       </c>
-      <c r="O36" s="202">
+      <c r="O36" s="201">
         <v>0.34510000000000002</v>
       </c>
       <c r="P36" s="77">
@@ -14488,7 +14472,7 @@
         <f t="shared" si="36"/>
         <v>772.26820000000009</v>
       </c>
-      <c r="AD36" s="226">
+      <c r="AD36" s="225">
         <f t="shared" si="37"/>
         <v>0.34417999999999999</v>
       </c>
@@ -14500,7 +14484,7 @@
         <f t="shared" ref="AF36:AF46" si="39">((AC36-$G$12)/$G$12)^2 + ((AE36-$D$12)/$D$12)^2</f>
         <v>3.9563555280449088E-2</v>
       </c>
-      <c r="AH36" s="203">
+      <c r="AH36" s="202">
         <f t="shared" ref="AH36:AH46" si="40">((AC36-$G$12)/$G$12)^2</f>
         <v>9.1021232914985918E-5</v>
       </c>
@@ -14534,13 +14518,13 @@
       <c r="L37" s="174">
         <v>8.0000000000000002E-3</v>
       </c>
-      <c r="M37" s="202">
+      <c r="M37" s="201">
         <v>7.7753699999999997</v>
       </c>
       <c r="N37" s="114">
         <v>768.37</v>
       </c>
-      <c r="O37" s="202">
+      <c r="O37" s="201">
         <v>0.37580000000000002</v>
       </c>
       <c r="P37" s="77">
@@ -14587,7 +14571,7 @@
         <f t="shared" si="36"/>
         <v>768.70060000000001</v>
       </c>
-      <c r="AD37" s="226">
+      <c r="AD37" s="225">
         <f t="shared" si="37"/>
         <v>0.36668000000000001</v>
       </c>
@@ -14599,7 +14583,7 @@
         <f t="shared" si="39"/>
         <v>2.1453456105076783E-2</v>
       </c>
-      <c r="AH37" s="203">
+      <c r="AH37" s="202">
         <f t="shared" si="40"/>
         <v>2.3783105614323997E-5</v>
       </c>
@@ -14633,13 +14617,13 @@
       <c r="L38" s="174">
         <v>0.01</v>
       </c>
-      <c r="M38" s="202">
+      <c r="M38" s="201">
         <v>7.7859999999999996</v>
       </c>
-      <c r="N38" s="213">
+      <c r="N38" s="212">
         <v>765.22699999999998</v>
       </c>
-      <c r="O38" s="187">
+      <c r="O38" s="186">
         <v>0.40510000000000002</v>
       </c>
       <c r="P38" s="77">
@@ -14686,7 +14670,7 @@
         <f t="shared" si="36"/>
         <v>765.25739999999996</v>
       </c>
-      <c r="AD38" s="226">
+      <c r="AD38" s="225">
         <f t="shared" si="37"/>
         <v>0.37961999999999996</v>
       </c>
@@ -14698,13 +14682,13 @@
         <f t="shared" si="39"/>
         <v>1.3540224622683852E-2</v>
       </c>
-      <c r="AG38" s="205"/>
-      <c r="AH38" s="203">
+      <c r="AG38" s="204"/>
+      <c r="AH38" s="202">
         <f t="shared" si="40"/>
         <v>1.4115124732398342E-7</v>
       </c>
       <c r="AI38" s="104"/>
-      <c r="AJ38" s="205"/>
+      <c r="AJ38" s="204"/>
       <c r="AK38" s="102">
         <f t="shared" si="41"/>
         <v>1.3540083471436528E-2</v>
@@ -14738,13 +14722,13 @@
       <c r="L39" s="174">
         <v>1.2E-2</v>
       </c>
-      <c r="M39" s="202">
+      <c r="M39" s="201">
         <v>7.7972700000000001</v>
       </c>
       <c r="N39" s="114">
         <v>761.91300000000001</v>
       </c>
-      <c r="O39" s="202">
+      <c r="O39" s="201">
         <v>0.38640000000000002</v>
       </c>
       <c r="P39" s="77">
@@ -14791,7 +14775,7 @@
         <f t="shared" si="36"/>
         <v>761.83940000000007</v>
       </c>
-      <c r="AD39" s="226">
+      <c r="AD39" s="225">
         <f t="shared" si="37"/>
         <v>0.38950000000000001</v>
       </c>
@@ -14803,7 +14787,7 @@
         <f t="shared" si="39"/>
         <v>8.7520803755311034E-3</v>
       </c>
-      <c r="AH39" s="203">
+      <c r="AH39" s="202">
         <f t="shared" si="40"/>
         <v>1.6748131204491786E-5</v>
       </c>
@@ -14837,13 +14821,13 @@
       <c r="L40" s="174">
         <v>1.4E-2</v>
       </c>
-      <c r="M40" s="202">
+      <c r="M40" s="201">
         <v>7.8096800000000002</v>
       </c>
       <c r="N40" s="114">
         <v>758.28599999999994</v>
       </c>
-      <c r="O40" s="202">
+      <c r="O40" s="201">
         <v>0.42180000000000001</v>
       </c>
       <c r="P40" s="77">
@@ -14890,7 +14874,7 @@
         <f t="shared" si="36"/>
         <v>758.1422</v>
       </c>
-      <c r="AD40" s="226">
+      <c r="AD40" s="225">
         <f t="shared" si="37"/>
         <v>0.41737999999999997</v>
       </c>
@@ -14902,7 +14886,7 @@
         <f t="shared" si="39"/>
         <v>9.027173214792468E-4</v>
       </c>
-      <c r="AH40" s="203">
+      <c r="AH40" s="202">
         <f t="shared" si="40"/>
         <v>7.966595657346782E-5</v>
       </c>
@@ -14940,13 +14924,13 @@
       <c r="L41" s="174">
         <v>1.6E-2</v>
       </c>
-      <c r="M41" s="202">
+      <c r="M41" s="201">
         <v>7.8231999999999999</v>
       </c>
       <c r="N41" s="114">
         <v>754.36199999999997</v>
       </c>
-      <c r="O41" s="202">
+      <c r="O41" s="201">
         <v>0.43159999999999998</v>
       </c>
       <c r="P41" s="77">
@@ -14993,7 +14977,7 @@
         <f t="shared" si="36"/>
         <v>754.55939999999987</v>
       </c>
-      <c r="AD41" s="226">
+      <c r="AD41" s="225">
         <f t="shared" si="37"/>
         <v>0.43059999999999998</v>
       </c>
@@ -15005,7 +14989,7 @@
         <f t="shared" si="39"/>
         <v>1.8905524336481955E-4</v>
       </c>
-      <c r="AH41" s="203">
+      <c r="AH41" s="202">
         <f t="shared" si="40"/>
         <v>1.8520926703177704E-4</v>
       </c>
@@ -15039,13 +15023,13 @@
       <c r="L42" s="174">
         <v>1.7999999999999999E-2</v>
       </c>
-      <c r="M42" s="202">
+      <c r="M42" s="201">
         <v>7.8367800000000001</v>
       </c>
       <c r="N42" s="114">
         <v>750.44799999999998</v>
       </c>
-      <c r="O42" s="202">
+      <c r="O42" s="201">
         <v>0.46949999999999997</v>
       </c>
       <c r="P42" s="77">
@@ -15092,7 +15076,7 @@
         <f t="shared" si="36"/>
         <v>750.93179999999995</v>
       </c>
-      <c r="AD42" s="226">
+      <c r="AD42" s="225">
         <f t="shared" si="37"/>
         <v>0.45450000000000002</v>
       </c>
@@ -15104,7 +15088,7 @@
         <f t="shared" si="39"/>
         <v>3.6373307556622678E-3</v>
       </c>
-      <c r="AH42" s="203">
+      <c r="AH42" s="202">
         <f t="shared" si="40"/>
         <v>3.367705014360708E-4</v>
       </c>
@@ -15138,13 +15122,13 @@
       <c r="L43" s="174">
         <v>0.02</v>
       </c>
-      <c r="M43" s="202">
+      <c r="M43" s="201">
         <v>7.8477399999999999</v>
       </c>
       <c r="N43" s="114">
         <v>747.30700000000002</v>
       </c>
-      <c r="O43" s="202">
+      <c r="O43" s="201">
         <v>0.48680000000000001</v>
       </c>
       <c r="P43" s="77">
@@ -15191,7 +15175,7 @@
         <f t="shared" si="36"/>
         <v>747.19200000000001</v>
       </c>
-      <c r="AD43" s="226">
+      <c r="AD43" s="225">
         <f t="shared" si="37"/>
         <v>0.48724000000000006</v>
       </c>
@@ -15203,7 +15187,7 @@
         <f t="shared" si="39"/>
         <v>1.8358984061605538E-2</v>
       </c>
-      <c r="AH43" s="203">
+      <c r="AH43" s="202">
         <f t="shared" si="40"/>
         <v>5.4010350594186891E-4</v>
       </c>
@@ -15222,13 +15206,13 @@
       <c r="L44" s="174">
         <v>2.1999999999999999E-2</v>
       </c>
-      <c r="M44" s="202">
+      <c r="M44" s="201">
         <v>7.8617600000000003</v>
       </c>
       <c r="N44" s="114">
         <v>743.31700000000001</v>
       </c>
-      <c r="O44" s="202">
+      <c r="O44" s="201">
         <v>0.49509999999999998</v>
       </c>
       <c r="P44" s="77">
@@ -15275,7 +15259,7 @@
         <f t="shared" si="36"/>
         <v>743.3732</v>
       </c>
-      <c r="AD44" s="226">
+      <c r="AD44" s="225">
         <f t="shared" si="37"/>
         <v>0.50993999999999995</v>
       </c>
@@ -15287,13 +15271,13 @@
         <f t="shared" si="39"/>
         <v>3.5448389789372474E-2</v>
       </c>
-      <c r="AG44" s="205"/>
-      <c r="AH44" s="203">
+      <c r="AG44" s="204"/>
+      <c r="AH44" s="202">
         <f t="shared" si="40"/>
         <v>7.9705814770665768E-4</v>
       </c>
       <c r="AI44" s="104"/>
-      <c r="AJ44" s="205"/>
+      <c r="AJ44" s="204"/>
       <c r="AK44" s="102">
         <f t="shared" si="41"/>
         <v>3.4651331641665818E-2</v>
@@ -15302,23 +15286,23 @@
       <c r="AM44" s="104"/>
       <c r="AN44" s="104"/>
     </row>
-    <row r="45" spans="3:40" s="203" customFormat="1">
-      <c r="D45" s="202"/>
-      <c r="E45" s="202"/>
+    <row r="45" spans="3:40" s="202" customFormat="1">
+      <c r="D45" s="201"/>
+      <c r="E45" s="201"/>
       <c r="G45" s="78"/>
-      <c r="H45" s="202"/>
+      <c r="H45" s="201"/>
       <c r="I45" s="102"/>
-      <c r="K45" s="205"/>
+      <c r="K45" s="204"/>
       <c r="L45" s="174">
         <v>2.4E-2</v>
       </c>
-      <c r="M45" s="202">
+      <c r="M45" s="201">
         <v>7.8744800000000001</v>
       </c>
       <c r="N45" s="114">
         <v>739.71900000000005</v>
       </c>
-      <c r="O45" s="202">
+      <c r="O45" s="201">
         <v>0.52969999999999995</v>
       </c>
       <c r="P45" s="77">
@@ -15365,7 +15349,7 @@
         <f t="shared" si="36"/>
         <v>739.68380000000002</v>
       </c>
-      <c r="AD45" s="226">
+      <c r="AD45" s="225">
         <f t="shared" si="37"/>
         <v>0.53238000000000008</v>
       </c>
@@ -15377,13 +15361,13 @@
         <f t="shared" si="39"/>
         <v>5.7830467558263612E-2</v>
       </c>
-      <c r="AG45" s="205"/>
-      <c r="AH45" s="203">
+      <c r="AG45" s="204"/>
+      <c r="AH45" s="202">
         <f t="shared" si="40"/>
         <v>1.0926431061133617E-3</v>
       </c>
       <c r="AI45" s="104"/>
-      <c r="AJ45" s="205"/>
+      <c r="AJ45" s="204"/>
       <c r="AK45" s="102">
         <f t="shared" si="41"/>
         <v>5.6737824452150254E-2</v>
@@ -15392,23 +15376,23 @@
       <c r="AM45" s="104"/>
       <c r="AN45" s="104"/>
     </row>
-    <row r="46" spans="3:40" s="203" customFormat="1">
-      <c r="D46" s="202"/>
-      <c r="E46" s="202"/>
+    <row r="46" spans="3:40" s="202" customFormat="1">
+      <c r="D46" s="201"/>
+      <c r="E46" s="201"/>
       <c r="G46" s="78"/>
-      <c r="H46" s="202"/>
+      <c r="H46" s="201"/>
       <c r="I46" s="102"/>
-      <c r="K46" s="205"/>
+      <c r="K46" s="204"/>
       <c r="L46" s="174">
         <v>2.5999999999999999E-2</v>
       </c>
-      <c r="M46" s="202">
+      <c r="M46" s="201">
         <v>7.8873699999999998</v>
       </c>
       <c r="N46" s="114">
         <v>736.101</v>
       </c>
-      <c r="O46" s="202">
+      <c r="O46" s="201">
         <v>0.57240000000000002</v>
       </c>
       <c r="P46" s="77">
@@ -15455,7 +15439,7 @@
         <f t="shared" si="36"/>
         <v>735.95400000000006</v>
       </c>
-      <c r="AD46" s="226">
+      <c r="AD46" s="225">
         <f t="shared" si="37"/>
         <v>0.55837999999999999</v>
       </c>
@@ -15467,13 +15451,13 @@
         <f t="shared" si="39"/>
         <v>9.0546627153675688E-2</v>
       </c>
-      <c r="AG46" s="205"/>
-      <c r="AH46" s="203">
+      <c r="AG46" s="204"/>
+      <c r="AH46" s="202">
         <f t="shared" si="40"/>
         <v>1.4387531179857924E-3</v>
       </c>
       <c r="AI46" s="112"/>
-      <c r="AJ46" s="205"/>
+      <c r="AJ46" s="204"/>
       <c r="AK46" s="102">
         <f t="shared" si="41"/>
         <v>8.9107874035689899E-2</v>
@@ -15486,24 +15470,24 @@
       <c r="I47" s="102"/>
       <c r="K47" s="148"/>
       <c r="L47" s="174"/>
-      <c r="M47" s="202"/>
-      <c r="O47" s="202"/>
-      <c r="P47" s="202"/>
-      <c r="R47" s="202"/>
-      <c r="S47" s="202"/>
-      <c r="U47" s="202"/>
-      <c r="V47" s="202"/>
-      <c r="X47" s="202"/>
-      <c r="Y47" s="202"/>
+      <c r="M47" s="201"/>
+      <c r="O47" s="201"/>
+      <c r="P47" s="201"/>
+      <c r="R47" s="201"/>
+      <c r="S47" s="201"/>
+      <c r="U47" s="201"/>
+      <c r="V47" s="201"/>
+      <c r="X47" s="201"/>
+      <c r="Y47" s="201"/>
       <c r="AA47" s="176"/>
-      <c r="AD47" s="226"/>
+      <c r="AD47" s="225"/>
       <c r="AF47" s="102"/>
-      <c r="AH47" s="203"/>
-      <c r="AI47" s="203"/>
+      <c r="AH47" s="202"/>
+      <c r="AI47" s="202"/>
       <c r="AK47" s="102"/>
-      <c r="AL47" s="203"/>
-      <c r="AM47" s="203"/>
-      <c r="AN47" s="203"/>
+      <c r="AL47" s="202"/>
+      <c r="AM47" s="202"/>
+      <c r="AN47" s="202"/>
     </row>
     <row r="48" spans="3:40">
       <c r="C48" s="104" t="s">
@@ -15533,43 +15517,43 @@
       <c r="L48" s="174">
         <v>0</v>
       </c>
-      <c r="M48" s="202">
+      <c r="M48" s="201">
         <v>8.1780399999999993</v>
       </c>
       <c r="N48" s="114">
         <v>710.24099999999999</v>
       </c>
-      <c r="O48" s="202">
+      <c r="O48" s="201">
         <v>1.9458</v>
       </c>
-      <c r="P48" s="202">
+      <c r="P48" s="201">
         <v>8.17807</v>
       </c>
       <c r="Q48" s="114">
         <v>710.23299999999995</v>
       </c>
-      <c r="R48" s="202">
+      <c r="R48" s="201">
         <v>1.9692000000000001</v>
       </c>
-      <c r="S48" s="202">
+      <c r="S48" s="201">
         <v>8.1782699999999995</v>
       </c>
       <c r="T48" s="114">
         <v>710.18200000000002</v>
       </c>
-      <c r="U48" s="202">
+      <c r="U48" s="201">
         <v>1.9239999999999999</v>
       </c>
-      <c r="V48" s="202">
+      <c r="V48" s="201">
         <v>8.1772200000000002</v>
       </c>
       <c r="W48" s="114">
         <v>710.45399999999995</v>
       </c>
-      <c r="X48" s="202">
+      <c r="X48" s="201">
         <v>1.8998999999999999</v>
       </c>
-      <c r="Y48" s="202">
+      <c r="Y48" s="201">
         <v>8.1776499999999999</v>
       </c>
       <c r="Z48" s="114">
@@ -15586,7 +15570,7 @@
         <f t="shared" ref="AC48:AC49" si="43">AVERAGE(N48,Q48,T48,W48,Z48)</f>
         <v>710.29039999999998</v>
       </c>
-      <c r="AD48" s="226">
+      <c r="AD48" s="225">
         <f t="shared" ref="AD48:AD49" si="44">AVERAGE(O48,R48,U48,X48,AA48)</f>
         <v>1.9379599999999999</v>
       </c>
@@ -15598,18 +15582,18 @@
         <f t="shared" ref="AF48:AF49" si="46">((AC48-$G$13)/$G$13)^2 + ((AE48-$D$13)/$D$13)^2</f>
         <v>1.5204121031786727E-2</v>
       </c>
-      <c r="AH48" s="203">
+      <c r="AH48" s="202">
         <f t="shared" ref="AH48:AH49" si="47">((AC48-$G$13)/$G$13)^2</f>
         <v>2.80028078241467E-4</v>
       </c>
-      <c r="AI48" s="203"/>
+      <c r="AI48" s="202"/>
       <c r="AK48" s="102">
         <f t="shared" ref="AK48:AK49" si="48" xml:space="preserve"> ((AE48-$D$13)/$D$13)^2</f>
         <v>1.492409295354526E-2</v>
       </c>
-      <c r="AL48" s="203"/>
-      <c r="AM48" s="203"/>
-      <c r="AN48" s="203"/>
+      <c r="AL48" s="202"/>
+      <c r="AM48" s="202"/>
+      <c r="AN48" s="202"/>
     </row>
     <row r="49" spans="3:40">
       <c r="D49" s="77">
@@ -15636,43 +15620,43 @@
       <c r="L49" s="174">
         <v>2E-3</v>
       </c>
-      <c r="M49" s="202">
+      <c r="M49" s="201">
         <v>8.1909799999999997</v>
       </c>
       <c r="N49" s="114">
         <v>706.88099999999997</v>
       </c>
-      <c r="O49" s="202">
+      <c r="O49" s="201">
         <v>2.0196999999999998</v>
       </c>
-      <c r="P49" s="202">
+      <c r="P49" s="201">
         <v>8.1916200000000003</v>
       </c>
       <c r="Q49" s="114">
         <v>706.71400000000006</v>
       </c>
-      <c r="R49" s="202">
+      <c r="R49" s="201">
         <v>2.0057999999999998</v>
       </c>
-      <c r="S49" s="202">
+      <c r="S49" s="201">
         <v>8.1914300000000004</v>
       </c>
       <c r="T49" s="114">
         <v>706.76400000000001</v>
       </c>
-      <c r="U49" s="202">
+      <c r="U49" s="201">
         <v>1.9922</v>
       </c>
-      <c r="V49" s="202">
+      <c r="V49" s="201">
         <v>8.1913300000000007</v>
       </c>
       <c r="W49" s="114">
         <v>706.79</v>
       </c>
-      <c r="X49" s="202">
+      <c r="X49" s="201">
         <v>2.0668000000000002</v>
       </c>
-      <c r="Y49" s="202">
+      <c r="Y49" s="201">
         <v>8.1921499999999998</v>
       </c>
       <c r="Z49" s="114">
@@ -15689,7 +15673,7 @@
         <f t="shared" si="43"/>
         <v>706.74540000000002</v>
       </c>
-      <c r="AD49" s="226">
+      <c r="AD49" s="225">
         <f t="shared" si="44"/>
         <v>2.00936</v>
       </c>
@@ -15701,11 +15685,11 @@
         <f t="shared" si="46"/>
         <v>8.2222965617414732E-3</v>
       </c>
-      <c r="AH49" s="203">
+      <c r="AH49" s="202">
         <f t="shared" si="47"/>
         <v>1.3594638698688922E-4</v>
       </c>
-      <c r="AI49" s="203"/>
+      <c r="AI49" s="202"/>
       <c r="AK49" s="102">
         <f t="shared" si="48"/>
         <v>8.0863501747545832E-3</v>
@@ -15736,43 +15720,43 @@
       <c r="L50" s="174">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="M50" s="202">
+      <c r="M50" s="201">
         <v>8.2070399999999992</v>
       </c>
       <c r="N50" s="114">
         <v>702.73800000000006</v>
       </c>
-      <c r="O50" s="202">
+      <c r="O50" s="201">
         <v>2.0133000000000001</v>
       </c>
-      <c r="P50" s="202">
+      <c r="P50" s="201">
         <v>8.2070799999999995</v>
       </c>
       <c r="Q50" s="114">
         <v>702.72900000000004</v>
       </c>
-      <c r="R50" s="202">
+      <c r="R50" s="201">
         <v>1.9904999999999999</v>
       </c>
-      <c r="S50" s="202">
+      <c r="S50" s="201">
         <v>8.20688</v>
       </c>
       <c r="T50" s="114">
         <v>702.779</v>
       </c>
-      <c r="U50" s="202">
+      <c r="U50" s="201">
         <v>2.0701999999999998</v>
       </c>
-      <c r="V50" s="202">
+      <c r="V50" s="201">
         <v>8.2078199999999999</v>
       </c>
       <c r="W50" s="114">
         <v>702.53800000000001</v>
       </c>
-      <c r="X50" s="202">
+      <c r="X50" s="201">
         <v>2.1059999999999999</v>
       </c>
-      <c r="Y50" s="202">
+      <c r="Y50" s="201">
         <v>8.2061600000000006</v>
       </c>
       <c r="Z50" s="114">
@@ -15789,7 +15773,7 @@
         <f t="shared" ref="AC50:AC61" si="52">AVERAGE(N50,Q50,T50,W50,Z50)</f>
         <v>702.74959999999999</v>
       </c>
-      <c r="AD50" s="226">
+      <c r="AD50" s="225">
         <f t="shared" ref="AD50:AD61" si="53">AVERAGE(O50,R50,U50,X50,AA50)</f>
         <v>2.0490599999999999</v>
       </c>
@@ -15801,7 +15785,7 @@
         <f>((AC50-$G$13)/$G$13)^2 + ((AE50-$D$13)/$D$13)^2</f>
         <v>5.2280391687654811E-3</v>
       </c>
-      <c r="AH50" s="203">
+      <c r="AH50" s="202">
         <f>((AC50-$G$13)/$G$13)^2</f>
         <v>3.528217155754333E-5</v>
       </c>
@@ -15888,7 +15872,7 @@
         <f t="shared" si="52"/>
         <v>699.18700000000001</v>
       </c>
-      <c r="AD51" s="226">
+      <c r="AD51" s="225">
         <f t="shared" si="53"/>
         <v>2.1783000000000001</v>
       </c>
@@ -15900,7 +15884,7 @@
         <f t="shared" ref="AF51:AF61" si="55">((AC51-$G$13)/$G$13)^2 + ((AE51-$D$13)/$D$13)^2</f>
         <v>1.8688724698469512E-4</v>
       </c>
-      <c r="AH51" s="203">
+      <c r="AH51" s="202">
         <f t="shared" ref="AH51:AH61" si="56">((AC51-$G$13)/$G$13)^2</f>
         <v>7.0602330996291209E-7</v>
       </c>
@@ -15987,7 +15971,7 @@
         <f t="shared" si="52"/>
         <v>695.22320000000002</v>
       </c>
-      <c r="AD52" s="226">
+      <c r="AD52" s="225">
         <f t="shared" si="53"/>
         <v>2.2598800000000003</v>
       </c>
@@ -15999,7 +15983,7 @@
         <f t="shared" si="55"/>
         <v>5.600253733300532E-4</v>
       </c>
-      <c r="AH52" s="203">
+      <c r="AH52" s="202">
         <f t="shared" si="56"/>
         <v>2.3364339902249425E-5</v>
       </c>
@@ -16086,7 +16070,7 @@
         <f t="shared" si="52"/>
         <v>691.31279999999992</v>
       </c>
-      <c r="AD53" s="226">
+      <c r="AD53" s="225">
         <f t="shared" si="53"/>
         <v>2.3162000000000003</v>
       </c>
@@ -16098,13 +16082,13 @@
         <f t="shared" si="55"/>
         <v>2.4643213502358874E-3</v>
       </c>
-      <c r="AG53" s="205"/>
-      <c r="AH53" s="203">
+      <c r="AG53" s="204"/>
+      <c r="AH53" s="202">
         <f t="shared" si="56"/>
         <v>1.0880884881292056E-4</v>
       </c>
       <c r="AI53" s="104"/>
-      <c r="AJ53" s="205"/>
+      <c r="AJ53" s="204"/>
       <c r="AK53" s="102">
         <f t="shared" si="57"/>
         <v>2.3555125014229667E-3</v>
@@ -16191,7 +16175,7 @@
         <f t="shared" si="52"/>
         <v>687.3610000000001</v>
       </c>
-      <c r="AD54" s="226">
+      <c r="AD54" s="225">
         <f t="shared" si="53"/>
         <v>2.37818</v>
       </c>
@@ -16203,7 +16187,7 @@
         <f t="shared" si="55"/>
         <v>6.10417417169044E-3</v>
       </c>
-      <c r="AH54" s="203">
+      <c r="AH54" s="202">
         <f t="shared" si="56"/>
         <v>2.588202067707419E-4</v>
       </c>
@@ -16290,7 +16274,7 @@
         <f t="shared" si="52"/>
         <v>683.46260000000007</v>
       </c>
-      <c r="AD55" s="226">
+      <c r="AD55" s="225">
         <f t="shared" si="53"/>
         <v>2.4873799999999999</v>
       </c>
@@ -16302,7 +16286,7 @@
         <f t="shared" si="55"/>
         <v>1.6280400527627997E-2</v>
       </c>
-      <c r="AH55" s="203">
+      <c r="AH55" s="202">
         <f t="shared" si="56"/>
         <v>4.6951061084993327E-4</v>
       </c>
@@ -16393,7 +16377,7 @@
         <f t="shared" si="52"/>
         <v>679.35540000000003</v>
       </c>
-      <c r="AD56" s="226">
+      <c r="AD56" s="225">
         <f t="shared" si="53"/>
         <v>2.5624199999999999</v>
       </c>
@@ -16405,7 +16389,7 @@
         <f t="shared" si="55"/>
         <v>2.6214679489715825E-2</v>
       </c>
-      <c r="AH56" s="203">
+      <c r="AH56" s="202">
         <f t="shared" si="56"/>
         <v>7.5885817104742314E-4</v>
       </c>
@@ -16492,7 +16476,7 @@
         <f t="shared" si="52"/>
         <v>675.49720000000002</v>
       </c>
-      <c r="AD57" s="226">
+      <c r="AD57" s="225">
         <f t="shared" si="53"/>
         <v>2.6422200000000005</v>
       </c>
@@ -16504,7 +16488,7 @@
         <f t="shared" si="55"/>
         <v>3.931779248125044E-2</v>
       </c>
-      <c r="AH57" s="203">
+      <c r="AH57" s="202">
         <f t="shared" si="56"/>
         <v>1.0936341781759911E-3</v>
       </c>
@@ -16591,7 +16575,7 @@
         <f t="shared" si="52"/>
         <v>671.20459999999991</v>
       </c>
-      <c r="AD58" s="226">
+      <c r="AD58" s="225">
         <f t="shared" si="53"/>
         <v>2.7596200000000004</v>
       </c>
@@ -16603,7 +16587,7 @@
         <f t="shared" si="55"/>
         <v>6.3267358232003745E-2</v>
       </c>
-      <c r="AH58" s="203">
+      <c r="AH58" s="202">
         <f t="shared" si="56"/>
         <v>1.5377938838701611E-3</v>
       </c>
@@ -16670,7 +16654,7 @@
         <f t="shared" si="52"/>
         <v>667.19579999999996</v>
       </c>
-      <c r="AD59" s="226">
+      <c r="AD59" s="225">
         <f t="shared" si="53"/>
         <v>2.8211199999999996</v>
       </c>
@@ -16682,7 +16666,7 @@
         <f t="shared" si="55"/>
         <v>7.825716052377478E-2</v>
       </c>
-      <c r="AH59" s="203">
+      <c r="AH59" s="202">
         <f t="shared" si="56"/>
         <v>2.0207766103553957E-3</v>
       </c>
@@ -16748,7 +16732,7 @@
         <f t="shared" si="52"/>
         <v>662.72859999999991</v>
       </c>
-      <c r="AD60" s="226">
+      <c r="AD60" s="225">
         <f t="shared" si="53"/>
         <v>2.9435799999999999</v>
       </c>
@@ -16760,7 +16744,7 @@
         <f t="shared" si="55"/>
         <v>0.1124011506240901</v>
       </c>
-      <c r="AH60" s="203">
+      <c r="AH60" s="202">
         <f t="shared" si="56"/>
         <v>2.6365711217945431E-3</v>
       </c>
@@ -16849,7 +16833,7 @@
         <f t="shared" si="52"/>
         <v>658.46600000000001</v>
       </c>
-      <c r="AD61" s="226">
+      <c r="AD61" s="225">
         <f t="shared" si="53"/>
         <v>3.0216000000000003</v>
       </c>
@@ -16861,7 +16845,7 @@
         <f t="shared" si="55"/>
         <v>0.13755036176383181</v>
       </c>
-      <c r="AH61" s="203">
+      <c r="AH61" s="202">
         <f t="shared" si="56"/>
         <v>3.3004087517392996E-3</v>
       </c>
@@ -16954,23 +16938,23 @@
     <row r="4" spans="2:27">
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
-      <c r="J4" s="280" t="s">
+      <c r="J4" s="274" t="s">
         <v>289</v>
       </c>
-      <c r="K4" s="280"/>
-      <c r="N4" s="280" t="s">
+      <c r="K4" s="274"/>
+      <c r="N4" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="280"/>
-      <c r="Q4" s="280" t="s">
+      <c r="O4" s="274"/>
+      <c r="Q4" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="280"/>
-      <c r="S4" s="280"/>
-      <c r="T4" s="280"/>
-      <c r="U4" s="280"/>
-      <c r="V4" s="280"/>
-      <c r="W4" s="280"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
+      <c r="U4" s="274"/>
+      <c r="V4" s="274"/>
+      <c r="W4" s="274"/>
       <c r="X4" s="146"/>
       <c r="AA4" s="146"/>
     </row>
@@ -17598,14 +17582,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3949D05-7376-4059-B96D-BFD0734F58BD}">
   <dimension ref="B2:AA7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N9" sqref="N9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="24" width="5" style="271" customWidth="1"/>
+    <col min="5" max="24" width="5" style="264" customWidth="1"/>
     <col min="27" max="30" width="31" customWidth="1"/>
   </cols>
   <sheetData>
@@ -17690,28 +17674,28 @@
       <c r="D3" t="s">
         <v>538</v>
       </c>
-      <c r="O3" s="271" t="s">
+      <c r="O3" s="264" t="s">
         <v>530</v>
       </c>
-      <c r="P3" s="271" t="s">
+      <c r="P3" s="264" t="s">
         <v>470</v>
       </c>
-      <c r="Q3" s="271" t="s">
+      <c r="Q3" s="264" t="s">
         <v>470</v>
       </c>
-      <c r="R3" s="271" t="s">
+      <c r="R3" s="264" t="s">
         <v>531</v>
       </c>
-      <c r="S3" s="271" t="s">
+      <c r="S3" s="264" t="s">
         <v>470</v>
       </c>
-      <c r="T3" s="271" t="s">
+      <c r="T3" s="264" t="s">
         <v>470</v>
       </c>
-      <c r="U3" s="271" t="s">
+      <c r="U3" s="264" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="271" t="s">
+      <c r="X3" s="264" t="s">
         <v>62</v>
       </c>
       <c r="Z3" t="s">
@@ -17763,7 +17747,7 @@
   <dimension ref="B2:T21"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="R6" sqref="R6"/>
+      <selection activeCell="B6" sqref="B6:R6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -17772,8 +17756,8 @@
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="274" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.125" style="274" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="267" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.125" style="267" customWidth="1"/>
     <col min="19" max="19" width="47.625" style="180" customWidth="1"/>
     <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -17782,16 +17766,16 @@
       <c r="B2" t="s">
         <v>516</v>
       </c>
-      <c r="C2" s="276">
+      <c r="C2" s="269">
         <v>6.0221407599999999E+23</v>
       </c>
-      <c r="S2" s="266"/>
+      <c r="S2" s="259"/>
     </row>
     <row r="3" spans="2:20">
-      <c r="S3" s="266"/>
+      <c r="S3" s="259"/>
     </row>
     <row r="4" spans="2:20">
-      <c r="S4" s="266"/>
+      <c r="S4" s="259"/>
     </row>
     <row r="5" spans="2:20">
       <c r="B5" s="158"/>
@@ -17814,7 +17798,7 @@
       <c r="I5" s="158" t="s">
         <v>420</v>
       </c>
-      <c r="J5" s="190" t="s">
+      <c r="J5" s="189" t="s">
         <v>421</v>
       </c>
       <c r="K5" s="169" t="s">
@@ -17832,16 +17816,16 @@
       <c r="O5" s="169" t="s">
         <v>514</v>
       </c>
-      <c r="P5" s="273" t="s">
+      <c r="P5" s="266" t="s">
         <v>511</v>
       </c>
-      <c r="Q5" s="273" t="s">
+      <c r="Q5" s="266" t="s">
         <v>515</v>
       </c>
-      <c r="R5" s="275" t="s">
+      <c r="R5" s="268" t="s">
         <v>21</v>
       </c>
-      <c r="S5" s="192" t="s">
+      <c r="S5" s="191" t="s">
         <v>263</v>
       </c>
     </row>
@@ -17861,13 +17845,13 @@
       <c r="F6" s="67" t="s">
         <v>426</v>
       </c>
-      <c r="G6" s="234">
+      <c r="G6" s="233">
         <v>4.2698999999999998</v>
       </c>
-      <c r="H6" s="234">
+      <c r="H6" s="233">
         <v>4.8105000000000002</v>
       </c>
-      <c r="I6" s="235">
+      <c r="I6" s="234">
         <v>22.344999999999999</v>
       </c>
       <c r="J6" s="70">
@@ -17891,18 +17875,18 @@
         <f t="shared" si="0"/>
         <v>0.29244013570735672</v>
       </c>
-      <c r="P6" s="213">
+      <c r="P6" s="212">
         <f>G6*H6*I6*SQRT(1-M6^2-N6^2-O6^2 + 2*M6*N6*O6)</f>
         <v>405.21143318047041</v>
       </c>
-      <c r="Q6" s="213">
+      <c r="Q6" s="212">
         <v>226.44800000000001</v>
       </c>
-      <c r="R6" s="213">
+      <c r="R6" s="212">
         <f>C6*(Q6/P6)*(1E+27)/$C$2</f>
         <v>927.97418802324705</v>
       </c>
-      <c r="T6" s="272"/>
+      <c r="T6" s="265"/>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="67"/>
@@ -17923,10 +17907,10 @@
       <c r="M7" s="70"/>
       <c r="N7" s="70"/>
       <c r="O7" s="70"/>
-      <c r="P7" s="213"/>
-      <c r="Q7" s="213"/>
-      <c r="R7" s="213"/>
-      <c r="S7" s="206"/>
+      <c r="P7" s="212"/>
+      <c r="Q7" s="212"/>
+      <c r="R7" s="212"/>
+      <c r="S7" s="205"/>
     </row>
     <row r="8" spans="2:20">
       <c r="B8" s="67"/>
@@ -17947,10 +17931,10 @@
       <c r="M8" s="70"/>
       <c r="N8" s="70"/>
       <c r="O8" s="70"/>
-      <c r="P8" s="213"/>
-      <c r="Q8" s="213"/>
-      <c r="R8" s="213"/>
-      <c r="S8" s="206"/>
+      <c r="P8" s="212"/>
+      <c r="Q8" s="212"/>
+      <c r="R8" s="212"/>
+      <c r="S8" s="205"/>
     </row>
     <row r="9" spans="2:20">
       <c r="B9" s="67" t="s">
@@ -17971,9 +17955,9 @@
       <c r="M9" s="70"/>
       <c r="N9" s="70"/>
       <c r="O9" s="70"/>
-      <c r="P9" s="213"/>
-      <c r="Q9" s="213"/>
-      <c r="R9" s="213"/>
+      <c r="P9" s="212"/>
+      <c r="Q9" s="212"/>
+      <c r="R9" s="212"/>
     </row>
     <row r="10" spans="2:20">
       <c r="B10" s="67" t="s">
@@ -17992,9 +17976,9 @@
       <c r="M10" s="70"/>
       <c r="N10" s="70"/>
       <c r="O10" s="70"/>
-      <c r="P10" s="213"/>
-      <c r="Q10" s="213"/>
-      <c r="R10" s="213"/>
+      <c r="P10" s="212"/>
+      <c r="Q10" s="212"/>
+      <c r="R10" s="212"/>
     </row>
     <row r="11" spans="2:20">
       <c r="B11" s="67" t="s">
@@ -18042,14 +18026,14 @@
         <f t="shared" ref="O11" si="2">COS(L11*PI()/180)</f>
         <v>6.1257422745431001E-17</v>
       </c>
-      <c r="P11" s="213">
+      <c r="P11" s="212">
         <f>G11*H11*I11*(1-M11^2-N11^2-O11^2) + 2*SQRT(M11*N11*O11)</f>
         <v>1317.7010340000004</v>
       </c>
-      <c r="Q11" s="213">
+      <c r="Q11" s="212">
         <v>184.36699999999999</v>
       </c>
-      <c r="R11" s="213">
+      <c r="R11" s="212">
         <f>C11*(Q11/P11)*(1E+27)/$C$2</f>
         <v>929.34162848244534</v>
       </c>
@@ -18087,9 +18071,9 @@
       <c r="M12" s="67"/>
       <c r="N12" s="67"/>
       <c r="O12" s="67"/>
-      <c r="P12" s="213"/>
-      <c r="Q12" s="213"/>
-      <c r="R12" s="213"/>
+      <c r="P12" s="212"/>
+      <c r="Q12" s="212"/>
+      <c r="R12" s="212"/>
       <c r="S12" s="180" t="s">
         <v>434</v>
       </c>
@@ -18111,9 +18095,9 @@
       <c r="M13" s="67"/>
       <c r="N13" s="67"/>
       <c r="O13" s="67"/>
-      <c r="P13" s="213"/>
-      <c r="Q13" s="213"/>
-      <c r="R13" s="213"/>
+      <c r="P13" s="212"/>
+      <c r="Q13" s="212"/>
+      <c r="R13" s="212"/>
     </row>
     <row r="14" spans="2:20">
       <c r="B14" s="67" t="s">
@@ -18150,9 +18134,9 @@
       <c r="M14" s="67"/>
       <c r="N14" s="67"/>
       <c r="O14" s="67"/>
-      <c r="P14" s="213"/>
-      <c r="Q14" s="213"/>
-      <c r="R14" s="213"/>
+      <c r="P14" s="212"/>
+      <c r="Q14" s="212"/>
+      <c r="R14" s="212"/>
     </row>
     <row r="15" spans="2:20">
       <c r="B15" s="67" t="s">
@@ -18171,9 +18155,9 @@
       <c r="M15" s="67"/>
       <c r="N15" s="67"/>
       <c r="O15" s="67"/>
-      <c r="P15" s="213"/>
-      <c r="Q15" s="213"/>
-      <c r="R15" s="213"/>
+      <c r="P15" s="212"/>
+      <c r="Q15" s="212"/>
+      <c r="R15" s="212"/>
     </row>
     <row r="16" spans="2:20">
       <c r="B16" s="67" t="s">
@@ -18192,9 +18176,9 @@
       <c r="M16" s="67"/>
       <c r="N16" s="67"/>
       <c r="O16" s="67"/>
-      <c r="P16" s="213"/>
-      <c r="Q16" s="213"/>
-      <c r="R16" s="213"/>
+      <c r="P16" s="212"/>
+      <c r="Q16" s="212"/>
+      <c r="R16" s="212"/>
     </row>
     <row r="17" spans="2:18">
       <c r="B17" s="67" t="s">
@@ -18215,9 +18199,9 @@
       <c r="M17" s="67"/>
       <c r="N17" s="67"/>
       <c r="O17" s="67"/>
-      <c r="P17" s="213"/>
-      <c r="Q17" s="213"/>
-      <c r="R17" s="213"/>
+      <c r="P17" s="212"/>
+      <c r="Q17" s="212"/>
+      <c r="R17" s="212"/>
     </row>
     <row r="18" spans="2:18">
       <c r="I18">
@@ -18251,10 +18235,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54734A79-229D-40A1-9EF2-2AA48E78AAE8}">
-  <dimension ref="B2:R16"/>
+  <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q4" sqref="Q4:Q5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -18263,16 +18247,18 @@
     <col min="2" max="2" width="40.25" style="67" customWidth="1"/>
     <col min="3" max="5" width="6.625" style="67" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="67" customWidth="1"/>
-    <col min="7" max="15" width="8" style="187" customWidth="1"/>
-    <col min="16" max="16384" width="9" style="67"/>
+    <col min="7" max="15" width="8" style="186" customWidth="1"/>
+    <col min="16" max="18" width="9" style="67"/>
+    <col min="19" max="19" width="54" style="67" customWidth="1"/>
+    <col min="20" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:18" s="181" customFormat="1">
-      <c r="C2" s="279" t="s">
+    <row r="2" spans="2:20" s="271" customFormat="1">
+      <c r="C2" s="273" t="s">
         <v>396</v>
       </c>
-      <c r="D2" s="279"/>
-      <c r="E2" s="279"/>
+      <c r="D2" s="273"/>
+      <c r="E2" s="273"/>
       <c r="G2" s="161"/>
       <c r="H2" s="161"/>
       <c r="I2" s="161"/>
@@ -18282,11 +18268,14 @@
       <c r="M2" s="161"/>
       <c r="N2" s="161"/>
       <c r="O2" s="161"/>
-      <c r="Q2" s="181" t="s">
+      <c r="Q2" s="271" t="s">
         <v>395</v>
       </c>
-    </row>
-    <row r="3" spans="2:18" s="158" customFormat="1">
+      <c r="S2" s="271" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="3" spans="2:20" s="158" customFormat="1">
       <c r="B3" s="158" t="s">
         <v>442</v>
       </c>
@@ -18329,74 +18318,74 @@
       <c r="O3" s="160" t="s">
         <v>394</v>
       </c>
-      <c r="P3" s="188" t="s">
+      <c r="P3" s="187" t="s">
         <v>405</v>
       </c>
-      <c r="Q3" s="188" t="s">
+      <c r="Q3" s="187" t="s">
         <v>406</v>
       </c>
-      <c r="R3" s="188" t="s">
+      <c r="R3" s="187" t="s">
         <v>407</v>
       </c>
     </row>
-    <row r="4" spans="2:18" s="189" customFormat="1">
-      <c r="B4" s="189" t="s">
+    <row r="4" spans="2:20" s="188" customFormat="1">
+      <c r="B4" s="188" t="s">
         <v>430</v>
       </c>
-      <c r="C4" s="189">
+      <c r="C4" s="188">
         <v>1</v>
       </c>
-      <c r="D4" s="189">
+      <c r="D4" s="188">
         <v>1</v>
       </c>
-      <c r="E4" s="189">
+      <c r="E4" s="188">
         <v>1</v>
       </c>
-      <c r="F4" s="189">
+      <c r="F4" s="188">
         <f t="shared" ref="F4:F11" si="0">C4*D4*E4</f>
         <v>1</v>
       </c>
-      <c r="G4" s="191">
+      <c r="G4" s="190">
         <v>0.42698999999999998</v>
       </c>
-      <c r="H4" s="191">
+      <c r="H4" s="190">
         <v>0.46002999999999999</v>
       </c>
-      <c r="I4" s="191">
+      <c r="I4" s="190">
         <v>2.06298</v>
       </c>
-      <c r="J4" s="191">
+      <c r="J4" s="190">
         <v>0</v>
       </c>
-      <c r="K4" s="191">
+      <c r="K4" s="190">
         <v>0</v>
       </c>
-      <c r="L4" s="191">
+      <c r="L4" s="190">
         <v>0.14065</v>
       </c>
-      <c r="M4" s="191">
+      <c r="M4" s="190">
         <v>0</v>
       </c>
-      <c r="N4" s="191">
+      <c r="N4" s="190">
         <v>0.85763</v>
       </c>
-      <c r="O4" s="191">
+      <c r="O4" s="190">
         <v>-3.9870000000000003E-2</v>
       </c>
-      <c r="P4" s="189" t="b">
+      <c r="P4" s="188" t="b">
         <f>IF(G4 &gt; 2*L4, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q4" s="189" t="b">
+      <c r="Q4" s="188" t="b">
         <f>IF(G4 &gt; 2*N4, TRUE)</f>
         <v>0</v>
       </c>
-      <c r="R4" s="189" t="b">
+      <c r="R4" s="188" t="b">
         <f>IF(H4 &gt; 2*O4,TRUE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:18">
+    <row r="5" spans="2:20">
       <c r="C5" s="67">
         <v>4</v>
       </c>
@@ -18406,60 +18395,60 @@
       <c r="E5" s="67">
         <v>1</v>
       </c>
-      <c r="F5" s="181">
+      <c r="F5" s="271">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
-      <c r="G5" s="187">
+      <c r="G5" s="186">
         <f t="shared" ref="G5:I11" si="1">C5*G$4</f>
         <v>1.7079599999999999</v>
       </c>
-      <c r="H5" s="187">
+      <c r="H5" s="186">
         <f t="shared" si="1"/>
         <v>1.84012</v>
       </c>
-      <c r="I5" s="187">
+      <c r="I5" s="186">
         <f t="shared" si="1"/>
         <v>2.06298</v>
       </c>
-      <c r="J5" s="187">
+      <c r="J5" s="186">
         <f t="shared" ref="J5:J11" si="2">C5*J$4</f>
         <v>0</v>
       </c>
-      <c r="K5" s="187">
+      <c r="K5" s="186">
         <f t="shared" ref="K5:L11" si="3">C5*K$4</f>
         <v>0</v>
       </c>
-      <c r="L5" s="187">
+      <c r="L5" s="186">
         <f t="shared" si="3"/>
         <v>0.56259999999999999</v>
       </c>
-      <c r="M5" s="187">
+      <c r="M5" s="186">
         <f t="shared" ref="M5:N11" si="4">D5*M$4</f>
         <v>0</v>
       </c>
-      <c r="N5" s="187">
+      <c r="N5" s="186">
         <f t="shared" si="4"/>
         <v>0.85763</v>
       </c>
-      <c r="O5" s="187">
+      <c r="O5" s="186">
         <f t="shared" ref="O5:O11" si="5">E5*O$4</f>
         <v>-3.9870000000000003E-2</v>
       </c>
-      <c r="P5" s="181" t="b">
+      <c r="P5" s="271" t="b">
         <f t="shared" ref="P5:P8" si="6">IF(G5 &gt; 2*L5, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="181" t="b">
+      <c r="Q5" s="271" t="b">
         <f t="shared" ref="Q5:Q8" si="7">IF(G5 &gt; 2*N5, TRUE)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="181" t="b">
+      <c r="R5" s="271" t="b">
         <f t="shared" ref="R5:R8" si="8">IF(H5 &gt; 2*O5,TRUE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:18">
+    <row r="6" spans="2:20">
       <c r="B6" s="67" t="s">
         <v>401</v>
       </c>
@@ -18472,60 +18461,60 @@
       <c r="E6" s="67">
         <v>1</v>
       </c>
-      <c r="F6" s="184">
+      <c r="F6" s="271">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="G6" s="187">
+      <c r="G6" s="186">
         <f t="shared" si="1"/>
         <v>2.1349499999999999</v>
       </c>
-      <c r="H6" s="187">
+      <c r="H6" s="186">
         <f t="shared" si="1"/>
         <v>2.3001499999999999</v>
       </c>
-      <c r="I6" s="187">
+      <c r="I6" s="186">
         <f t="shared" si="1"/>
         <v>2.06298</v>
       </c>
-      <c r="J6" s="187">
+      <c r="J6" s="186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K6" s="187">
+      <c r="K6" s="186">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6" s="187">
+      <c r="L6" s="186">
         <f t="shared" si="3"/>
         <v>0.70324999999999993</v>
       </c>
-      <c r="M6" s="187">
+      <c r="M6" s="186">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N6" s="187">
+      <c r="N6" s="186">
         <f t="shared" si="4"/>
         <v>0.85763</v>
       </c>
-      <c r="O6" s="187">
+      <c r="O6" s="186">
         <f t="shared" si="5"/>
         <v>-3.9870000000000003E-2</v>
       </c>
-      <c r="P6" s="181" t="b">
+      <c r="P6" s="271" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="181" t="b">
+      <c r="Q6" s="271" t="b">
         <f>IF(G6 &gt; 2*N6, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="181" t="b">
+      <c r="R6" s="271" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:18">
+    <row r="7" spans="2:20">
       <c r="B7" s="67" t="s">
         <v>402</v>
       </c>
@@ -18541,60 +18530,60 @@
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="F7" s="184">
+      <c r="F7" s="271">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
-      <c r="G7" s="187">
+      <c r="G7" s="186">
         <f t="shared" si="1"/>
         <v>4.2698999999999998</v>
       </c>
-      <c r="H7" s="187">
+      <c r="H7" s="186">
         <f t="shared" si="1"/>
         <v>4.6002999999999998</v>
       </c>
-      <c r="I7" s="187">
+      <c r="I7" s="186">
         <f t="shared" si="1"/>
         <v>4.1259600000000001</v>
       </c>
-      <c r="J7" s="187">
+      <c r="J7" s="186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K7" s="187">
+      <c r="K7" s="186">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7" s="187">
+      <c r="L7" s="186">
         <f t="shared" si="3"/>
         <v>1.4064999999999999</v>
       </c>
-      <c r="M7" s="187">
+      <c r="M7" s="186">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N7" s="187">
+      <c r="N7" s="186">
         <f t="shared" si="4"/>
         <v>1.71526</v>
       </c>
-      <c r="O7" s="187">
+      <c r="O7" s="186">
         <f t="shared" si="5"/>
         <v>-7.9740000000000005E-2</v>
       </c>
-      <c r="P7" s="181" t="b">
+      <c r="P7" s="271" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="181" t="b">
+      <c r="Q7" s="271" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R7" s="181" t="b">
+      <c r="R7" s="271" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="2:18">
+    <row r="8" spans="2:20">
       <c r="B8" s="67" t="s">
         <v>403</v>
       </c>
@@ -18610,60 +18599,60 @@
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="F8" s="184">
+      <c r="F8" s="271">
         <f t="shared" si="0"/>
         <v>675</v>
       </c>
-      <c r="G8" s="187">
+      <c r="G8" s="186">
         <f t="shared" si="1"/>
         <v>6.4048499999999997</v>
       </c>
-      <c r="H8" s="187">
+      <c r="H8" s="186">
         <f t="shared" si="1"/>
         <v>6.9004500000000002</v>
       </c>
-      <c r="I8" s="187">
+      <c r="I8" s="186">
         <f t="shared" si="1"/>
         <v>6.1889400000000006</v>
       </c>
-      <c r="J8" s="187">
+      <c r="J8" s="186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K8" s="187">
+      <c r="K8" s="186">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8" s="187">
+      <c r="L8" s="186">
         <f t="shared" si="3"/>
         <v>2.10975</v>
       </c>
-      <c r="M8" s="187">
+      <c r="M8" s="186">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N8" s="187">
+      <c r="N8" s="186">
         <f t="shared" si="4"/>
         <v>2.5728900000000001</v>
       </c>
-      <c r="O8" s="187">
+      <c r="O8" s="186">
         <f t="shared" si="5"/>
         <v>-0.11961000000000001</v>
       </c>
-      <c r="P8" s="181" t="b">
+      <c r="P8" s="271" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="181" t="b">
+      <c r="Q8" s="271" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R8" s="181" t="b">
+      <c r="R8" s="271" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="2:18">
+    <row r="9" spans="2:20">
       <c r="B9" s="67" t="s">
         <v>404</v>
       </c>
@@ -18679,60 +18668,60 @@
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
-      <c r="F9" s="184">
+      <c r="F9" s="271">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
-      <c r="G9" s="187">
+      <c r="G9" s="186">
         <f t="shared" si="1"/>
         <v>8.5397999999999996</v>
       </c>
-      <c r="H9" s="187">
+      <c r="H9" s="186">
         <f t="shared" si="1"/>
         <v>9.2005999999999997</v>
       </c>
-      <c r="I9" s="187">
+      <c r="I9" s="186">
         <f t="shared" si="1"/>
         <v>8.2519200000000001</v>
       </c>
-      <c r="J9" s="187">
+      <c r="J9" s="186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K9" s="187">
+      <c r="K9" s="186">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9" s="187">
+      <c r="L9" s="186">
         <f t="shared" si="3"/>
         <v>2.8129999999999997</v>
       </c>
-      <c r="M9" s="187">
+      <c r="M9" s="186">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N9" s="187">
+      <c r="N9" s="186">
         <f t="shared" si="4"/>
         <v>3.43052</v>
       </c>
-      <c r="O9" s="187">
+      <c r="O9" s="186">
         <f t="shared" si="5"/>
         <v>-0.15948000000000001</v>
       </c>
-      <c r="P9" s="181" t="b">
-        <f t="shared" ref="P9:P14" si="12">IF(G9 &gt; 2*L9, TRUE)</f>
+      <c r="P9" s="271" t="b">
+        <f t="shared" ref="P9:P17" si="12">IF(G9 &gt; 2*L9, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="181" t="b">
+      <c r="Q9" s="271" t="b">
         <f>IF(G9 &gt; 2*N9, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R9" s="181" t="b">
+      <c r="R9" s="271" t="b">
         <f>IF(H9 &gt; 2*O9,TRUE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="2:18">
+    <row r="10" spans="2:20">
       <c r="B10" s="67" t="s">
         <v>408</v>
       </c>
@@ -18745,451 +18734,662 @@
       <c r="E10" s="67">
         <v>3</v>
       </c>
-      <c r="F10" s="184">
+      <c r="F10" s="271">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
-      <c r="G10" s="187">
+      <c r="G10" s="186">
         <f t="shared" si="1"/>
         <v>6.8318399999999997</v>
       </c>
-      <c r="H10" s="187">
+      <c r="H10" s="186">
         <f t="shared" si="1"/>
         <v>7.3604799999999999</v>
       </c>
-      <c r="I10" s="187">
+      <c r="I10" s="186">
         <f t="shared" si="1"/>
         <v>6.1889400000000006</v>
       </c>
-      <c r="J10" s="187">
+      <c r="J10" s="186">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K10" s="187">
+      <c r="K10" s="186">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10" s="187">
+      <c r="L10" s="186">
         <f t="shared" si="3"/>
         <v>2.2504</v>
       </c>
-      <c r="M10" s="187">
+      <c r="M10" s="186">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N10" s="187">
+      <c r="N10" s="186">
         <f t="shared" si="4"/>
         <v>2.5728900000000001</v>
       </c>
-      <c r="O10" s="187">
+      <c r="O10" s="186">
         <f t="shared" si="5"/>
         <v>-0.11961000000000001</v>
       </c>
-      <c r="P10" s="181" t="b">
+      <c r="P10" s="271" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="181" t="b">
+      <c r="Q10" s="271" t="b">
         <f>IF(G10 &gt; 2*N10, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R10" s="181" t="b">
+      <c r="R10" s="271" t="b">
         <f>IF(H10 &gt; 2*O10,TRUE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="2:18" s="243" customFormat="1">
-      <c r="C11" s="243">
+    <row r="11" spans="2:20" s="271" customFormat="1">
+      <c r="C11" s="271">
         <v>18</v>
       </c>
-      <c r="D11" s="243">
+      <c r="D11" s="271">
         <v>18</v>
       </c>
-      <c r="E11" s="243">
+      <c r="E11" s="271">
         <v>4</v>
       </c>
-      <c r="F11" s="243">
+      <c r="F11" s="271">
         <f t="shared" si="0"/>
         <v>1296</v>
       </c>
-      <c r="G11" s="244">
+      <c r="G11" s="161">
         <f t="shared" si="1"/>
         <v>7.6858199999999997</v>
       </c>
-      <c r="H11" s="244">
+      <c r="H11" s="161">
         <f t="shared" si="1"/>
         <v>8.2805400000000002</v>
       </c>
-      <c r="I11" s="244">
+      <c r="I11" s="161">
         <f t="shared" si="1"/>
         <v>8.2519200000000001</v>
       </c>
-      <c r="J11" s="244">
+      <c r="J11" s="161">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="K11" s="244">
+      <c r="K11" s="161">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="244">
+      <c r="L11" s="161">
         <f t="shared" si="3"/>
         <v>2.5316999999999998</v>
       </c>
-      <c r="M11" s="244">
+      <c r="M11" s="161">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="N11" s="244">
+      <c r="N11" s="161">
         <f t="shared" si="4"/>
         <v>3.43052</v>
       </c>
-      <c r="O11" s="244">
+      <c r="O11" s="161">
         <f t="shared" si="5"/>
         <v>-0.15948000000000001</v>
       </c>
-      <c r="P11" s="243" t="b">
+      <c r="P11" s="271" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="243" t="b">
+      <c r="Q11" s="271" t="b">
         <f>IF(G11 &gt; 2*N11, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R11" s="243" t="b">
+      <c r="R11" s="271" t="b">
         <f>IF(H11 &gt; 2*O11,TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="2:18" s="196" customFormat="1">
-      <c r="B12" s="196" t="s">
+      <c r="S11" s="271" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="12" spans="2:20" s="271" customFormat="1">
+      <c r="C12" s="271">
+        <v>24</v>
+      </c>
+      <c r="D12" s="271">
+        <v>18</v>
+      </c>
+      <c r="E12" s="271">
+        <v>4</v>
+      </c>
+      <c r="F12" s="271">
+        <f t="shared" ref="F12:F13" si="13">C12*D12*E12</f>
+        <v>1728</v>
+      </c>
+      <c r="G12" s="161">
+        <f t="shared" ref="G12:G13" si="14">C12*G$4</f>
+        <v>10.24776</v>
+      </c>
+      <c r="H12" s="161">
+        <f t="shared" ref="H12:H13" si="15">D12*H$4</f>
+        <v>8.2805400000000002</v>
+      </c>
+      <c r="I12" s="161">
+        <f t="shared" ref="I12:I13" si="16">E12*I$4</f>
+        <v>8.2519200000000001</v>
+      </c>
+      <c r="J12" s="161">
+        <f t="shared" ref="J12:J13" si="17">C12*J$4</f>
+        <v>0</v>
+      </c>
+      <c r="K12" s="161">
+        <f t="shared" ref="K12:K13" si="18">C12*K$4</f>
+        <v>0</v>
+      </c>
+      <c r="L12" s="161">
+        <f t="shared" ref="L12:L13" si="19">D12*L$4</f>
+        <v>2.5316999999999998</v>
+      </c>
+      <c r="M12" s="161">
+        <f t="shared" ref="M12:M13" si="20">D12*M$4</f>
+        <v>0</v>
+      </c>
+      <c r="N12" s="161">
+        <f t="shared" ref="N12:N13" si="21">E12*N$4</f>
+        <v>3.43052</v>
+      </c>
+      <c r="O12" s="161">
+        <f t="shared" ref="O12:O13" si="22">E12*O$4</f>
+        <v>-0.15948000000000001</v>
+      </c>
+      <c r="P12" s="271" t="b">
+        <f>IF(G12 &gt; 2*L12, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q12" s="271" t="b">
+        <f>IF(G12 &gt; 2*N12, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R12" s="271" t="b">
+        <f>IF(H12 &gt; 2*O12,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="S12" s="271" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="13" spans="2:20" s="271" customFormat="1">
+      <c r="C13" s="271">
+        <v>28</v>
+      </c>
+      <c r="D13" s="271">
+        <v>14</v>
+      </c>
+      <c r="E13" s="271">
+        <v>3</v>
+      </c>
+      <c r="F13" s="271">
+        <f t="shared" si="13"/>
+        <v>1176</v>
+      </c>
+      <c r="G13" s="161">
+        <f t="shared" si="14"/>
+        <v>11.955719999999999</v>
+      </c>
+      <c r="H13" s="161">
+        <f t="shared" si="15"/>
+        <v>6.4404199999999996</v>
+      </c>
+      <c r="I13" s="161">
+        <f t="shared" si="16"/>
+        <v>6.1889400000000006</v>
+      </c>
+      <c r="J13" s="161">
+        <f t="shared" si="17"/>
+        <v>0</v>
+      </c>
+      <c r="K13" s="161">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="L13" s="161">
+        <f t="shared" si="19"/>
+        <v>1.9691000000000001</v>
+      </c>
+      <c r="M13" s="161">
+        <f t="shared" si="20"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="161">
+        <f t="shared" si="21"/>
+        <v>2.5728900000000001</v>
+      </c>
+      <c r="O13" s="161">
+        <f t="shared" si="22"/>
+        <v>-0.11961000000000001</v>
+      </c>
+      <c r="P13" s="271" t="b">
+        <f>IF(G13 &gt; 2*L13, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q13" s="271" t="b">
+        <f>IF(G13 &gt; 2*N13, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R13" s="271" t="b">
+        <f>IF(H13 &gt; 2*O13,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="T13" s="271">
+        <f>F13/2</f>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="14" spans="2:20" s="158" customFormat="1">
+      <c r="G14" s="160"/>
+      <c r="H14" s="160"/>
+      <c r="I14" s="160"/>
+      <c r="J14" s="160"/>
+      <c r="K14" s="160"/>
+      <c r="L14" s="160"/>
+      <c r="M14" s="160"/>
+      <c r="N14" s="160"/>
+      <c r="O14" s="160"/>
+    </row>
+    <row r="15" spans="2:20" s="195" customFormat="1">
+      <c r="B15" s="195" t="s">
         <v>441</v>
       </c>
-      <c r="C12" s="196">
+      <c r="C15" s="195">
         <v>1</v>
       </c>
-      <c r="D12" s="196">
+      <c r="D15" s="195">
         <v>1</v>
       </c>
-      <c r="E12" s="196">
+      <c r="E15" s="195">
         <v>1</v>
       </c>
-      <c r="F12" s="189">
-        <f>C12*D12*E12*4</f>
+      <c r="F15" s="188">
+        <f t="shared" ref="F15:F20" si="23">C15*D15*E15*4</f>
         <v>4</v>
       </c>
-      <c r="G12" s="197">
+      <c r="G15" s="196">
         <v>0.50800000000000001</v>
       </c>
-      <c r="H12" s="197">
+      <c r="H15" s="196">
         <v>0.753</v>
       </c>
-      <c r="I12" s="197">
+      <c r="I15" s="196">
         <v>4.1120000000000001</v>
       </c>
-      <c r="J12" s="197">
+      <c r="J15" s="196">
         <v>0</v>
       </c>
-      <c r="K12" s="197">
+      <c r="K15" s="196">
         <v>0</v>
       </c>
-      <c r="L12" s="197">
+      <c r="L15" s="196">
         <v>0</v>
       </c>
-      <c r="M12" s="197">
+      <c r="M15" s="196">
         <v>0</v>
       </c>
-      <c r="N12" s="197">
+      <c r="N15" s="196">
         <v>0</v>
       </c>
-      <c r="O12" s="197">
+      <c r="O15" s="196">
         <v>0</v>
       </c>
-      <c r="P12" s="189" t="b">
+      <c r="P15" s="188" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q12" s="189" t="b">
-        <f>IF(G12 &gt; 2*N12, TRUE)</f>
+      <c r="Q15" s="188" t="b">
+        <f>IF(G15 &gt; 2*N15, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R12" s="189" t="b">
-        <f>IF(H12 &gt; 2*O12,TRUE)</f>
+      <c r="R15" s="188" t="b">
+        <f>IF(H15 &gt; 2*O15,TRUE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="2:18">
-      <c r="C13" s="67">
+    <row r="16" spans="2:20">
+      <c r="C16" s="67">
         <v>8</v>
       </c>
-      <c r="D13" s="67">
+      <c r="D16" s="67">
         <v>6</v>
       </c>
-      <c r="E13" s="67">
+      <c r="E16" s="67">
         <v>1</v>
       </c>
-      <c r="F13" s="67">
-        <f>C13*D13*E13*4</f>
+      <c r="F16" s="67">
+        <f t="shared" si="23"/>
         <v>192</v>
       </c>
-      <c r="G13" s="187">
-        <f t="shared" ref="G13:I14" si="13">C13*G$12</f>
+      <c r="G16" s="186">
+        <f t="shared" ref="G16:I17" si="24">C16*G$15</f>
         <v>4.0640000000000001</v>
       </c>
-      <c r="H13" s="187">
-        <f t="shared" si="13"/>
+      <c r="H16" s="186">
+        <f t="shared" si="24"/>
         <v>4.5179999999999998</v>
       </c>
-      <c r="I13" s="187">
-        <f t="shared" si="13"/>
+      <c r="I16" s="186">
+        <f t="shared" si="24"/>
         <v>4.1120000000000001</v>
       </c>
-      <c r="J13" s="187">
-        <f>C13*J$12</f>
+      <c r="J16" s="186">
+        <f>C16*J$15</f>
         <v>0</v>
       </c>
-      <c r="K13" s="187">
-        <f t="shared" ref="K13:L16" si="14">C13*K$12</f>
+      <c r="K16" s="186">
+        <f t="shared" ref="K16:L19" si="25">C16*K$15</f>
         <v>0</v>
       </c>
-      <c r="L13" s="187">
-        <f t="shared" si="14"/>
+      <c r="L16" s="186">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M13" s="187">
-        <f t="shared" ref="M13:N16" si="15">D13*M$12</f>
+      <c r="M16" s="186">
+        <f t="shared" ref="M16:N19" si="26">D16*M$15</f>
         <v>0</v>
       </c>
-      <c r="N13" s="187">
-        <f t="shared" si="15"/>
+      <c r="N16" s="186">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O13" s="187">
-        <f>E13*O$12</f>
+      <c r="O16" s="186">
+        <f>E16*O$15</f>
         <v>0</v>
       </c>
-      <c r="P13" s="184" t="b">
+      <c r="P16" s="271" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q13" s="184" t="b">
-        <f t="shared" ref="Q13" si="16">IF(G13 &gt; 2*N13, TRUE)</f>
+      <c r="Q16" s="271" t="b">
+        <f t="shared" ref="Q16" si="27">IF(G16 &gt; 2*N16, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R13" s="184" t="b">
-        <f t="shared" ref="R13" si="17">IF(H13 &gt; 2*O13,TRUE)</f>
+      <c r="R16" s="271" t="b">
+        <f t="shared" ref="R16" si="28">IF(H16 &gt; 2*O16,TRUE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="2:18">
-      <c r="C14" s="67">
+    <row r="17" spans="3:19">
+      <c r="C17" s="67">
         <v>15</v>
       </c>
-      <c r="D14" s="67">
+      <c r="D17" s="67">
         <v>10</v>
       </c>
-      <c r="E14" s="67">
+      <c r="E17" s="67">
         <v>2</v>
       </c>
-      <c r="F14" s="67">
-        <f>C14*D14*E14*4</f>
+      <c r="F17" s="67">
+        <f t="shared" si="23"/>
         <v>1200</v>
       </c>
-      <c r="G14" s="187">
-        <f t="shared" si="13"/>
+      <c r="G17" s="186">
+        <f t="shared" si="24"/>
         <v>7.62</v>
       </c>
-      <c r="H14" s="187">
-        <f t="shared" si="13"/>
+      <c r="H17" s="186">
+        <f t="shared" si="24"/>
         <v>7.53</v>
       </c>
-      <c r="I14" s="187">
-        <f t="shared" si="13"/>
+      <c r="I17" s="186">
+        <f t="shared" si="24"/>
         <v>8.2240000000000002</v>
       </c>
-      <c r="J14" s="187">
-        <f>C14*J$12</f>
+      <c r="J17" s="186">
+        <f>C17*J$15</f>
         <v>0</v>
       </c>
-      <c r="K14" s="187">
-        <f t="shared" si="14"/>
+      <c r="K17" s="186">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L14" s="187">
-        <f t="shared" si="14"/>
+      <c r="L17" s="186">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M14" s="187">
-        <f t="shared" si="15"/>
+      <c r="M17" s="186">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N14" s="187">
-        <f t="shared" si="15"/>
+      <c r="N17" s="186">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O14" s="187">
-        <f>E14*O$12</f>
+      <c r="O17" s="186">
+        <f>E17*O$15</f>
         <v>0</v>
       </c>
-      <c r="P14" s="240" t="b">
+      <c r="P17" s="271" t="b">
         <f t="shared" si="12"/>
         <v>1</v>
       </c>
-      <c r="Q14" s="240" t="b">
-        <f t="shared" ref="Q14" si="18">IF(G14 &gt; 2*N14, TRUE)</f>
+      <c r="Q17" s="271" t="b">
+        <f t="shared" ref="Q17" si="29">IF(G17 &gt; 2*N17, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R14" s="240" t="b">
-        <f t="shared" ref="R14" si="19">IF(H14 &gt; 2*O14,TRUE)</f>
+      <c r="R17" s="271" t="b">
+        <f t="shared" ref="R17" si="30">IF(H17 &gt; 2*O17,TRUE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="2:18">
-      <c r="C15" s="67">
+    <row r="18" spans="3:19">
+      <c r="C18" s="67">
         <v>12</v>
       </c>
-      <c r="D15" s="67">
+      <c r="D18" s="67">
         <v>8</v>
       </c>
-      <c r="E15" s="67">
+      <c r="E18" s="67">
         <v>3</v>
       </c>
-      <c r="F15" s="67">
-        <f>C15*D15*E15*4</f>
+      <c r="F18" s="67">
+        <f t="shared" si="23"/>
         <v>1152</v>
       </c>
-      <c r="G15" s="187">
-        <f t="shared" ref="G15" si="20">C15*G$12</f>
+      <c r="G18" s="186">
+        <f t="shared" ref="G18" si="31">C18*G$15</f>
         <v>6.0960000000000001</v>
       </c>
-      <c r="H15" s="187">
-        <f t="shared" ref="H15" si="21">D15*H$12</f>
+      <c r="H18" s="186">
+        <f t="shared" ref="H18" si="32">D18*H$15</f>
         <v>6.024</v>
       </c>
-      <c r="I15" s="187">
-        <f t="shared" ref="I15" si="22">E15*I$12</f>
+      <c r="I18" s="186">
+        <f t="shared" ref="I18" si="33">E18*I$15</f>
         <v>12.336</v>
       </c>
-      <c r="J15" s="187">
-        <f>C15*J$12</f>
+      <c r="J18" s="186">
+        <f>C18*J$15</f>
         <v>0</v>
       </c>
-      <c r="K15" s="187">
-        <f t="shared" si="14"/>
+      <c r="K18" s="186">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L15" s="187">
-        <f t="shared" si="14"/>
+      <c r="L18" s="186">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M15" s="187">
-        <f t="shared" si="15"/>
+      <c r="M18" s="186">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N15" s="187">
-        <f t="shared" si="15"/>
+      <c r="N18" s="186">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O15" s="187">
-        <f>E15*O$12</f>
+      <c r="O18" s="186">
+        <f>E18*O$15</f>
         <v>0</v>
       </c>
-      <c r="P15" s="237" t="b">
-        <f t="shared" ref="P15" si="23">IF(G15 &gt; 2*L15, TRUE)</f>
+      <c r="P18" s="271" t="b">
+        <f t="shared" ref="P18" si="34">IF(G18 &gt; 2*L18, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q15" s="237" t="b">
-        <f t="shared" ref="Q15" si="24">IF(G15 &gt; 2*N15, TRUE)</f>
+      <c r="Q18" s="271" t="b">
+        <f t="shared" ref="Q18" si="35">IF(G18 &gt; 2*N18, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R15" s="237" t="b">
-        <f t="shared" ref="R15" si="25">IF(H15 &gt; 2*O15,TRUE)</f>
+      <c r="R18" s="271" t="b">
+        <f t="shared" ref="R18" si="36">IF(H18 &gt; 2*O18,TRUE)</f>
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:18" s="234" customFormat="1">
-      <c r="C16" s="234">
+    <row r="19" spans="3:19">
+      <c r="C19" s="67">
         <v>15</v>
       </c>
-      <c r="D16" s="234">
+      <c r="D19" s="67">
         <v>10</v>
       </c>
-      <c r="E16" s="234">
+      <c r="E19" s="67">
         <v>3</v>
       </c>
-      <c r="F16" s="234">
-        <f>C16*D16*E16*4</f>
+      <c r="F19" s="67">
+        <f t="shared" si="23"/>
         <v>1800</v>
       </c>
-      <c r="G16" s="245">
-        <f t="shared" ref="G16" si="26">C16*G$12</f>
+      <c r="G19" s="186">
+        <f t="shared" ref="G19" si="37">C19*G$15</f>
         <v>7.62</v>
       </c>
-      <c r="H16" s="245">
-        <f t="shared" ref="H16" si="27">D16*H$12</f>
+      <c r="H19" s="186">
+        <f t="shared" ref="H19" si="38">D19*H$15</f>
         <v>7.53</v>
       </c>
-      <c r="I16" s="245">
-        <f t="shared" ref="I16" si="28">E16*I$12</f>
+      <c r="I19" s="186">
+        <f t="shared" ref="I19" si="39">E19*I$15</f>
         <v>12.336</v>
       </c>
-      <c r="J16" s="245">
-        <f>C16*J$12</f>
+      <c r="J19" s="186">
+        <f>C19*J$15</f>
         <v>0</v>
       </c>
-      <c r="K16" s="245">
-        <f t="shared" si="14"/>
+      <c r="K19" s="186">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="L16" s="245">
-        <f t="shared" si="14"/>
+      <c r="L19" s="186">
+        <f t="shared" si="25"/>
         <v>0</v>
       </c>
-      <c r="M16" s="245">
-        <f t="shared" si="15"/>
+      <c r="M19" s="186">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="N16" s="245">
-        <f t="shared" si="15"/>
+      <c r="N19" s="186">
+        <f t="shared" si="26"/>
         <v>0</v>
       </c>
-      <c r="O16" s="245">
-        <f>E16*O$12</f>
+      <c r="O19" s="186">
+        <f>E19*O$15</f>
         <v>0</v>
       </c>
-      <c r="P16" s="246" t="b">
-        <f t="shared" ref="P16" si="29">IF(G16 &gt; 2*L16, TRUE)</f>
+      <c r="P19" s="271" t="b">
+        <f t="shared" ref="P19" si="40">IF(G19 &gt; 2*L19, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q16" s="246" t="b">
-        <f t="shared" ref="Q16" si="30">IF(G16 &gt; 2*N16, TRUE)</f>
+      <c r="Q19" s="271" t="b">
+        <f t="shared" ref="Q19" si="41">IF(G19 &gt; 2*N19, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="246" t="b">
-        <f t="shared" ref="R16" si="31">IF(H16 &gt; 2*O16,TRUE)</f>
+      <c r="R19" s="271" t="b">
+        <f t="shared" ref="R19" si="42">IF(H19 &gt; 2*O19,TRUE)</f>
         <v>1</v>
+      </c>
+      <c r="S19" s="67" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="20" spans="3:19">
+      <c r="C20" s="67">
+        <v>20</v>
+      </c>
+      <c r="D20" s="67">
+        <v>10</v>
+      </c>
+      <c r="E20" s="67">
+        <v>2</v>
+      </c>
+      <c r="F20" s="67">
+        <f t="shared" si="23"/>
+        <v>1600</v>
+      </c>
+      <c r="G20" s="186">
+        <f t="shared" ref="G20" si="43">C20*G$15</f>
+        <v>10.16</v>
+      </c>
+      <c r="H20" s="186">
+        <f t="shared" ref="H20" si="44">D20*H$15</f>
+        <v>7.53</v>
+      </c>
+      <c r="I20" s="186">
+        <f t="shared" ref="I20" si="45">E20*I$15</f>
+        <v>8.2240000000000002</v>
+      </c>
+      <c r="J20" s="186">
+        <f>C20*J$15</f>
+        <v>0</v>
+      </c>
+      <c r="K20" s="186">
+        <f t="shared" ref="K20" si="46">C20*K$15</f>
+        <v>0</v>
+      </c>
+      <c r="L20" s="186">
+        <f t="shared" ref="L20" si="47">D20*L$15</f>
+        <v>0</v>
+      </c>
+      <c r="M20" s="186">
+        <f t="shared" ref="M20" si="48">D20*M$15</f>
+        <v>0</v>
+      </c>
+      <c r="N20" s="186">
+        <f t="shared" ref="N20" si="49">E20*N$15</f>
+        <v>0</v>
+      </c>
+      <c r="O20" s="186">
+        <f>E20*O$15</f>
+        <v>0</v>
+      </c>
+      <c r="P20" s="271" t="b">
+        <f t="shared" ref="P20" si="50">IF(G20 &gt; 2*L20, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="Q20" s="271" t="b">
+        <f t="shared" ref="Q20" si="51">IF(G20 &gt; 2*N20, TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="R20" s="271" t="b">
+        <f t="shared" ref="R20" si="52">IF(H20 &gt; 2*O20,TRUE)</f>
+        <v>1</v>
+      </c>
+      <c r="S20" s="67" t="s">
+        <v>543</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="P4:R11">
-    <cfRule type="cellIs" dxfId="3" priority="4" operator="equal">
+  <conditionalFormatting sqref="P4:R14 P16:R18">
+    <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P12:R12">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+  <conditionalFormatting sqref="P15:R15">
+    <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P13:R15">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
-      <formula>TRUE</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="P16:R16">
+  <conditionalFormatting sqref="P19:R20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -19203,41 +19403,41 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9DD18-B806-45D2-93AF-832D747FF56C}">
   <dimension ref="A2:R36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L40" sqref="L40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9" style="193"/>
-    <col min="3" max="3" width="9" style="266"/>
-    <col min="4" max="4" width="9" style="195"/>
-    <col min="5" max="5" width="23.5" style="194" customWidth="1"/>
-    <col min="6" max="6" width="10" style="238" customWidth="1"/>
-    <col min="7" max="7" width="10" style="193" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="193" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="239" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="266" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="256" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="239" customWidth="1"/>
-    <col min="13" max="13" width="6.375" style="239" customWidth="1"/>
+    <col min="1" max="2" width="9" style="192"/>
+    <col min="3" max="3" width="9" style="259"/>
+    <col min="4" max="4" width="9" style="194"/>
+    <col min="5" max="5" width="23.5" style="193" customWidth="1"/>
+    <col min="6" max="6" width="10" style="236" customWidth="1"/>
+    <col min="7" max="7" width="10" style="192" customWidth="1"/>
+    <col min="8" max="8" width="15.625" style="192" customWidth="1"/>
+    <col min="9" max="9" width="9.375" style="237" customWidth="1"/>
+    <col min="10" max="10" width="9.375" style="259" customWidth="1"/>
+    <col min="11" max="11" width="7.75" style="249" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="237" customWidth="1"/>
+    <col min="13" max="13" width="6.375" style="237" customWidth="1"/>
     <col min="14" max="15" width="14.375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="193" customWidth="1"/>
+    <col min="16" max="16" width="14.5" style="192" customWidth="1"/>
     <col min="17" max="17" width="13" style="29" customWidth="1"/>
-    <col min="18" max="18" width="71.125" style="193" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="193"/>
+    <col min="18" max="18" width="71.125" style="192" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="192"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:18">
-      <c r="B2" s="278" t="s">
+      <c r="B2" s="272" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="278"/>
-      <c r="D2" s="281"/>
-      <c r="F2" s="238" t="s">
+      <c r="C2" s="272"/>
+      <c r="D2" s="275"/>
+      <c r="F2" s="236" t="s">
         <v>477</v>
       </c>
-      <c r="G2" s="193" t="s">
+      <c r="G2" s="192" t="s">
         <v>478</v>
       </c>
     </row>
@@ -19269,7 +19469,7 @@
       <c r="J3" s="15" t="s">
         <v>522</v>
       </c>
-      <c r="K3" s="257" t="s">
+      <c r="K3" s="250" t="s">
         <v>488</v>
       </c>
       <c r="L3" s="15" t="s">
@@ -19295,277 +19495,277 @@
       </c>
     </row>
     <row r="4" spans="1:18">
-      <c r="A4" s="193" t="s">
+      <c r="A4" s="192" t="s">
         <v>446</v>
       </c>
-      <c r="C4" s="266">
+      <c r="C4" s="259">
         <v>269.5</v>
       </c>
-      <c r="D4" s="195">
+      <c r="D4" s="194">
         <v>283</v>
       </c>
-      <c r="E4" s="194" t="s">
+      <c r="E4" s="193" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="241">
+      <c r="F4" s="238">
         <f t="shared" ref="F4:F15" si="0">$D$4-$F$3</f>
         <v>243</v>
       </c>
-      <c r="G4" s="239">
+      <c r="G4" s="237">
         <f t="shared" ref="G4:G15" si="1">$D$4+$G$3</f>
         <v>293</v>
       </c>
-      <c r="H4" s="239" t="s">
+      <c r="H4" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I4" s="239">
+      <c r="I4" s="237">
         <v>1800</v>
       </c>
-      <c r="J4" s="266" t="s">
+      <c r="J4" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="239">
+      <c r="L4" s="237">
         <v>72</v>
       </c>
-      <c r="M4" s="239">
+      <c r="M4" s="237">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:18">
-      <c r="E5" s="194" t="s">
+      <c r="E5" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="241">
+      <c r="F5" s="238">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G5" s="239">
+      <c r="G5" s="237">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H5" s="239" t="s">
+      <c r="H5" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I5" s="239">
+      <c r="I5" s="237">
         <v>1800</v>
       </c>
-      <c r="J5" s="266" t="s">
+      <c r="J5" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="256">
+      <c r="K5" s="249">
         <v>2</v>
       </c>
-      <c r="L5" s="239">
+      <c r="L5" s="237">
         <v>72</v>
       </c>
-      <c r="M5" s="239">
+      <c r="M5" s="237">
         <v>2</v>
       </c>
-      <c r="P5" s="193">
+      <c r="P5" s="192">
         <v>853183</v>
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="E6" s="194" t="s">
+      <c r="E6" s="193" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="238">
+      <c r="F6" s="236">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G6" s="193">
+      <c r="G6" s="192">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H6" s="193" t="s">
+      <c r="H6" s="192" t="s">
         <v>479</v>
       </c>
-      <c r="I6" s="239">
+      <c r="I6" s="237">
         <v>1800</v>
       </c>
-      <c r="J6" s="266" t="s">
+      <c r="J6" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="256">
+      <c r="K6" s="249">
         <v>2</v>
       </c>
-      <c r="L6" s="239">
+      <c r="L6" s="237">
         <v>96</v>
       </c>
-      <c r="M6" s="239">
+      <c r="M6" s="237">
         <v>1</v>
       </c>
       <c r="N6" s="18">
         <f>(L6/72)*33.408*(1024/I6)</f>
         <v>25.340586666666663</v>
       </c>
-      <c r="P6" s="193">
+      <c r="P6" s="192">
         <v>852665</v>
       </c>
       <c r="Q6" s="29">
         <v>5.5367399999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="239" customFormat="1">
-      <c r="C7" s="266"/>
-      <c r="D7" s="242"/>
-      <c r="E7" s="249" t="s">
+    <row r="7" spans="1:18" s="237" customFormat="1">
+      <c r="C7" s="259"/>
+      <c r="D7" s="239"/>
+      <c r="E7" s="242" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="249">
+      <c r="F7" s="242">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G7" s="247">
+      <c r="G7" s="240">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H7" s="247" t="s">
+      <c r="H7" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I7" s="247">
+      <c r="I7" s="240">
         <v>1800</v>
       </c>
-      <c r="J7" s="266" t="s">
+      <c r="J7" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="256">
+      <c r="K7" s="249">
         <v>4</v>
       </c>
       <c r="N7" s="18"/>
       <c r="O7" s="18"/>
-      <c r="P7" s="239">
+      <c r="P7" s="237">
         <v>854061</v>
       </c>
       <c r="Q7" s="29">
         <v>1.6237999999999999E-2</v>
       </c>
-      <c r="R7" s="239" t="s">
+      <c r="R7" s="237" t="s">
         <v>492</v>
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="E8" s="194" t="s">
+      <c r="E8" s="193" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="241">
+      <c r="F8" s="238">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G8" s="239">
+      <c r="G8" s="237">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H8" s="239" t="s">
+      <c r="H8" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I8" s="239">
+      <c r="I8" s="237">
         <v>1800</v>
       </c>
-      <c r="J8" s="266" t="s">
+      <c r="J8" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="256">
+      <c r="K8" s="249">
         <v>4</v>
       </c>
-      <c r="L8" s="239">
+      <c r="L8" s="237">
         <v>96</v>
       </c>
-      <c r="M8" s="239">
+      <c r="M8" s="237">
         <v>2</v>
       </c>
       <c r="N8" s="18">
         <f>42.237*M8/2</f>
         <v>42.237000000000002</v>
       </c>
-      <c r="P8" s="193">
+      <c r="P8" s="192">
         <v>854917</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="263" customFormat="1">
-      <c r="C9" s="266"/>
-      <c r="D9" s="265"/>
-      <c r="E9" s="264"/>
-      <c r="F9" s="264">
+    <row r="9" spans="1:18" s="256" customFormat="1">
+      <c r="C9" s="259"/>
+      <c r="D9" s="258"/>
+      <c r="E9" s="257"/>
+      <c r="F9" s="257">
         <v>283</v>
       </c>
-      <c r="G9" s="263">
+      <c r="G9" s="256">
         <v>333</v>
       </c>
-      <c r="J9" s="266"/>
-      <c r="K9" s="256"/>
+      <c r="J9" s="259"/>
+      <c r="K9" s="249"/>
       <c r="N9" s="18"/>
       <c r="O9" s="18"/>
       <c r="Q9" s="29"/>
     </row>
     <row r="10" spans="1:18">
-      <c r="E10" s="194" t="s">
+      <c r="E10" s="193" t="s">
         <v>449</v>
       </c>
-      <c r="F10" s="241">
+      <c r="F10" s="238">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G10" s="239">
+      <c r="G10" s="237">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H10" s="239" t="s">
+      <c r="H10" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I10" s="239">
+      <c r="I10" s="237">
         <v>1800</v>
       </c>
-      <c r="J10" s="266" t="s">
+      <c r="J10" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="256">
+      <c r="K10" s="249">
         <v>2</v>
       </c>
-      <c r="L10" s="239">
+      <c r="L10" s="237">
         <v>120</v>
       </c>
-      <c r="M10" s="239">
+      <c r="M10" s="237">
         <v>1</v>
       </c>
       <c r="N10" s="18">
         <f>(L10/96)*27.775*(1024/I10)</f>
         <v>19.751111111111111</v>
       </c>
-      <c r="P10" s="193" t="s">
+      <c r="P10" s="192" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="247" customFormat="1">
-      <c r="C11" s="266"/>
-      <c r="D11" s="250"/>
-      <c r="E11" s="249" t="s">
+    <row r="11" spans="1:18" s="240" customFormat="1">
+      <c r="C11" s="259"/>
+      <c r="D11" s="243"/>
+      <c r="E11" s="242" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="249">
+      <c r="F11" s="242">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G11" s="247">
+      <c r="G11" s="240">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H11" s="247" t="s">
+      <c r="H11" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I11" s="247">
+      <c r="I11" s="240">
         <v>1800</v>
       </c>
-      <c r="J11" s="266" t="s">
+      <c r="J11" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="256">
+      <c r="K11" s="249">
         <v>4</v>
       </c>
-      <c r="L11" s="247">
+      <c r="L11" s="240">
         <v>120</v>
       </c>
-      <c r="M11" s="247">
+      <c r="M11" s="240">
         <v>1</v>
       </c>
       <c r="N11" s="18">
@@ -19573,85 +19773,85 @@
         <v>19.751111111111111</v>
       </c>
       <c r="O11" s="18"/>
-      <c r="P11" s="247">
+      <c r="P11" s="240">
         <v>857921</v>
       </c>
       <c r="Q11" s="29"/>
     </row>
     <row r="12" spans="1:18">
-      <c r="E12" s="194" t="s">
+      <c r="E12" s="193" t="s">
         <v>450</v>
       </c>
-      <c r="F12" s="241">
+      <c r="F12" s="238">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G12" s="239">
+      <c r="G12" s="237">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H12" s="239" t="s">
+      <c r="H12" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I12" s="239">
+      <c r="I12" s="237">
         <v>1800</v>
       </c>
-      <c r="J12" s="266" t="s">
+      <c r="J12" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="256">
+      <c r="K12" s="249">
         <v>2</v>
       </c>
-      <c r="L12" s="239">
+      <c r="L12" s="237">
         <v>96</v>
       </c>
-      <c r="M12" s="239">
+      <c r="M12" s="237">
         <v>1</v>
       </c>
       <c r="N12" s="18">
         <f>(L12/72)*29.913*(1024/I12)</f>
         <v>22.689564444444443</v>
       </c>
-      <c r="P12" s="193">
+      <c r="P12" s="192">
         <v>853936</v>
       </c>
       <c r="Q12" s="29">
         <v>8.9042999999999997E-2</v>
       </c>
-      <c r="R12" s="193" t="s">
+      <c r="R12" s="192" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="247" customFormat="1">
-      <c r="C13" s="266"/>
-      <c r="D13" s="250"/>
-      <c r="E13" s="249" t="s">
+    <row r="13" spans="1:18" s="240" customFormat="1">
+      <c r="C13" s="259"/>
+      <c r="D13" s="243"/>
+      <c r="E13" s="242" t="s">
         <v>450</v>
       </c>
-      <c r="F13" s="249">
+      <c r="F13" s="242">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G13" s="247">
+      <c r="G13" s="240">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H13" s="247" t="s">
+      <c r="H13" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I13" s="247">
+      <c r="I13" s="240">
         <v>1800</v>
       </c>
-      <c r="J13" s="266" t="s">
+      <c r="J13" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K13" s="256">
+      <c r="K13" s="249">
         <v>4</v>
       </c>
-      <c r="L13" s="247">
+      <c r="L13" s="240">
         <v>96</v>
       </c>
-      <c r="M13" s="247">
+      <c r="M13" s="240">
         <v>1</v>
       </c>
       <c r="N13" s="18">
@@ -19659,87 +19859,87 @@
         <v>22.689564444444443</v>
       </c>
       <c r="O13" s="18"/>
-      <c r="P13" s="255">
+      <c r="P13" s="248">
         <v>856418</v>
       </c>
       <c r="Q13" s="29">
         <v>1.2351900000000001E-2</v>
       </c>
-      <c r="R13" s="247" t="s">
+      <c r="R13" s="240" t="s">
         <v>494</v>
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="E14" s="194" t="s">
+      <c r="E14" s="193" t="s">
         <v>451</v>
       </c>
-      <c r="F14" s="241">
+      <c r="F14" s="238">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G14" s="239">
+      <c r="G14" s="237">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H14" s="239" t="s">
+      <c r="H14" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I14" s="239">
+      <c r="I14" s="237">
         <v>1800</v>
       </c>
-      <c r="J14" s="266" t="s">
+      <c r="J14" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K14" s="256">
+      <c r="K14" s="249">
         <v>2</v>
       </c>
-      <c r="L14" s="239">
+      <c r="L14" s="237">
         <v>96</v>
       </c>
-      <c r="M14" s="239">
+      <c r="M14" s="237">
         <v>1</v>
       </c>
       <c r="N14" s="18">
         <f>(L14/72)*29.913*(1024/I14)</f>
         <v>22.689564444444443</v>
       </c>
-      <c r="P14" s="251">
+      <c r="P14" s="244">
         <v>855571</v>
       </c>
       <c r="Q14" s="29">
         <v>4.2958799999999998E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:18" s="247" customFormat="1">
-      <c r="C15" s="266"/>
-      <c r="D15" s="250"/>
-      <c r="E15" s="249" t="s">
+    <row r="15" spans="1:18" s="240" customFormat="1">
+      <c r="C15" s="259"/>
+      <c r="D15" s="243"/>
+      <c r="E15" s="242" t="s">
         <v>451</v>
       </c>
-      <c r="F15" s="249">
+      <c r="F15" s="242">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G15" s="247">
+      <c r="G15" s="240">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H15" s="247" t="s">
+      <c r="H15" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I15" s="247">
+      <c r="I15" s="240">
         <v>1800</v>
       </c>
-      <c r="J15" s="266" t="s">
+      <c r="J15" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="256">
+      <c r="K15" s="249">
         <v>4</v>
       </c>
-      <c r="L15" s="247">
+      <c r="L15" s="240">
         <v>96</v>
       </c>
-      <c r="M15" s="247">
+      <c r="M15" s="240">
         <v>1</v>
       </c>
       <c r="N15" s="18">
@@ -19747,7 +19947,7 @@
         <v>22.689564444444443</v>
       </c>
       <c r="O15" s="18"/>
-      <c r="P15" s="251">
+      <c r="P15" s="244">
         <v>857920</v>
       </c>
       <c r="Q15" s="29">
@@ -19755,454 +19955,454 @@
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="E16" s="194" t="s">
+      <c r="E16" s="193" t="s">
         <v>485</v>
       </c>
-      <c r="K16" s="256">
+      <c r="K16" s="249">
         <v>4</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="266" customFormat="1">
-      <c r="D17" s="269"/>
-      <c r="E17" s="268"/>
-      <c r="F17" s="268"/>
-      <c r="K17" s="256"/>
+    <row r="17" spans="1:18" s="259" customFormat="1">
+      <c r="D17" s="262"/>
+      <c r="E17" s="261"/>
+      <c r="F17" s="261"/>
+      <c r="K17" s="249"/>
       <c r="N17" s="18"/>
       <c r="O17" s="18"/>
       <c r="Q17" s="29"/>
     </row>
-    <row r="18" spans="1:18" s="266" customFormat="1">
-      <c r="D18" s="269"/>
-      <c r="E18" s="268" t="s">
+    <row r="18" spans="1:18" s="259" customFormat="1">
+      <c r="D18" s="262"/>
+      <c r="E18" s="261" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="268"/>
-      <c r="J18" s="266" t="s">
+      <c r="F18" s="261"/>
+      <c r="J18" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="K18" s="256"/>
+      <c r="K18" s="249"/>
       <c r="N18" s="18"/>
       <c r="O18" s="18"/>
       <c r="Q18" s="29"/>
-      <c r="R18" s="266" t="s">
+      <c r="R18" s="259" t="s">
         <v>527</v>
       </c>
     </row>
-    <row r="19" spans="1:18" s="266" customFormat="1">
-      <c r="D19" s="269"/>
-      <c r="E19" s="268" t="s">
+    <row r="19" spans="1:18" s="259" customFormat="1">
+      <c r="D19" s="262"/>
+      <c r="E19" s="261" t="s">
         <v>169</v>
       </c>
-      <c r="F19" s="268"/>
-      <c r="J19" s="266" t="s">
+      <c r="F19" s="261"/>
+      <c r="J19" s="259" t="s">
         <v>98</v>
       </c>
-      <c r="K19" s="256"/>
+      <c r="K19" s="249"/>
       <c r="N19" s="18"/>
       <c r="O19" s="18"/>
       <c r="Q19" s="29"/>
     </row>
-    <row r="20" spans="1:18" s="266" customFormat="1">
-      <c r="D20" s="269"/>
-      <c r="E20" s="268"/>
-      <c r="F20" s="268"/>
-      <c r="K20" s="256"/>
+    <row r="20" spans="1:18" s="259" customFormat="1">
+      <c r="D20" s="262"/>
+      <c r="E20" s="261"/>
+      <c r="F20" s="261"/>
+      <c r="K20" s="249"/>
       <c r="N20" s="18"/>
       <c r="O20" s="18"/>
       <c r="Q20" s="29"/>
     </row>
-    <row r="21" spans="1:18" s="266" customFormat="1">
-      <c r="D21" s="269"/>
-      <c r="E21" s="268" t="s">
+    <row r="21" spans="1:18" s="259" customFormat="1">
+      <c r="D21" s="262"/>
+      <c r="E21" s="261" t="s">
         <v>167</v>
       </c>
-      <c r="F21" s="268"/>
-      <c r="J21" s="266" t="s">
+      <c r="F21" s="261"/>
+      <c r="J21" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K21" s="256"/>
+      <c r="K21" s="249"/>
       <c r="N21" s="18"/>
       <c r="O21" s="18"/>
       <c r="Q21" s="29"/>
     </row>
-    <row r="22" spans="1:18" s="266" customFormat="1">
-      <c r="D22" s="269"/>
-      <c r="E22" s="268" t="s">
+    <row r="22" spans="1:18" s="259" customFormat="1">
+      <c r="D22" s="262"/>
+      <c r="E22" s="261" t="s">
         <v>169</v>
       </c>
-      <c r="F22" s="268" t="s">
+      <c r="F22" s="261" t="s">
         <v>528</v>
       </c>
-      <c r="G22" s="266" t="s">
+      <c r="G22" s="259" t="s">
         <v>529</v>
       </c>
-      <c r="K22" s="256"/>
+      <c r="K22" s="249"/>
       <c r="N22" s="18"/>
       <c r="O22" s="18"/>
       <c r="Q22" s="29"/>
     </row>
     <row r="23" spans="1:18" s="15" customFormat="1">
       <c r="D23" s="21"/>
-      <c r="K23" s="257"/>
+      <c r="K23" s="250"/>
       <c r="N23" s="19"/>
       <c r="O23" s="19"/>
       <c r="Q23" s="30"/>
     </row>
     <row r="24" spans="1:18">
-      <c r="E24" s="194" t="s">
+      <c r="E24" s="193" t="s">
         <v>486</v>
       </c>
-      <c r="F24" s="238">
+      <c r="F24" s="236">
         <v>280</v>
       </c>
-      <c r="G24" s="193">
+      <c r="G24" s="192">
         <v>280</v>
       </c>
-      <c r="H24" s="193" t="s">
+      <c r="H24" s="192" t="s">
         <v>487</v>
       </c>
-      <c r="I24" s="239">
+      <c r="I24" s="237">
         <v>1800</v>
       </c>
-      <c r="L24" s="239">
+      <c r="L24" s="237">
         <v>96</v>
       </c>
-      <c r="P24" s="193">
+      <c r="P24" s="192">
         <v>853816</v>
       </c>
-      <c r="R24" s="193" t="s">
+      <c r="R24" s="192" t="s">
         <v>495</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="15" customFormat="1">
       <c r="D25" s="21"/>
-      <c r="K25" s="257"/>
+      <c r="K25" s="250"/>
       <c r="N25" s="19"/>
       <c r="O25" s="19"/>
       <c r="Q25" s="30"/>
     </row>
     <row r="26" spans="1:18">
-      <c r="A26" s="193" t="s">
+      <c r="A26" s="192" t="s">
         <v>445</v>
       </c>
-      <c r="C26" s="266" t="s">
+      <c r="C26" s="259" t="s">
         <v>433</v>
       </c>
-      <c r="D26" s="195">
+      <c r="D26" s="194">
         <v>291</v>
       </c>
-      <c r="E26" s="200" t="s">
+      <c r="E26" s="199" t="s">
         <v>166</v>
       </c>
-      <c r="F26" s="238">
+      <c r="F26" s="236">
         <f t="shared" ref="F26:F33" si="2">$D$26-$F$3</f>
         <v>251</v>
       </c>
-      <c r="G26" s="236">
+      <c r="G26" s="235">
         <f t="shared" ref="G26:G33" si="3">$D$26+$G$3</f>
         <v>301</v>
       </c>
-      <c r="H26" s="239" t="s">
+      <c r="H26" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I26" s="239">
+      <c r="I26" s="237">
         <v>1296</v>
       </c>
-      <c r="J26" s="266" t="s">
+      <c r="J26" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="L26" s="239">
+      <c r="L26" s="237">
         <v>72</v>
       </c>
-      <c r="M26" s="239">
+      <c r="M26" s="237">
         <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:18">
-      <c r="E27" s="277" t="s">
+      <c r="E27" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="F27" s="241">
+      <c r="F27" s="238">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G27" s="239">
+      <c r="G27" s="237">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H27" s="239" t="s">
+      <c r="H27" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I27" s="239">
+      <c r="I27" s="237">
         <v>1296</v>
       </c>
-      <c r="J27" s="266" t="s">
+      <c r="J27" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="256">
+      <c r="K27" s="249">
         <v>2</v>
       </c>
-      <c r="L27" s="239">
+      <c r="L27" s="237">
         <v>72</v>
       </c>
-      <c r="M27" s="239">
+      <c r="M27" s="237">
         <v>2</v>
       </c>
-      <c r="P27" s="251">
+      <c r="P27" s="244">
         <v>856325</v>
       </c>
-      <c r="R27" s="193" t="s">
+      <c r="R27" s="192" t="s">
         <v>510</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="266" customFormat="1">
-      <c r="D28" s="269"/>
-      <c r="E28" s="277" t="s">
+    <row r="28" spans="1:18" s="259" customFormat="1">
+      <c r="D28" s="262"/>
+      <c r="E28" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="268">
+      <c r="F28" s="261">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G28" s="266">
+      <c r="G28" s="259">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H28" s="266" t="s">
+      <c r="H28" s="259" t="s">
         <v>479</v>
       </c>
-      <c r="I28" s="266">
+      <c r="I28" s="259">
         <v>1296</v>
       </c>
-      <c r="J28" s="266" t="s">
+      <c r="J28" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="256">
+      <c r="K28" s="249">
         <v>4</v>
       </c>
-      <c r="L28" s="266">
+      <c r="L28" s="259">
         <v>72</v>
       </c>
-      <c r="M28" s="266">
+      <c r="M28" s="259">
         <v>2</v>
       </c>
       <c r="N28" s="18"/>
       <c r="O28" s="18"/>
-      <c r="P28" s="270">
+      <c r="P28" s="263">
         <v>905125</v>
       </c>
       <c r="Q28" s="29"/>
-      <c r="R28" s="266" t="s">
+      <c r="R28" s="259" t="s">
         <v>517</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="266" customFormat="1">
-      <c r="D29" s="269"/>
-      <c r="E29" s="277" t="s">
+    <row r="29" spans="1:18" s="259" customFormat="1">
+      <c r="D29" s="262"/>
+      <c r="E29" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="268">
+      <c r="F29" s="261">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G29" s="266">
+      <c r="G29" s="259">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H29" s="266" t="s">
+      <c r="H29" s="259" t="s">
         <v>479</v>
       </c>
-      <c r="I29" s="266">
+      <c r="I29" s="259">
         <v>1296</v>
       </c>
-      <c r="J29" s="266" t="s">
+      <c r="J29" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="256" t="s">
+      <c r="K29" s="249" t="s">
         <v>518</v>
       </c>
-      <c r="L29" s="266">
+      <c r="L29" s="259">
         <v>72</v>
       </c>
-      <c r="M29" s="266">
+      <c r="M29" s="259">
         <v>2</v>
       </c>
       <c r="N29" s="18"/>
-      <c r="O29" s="266" t="s">
+      <c r="O29" s="259" t="s">
         <v>519</v>
       </c>
-      <c r="P29" s="270">
+      <c r="P29" s="263">
         <v>905240</v>
       </c>
       <c r="Q29" s="29"/>
     </row>
-    <row r="30" spans="1:18" s="266" customFormat="1">
-      <c r="D30" s="269"/>
-      <c r="E30" s="277" t="s">
+    <row r="30" spans="1:18" s="259" customFormat="1">
+      <c r="D30" s="262"/>
+      <c r="E30" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="268">
+      <c r="F30" s="261">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G30" s="266">
+      <c r="G30" s="259">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H30" s="266" t="s">
+      <c r="H30" s="259" t="s">
         <v>479</v>
       </c>
-      <c r="I30" s="266">
+      <c r="I30" s="259">
         <v>1296</v>
       </c>
-      <c r="J30" s="266" t="s">
+      <c r="J30" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="256">
+      <c r="K30" s="249">
         <v>4</v>
       </c>
-      <c r="L30" s="266">
+      <c r="L30" s="259">
         <v>72</v>
       </c>
-      <c r="M30" s="266">
+      <c r="M30" s="259">
         <v>2</v>
       </c>
       <c r="N30" s="18"/>
-      <c r="O30" s="266" t="s">
+      <c r="O30" s="259" t="s">
         <v>520</v>
       </c>
-      <c r="P30" s="270">
+      <c r="P30" s="263">
         <v>905252</v>
       </c>
       <c r="Q30" s="29"/>
     </row>
-    <row r="31" spans="1:18" s="266" customFormat="1">
-      <c r="D31" s="269"/>
-      <c r="E31" s="277" t="s">
+    <row r="31" spans="1:18" s="259" customFormat="1">
+      <c r="D31" s="262"/>
+      <c r="E31" s="270" t="s">
         <v>167</v>
       </c>
-      <c r="F31" s="268">
+      <c r="F31" s="261">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G31" s="266">
+      <c r="G31" s="259">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H31" s="266" t="s">
+      <c r="H31" s="259" t="s">
         <v>479</v>
       </c>
-      <c r="I31" s="266">
+      <c r="I31" s="259">
         <v>1296</v>
       </c>
-      <c r="J31" s="266" t="s">
+      <c r="J31" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="256">
+      <c r="K31" s="249">
         <v>4</v>
       </c>
-      <c r="L31" s="266">
+      <c r="L31" s="259">
         <v>72</v>
       </c>
-      <c r="M31" s="266">
+      <c r="M31" s="259">
         <v>2</v>
       </c>
       <c r="N31" s="18"/>
-      <c r="O31" s="266" t="s">
+      <c r="O31" s="259" t="s">
         <v>526</v>
       </c>
-      <c r="P31" s="270">
+      <c r="P31" s="263">
         <v>911611</v>
       </c>
       <c r="Q31" s="29"/>
     </row>
     <row r="32" spans="1:18">
-      <c r="E32" s="200" t="s">
+      <c r="E32" s="199" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="249">
+      <c r="F32" s="242">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G32" s="247">
+      <c r="G32" s="240">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H32" s="247" t="s">
+      <c r="H32" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I32" s="247">
+      <c r="I32" s="240">
         <v>1296</v>
       </c>
-      <c r="J32" s="266" t="s">
+      <c r="J32" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="256">
+      <c r="K32" s="249">
         <v>4</v>
       </c>
-      <c r="L32" s="239">
+      <c r="L32" s="237">
         <v>96</v>
       </c>
-      <c r="M32" s="239">
+      <c r="M32" s="237">
         <v>1</v>
       </c>
       <c r="N32" s="18">
         <f>22.652*L32/72</f>
         <v>30.202666666666669</v>
       </c>
-      <c r="P32" s="251">
+      <c r="P32" s="244">
         <v>856353</v>
       </c>
     </row>
     <row r="33" spans="5:18">
-      <c r="E33" s="200" t="s">
+      <c r="E33" s="199" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="249">
+      <c r="F33" s="242">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G33" s="247">
+      <c r="G33" s="240">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H33" s="247" t="s">
+      <c r="H33" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I33" s="247">
+      <c r="I33" s="240">
         <v>1296</v>
       </c>
-      <c r="J33" s="266" t="s">
+      <c r="J33" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="256">
+      <c r="K33" s="249">
         <v>4</v>
       </c>
-      <c r="L33" s="239">
+      <c r="L33" s="237">
         <v>96</v>
       </c>
-      <c r="M33" s="239">
+      <c r="M33" s="237">
         <v>2</v>
       </c>
-      <c r="P33" s="251">
+      <c r="P33" s="244">
         <v>856416</v>
       </c>
     </row>
     <row r="34" spans="5:18">
-      <c r="E34" s="200" t="s">
+      <c r="E34" s="199" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="193" t="s">
+      <c r="R34" s="192" t="s">
         <v>493</v>
       </c>
     </row>
     <row r="35" spans="5:18">
-      <c r="E35" s="200" t="s">
+      <c r="E35" s="199" t="s">
         <v>450</v>
       </c>
     </row>
     <row r="36" spans="5:18">
-      <c r="E36" s="200" t="s">
+      <c r="E36" s="199" t="s">
         <v>451</v>
       </c>
     </row>
@@ -20237,17 +20437,17 @@
   <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
   <cols>
     <col min="2" max="2" width="10.625" style="180"/>
-    <col min="3" max="3" width="12.375" style="185" customWidth="1"/>
-    <col min="4" max="4" width="15.625" style="185" customWidth="1"/>
+    <col min="3" max="3" width="12.375" style="184" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="184" customWidth="1"/>
     <col min="5" max="5" width="10.625" style="18"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" s="56" customFormat="1">
       <c r="B2" s="15"/>
-      <c r="C2" s="186" t="s">
+      <c r="C2" s="185" t="s">
         <v>380</v>
       </c>
-      <c r="D2" s="186" t="s">
+      <c r="D2" s="185" t="s">
         <v>381</v>
       </c>
       <c r="E2" s="19"/>
@@ -20256,10 +20456,10 @@
       <c r="B3" s="180">
         <v>0</v>
       </c>
-      <c r="C3" s="185">
+      <c r="C3" s="184">
         <v>19.351900000000001</v>
       </c>
-      <c r="D3" s="185">
+      <c r="D3" s="184">
         <v>5.1878200000000004E-9</v>
       </c>
       <c r="E3" s="27">
@@ -20271,10 +20471,10 @@
       <c r="B4" s="180">
         <v>10</v>
       </c>
-      <c r="C4" s="185">
+      <c r="C4" s="184">
         <v>18.228200000000001</v>
       </c>
-      <c r="D4" s="185">
+      <c r="D4" s="184">
         <v>7.6773200000000003E-4</v>
       </c>
       <c r="E4" s="27">
@@ -20286,10 +20486,10 @@
       <c r="B5" s="180">
         <v>20</v>
       </c>
-      <c r="C5" s="185">
+      <c r="C5" s="184">
         <v>15.342499999999999</v>
       </c>
-      <c r="D5" s="185">
+      <c r="D5" s="184">
         <v>1.9854199999999999E-3</v>
       </c>
       <c r="E5" s="27">
@@ -20301,10 +20501,10 @@
       <c r="B6" s="180">
         <v>30</v>
       </c>
-      <c r="C6" s="185">
+      <c r="C6" s="184">
         <v>11.7247</v>
       </c>
-      <c r="D6" s="185">
+      <c r="D6" s="184">
         <v>2.3831899999999999E-3</v>
       </c>
       <c r="E6" s="27">
@@ -20316,10 +20516,10 @@
       <c r="B7" s="180">
         <v>40</v>
       </c>
-      <c r="C7" s="185">
+      <c r="C7" s="184">
         <v>8.2703600000000002</v>
       </c>
-      <c r="D7" s="185">
+      <c r="D7" s="184">
         <v>1.9995E-3</v>
       </c>
       <c r="E7" s="27">
@@ -20331,10 +20531,10 @@
       <c r="B8" s="180">
         <v>50</v>
       </c>
-      <c r="C8" s="185">
+      <c r="C8" s="184">
         <v>5.4973599999999996</v>
       </c>
-      <c r="D8" s="185">
+      <c r="D8" s="184">
         <v>1.2630499999999999E-3</v>
       </c>
       <c r="E8" s="27">
@@ -20346,10 +20546,10 @@
       <c r="B9" s="180">
         <v>60</v>
       </c>
-      <c r="C9" s="185">
+      <c r="C9" s="184">
         <v>3.7089599999999998</v>
       </c>
-      <c r="D9" s="185">
+      <c r="D9" s="184">
         <v>4.8211599999999999E-4</v>
       </c>
       <c r="E9" s="27">
@@ -20361,10 +20561,10 @@
       <c r="B10" s="180">
         <v>70</v>
       </c>
-      <c r="C10" s="185">
+      <c r="C10" s="184">
         <v>3.1956099999999998</v>
       </c>
-      <c r="D10" s="185">
+      <c r="D10" s="184">
         <v>1.0392500000000001E-4</v>
       </c>
       <c r="E10" s="27">
@@ -20376,10 +20576,10 @@
       <c r="B11" s="180">
         <v>80</v>
       </c>
-      <c r="C11" s="185">
+      <c r="C11" s="184">
         <v>4.1715900000000001</v>
       </c>
-      <c r="D11" s="185">
+      <c r="D11" s="184">
         <v>5.0139100000000001E-4</v>
       </c>
       <c r="E11" s="27">
@@ -20391,10 +20591,10 @@
       <c r="B12" s="180">
         <v>90</v>
       </c>
-      <c r="C12" s="185">
+      <c r="C12" s="184">
         <v>6.4642499999999998</v>
       </c>
-      <c r="D12" s="185">
+      <c r="D12" s="184">
         <v>1.2386999999999999E-3</v>
       </c>
       <c r="E12" s="27">
@@ -20406,10 +20606,10 @@
       <c r="B13" s="180">
         <v>100</v>
       </c>
-      <c r="C13" s="185">
+      <c r="C13" s="184">
         <v>9.3593100000000007</v>
       </c>
-      <c r="D13" s="185">
+      <c r="D13" s="184">
         <v>1.3458000000000001E-3</v>
       </c>
       <c r="E13" s="27">
@@ -20421,10 +20621,10 @@
       <c r="B14" s="180">
         <v>110</v>
       </c>
-      <c r="C14" s="185">
+      <c r="C14" s="184">
         <v>11.8248</v>
       </c>
-      <c r="D14" s="185">
+      <c r="D14" s="184">
         <v>5.9504600000000001E-4</v>
       </c>
       <c r="E14" s="27">
@@ -20436,10 +20636,10 @@
       <c r="B15" s="180">
         <v>120</v>
       </c>
-      <c r="C15" s="185">
+      <c r="C15" s="184">
         <v>12.906000000000001</v>
       </c>
-      <c r="D15" s="185">
+      <c r="D15" s="184">
         <v>5.5970699999999998E-6</v>
       </c>
       <c r="E15" s="27">
@@ -20451,10 +20651,10 @@
       <c r="B16" s="180">
         <v>130</v>
       </c>
-      <c r="C16" s="185">
+      <c r="C16" s="184">
         <v>12.1631</v>
       </c>
-      <c r="D16" s="185">
+      <c r="D16" s="184">
         <v>4.2647200000000001E-4</v>
       </c>
       <c r="E16" s="27">
@@ -20466,10 +20666,10 @@
       <c r="B17" s="180">
         <v>140</v>
       </c>
-      <c r="C17" s="185">
+      <c r="C17" s="184">
         <v>9.8968699999999998</v>
       </c>
-      <c r="D17" s="185">
+      <c r="D17" s="184">
         <v>1.27278E-3</v>
       </c>
       <c r="E17" s="27">
@@ -20481,10 +20681,10 @@
       <c r="B18" s="180">
         <v>150</v>
       </c>
-      <c r="C18" s="185">
+      <c r="C18" s="184">
         <v>6.8963200000000002</v>
       </c>
-      <c r="D18" s="185">
+      <c r="D18" s="184">
         <v>1.54448E-3</v>
       </c>
       <c r="E18" s="27">
@@ -20496,10 +20696,10 @@
       <c r="B19" s="180">
         <v>160</v>
       </c>
-      <c r="C19" s="185">
+      <c r="C19" s="184">
         <v>4.0312200000000002</v>
       </c>
-      <c r="D19" s="185">
+      <c r="D19" s="184">
         <v>1.0608200000000001E-3</v>
       </c>
       <c r="E19" s="27">
@@ -20511,10 +20711,10 @@
       <c r="B20" s="180">
         <v>170</v>
       </c>
-      <c r="C20" s="185">
+      <c r="C20" s="184">
         <v>2.0109400000000002</v>
       </c>
-      <c r="D20" s="185">
+      <c r="D20" s="184">
         <v>3.3508099999999999E-4</v>
       </c>
       <c r="E20" s="27">
@@ -20526,10 +20726,10 @@
       <c r="B21" s="180">
         <v>180</v>
       </c>
-      <c r="C21" s="185">
+      <c r="C21" s="184">
         <v>1.2862100000000001</v>
       </c>
-      <c r="D21" s="185">
+      <c r="D21" s="184">
         <v>4.6980800000000004E-10</v>
       </c>
       <c r="E21" s="27">
@@ -20541,10 +20741,10 @@
       <c r="B24" s="180">
         <v>0</v>
       </c>
-      <c r="C24" s="185">
+      <c r="C24" s="184">
         <v>19.351900000000001</v>
       </c>
-      <c r="D24" s="185">
+      <c r="D24" s="184">
         <v>5.2364699999999998E-9</v>
       </c>
       <c r="E24" s="27">
@@ -20556,10 +20756,10 @@
       <c r="B25" s="180">
         <v>5</v>
       </c>
-      <c r="C25" s="185">
+      <c r="C25" s="184">
         <v>19.0623</v>
       </c>
-      <c r="D25" s="185">
+      <c r="D25" s="184">
         <v>2.15164E-4</v>
       </c>
       <c r="E25" s="27">
@@ -20571,10 +20771,10 @@
       <c r="B26" s="180">
         <v>10</v>
       </c>
-      <c r="C26" s="185">
+      <c r="C26" s="184">
         <v>18.228200000000001</v>
       </c>
-      <c r="D26" s="185">
+      <c r="D26" s="184">
         <v>7.6795499999999996E-4</v>
       </c>
       <c r="E26" s="27">
@@ -20586,10 +20786,10 @@
       <c r="B27" s="180">
         <v>15</v>
       </c>
-      <c r="C27" s="185">
+      <c r="C27" s="184">
         <v>16.944800000000001</v>
       </c>
-      <c r="D27" s="185">
+      <c r="D27" s="184">
         <v>1.4314799999999999E-3</v>
       </c>
       <c r="E27" s="27">
@@ -20601,10 +20801,10 @@
       <c r="B28" s="180">
         <v>20</v>
       </c>
-      <c r="C28" s="185">
+      <c r="C28" s="184">
         <v>15.342499999999999</v>
       </c>
-      <c r="D28" s="185">
+      <c r="D28" s="184">
         <v>1.98482E-3</v>
       </c>
       <c r="E28" s="27">
@@ -20616,10 +20816,10 @@
       <c r="B29" s="180">
         <v>25</v>
       </c>
-      <c r="C29" s="185">
+      <c r="C29" s="184">
         <v>13.5604</v>
       </c>
-      <c r="D29" s="185">
+      <c r="D29" s="184">
         <v>2.3084999999999998E-3</v>
       </c>
       <c r="E29" s="27">
@@ -20631,10 +20831,10 @@
       <c r="B30" s="180">
         <v>30</v>
       </c>
-      <c r="C30" s="185">
+      <c r="C30" s="184">
         <v>11.7247</v>
       </c>
-      <c r="D30" s="185">
+      <c r="D30" s="184">
         <v>2.38404E-3</v>
       </c>
       <c r="E30" s="27">
@@ -20646,10 +20846,10 @@
       <c r="B31" s="180">
         <v>35</v>
       </c>
-      <c r="C31" s="185">
+      <c r="C31" s="184">
         <v>9.9366099999999999</v>
       </c>
-      <c r="D31" s="185">
+      <c r="D31" s="184">
         <v>2.26078E-3</v>
       </c>
       <c r="E31" s="27">
@@ -20661,10 +20861,10 @@
       <c r="B32" s="180">
         <v>40</v>
       </c>
-      <c r="C32" s="185">
+      <c r="C32" s="184">
         <v>8.2703600000000002</v>
       </c>
-      <c r="D32" s="185">
+      <c r="D32" s="184">
         <v>2.0018599999999998E-3</v>
       </c>
       <c r="E32" s="27">
@@ -20676,10 +20876,10 @@
       <c r="B33" s="180">
         <v>45</v>
       </c>
-      <c r="C33" s="185">
+      <c r="C33" s="184">
         <v>6.7778400000000003</v>
       </c>
-      <c r="D33" s="185">
+      <c r="D33" s="184">
         <v>1.6577300000000001E-3</v>
       </c>
       <c r="E33" s="27">
@@ -20691,10 +20891,10 @@
       <c r="B34" s="180">
         <v>50</v>
       </c>
-      <c r="C34" s="185">
+      <c r="C34" s="184">
         <v>5.4973599999999996</v>
       </c>
-      <c r="D34" s="185">
+      <c r="D34" s="184">
         <v>1.2629900000000001E-3</v>
       </c>
       <c r="E34" s="27">
@@ -20706,10 +20906,10 @@
       <c r="B35" s="180">
         <v>55</v>
       </c>
-      <c r="C35" s="185">
+      <c r="C35" s="184">
         <v>4.4626200000000003</v>
       </c>
-      <c r="D35" s="185">
+      <c r="D35" s="184">
         <v>8.5509599999999996E-4</v>
       </c>
       <c r="E35" s="27">
@@ -20721,10 +20921,10 @@
       <c r="B36" s="180">
         <v>60</v>
       </c>
-      <c r="C36" s="185">
+      <c r="C36" s="184">
         <v>3.7089599999999998</v>
       </c>
-      <c r="D36" s="185">
+      <c r="D36" s="184">
         <v>4.8199199999999999E-4</v>
       </c>
       <c r="E36" s="27">
@@ -20736,10 +20936,10 @@
       <c r="B37" s="180">
         <v>65</v>
       </c>
-      <c r="C37" s="185">
+      <c r="C37" s="184">
         <v>3.2745899999999999</v>
       </c>
-      <c r="D37" s="185">
+      <c r="D37" s="184">
         <v>2.0925100000000001E-4</v>
       </c>
       <c r="E37" s="27">
@@ -20751,10 +20951,10 @@
       <c r="B38" s="180">
         <v>70</v>
       </c>
-      <c r="C38" s="185">
+      <c r="C38" s="184">
         <v>3.1956099999999998</v>
       </c>
-      <c r="D38" s="185">
+      <c r="D38" s="184">
         <v>1.0379599999999999E-4</v>
       </c>
       <c r="E38" s="27">
@@ -20766,10 +20966,10 @@
       <c r="B39" s="180">
         <v>75</v>
       </c>
-      <c r="C39" s="185">
+      <c r="C39" s="184">
         <v>3.4953799999999999</v>
       </c>
-      <c r="D39" s="185">
+      <c r="D39" s="184">
         <v>2.0722700000000001E-4</v>
       </c>
       <c r="E39" s="27">
@@ -20781,10 +20981,10 @@
       <c r="B40" s="180">
         <v>80</v>
       </c>
-      <c r="C40" s="185">
+      <c r="C40" s="184">
         <v>4.1715999999999998</v>
       </c>
-      <c r="D40" s="185">
+      <c r="D40" s="184">
         <v>5.0274399999999996E-4</v>
       </c>
       <c r="E40" s="27">
@@ -20796,10 +20996,10 @@
       <c r="B41" s="180">
         <v>85</v>
       </c>
-      <c r="C41" s="185">
+      <c r="C41" s="184">
         <v>5.18642</v>
       </c>
-      <c r="D41" s="185">
+      <c r="D41" s="184">
         <v>8.9616000000000001E-4</v>
       </c>
       <c r="E41" s="27">
@@ -20811,10 +21011,10 @@
       <c r="B42" s="180">
         <v>90</v>
       </c>
-      <c r="C42" s="185">
+      <c r="C42" s="184">
         <v>6.4642600000000003</v>
       </c>
-      <c r="D42" s="185">
+      <c r="D42" s="184">
         <v>1.24814E-3</v>
       </c>
       <c r="E42" s="27">
@@ -20826,10 +21026,10 @@
       <c r="B43" s="180">
         <v>95</v>
       </c>
-      <c r="C43" s="185">
+      <c r="C43" s="184">
         <v>7.89785</v>
       </c>
-      <c r="D43" s="185">
+      <c r="D43" s="184">
         <v>1.4139300000000001E-3</v>
       </c>
       <c r="E43" s="27">
@@ -20841,10 +21041,10 @@
       <c r="B44" s="180">
         <v>100</v>
       </c>
-      <c r="C44" s="185">
+      <c r="C44" s="184">
         <v>9.3592999999999993</v>
       </c>
-      <c r="D44" s="185">
+      <c r="D44" s="184">
         <v>1.34914E-3</v>
       </c>
       <c r="E44" s="27">
@@ -20856,10 +21056,10 @@
       <c r="B45" s="180">
         <v>105</v>
       </c>
-      <c r="C45" s="185">
+      <c r="C45" s="184">
         <v>10.712300000000001</v>
       </c>
-      <c r="D45" s="185">
+      <c r="D45" s="184">
         <v>1.0297399999999999E-3</v>
       </c>
       <c r="E45" s="27">
@@ -20871,10 +21071,10 @@
       <c r="B46" s="180">
         <v>110</v>
       </c>
-      <c r="C46" s="185">
+      <c r="C46" s="184">
         <v>11.8248</v>
       </c>
-      <c r="D46" s="185">
+      <c r="D46" s="184">
         <v>5.9785999999999997E-4</v>
       </c>
       <c r="E46" s="27">
@@ -20886,10 +21086,10 @@
       <c r="B47" s="180">
         <v>115</v>
       </c>
-      <c r="C47" s="185">
+      <c r="C47" s="184">
         <v>12.582800000000001</v>
       </c>
-      <c r="D47" s="185">
+      <c r="D47" s="184">
         <v>1.9972499999999999E-4</v>
       </c>
       <c r="E47" s="27">
@@ -20901,10 +21101,10 @@
       <c r="B48" s="180">
         <v>120</v>
       </c>
-      <c r="C48" s="185">
+      <c r="C48" s="184">
         <v>12.906000000000001</v>
       </c>
-      <c r="D48" s="185">
+      <c r="D48" s="184">
         <v>5.6466999999999997E-6</v>
       </c>
       <c r="E48" s="27">
@@ -20916,10 +21116,10 @@
       <c r="B49" s="180">
         <v>125</v>
       </c>
-      <c r="C49" s="185">
+      <c r="C49" s="184">
         <v>12.760300000000001</v>
       </c>
-      <c r="D49" s="185">
+      <c r="D49" s="184">
         <v>9.3731000000000001E-5</v>
       </c>
       <c r="E49" s="27">
@@ -20931,10 +21131,10 @@
       <c r="B50" s="180">
         <v>130</v>
       </c>
-      <c r="C50" s="185">
+      <c r="C50" s="184">
         <v>12.1631</v>
       </c>
-      <c r="D50" s="185">
+      <c r="D50" s="184">
         <v>4.2578199999999998E-4</v>
       </c>
       <c r="E50" s="27">
@@ -20946,10 +21146,10 @@
       <c r="B51" s="180">
         <v>135</v>
       </c>
-      <c r="C51" s="185">
+      <c r="C51" s="184">
         <v>11.177300000000001</v>
       </c>
-      <c r="D51" s="185">
+      <c r="D51" s="184">
         <v>8.6617499999999995E-4</v>
       </c>
       <c r="E51" s="27">
@@ -20961,10 +21161,10 @@
       <c r="B52" s="180">
         <v>140</v>
       </c>
-      <c r="C52" s="185">
+      <c r="C52" s="184">
         <v>9.8968699999999998</v>
       </c>
-      <c r="D52" s="185">
+      <c r="D52" s="184">
         <v>1.2724800000000001E-3</v>
       </c>
       <c r="E52" s="27">
@@ -20976,10 +21176,10 @@
       <c r="B53" s="180">
         <v>145</v>
       </c>
-      <c r="C53" s="185">
+      <c r="C53" s="184">
         <v>8.4321300000000008</v>
       </c>
-      <c r="D53" s="185">
+      <c r="D53" s="184">
         <v>1.5136100000000001E-3</v>
       </c>
       <c r="E53" s="27">
@@ -20991,10 +21191,10 @@
       <c r="B54" s="180">
         <v>150</v>
       </c>
-      <c r="C54" s="185">
+      <c r="C54" s="184">
         <v>6.8963200000000002</v>
       </c>
-      <c r="D54" s="185">
+      <c r="D54" s="184">
         <v>1.5525199999999999E-3</v>
       </c>
       <c r="E54" s="27">
@@ -21006,10 +21206,10 @@
       <c r="B55" s="180">
         <v>155</v>
       </c>
-      <c r="C55" s="185">
+      <c r="C55" s="184">
         <v>5.3971600000000004</v>
       </c>
-      <c r="D55" s="185">
+      <c r="D55" s="184">
         <v>1.3734400000000001E-3</v>
       </c>
       <c r="E55" s="27">
@@ -21021,10 +21221,10 @@
       <c r="B56" s="180">
         <v>160</v>
       </c>
-      <c r="C56" s="185">
+      <c r="C56" s="184">
         <v>4.0312299999999999</v>
       </c>
-      <c r="D56" s="185">
+      <c r="D56" s="184">
         <v>1.0658899999999999E-3</v>
       </c>
       <c r="E56" s="27">
@@ -21036,10 +21236,10 @@
       <c r="B57" s="180">
         <v>165</v>
       </c>
-      <c r="C57" s="185">
+      <c r="C57" s="184">
         <v>2.88062</v>
       </c>
-      <c r="D57" s="185">
+      <c r="D57" s="184">
         <v>6.8289999999999996E-4</v>
       </c>
       <c r="E57" s="27">
@@ -21051,10 +21251,10 @@
       <c r="B58" s="180">
         <v>170</v>
       </c>
-      <c r="C58" s="185">
+      <c r="C58" s="184">
         <v>2.0109300000000001</v>
       </c>
-      <c r="D58" s="185">
+      <c r="D58" s="184">
         <v>3.3138999999999998E-4</v>
       </c>
       <c r="E58" s="27">
@@ -21066,10 +21266,10 @@
       <c r="B59" s="180">
         <v>175</v>
       </c>
-      <c r="C59" s="185">
+      <c r="C59" s="184">
         <v>1.4698100000000001</v>
       </c>
-      <c r="D59" s="185">
+      <c r="D59" s="184">
         <v>8.7598500000000005E-5</v>
       </c>
       <c r="E59" s="27">
@@ -21081,10 +21281,10 @@
       <c r="B60" s="180">
         <v>180</v>
       </c>
-      <c r="C60" s="185">
+      <c r="C60" s="184">
         <v>1.2862199999999999</v>
       </c>
-      <c r="D60" s="185">
+      <c r="D60" s="184">
         <v>5.9488799999999998E-9</v>
       </c>
       <c r="E60" s="27">
@@ -21167,30 +21367,30 @@
       <c r="B2" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="291" t="s">
+      <c r="C2" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="291"/>
-      <c r="E2" s="291"/>
-      <c r="F2" s="291"/>
-      <c r="G2" s="291"/>
-      <c r="H2" s="290" t="s">
+      <c r="D2" s="283"/>
+      <c r="E2" s="283"/>
+      <c r="F2" s="283"/>
+      <c r="G2" s="283"/>
+      <c r="H2" s="285" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="290"/>
-      <c r="J2" s="290"/>
-      <c r="K2" s="290"/>
-      <c r="L2" s="290"/>
+      <c r="I2" s="285"/>
+      <c r="J2" s="285"/>
+      <c r="K2" s="285"/>
+      <c r="L2" s="285"/>
       <c r="N2" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="291" t="s">
+      <c r="O2" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="291"/>
-      <c r="Q2" s="291"/>
-      <c r="R2" s="291"/>
-      <c r="S2" s="291"/>
+      <c r="P2" s="283"/>
+      <c r="Q2" s="283"/>
+      <c r="R2" s="283"/>
+      <c r="S2" s="283"/>
       <c r="T2" s="72"/>
       <c r="U2" s="72"/>
       <c r="V2" s="72"/>
@@ -21199,13 +21399,13 @@
       <c r="Z2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="291" t="s">
+      <c r="AA2" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="291"/>
-      <c r="AC2" s="291"/>
-      <c r="AD2" s="291"/>
-      <c r="AE2" s="291"/>
+      <c r="AB2" s="283"/>
+      <c r="AC2" s="283"/>
+      <c r="AD2" s="283"/>
+      <c r="AE2" s="283"/>
       <c r="AF2" s="72"/>
       <c r="AG2" s="72"/>
       <c r="AH2" s="72"/>
@@ -21214,13 +21414,13 @@
       <c r="AL2" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM2" s="291" t="s">
+      <c r="AM2" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="AN2" s="291"/>
-      <c r="AO2" s="291"/>
-      <c r="AP2" s="291"/>
-      <c r="AQ2" s="291"/>
+      <c r="AN2" s="283"/>
+      <c r="AO2" s="283"/>
+      <c r="AP2" s="283"/>
+      <c r="AQ2" s="283"/>
       <c r="AR2" s="72"/>
       <c r="AS2" s="72"/>
       <c r="AT2" s="72"/>
@@ -22360,33 +22560,33 @@
       <c r="B17" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="289" t="s">
+      <c r="C17" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="289"/>
-      <c r="E17" s="289"/>
-      <c r="F17" s="289"/>
-      <c r="G17" s="289"/>
+      <c r="D17" s="284"/>
+      <c r="E17" s="284"/>
+      <c r="F17" s="284"/>
+      <c r="G17" s="284"/>
       <c r="N17" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="289" t="s">
+      <c r="O17" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="289"/>
-      <c r="Q17" s="289"/>
-      <c r="R17" s="289"/>
-      <c r="S17" s="289"/>
+      <c r="P17" s="284"/>
+      <c r="Q17" s="284"/>
+      <c r="R17" s="284"/>
+      <c r="S17" s="284"/>
       <c r="AL17" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM17" s="291" t="s">
+      <c r="AM17" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="AN17" s="291"/>
-      <c r="AO17" s="291"/>
-      <c r="AP17" s="291"/>
-      <c r="AQ17" s="291"/>
+      <c r="AN17" s="283"/>
+      <c r="AO17" s="283"/>
+      <c r="AP17" s="283"/>
+      <c r="AQ17" s="283"/>
       <c r="AR17" s="72"/>
       <c r="AS17" s="72"/>
       <c r="AT17" s="72"/>
@@ -23007,40 +23207,40 @@
       <c r="B32" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="291" t="s">
+      <c r="C32" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="291"/>
-      <c r="E32" s="291"/>
-      <c r="F32" s="291"/>
-      <c r="G32" s="291"/>
-      <c r="H32" s="290" t="s">
+      <c r="D32" s="283"/>
+      <c r="E32" s="283"/>
+      <c r="F32" s="283"/>
+      <c r="G32" s="283"/>
+      <c r="H32" s="285" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="290"/>
-      <c r="J32" s="290"/>
-      <c r="K32" s="290"/>
-      <c r="L32" s="290"/>
+      <c r="I32" s="285"/>
+      <c r="J32" s="285"/>
+      <c r="K32" s="285"/>
+      <c r="L32" s="285"/>
       <c r="N32" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="289" t="s">
+      <c r="O32" s="284" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="289"/>
-      <c r="Q32" s="289"/>
-      <c r="R32" s="289"/>
-      <c r="S32" s="289"/>
+      <c r="P32" s="284"/>
+      <c r="Q32" s="284"/>
+      <c r="R32" s="284"/>
+      <c r="S32" s="284"/>
       <c r="AL32" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM32" s="291" t="s">
+      <c r="AM32" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="AN32" s="291"/>
-      <c r="AO32" s="291"/>
-      <c r="AP32" s="291"/>
-      <c r="AQ32" s="291"/>
+      <c r="AN32" s="283"/>
+      <c r="AO32" s="283"/>
+      <c r="AP32" s="283"/>
+      <c r="AQ32" s="283"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
       <c r="AT32" s="72"/>
@@ -23598,18 +23798,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="O17:S17"/>
     <mergeCell ref="AM17:AQ17"/>
     <mergeCell ref="AM32:AQ32"/>
     <mergeCell ref="O32:S32"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24309,29 +24509,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="I1" s="292" t="s">
+      <c r="I1" s="286" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="292"/>
-      <c r="K1" s="292"/>
-      <c r="L1" s="292"/>
-      <c r="M1" s="292"/>
-      <c r="N1" s="292"/>
-      <c r="O1" s="292"/>
+      <c r="J1" s="286"/>
+      <c r="K1" s="286"/>
+      <c r="L1" s="286"/>
+      <c r="M1" s="286"/>
+      <c r="N1" s="286"/>
+      <c r="O1" s="286"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="C2" s="278" t="s">
+      <c r="C2" s="272" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="278"/>
+      <c r="D2" s="272"/>
       <c r="F2" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="292" t="s">
+      <c r="I2" s="286" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="292"/>
-      <c r="K2" s="292"/>
+      <c r="J2" s="286"/>
+      <c r="K2" s="286"/>
       <c r="L2" s="14" t="s">
         <v>118</v>
       </c>
@@ -24809,51 +25009,51 @@
       <c r="F4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="290" t="s">
+      <c r="H4" s="285" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="290"/>
-      <c r="J4" s="290"/>
-      <c r="K4" s="290"/>
-      <c r="L4" s="290"/>
+      <c r="I4" s="285"/>
+      <c r="J4" s="285"/>
+      <c r="K4" s="285"/>
+      <c r="L4" s="285"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="290" t="s">
+      <c r="T4" s="285" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="290"/>
-      <c r="V4" s="290"/>
-      <c r="W4" s="290"/>
-      <c r="X4" s="290"/>
+      <c r="U4" s="285"/>
+      <c r="V4" s="285"/>
+      <c r="W4" s="285"/>
+      <c r="X4" s="285"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
-      <c r="AF4" s="290" t="s">
+      <c r="AF4" s="285" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="290"/>
-      <c r="AH4" s="290"/>
-      <c r="AI4" s="290"/>
-      <c r="AJ4" s="290"/>
+      <c r="AG4" s="285"/>
+      <c r="AH4" s="285"/>
+      <c r="AI4" s="285"/>
+      <c r="AJ4" s="285"/>
       <c r="AN4" s="10"/>
       <c r="AP4" s="7"/>
-      <c r="AR4" s="290" t="s">
+      <c r="AR4" s="285" t="s">
         <v>18</v>
       </c>
-      <c r="AS4" s="290"/>
-      <c r="AT4" s="290"/>
-      <c r="AU4" s="290"/>
-      <c r="AV4" s="290"/>
+      <c r="AS4" s="285"/>
+      <c r="AT4" s="285"/>
+      <c r="AU4" s="285"/>
+      <c r="AV4" s="285"/>
       <c r="BB4" s="7"/>
-      <c r="BD4" s="290" t="s">
+      <c r="BD4" s="285" t="s">
         <v>18</v>
       </c>
-      <c r="BE4" s="290"/>
-      <c r="BF4" s="290"/>
-      <c r="BG4" s="290"/>
-      <c r="BH4" s="290"/>
+      <c r="BE4" s="285"/>
+      <c r="BF4" s="285"/>
+      <c r="BG4" s="285"/>
+      <c r="BH4" s="285"/>
     </row>
     <row r="5" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="12" t="s">
@@ -25930,29 +26130,29 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:24">
-      <c r="Q2" s="260"/>
-      <c r="R2" s="260"/>
-      <c r="S2" s="260"/>
-      <c r="T2" s="260"/>
+      <c r="Q2" s="253"/>
+      <c r="R2" s="253"/>
+      <c r="S2" s="253"/>
+      <c r="T2" s="253"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="J3" s="278" t="s">
+      <c r="J3" s="272" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="278"/>
-      <c r="N3" s="278" t="s">
+      <c r="K3" s="272"/>
+      <c r="N3" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="278"/>
-      <c r="Q3" s="278" t="s">
+      <c r="O3" s="272"/>
+      <c r="Q3" s="272" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="278"/>
-      <c r="S3" s="278"/>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278"/>
-      <c r="W3" s="278"/>
+      <c r="R3" s="272"/>
+      <c r="S3" s="272"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
     </row>
     <row r="4" spans="2:24" s="15" customFormat="1">
       <c r="B4" s="21" t="s">
@@ -27003,7 +27203,7 @@
       <c r="P39" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="Q39" s="208" t="s">
+      <c r="Q39" s="207" t="s">
         <v>21</v>
       </c>
       <c r="R39" s="67" t="s">
@@ -27042,7 +27242,7 @@
         <f>1000000*K40/I40</f>
         <v>5000000</v>
       </c>
-      <c r="Q40" s="208" t="s">
+      <c r="Q40" s="207" t="s">
         <v>23</v>
       </c>
     </row>
@@ -27190,7 +27390,7 @@
       <c r="P49" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="Q49" s="208" t="s">
+      <c r="Q49" s="207" t="s">
         <v>21</v>
       </c>
       <c r="R49" s="67" t="s">
@@ -27226,7 +27426,7 @@
         <f>1000000*K50/I50</f>
         <v>5000000</v>
       </c>
-      <c r="Q50" s="208" t="s">
+      <c r="Q50" s="207" t="s">
         <v>23</v>
       </c>
     </row>
@@ -27374,7 +27574,7 @@
       <c r="P59" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="Q59" s="208" t="s">
+      <c r="Q59" s="207" t="s">
         <v>21</v>
       </c>
       <c r="R59" s="67" t="s">
@@ -27410,7 +27610,7 @@
         <f>1000000*K60/I60</f>
         <v>5000000</v>
       </c>
-      <c r="Q60" s="208" t="s">
+      <c r="Q60" s="207" t="s">
         <v>23</v>
       </c>
     </row>
@@ -27584,7 +27784,7 @@
     <col min="5" max="5" width="21.5" style="14" customWidth="1"/>
     <col min="6" max="6" width="10.875" style="14"/>
     <col min="7" max="8" width="9" style="14" customWidth="1"/>
-    <col min="9" max="9" width="8.375" style="247" customWidth="1"/>
+    <col min="9" max="9" width="8.375" style="240" customWidth="1"/>
     <col min="10" max="10" width="9" style="14" customWidth="1"/>
     <col min="11" max="11" width="9" style="119" customWidth="1"/>
     <col min="12" max="12" width="9" style="14" customWidth="1"/>
@@ -27609,23 +27809,23 @@
       <c r="U2"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="K3" s="278" t="s">
+      <c r="K3" s="272" t="s">
         <v>289</v>
       </c>
-      <c r="L3" s="278"/>
-      <c r="O3" s="278" t="s">
+      <c r="L3" s="272"/>
+      <c r="O3" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="278"/>
-      <c r="R3" s="278" t="s">
+      <c r="P3" s="272"/>
+      <c r="R3" s="272" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="278"/>
-      <c r="T3" s="278"/>
-      <c r="U3" s="278"/>
-      <c r="V3" s="278"/>
-      <c r="W3" s="278"/>
-      <c r="X3" s="278"/>
+      <c r="S3" s="272"/>
+      <c r="T3" s="272"/>
+      <c r="U3" s="272"/>
+      <c r="V3" s="272"/>
+      <c r="W3" s="272"/>
+      <c r="X3" s="272"/>
     </row>
     <row r="4" spans="2:24" s="15" customFormat="1">
       <c r="B4" s="21" t="s">
@@ -27726,7 +27926,7 @@
       <c r="L5" s="44">
         <v>10</v>
       </c>
-      <c r="N5" s="258">
+      <c r="N5" s="251">
         <f t="shared" ref="N5:N10" si="0">1000000*L5/J5</f>
         <v>5000000</v>
       </c>
@@ -27774,7 +27974,7 @@
       <c r="L6" s="44">
         <v>10</v>
       </c>
-      <c r="N6" s="258">
+      <c r="N6" s="251">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
@@ -27806,7 +28006,7 @@
       <c r="L7" s="44">
         <v>10</v>
       </c>
-      <c r="N7" s="258">
+      <c r="N7" s="251">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
@@ -27838,7 +28038,7 @@
       <c r="L8" s="44">
         <v>10</v>
       </c>
-      <c r="N8" s="258">
+      <c r="N8" s="251">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
@@ -27870,7 +28070,7 @@
       <c r="L9" s="44">
         <v>10</v>
       </c>
-      <c r="N9" s="258">
+      <c r="N9" s="251">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
@@ -27902,7 +28102,7 @@
       <c r="L10" s="44">
         <v>10</v>
       </c>
-      <c r="N10" s="258">
+      <c r="N10" s="251">
         <f t="shared" si="0"/>
         <v>5000000</v>
       </c>
@@ -27922,12 +28122,12 @@
       <c r="F11" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="N11" s="258"/>
+      <c r="N11" s="251"/>
       <c r="Q11" s="47"/>
     </row>
     <row r="12" spans="2:24" s="44" customFormat="1" hidden="1">
       <c r="B12" s="46"/>
-      <c r="N12" s="258"/>
+      <c r="N12" s="251"/>
       <c r="Q12" s="47"/>
     </row>
     <row r="13" spans="2:24" s="44" customFormat="1" hidden="1">
@@ -27958,7 +28158,7 @@
       <c r="L13" s="44">
         <v>200</v>
       </c>
-      <c r="N13" s="258">
+      <c r="N13" s="251">
         <f>1000000*L13/J13</f>
         <v>100000000</v>
       </c>
@@ -27972,27 +28172,27 @@
     </row>
     <row r="14" spans="2:24" s="44" customFormat="1" hidden="1">
       <c r="B14" s="46"/>
-      <c r="N14" s="258"/>
+      <c r="N14" s="251"/>
       <c r="Q14" s="47"/>
     </row>
     <row r="15" spans="2:24" s="44" customFormat="1" hidden="1">
       <c r="B15" s="46"/>
-      <c r="N15" s="258"/>
+      <c r="N15" s="251"/>
       <c r="Q15" s="47"/>
     </row>
     <row r="16" spans="2:24" s="44" customFormat="1" hidden="1">
       <c r="B16" s="46"/>
-      <c r="N16" s="258"/>
+      <c r="N16" s="251"/>
       <c r="Q16" s="47"/>
     </row>
     <row r="17" spans="2:23" s="44" customFormat="1" hidden="1">
       <c r="B17" s="46"/>
-      <c r="N17" s="258"/>
+      <c r="N17" s="251"/>
       <c r="Q17" s="47"/>
     </row>
     <row r="18" spans="2:23" s="52" customFormat="1" hidden="1">
       <c r="B18" s="53"/>
-      <c r="N18" s="259"/>
+      <c r="N18" s="252"/>
       <c r="Q18" s="123"/>
     </row>
     <row r="19" spans="2:23" s="44" customFormat="1" hidden="1">
@@ -28023,7 +28223,7 @@
       <c r="L19" s="44">
         <v>10</v>
       </c>
-      <c r="N19" s="258">
+      <c r="N19" s="251">
         <f t="shared" ref="N19:N24" si="1">1000000*L19/J19</f>
         <v>5000000</v>
       </c>
@@ -28068,7 +28268,7 @@
       <c r="L20" s="44">
         <v>10</v>
       </c>
-      <c r="N20" s="258">
+      <c r="N20" s="251">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
@@ -28100,7 +28300,7 @@
       <c r="L21" s="44">
         <v>10</v>
       </c>
-      <c r="N21" s="258">
+      <c r="N21" s="251">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
@@ -28132,7 +28332,7 @@
       <c r="L22" s="44">
         <v>10</v>
       </c>
-      <c r="N22" s="258">
+      <c r="N22" s="251">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
@@ -28164,7 +28364,7 @@
       <c r="L23" s="44">
         <v>10</v>
       </c>
-      <c r="N23" s="258">
+      <c r="N23" s="251">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
@@ -28196,7 +28396,7 @@
       <c r="L24" s="44">
         <v>10</v>
       </c>
-      <c r="N24" s="258">
+      <c r="N24" s="251">
         <f t="shared" si="1"/>
         <v>5000000</v>
       </c>
@@ -28216,12 +28416,12 @@
       <c r="F25" s="44" t="s">
         <v>98</v>
       </c>
-      <c r="N25" s="258"/>
+      <c r="N25" s="251"/>
       <c r="Q25" s="47"/>
     </row>
     <row r="26" spans="2:23" s="44" customFormat="1" hidden="1">
       <c r="B26" s="46"/>
-      <c r="N26" s="258"/>
+      <c r="N26" s="251"/>
       <c r="Q26" s="47"/>
     </row>
     <row r="27" spans="2:23" s="44" customFormat="1" hidden="1">
@@ -28252,7 +28452,7 @@
       <c r="L27" s="44">
         <v>200</v>
       </c>
-      <c r="N27" s="258">
+      <c r="N27" s="251">
         <f>1000000*L27/J27</f>
         <v>100000000</v>
       </c>
@@ -28266,22 +28466,22 @@
     </row>
     <row r="28" spans="2:23" s="44" customFormat="1" hidden="1">
       <c r="B28" s="46"/>
-      <c r="N28" s="258"/>
+      <c r="N28" s="251"/>
       <c r="Q28" s="47"/>
     </row>
     <row r="29" spans="2:23" s="44" customFormat="1" hidden="1">
       <c r="B29" s="46"/>
-      <c r="N29" s="258"/>
+      <c r="N29" s="251"/>
       <c r="Q29" s="47"/>
     </row>
     <row r="30" spans="2:23" s="44" customFormat="1" hidden="1">
       <c r="B30" s="46"/>
-      <c r="N30" s="258"/>
+      <c r="N30" s="251"/>
       <c r="Q30" s="47"/>
     </row>
     <row r="31" spans="2:23" s="52" customFormat="1" hidden="1">
       <c r="B31" s="53"/>
-      <c r="N31" s="259"/>
+      <c r="N31" s="252"/>
       <c r="Q31" s="123"/>
     </row>
     <row r="32" spans="2:23" s="44" customFormat="1" hidden="1">
@@ -28312,7 +28512,7 @@
       <c r="L32" s="44">
         <v>10</v>
       </c>
-      <c r="N32" s="258">
+      <c r="N32" s="251">
         <f t="shared" ref="N32:N37" si="2">1000000*L32/J32</f>
         <v>5000000</v>
       </c>
@@ -28350,7 +28550,7 @@
       <c r="L33" s="44">
         <v>10</v>
       </c>
-      <c r="N33" s="258">
+      <c r="N33" s="251">
         <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
@@ -28382,7 +28582,7 @@
       <c r="L34" s="44">
         <v>10</v>
       </c>
-      <c r="N34" s="258">
+      <c r="N34" s="251">
         <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
@@ -28414,7 +28614,7 @@
       <c r="L35" s="44">
         <v>10</v>
       </c>
-      <c r="N35" s="258">
+      <c r="N35" s="251">
         <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
@@ -28446,7 +28646,7 @@
       <c r="L36" s="44">
         <v>10</v>
       </c>
-      <c r="N36" s="258">
+      <c r="N36" s="251">
         <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
@@ -28478,7 +28678,7 @@
       <c r="L37" s="44">
         <v>10</v>
       </c>
-      <c r="N37" s="258">
+      <c r="N37" s="251">
         <f t="shared" si="2"/>
         <v>5000000</v>
       </c>
@@ -28492,7 +28692,7 @@
     </row>
     <row r="38" spans="2:23" s="44" customFormat="1">
       <c r="B38" s="46"/>
-      <c r="N38" s="258"/>
+      <c r="N38" s="251"/>
       <c r="Q38" s="47"/>
     </row>
     <row r="39" spans="2:23">
@@ -28517,7 +28717,7 @@
       <c r="H39" s="14">
         <v>1</v>
       </c>
-      <c r="I39" s="247">
+      <c r="I39" s="240">
         <v>2</v>
       </c>
       <c r="J39" s="14">
@@ -28603,7 +28803,7 @@
       <c r="H42" s="14">
         <v>1</v>
       </c>
-      <c r="I42" s="247">
+      <c r="I42" s="240">
         <v>2</v>
       </c>
       <c r="J42" s="14">
@@ -28661,7 +28861,7 @@
       <c r="H44" s="14">
         <v>1</v>
       </c>
-      <c r="I44" s="247">
+      <c r="I44" s="240">
         <v>2</v>
       </c>
       <c r="J44" s="14">
@@ -28719,7 +28919,7 @@
       <c r="H49" s="119">
         <v>1</v>
       </c>
-      <c r="I49" s="247">
+      <c r="I49" s="240">
         <v>2</v>
       </c>
       <c r="J49" s="119">
@@ -28813,7 +29013,7 @@
       <c r="H52" s="121">
         <v>1</v>
       </c>
-      <c r="I52" s="247">
+      <c r="I52" s="240">
         <v>2</v>
       </c>
       <c r="J52" s="121">
@@ -28849,91 +29049,91 @@
         <v>0</v>
       </c>
     </row>
-    <row r="53" spans="2:23" s="247" customFormat="1">
-      <c r="B53" s="250"/>
-      <c r="C53" s="247" t="s">
+    <row r="53" spans="2:23" s="240" customFormat="1">
+      <c r="B53" s="243"/>
+      <c r="C53" s="240" t="s">
         <v>41</v>
       </c>
-      <c r="D53" s="247">
+      <c r="D53" s="240">
         <v>1024</v>
       </c>
-      <c r="E53" s="247" t="s">
+      <c r="E53" s="240" t="s">
         <v>293</v>
       </c>
-      <c r="F53" s="247" t="s">
+      <c r="F53" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="H53" s="247">
+      <c r="H53" s="240">
         <v>2</v>
       </c>
-      <c r="I53" s="255">
+      <c r="I53" s="248">
         <v>4</v>
       </c>
-      <c r="J53" s="247">
+      <c r="J53" s="240">
         <v>2</v>
       </c>
-      <c r="L53" s="247">
+      <c r="L53" s="240">
         <v>100</v>
       </c>
       <c r="N53" s="166">
         <f>1000000*L53/J53</f>
         <v>50000000</v>
       </c>
-      <c r="O53" s="247" t="s">
+      <c r="O53" s="240" t="s">
         <v>304</v>
       </c>
-      <c r="P53" s="247" t="s">
+      <c r="P53" s="240" t="s">
         <v>92</v>
       </c>
       <c r="Q53" s="41">
         <v>858723</v>
       </c>
-      <c r="R53" s="247" t="s">
+      <c r="R53" s="240" t="s">
         <v>300</v>
       </c>
       <c r="S53" s="26"/>
-      <c r="U53" s="247" t="s">
+      <c r="U53" s="240" t="s">
         <v>299</v>
       </c>
       <c r="V53" s="26"/>
       <c r="W53" s="16"/>
     </row>
     <row r="54" spans="2:23">
-      <c r="C54" s="261" t="s">
+      <c r="C54" s="254" t="s">
         <v>41</v>
       </c>
-      <c r="D54" s="261">
+      <c r="D54" s="254">
         <v>1024</v>
       </c>
-      <c r="E54" s="261" t="s">
+      <c r="E54" s="254" t="s">
         <v>293</v>
       </c>
-      <c r="F54" s="261" t="s">
+      <c r="F54" s="254" t="s">
         <v>7</v>
       </c>
-      <c r="G54" s="261"/>
-      <c r="H54" s="261">
+      <c r="G54" s="254"/>
+      <c r="H54" s="254">
         <v>2</v>
       </c>
-      <c r="I54" s="255">
+      <c r="I54" s="248">
         <v>4</v>
       </c>
-      <c r="J54" s="261">
+      <c r="J54" s="254">
         <v>2</v>
       </c>
-      <c r="K54" s="261"/>
-      <c r="L54" s="261">
+      <c r="K54" s="254"/>
+      <c r="L54" s="254">
         <v>100</v>
       </c>
-      <c r="M54" s="261"/>
+      <c r="M54" s="254"/>
       <c r="N54" s="166">
         <f>1000000*L54/J54</f>
         <v>50000000</v>
       </c>
-      <c r="O54" s="261" t="s">
+      <c r="O54" s="254" t="s">
         <v>508</v>
       </c>
-      <c r="P54" s="261" t="s">
+      <c r="P54" s="254" t="s">
         <v>92</v>
       </c>
       <c r="Q54" s="41">
@@ -28943,8 +29143,8 @@
       <c r="T54" s="125"/>
       <c r="U54" s="125"/>
     </row>
-    <row r="55" spans="2:23" s="261" customFormat="1">
-      <c r="B55" s="262"/>
+    <row r="55" spans="2:23" s="254" customFormat="1">
+      <c r="B55" s="255"/>
       <c r="N55" s="166"/>
       <c r="Q55" s="41"/>
       <c r="S55" s="26"/>
@@ -28970,7 +29170,7 @@
       <c r="H56" s="121">
         <v>1</v>
       </c>
-      <c r="I56" s="247">
+      <c r="I56" s="240">
         <v>2</v>
       </c>
       <c r="J56" s="121">
@@ -29040,7 +29240,7 @@
       <c r="H61" s="121">
         <v>1</v>
       </c>
-      <c r="I61" s="247">
+      <c r="I61" s="240">
         <v>2</v>
       </c>
       <c r="J61" s="121">
@@ -29137,7 +29337,7 @@
       <c r="H64" s="121">
         <v>1</v>
       </c>
-      <c r="I64" s="247">
+      <c r="I64" s="240">
         <v>2</v>
       </c>
       <c r="J64" s="121">
@@ -29231,7 +29431,7 @@
       <c r="H66" s="125">
         <v>1</v>
       </c>
-      <c r="I66" s="247"/>
+      <c r="I66" s="240"/>
       <c r="J66" s="125">
         <v>2</v>
       </c>
@@ -29287,7 +29487,7 @@
       <c r="H68" s="121">
         <v>1</v>
       </c>
-      <c r="I68" s="247">
+      <c r="I68" s="240">
         <v>2</v>
       </c>
       <c r="J68" s="121">
@@ -29415,23 +29615,23 @@
       <c r="T2" s="152"/>
     </row>
     <row r="3" spans="2:23">
-      <c r="J3" s="279" t="s">
+      <c r="J3" s="273" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="279"/>
-      <c r="N3" s="279" t="s">
+      <c r="K3" s="273"/>
+      <c r="N3" s="273" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="279"/>
-      <c r="Q3" s="279" t="s">
+      <c r="O3" s="273"/>
+      <c r="Q3" s="273" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="279"/>
-      <c r="S3" s="279"/>
-      <c r="T3" s="279"/>
-      <c r="U3" s="279"/>
-      <c r="V3" s="279"/>
-      <c r="W3" s="279"/>
+      <c r="R3" s="273"/>
+      <c r="S3" s="273"/>
+      <c r="T3" s="273"/>
+      <c r="U3" s="273"/>
+      <c r="V3" s="273"/>
+      <c r="W3" s="273"/>
     </row>
     <row r="4" spans="2:23" s="158" customFormat="1">
       <c r="B4" s="162" t="s">
@@ -29539,22 +29739,22 @@
         <f>1000000*K6/I6</f>
         <v>5000000</v>
       </c>
-      <c r="Q6" s="215" t="s">
+      <c r="Q6" s="214" t="s">
         <v>21</v>
       </c>
-      <c r="R6" s="215" t="s">
+      <c r="R6" s="214" t="s">
         <v>133</v>
       </c>
-      <c r="S6" s="216">
+      <c r="S6" s="215">
         <v>775.06899999999996</v>
       </c>
-      <c r="T6" s="215" t="s">
+      <c r="T6" s="214" t="s">
         <v>24</v>
       </c>
-      <c r="U6" s="217" t="s">
+      <c r="U6" s="216" t="s">
         <v>133</v>
       </c>
-      <c r="V6" s="218">
+      <c r="V6" s="217">
         <v>0.2656</v>
       </c>
       <c r="W6" s="154" t="s">
@@ -29596,63 +29796,63 @@
         <f>1000000*K7/I7</f>
         <v>5000000</v>
       </c>
-      <c r="Q7" s="219" t="s">
+      <c r="Q7" s="218" t="s">
         <v>21</v>
       </c>
-      <c r="R7" s="219" t="s">
+      <c r="R7" s="218" t="s">
         <v>133</v>
       </c>
-      <c r="S7" s="220">
+      <c r="S7" s="219">
         <v>790.25</v>
       </c>
-      <c r="T7" s="219" t="s">
+      <c r="T7" s="218" t="s">
         <v>24</v>
       </c>
-      <c r="U7" s="221" t="s">
+      <c r="U7" s="220" t="s">
         <v>133</v>
       </c>
-      <c r="V7" s="222">
+      <c r="V7" s="221">
         <v>0.1439</v>
       </c>
       <c r="W7" s="132" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="8" spans="2:23" s="199" customFormat="1">
+    <row r="8" spans="2:23" s="198" customFormat="1">
       <c r="B8" s="68" t="s">
         <v>462</v>
       </c>
-      <c r="C8" s="199" t="s">
+      <c r="C8" s="198" t="s">
         <v>42</v>
       </c>
-      <c r="D8" s="199">
+      <c r="D8" s="198">
         <v>1024</v>
       </c>
-      <c r="E8" s="198" t="s">
+      <c r="E8" s="197" t="s">
         <v>458</v>
       </c>
-      <c r="F8" s="199" t="s">
+      <c r="F8" s="198" t="s">
         <v>7</v>
       </c>
-      <c r="G8" s="199">
+      <c r="G8" s="198">
         <v>298</v>
       </c>
-      <c r="H8" s="199">
+      <c r="H8" s="198">
         <v>1</v>
       </c>
-      <c r="I8" s="199">
+      <c r="I8" s="198">
         <v>1</v>
       </c>
       <c r="J8" s="154" t="s">
         <v>55</v>
       </c>
-      <c r="K8" s="199">
+      <c r="K8" s="198">
         <v>5</v>
       </c>
-      <c r="L8" s="199">
+      <c r="L8" s="198">
         <v>1</v>
       </c>
-      <c r="M8" s="199">
+      <c r="M8" s="198">
         <f>1000000*K8/I8</f>
         <v>5000000</v>
       </c>
@@ -29665,7 +29865,7 @@
       <c r="R8" s="67" t="s">
         <v>133</v>
       </c>
-      <c r="S8" s="187">
+      <c r="S8" s="186">
         <v>790.04200000000003</v>
       </c>
       <c r="T8" s="67" t="s">
@@ -29677,7 +29877,7 @@
       <c r="V8" s="78">
         <v>0.17199999999999999</v>
       </c>
-      <c r="W8" s="198"/>
+      <c r="W8" s="197"/>
     </row>
     <row r="9" spans="2:23" s="158" customFormat="1">
       <c r="B9" s="162"/>
@@ -30372,19 +30572,19 @@
       <c r="O3" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="280" t="s">
+      <c r="Q3" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="280"/>
-      <c r="S3" s="280"/>
-      <c r="U3" s="280" t="s">
+      <c r="R3" s="274"/>
+      <c r="S3" s="274"/>
+      <c r="U3" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="280"/>
-      <c r="W3" s="280"/>
-      <c r="X3" s="280"/>
-      <c r="Y3" s="280"/>
-      <c r="Z3" s="280"/>
+      <c r="V3" s="274"/>
+      <c r="W3" s="274"/>
+      <c r="X3" s="274"/>
+      <c r="Y3" s="274"/>
+      <c r="Z3" s="274"/>
     </row>
     <row r="4" spans="2:27" hidden="1">
       <c r="B4" s="147" t="s">
@@ -30745,23 +30945,23 @@
     <row r="10" spans="2:27">
       <c r="E10" s="146"/>
       <c r="F10" s="146"/>
-      <c r="J10" s="280" t="s">
+      <c r="J10" s="274" t="s">
         <v>289</v>
       </c>
-      <c r="K10" s="280"/>
-      <c r="N10" s="280" t="s">
+      <c r="K10" s="274"/>
+      <c r="N10" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="280"/>
-      <c r="Q10" s="280" t="s">
+      <c r="O10" s="274"/>
+      <c r="Q10" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="280"/>
-      <c r="S10" s="280"/>
-      <c r="T10" s="280"/>
-      <c r="U10" s="280"/>
-      <c r="V10" s="280"/>
-      <c r="W10" s="280"/>
+      <c r="R10" s="274"/>
+      <c r="S10" s="274"/>
+      <c r="T10" s="274"/>
+      <c r="U10" s="274"/>
+      <c r="V10" s="274"/>
+      <c r="W10" s="274"/>
       <c r="X10" s="146"/>
       <c r="AA10" s="146"/>
     </row>
@@ -30959,29 +31159,29 @@
         <v>439</v>
       </c>
     </row>
-    <row r="17" spans="2:27" s="268" customFormat="1">
-      <c r="B17" s="269" t="s">
+    <row r="17" spans="2:27" s="261" customFormat="1">
+      <c r="B17" s="262" t="s">
         <v>525</v>
       </c>
-      <c r="C17" s="266"/>
+      <c r="C17" s="259"/>
       <c r="D17" s="166"/>
-      <c r="E17" s="266"/>
-      <c r="F17" s="266"/>
-      <c r="G17" s="266"/>
-      <c r="H17" s="266"/>
-      <c r="I17" s="266"/>
-      <c r="J17" s="266"/>
-      <c r="K17" s="266"/>
-      <c r="L17" s="266"/>
-      <c r="M17" s="266"/>
-      <c r="N17" s="266" t="s">
+      <c r="E17" s="259"/>
+      <c r="F17" s="259"/>
+      <c r="G17" s="259"/>
+      <c r="H17" s="259"/>
+      <c r="I17" s="259"/>
+      <c r="J17" s="259"/>
+      <c r="K17" s="259"/>
+      <c r="L17" s="259"/>
+      <c r="M17" s="259"/>
+      <c r="N17" s="259" t="s">
         <v>523</v>
       </c>
-      <c r="O17" s="266" t="s">
+      <c r="O17" s="259" t="s">
         <v>524</v>
       </c>
       <c r="P17" s="41"/>
-      <c r="V17" s="267"/>
+      <c r="V17" s="260"/>
       <c r="X17" s="137"/>
       <c r="AA17" s="138"/>
     </row>
@@ -31431,19 +31631,19 @@
       <c r="O3" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="280" t="s">
+      <c r="Q3" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="280"/>
-      <c r="S3" s="280"/>
-      <c r="U3" s="280" t="s">
+      <c r="R3" s="274"/>
+      <c r="S3" s="274"/>
+      <c r="U3" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="280"/>
-      <c r="W3" s="280"/>
-      <c r="X3" s="280"/>
-      <c r="Y3" s="280"/>
-      <c r="Z3" s="280"/>
+      <c r="V3" s="274"/>
+      <c r="W3" s="274"/>
+      <c r="X3" s="274"/>
+      <c r="Y3" s="274"/>
+      <c r="Z3" s="274"/>
     </row>
     <row r="4" spans="2:27" hidden="1">
       <c r="B4" s="129" t="s">
@@ -31804,23 +32004,23 @@
     <row r="10" spans="2:27">
       <c r="E10" s="134"/>
       <c r="F10" s="134"/>
-      <c r="J10" s="280" t="s">
+      <c r="J10" s="274" t="s">
         <v>289</v>
       </c>
-      <c r="K10" s="280"/>
-      <c r="N10" s="280" t="s">
+      <c r="K10" s="274"/>
+      <c r="N10" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="280"/>
-      <c r="Q10" s="280" t="s">
+      <c r="O10" s="274"/>
+      <c r="Q10" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="280"/>
-      <c r="S10" s="280"/>
-      <c r="T10" s="280"/>
-      <c r="U10" s="280"/>
-      <c r="V10" s="280"/>
-      <c r="W10" s="280"/>
+      <c r="R10" s="274"/>
+      <c r="S10" s="274"/>
+      <c r="T10" s="274"/>
+      <c r="U10" s="274"/>
+      <c r="V10" s="274"/>
+      <c r="W10" s="274"/>
       <c r="X10" s="134"/>
       <c r="AA10" s="134"/>
     </row>
@@ -32218,42 +32418,42 @@
         <v>302</v>
       </c>
     </row>
-    <row r="27" spans="2:27" s="253" customFormat="1">
-      <c r="B27" s="254" t="s">
+    <row r="27" spans="2:27" s="246" customFormat="1">
+      <c r="B27" s="247" t="s">
         <v>507</v>
       </c>
-      <c r="C27" s="252" t="s">
+      <c r="C27" s="245" t="s">
         <v>41</v>
       </c>
       <c r="D27" s="166">
         <v>1024</v>
       </c>
-      <c r="E27" s="252" t="s">
+      <c r="E27" s="245" t="s">
         <v>293</v>
       </c>
-      <c r="F27" s="252" t="s">
+      <c r="F27" s="245" t="s">
         <v>7</v>
       </c>
-      <c r="G27" s="252"/>
-      <c r="H27" s="252">
+      <c r="G27" s="245"/>
+      <c r="H27" s="245">
         <v>1</v>
       </c>
-      <c r="I27" s="252">
+      <c r="I27" s="245">
         <v>1</v>
       </c>
-      <c r="J27" s="252"/>
-      <c r="K27" s="252">
+      <c r="J27" s="245"/>
+      <c r="K27" s="245">
         <v>100</v>
       </c>
-      <c r="L27" s="252"/>
-      <c r="M27" s="252">
+      <c r="L27" s="245"/>
+      <c r="M27" s="245">
         <f>1000000*K27/I27</f>
         <v>100000000</v>
       </c>
-      <c r="N27" s="252" t="s">
+      <c r="N27" s="245" t="s">
         <v>508</v>
       </c>
-      <c r="O27" s="252" t="s">
+      <c r="O27" s="245" t="s">
         <v>92</v>
       </c>
       <c r="P27" s="41" t="s">
@@ -32482,22 +32682,22 @@
         <v>367</v>
       </c>
     </row>
-    <row r="38" spans="2:27" s="249" customFormat="1">
-      <c r="B38" s="250"/>
+    <row r="38" spans="2:27" s="242" customFormat="1">
+      <c r="B38" s="243"/>
       <c r="D38" s="164"/>
-      <c r="E38" s="247"/>
-      <c r="F38" s="247"/>
-      <c r="G38" s="247"/>
-      <c r="H38" s="247"/>
-      <c r="I38" s="247"/>
-      <c r="J38" s="247"/>
-      <c r="K38" s="247"/>
-      <c r="L38" s="247"/>
-      <c r="M38" s="247"/>
-      <c r="N38" s="249" t="s">
+      <c r="E38" s="240"/>
+      <c r="F38" s="240"/>
+      <c r="G38" s="240"/>
+      <c r="H38" s="240"/>
+      <c r="I38" s="240"/>
+      <c r="J38" s="240"/>
+      <c r="K38" s="240"/>
+      <c r="L38" s="240"/>
+      <c r="M38" s="240"/>
+      <c r="N38" s="242" t="s">
         <v>310</v>
       </c>
-      <c r="O38" s="247"/>
+      <c r="O38" s="240"/>
       <c r="P38" s="41"/>
       <c r="V38" s="137"/>
       <c r="X38" s="137"/>
@@ -32602,9 +32802,9 @@
     <col min="14" max="14" width="12.5" style="146" customWidth="1"/>
     <col min="15" max="15" width="10.875" style="146"/>
     <col min="16" max="16" width="31.875" style="41" customWidth="1"/>
-    <col min="17" max="18" width="9" style="199" customWidth="1"/>
-    <col min="19" max="19" width="9" style="207" customWidth="1"/>
-    <col min="20" max="22" width="9" style="199" customWidth="1"/>
+    <col min="17" max="18" width="9" style="198" customWidth="1"/>
+    <col min="19" max="19" width="9" style="206" customWidth="1"/>
+    <col min="20" max="22" width="9" style="198" customWidth="1"/>
     <col min="23" max="23" width="31.125" style="146" customWidth="1"/>
     <col min="24" max="24" width="9" style="137" customWidth="1"/>
     <col min="25" max="25" width="9" style="146" customWidth="1"/>
@@ -32621,12 +32821,12 @@
       <c r="E2" s="136"/>
       <c r="F2" s="136"/>
       <c r="P2" s="41"/>
-      <c r="Q2" s="199"/>
-      <c r="R2" s="199"/>
-      <c r="S2" s="207"/>
-      <c r="T2" s="199"/>
-      <c r="U2" s="199"/>
-      <c r="V2" s="199"/>
+      <c r="Q2" s="198"/>
+      <c r="R2" s="198"/>
+      <c r="S2" s="206"/>
+      <c r="T2" s="198"/>
+      <c r="U2" s="198"/>
+      <c r="V2" s="198"/>
       <c r="X2" s="137"/>
       <c r="AA2" s="138"/>
     </row>
@@ -32638,35 +32838,35 @@
       <c r="E3" s="136"/>
       <c r="F3" s="136"/>
       <c r="P3" s="41"/>
-      <c r="Q3" s="199"/>
-      <c r="R3" s="199"/>
-      <c r="S3" s="207"/>
-      <c r="T3" s="199"/>
-      <c r="U3" s="199"/>
-      <c r="V3" s="199"/>
+      <c r="Q3" s="198"/>
+      <c r="R3" s="198"/>
+      <c r="S3" s="206"/>
+      <c r="T3" s="198"/>
+      <c r="U3" s="198"/>
+      <c r="V3" s="198"/>
       <c r="X3" s="137"/>
       <c r="AA3" s="138"/>
     </row>
     <row r="4" spans="2:27">
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
-      <c r="J4" s="280" t="s">
+      <c r="J4" s="274" t="s">
         <v>289</v>
       </c>
-      <c r="K4" s="280"/>
-      <c r="N4" s="280" t="s">
+      <c r="K4" s="274"/>
+      <c r="N4" s="274" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="280"/>
-      <c r="Q4" s="280" t="s">
+      <c r="O4" s="274"/>
+      <c r="Q4" s="274" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="280"/>
-      <c r="S4" s="280"/>
-      <c r="T4" s="280"/>
-      <c r="U4" s="280"/>
-      <c r="V4" s="280"/>
-      <c r="W4" s="280"/>
+      <c r="R4" s="274"/>
+      <c r="S4" s="274"/>
+      <c r="T4" s="274"/>
+      <c r="U4" s="274"/>
+      <c r="V4" s="274"/>
+      <c r="W4" s="274"/>
       <c r="X4" s="146"/>
       <c r="AA4" s="146"/>
     </row>
@@ -32781,7 +32981,7 @@
       <c r="P7" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="Q7" s="208" t="s">
+      <c r="Q7" s="207" t="s">
         <v>21</v>
       </c>
       <c r="R7" s="67" t="s">
@@ -33006,13 +33206,13 @@
       <c r="P17" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="Q17" s="208" t="s">
+      <c r="Q17" s="207" t="s">
         <v>21</v>
       </c>
       <c r="R17" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="S17" s="207">
+      <c r="S17" s="206">
         <v>782.54740000000004</v>
       </c>
       <c r="T17" s="67" t="s">
@@ -33021,7 +33221,7 @@
       <c r="U17" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="V17" s="199">
+      <c r="V17" s="198">
         <v>0.29220000000000002</v>
       </c>
     </row>
@@ -33207,13 +33407,13 @@
       <c r="P27" s="41" t="s">
         <v>302</v>
       </c>
-      <c r="Q27" s="208" t="s">
+      <c r="Q27" s="207" t="s">
         <v>21</v>
       </c>
       <c r="R27" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="S27" s="207">
+      <c r="S27" s="206">
         <v>710.37720000000002</v>
       </c>
       <c r="T27" s="67" t="s">
@@ -33222,7 +33422,7 @@
       <c r="U27" s="67" t="s">
         <v>464</v>
       </c>
-      <c r="V27" s="199">
+      <c r="V27" s="198">
         <v>1.9329799999999999</v>
       </c>
     </row>
@@ -33269,92 +33469,92 @@
       </c>
     </row>
     <row r="31" spans="2:27">
-      <c r="B31" s="201" t="s">
+      <c r="B31" s="200" t="s">
         <v>503</v>
       </c>
-      <c r="C31" s="200" t="s">
+      <c r="C31" s="199" t="s">
         <v>33</v>
       </c>
       <c r="D31" s="164">
         <v>2048</v>
       </c>
-      <c r="E31" s="198" t="s">
+      <c r="E31" s="197" t="s">
         <v>293</v>
       </c>
-      <c r="F31" s="198" t="s">
+      <c r="F31" s="197" t="s">
         <v>7</v>
       </c>
-      <c r="G31" s="198"/>
-      <c r="H31" s="198">
+      <c r="G31" s="197"/>
+      <c r="H31" s="197">
         <v>1</v>
       </c>
-      <c r="I31" s="198">
+      <c r="I31" s="197">
         <v>1</v>
       </c>
-      <c r="J31" s="198"/>
-      <c r="K31" s="198">
+      <c r="J31" s="197"/>
+      <c r="K31" s="197">
         <v>100</v>
       </c>
-      <c r="L31" s="198"/>
-      <c r="M31" s="198">
+      <c r="L31" s="197"/>
+      <c r="M31" s="197">
         <f>1000000*K31/I31</f>
         <v>100000000</v>
       </c>
-      <c r="N31" s="200" t="s">
+      <c r="N31" s="199" t="s">
         <v>310</v>
       </c>
-      <c r="O31" s="198" t="s">
+      <c r="O31" s="197" t="s">
         <v>92</v>
       </c>
       <c r="P31" s="41" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="32" spans="2:27" s="249" customFormat="1">
-      <c r="B32" s="250"/>
+    <row r="32" spans="2:27" s="242" customFormat="1">
+      <c r="B32" s="243"/>
       <c r="D32" s="164"/>
-      <c r="E32" s="247"/>
-      <c r="F32" s="247"/>
-      <c r="G32" s="247"/>
-      <c r="H32" s="247"/>
-      <c r="I32" s="247"/>
-      <c r="J32" s="247"/>
-      <c r="K32" s="247"/>
-      <c r="L32" s="247"/>
-      <c r="M32" s="247"/>
-      <c r="O32" s="247"/>
+      <c r="E32" s="240"/>
+      <c r="F32" s="240"/>
+      <c r="G32" s="240"/>
+      <c r="H32" s="240"/>
+      <c r="I32" s="240"/>
+      <c r="J32" s="240"/>
+      <c r="K32" s="240"/>
+      <c r="L32" s="240"/>
+      <c r="M32" s="240"/>
+      <c r="O32" s="240"/>
       <c r="P32" s="41" t="s">
         <v>506</v>
       </c>
-      <c r="Q32" s="248"/>
-      <c r="R32" s="248"/>
-      <c r="S32" s="207"/>
-      <c r="T32" s="248"/>
-      <c r="U32" s="248"/>
-      <c r="V32" s="248"/>
+      <c r="Q32" s="241"/>
+      <c r="R32" s="241"/>
+      <c r="S32" s="206"/>
+      <c r="T32" s="241"/>
+      <c r="U32" s="241"/>
+      <c r="V32" s="241"/>
       <c r="X32" s="137"/>
       <c r="AA32" s="138"/>
     </row>
-    <row r="33" spans="2:27" s="200" customFormat="1">
-      <c r="B33" s="201"/>
+    <row r="33" spans="2:27" s="199" customFormat="1">
+      <c r="B33" s="200"/>
       <c r="D33" s="164"/>
-      <c r="E33" s="198"/>
-      <c r="F33" s="198"/>
-      <c r="G33" s="198"/>
-      <c r="H33" s="198"/>
-      <c r="I33" s="198"/>
-      <c r="J33" s="198"/>
-      <c r="K33" s="198"/>
-      <c r="L33" s="198"/>
-      <c r="M33" s="198"/>
-      <c r="O33" s="198"/>
+      <c r="E33" s="197"/>
+      <c r="F33" s="197"/>
+      <c r="G33" s="197"/>
+      <c r="H33" s="197"/>
+      <c r="I33" s="197"/>
+      <c r="J33" s="197"/>
+      <c r="K33" s="197"/>
+      <c r="L33" s="197"/>
+      <c r="M33" s="197"/>
+      <c r="O33" s="197"/>
       <c r="P33" s="41"/>
-      <c r="Q33" s="199"/>
-      <c r="R33" s="199"/>
-      <c r="S33" s="207"/>
-      <c r="T33" s="199"/>
-      <c r="U33" s="199"/>
-      <c r="V33" s="199"/>
+      <c r="Q33" s="198"/>
+      <c r="R33" s="198"/>
+      <c r="S33" s="206"/>
+      <c r="T33" s="198"/>
+      <c r="U33" s="198"/>
+      <c r="V33" s="198"/>
       <c r="X33" s="137"/>
       <c r="AA33" s="138"/>
     </row>
@@ -33471,20 +33671,20 @@
       <c r="Q3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="278" t="s">
+      <c r="S3" s="272" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="278"/>
-      <c r="U3" s="281"/>
-      <c r="W3" s="278" t="s">
+      <c r="T3" s="272"/>
+      <c r="U3" s="275"/>
+      <c r="W3" s="272" t="s">
         <v>99</v>
       </c>
-      <c r="X3" s="278"/>
-      <c r="Y3" s="278"/>
-      <c r="Z3" s="278"/>
-      <c r="AA3" s="278"/>
-      <c r="AB3" s="278"/>
-      <c r="AC3" s="278"/>
+      <c r="X3" s="272"/>
+      <c r="Y3" s="272"/>
+      <c r="Z3" s="272"/>
+      <c r="AA3" s="272"/>
+      <c r="AB3" s="272"/>
+      <c r="AC3" s="272"/>
     </row>
     <row r="4" spans="2:29" s="15" customFormat="1">
       <c r="B4" s="15" t="s">

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steph\Dropbox\github_dropbox\alkanestudy.gromacs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\github_dropbox\alkanestudy.gromacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AE9D20BB-2866-4C84-BEFB-954B81DF0E51}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C751D43-02BD-476D-82FE-ADC9E61AB805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="646" firstSheet="6" activeTab="13" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="646" firstSheet="6" activeTab="14" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim matrix" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2255" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="544">
   <si>
     <t>Study</t>
   </si>
@@ -1686,9 +1686,6 @@
     <t>Stoyan</t>
   </si>
   <si>
-    <t>Williams OPT</t>
-  </si>
-  <si>
     <t>L-OPLS (tau-p test)</t>
   </si>
   <si>
@@ -1891,6 +1888,9 @@
   </si>
   <si>
     <t>Interface sims</t>
+  </si>
+  <si>
+    <t>Williams OPT-0.011</t>
   </si>
 </sst>
 </file>
@@ -3095,13 +3095,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
@@ -17595,10 +17595,10 @@
   <sheetData>
     <row r="2" spans="2:27" s="56" customFormat="1">
       <c r="B2" s="56" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="C2" s="56" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D2" s="56" t="s">
         <v>5</v>
@@ -17672,10 +17672,10 @@
         <v>167</v>
       </c>
       <c r="D3" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="O3" s="264" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="P3" s="264" t="s">
         <v>470</v>
@@ -17684,7 +17684,7 @@
         <v>470</v>
       </c>
       <c r="R3" s="264" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="S3" s="264" t="s">
         <v>470</v>
@@ -17702,7 +17702,7 @@
         <v>62</v>
       </c>
       <c r="AA3" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
     </row>
     <row r="4" spans="2:27">
@@ -17710,31 +17710,31 @@
         <v>24</v>
       </c>
       <c r="AA4" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
     </row>
     <row r="5" spans="2:27">
       <c r="Z5" t="s">
+        <v>534</v>
+      </c>
+      <c r="AA5" t="s">
         <v>535</v>
-      </c>
-      <c r="AA5" t="s">
-        <v>536</v>
       </c>
     </row>
     <row r="6" spans="2:27">
       <c r="Z6" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="AA6" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
     </row>
     <row r="7" spans="2:27">
       <c r="Z7" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="AA7" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
     </row>
   </sheetData>
@@ -17764,7 +17764,7 @@
   <sheetData>
     <row r="2" spans="2:20">
       <c r="B2" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="C2" s="269">
         <v>6.0221407599999999E+23</v>
@@ -17808,19 +17808,19 @@
         <v>23</v>
       </c>
       <c r="M5" s="169" t="s">
+        <v>511</v>
+      </c>
+      <c r="N5" s="169" t="s">
         <v>512</v>
       </c>
-      <c r="N5" s="169" t="s">
+      <c r="O5" s="169" t="s">
         <v>513</v>
       </c>
-      <c r="O5" s="169" t="s">
+      <c r="P5" s="266" t="s">
+        <v>510</v>
+      </c>
+      <c r="Q5" s="266" t="s">
         <v>514</v>
-      </c>
-      <c r="P5" s="266" t="s">
-        <v>511</v>
-      </c>
-      <c r="Q5" s="266" t="s">
-        <v>515</v>
       </c>
       <c r="R5" s="268" t="s">
         <v>21</v>
@@ -18237,7 +18237,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54734A79-229D-40A1-9EF2-2AA48E78AAE8}">
   <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -18272,7 +18272,7 @@
         <v>395</v>
       </c>
       <c r="S2" s="271" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
     </row>
     <row r="3" spans="2:20" s="158" customFormat="1">
@@ -18850,7 +18850,7 @@
         <v>1</v>
       </c>
       <c r="S11" s="271" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="12" spans="2:20" s="271" customFormat="1">
@@ -18916,7 +18916,7 @@
         <v>1</v>
       </c>
       <c r="S12" s="271" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
     <row r="13" spans="2:20" s="271" customFormat="1">
@@ -19306,7 +19306,7 @@
         <v>1</v>
       </c>
       <c r="S19" s="67" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
     </row>
     <row r="20" spans="3:19">
@@ -19372,7 +19372,7 @@
         <v>1</v>
       </c>
       <c r="S20" s="67" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
     </row>
   </sheetData>
@@ -19403,8 +19403,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9DD18-B806-45D2-93AF-832D747FF56C}">
   <dimension ref="A2:R36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L40" sqref="L40"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -19467,28 +19467,28 @@
         <v>482</v>
       </c>
       <c r="J3" s="15" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="K3" s="250" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="L3" s="15" t="s">
         <v>481</v>
       </c>
       <c r="M3" s="15" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="N3" s="19" t="s">
         <v>483</v>
       </c>
       <c r="O3" s="19" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="P3" s="15" t="s">
         <v>480</v>
       </c>
       <c r="Q3" s="30" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="R3" s="15" t="s">
         <v>5</v>
@@ -19641,7 +19641,7 @@
         <v>1.6237999999999999E-2</v>
       </c>
       <c r="R7" s="237" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="8" spans="1:18">
@@ -19819,7 +19819,7 @@
         <v>8.9042999999999997E-2</v>
       </c>
       <c r="R12" s="192" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="13" spans="1:18" s="240" customFormat="1">
@@ -19866,7 +19866,7 @@
         <v>1.2351900000000001E-2</v>
       </c>
       <c r="R13" s="240" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -19956,10 +19956,35 @@
     </row>
     <row r="16" spans="1:18">
       <c r="E16" s="193" t="s">
-        <v>485</v>
+        <v>543</v>
+      </c>
+      <c r="F16" s="236">
+        <v>243</v>
+      </c>
+      <c r="G16" s="192">
+        <v>293</v>
+      </c>
+      <c r="H16" s="192" t="s">
+        <v>479</v>
+      </c>
+      <c r="I16" s="237">
+        <v>1800</v>
+      </c>
+      <c r="J16" s="259" t="s">
+        <v>7</v>
       </c>
       <c r="K16" s="249">
         <v>4</v>
+      </c>
+      <c r="L16" s="237">
+        <v>96</v>
+      </c>
+      <c r="M16" s="237">
+        <v>1</v>
+      </c>
+      <c r="N16" s="18">
+        <f>(L16/72)*29.913*(1024/I16)</f>
+        <v>22.689564444444443</v>
       </c>
     </row>
     <row r="17" spans="1:18" s="259" customFormat="1">
@@ -19985,7 +20010,7 @@
       <c r="O18" s="18"/>
       <c r="Q18" s="29"/>
       <c r="R18" s="259" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
     </row>
     <row r="19" spans="1:18" s="259" customFormat="1">
@@ -20031,10 +20056,10 @@
         <v>169</v>
       </c>
       <c r="F22" s="261" t="s">
+        <v>527</v>
+      </c>
+      <c r="G22" s="259" t="s">
         <v>528</v>
-      </c>
-      <c r="G22" s="259" t="s">
-        <v>529</v>
       </c>
       <c r="K22" s="249"/>
       <c r="N22" s="18"/>
@@ -20050,7 +20075,7 @@
     </row>
     <row r="24" spans="1:18">
       <c r="E24" s="193" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F24" s="236">
         <v>280</v>
@@ -20059,7 +20084,7 @@
         <v>280</v>
       </c>
       <c r="H24" s="192" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="I24" s="237">
         <v>1800</v>
@@ -20071,7 +20096,7 @@
         <v>853816</v>
       </c>
       <c r="R24" s="192" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="25" spans="1:18" s="15" customFormat="1">
@@ -20152,7 +20177,7 @@
         <v>856325</v>
       </c>
       <c r="R27" s="192" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="28" spans="1:18" s="259" customFormat="1">
@@ -20193,7 +20218,7 @@
       </c>
       <c r="Q28" s="29"/>
       <c r="R28" s="259" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
     </row>
     <row r="29" spans="1:18" s="259" customFormat="1">
@@ -20219,7 +20244,7 @@
         <v>7</v>
       </c>
       <c r="K29" s="249" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="L29" s="259">
         <v>72</v>
@@ -20229,7 +20254,7 @@
       </c>
       <c r="N29" s="18"/>
       <c r="O29" s="259" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="P29" s="263">
         <v>905240</v>
@@ -20269,7 +20294,7 @@
       </c>
       <c r="N30" s="18"/>
       <c r="O30" s="259" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="P30" s="263">
         <v>905252</v>
@@ -20309,7 +20334,7 @@
       </c>
       <c r="N31" s="18"/>
       <c r="O31" s="259" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="P31" s="263">
         <v>911611</v>
@@ -20393,7 +20418,7 @@
         <v>449</v>
       </c>
       <c r="R34" s="192" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="35" spans="5:18">
@@ -21367,30 +21392,30 @@
       <c r="B2" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="283" t="s">
+      <c r="C2" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="283"/>
-      <c r="E2" s="283"/>
-      <c r="F2" s="283"/>
-      <c r="G2" s="283"/>
-      <c r="H2" s="285" t="s">
+      <c r="D2" s="285"/>
+      <c r="E2" s="285"/>
+      <c r="F2" s="285"/>
+      <c r="G2" s="285"/>
+      <c r="H2" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="285"/>
-      <c r="J2" s="285"/>
-      <c r="K2" s="285"/>
-      <c r="L2" s="285"/>
+      <c r="I2" s="284"/>
+      <c r="J2" s="284"/>
+      <c r="K2" s="284"/>
+      <c r="L2" s="284"/>
       <c r="N2" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="283" t="s">
+      <c r="O2" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="283"/>
-      <c r="Q2" s="283"/>
-      <c r="R2" s="283"/>
-      <c r="S2" s="283"/>
+      <c r="P2" s="285"/>
+      <c r="Q2" s="285"/>
+      <c r="R2" s="285"/>
+      <c r="S2" s="285"/>
       <c r="T2" s="72"/>
       <c r="U2" s="72"/>
       <c r="V2" s="72"/>
@@ -21399,13 +21424,13 @@
       <c r="Z2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="283" t="s">
+      <c r="AA2" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="283"/>
-      <c r="AC2" s="283"/>
-      <c r="AD2" s="283"/>
-      <c r="AE2" s="283"/>
+      <c r="AB2" s="285"/>
+      <c r="AC2" s="285"/>
+      <c r="AD2" s="285"/>
+      <c r="AE2" s="285"/>
       <c r="AF2" s="72"/>
       <c r="AG2" s="72"/>
       <c r="AH2" s="72"/>
@@ -21414,13 +21439,13 @@
       <c r="AL2" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM2" s="283" t="s">
+      <c r="AM2" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="AN2" s="283"/>
-      <c r="AO2" s="283"/>
-      <c r="AP2" s="283"/>
-      <c r="AQ2" s="283"/>
+      <c r="AN2" s="285"/>
+      <c r="AO2" s="285"/>
+      <c r="AP2" s="285"/>
+      <c r="AQ2" s="285"/>
       <c r="AR2" s="72"/>
       <c r="AS2" s="72"/>
       <c r="AT2" s="72"/>
@@ -22560,33 +22585,33 @@
       <c r="B17" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="284" t="s">
+      <c r="C17" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="284"/>
-      <c r="E17" s="284"/>
-      <c r="F17" s="284"/>
-      <c r="G17" s="284"/>
+      <c r="D17" s="283"/>
+      <c r="E17" s="283"/>
+      <c r="F17" s="283"/>
+      <c r="G17" s="283"/>
       <c r="N17" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="284" t="s">
+      <c r="O17" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="284"/>
-      <c r="Q17" s="284"/>
-      <c r="R17" s="284"/>
-      <c r="S17" s="284"/>
+      <c r="P17" s="283"/>
+      <c r="Q17" s="283"/>
+      <c r="R17" s="283"/>
+      <c r="S17" s="283"/>
       <c r="AL17" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM17" s="283" t="s">
+      <c r="AM17" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="AN17" s="283"/>
-      <c r="AO17" s="283"/>
-      <c r="AP17" s="283"/>
-      <c r="AQ17" s="283"/>
+      <c r="AN17" s="285"/>
+      <c r="AO17" s="285"/>
+      <c r="AP17" s="285"/>
+      <c r="AQ17" s="285"/>
       <c r="AR17" s="72"/>
       <c r="AS17" s="72"/>
       <c r="AT17" s="72"/>
@@ -23207,40 +23232,40 @@
       <c r="B32" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="283" t="s">
+      <c r="C32" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="283"/>
-      <c r="E32" s="283"/>
-      <c r="F32" s="283"/>
-      <c r="G32" s="283"/>
-      <c r="H32" s="285" t="s">
+      <c r="D32" s="285"/>
+      <c r="E32" s="285"/>
+      <c r="F32" s="285"/>
+      <c r="G32" s="285"/>
+      <c r="H32" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="285"/>
-      <c r="J32" s="285"/>
-      <c r="K32" s="285"/>
-      <c r="L32" s="285"/>
+      <c r="I32" s="284"/>
+      <c r="J32" s="284"/>
+      <c r="K32" s="284"/>
+      <c r="L32" s="284"/>
       <c r="N32" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="284" t="s">
+      <c r="O32" s="283" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="284"/>
-      <c r="Q32" s="284"/>
-      <c r="R32" s="284"/>
-      <c r="S32" s="284"/>
+      <c r="P32" s="283"/>
+      <c r="Q32" s="283"/>
+      <c r="R32" s="283"/>
+      <c r="S32" s="283"/>
       <c r="AL32" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM32" s="283" t="s">
+      <c r="AM32" s="285" t="s">
         <v>17</v>
       </c>
-      <c r="AN32" s="283"/>
-      <c r="AO32" s="283"/>
-      <c r="AP32" s="283"/>
-      <c r="AQ32" s="283"/>
+      <c r="AN32" s="285"/>
+      <c r="AO32" s="285"/>
+      <c r="AP32" s="285"/>
+      <c r="AQ32" s="285"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
       <c r="AT32" s="72"/>
@@ -23798,18 +23823,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="AM32:AQ32"/>
+    <mergeCell ref="O32:S32"/>
     <mergeCell ref="C17:G17"/>
     <mergeCell ref="H2:L2"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="O2:S2"/>
     <mergeCell ref="C32:G32"/>
     <mergeCell ref="H32:L32"/>
-    <mergeCell ref="AA2:AE2"/>
-    <mergeCell ref="AM2:AQ2"/>
-    <mergeCell ref="O17:S17"/>
-    <mergeCell ref="AM17:AQ17"/>
-    <mergeCell ref="AM32:AQ32"/>
-    <mergeCell ref="O32:S32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -25009,51 +25034,51 @@
       <c r="F4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="285" t="s">
+      <c r="H4" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="285"/>
-      <c r="J4" s="285"/>
-      <c r="K4" s="285"/>
-      <c r="L4" s="285"/>
+      <c r="I4" s="284"/>
+      <c r="J4" s="284"/>
+      <c r="K4" s="284"/>
+      <c r="L4" s="284"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="285" t="s">
+      <c r="T4" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="285"/>
-      <c r="V4" s="285"/>
-      <c r="W4" s="285"/>
-      <c r="X4" s="285"/>
+      <c r="U4" s="284"/>
+      <c r="V4" s="284"/>
+      <c r="W4" s="284"/>
+      <c r="X4" s="284"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
-      <c r="AF4" s="285" t="s">
+      <c r="AF4" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="285"/>
-      <c r="AH4" s="285"/>
-      <c r="AI4" s="285"/>
-      <c r="AJ4" s="285"/>
+      <c r="AG4" s="284"/>
+      <c r="AH4" s="284"/>
+      <c r="AI4" s="284"/>
+      <c r="AJ4" s="284"/>
       <c r="AN4" s="10"/>
       <c r="AP4" s="7"/>
-      <c r="AR4" s="285" t="s">
+      <c r="AR4" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="AS4" s="285"/>
-      <c r="AT4" s="285"/>
-      <c r="AU4" s="285"/>
-      <c r="AV4" s="285"/>
+      <c r="AS4" s="284"/>
+      <c r="AT4" s="284"/>
+      <c r="AU4" s="284"/>
+      <c r="AV4" s="284"/>
       <c r="BB4" s="7"/>
-      <c r="BD4" s="285" t="s">
+      <c r="BD4" s="284" t="s">
         <v>18</v>
       </c>
-      <c r="BE4" s="285"/>
-      <c r="BF4" s="285"/>
-      <c r="BG4" s="285"/>
-      <c r="BH4" s="285"/>
+      <c r="BE4" s="284"/>
+      <c r="BF4" s="284"/>
+      <c r="BG4" s="284"/>
+      <c r="BH4" s="284"/>
     </row>
     <row r="5" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="12" t="s">
@@ -27850,7 +27875,7 @@
         <v>81</v>
       </c>
       <c r="I4" s="15" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="J4" s="15" t="s">
         <v>85</v>
@@ -29131,7 +29156,7 @@
         <v>50000000</v>
       </c>
       <c r="O54" s="254" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="P54" s="254" t="s">
         <v>92</v>
@@ -31161,7 +31186,7 @@
     </row>
     <row r="17" spans="2:27" s="261" customFormat="1">
       <c r="B17" s="262" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="C17" s="259"/>
       <c r="D17" s="166"/>
@@ -31175,10 +31200,10 @@
       <c r="L17" s="259"/>
       <c r="M17" s="259"/>
       <c r="N17" s="259" t="s">
+        <v>522</v>
+      </c>
+      <c r="O17" s="259" t="s">
         <v>523</v>
-      </c>
-      <c r="O17" s="259" t="s">
-        <v>524</v>
       </c>
       <c r="P17" s="41"/>
       <c r="V17" s="260"/>
@@ -32420,7 +32445,7 @@
     </row>
     <row r="27" spans="2:27" s="246" customFormat="1">
       <c r="B27" s="247" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="C27" s="245" t="s">
         <v>41</v>
@@ -32451,13 +32476,13 @@
         <v>100000000</v>
       </c>
       <c r="N27" s="245" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="O27" s="245" t="s">
         <v>92</v>
       </c>
       <c r="P27" s="41" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="V27" s="137"/>
       <c r="X27" s="137"/>
@@ -33024,7 +33049,7 @@
     </row>
     <row r="10" spans="2:27">
       <c r="B10" s="147" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C10" s="145" t="s">
         <v>42</v>
@@ -33061,7 +33086,7 @@
         <v>92</v>
       </c>
       <c r="P10" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="11" spans="2:27">
@@ -33081,7 +33106,7 @@
     </row>
     <row r="12" spans="2:27">
       <c r="B12" s="147" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C12" s="145" t="s">
         <v>42</v>
@@ -33165,7 +33190,7 @@
     </row>
     <row r="17" spans="2:27">
       <c r="B17" s="147" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="C17" s="145" t="s">
         <v>41</v>
@@ -33227,7 +33252,7 @@
     </row>
     <row r="20" spans="2:27">
       <c r="B20" s="147" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="C20" s="145" t="s">
         <v>41</v>
@@ -33284,7 +33309,7 @@
     </row>
     <row r="22" spans="2:27">
       <c r="B22" s="147" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="C22" s="145" t="s">
         <v>41</v>
@@ -33368,7 +33393,7 @@
     </row>
     <row r="27" spans="2:27">
       <c r="B27" s="147" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="C27" s="146" t="s">
         <v>33</v>
@@ -33428,7 +33453,7 @@
     </row>
     <row r="30" spans="2:27">
       <c r="B30" s="147" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="C30" s="146" t="s">
         <v>33</v>
@@ -33470,7 +33495,7 @@
     </row>
     <row r="31" spans="2:27">
       <c r="B31" s="200" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="C31" s="199" t="s">
         <v>33</v>
@@ -33507,7 +33532,7 @@
         <v>92</v>
       </c>
       <c r="P31" s="41" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="32" spans="2:27" s="242" customFormat="1">
@@ -33524,7 +33549,7 @@
       <c r="M32" s="240"/>
       <c r="O32" s="240"/>
       <c r="P32" s="41" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="Q32" s="241"/>
       <c r="R32" s="241"/>
@@ -33560,7 +33585,7 @@
     </row>
     <row r="34" spans="2:27">
       <c r="B34" s="147" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="C34" s="146" t="s">
         <v>33</v>

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\github_dropbox\alkanestudy.gromacs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\Dropbox\Github_Dropbox\AlkaneStudy.Gromacs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C751D43-02BD-476D-82FE-ADC9E61AB805}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{221F247B-3514-4C70-ADFE-A548A4CF0570}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="646" firstSheet="6" activeTab="14" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="646" firstSheet="2" activeTab="13" xr2:uid="{EF8A33E0-ACA8-D640-B463-6863C93E9688}"/>
   </bookViews>
   <sheets>
     <sheet name="Sim matrix" sheetId="13" r:id="rId1"/>
@@ -51,7 +51,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2257" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2304" uniqueCount="558">
   <si>
     <t>Study</t>
   </si>
@@ -1892,6 +1892,48 @@
   <si>
     <t>Williams OPT-0.011</t>
   </si>
+  <si>
+    <t>Pcoupl</t>
+  </si>
+  <si>
+    <t>Higher temperature</t>
+  </si>
+  <si>
+    <t>Time (eq)</t>
+  </si>
+  <si>
+    <t>Times (anneal)</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>Melting 2K/ns</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Nucleus</t>
+  </si>
+  <si>
+    <t>Williams7</t>
+  </si>
+  <si>
+    <t>WilliamsOPT</t>
+  </si>
+  <si>
+    <t>Do short NP6T equilibration to test</t>
+  </si>
+  <si>
+    <t>Eq. 955765</t>
+  </si>
+  <si>
+    <t>CHARMM36_(24(8)x16x4)1536xC16_interface_2xEps_eq</t>
+  </si>
 </sst>
 </file>
 
@@ -1905,7 +1947,7 @@
     <numFmt numFmtId="168" formatCode="0.000000"/>
     <numFmt numFmtId="169" formatCode="0.000E+00"/>
   </numFmts>
-  <fonts count="31">
+  <fonts count="34">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2124,6 +2166,28 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -2279,7 +2343,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="287">
+  <cellXfs count="301">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -3044,9 +3108,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="166" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3060,6 +3121,30 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -3095,16 +3180,37 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -11877,7 +11983,7 @@
   <dimension ref="B1:AT61"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="Z27" sqref="Z27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="15.75"/>
@@ -11924,11 +12030,11 @@
       <c r="AH1" s="203"/>
     </row>
     <row r="2" spans="2:36">
-      <c r="B2" s="280" t="s">
+      <c r="B2" s="287" t="s">
         <v>305</v>
       </c>
-      <c r="C2" s="280"/>
-      <c r="D2" s="280"/>
+      <c r="C2" s="287"/>
+      <c r="D2" s="287"/>
       <c r="AC2" s="210"/>
       <c r="AD2" s="223"/>
       <c r="AE2" s="211"/>
@@ -12149,18 +12255,18 @@
       <c r="E15" s="77"/>
       <c r="G15" s="78"/>
       <c r="H15" s="77"/>
-      <c r="L15" s="279" t="s">
+      <c r="L15" s="286" t="s">
         <v>465</v>
       </c>
-      <c r="M15" s="279"/>
-      <c r="N15" s="279"/>
-      <c r="O15" s="279"/>
-      <c r="P15" s="279"/>
-      <c r="Q15" s="279"/>
-      <c r="R15" s="279"/>
-      <c r="S15" s="279"/>
-      <c r="T15" s="279"/>
-      <c r="U15" s="279"/>
+      <c r="M15" s="286"/>
+      <c r="N15" s="286"/>
+      <c r="O15" s="286"/>
+      <c r="P15" s="286"/>
+      <c r="Q15" s="286"/>
+      <c r="R15" s="286"/>
+      <c r="S15" s="286"/>
+      <c r="T15" s="286"/>
+      <c r="U15" s="286"/>
       <c r="V15" s="77"/>
       <c r="W15" s="114"/>
       <c r="X15" s="77"/>
@@ -12177,48 +12283,48 @@
       <c r="AJ15" s="204"/>
     </row>
     <row r="16" spans="2:36">
-      <c r="C16" s="280" t="s">
+      <c r="C16" s="287" t="s">
         <v>231</v>
       </c>
-      <c r="D16" s="280"/>
-      <c r="E16" s="280"/>
-      <c r="F16" s="280"/>
-      <c r="G16" s="280"/>
-      <c r="H16" s="280"/>
-      <c r="I16" s="280"/>
-      <c r="J16" s="280"/>
+      <c r="D16" s="287"/>
+      <c r="E16" s="287"/>
+      <c r="F16" s="287"/>
+      <c r="G16" s="287"/>
+      <c r="H16" s="287"/>
+      <c r="I16" s="287"/>
+      <c r="J16" s="287"/>
       <c r="K16" s="148"/>
       <c r="L16" s="172"/>
-      <c r="M16" s="281">
+      <c r="M16" s="288">
         <v>1</v>
       </c>
-      <c r="N16" s="281"/>
-      <c r="O16" s="281"/>
-      <c r="P16" s="281">
+      <c r="N16" s="288"/>
+      <c r="O16" s="288"/>
+      <c r="P16" s="288">
         <v>2</v>
       </c>
-      <c r="Q16" s="281"/>
-      <c r="R16" s="281"/>
-      <c r="S16" s="281">
+      <c r="Q16" s="288"/>
+      <c r="R16" s="288"/>
+      <c r="S16" s="288">
         <v>3</v>
       </c>
-      <c r="T16" s="281"/>
-      <c r="U16" s="281"/>
-      <c r="V16" s="281">
+      <c r="T16" s="288"/>
+      <c r="U16" s="288"/>
+      <c r="V16" s="288">
         <v>4</v>
       </c>
-      <c r="W16" s="281"/>
-      <c r="X16" s="281"/>
-      <c r="Y16" s="281">
+      <c r="W16" s="288"/>
+      <c r="X16" s="288"/>
+      <c r="Y16" s="288">
         <v>5</v>
       </c>
-      <c r="Z16" s="281"/>
-      <c r="AA16" s="282"/>
-      <c r="AB16" s="276" t="s">
+      <c r="Z16" s="288"/>
+      <c r="AA16" s="289"/>
+      <c r="AB16" s="283" t="s">
         <v>278</v>
       </c>
-      <c r="AC16" s="277"/>
-      <c r="AD16" s="278"/>
+      <c r="AC16" s="284"/>
+      <c r="AD16" s="285"/>
     </row>
     <row r="17" spans="2:46" s="79" customFormat="1">
       <c r="D17" s="75" t="s">
@@ -16938,23 +17044,23 @@
     <row r="4" spans="2:27">
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
-      <c r="J4" s="274" t="s">
+      <c r="J4" s="281" t="s">
         <v>289</v>
       </c>
-      <c r="K4" s="274"/>
-      <c r="N4" s="274" t="s">
+      <c r="K4" s="281"/>
+      <c r="N4" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="274"/>
-      <c r="Q4" s="274" t="s">
+      <c r="O4" s="281"/>
+      <c r="Q4" s="281" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="274"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="274"/>
+      <c r="R4" s="281"/>
+      <c r="S4" s="281"/>
+      <c r="T4" s="281"/>
+      <c r="U4" s="281"/>
+      <c r="V4" s="281"/>
+      <c r="W4" s="281"/>
       <c r="X4" s="146"/>
       <c r="AA4" s="146"/>
     </row>
@@ -17580,162 +17686,305 @@
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3949D05-7376-4059-B96D-BFD0734F58BD}">
-  <dimension ref="B2:AA7"/>
+  <dimension ref="A2:AE25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="N9"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="4" max="4" width="13.125" customWidth="1"/>
-    <col min="5" max="24" width="5" style="264" customWidth="1"/>
-    <col min="27" max="30" width="31" customWidth="1"/>
+    <col min="1" max="2" width="9" style="274"/>
+    <col min="3" max="3" width="13.5" style="274" customWidth="1"/>
+    <col min="4" max="4" width="45.375" style="298" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="274" customWidth="1"/>
+    <col min="6" max="26" width="4.75" style="274" customWidth="1"/>
+    <col min="27" max="27" width="9" style="274"/>
+    <col min="28" max="28" width="37" style="274" customWidth="1"/>
+    <col min="29" max="30" width="9" style="274"/>
+    <col min="31" max="34" width="31" style="274" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="274"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:27" s="56" customFormat="1">
-      <c r="B2" s="56" t="s">
+    <row r="2" spans="1:31" s="15" customFormat="1">
+      <c r="A2" s="15" t="s">
+        <v>282</v>
+      </c>
+      <c r="B2" s="15" t="s">
         <v>539</v>
       </c>
-      <c r="C2" s="56" t="s">
+      <c r="C2" s="15" t="s">
         <v>538</v>
       </c>
-      <c r="D2" s="56" t="s">
+      <c r="D2" s="79" t="s">
+        <v>77</v>
+      </c>
+      <c r="E2" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="15">
+      <c r="F2" s="15">
         <v>280</v>
       </c>
-      <c r="F2" s="15">
+      <c r="G2" s="15">
         <v>282</v>
       </c>
-      <c r="G2" s="15">
+      <c r="H2" s="15">
         <v>284</v>
       </c>
-      <c r="H2" s="15">
+      <c r="I2" s="15">
         <v>286</v>
       </c>
-      <c r="I2" s="15">
+      <c r="J2" s="15">
         <v>288</v>
       </c>
-      <c r="J2" s="15">
+      <c r="K2" s="15">
         <v>290</v>
       </c>
-      <c r="K2" s="15">
+      <c r="L2" s="15">
         <v>292</v>
       </c>
-      <c r="L2" s="15">
+      <c r="M2" s="15">
         <v>294</v>
       </c>
-      <c r="M2" s="15">
+      <c r="N2" s="15">
         <v>296</v>
       </c>
-      <c r="N2" s="15">
+      <c r="O2" s="15">
         <v>298</v>
       </c>
-      <c r="O2" s="15">
+      <c r="P2" s="15">
         <v>300</v>
       </c>
-      <c r="P2" s="15">
+      <c r="Q2" s="15">
         <v>302</v>
       </c>
-      <c r="Q2" s="15">
+      <c r="R2" s="15">
         <v>304</v>
       </c>
-      <c r="R2" s="15">
+      <c r="S2" s="15">
         <v>306</v>
       </c>
-      <c r="S2" s="15">
+      <c r="T2" s="15">
         <v>308</v>
       </c>
-      <c r="T2" s="15">
+      <c r="U2" s="15">
         <v>310</v>
       </c>
-      <c r="U2" s="15">
+      <c r="V2" s="15">
         <v>312</v>
       </c>
-      <c r="V2" s="15">
+      <c r="W2" s="15">
         <v>314</v>
       </c>
-      <c r="W2" s="15">
+      <c r="X2" s="15">
         <v>316</v>
       </c>
-      <c r="X2" s="15">
+      <c r="Y2" s="15">
         <v>318</v>
       </c>
-    </row>
-    <row r="3" spans="2:27">
-      <c r="B3" t="s">
+      <c r="Z2" s="15">
+        <v>320</v>
+      </c>
+      <c r="AB2" s="15" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="3" spans="1:31">
+      <c r="A3" s="274" t="s">
+        <v>550</v>
+      </c>
+      <c r="B3" s="274" t="s">
         <v>42</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C3" s="274" t="s">
+        <v>166</v>
+      </c>
+      <c r="AD3" s="274" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="274" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="4" spans="1:31">
+      <c r="C4" s="274" t="s">
         <v>167</v>
       </c>
-      <c r="D3" t="s">
+      <c r="E4" s="274" t="s">
         <v>537</v>
       </c>
-      <c r="O3" s="264" t="s">
+      <c r="P4" s="274" t="s">
         <v>529</v>
       </c>
-      <c r="P3" s="264" t="s">
+      <c r="Q4" s="274" t="s">
         <v>470</v>
       </c>
-      <c r="Q3" s="264" t="s">
+      <c r="R4" s="274" t="s">
         <v>470</v>
       </c>
-      <c r="R3" s="264" t="s">
+      <c r="S4" s="274" t="s">
         <v>530</v>
       </c>
-      <c r="S3" s="264" t="s">
+      <c r="T4" s="274" t="s">
         <v>470</v>
       </c>
-      <c r="T3" s="264" t="s">
+      <c r="U4" s="274" t="s">
         <v>470</v>
       </c>
-      <c r="U3" s="264" t="s">
+      <c r="V4" s="274" t="s">
         <v>62</v>
       </c>
-      <c r="X3" s="264" t="s">
+      <c r="Y4" s="274" t="s">
         <v>62</v>
       </c>
-      <c r="Z3" t="s">
-        <v>62</v>
-      </c>
-      <c r="AA3" t="s">
-        <v>531</v>
-      </c>
-    </row>
-    <row r="4" spans="2:27">
-      <c r="Z4" t="s">
+      <c r="AD4" s="274" t="s">
         <v>24</v>
       </c>
-      <c r="AA4" t="s">
+      <c r="AE4" s="274" t="s">
         <v>532</v>
       </c>
     </row>
-    <row r="5" spans="2:27">
-      <c r="Z5" t="s">
+    <row r="5" spans="1:31">
+      <c r="C5" s="274" t="s">
+        <v>168</v>
+      </c>
+      <c r="AD5" s="274" t="s">
         <v>534</v>
       </c>
-      <c r="AA5" t="s">
+      <c r="AE5" s="274" t="s">
         <v>535</v>
       </c>
     </row>
-    <row r="6" spans="2:27">
-      <c r="Z6" t="s">
+    <row r="6" spans="1:31">
+      <c r="C6" s="274" t="s">
+        <v>169</v>
+      </c>
+      <c r="AD6" s="274" t="s">
         <v>530</v>
       </c>
-      <c r="AA6" t="s">
+      <c r="AE6" s="274" t="s">
         <v>533</v>
       </c>
     </row>
-    <row r="7" spans="2:27">
-      <c r="Z7" t="s">
+    <row r="7" spans="1:31">
+      <c r="C7" s="274" t="s">
+        <v>449</v>
+      </c>
+      <c r="AD7" s="274" t="s">
         <v>529</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AE7" s="274" t="s">
         <v>536</v>
       </c>
+    </row>
+    <row r="8" spans="1:31">
+      <c r="C8" s="274" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="9" spans="1:31">
+      <c r="C9" s="274" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="10" spans="1:31" s="15" customFormat="1">
+      <c r="D10" s="297"/>
+    </row>
+    <row r="11" spans="1:31">
+      <c r="A11" s="274" t="s">
+        <v>551</v>
+      </c>
+      <c r="B11" s="274" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" s="274" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="12" spans="1:31">
+      <c r="C12" s="274" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="13" spans="1:31">
+      <c r="C13" s="274" t="s">
+        <v>168</v>
+      </c>
+      <c r="D13" s="298" t="s">
+        <v>557</v>
+      </c>
+      <c r="AB13" s="274" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:31">
+      <c r="C14" s="274" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="15" spans="1:31">
+      <c r="C15" s="274" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="16" spans="1:31">
+      <c r="C16" s="274" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="C17" s="274" t="s">
+        <v>554</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="15" customFormat="1">
+      <c r="D18" s="297"/>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="274" t="s">
+        <v>552</v>
+      </c>
+      <c r="B19" s="274" t="s">
+        <v>42</v>
+      </c>
+      <c r="C19" s="274" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" s="218" customFormat="1">
+      <c r="C20" s="218" t="s">
+        <v>167</v>
+      </c>
+      <c r="D20" s="299"/>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="C21" s="274" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="218" customFormat="1">
+      <c r="C22" s="218" t="s">
+        <v>169</v>
+      </c>
+      <c r="D22" s="299"/>
+    </row>
+    <row r="23" spans="1:4" s="218" customFormat="1">
+      <c r="C23" s="218" t="s">
+        <v>449</v>
+      </c>
+      <c r="D23" s="299"/>
+    </row>
+    <row r="24" spans="1:4" s="218" customFormat="1">
+      <c r="C24" s="218" t="s">
+        <v>553</v>
+      </c>
+      <c r="D24" s="299"/>
+    </row>
+    <row r="25" spans="1:4" s="218" customFormat="1">
+      <c r="C25" s="218" t="s">
+        <v>554</v>
+      </c>
+      <c r="D25" s="299"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -17756,8 +18005,8 @@
     <col min="4" max="4" width="12.125" customWidth="1"/>
     <col min="5" max="5" width="17.25" customWidth="1"/>
     <col min="6" max="6" width="13" customWidth="1"/>
-    <col min="16" max="16" width="13.125" style="267" bestFit="1" customWidth="1"/>
-    <col min="17" max="18" width="13.125" style="267" customWidth="1"/>
+    <col min="16" max="16" width="13.125" style="266" bestFit="1" customWidth="1"/>
+    <col min="17" max="18" width="13.125" style="266" customWidth="1"/>
     <col min="19" max="19" width="47.625" style="180" customWidth="1"/>
     <col min="20" max="20" width="11.875" bestFit="1" customWidth="1"/>
   </cols>
@@ -17766,7 +18015,7 @@
       <c r="B2" t="s">
         <v>515</v>
       </c>
-      <c r="C2" s="269">
+      <c r="C2" s="268">
         <v>6.0221407599999999E+23</v>
       </c>
       <c r="S2" s="259"/>
@@ -17816,13 +18065,13 @@
       <c r="O5" s="169" t="s">
         <v>513</v>
       </c>
-      <c r="P5" s="266" t="s">
+      <c r="P5" s="265" t="s">
         <v>510</v>
       </c>
-      <c r="Q5" s="266" t="s">
+      <c r="Q5" s="265" t="s">
         <v>514</v>
       </c>
-      <c r="R5" s="268" t="s">
+      <c r="R5" s="267" t="s">
         <v>21</v>
       </c>
       <c r="S5" s="191" t="s">
@@ -17886,7 +18135,7 @@
         <f>C6*(Q6/P6)*(1E+27)/$C$2</f>
         <v>927.97418802324705</v>
       </c>
-      <c r="T6" s="265"/>
+      <c r="T6" s="264"/>
     </row>
     <row r="7" spans="2:20">
       <c r="B7" s="67"/>
@@ -18237,8 +18486,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{54734A79-229D-40A1-9EF2-2AA48E78AAE8}">
   <dimension ref="B2:T20"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
@@ -18248,17 +18497,17 @@
     <col min="3" max="5" width="6.625" style="67" customWidth="1"/>
     <col min="6" max="6" width="7.875" style="67" customWidth="1"/>
     <col min="7" max="15" width="8" style="186" customWidth="1"/>
-    <col min="16" max="18" width="9" style="67"/>
-    <col min="19" max="19" width="54" style="67" customWidth="1"/>
-    <col min="20" max="16384" width="9" style="67"/>
+    <col min="16" max="19" width="9" style="67"/>
+    <col min="20" max="20" width="54" style="67" customWidth="1"/>
+    <col min="21" max="16384" width="9" style="67"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:20" s="271" customFormat="1">
-      <c r="C2" s="273" t="s">
+    <row r="2" spans="2:20" s="270" customFormat="1">
+      <c r="C2" s="280" t="s">
         <v>396</v>
       </c>
-      <c r="D2" s="273"/>
-      <c r="E2" s="273"/>
+      <c r="D2" s="280"/>
+      <c r="E2" s="280"/>
       <c r="G2" s="161"/>
       <c r="H2" s="161"/>
       <c r="I2" s="161"/>
@@ -18268,10 +18517,11 @@
       <c r="M2" s="161"/>
       <c r="N2" s="161"/>
       <c r="O2" s="161"/>
-      <c r="Q2" s="271" t="s">
+      <c r="Q2" s="270" t="s">
         <v>395</v>
       </c>
-      <c r="S2" s="271" t="s">
+      <c r="S2" s="275"/>
+      <c r="T2" s="270" t="s">
         <v>540</v>
       </c>
     </row>
@@ -18327,6 +18577,7 @@
       <c r="R3" s="187" t="s">
         <v>407</v>
       </c>
+      <c r="S3" s="187"/>
     </row>
     <row r="4" spans="2:20" s="188" customFormat="1">
       <c r="B4" s="188" t="s">
@@ -18384,6 +18635,10 @@
         <f>IF(H4 &gt; 2*O4,TRUE)</f>
         <v>1</v>
       </c>
+      <c r="S4" s="188" t="b">
+        <f>IF((L4+N4) &lt; G4/2,TRUE)</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="2:20">
       <c r="C5" s="67">
@@ -18395,7 +18650,7 @@
       <c r="E5" s="67">
         <v>1</v>
       </c>
-      <c r="F5" s="271">
+      <c r="F5" s="270">
         <f t="shared" si="0"/>
         <v>16</v>
       </c>
@@ -18435,17 +18690,21 @@
         <f t="shared" ref="O5:O11" si="5">E5*O$4</f>
         <v>-3.9870000000000003E-2</v>
       </c>
-      <c r="P5" s="271" t="b">
+      <c r="P5" s="270" t="b">
         <f t="shared" ref="P5:P8" si="6">IF(G5 &gt; 2*L5, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q5" s="271" t="b">
+      <c r="Q5" s="270" t="b">
         <f t="shared" ref="Q5:Q8" si="7">IF(G5 &gt; 2*N5, TRUE)</f>
         <v>0</v>
       </c>
-      <c r="R5" s="271" t="b">
+      <c r="R5" s="270" t="b">
         <f t="shared" ref="R5:R8" si="8">IF(H5 &gt; 2*O5,TRUE)</f>
         <v>1</v>
+      </c>
+      <c r="S5" s="188" t="b">
+        <f t="shared" ref="S5:S13" si="9">IF((L5+N5) &lt; G5/2,TRUE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="2:20">
@@ -18461,7 +18720,7 @@
       <c r="E6" s="67">
         <v>1</v>
       </c>
-      <c r="F6" s="271">
+      <c r="F6" s="270">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
@@ -18501,17 +18760,21 @@
         <f t="shared" si="5"/>
         <v>-3.9870000000000003E-2</v>
       </c>
-      <c r="P6" s="271" t="b">
+      <c r="P6" s="270" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q6" s="271" t="b">
+      <c r="Q6" s="270" t="b">
         <f>IF(G6 &gt; 2*N6, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R6" s="271" t="b">
+      <c r="R6" s="270" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+      <c r="S6" s="188" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="2:20">
@@ -18523,14 +18786,14 @@
         <v>10</v>
       </c>
       <c r="D7" s="67">
-        <f t="shared" ref="D7:E7" si="9">2*D6</f>
+        <f t="shared" ref="D7:E7" si="10">2*D6</f>
         <v>10</v>
       </c>
       <c r="E7" s="67">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="F7" s="271">
+      <c r="F7" s="270">
         <f t="shared" si="0"/>
         <v>200</v>
       </c>
@@ -18570,17 +18833,21 @@
         <f t="shared" si="5"/>
         <v>-7.9740000000000005E-2</v>
       </c>
-      <c r="P7" s="271" t="b">
+      <c r="P7" s="270" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q7" s="271" t="b">
+      <c r="Q7" s="270" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R7" s="271" t="b">
+      <c r="R7" s="270" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+      <c r="S7" s="188" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:20">
@@ -18592,14 +18859,14 @@
         <v>15</v>
       </c>
       <c r="D8" s="67">
-        <f t="shared" ref="D8:E8" si="10">3*D6</f>
+        <f t="shared" ref="D8:E8" si="11">3*D6</f>
         <v>15</v>
       </c>
       <c r="E8" s="67">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3</v>
       </c>
-      <c r="F8" s="271">
+      <c r="F8" s="270">
         <f t="shared" si="0"/>
         <v>675</v>
       </c>
@@ -18639,17 +18906,21 @@
         <f t="shared" si="5"/>
         <v>-0.11961000000000001</v>
       </c>
-      <c r="P8" s="271" t="b">
+      <c r="P8" s="270" t="b">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="Q8" s="271" t="b">
+      <c r="Q8" s="270" t="b">
         <f t="shared" si="7"/>
         <v>1</v>
       </c>
-      <c r="R8" s="271" t="b">
+      <c r="R8" s="270" t="b">
         <f t="shared" si="8"/>
         <v>1</v>
+      </c>
+      <c r="S8" s="188" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="2:20">
@@ -18661,14 +18932,14 @@
         <v>20</v>
       </c>
       <c r="D9" s="67">
-        <f t="shared" ref="D9:E9" si="11">4*D6</f>
+        <f t="shared" ref="D9:E9" si="12">4*D6</f>
         <v>20</v>
       </c>
       <c r="E9" s="67">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
-      <c r="F9" s="271">
+      <c r="F9" s="270">
         <f t="shared" si="0"/>
         <v>1600</v>
       </c>
@@ -18708,17 +18979,21 @@
         <f t="shared" si="5"/>
         <v>-0.15948000000000001</v>
       </c>
-      <c r="P9" s="271" t="b">
-        <f t="shared" ref="P9:P17" si="12">IF(G9 &gt; 2*L9, TRUE)</f>
+      <c r="P9" s="270" t="b">
+        <f t="shared" ref="P9:P17" si="13">IF(G9 &gt; 2*L9, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q9" s="271" t="b">
-        <f>IF(G9 &gt; 2*N9, TRUE)</f>
+      <c r="Q9" s="270" t="b">
+        <f t="shared" ref="Q9:Q12" si="14">IF(G9 &gt; 2*N9, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R9" s="271" t="b">
-        <f>IF(H9 &gt; 2*O9,TRUE)</f>
+      <c r="R9" s="270" t="b">
+        <f t="shared" ref="R9:R12" si="15">IF(H9 &gt; 2*O9,TRUE)</f>
         <v>1</v>
+      </c>
+      <c r="S9" s="188" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="2:20">
@@ -18734,7 +19009,7 @@
       <c r="E10" s="67">
         <v>3</v>
       </c>
-      <c r="F10" s="271">
+      <c r="F10" s="270">
         <f t="shared" si="0"/>
         <v>768</v>
       </c>
@@ -18774,30 +19049,34 @@
         <f t="shared" si="5"/>
         <v>-0.11961000000000001</v>
       </c>
-      <c r="P10" s="271" t="b">
-        <f t="shared" si="12"/>
+      <c r="P10" s="270" t="b">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Q10" s="271" t="b">
-        <f>IF(G10 &gt; 2*N10, TRUE)</f>
+      <c r="Q10" s="270" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R10" s="271" t="b">
-        <f>IF(H10 &gt; 2*O10,TRUE)</f>
+      <c r="R10" s="270" t="b">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-    </row>
-    <row r="11" spans="2:20" s="271" customFormat="1">
-      <c r="C11" s="271">
+      <c r="S10" s="188" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="2:20" s="270" customFormat="1">
+      <c r="C11" s="270">
         <v>18</v>
       </c>
-      <c r="D11" s="271">
+      <c r="D11" s="270">
         <v>18</v>
       </c>
-      <c r="E11" s="271">
+      <c r="E11" s="270">
         <v>4</v>
       </c>
-      <c r="F11" s="271">
+      <c r="F11" s="270">
         <f t="shared" si="0"/>
         <v>1296</v>
       </c>
@@ -18837,153 +19116,161 @@
         <f t="shared" si="5"/>
         <v>-0.15948000000000001</v>
       </c>
-      <c r="P11" s="271" t="b">
-        <f t="shared" si="12"/>
+      <c r="P11" s="270" t="b">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Q11" s="271" t="b">
-        <f>IF(G11 &gt; 2*N11, TRUE)</f>
+      <c r="Q11" s="270" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R11" s="271" t="b">
-        <f>IF(H11 &gt; 2*O11,TRUE)</f>
+      <c r="R11" s="270" t="b">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S11" s="271" t="s">
+      <c r="S11" s="188" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T11" s="270" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="12" spans="2:20" s="271" customFormat="1">
-      <c r="C12" s="271">
+    <row r="12" spans="2:20" s="270" customFormat="1">
+      <c r="C12" s="270">
         <v>24</v>
       </c>
-      <c r="D12" s="271">
+      <c r="D12" s="270">
         <v>18</v>
       </c>
-      <c r="E12" s="271">
+      <c r="E12" s="270">
         <v>4</v>
       </c>
-      <c r="F12" s="271">
-        <f t="shared" ref="F12:F13" si="13">C12*D12*E12</f>
+      <c r="F12" s="270">
+        <f t="shared" ref="F12:F13" si="16">C12*D12*E12</f>
         <v>1728</v>
       </c>
       <c r="G12" s="161">
-        <f t="shared" ref="G12:G13" si="14">C12*G$4</f>
+        <f t="shared" ref="G12:G13" si="17">C12*G$4</f>
         <v>10.24776</v>
       </c>
       <c r="H12" s="161">
-        <f t="shared" ref="H12:H13" si="15">D12*H$4</f>
+        <f t="shared" ref="H12:H13" si="18">D12*H$4</f>
         <v>8.2805400000000002</v>
       </c>
       <c r="I12" s="161">
-        <f t="shared" ref="I12:I13" si="16">E12*I$4</f>
+        <f t="shared" ref="I12:I13" si="19">E12*I$4</f>
         <v>8.2519200000000001</v>
       </c>
       <c r="J12" s="161">
-        <f t="shared" ref="J12:J13" si="17">C12*J$4</f>
+        <f t="shared" ref="J12:J13" si="20">C12*J$4</f>
         <v>0</v>
       </c>
       <c r="K12" s="161">
-        <f t="shared" ref="K12:K13" si="18">C12*K$4</f>
+        <f t="shared" ref="K12:K13" si="21">C12*K$4</f>
         <v>0</v>
       </c>
       <c r="L12" s="161">
-        <f t="shared" ref="L12:L13" si="19">D12*L$4</f>
+        <f t="shared" ref="L12:L13" si="22">D12*L$4</f>
         <v>2.5316999999999998</v>
       </c>
       <c r="M12" s="161">
-        <f t="shared" ref="M12:M13" si="20">D12*M$4</f>
+        <f t="shared" ref="M12:M13" si="23">D12*M$4</f>
         <v>0</v>
       </c>
       <c r="N12" s="161">
-        <f t="shared" ref="N12:N13" si="21">E12*N$4</f>
+        <f t="shared" ref="N12:N13" si="24">E12*N$4</f>
         <v>3.43052</v>
       </c>
       <c r="O12" s="161">
-        <f t="shared" ref="O12:O13" si="22">E12*O$4</f>
+        <f t="shared" ref="O12:O13" si="25">E12*O$4</f>
         <v>-0.15948000000000001</v>
       </c>
-      <c r="P12" s="271" t="b">
+      <c r="P12" s="270" t="b">
         <f>IF(G12 &gt; 2*L12, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q12" s="271" t="b">
-        <f>IF(G12 &gt; 2*N12, TRUE)</f>
+      <c r="Q12" s="270" t="b">
+        <f t="shared" si="14"/>
         <v>1</v>
       </c>
-      <c r="R12" s="271" t="b">
-        <f>IF(H12 &gt; 2*O12,TRUE)</f>
+      <c r="R12" s="270" t="b">
+        <f t="shared" si="15"/>
         <v>1</v>
       </c>
-      <c r="S12" s="271" t="s">
+      <c r="S12" s="188" t="b">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="T12" s="270" t="s">
         <v>542</v>
       </c>
     </row>
-    <row r="13" spans="2:20" s="271" customFormat="1">
-      <c r="C13" s="271">
-        <v>28</v>
-      </c>
-      <c r="D13" s="271">
-        <v>14</v>
-      </c>
-      <c r="E13" s="271">
-        <v>3</v>
-      </c>
-      <c r="F13" s="271">
-        <f t="shared" si="13"/>
-        <v>1176</v>
-      </c>
-      <c r="G13" s="161">
-        <f t="shared" si="14"/>
-        <v>11.955719999999999</v>
-      </c>
-      <c r="H13" s="161">
-        <f t="shared" si="15"/>
-        <v>6.4404199999999996</v>
-      </c>
-      <c r="I13" s="161">
+    <row r="13" spans="2:20" s="294" customFormat="1">
+      <c r="C13" s="294">
+        <v>24</v>
+      </c>
+      <c r="D13" s="294">
+        <v>16</v>
+      </c>
+      <c r="E13" s="294">
+        <v>4</v>
+      </c>
+      <c r="F13" s="294">
         <f t="shared" si="16"/>
-        <v>6.1889400000000006</v>
-      </c>
-      <c r="J13" s="161">
+        <v>1536</v>
+      </c>
+      <c r="G13" s="295">
         <f t="shared" si="17"/>
-        <v>0</v>
-      </c>
-      <c r="K13" s="161">
+        <v>10.24776</v>
+      </c>
+      <c r="H13" s="295">
         <f t="shared" si="18"/>
-        <v>0</v>
-      </c>
-      <c r="L13" s="161">
+        <v>7.3604799999999999</v>
+      </c>
+      <c r="I13" s="295">
         <f t="shared" si="19"/>
-        <v>1.9691000000000001</v>
-      </c>
-      <c r="M13" s="161">
+        <v>8.2519200000000001</v>
+      </c>
+      <c r="J13" s="295">
         <f t="shared" si="20"/>
         <v>0</v>
       </c>
-      <c r="N13" s="161">
+      <c r="K13" s="295">
         <f t="shared" si="21"/>
-        <v>2.5728900000000001</v>
-      </c>
-      <c r="O13" s="161">
+        <v>0</v>
+      </c>
+      <c r="L13" s="295">
         <f t="shared" si="22"/>
-        <v>-0.11961000000000001</v>
-      </c>
-      <c r="P13" s="271" t="b">
+        <v>2.2504</v>
+      </c>
+      <c r="M13" s="295">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+      <c r="N13" s="295">
+        <f t="shared" si="24"/>
+        <v>3.43052</v>
+      </c>
+      <c r="O13" s="295">
+        <f t="shared" si="25"/>
+        <v>-0.15948000000000001</v>
+      </c>
+      <c r="P13" s="294" t="b">
         <f>IF(G13 &gt; 2*L13, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q13" s="271" t="b">
+      <c r="Q13" s="294" t="b">
         <f>IF(G13 &gt; 2*N13, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R13" s="271" t="b">
+      <c r="R13" s="294" t="b">
         <f>IF(H13 &gt; 2*O13,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="T13" s="271">
-        <f>F13/2</f>
-        <v>588</v>
+      <c r="S13" s="188" t="b">
+        <f>IF((L13+N13) &lt; G13/2,TRUE)</f>
+        <v>0</v>
       </c>
     </row>
     <row r="14" spans="2:20" s="158" customFormat="1">
@@ -18996,6 +19283,7 @@
       <c r="M14" s="160"/>
       <c r="N14" s="160"/>
       <c r="O14" s="160"/>
+      <c r="S14" s="188"/>
     </row>
     <row r="15" spans="2:20" s="195" customFormat="1">
       <c r="B15" s="195" t="s">
@@ -19011,7 +19299,7 @@
         <v>1</v>
       </c>
       <c r="F15" s="188">
-        <f t="shared" ref="F15:F20" si="23">C15*D15*E15*4</f>
+        <f t="shared" ref="F15:F20" si="26">C15*D15*E15*4</f>
         <v>4</v>
       </c>
       <c r="G15" s="196">
@@ -19042,7 +19330,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="188" t="b">
-        <f t="shared" si="12"/>
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
       <c r="Q15" s="188" t="b">
@@ -19053,6 +19341,7 @@
         <f>IF(H15 &gt; 2*O15,TRUE)</f>
         <v>1</v>
       </c>
+      <c r="S15" s="188"/>
     </row>
     <row r="16" spans="2:20">
       <c r="C16" s="67">
@@ -19065,19 +19354,19 @@
         <v>1</v>
       </c>
       <c r="F16" s="67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>192</v>
       </c>
       <c r="G16" s="186">
-        <f t="shared" ref="G16:I17" si="24">C16*G$15</f>
+        <f t="shared" ref="G16:I17" si="27">C16*G$15</f>
         <v>4.0640000000000001</v>
       </c>
       <c r="H16" s="186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.5179999999999998</v>
       </c>
       <c r="I16" s="186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>4.1120000000000001</v>
       </c>
       <c r="J16" s="186">
@@ -19085,39 +19374,40 @@
         <v>0</v>
       </c>
       <c r="K16" s="186">
-        <f t="shared" ref="K16:L19" si="25">C16*K$15</f>
+        <f t="shared" ref="K16:L19" si="28">C16*K$15</f>
         <v>0</v>
       </c>
       <c r="L16" s="186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M16" s="186">
-        <f t="shared" ref="M16:N19" si="26">D16*M$15</f>
+        <f t="shared" ref="M16:N19" si="29">D16*M$15</f>
         <v>0</v>
       </c>
       <c r="N16" s="186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O16" s="186">
         <f>E16*O$15</f>
         <v>0</v>
       </c>
-      <c r="P16" s="271" t="b">
-        <f t="shared" si="12"/>
+      <c r="P16" s="270" t="b">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Q16" s="271" t="b">
-        <f t="shared" ref="Q16" si="27">IF(G16 &gt; 2*N16, TRUE)</f>
+      <c r="Q16" s="270" t="b">
+        <f t="shared" ref="Q16" si="30">IF(G16 &gt; 2*N16, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R16" s="271" t="b">
-        <f t="shared" ref="R16" si="28">IF(H16 &gt; 2*O16,TRUE)</f>
+      <c r="R16" s="270" t="b">
+        <f t="shared" ref="R16" si="31">IF(H16 &gt; 2*O16,TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="3:19">
+      <c r="S16" s="275"/>
+    </row>
+    <row r="17" spans="3:20">
       <c r="C17" s="67">
         <v>15</v>
       </c>
@@ -19128,19 +19418,19 @@
         <v>2</v>
       </c>
       <c r="F17" s="67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1200</v>
       </c>
       <c r="G17" s="186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7.62</v>
       </c>
       <c r="H17" s="186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>7.53</v>
       </c>
       <c r="I17" s="186">
-        <f t="shared" si="24"/>
+        <f t="shared" si="27"/>
         <v>8.2240000000000002</v>
       </c>
       <c r="J17" s="186">
@@ -19148,39 +19438,40 @@
         <v>0</v>
       </c>
       <c r="K17" s="186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L17" s="186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M17" s="186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N17" s="186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O17" s="186">
         <f>E17*O$15</f>
         <v>0</v>
       </c>
-      <c r="P17" s="271" t="b">
-        <f t="shared" si="12"/>
+      <c r="P17" s="270" t="b">
+        <f t="shared" si="13"/>
         <v>1</v>
       </c>
-      <c r="Q17" s="271" t="b">
-        <f t="shared" ref="Q17" si="29">IF(G17 &gt; 2*N17, TRUE)</f>
+      <c r="Q17" s="270" t="b">
+        <f t="shared" ref="Q17" si="32">IF(G17 &gt; 2*N17, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R17" s="271" t="b">
-        <f t="shared" ref="R17" si="30">IF(H17 &gt; 2*O17,TRUE)</f>
+      <c r="R17" s="270" t="b">
+        <f t="shared" ref="R17" si="33">IF(H17 &gt; 2*O17,TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="3:19">
+      <c r="S17" s="275"/>
+    </row>
+    <row r="18" spans="3:20">
       <c r="C18" s="67">
         <v>12</v>
       </c>
@@ -19191,19 +19482,19 @@
         <v>3</v>
       </c>
       <c r="F18" s="67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1152</v>
       </c>
       <c r="G18" s="186">
-        <f t="shared" ref="G18" si="31">C18*G$15</f>
+        <f t="shared" ref="G18" si="34">C18*G$15</f>
         <v>6.0960000000000001</v>
       </c>
       <c r="H18" s="186">
-        <f t="shared" ref="H18" si="32">D18*H$15</f>
+        <f t="shared" ref="H18" si="35">D18*H$15</f>
         <v>6.024</v>
       </c>
       <c r="I18" s="186">
-        <f t="shared" ref="I18" si="33">E18*I$15</f>
+        <f t="shared" ref="I18" si="36">E18*I$15</f>
         <v>12.336</v>
       </c>
       <c r="J18" s="186">
@@ -19211,39 +19502,40 @@
         <v>0</v>
       </c>
       <c r="K18" s="186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L18" s="186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M18" s="186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N18" s="186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O18" s="186">
         <f>E18*O$15</f>
         <v>0</v>
       </c>
-      <c r="P18" s="271" t="b">
-        <f t="shared" ref="P18" si="34">IF(G18 &gt; 2*L18, TRUE)</f>
+      <c r="P18" s="270" t="b">
+        <f t="shared" ref="P18" si="37">IF(G18 &gt; 2*L18, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q18" s="271" t="b">
-        <f t="shared" ref="Q18" si="35">IF(G18 &gt; 2*N18, TRUE)</f>
+      <c r="Q18" s="270" t="b">
+        <f t="shared" ref="Q18" si="38">IF(G18 &gt; 2*N18, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R18" s="271" t="b">
-        <f t="shared" ref="R18" si="36">IF(H18 &gt; 2*O18,TRUE)</f>
+      <c r="R18" s="270" t="b">
+        <f t="shared" ref="R18" si="39">IF(H18 &gt; 2*O18,TRUE)</f>
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="3:19">
+      <c r="S18" s="275"/>
+    </row>
+    <row r="19" spans="3:20">
       <c r="C19" s="67">
         <v>15</v>
       </c>
@@ -19254,19 +19546,19 @@
         <v>3</v>
       </c>
       <c r="F19" s="67">
-        <f t="shared" si="23"/>
+        <f t="shared" si="26"/>
         <v>1800</v>
       </c>
       <c r="G19" s="186">
-        <f t="shared" ref="G19" si="37">C19*G$15</f>
+        <f t="shared" ref="G19" si="40">C19*G$15</f>
         <v>7.62</v>
       </c>
       <c r="H19" s="186">
-        <f t="shared" ref="H19" si="38">D19*H$15</f>
+        <f t="shared" ref="H19" si="41">D19*H$15</f>
         <v>7.53</v>
       </c>
       <c r="I19" s="186">
-        <f t="shared" ref="I19" si="39">E19*I$15</f>
+        <f t="shared" ref="I19" si="42">E19*I$15</f>
         <v>12.336</v>
       </c>
       <c r="J19" s="186">
@@ -19274,104 +19566,106 @@
         <v>0</v>
       </c>
       <c r="K19" s="186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="L19" s="186">
-        <f t="shared" si="25"/>
+        <f t="shared" si="28"/>
         <v>0</v>
       </c>
       <c r="M19" s="186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="N19" s="186">
-        <f t="shared" si="26"/>
+        <f t="shared" si="29"/>
         <v>0</v>
       </c>
       <c r="O19" s="186">
         <f>E19*O$15</f>
         <v>0</v>
       </c>
-      <c r="P19" s="271" t="b">
-        <f t="shared" ref="P19" si="40">IF(G19 &gt; 2*L19, TRUE)</f>
+      <c r="P19" s="270" t="b">
+        <f t="shared" ref="P19" si="43">IF(G19 &gt; 2*L19, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q19" s="271" t="b">
-        <f t="shared" ref="Q19" si="41">IF(G19 &gt; 2*N19, TRUE)</f>
+      <c r="Q19" s="270" t="b">
+        <f t="shared" ref="Q19" si="44">IF(G19 &gt; 2*N19, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R19" s="271" t="b">
-        <f t="shared" ref="R19" si="42">IF(H19 &gt; 2*O19,TRUE)</f>
+      <c r="R19" s="270" t="b">
+        <f t="shared" ref="R19" si="45">IF(H19 &gt; 2*O19,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="S19" s="67" t="s">
+      <c r="S19" s="275"/>
+      <c r="T19" s="67" t="s">
         <v>541</v>
       </c>
     </row>
-    <row r="20" spans="3:19">
-      <c r="C20" s="67">
+    <row r="20" spans="3:20" s="233" customFormat="1">
+      <c r="C20" s="233">
         <v>20</v>
       </c>
-      <c r="D20" s="67">
+      <c r="D20" s="233">
         <v>10</v>
       </c>
-      <c r="E20" s="67">
+      <c r="E20" s="233">
         <v>2</v>
       </c>
-      <c r="F20" s="67">
-        <f t="shared" si="23"/>
+      <c r="F20" s="233">
+        <f t="shared" si="26"/>
         <v>1600</v>
       </c>
-      <c r="G20" s="186">
-        <f t="shared" ref="G20" si="43">C20*G$15</f>
+      <c r="G20" s="300">
+        <f t="shared" ref="G20" si="46">C20*G$15</f>
         <v>10.16</v>
       </c>
-      <c r="H20" s="186">
-        <f t="shared" ref="H20" si="44">D20*H$15</f>
+      <c r="H20" s="300">
+        <f t="shared" ref="H20" si="47">D20*H$15</f>
         <v>7.53</v>
       </c>
-      <c r="I20" s="186">
-        <f t="shared" ref="I20" si="45">E20*I$15</f>
+      <c r="I20" s="300">
+        <f t="shared" ref="I20" si="48">E20*I$15</f>
         <v>8.2240000000000002</v>
       </c>
-      <c r="J20" s="186">
+      <c r="J20" s="300">
         <f>C20*J$15</f>
         <v>0</v>
       </c>
-      <c r="K20" s="186">
-        <f t="shared" ref="K20" si="46">C20*K$15</f>
+      <c r="K20" s="300">
+        <f t="shared" ref="K20" si="49">C20*K$15</f>
         <v>0</v>
       </c>
-      <c r="L20" s="186">
-        <f t="shared" ref="L20" si="47">D20*L$15</f>
+      <c r="L20" s="300">
+        <f t="shared" ref="L20" si="50">D20*L$15</f>
         <v>0</v>
       </c>
-      <c r="M20" s="186">
-        <f t="shared" ref="M20" si="48">D20*M$15</f>
+      <c r="M20" s="300">
+        <f t="shared" ref="M20" si="51">D20*M$15</f>
         <v>0</v>
       </c>
-      <c r="N20" s="186">
-        <f t="shared" ref="N20" si="49">E20*N$15</f>
+      <c r="N20" s="300">
+        <f t="shared" ref="N20" si="52">E20*N$15</f>
         <v>0</v>
       </c>
-      <c r="O20" s="186">
+      <c r="O20" s="300">
         <f>E20*O$15</f>
         <v>0</v>
       </c>
-      <c r="P20" s="271" t="b">
-        <f t="shared" ref="P20" si="50">IF(G20 &gt; 2*L20, TRUE)</f>
+      <c r="P20" s="294" t="b">
+        <f t="shared" ref="P20" si="53">IF(G20 &gt; 2*L20, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="Q20" s="271" t="b">
-        <f t="shared" ref="Q20" si="51">IF(G20 &gt; 2*N20, TRUE)</f>
+      <c r="Q20" s="294" t="b">
+        <f t="shared" ref="Q20" si="54">IF(G20 &gt; 2*N20, TRUE)</f>
         <v>1</v>
       </c>
-      <c r="R20" s="271" t="b">
-        <f t="shared" ref="R20" si="52">IF(H20 &gt; 2*O20,TRUE)</f>
+      <c r="R20" s="294" t="b">
+        <f t="shared" ref="R20" si="55">IF(H20 &gt; 2*O20,TRUE)</f>
         <v>1</v>
       </c>
-      <c r="S20" s="67" t="s">
+      <c r="S20" s="294"/>
+      <c r="T20" s="233" t="s">
         <v>542</v>
       </c>
     </row>
@@ -19379,17 +19673,17 @@
   <mergeCells count="1">
     <mergeCell ref="C2:E2"/>
   </mergeCells>
-  <conditionalFormatting sqref="P4:R14 P16:R18">
+  <conditionalFormatting sqref="P16:S18 P4:S14">
     <cfRule type="cellIs" dxfId="2" priority="4" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P15:R15">
+  <conditionalFormatting sqref="P15:S15">
     <cfRule type="cellIs" dxfId="1" priority="3" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="P19:R20">
+  <conditionalFormatting sqref="P19:S20">
     <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
@@ -19401,47 +19695,50 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BF9DD18-B806-45D2-93AF-832D747FF56C}">
-  <dimension ref="A2:R36"/>
+  <dimension ref="A2:U42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K39" sqref="K39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="2" width="9" style="192"/>
-    <col min="3" max="3" width="9" style="259"/>
-    <col min="4" max="4" width="9" style="194"/>
-    <col min="5" max="5" width="23.5" style="193" customWidth="1"/>
-    <col min="6" max="6" width="10" style="236" customWidth="1"/>
-    <col min="7" max="7" width="10" style="192" customWidth="1"/>
-    <col min="8" max="8" width="15.625" style="192" customWidth="1"/>
-    <col min="9" max="9" width="9.375" style="237" customWidth="1"/>
-    <col min="10" max="10" width="9.375" style="259" customWidth="1"/>
-    <col min="11" max="11" width="7.75" style="249" customWidth="1"/>
-    <col min="12" max="12" width="9.375" style="237" customWidth="1"/>
-    <col min="13" max="13" width="6.375" style="237" customWidth="1"/>
-    <col min="14" max="15" width="14.375" style="18" customWidth="1"/>
-    <col min="16" max="16" width="14.5" style="192" customWidth="1"/>
-    <col min="17" max="17" width="13" style="29" customWidth="1"/>
-    <col min="18" max="18" width="71.125" style="192" customWidth="1"/>
-    <col min="19" max="16384" width="9" style="192"/>
+    <col min="1" max="2" width="7.625" style="192" customWidth="1"/>
+    <col min="3" max="3" width="7.625" style="259" customWidth="1"/>
+    <col min="4" max="4" width="7.625" style="194" customWidth="1"/>
+    <col min="5" max="5" width="20" style="193" customWidth="1"/>
+    <col min="6" max="6" width="15.875" style="276" customWidth="1"/>
+    <col min="7" max="7" width="10" style="236" customWidth="1"/>
+    <col min="8" max="8" width="10" style="192" customWidth="1"/>
+    <col min="9" max="9" width="10" style="272" customWidth="1"/>
+    <col min="10" max="10" width="14.5" style="192" customWidth="1"/>
+    <col min="11" max="11" width="9.375" style="237" customWidth="1"/>
+    <col min="12" max="12" width="9.375" style="259" customWidth="1"/>
+    <col min="13" max="13" width="9.375" style="271" customWidth="1"/>
+    <col min="14" max="14" width="7.75" style="249" customWidth="1"/>
+    <col min="15" max="15" width="9.375" style="237" customWidth="1"/>
+    <col min="16" max="16" width="6.375" style="237" customWidth="1"/>
+    <col min="17" max="18" width="14.375" style="18" customWidth="1"/>
+    <col min="19" max="19" width="14.5" style="192" customWidth="1"/>
+    <col min="20" max="20" width="13" style="29" customWidth="1"/>
+    <col min="21" max="21" width="71.125" style="192" customWidth="1"/>
+    <col min="22" max="16384" width="9" style="192"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:18">
-      <c r="B2" s="272" t="s">
+    <row r="2" spans="1:21">
+      <c r="B2" s="279" t="s">
         <v>444</v>
       </c>
-      <c r="C2" s="272"/>
-      <c r="D2" s="275"/>
-      <c r="F2" s="236" t="s">
+      <c r="C2" s="279"/>
+      <c r="D2" s="282"/>
+      <c r="G2" s="236" t="s">
         <v>477</v>
       </c>
-      <c r="G2" s="192" t="s">
+      <c r="H2" s="192" t="s">
         <v>478</v>
       </c>
     </row>
-    <row r="3" spans="1:18" s="15" customFormat="1">
+    <row r="3" spans="1:21" s="15" customFormat="1">
       <c r="B3" s="74" t="s">
         <v>447</v>
       </c>
@@ -19454,47 +19751,56 @@
       <c r="E3" s="15" t="s">
         <v>448</v>
       </c>
-      <c r="F3" s="15">
+      <c r="F3" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3" s="15">
         <v>40</v>
       </c>
-      <c r="G3" s="15">
+      <c r="H3" s="15">
         <v>10</v>
       </c>
-      <c r="H3" s="15" t="s">
-        <v>94</v>
-      </c>
       <c r="I3" s="15" t="s">
+        <v>546</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>547</v>
+      </c>
+      <c r="K3" s="15" t="s">
         <v>482</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="L3" s="15" t="s">
         <v>521</v>
       </c>
-      <c r="K3" s="250" t="s">
+      <c r="M3" s="15" t="s">
+        <v>544</v>
+      </c>
+      <c r="N3" s="250" t="s">
         <v>487</v>
       </c>
-      <c r="L3" s="15" t="s">
+      <c r="O3" s="15" t="s">
         <v>481</v>
       </c>
-      <c r="M3" s="15" t="s">
+      <c r="P3" s="15" t="s">
         <v>488</v>
       </c>
-      <c r="N3" s="19" t="s">
+      <c r="Q3" s="19" t="s">
         <v>483</v>
       </c>
-      <c r="O3" s="19" t="s">
+      <c r="R3" s="19" t="s">
         <v>520</v>
       </c>
-      <c r="P3" s="15" t="s">
+      <c r="S3" s="15" t="s">
         <v>480</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="T3" s="30" t="s">
         <v>489</v>
       </c>
-      <c r="R3" s="15" t="s">
+      <c r="U3" s="15" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:18">
+    <row r="4" spans="1:21">
       <c r="A4" s="192" t="s">
         <v>446</v>
       </c>
@@ -19507,927 +19813,1098 @@
       <c r="E4" s="193" t="s">
         <v>166</v>
       </c>
-      <c r="F4" s="238">
-        <f t="shared" ref="F4:F15" si="0">$D$4-$F$3</f>
+      <c r="G4" s="238">
+        <f t="shared" ref="G4:G18" si="0">$D$4-$G$3</f>
         <v>243</v>
       </c>
-      <c r="G4" s="237">
-        <f t="shared" ref="G4:G15" si="1">$D$4+$G$3</f>
+      <c r="H4" s="237">
+        <f t="shared" ref="H4:H18" si="1">$D$4+$H$3</f>
         <v>293</v>
       </c>
-      <c r="H4" s="237" t="s">
+      <c r="I4" s="272">
+        <v>2</v>
+      </c>
+      <c r="J4" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I4" s="237">
+      <c r="K4" s="237">
         <v>1800</v>
       </c>
-      <c r="J4" s="259" t="s">
+      <c r="L4" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="L4" s="237">
+      <c r="O4" s="237">
         <v>72</v>
       </c>
-      <c r="M4" s="237">
+      <c r="P4" s="237">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:18">
+    <row r="5" spans="1:21">
       <c r="E5" s="193" t="s">
         <v>167</v>
       </c>
-      <c r="F5" s="238">
+      <c r="G5" s="238">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G5" s="237">
+      <c r="H5" s="237">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H5" s="237" t="s">
+      <c r="J5" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I5" s="237">
+      <c r="K5" s="237">
         <v>1800</v>
       </c>
-      <c r="J5" s="259" t="s">
+      <c r="L5" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K5" s="249">
+      <c r="N5" s="249">
         <v>2</v>
       </c>
-      <c r="L5" s="237">
+      <c r="O5" s="237">
         <v>72</v>
       </c>
-      <c r="M5" s="237">
+      <c r="P5" s="237">
         <v>2</v>
       </c>
-      <c r="P5" s="192">
+      <c r="S5" s="192">
         <v>853183</v>
       </c>
     </row>
-    <row r="6" spans="1:18">
+    <row r="6" spans="1:21">
       <c r="E6" s="193" t="s">
         <v>168</v>
       </c>
-      <c r="F6" s="236">
+      <c r="G6" s="236">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G6" s="192">
+      <c r="H6" s="192">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H6" s="192" t="s">
+      <c r="J6" s="192" t="s">
         <v>479</v>
       </c>
-      <c r="I6" s="237">
+      <c r="K6" s="237">
         <v>1800</v>
       </c>
-      <c r="J6" s="259" t="s">
+      <c r="L6" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K6" s="249">
+      <c r="N6" s="249">
         <v>2</v>
       </c>
-      <c r="L6" s="237">
+      <c r="O6" s="237">
         <v>96</v>
       </c>
-      <c r="M6" s="237">
+      <c r="P6" s="237">
         <v>1</v>
       </c>
-      <c r="N6" s="18">
-        <f>(L6/72)*33.408*(1024/I6)</f>
+      <c r="Q6" s="18">
+        <f>(O6/72)*33.408*(1024/K6)</f>
         <v>25.340586666666663</v>
       </c>
-      <c r="P6" s="192">
+      <c r="S6" s="192">
         <v>852665</v>
       </c>
-      <c r="Q6" s="29">
+      <c r="T6" s="29">
         <v>5.5367399999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:18" s="237" customFormat="1">
+    <row r="7" spans="1:21" s="237" customFormat="1">
       <c r="C7" s="259"/>
       <c r="D7" s="239"/>
       <c r="E7" s="242" t="s">
         <v>168</v>
       </c>
-      <c r="F7" s="242">
+      <c r="F7" s="276"/>
+      <c r="G7" s="242">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G7" s="240">
+      <c r="H7" s="240">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H7" s="240" t="s">
+      <c r="I7" s="272"/>
+      <c r="J7" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I7" s="240">
+      <c r="K7" s="240">
         <v>1800</v>
       </c>
-      <c r="J7" s="259" t="s">
+      <c r="L7" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K7" s="249">
+      <c r="M7" s="271"/>
+      <c r="N7" s="249">
         <v>4</v>
       </c>
-      <c r="N7" s="18"/>
-      <c r="O7" s="18"/>
-      <c r="P7" s="237">
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="237">
         <v>854061</v>
       </c>
-      <c r="Q7" s="29">
+      <c r="T7" s="29">
         <v>1.6237999999999999E-2</v>
       </c>
-      <c r="R7" s="237" t="s">
+      <c r="U7" s="237" t="s">
         <v>491</v>
       </c>
     </row>
-    <row r="8" spans="1:18">
-      <c r="E8" s="193" t="s">
+    <row r="8" spans="1:21" s="274" customFormat="1">
+      <c r="D8" s="277"/>
+      <c r="E8" s="276" t="s">
+        <v>168</v>
+      </c>
+      <c r="F8" s="276" t="s">
+        <v>549</v>
+      </c>
+      <c r="G8" s="276">
+        <v>293</v>
+      </c>
+      <c r="H8" s="274">
+        <v>333</v>
+      </c>
+      <c r="J8" s="274" t="s">
+        <v>548</v>
+      </c>
+      <c r="K8" s="274">
+        <v>1800</v>
+      </c>
+      <c r="L8" s="274" t="s">
+        <v>7</v>
+      </c>
+      <c r="N8" s="249">
+        <v>4</v>
+      </c>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="T8" s="29"/>
+      <c r="U8" s="296" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21">
+      <c r="E9" s="193" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="238">
+      <c r="G9" s="238">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G8" s="237">
+      <c r="H9" s="237">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H8" s="237" t="s">
+      <c r="J9" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I8" s="237">
+      <c r="K9" s="237">
         <v>1800</v>
       </c>
-      <c r="J8" s="259" t="s">
+      <c r="L9" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K8" s="249">
+      <c r="N9" s="249">
         <v>4</v>
       </c>
-      <c r="L8" s="237">
+      <c r="O9" s="237">
         <v>96</v>
       </c>
-      <c r="M8" s="237">
+      <c r="P9" s="237">
         <v>2</v>
       </c>
-      <c r="N8" s="18">
-        <f>42.237*M8/2</f>
+      <c r="Q9" s="18">
+        <f>42.237*P9/2</f>
         <v>42.237000000000002</v>
       </c>
-      <c r="P8" s="192">
+      <c r="S9" s="192">
         <v>854917</v>
       </c>
     </row>
-    <row r="9" spans="1:18" s="256" customFormat="1">
-      <c r="C9" s="259"/>
-      <c r="D9" s="258"/>
-      <c r="E9" s="257"/>
-      <c r="F9" s="257">
+    <row r="10" spans="1:21" s="256" customFormat="1">
+      <c r="C10" s="259"/>
+      <c r="D10" s="258"/>
+      <c r="E10" s="257" t="s">
+        <v>169</v>
+      </c>
+      <c r="F10" s="276"/>
+      <c r="G10" s="273">
         <v>283</v>
       </c>
-      <c r="G9" s="256">
+      <c r="H10" s="248">
         <v>333</v>
       </c>
-      <c r="J9" s="259"/>
-      <c r="K9" s="249"/>
-      <c r="N9" s="18"/>
-      <c r="O9" s="18"/>
-      <c r="Q9" s="29"/>
-    </row>
-    <row r="10" spans="1:18">
-      <c r="E10" s="193" t="s">
+      <c r="I10" s="272"/>
+      <c r="J10" s="272" t="s">
+        <v>479</v>
+      </c>
+      <c r="K10" s="272">
+        <v>1800</v>
+      </c>
+      <c r="L10" s="272" t="s">
+        <v>7</v>
+      </c>
+      <c r="M10" s="271"/>
+      <c r="N10" s="249">
+        <v>4</v>
+      </c>
+      <c r="O10" s="256">
+        <v>96</v>
+      </c>
+      <c r="P10" s="256">
+        <v>2</v>
+      </c>
+      <c r="Q10" s="18">
+        <f>42.237*P10/2</f>
+        <v>42.237000000000002</v>
+      </c>
+      <c r="R10" s="18"/>
+      <c r="S10" s="256">
+        <v>949237</v>
+      </c>
+      <c r="T10" s="29"/>
+      <c r="U10" s="256" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21">
+      <c r="E11" s="193" t="s">
         <v>449</v>
       </c>
-      <c r="F10" s="238">
+      <c r="G11" s="238">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G10" s="237">
+      <c r="H11" s="237">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H10" s="237" t="s">
+      <c r="J11" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I10" s="237">
+      <c r="K11" s="237">
         <v>1800</v>
       </c>
-      <c r="J10" s="259" t="s">
+      <c r="L11" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K10" s="249">
+      <c r="N11" s="249">
         <v>2</v>
       </c>
-      <c r="L10" s="237">
+      <c r="O11" s="237">
         <v>120</v>
       </c>
-      <c r="M10" s="237">
+      <c r="P11" s="237">
         <v>1</v>
       </c>
-      <c r="N10" s="18">
-        <f>(L10/96)*27.775*(1024/I10)</f>
+      <c r="Q11" s="18">
+        <f>(O11/96)*27.775*(1024/K11)</f>
         <v>19.751111111111111</v>
       </c>
-      <c r="P10" s="192" t="s">
+      <c r="S11" s="192" t="s">
         <v>484</v>
       </c>
     </row>
-    <row r="11" spans="1:18" s="240" customFormat="1">
-      <c r="C11" s="259"/>
-      <c r="D11" s="243"/>
-      <c r="E11" s="242" t="s">
+    <row r="12" spans="1:21" s="240" customFormat="1">
+      <c r="C12" s="259"/>
+      <c r="D12" s="243"/>
+      <c r="E12" s="242" t="s">
         <v>449</v>
       </c>
-      <c r="F11" s="242">
+      <c r="F12" s="276"/>
+      <c r="G12" s="242">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G11" s="240">
+      <c r="H12" s="240">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H11" s="240" t="s">
+      <c r="I12" s="272"/>
+      <c r="J12" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I11" s="240">
+      <c r="K12" s="240">
         <v>1800</v>
       </c>
-      <c r="J11" s="259" t="s">
+      <c r="L12" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K11" s="249">
+      <c r="M12" s="271"/>
+      <c r="N12" s="249">
         <v>4</v>
       </c>
-      <c r="L11" s="240">
+      <c r="O12" s="240">
         <v>120</v>
       </c>
-      <c r="M11" s="240">
+      <c r="P12" s="240">
         <v>1</v>
       </c>
-      <c r="N11" s="18">
-        <f>(L11/96)*27.775*(1024/I11)</f>
+      <c r="Q12" s="18">
+        <f>(O12/96)*27.775*(1024/K12)</f>
         <v>19.751111111111111</v>
       </c>
-      <c r="O11" s="18"/>
-      <c r="P11" s="240">
+      <c r="R12" s="18"/>
+      <c r="S12" s="240">
         <v>857921</v>
       </c>
-      <c r="Q11" s="29"/>
-    </row>
-    <row r="12" spans="1:18">
-      <c r="E12" s="193" t="s">
+      <c r="T12" s="29"/>
+    </row>
+    <row r="13" spans="1:21" s="274" customFormat="1">
+      <c r="D13" s="277"/>
+      <c r="E13" s="276"/>
+      <c r="F13" s="276" t="s">
+        <v>549</v>
+      </c>
+      <c r="G13" s="276"/>
+      <c r="N13" s="249"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="T13" s="29"/>
+    </row>
+    <row r="14" spans="1:21">
+      <c r="E14" s="193" t="s">
         <v>450</v>
       </c>
-      <c r="F12" s="238">
+      <c r="G14" s="238">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G12" s="237">
+      <c r="H14" s="237">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H12" s="237" t="s">
+      <c r="J14" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I12" s="237">
+      <c r="K14" s="237">
         <v>1800</v>
       </c>
-      <c r="J12" s="259" t="s">
+      <c r="L14" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K12" s="249">
+      <c r="N14" s="249">
         <v>2</v>
       </c>
-      <c r="L12" s="237">
+      <c r="O14" s="237">
         <v>96</v>
       </c>
-      <c r="M12" s="237">
+      <c r="P14" s="237">
         <v>1</v>
       </c>
-      <c r="N12" s="18">
-        <f>(L12/72)*29.913*(1024/I12)</f>
+      <c r="Q14" s="18">
+        <f>(O14/72)*29.913*(1024/K14)</f>
         <v>22.689564444444443</v>
       </c>
-      <c r="P12" s="192">
+      <c r="S14" s="192">
         <v>853936</v>
       </c>
-      <c r="Q12" s="29">
+      <c r="T14" s="29">
         <v>8.9042999999999997E-2</v>
       </c>
-      <c r="R12" s="192" t="s">
+      <c r="U14" s="192" t="s">
         <v>490</v>
       </c>
     </row>
-    <row r="13" spans="1:18" s="240" customFormat="1">
-      <c r="C13" s="259"/>
-      <c r="D13" s="243"/>
-      <c r="E13" s="242" t="s">
-        <v>450</v>
-      </c>
-      <c r="F13" s="242">
-        <f t="shared" si="0"/>
-        <v>243</v>
-      </c>
-      <c r="G13" s="240">
-        <f t="shared" si="1"/>
-        <v>293</v>
-      </c>
-      <c r="H13" s="240" t="s">
-        <v>479</v>
-      </c>
-      <c r="I13" s="240">
-        <v>1800</v>
-      </c>
-      <c r="J13" s="259" t="s">
-        <v>7</v>
-      </c>
-      <c r="K13" s="249">
-        <v>4</v>
-      </c>
-      <c r="L13" s="240">
-        <v>96</v>
-      </c>
-      <c r="M13" s="240">
-        <v>1</v>
-      </c>
-      <c r="N13" s="18">
-        <f>(L13/72)*29.913*(1024/I13)</f>
-        <v>22.689564444444443</v>
-      </c>
-      <c r="O13" s="18"/>
-      <c r="P13" s="248">
-        <v>856418</v>
-      </c>
-      <c r="Q13" s="29">
-        <v>1.2351900000000001E-2</v>
-      </c>
-      <c r="R13" s="240" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
-      <c r="E14" s="193" t="s">
-        <v>451</v>
-      </c>
-      <c r="F14" s="238">
-        <f t="shared" si="0"/>
-        <v>243</v>
-      </c>
-      <c r="G14" s="237">
-        <f t="shared" si="1"/>
-        <v>293</v>
-      </c>
-      <c r="H14" s="237" t="s">
-        <v>479</v>
-      </c>
-      <c r="I14" s="237">
-        <v>1800</v>
-      </c>
-      <c r="J14" s="259" t="s">
-        <v>7</v>
-      </c>
-      <c r="K14" s="249">
-        <v>2</v>
-      </c>
-      <c r="L14" s="237">
-        <v>96</v>
-      </c>
-      <c r="M14" s="237">
-        <v>1</v>
-      </c>
-      <c r="N14" s="18">
-        <f>(L14/72)*29.913*(1024/I14)</f>
-        <v>22.689564444444443</v>
-      </c>
-      <c r="P14" s="244">
-        <v>855571</v>
-      </c>
-      <c r="Q14" s="29">
-        <v>4.2958799999999998E-2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18" s="240" customFormat="1">
+    <row r="15" spans="1:21" s="240" customFormat="1">
       <c r="C15" s="259"/>
       <c r="D15" s="243"/>
       <c r="E15" s="242" t="s">
-        <v>451</v>
-      </c>
-      <c r="F15" s="242">
+        <v>450</v>
+      </c>
+      <c r="F15" s="276"/>
+      <c r="G15" s="242">
         <f t="shared" si="0"/>
         <v>243</v>
       </c>
-      <c r="G15" s="240">
+      <c r="H15" s="240">
         <f t="shared" si="1"/>
         <v>293</v>
       </c>
-      <c r="H15" s="240" t="s">
+      <c r="I15" s="272"/>
+      <c r="J15" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I15" s="240">
+      <c r="K15" s="240">
         <v>1800</v>
       </c>
-      <c r="J15" s="259" t="s">
+      <c r="L15" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K15" s="249">
+      <c r="M15" s="271"/>
+      <c r="N15" s="249">
         <v>4</v>
       </c>
-      <c r="L15" s="240">
+      <c r="O15" s="240">
         <v>96</v>
       </c>
-      <c r="M15" s="240">
+      <c r="P15" s="240">
         <v>1</v>
       </c>
-      <c r="N15" s="18">
-        <f>(L15/72)*29.913*(1024/I15)</f>
+      <c r="Q15" s="18">
+        <f>(O15/72)*29.913*(1024/K15)</f>
         <v>22.689564444444443</v>
       </c>
-      <c r="O15" s="18"/>
-      <c r="P15" s="244">
+      <c r="R15" s="18"/>
+      <c r="S15" s="248">
+        <v>856418</v>
+      </c>
+      <c r="T15" s="29">
+        <v>1.2351900000000001E-2</v>
+      </c>
+      <c r="U15" s="240" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" s="274" customFormat="1">
+      <c r="D16" s="277"/>
+      <c r="E16" s="276"/>
+      <c r="F16" s="276" t="s">
+        <v>549</v>
+      </c>
+      <c r="G16" s="276"/>
+      <c r="N16" s="249"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="248"/>
+      <c r="T16" s="29"/>
+    </row>
+    <row r="17" spans="1:21">
+      <c r="E17" s="193" t="s">
+        <v>451</v>
+      </c>
+      <c r="G17" s="238">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="H17" s="237">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="J17" s="237" t="s">
+        <v>479</v>
+      </c>
+      <c r="K17" s="237">
+        <v>1800</v>
+      </c>
+      <c r="L17" s="259" t="s">
+        <v>7</v>
+      </c>
+      <c r="N17" s="249">
+        <v>2</v>
+      </c>
+      <c r="O17" s="237">
+        <v>96</v>
+      </c>
+      <c r="P17" s="237">
+        <v>1</v>
+      </c>
+      <c r="Q17" s="18">
+        <f>(O17/72)*29.913*(1024/K17)</f>
+        <v>22.689564444444443</v>
+      </c>
+      <c r="S17" s="244">
+        <v>855571</v>
+      </c>
+      <c r="T17" s="29">
+        <v>4.2958799999999998E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" s="240" customFormat="1">
+      <c r="C18" s="259"/>
+      <c r="D18" s="243"/>
+      <c r="E18" s="242" t="s">
+        <v>451</v>
+      </c>
+      <c r="F18" s="276"/>
+      <c r="G18" s="242">
+        <f t="shared" si="0"/>
+        <v>243</v>
+      </c>
+      <c r="H18" s="240">
+        <f t="shared" si="1"/>
+        <v>293</v>
+      </c>
+      <c r="I18" s="272"/>
+      <c r="J18" s="240" t="s">
+        <v>479</v>
+      </c>
+      <c r="K18" s="240">
+        <v>1800</v>
+      </c>
+      <c r="L18" s="259" t="s">
+        <v>7</v>
+      </c>
+      <c r="M18" s="271"/>
+      <c r="N18" s="249">
+        <v>4</v>
+      </c>
+      <c r="O18" s="240">
+        <v>96</v>
+      </c>
+      <c r="P18" s="240">
+        <v>1</v>
+      </c>
+      <c r="Q18" s="18">
+        <f>(O18/72)*29.913*(1024/K18)</f>
+        <v>22.689564444444443</v>
+      </c>
+      <c r="R18" s="18"/>
+      <c r="S18" s="244">
         <v>857920</v>
       </c>
-      <c r="Q15" s="29">
+      <c r="T18" s="29">
         <v>2.5966699999999999E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:18">
-      <c r="E16" s="193" t="s">
+    <row r="19" spans="1:21" s="274" customFormat="1">
+      <c r="D19" s="277"/>
+      <c r="E19" s="276"/>
+      <c r="F19" s="276" t="s">
+        <v>549</v>
+      </c>
+      <c r="G19" s="276"/>
+      <c r="N19" s="249"/>
+      <c r="Q19" s="18"/>
+      <c r="R19" s="18"/>
+      <c r="S19" s="278"/>
+      <c r="T19" s="29"/>
+    </row>
+    <row r="20" spans="1:21">
+      <c r="E20" s="193" t="s">
         <v>543</v>
       </c>
-      <c r="F16" s="236">
+      <c r="G20" s="236">
         <v>243</v>
       </c>
-      <c r="G16" s="192">
+      <c r="H20" s="192">
         <v>293</v>
       </c>
-      <c r="H16" s="192" t="s">
+      <c r="J20" s="192" t="s">
         <v>479</v>
       </c>
-      <c r="I16" s="237">
+      <c r="K20" s="237">
         <v>1800</v>
       </c>
-      <c r="J16" s="259" t="s">
+      <c r="L20" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K16" s="249">
+      <c r="N20" s="249">
         <v>4</v>
       </c>
-      <c r="L16" s="237">
+      <c r="O20" s="237">
         <v>96</v>
       </c>
-      <c r="M16" s="237">
+      <c r="P20" s="237">
         <v>1</v>
       </c>
-      <c r="N16" s="18">
-        <f>(L16/72)*29.913*(1024/I16)</f>
+      <c r="Q20" s="18">
+        <f>(O20/72)*29.913*(1024/K20)</f>
         <v>22.689564444444443</v>
       </c>
     </row>
-    <row r="17" spans="1:18" s="259" customFormat="1">
-      <c r="D17" s="262"/>
-      <c r="E17" s="261"/>
-      <c r="F17" s="261"/>
-      <c r="K17" s="249"/>
-      <c r="N17" s="18"/>
-      <c r="O17" s="18"/>
-      <c r="Q17" s="29"/>
-    </row>
-    <row r="18" spans="1:18" s="259" customFormat="1">
-      <c r="D18" s="262"/>
-      <c r="E18" s="261" t="s">
+    <row r="21" spans="1:21" s="274" customFormat="1">
+      <c r="D21" s="277"/>
+      <c r="E21" s="276" t="s">
+        <v>543</v>
+      </c>
+      <c r="F21" s="276"/>
+      <c r="G21" s="276"/>
+      <c r="N21" s="249"/>
+      <c r="Q21" s="18"/>
+      <c r="R21" s="18"/>
+      <c r="T21" s="29"/>
+    </row>
+    <row r="22" spans="1:21" s="274" customFormat="1">
+      <c r="D22" s="277"/>
+      <c r="E22" s="276"/>
+      <c r="F22" s="276" t="s">
+        <v>549</v>
+      </c>
+      <c r="G22" s="276"/>
+      <c r="N22" s="249"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="T22" s="29"/>
+    </row>
+    <row r="23" spans="1:21" s="259" customFormat="1">
+      <c r="D23" s="262"/>
+      <c r="E23" s="261"/>
+      <c r="F23" s="276"/>
+      <c r="G23" s="261"/>
+      <c r="I23" s="272"/>
+      <c r="M23" s="271"/>
+      <c r="N23" s="249"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="T23" s="29"/>
+    </row>
+    <row r="24" spans="1:21" s="259" customFormat="1">
+      <c r="D24" s="262"/>
+      <c r="E24" s="261" t="s">
+        <v>166</v>
+      </c>
+      <c r="F24" s="276"/>
+      <c r="G24" s="261"/>
+      <c r="I24" s="272"/>
+      <c r="L24" s="259" t="s">
+        <v>98</v>
+      </c>
+      <c r="M24" s="271"/>
+      <c r="N24" s="249"/>
+      <c r="Q24" s="18"/>
+      <c r="R24" s="18"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="259" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" s="259" customFormat="1">
+      <c r="D25" s="262"/>
+      <c r="E25" s="261" t="s">
+        <v>169</v>
+      </c>
+      <c r="F25" s="276"/>
+      <c r="G25" s="261"/>
+      <c r="I25" s="272"/>
+      <c r="L25" s="259" t="s">
+        <v>98</v>
+      </c>
+      <c r="M25" s="271"/>
+      <c r="N25" s="249"/>
+      <c r="Q25" s="18"/>
+      <c r="R25" s="18"/>
+      <c r="T25" s="29"/>
+    </row>
+    <row r="26" spans="1:21" s="259" customFormat="1">
+      <c r="D26" s="262"/>
+      <c r="E26" s="261"/>
+      <c r="F26" s="276"/>
+      <c r="G26" s="261"/>
+      <c r="I26" s="272"/>
+      <c r="M26" s="271"/>
+      <c r="N26" s="249"/>
+      <c r="Q26" s="18"/>
+      <c r="R26" s="18"/>
+      <c r="T26" s="29"/>
+    </row>
+    <row r="27" spans="1:21" s="259" customFormat="1">
+      <c r="D27" s="262"/>
+      <c r="E27" s="261" t="s">
+        <v>166</v>
+      </c>
+      <c r="F27" s="276"/>
+      <c r="G27" s="261"/>
+      <c r="I27" s="272"/>
+      <c r="L27" s="259" t="s">
+        <v>7</v>
+      </c>
+      <c r="M27" s="271"/>
+      <c r="N27" s="249"/>
+      <c r="Q27" s="18"/>
+      <c r="R27" s="18"/>
+      <c r="T27" s="29"/>
+    </row>
+    <row r="28" spans="1:21" s="259" customFormat="1">
+      <c r="D28" s="262"/>
+      <c r="E28" s="261" t="s">
+        <v>169</v>
+      </c>
+      <c r="F28" s="276"/>
+      <c r="G28" s="261" t="s">
+        <v>527</v>
+      </c>
+      <c r="H28" s="259" t="s">
+        <v>528</v>
+      </c>
+      <c r="I28" s="272"/>
+      <c r="M28" s="271"/>
+      <c r="N28" s="249"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="T28" s="29"/>
+    </row>
+    <row r="29" spans="1:21" s="15" customFormat="1">
+      <c r="D29" s="21"/>
+      <c r="N29" s="250"/>
+      <c r="Q29" s="19"/>
+      <c r="R29" s="19"/>
+      <c r="T29" s="30"/>
+    </row>
+    <row r="30" spans="1:21">
+      <c r="E30" s="193" t="s">
+        <v>485</v>
+      </c>
+      <c r="G30" s="236">
+        <v>280</v>
+      </c>
+      <c r="H30" s="192">
+        <v>280</v>
+      </c>
+      <c r="J30" s="192" t="s">
+        <v>486</v>
+      </c>
+      <c r="K30" s="237">
+        <v>1800</v>
+      </c>
+      <c r="O30" s="237">
+        <v>96</v>
+      </c>
+      <c r="S30" s="192">
+        <v>853816</v>
+      </c>
+      <c r="U30" s="192" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" s="15" customFormat="1">
+      <c r="D31" s="21"/>
+      <c r="N31" s="250"/>
+      <c r="Q31" s="19"/>
+      <c r="R31" s="19"/>
+      <c r="T31" s="30"/>
+    </row>
+    <row r="32" spans="1:21">
+      <c r="A32" s="192" t="s">
+        <v>445</v>
+      </c>
+      <c r="C32" s="259" t="s">
+        <v>433</v>
+      </c>
+      <c r="D32" s="194">
+        <v>291</v>
+      </c>
+      <c r="E32" s="199" t="s">
+        <v>166</v>
+      </c>
+      <c r="G32" s="236">
+        <f t="shared" ref="G32:G39" si="2">$D$32-$G$3</f>
+        <v>251</v>
+      </c>
+      <c r="H32" s="235">
+        <f t="shared" ref="H32:H39" si="3">$D$32+$H$3</f>
+        <v>301</v>
+      </c>
+      <c r="J32" s="237" t="s">
+        <v>479</v>
+      </c>
+      <c r="K32" s="237">
+        <v>1296</v>
+      </c>
+      <c r="L32" s="259" t="s">
+        <v>7</v>
+      </c>
+      <c r="O32" s="237">
+        <v>72</v>
+      </c>
+      <c r="P32" s="237">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="4:21">
+      <c r="E33" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="F18" s="261"/>
-      <c r="J18" s="259" t="s">
-        <v>98</v>
-      </c>
-      <c r="K18" s="249"/>
-      <c r="N18" s="18"/>
-      <c r="O18" s="18"/>
-      <c r="Q18" s="29"/>
-      <c r="R18" s="259" t="s">
-        <v>526</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18" s="259" customFormat="1">
-      <c r="D19" s="262"/>
-      <c r="E19" s="261" t="s">
-        <v>169</v>
-      </c>
-      <c r="F19" s="261"/>
-      <c r="J19" s="259" t="s">
-        <v>98</v>
-      </c>
-      <c r="K19" s="249"/>
-      <c r="N19" s="18"/>
-      <c r="O19" s="18"/>
-      <c r="Q19" s="29"/>
-    </row>
-    <row r="20" spans="1:18" s="259" customFormat="1">
-      <c r="D20" s="262"/>
-      <c r="E20" s="261"/>
-      <c r="F20" s="261"/>
-      <c r="K20" s="249"/>
-      <c r="N20" s="18"/>
-      <c r="O20" s="18"/>
-      <c r="Q20" s="29"/>
-    </row>
-    <row r="21" spans="1:18" s="259" customFormat="1">
-      <c r="D21" s="262"/>
-      <c r="E21" s="261" t="s">
-        <v>167</v>
-      </c>
-      <c r="F21" s="261"/>
-      <c r="J21" s="259" t="s">
-        <v>7</v>
-      </c>
-      <c r="K21" s="249"/>
-      <c r="N21" s="18"/>
-      <c r="O21" s="18"/>
-      <c r="Q21" s="29"/>
-    </row>
-    <row r="22" spans="1:18" s="259" customFormat="1">
-      <c r="D22" s="262"/>
-      <c r="E22" s="261" t="s">
-        <v>169</v>
-      </c>
-      <c r="F22" s="261" t="s">
-        <v>527</v>
-      </c>
-      <c r="G22" s="259" t="s">
-        <v>528</v>
-      </c>
-      <c r="K22" s="249"/>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="Q22" s="29"/>
-    </row>
-    <row r="23" spans="1:18" s="15" customFormat="1">
-      <c r="D23" s="21"/>
-      <c r="K23" s="250"/>
-      <c r="N23" s="19"/>
-      <c r="O23" s="19"/>
-      <c r="Q23" s="30"/>
-    </row>
-    <row r="24" spans="1:18">
-      <c r="E24" s="193" t="s">
-        <v>485</v>
-      </c>
-      <c r="F24" s="236">
-        <v>280</v>
-      </c>
-      <c r="G24" s="192">
-        <v>280</v>
-      </c>
-      <c r="H24" s="192" t="s">
-        <v>486</v>
-      </c>
-      <c r="I24" s="237">
-        <v>1800</v>
-      </c>
-      <c r="L24" s="237">
-        <v>96</v>
-      </c>
-      <c r="P24" s="192">
-        <v>853816</v>
-      </c>
-      <c r="R24" s="192" t="s">
-        <v>494</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18" s="15" customFormat="1">
-      <c r="D25" s="21"/>
-      <c r="K25" s="250"/>
-      <c r="N25" s="19"/>
-      <c r="O25" s="19"/>
-      <c r="Q25" s="30"/>
-    </row>
-    <row r="26" spans="1:18">
-      <c r="A26" s="192" t="s">
-        <v>445</v>
-      </c>
-      <c r="C26" s="259" t="s">
-        <v>433</v>
-      </c>
-      <c r="D26" s="194">
-        <v>291</v>
-      </c>
-      <c r="E26" s="199" t="s">
-        <v>166</v>
-      </c>
-      <c r="F26" s="236">
-        <f t="shared" ref="F26:F33" si="2">$D$26-$F$3</f>
-        <v>251</v>
-      </c>
-      <c r="G26" s="235">
-        <f t="shared" ref="G26:G33" si="3">$D$26+$G$3</f>
-        <v>301</v>
-      </c>
-      <c r="H26" s="237" t="s">
-        <v>479</v>
-      </c>
-      <c r="I26" s="237">
-        <v>1296</v>
-      </c>
-      <c r="J26" s="259" t="s">
-        <v>7</v>
-      </c>
-      <c r="L26" s="237">
-        <v>72</v>
-      </c>
-      <c r="M26" s="237">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="27" spans="1:18">
-      <c r="E27" s="270" t="s">
-        <v>167</v>
-      </c>
-      <c r="F27" s="238">
+      <c r="F33" s="269"/>
+      <c r="G33" s="238">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G27" s="237">
+      <c r="H33" s="237">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H27" s="237" t="s">
+      <c r="J33" s="237" t="s">
         <v>479</v>
       </c>
-      <c r="I27" s="237">
+      <c r="K33" s="237">
         <v>1296</v>
       </c>
-      <c r="J27" s="259" t="s">
+      <c r="L33" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K27" s="249">
+      <c r="N33" s="249">
         <v>2</v>
       </c>
-      <c r="L27" s="237">
+      <c r="O33" s="237">
         <v>72</v>
       </c>
-      <c r="M27" s="237">
+      <c r="P33" s="237">
         <v>2</v>
       </c>
-      <c r="P27" s="244">
+      <c r="S33" s="244">
         <v>856325</v>
       </c>
-      <c r="R27" s="192" t="s">
+      <c r="U33" s="192" t="s">
         <v>509</v>
       </c>
     </row>
-    <row r="28" spans="1:18" s="259" customFormat="1">
-      <c r="D28" s="262"/>
-      <c r="E28" s="270" t="s">
+    <row r="34" spans="4:21" s="259" customFormat="1">
+      <c r="D34" s="262"/>
+      <c r="E34" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="F28" s="261">
+      <c r="F34" s="269"/>
+      <c r="G34" s="261">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G28" s="259">
+      <c r="H34" s="259">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H28" s="259" t="s">
+      <c r="I34" s="272"/>
+      <c r="J34" s="259" t="s">
         <v>479</v>
       </c>
-      <c r="I28" s="259">
+      <c r="K34" s="259">
         <v>1296</v>
       </c>
-      <c r="J28" s="259" t="s">
+      <c r="L34" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K28" s="249">
+      <c r="M34" s="271"/>
+      <c r="N34" s="249">
         <v>4</v>
       </c>
-      <c r="L28" s="259">
+      <c r="O34" s="259">
         <v>72</v>
       </c>
-      <c r="M28" s="259">
+      <c r="P34" s="259">
         <v>2</v>
       </c>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="263">
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="263">
         <v>905125</v>
       </c>
-      <c r="Q28" s="29"/>
-      <c r="R28" s="259" t="s">
+      <c r="T34" s="29"/>
+      <c r="U34" s="259" t="s">
         <v>516</v>
       </c>
     </row>
-    <row r="29" spans="1:18" s="259" customFormat="1">
-      <c r="D29" s="262"/>
-      <c r="E29" s="270" t="s">
+    <row r="35" spans="4:21" s="259" customFormat="1">
+      <c r="D35" s="262"/>
+      <c r="E35" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="F29" s="261">
+      <c r="F35" s="269"/>
+      <c r="G35" s="261">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G29" s="259">
+      <c r="H35" s="259">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H29" s="259" t="s">
+      <c r="I35" s="272"/>
+      <c r="J35" s="259" t="s">
         <v>479</v>
       </c>
-      <c r="I29" s="259">
+      <c r="K35" s="259">
         <v>1296</v>
       </c>
-      <c r="J29" s="259" t="s">
+      <c r="L35" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K29" s="249" t="s">
+      <c r="M35" s="271"/>
+      <c r="N35" s="249" t="s">
         <v>517</v>
       </c>
-      <c r="L29" s="259">
+      <c r="O35" s="259">
         <v>72</v>
       </c>
-      <c r="M29" s="259">
+      <c r="P35" s="259">
         <v>2</v>
       </c>
-      <c r="N29" s="18"/>
-      <c r="O29" s="259" t="s">
+      <c r="Q35" s="18"/>
+      <c r="R35" s="259" t="s">
         <v>518</v>
       </c>
-      <c r="P29" s="263">
+      <c r="S35" s="263">
         <v>905240</v>
       </c>
-      <c r="Q29" s="29"/>
-    </row>
-    <row r="30" spans="1:18" s="259" customFormat="1">
-      <c r="D30" s="262"/>
-      <c r="E30" s="270" t="s">
+      <c r="T35" s="29"/>
+    </row>
+    <row r="36" spans="4:21" s="259" customFormat="1">
+      <c r="D36" s="262"/>
+      <c r="E36" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="F30" s="261">
+      <c r="F36" s="269"/>
+      <c r="G36" s="261">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G30" s="259">
+      <c r="H36" s="259">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H30" s="259" t="s">
+      <c r="I36" s="272"/>
+      <c r="J36" s="259" t="s">
         <v>479</v>
       </c>
-      <c r="I30" s="259">
+      <c r="K36" s="259">
         <v>1296</v>
       </c>
-      <c r="J30" s="259" t="s">
+      <c r="L36" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K30" s="249">
+      <c r="M36" s="271"/>
+      <c r="N36" s="249">
         <v>4</v>
       </c>
-      <c r="L30" s="259">
+      <c r="O36" s="259">
         <v>72</v>
       </c>
-      <c r="M30" s="259">
+      <c r="P36" s="259">
         <v>2</v>
       </c>
-      <c r="N30" s="18"/>
-      <c r="O30" s="259" t="s">
+      <c r="Q36" s="18"/>
+      <c r="R36" s="259" t="s">
         <v>519</v>
       </c>
-      <c r="P30" s="263">
+      <c r="S36" s="263">
         <v>905252</v>
       </c>
-      <c r="Q30" s="29"/>
-    </row>
-    <row r="31" spans="1:18" s="259" customFormat="1">
-      <c r="D31" s="262"/>
-      <c r="E31" s="270" t="s">
+      <c r="T36" s="29"/>
+    </row>
+    <row r="37" spans="4:21" s="259" customFormat="1">
+      <c r="D37" s="262"/>
+      <c r="E37" s="269" t="s">
         <v>167</v>
       </c>
-      <c r="F31" s="261">
+      <c r="F37" s="269"/>
+      <c r="G37" s="261">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G31" s="259">
+      <c r="H37" s="259">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H31" s="259" t="s">
+      <c r="I37" s="272"/>
+      <c r="J37" s="259" t="s">
         <v>479</v>
       </c>
-      <c r="I31" s="259">
+      <c r="K37" s="259">
         <v>1296</v>
       </c>
-      <c r="J31" s="259" t="s">
+      <c r="L37" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K31" s="249">
+      <c r="M37" s="271"/>
+      <c r="N37" s="249">
         <v>4</v>
       </c>
-      <c r="L31" s="259">
+      <c r="O37" s="259">
         <v>72</v>
       </c>
-      <c r="M31" s="259">
+      <c r="P37" s="259">
         <v>2</v>
       </c>
-      <c r="N31" s="18"/>
-      <c r="O31" s="259" t="s">
+      <c r="Q37" s="18"/>
+      <c r="R37" s="259" t="s">
         <v>525</v>
       </c>
-      <c r="P31" s="263">
+      <c r="S37" s="263">
         <v>911611</v>
       </c>
-      <c r="Q31" s="29"/>
-    </row>
-    <row r="32" spans="1:18">
-      <c r="E32" s="199" t="s">
+      <c r="T37" s="29"/>
+    </row>
+    <row r="38" spans="4:21">
+      <c r="E38" s="199" t="s">
         <v>168</v>
       </c>
-      <c r="F32" s="242">
+      <c r="G38" s="242">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G32" s="240">
+      <c r="H38" s="240">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H32" s="240" t="s">
+      <c r="J38" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I32" s="240">
+      <c r="K38" s="240">
         <v>1296</v>
       </c>
-      <c r="J32" s="259" t="s">
+      <c r="L38" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K32" s="249">
+      <c r="N38" s="249">
         <v>4</v>
       </c>
-      <c r="L32" s="237">
+      <c r="O38" s="237">
         <v>96</v>
       </c>
-      <c r="M32" s="237">
+      <c r="P38" s="237">
         <v>1</v>
       </c>
-      <c r="N32" s="18">
-        <f>22.652*L32/72</f>
+      <c r="Q38" s="18">
+        <f>22.652*O38/72</f>
         <v>30.202666666666669</v>
       </c>
-      <c r="P32" s="244">
+      <c r="S38" s="244">
         <v>856353</v>
       </c>
     </row>
-    <row r="33" spans="5:18">
-      <c r="E33" s="199" t="s">
+    <row r="39" spans="4:21">
+      <c r="E39" s="199" t="s">
         <v>169</v>
       </c>
-      <c r="F33" s="242">
+      <c r="G39" s="242">
         <f t="shared" si="2"/>
         <v>251</v>
       </c>
-      <c r="G33" s="240">
+      <c r="H39" s="240">
         <f t="shared" si="3"/>
         <v>301</v>
       </c>
-      <c r="H33" s="240" t="s">
+      <c r="J39" s="240" t="s">
         <v>479</v>
       </c>
-      <c r="I33" s="240">
+      <c r="K39" s="240">
         <v>1296</v>
       </c>
-      <c r="J33" s="259" t="s">
+      <c r="L39" s="259" t="s">
         <v>7</v>
       </c>
-      <c r="K33" s="249">
+      <c r="N39" s="249">
         <v>4</v>
       </c>
-      <c r="L33" s="237">
+      <c r="O39" s="237">
         <v>96</v>
       </c>
-      <c r="M33" s="237">
+      <c r="P39" s="237">
         <v>2</v>
       </c>
-      <c r="P33" s="244">
+      <c r="S39" s="244">
         <v>856416</v>
       </c>
     </row>
-    <row r="34" spans="5:18">
-      <c r="E34" s="199" t="s">
+    <row r="40" spans="4:21">
+      <c r="E40" s="199" t="s">
         <v>449</v>
       </c>
-      <c r="R34" s="192" t="s">
+      <c r="U40" s="192" t="s">
         <v>492</v>
       </c>
     </row>
-    <row r="35" spans="5:18">
-      <c r="E35" s="199" t="s">
+    <row r="41" spans="4:21">
+      <c r="E41" s="199" t="s">
         <v>450</v>
       </c>
     </row>
-    <row r="36" spans="5:18">
-      <c r="E36" s="199" t="s">
+    <row r="42" spans="4:21">
+      <c r="E42" s="199" t="s">
         <v>451</v>
       </c>
     </row>
@@ -20436,7 +20913,17 @@
     <mergeCell ref="B2:D2"/>
   </mergeCells>
   <phoneticPr fontId="29" type="noConversion"/>
-  <conditionalFormatting sqref="K1:K1048576">
+  <conditionalFormatting sqref="N1:N7 N9:N1048576">
+    <cfRule type="colorScale" priority="2">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="max"/>
+        <color rgb="FFFFEF9C"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N8">
     <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
@@ -21392,30 +21879,30 @@
       <c r="B2" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C2" s="285" t="s">
+      <c r="C2" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="D2" s="285"/>
-      <c r="E2" s="285"/>
-      <c r="F2" s="285"/>
-      <c r="G2" s="285"/>
-      <c r="H2" s="284" t="s">
+      <c r="D2" s="290"/>
+      <c r="E2" s="290"/>
+      <c r="F2" s="290"/>
+      <c r="G2" s="290"/>
+      <c r="H2" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="284"/>
-      <c r="J2" s="284"/>
-      <c r="K2" s="284"/>
-      <c r="L2" s="284"/>
+      <c r="I2" s="292"/>
+      <c r="J2" s="292"/>
+      <c r="K2" s="292"/>
+      <c r="L2" s="292"/>
       <c r="N2" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O2" s="285" t="s">
+      <c r="O2" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="P2" s="285"/>
-      <c r="Q2" s="285"/>
-      <c r="R2" s="285"/>
-      <c r="S2" s="285"/>
+      <c r="P2" s="290"/>
+      <c r="Q2" s="290"/>
+      <c r="R2" s="290"/>
+      <c r="S2" s="290"/>
       <c r="T2" s="72"/>
       <c r="U2" s="72"/>
       <c r="V2" s="72"/>
@@ -21424,13 +21911,13 @@
       <c r="Z2" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="AA2" s="285" t="s">
+      <c r="AA2" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="AB2" s="285"/>
-      <c r="AC2" s="285"/>
-      <c r="AD2" s="285"/>
-      <c r="AE2" s="285"/>
+      <c r="AB2" s="290"/>
+      <c r="AC2" s="290"/>
+      <c r="AD2" s="290"/>
+      <c r="AE2" s="290"/>
       <c r="AF2" s="72"/>
       <c r="AG2" s="72"/>
       <c r="AH2" s="72"/>
@@ -21439,13 +21926,13 @@
       <c r="AL2" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM2" s="285" t="s">
+      <c r="AM2" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="AN2" s="285"/>
-      <c r="AO2" s="285"/>
-      <c r="AP2" s="285"/>
-      <c r="AQ2" s="285"/>
+      <c r="AN2" s="290"/>
+      <c r="AO2" s="290"/>
+      <c r="AP2" s="290"/>
+      <c r="AQ2" s="290"/>
       <c r="AR2" s="72"/>
       <c r="AS2" s="72"/>
       <c r="AT2" s="72"/>
@@ -22585,33 +23072,33 @@
       <c r="B17" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C17" s="283" t="s">
+      <c r="C17" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="D17" s="283"/>
-      <c r="E17" s="283"/>
-      <c r="F17" s="283"/>
-      <c r="G17" s="283"/>
+      <c r="D17" s="291"/>
+      <c r="E17" s="291"/>
+      <c r="F17" s="291"/>
+      <c r="G17" s="291"/>
       <c r="N17" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O17" s="283" t="s">
+      <c r="O17" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="P17" s="283"/>
-      <c r="Q17" s="283"/>
-      <c r="R17" s="283"/>
-      <c r="S17" s="283"/>
+      <c r="P17" s="291"/>
+      <c r="Q17" s="291"/>
+      <c r="R17" s="291"/>
+      <c r="S17" s="291"/>
       <c r="AL17" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM17" s="285" t="s">
+      <c r="AM17" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="AN17" s="285"/>
-      <c r="AO17" s="285"/>
-      <c r="AP17" s="285"/>
-      <c r="AQ17" s="285"/>
+      <c r="AN17" s="290"/>
+      <c r="AO17" s="290"/>
+      <c r="AP17" s="290"/>
+      <c r="AQ17" s="290"/>
       <c r="AR17" s="72"/>
       <c r="AS17" s="72"/>
       <c r="AT17" s="72"/>
@@ -23232,40 +23719,40 @@
       <c r="B32" s="82" t="s">
         <v>246</v>
       </c>
-      <c r="C32" s="285" t="s">
+      <c r="C32" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="D32" s="285"/>
-      <c r="E32" s="285"/>
-      <c r="F32" s="285"/>
-      <c r="G32" s="285"/>
-      <c r="H32" s="284" t="s">
+      <c r="D32" s="290"/>
+      <c r="E32" s="290"/>
+      <c r="F32" s="290"/>
+      <c r="G32" s="290"/>
+      <c r="H32" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="I32" s="284"/>
-      <c r="J32" s="284"/>
-      <c r="K32" s="284"/>
-      <c r="L32" s="284"/>
+      <c r="I32" s="292"/>
+      <c r="J32" s="292"/>
+      <c r="K32" s="292"/>
+      <c r="L32" s="292"/>
       <c r="N32" s="82" t="s">
         <v>45</v>
       </c>
-      <c r="O32" s="283" t="s">
+      <c r="O32" s="291" t="s">
         <v>17</v>
       </c>
-      <c r="P32" s="283"/>
-      <c r="Q32" s="283"/>
-      <c r="R32" s="283"/>
-      <c r="S32" s="283"/>
+      <c r="P32" s="291"/>
+      <c r="Q32" s="291"/>
+      <c r="R32" s="291"/>
+      <c r="S32" s="291"/>
       <c r="AL32" s="77" t="s">
         <v>247</v>
       </c>
-      <c r="AM32" s="285" t="s">
+      <c r="AM32" s="290" t="s">
         <v>17</v>
       </c>
-      <c r="AN32" s="285"/>
-      <c r="AO32" s="285"/>
-      <c r="AP32" s="285"/>
-      <c r="AQ32" s="285"/>
+      <c r="AN32" s="290"/>
+      <c r="AO32" s="290"/>
+      <c r="AP32" s="290"/>
+      <c r="AQ32" s="290"/>
       <c r="AR32" s="72"/>
       <c r="AS32" s="72"/>
       <c r="AT32" s="72"/>
@@ -23823,18 +24310,18 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
     <mergeCell ref="AA2:AE2"/>
     <mergeCell ref="AM2:AQ2"/>
     <mergeCell ref="O17:S17"/>
     <mergeCell ref="AM17:AQ17"/>
     <mergeCell ref="AM32:AQ32"/>
     <mergeCell ref="O32:S32"/>
-    <mergeCell ref="C17:G17"/>
-    <mergeCell ref="H2:L2"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="O2:S2"/>
-    <mergeCell ref="C32:G32"/>
-    <mergeCell ref="H32:L32"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -24534,29 +25021,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:17">
-      <c r="I1" s="286" t="s">
+      <c r="I1" s="293" t="s">
         <v>119</v>
       </c>
-      <c r="J1" s="286"/>
-      <c r="K1" s="286"/>
-      <c r="L1" s="286"/>
-      <c r="M1" s="286"/>
-      <c r="N1" s="286"/>
-      <c r="O1" s="286"/>
+      <c r="J1" s="293"/>
+      <c r="K1" s="293"/>
+      <c r="L1" s="293"/>
+      <c r="M1" s="293"/>
+      <c r="N1" s="293"/>
+      <c r="O1" s="293"/>
     </row>
     <row r="2" spans="2:17">
-      <c r="C2" s="272" t="s">
+      <c r="C2" s="279" t="s">
         <v>111</v>
       </c>
-      <c r="D2" s="272"/>
+      <c r="D2" s="279"/>
       <c r="F2" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="I2" s="286" t="s">
+      <c r="I2" s="293" t="s">
         <v>117</v>
       </c>
-      <c r="J2" s="286"/>
-      <c r="K2" s="286"/>
+      <c r="J2" s="293"/>
+      <c r="K2" s="293"/>
       <c r="L2" s="14" t="s">
         <v>118</v>
       </c>
@@ -25034,51 +25521,51 @@
       <c r="F4" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="H4" s="284" t="s">
+      <c r="H4" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="284"/>
-      <c r="J4" s="284"/>
-      <c r="K4" s="284"/>
-      <c r="L4" s="284"/>
+      <c r="I4" s="292"/>
+      <c r="J4" s="292"/>
+      <c r="K4" s="292"/>
+      <c r="L4" s="292"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
       <c r="S4" s="5"/>
-      <c r="T4" s="284" t="s">
+      <c r="T4" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="U4" s="284"/>
-      <c r="V4" s="284"/>
-      <c r="W4" s="284"/>
-      <c r="X4" s="284"/>
+      <c r="U4" s="292"/>
+      <c r="V4" s="292"/>
+      <c r="W4" s="292"/>
+      <c r="X4" s="292"/>
       <c r="AC4" s="6"/>
       <c r="AD4" s="7"/>
-      <c r="AF4" s="284" t="s">
+      <c r="AF4" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="AG4" s="284"/>
-      <c r="AH4" s="284"/>
-      <c r="AI4" s="284"/>
-      <c r="AJ4" s="284"/>
+      <c r="AG4" s="292"/>
+      <c r="AH4" s="292"/>
+      <c r="AI4" s="292"/>
+      <c r="AJ4" s="292"/>
       <c r="AN4" s="10"/>
       <c r="AP4" s="7"/>
-      <c r="AR4" s="284" t="s">
+      <c r="AR4" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="AS4" s="284"/>
-      <c r="AT4" s="284"/>
-      <c r="AU4" s="284"/>
-      <c r="AV4" s="284"/>
+      <c r="AS4" s="292"/>
+      <c r="AT4" s="292"/>
+      <c r="AU4" s="292"/>
+      <c r="AV4" s="292"/>
       <c r="BB4" s="7"/>
-      <c r="BD4" s="284" t="s">
+      <c r="BD4" s="292" t="s">
         <v>18</v>
       </c>
-      <c r="BE4" s="284"/>
-      <c r="BF4" s="284"/>
-      <c r="BG4" s="284"/>
-      <c r="BH4" s="284"/>
+      <c r="BE4" s="292"/>
+      <c r="BF4" s="292"/>
+      <c r="BG4" s="292"/>
+      <c r="BH4" s="292"/>
     </row>
     <row r="5" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
       <c r="B5" s="12" t="s">
@@ -26161,23 +26648,23 @@
       <c r="T2" s="253"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="J3" s="272" t="s">
+      <c r="J3" s="279" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="272"/>
-      <c r="N3" s="272" t="s">
+      <c r="K3" s="279"/>
+      <c r="N3" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="272"/>
-      <c r="Q3" s="272" t="s">
+      <c r="O3" s="279"/>
+      <c r="Q3" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="272"/>
-      <c r="S3" s="272"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
+      <c r="R3" s="279"/>
+      <c r="S3" s="279"/>
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
     </row>
     <row r="4" spans="2:24" s="15" customFormat="1">
       <c r="B4" s="21" t="s">
@@ -27834,23 +28321,23 @@
       <c r="U2"/>
     </row>
     <row r="3" spans="2:24">
-      <c r="K3" s="272" t="s">
+      <c r="K3" s="279" t="s">
         <v>289</v>
       </c>
-      <c r="L3" s="272"/>
-      <c r="O3" s="272" t="s">
+      <c r="L3" s="279"/>
+      <c r="O3" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="P3" s="272"/>
-      <c r="R3" s="272" t="s">
+      <c r="P3" s="279"/>
+      <c r="R3" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="S3" s="272"/>
-      <c r="T3" s="272"/>
-      <c r="U3" s="272"/>
-      <c r="V3" s="272"/>
-      <c r="W3" s="272"/>
-      <c r="X3" s="272"/>
+      <c r="S3" s="279"/>
+      <c r="T3" s="279"/>
+      <c r="U3" s="279"/>
+      <c r="V3" s="279"/>
+      <c r="W3" s="279"/>
+      <c r="X3" s="279"/>
     </row>
     <row r="4" spans="2:24" s="15" customFormat="1">
       <c r="B4" s="21" t="s">
@@ -29610,7 +30097,7 @@
   <dimension ref="B2:W35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A34" sqref="A34:XFD34"/>
+      <selection activeCell="D44" sqref="D44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -29640,23 +30127,23 @@
       <c r="T2" s="152"/>
     </row>
     <row r="3" spans="2:23">
-      <c r="J3" s="273" t="s">
+      <c r="J3" s="280" t="s">
         <v>289</v>
       </c>
-      <c r="K3" s="273"/>
-      <c r="N3" s="273" t="s">
+      <c r="K3" s="280"/>
+      <c r="N3" s="280" t="s">
         <v>78</v>
       </c>
-      <c r="O3" s="273"/>
-      <c r="Q3" s="273" t="s">
+      <c r="O3" s="280"/>
+      <c r="Q3" s="280" t="s">
         <v>99</v>
       </c>
-      <c r="R3" s="273"/>
-      <c r="S3" s="273"/>
-      <c r="T3" s="273"/>
-      <c r="U3" s="273"/>
-      <c r="V3" s="273"/>
-      <c r="W3" s="273"/>
+      <c r="R3" s="280"/>
+      <c r="S3" s="280"/>
+      <c r="T3" s="280"/>
+      <c r="U3" s="280"/>
+      <c r="V3" s="280"/>
+      <c r="W3" s="280"/>
     </row>
     <row r="4" spans="2:23" s="158" customFormat="1">
       <c r="B4" s="162" t="s">
@@ -30597,19 +31084,19 @@
       <c r="O3" s="146" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="274" t="s">
+      <c r="Q3" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="274"/>
-      <c r="S3" s="274"/>
-      <c r="U3" s="274" t="s">
+      <c r="R3" s="281"/>
+      <c r="S3" s="281"/>
+      <c r="U3" s="281" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="274"/>
-      <c r="W3" s="274"/>
-      <c r="X3" s="274"/>
-      <c r="Y3" s="274"/>
-      <c r="Z3" s="274"/>
+      <c r="V3" s="281"/>
+      <c r="W3" s="281"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="281"/>
     </row>
     <row r="4" spans="2:27" hidden="1">
       <c r="B4" s="147" t="s">
@@ -30970,23 +31457,23 @@
     <row r="10" spans="2:27">
       <c r="E10" s="146"/>
       <c r="F10" s="146"/>
-      <c r="J10" s="274" t="s">
+      <c r="J10" s="281" t="s">
         <v>289</v>
       </c>
-      <c r="K10" s="274"/>
-      <c r="N10" s="274" t="s">
+      <c r="K10" s="281"/>
+      <c r="N10" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="274"/>
-      <c r="Q10" s="274" t="s">
+      <c r="O10" s="281"/>
+      <c r="Q10" s="281" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="274"/>
-      <c r="S10" s="274"/>
-      <c r="T10" s="274"/>
-      <c r="U10" s="274"/>
-      <c r="V10" s="274"/>
-      <c r="W10" s="274"/>
+      <c r="R10" s="281"/>
+      <c r="S10" s="281"/>
+      <c r="T10" s="281"/>
+      <c r="U10" s="281"/>
+      <c r="V10" s="281"/>
+      <c r="W10" s="281"/>
       <c r="X10" s="146"/>
       <c r="AA10" s="146"/>
     </row>
@@ -31656,19 +32143,19 @@
       <c r="O3" s="134" t="s">
         <v>83</v>
       </c>
-      <c r="Q3" s="274" t="s">
+      <c r="Q3" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="R3" s="274"/>
-      <c r="S3" s="274"/>
-      <c r="U3" s="274" t="s">
+      <c r="R3" s="281"/>
+      <c r="S3" s="281"/>
+      <c r="U3" s="281" t="s">
         <v>99</v>
       </c>
-      <c r="V3" s="274"/>
-      <c r="W3" s="274"/>
-      <c r="X3" s="274"/>
-      <c r="Y3" s="274"/>
-      <c r="Z3" s="274"/>
+      <c r="V3" s="281"/>
+      <c r="W3" s="281"/>
+      <c r="X3" s="281"/>
+      <c r="Y3" s="281"/>
+      <c r="Z3" s="281"/>
     </row>
     <row r="4" spans="2:27" hidden="1">
       <c r="B4" s="129" t="s">
@@ -32029,23 +32516,23 @@
     <row r="10" spans="2:27">
       <c r="E10" s="134"/>
       <c r="F10" s="134"/>
-      <c r="J10" s="274" t="s">
+      <c r="J10" s="281" t="s">
         <v>289</v>
       </c>
-      <c r="K10" s="274"/>
-      <c r="N10" s="274" t="s">
+      <c r="K10" s="281"/>
+      <c r="N10" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="O10" s="274"/>
-      <c r="Q10" s="274" t="s">
+      <c r="O10" s="281"/>
+      <c r="Q10" s="281" t="s">
         <v>99</v>
       </c>
-      <c r="R10" s="274"/>
-      <c r="S10" s="274"/>
-      <c r="T10" s="274"/>
-      <c r="U10" s="274"/>
-      <c r="V10" s="274"/>
-      <c r="W10" s="274"/>
+      <c r="R10" s="281"/>
+      <c r="S10" s="281"/>
+      <c r="T10" s="281"/>
+      <c r="U10" s="281"/>
+      <c r="V10" s="281"/>
+      <c r="W10" s="281"/>
       <c r="X10" s="134"/>
       <c r="AA10" s="134"/>
     </row>
@@ -32875,23 +33362,23 @@
     <row r="4" spans="2:27">
       <c r="E4" s="146"/>
       <c r="F4" s="146"/>
-      <c r="J4" s="274" t="s">
+      <c r="J4" s="281" t="s">
         <v>289</v>
       </c>
-      <c r="K4" s="274"/>
-      <c r="N4" s="274" t="s">
+      <c r="K4" s="281"/>
+      <c r="N4" s="281" t="s">
         <v>78</v>
       </c>
-      <c r="O4" s="274"/>
-      <c r="Q4" s="274" t="s">
+      <c r="O4" s="281"/>
+      <c r="Q4" s="281" t="s">
         <v>99</v>
       </c>
-      <c r="R4" s="274"/>
-      <c r="S4" s="274"/>
-      <c r="T4" s="274"/>
-      <c r="U4" s="274"/>
-      <c r="V4" s="274"/>
-      <c r="W4" s="274"/>
+      <c r="R4" s="281"/>
+      <c r="S4" s="281"/>
+      <c r="T4" s="281"/>
+      <c r="U4" s="281"/>
+      <c r="V4" s="281"/>
+      <c r="W4" s="281"/>
       <c r="X4" s="146"/>
       <c r="AA4" s="146"/>
     </row>
@@ -33696,20 +34183,20 @@
       <c r="Q3" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="S3" s="272" t="s">
+      <c r="S3" s="279" t="s">
         <v>78</v>
       </c>
-      <c r="T3" s="272"/>
-      <c r="U3" s="275"/>
-      <c r="W3" s="272" t="s">
+      <c r="T3" s="279"/>
+      <c r="U3" s="282"/>
+      <c r="W3" s="279" t="s">
         <v>99</v>
       </c>
-      <c r="X3" s="272"/>
-      <c r="Y3" s="272"/>
-      <c r="Z3" s="272"/>
-      <c r="AA3" s="272"/>
-      <c r="AB3" s="272"/>
-      <c r="AC3" s="272"/>
+      <c r="X3" s="279"/>
+      <c r="Y3" s="279"/>
+      <c r="Z3" s="279"/>
+      <c r="AA3" s="279"/>
+      <c r="AB3" s="279"/>
+      <c r="AC3" s="279"/>
     </row>
     <row r="4" spans="2:29" s="15" customFormat="1">
       <c r="B4" s="15" t="s">

--- a/simulation_plans_results.xlsx
+++ b/simulation_plans_results.xlsx
@@ -1,3 +1,3428 @@
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2403" uniqueCount="583">
+  <si>
+    <t>Study</t>
+  </si>
+  <si>
+    <t>Ensemble</t>
+  </si>
+  <si>
+    <t>Length (ns)</t>
+  </si>
+  <si>
+    <t>Property</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
+    <t>Equilibrium properties</t>
+  </si>
+  <si>
+    <t>NPT</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>gmx energy</t>
+  </si>
+  <si>
+    <t>Diffusion coeff.</t>
+  </si>
+  <si>
+    <t>gmx msd</t>
+  </si>
+  <si>
+    <t>NVT-interface</t>
+  </si>
+  <si>
+    <t>Surface tension</t>
+  </si>
+  <si>
+    <t>Water interface tension</t>
+  </si>
+  <si>
+    <t>Viscosity</t>
+  </si>
+  <si>
+    <t>Melting point (hysteresis method)</t>
+  </si>
+  <si>
+    <t>Temperature (°C)</t>
+  </si>
+  <si>
+    <t>References</t>
+  </si>
+  <si>
+    <t>Self diffusion coefficient</t>
+  </si>
+  <si>
+    <t>Melting temperature</t>
+  </si>
+  <si>
+    <t>ρ</t>
+  </si>
+  <si>
+    <t>η</t>
+  </si>
+  <si>
+    <t>γ</t>
+  </si>
+  <si>
+    <t>D</t>
+  </si>
+  <si>
+    <t>Tmelt (K)</t>
+  </si>
+  <si>
+    <t>Tmelt (°C)</t>
+  </si>
+  <si>
+    <t>C5</t>
+  </si>
+  <si>
+    <t>[5]</t>
+  </si>
+  <si>
+    <t>[3]</t>
+  </si>
+  <si>
+    <t>C6</t>
+  </si>
+  <si>
+    <t>[4]</t>
+  </si>
+  <si>
+    <t>C7</t>
+  </si>
+  <si>
+    <t>C8</t>
+  </si>
+  <si>
+    <t>[1]</t>
+  </si>
+  <si>
+    <t>C9</t>
+  </si>
+  <si>
+    <t>C10</t>
+  </si>
+  <si>
+    <t>C11</t>
+  </si>
+  <si>
+    <t>C12</t>
+  </si>
+  <si>
+    <t>C13</t>
+  </si>
+  <si>
+    <t>C14</t>
+  </si>
+  <si>
+    <t>C15</t>
+  </si>
+  <si>
+    <t>C16</t>
+  </si>
+  <si>
+    <t>CRC</t>
+  </si>
+  <si>
+    <t>Old layout:</t>
+  </si>
+  <si>
+    <t>mPa.s</t>
+  </si>
+  <si>
+    <t>mN/m</t>
+  </si>
+  <si>
+    <t>1E-9m2/s</t>
+  </si>
+  <si>
+    <t>10C</t>
+  </si>
+  <si>
+    <r>
+      <t>T</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="subscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>melt</t>
+    </r>
+  </si>
+  <si>
+    <t>Tm</t>
+  </si>
+  <si>
+    <t>15C</t>
+  </si>
+  <si>
+    <t>20C</t>
+  </si>
+  <si>
+    <t>25C</t>
+  </si>
+  <si>
+    <t>30C</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Tofts, P. S., et al. "Test liquids for quantitative MRI measurements of self‐diffusion coefficient in vivo." Magnetic Resonance in Medicine: An Official Journal of the International Society for Magnetic Resonance in Medicine 43.3 (2000): 368-374.</t>
+  </si>
+  <si>
+    <t>Jasper, Joseph J., E. Robert Kerr, and Frederick Gregorich. "The Orthobaric Surface Tensions and Thermodynamic Properties of the Liquid Surfaces of the n—Alkanes, C5 to C28." Journal of the American Chemical Society 75.21 (1953): 5252-5254.</t>
+  </si>
+  <si>
+    <t>Jasper, Joseph J. "The surface tension of pure liquid compounds." Journal of physical and chemical reference data 1.4 (1972): 841-1010.</t>
+  </si>
+  <si>
+    <t>Dymond, J. H., and H. A. O/ye. "Viscosity of selected liquid n‐alkanes." Journal of physical and chemical reference data 23.1 (1994): 41-53.</t>
+  </si>
+  <si>
+    <t>Ramos-Estrada, Mariana, Gustavo A. Iglesias-Silva, and Kenneth R. Hall. "Experimental measurements and prediction of liquid densities for n-alkane mixtures." The Journal of Chemical Thermodynamics 38.3 (2006): 337-347.</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>Multiplier</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>kg/m3</t>
+  </si>
+  <si>
+    <t>kg/mol</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>nm3</t>
+  </si>
+  <si>
+    <t>Buffer/Tol</t>
+  </si>
+  <si>
+    <t>nm</t>
+  </si>
+  <si>
+    <t>Angstom</t>
+  </si>
+  <si>
+    <t>Cos-acceleration viscosity (NEMD)</t>
+  </si>
+  <si>
+    <t>Has to average pressure tensor, which fluctuates a lot</t>
+  </si>
+  <si>
+    <t>Characteristic time scale L^2/ν, velocity profile has to equilibrate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not used before, </t>
+  </si>
+  <si>
+    <t>Folder</t>
+  </si>
+  <si>
+    <t>Annealing schedule</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC16_measure_properties</t>
+  </si>
+  <si>
+    <t>T (K)</t>
+  </si>
+  <si>
+    <t>P (bar)</t>
+  </si>
+  <si>
+    <t>t (ns)</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>steps</t>
+  </si>
+  <si>
+    <t>Δt (fs)</t>
+  </si>
+  <si>
+    <t>Variable</t>
+  </si>
+  <si>
+    <t>cos-acc</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC16_anneal_340-240-340K_100ns_x2</t>
+  </si>
+  <si>
+    <t>n-alkane</t>
+  </si>
+  <si>
+    <t>Cycles</t>
+  </si>
+  <si>
+    <t>340-240-340</t>
+  </si>
+  <si>
+    <t>0-50-100</t>
+  </si>
+  <si>
+    <t>Temps (K)</t>
+  </si>
+  <si>
+    <t>Times (ns)</t>
+  </si>
+  <si>
+    <t>Density, Diffusion</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC15_measure_properties</t>
+  </si>
+  <si>
+    <t>Density, diffusion</t>
+  </si>
+  <si>
+    <t>NVT</t>
+  </si>
+  <si>
+    <t>Results</t>
+  </si>
+  <si>
+    <t>Prop.</t>
+  </si>
+  <si>
+    <t>Value</t>
+  </si>
+  <si>
+    <t>t range</t>
+  </si>
+  <si>
+    <t>0,10</t>
+  </si>
+  <si>
+    <t>6,10</t>
+  </si>
+  <si>
+    <t>4,10</t>
+  </si>
+  <si>
+    <t>T cycle (large range)</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC15_anneal_340-240-340K_100ns_x2</t>
+  </si>
+  <si>
+    <t>-mol; Std. Dev. = 0.3693 Error = 0.0115</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC8_measure_properties</t>
+  </si>
+  <si>
+    <t>Compound</t>
+  </si>
+  <si>
+    <t>Experimental values</t>
+  </si>
+  <si>
+    <t>η (mPs)</t>
+  </si>
+  <si>
+    <t>ρ (kg/m3)</t>
+  </si>
+  <si>
+    <t>max shear</t>
+  </si>
+  <si>
+    <t>(ps-1)</t>
+  </si>
+  <si>
+    <t>Lz (nm)</t>
+  </si>
+  <si>
+    <t>4ns</t>
+  </si>
+  <si>
+    <t>10ns</t>
+  </si>
+  <si>
+    <t>Viscosity (from MD)</t>
+  </si>
+  <si>
+    <t>x10 nst energy</t>
+  </si>
+  <si>
+    <t>τ_R (ps)</t>
+  </si>
+  <si>
+    <t>L_packmol</t>
+  </si>
+  <si>
+    <t>8ns @ a=0.01</t>
+  </si>
+  <si>
+    <t>Var run time NPT</t>
+  </si>
+  <si>
+    <t>Var run time NVT</t>
+  </si>
+  <si>
+    <t>Coulomb</t>
+  </si>
+  <si>
+    <t>RF0</t>
+  </si>
+  <si>
+    <t>PME</t>
+  </si>
+  <si>
+    <t>rlist</t>
+  </si>
+  <si>
+    <t>rcoulomb</t>
+  </si>
+  <si>
+    <t>rvdw</t>
+  </si>
+  <si>
+    <t>COMPASS_PME-vs-RF0_1024xC16_298K_1bar_tests</t>
+  </si>
+  <si>
+    <t>1,5</t>
+  </si>
+  <si>
+    <t>CG = charge groups</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2346 Std. Dev. = 0.1910 Error = 0.0060</t>
+  </si>
+  <si>
+    <t>RF0, CGs</t>
+  </si>
+  <si>
+    <t>PME, CGs</t>
+  </si>
+  <si>
+    <t>ns/day</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2481 Std. Dev. = 0.2071 Error = 0.0065</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2143 Std. Dev. = 0.1602 Error = 0.0050</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2478 Std. Dev. = 0.1982 Error = 0.0062</t>
+  </si>
+  <si>
+    <t>Good balance of accuracy and speed</t>
+  </si>
+  <si>
+    <t>Param set.</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3342 Std. Dev. = 0.2569 Error = 0.0080</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3256 Std. Dev. = 0.2601 Error = 0.0081</t>
+  </si>
+  <si>
+    <t>FlexWilliams4_1024xC16_298K_1bar_tests</t>
+  </si>
+  <si>
+    <t>FlexWilliams7_1024xC16_298K_1bar_tests</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2950 Std. Dev. = 0.2232 Error = 0.0070</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3029 Std. Dev. = 0.2292 Error = 0.0072</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3124 Std. Dev. = 0.2604 Error = 0.0081</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.3137 Std. Dev. = 0.2464 Error = 0.0077</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2665 Std. Dev. = 0.1961 Error = 0.0061</t>
+  </si>
+  <si>
+    <t>GPU-101_CHARMM36-CTL_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1437 Std. Dev. = 0.1162 Error = 0.0036</t>
+  </si>
+  <si>
+    <t>Annealing</t>
+  </si>
+  <si>
+    <t>7T</t>
+  </si>
+  <si>
+    <t>FlexWilliams7T_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>FlexWilliams7T_1024xC16_298K_1bar_tests</t>
+  </si>
+  <si>
+    <t>T = tabulated</t>
+  </si>
+  <si>
+    <t>Unbuffered 1.0nm</t>
+  </si>
+  <si>
+    <t>Buffered 1.05-1.0nm</t>
+  </si>
+  <si>
+    <t>0.001 nm table spacing</t>
+  </si>
+  <si>
+    <t>Correct sims below this line</t>
+  </si>
+  <si>
+    <t>25 interp</t>
+  </si>
+  <si>
+    <t>Mixed phase evolution</t>
+  </si>
+  <si>
+    <t>TraPPE</t>
+  </si>
+  <si>
+    <t>PYS</t>
+  </si>
+  <si>
+    <t>CHARMM36</t>
+  </si>
+  <si>
+    <t>L-OPLS</t>
+  </si>
+  <si>
+    <t>Flex-Williams</t>
+  </si>
+  <si>
+    <t>Properties (NPT +  NVT interface)</t>
+  </si>
+  <si>
+    <t>Key</t>
+  </si>
+  <si>
+    <t>Input files prepared</t>
+  </si>
+  <si>
+    <t>Not started</t>
+  </si>
+  <si>
+    <t>Results checked</t>
+  </si>
+  <si>
+    <t>COMPASS</t>
+  </si>
+  <si>
+    <t>Force field notes</t>
+  </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>COMPASS 9-6</t>
+  </si>
+  <si>
+    <t>Trying to simplify COMPASS for Gromacs is probably a bad idea,</t>
+  </si>
+  <si>
+    <t>better to use the 9-6 non-bonded potential with a standard harmonic+dihedral bonding potential.</t>
+  </si>
+  <si>
+    <t>Outstanding problems</t>
+  </si>
+  <si>
+    <t>FlexWilliams</t>
+  </si>
+  <si>
+    <t>Simulation notes</t>
+  </si>
+  <si>
+    <t>Should test parameter versions 4 and 7.</t>
+  </si>
+  <si>
+    <t>Also test with and without C-H bond constraints.</t>
+  </si>
+  <si>
+    <t>After correcting bonding parameters, C16 now freezes at 298K so can't measure properties.</t>
+  </si>
+  <si>
+    <t>Possible solutions</t>
+  </si>
+  <si>
+    <t>Box volume fluctuates wildly - maybe a resonance effect.</t>
+  </si>
+  <si>
+    <t>Try changing time constant of pressure couping. Check FF parameters.</t>
+  </si>
+  <si>
+    <t>SS</t>
+  </si>
+  <si>
+    <t>EB</t>
+  </si>
+  <si>
+    <t>Try alternative bonding potential - needs to be dihedral potential without 1-4 interactions</t>
+  </si>
+  <si>
+    <t>Choice of time step</t>
+  </si>
+  <si>
+    <t>If we decide to fix C-H bonds (probable), then 1fs time step may be unnecessary</t>
+  </si>
+  <si>
+    <t>Stick with 1fs for the main all-atom sims, but do some with 2fs as tests or for longer runs when needed</t>
+  </si>
+  <si>
+    <t>▪ V4 Lincs version (C-H length fixed) seems better - avoids inaccuracies due to fast C-H vibration frequency? Still crystalizes at 298K given enough time.</t>
+  </si>
+  <si>
+    <t>▪ OPLS-UA torsion (as used by TraPPE) can be used if 1-5 CH and 1-6 HH interactions excluded (Chen, J. Phys. Chem. B 1998, 102, 2578)</t>
+  </si>
+  <si>
+    <t>Slow performance when using Buckingham potential instead of tabulated version</t>
+  </si>
+  <si>
+    <t>Flex Williams</t>
+  </si>
+  <si>
+    <t>Unclear which bonding potential to use</t>
+  </si>
+  <si>
+    <t>Just compare the simplified COMPASS to a generic alternative like OPLS</t>
+  </si>
+  <si>
+    <t>Production simulation ran</t>
+  </si>
+  <si>
+    <t>Testing ongoing</t>
+  </si>
+  <si>
+    <t>4T</t>
+  </si>
+  <si>
+    <t>FlexWilliams4TL_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Das (2003)</t>
+  </si>
+  <si>
+    <t>FlexWilliams7TL_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>OPLS-UA</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1786 Std. Dev. = 0.1535 Error = 0.0048</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1877 Std. Dev. = 0.1574 Error = 0.0049</t>
+  </si>
+  <si>
+    <t>Torsion</t>
+  </si>
+  <si>
+    <t>Bond/angle</t>
+  </si>
+  <si>
+    <t>Smith</t>
+  </si>
+  <si>
+    <t>OPLS</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Try Lincs version, </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>untabulated version</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>, or shorter cutoffs (Williams used &lt;0.7 nm)</t>
+    </r>
+  </si>
+  <si>
+    <t>FlexWilliams4TL-OPLS_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>FlexWilliams7TL-OPLS_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1779 Std. Dev. = 0.1373 Error = 0.0043</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1812 Std. Dev. = 0.1503 Error = 0.0047</t>
+  </si>
+  <si>
+    <t>FlexWilliams4L-OPLS_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.1834 Std. Dev. = 0.1476 Error = 0.0046</t>
+  </si>
+  <si>
+    <t>Try optimizing geometry using H-C-H angle of 106 degrees to get consistent C-C-C and C-C-H angles</t>
+  </si>
+  <si>
+    <t>Try shorter cutoff, shift potential in table file and zero after cutoff</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2048 Std. Dev. = 0.1764 Error = 0.0055</t>
+  </si>
+  <si>
+    <t>FlexWilliams4L-OPLS_rc0.8_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>FlexWilliams7L-rescaled_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>FlexWilliams4L-OPLS_rc0.6_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Δε</t>
+  </si>
+  <si>
+    <t>Simulation</t>
+  </si>
+  <si>
+    <t>Phase 1</t>
+  </si>
+  <si>
+    <t>Sun 9-6</t>
+  </si>
+  <si>
+    <t>~COMPASS</t>
+  </si>
+  <si>
+    <t>SUM</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>D+FSC</t>
+  </si>
+  <si>
+    <t>ξ</t>
+  </si>
+  <si>
+    <t>Wu, Jianging, Abdulghanni H. Nhaesi, and Abdul-Fattah A. Asfour. "Viscosities of eight binary liquid n-alkane systems at 293.15 K and 298.15 K." Journal of Chemical &amp; Engineering Data 44.5 (1999): 990-993.</t>
+  </si>
+  <si>
+    <t>[6]</t>
+  </si>
+  <si>
+    <t>Aucejo, Antonio, et al. "Densities, viscosities, and refractive indices of some n-alkane binary liquid systems at 298.15 K." Journal of Chemical and Engineering Data 40.1 (1995): 141-147.</t>
+  </si>
+  <si>
+    <t>[7]</t>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/s</t>
+    </r>
+  </si>
+  <si>
+    <t>m Pas</t>
+  </si>
+  <si>
+    <t>Mol</t>
+  </si>
+  <si>
+    <t>TOT SUM</t>
+  </si>
+  <si>
+    <r>
+      <t>kg/m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>3</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>10</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>-9</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>m</t>
+    </r>
+    <r>
+      <rPr>
+        <vertAlign val="superscript"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>/s</t>
+    </r>
+  </si>
+  <si>
+    <t>Moore, James W., and Robert M. Wellek. "Diffusion coefficients of n-heptane and n-decane in n-alkanes and n-alcohols at several temperatures." Journal of Chemical and Engineering data 19.2 (1974): 136-140.</t>
+  </si>
+  <si>
+    <t>[8]</t>
+  </si>
+  <si>
+    <t>Harris, Kenneth R. "Temperature and density dependence of the self-diffusion coefficient of n-hexane from 223 to 333 K and up to 400 MPa." Journal of the Chemical Society, Faraday Transactions 1: Physical Chemistry in Condensed Phases 78.7 (1982): 2265-2274.</t>
+  </si>
+  <si>
+    <t>[9]</t>
+  </si>
+  <si>
+    <t>22 SGSTE</t>
+  </si>
+  <si>
+    <t>22 SGSE</t>
+  </si>
+  <si>
+    <t>Rata, D. G., et al. "Self-diffusion measurements by a mobile single-sided NMR sensor with improved magnetic field gradient." Journal of Magnetic Resonance 180.2 (2006): 229-235.</t>
+  </si>
+  <si>
+    <t>[10]</t>
+  </si>
+  <si>
+    <t>Daridon, Jean-Luc, Hervé Carrier, and Bernard Lagourette. "Pressure dependence of the thermophysical properties of n-pentadecane and n-heptadecane." International Journal of Thermophysics 23.3 (2002): 697-708.</t>
+  </si>
+  <si>
+    <t>Refs (copy MLA citation from Google scholar)</t>
+  </si>
+  <si>
+    <t>C15 density</t>
+  </si>
+  <si>
+    <t>[11]</t>
+  </si>
+  <si>
+    <t>Flex-Williams 7T</t>
+  </si>
+  <si>
+    <t>Williams 2019</t>
+  </si>
+  <si>
+    <t>Optimized</t>
+  </si>
+  <si>
+    <t>Ref</t>
+  </si>
+  <si>
+    <t>FlexWilliams4TL-UA-torsion_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>ORIG</t>
+  </si>
+  <si>
+    <t>Expected due to poorly optimized Buckingham kernels</t>
+  </si>
+  <si>
+    <t>n-octane</t>
+  </si>
+  <si>
+    <t>CCC</t>
+  </si>
+  <si>
+    <t>CCH</t>
+  </si>
+  <si>
+    <t>Angle</t>
+  </si>
+  <si>
+    <t>B3LYP, aug-cc-pvtz</t>
+  </si>
+  <si>
+    <t>Experimental data:</t>
+  </si>
+  <si>
+    <t>OPLS+DFT</t>
+  </si>
+  <si>
+    <t>&lt;D&gt; = 0.2262 Std. Dev. = 0.1870 Error = 0.0058</t>
+  </si>
+  <si>
+    <t>FlexWilliams7TL_DF2003_2019ffb_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>1,4</t>
+  </si>
+  <si>
+    <t>CHARM22</t>
+  </si>
+  <si>
+    <t>AVERAGE</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annealing (1024 mol, 100ns, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 50K)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annealing (2048 mol, 100ns, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 50K)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Annealing (512 mol, 100ns, </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>± 50K)</t>
+    </r>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Multi-phase evolution</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Liquid properties</t>
+  </si>
+  <si>
+    <t>Repeats</t>
+  </si>
+  <si>
+    <t>Sim (ns)</t>
+  </si>
+  <si>
+    <t>Eq. (ns)</t>
+  </si>
+  <si>
+    <t>Simulation time</t>
+  </si>
+  <si>
+    <t>Sim steps</t>
+  </si>
+  <si>
+    <t>PYS-W_512xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Annealing x512</t>
+  </si>
+  <si>
+    <t>Annealing x1024</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC15_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>0-4</t>
+  </si>
+  <si>
+    <t>Valid solid phase seen</t>
+  </si>
+  <si>
+    <t>T+</t>
+  </si>
+  <si>
+    <t>T-</t>
+  </si>
+  <si>
+    <t>Valid, but only frozen in second half</t>
+  </si>
+  <si>
+    <t>Finished</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>330-230-330</t>
+  </si>
+  <si>
+    <t>Geometry optimization for phase 2:</t>
+  </si>
+  <si>
+    <t>PYS-W_512xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>PYS-W_2048xC8_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>PYS-W_2048xC8_anneal_260-160-260K_100ns</t>
+  </si>
+  <si>
+    <t>Annealing x2048</t>
+  </si>
+  <si>
+    <t>260-160-260</t>
+  </si>
+  <si>
+    <t>Freezes but doesn't melt</t>
+  </si>
+  <si>
+    <t>270-170-270</t>
+  </si>
+  <si>
+    <t>PYS-W_2048xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>X</t>
+  </si>
+  <si>
+    <t>TraPPE_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>0.5-4</t>
+  </si>
+  <si>
+    <t>0.5-4x3</t>
+  </si>
+  <si>
+    <t>Avg</t>
+  </si>
+  <si>
+    <t>TraPPE_1024xC15_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>TraPPE_2048xC8_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>0-4x5</t>
+  </si>
+  <si>
+    <t>5x4 (20)</t>
+  </si>
+  <si>
+    <t>Melting point (density/dihedral evolution method)</t>
+  </si>
+  <si>
+    <t>Melting of perfect crystal (C16 only)</t>
+  </si>
+  <si>
+    <t>Pressure-induced phase change (C16 only)</t>
+  </si>
+  <si>
+    <t>6*20-40</t>
+  </si>
+  <si>
+    <t>Melting point</t>
+  </si>
+  <si>
+    <t>PT behaviour</t>
+  </si>
+  <si>
+    <t>Melting point, crystal-rotator transitions</t>
+  </si>
+  <si>
+    <t>Uncertainties</t>
+  </si>
+  <si>
+    <t>T_m</t>
+  </si>
+  <si>
+    <t>UA models known to overestimate D (see L-OPLS paper, Siu (2012))</t>
+  </si>
+  <si>
+    <t>PYS-W_1024xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>PYS-W_2048xC8_anneal_280-180-280K_100ns</t>
+  </si>
+  <si>
+    <t>280-180-280</t>
+  </si>
+  <si>
+    <t>Freezes but doesn't melt (strange)</t>
+  </si>
+  <si>
+    <t>TraPPE_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Sun9-6_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Freezes but doesn't melt - interesting traj.</t>
+  </si>
+  <si>
+    <t>On hold</t>
+  </si>
+  <si>
+    <t>Running 745581</t>
+  </si>
+  <si>
+    <t>TraPPE_1024xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>Valid, may not be totally frozen</t>
+  </si>
+  <si>
+    <t>TraPPE_2048xC8_anneal_260-160-260K_100ns</t>
+  </si>
+  <si>
+    <t>TraPPE_2048xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>Running 745623</t>
+  </si>
+  <si>
+    <t>Valid</t>
+  </si>
+  <si>
+    <t>Sun9-6_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Deciding best approach re cutoffs</t>
+  </si>
+  <si>
+    <t>Sun9-6_1024xC15_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Sun9-6_1024xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>Sun9-6_512xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Running 748981</t>
+  </si>
+  <si>
+    <t>Sun9-6_2048xC8_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Sun9-6_512xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>Sun9-6_2048xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>Sun9-6_1024xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>Williams2019_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Williams2019_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Williams2019_512xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Williams2019_1024xC15_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Williams2019_1024xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>Williams2019_512xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>Williams2019_2048xC8_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Williams2019_2048xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>Williams2019_1024xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>Stoyan (submitted)</t>
+  </si>
+  <si>
+    <t>L-OPLS_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>L-OPLS_512xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>L-OPLS_1024xC15_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>L-OPLS_512xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>L-OPLS_2048xC8_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>L-OPLS_1024xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>GPU-102_CHARMM36-CTL_1024xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>GPU-103_CHARMM36-CTL_2048xC8_anneal_260-160-260K_100ns</t>
+  </si>
+  <si>
+    <t>Not valid</t>
+  </si>
+  <si>
+    <t>CHARMM36-CTL_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>CHARMM36-CTL_1024xC15_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Force field as recorded in Das, Frenkel 2003</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Harmonic CCCC</t>
+  </si>
+  <si>
+    <t>Running 760509</t>
+  </si>
+  <si>
+    <t>Running 759506</t>
+  </si>
+  <si>
+    <t>CHARMM36-CTL_2048xC8_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Forcefield with update ffbonded and rescale non-bonded</t>
+  </si>
+  <si>
+    <t>ax</t>
+  </si>
+  <si>
+    <t>by</t>
+  </si>
+  <si>
+    <t>cz</t>
+  </si>
+  <si>
+    <t>ay</t>
+  </si>
+  <si>
+    <t>az</t>
+  </si>
+  <si>
+    <t>bx</t>
+  </si>
+  <si>
+    <t>bz</t>
+  </si>
+  <si>
+    <t>cx</t>
+  </si>
+  <si>
+    <t>cy</t>
+  </si>
+  <si>
+    <t>Gromacs skew criteria</t>
+  </si>
+  <si>
+    <t>Supercell copies</t>
+  </si>
+  <si>
+    <t>na</t>
+  </si>
+  <si>
+    <t>nb</t>
+  </si>
+  <si>
+    <t>nc</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Cell meeting skew criteria, and ax </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>≈ by ≈ cz</t>
+    </r>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>x4</t>
+  </si>
+  <si>
+    <t>ax &gt; 2*bx</t>
+  </si>
+  <si>
+    <t>ax &gt; 2*cx</t>
+  </si>
+  <si>
+    <t>by &gt; 2*cy</t>
+  </si>
+  <si>
+    <t>Alternatives</t>
+  </si>
+  <si>
+    <t>GPU-104_CHARMM36-CTL_2048xC8_anneal_220-160-220K_100ns</t>
+  </si>
+  <si>
+    <t>220-160-220</t>
+  </si>
+  <si>
+    <t>Some phase change seen, not fully</t>
+  </si>
+  <si>
+    <t>GPU-113_CHARMM36-CTL_1024xC8_anneal_260-160-260K_100ns</t>
+  </si>
+  <si>
+    <t>GPU-111_CHARMM36-CTL_512xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Running eq 763337</t>
+  </si>
+  <si>
+    <t>Running eq 763921</t>
+  </si>
+  <si>
+    <t>Partial phase change seen</t>
+  </si>
+  <si>
+    <t>CCDC</t>
+  </si>
+  <si>
+    <t>a</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>c</t>
+  </si>
+  <si>
+    <t>α</t>
+  </si>
+  <si>
+    <t>β</t>
+  </si>
+  <si>
+    <t>Triclinic</t>
+  </si>
+  <si>
+    <t>Orthorhombic</t>
+  </si>
+  <si>
+    <t>GPU-112_CHARMM36-CTL_512xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>P-1</t>
+  </si>
+  <si>
+    <t>Space group</t>
+  </si>
+  <si>
+    <t>QQQFBP01</t>
+  </si>
+  <si>
+    <t>QQQFBD</t>
+  </si>
+  <si>
+    <t>C16 Triclinic unit cell</t>
+  </si>
+  <si>
+    <t>QQQFBA</t>
+  </si>
+  <si>
+    <t>Pbcm</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>Craig, J. MATER. CHEM., 1994, 4(6), 977-981</t>
+  </si>
+  <si>
+    <t>Submitted to Ivan</t>
+  </si>
+  <si>
+    <t>GPU-001_L-OPLS_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>GPU-002_L-OPLS_1024xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>GPU-003_L-OPLS_2048xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t>Pbcm ?</t>
+  </si>
+  <si>
+    <t>C15 orthorhombic unit cell</t>
+  </si>
+  <si>
+    <t>Measured unit cells</t>
+  </si>
+  <si>
+    <t>T_r</t>
+  </si>
+  <si>
+    <t>Experimental</t>
+  </si>
+  <si>
+    <t>C16:</t>
+  </si>
+  <si>
+    <t>C15:</t>
+  </si>
+  <si>
+    <t>ρ_s</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Sun9-6</t>
+  </si>
+  <si>
+    <t>Williams 4</t>
+  </si>
+  <si>
+    <t>Williams 7</t>
+  </si>
+  <si>
+    <t>Crystal annealing</t>
+  </si>
+  <si>
+    <t>Williams 7TL*</t>
+  </si>
+  <si>
+    <t>Williams 7TL *R</t>
+  </si>
+  <si>
+    <t>L = lincs</t>
+  </si>
+  <si>
+    <t>Williams7TL_DF2003_2019ffb_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>With updated ffbonded - no longer freezes at 298K</t>
+  </si>
+  <si>
+    <t>CC33A/CC32A, HCA3A/HCA2A</t>
+  </si>
+  <si>
+    <t>CTL3/CTL2, HAL3/HAL2</t>
+  </si>
+  <si>
+    <t>CG331/CG321, HGA3/HGA2</t>
+  </si>
+  <si>
+    <t>CHARMM36_1024xC16_298K_1bar_tests, lipid</t>
+  </si>
+  <si>
+    <t>recommended alkane (merged.rtp)</t>
+  </si>
+  <si>
+    <t>Running 829661</t>
+  </si>
+  <si>
+    <t>0-2x5</t>
+  </si>
+  <si>
+    <t>Phase 2 (updated ffbonded), rlist = 1.05, rvdw = 1.0</t>
+  </si>
+  <si>
+    <t>Δρ2</t>
+  </si>
+  <si>
+    <t>AVG</t>
+  </si>
+  <si>
+    <t>rescale</t>
+  </si>
+  <si>
+    <t>Sum</t>
+  </si>
+  <si>
+    <t>x</t>
+  </si>
+  <si>
+    <t>ΔD2</t>
+  </si>
+  <si>
+    <t>Running cooling 830240</t>
+  </si>
+  <si>
+    <t>Running cooling 830486</t>
+  </si>
+  <si>
+    <t>Rotator?</t>
+  </si>
+  <si>
+    <t>Crystal?</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>T_m -</t>
+  </si>
+  <si>
+    <t>T_m +</t>
+  </si>
+  <si>
+    <t>0-10-20</t>
+  </si>
+  <si>
+    <t>job ID</t>
+  </si>
+  <si>
+    <t>Cores</t>
+  </si>
+  <si>
+    <t>nmols</t>
+  </si>
+  <si>
+    <t>Expect ns/day</t>
+  </si>
+  <si>
+    <t>Stoyan</t>
+  </si>
+  <si>
+    <t>L-OPLS (tau-p test)</t>
+  </si>
+  <si>
+    <t>0-2 x 8</t>
+  </si>
+  <si>
+    <t>tau-p</t>
+  </si>
+  <si>
+    <t>dt</t>
+  </si>
+  <si>
+    <t>L_Z RMSD</t>
+  </si>
+  <si>
+    <t>Gradual transition from crystal to mixed/monoclinic</t>
+  </si>
+  <si>
+    <t>Testing if tau-p = 4 reduces box fluctuations - it does</t>
+  </si>
+  <si>
+    <t>Wait to see effect of tau-p = 4 for Williams</t>
+  </si>
+  <si>
+    <t>Trying to reduce L_Z RMSD - successful</t>
+  </si>
+  <si>
+    <t>tau-p = 1ps and 2ps seemed to be totally unstable</t>
+  </si>
+  <si>
+    <t>Williams7TL_1024xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Williams7TL_512xC16_anneal_340-240-340K_100ns</t>
+  </si>
+  <si>
+    <t>Williams7TL_1024xC15_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Williams7TL_1024xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>Williams7TL_512xC15_anneal_330-230-330K_100ns</t>
+  </si>
+  <si>
+    <t>Williams7TL_2048xC8_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Williams7TL_2048xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>Williams7TL_2048xC8_anneal_260-160-260K_100ns</t>
+  </si>
+  <si>
+    <t>Williams7TL_1024xC8_anneal_270-170-270K_100ns</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Running cooling 860756</t>
+  </si>
+  <si>
+    <t>Sun9-6_1024xC15_anneal_335-235-335K_100ns</t>
+  </si>
+  <si>
+    <t>335-235-335</t>
+  </si>
+  <si>
+    <t>Running heating 873366</t>
+  </si>
+  <si>
+    <t>Strange behaviour (lack of thermal motion in 2nd half)</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <r>
+      <t>cos(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>α)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cos(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>β)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>cos(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>γ)</t>
+    </r>
+  </si>
+  <si>
+    <t>M [g/mol]</t>
+  </si>
+  <si>
+    <t>Navo</t>
+  </si>
+  <si>
+    <t>"</t>
+  </si>
+  <si>
+    <t>1B</t>
+  </si>
+  <si>
+    <t>Berendsen</t>
+  </si>
+  <si>
+    <t>Nose-Hoover</t>
+  </si>
+  <si>
+    <t>mdp notes</t>
+  </si>
+  <si>
+    <t>Ens.</t>
+  </si>
+  <si>
+    <t>340-240-240-340</t>
+  </si>
+  <si>
+    <t>0-50-100-150</t>
+  </si>
+  <si>
+    <t>GPU-004_L-OPLS_1024xC16_anneal_340-240hold-340K_tau-p-4_100ns</t>
+  </si>
+  <si>
+    <t>FullAniso</t>
+  </si>
+  <si>
+    <t>4ns of Berendsen NPT before NVT</t>
+  </si>
+  <si>
+    <t>270 fixed</t>
+  </si>
+  <si>
+    <t>283 fixed</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>Melted</t>
+  </si>
+  <si>
+    <t>Decreased</t>
+  </si>
+  <si>
+    <t>Increased</t>
+  </si>
+  <si>
+    <t>U</t>
+  </si>
+  <si>
+    <t>Underdermined (barely changed)</t>
+  </si>
+  <si>
+    <t>Froze</t>
+  </si>
+  <si>
+    <t>1.2nm cut</t>
+  </si>
+  <si>
+    <t>FF</t>
+  </si>
+  <si>
+    <t>Molecule</t>
+  </si>
+  <si>
+    <t>Use</t>
+  </si>
+  <si>
+    <t>Crystal sims</t>
+  </si>
+  <si>
+    <t>Interface sims</t>
+  </si>
+  <si>
+    <t>Williams OPT-0.011</t>
+  </si>
+  <si>
+    <t>Higher temperature</t>
+  </si>
+  <si>
+    <t>0-20</t>
+  </si>
+  <si>
+    <t>Melting 2K/ns</t>
+  </si>
+  <si>
+    <t>Mixed</t>
+  </si>
+  <si>
+    <t>Interface</t>
+  </si>
+  <si>
+    <t>Nucleus</t>
+  </si>
+  <si>
+    <t>Williams7</t>
+  </si>
+  <si>
+    <t>WilliamsOPT</t>
+  </si>
+  <si>
+    <t>Eq. 955765</t>
+  </si>
+  <si>
+    <t>???</t>
+  </si>
+  <si>
+    <t>NP6T</t>
+  </si>
+  <si>
+    <t>NP3T</t>
+  </si>
+  <si>
+    <t>Aniso pcouple</t>
+  </si>
+  <si>
+    <t>CHARMM36_24s8x16x4xC16_interface_2xEps_eq</t>
+  </si>
+  <si>
+    <t>CHARMM36_24s8x16x3xC16_interface_2xEps_eq</t>
+  </si>
+  <si>
+    <t>1000 frames</t>
+  </si>
+  <si>
+    <t>Const. temp.</t>
+  </si>
+  <si>
+    <t>Eq. 964661, 313K 965131</t>
+  </si>
+  <si>
+    <t>Time eq</t>
+  </si>
+  <si>
+    <t>Cell tilts dramatically, crashes. Berendsen NP6T stable. Testing tau-p 965922</t>
+  </si>
+  <si>
+    <t>No need to do full annealing cycle - just verify 90 degree at reasonable temp</t>
+  </si>
+  <si>
+    <t>19 ns/day @ 72 cores</t>
+  </si>
+  <si>
+    <t>Performance</t>
+  </si>
+  <si>
+    <t>Edo</t>
+  </si>
+  <si>
+    <t>Higher temp eq 967909</t>
+  </si>
+  <si>
+    <t>Times</t>
+  </si>
+  <si>
+    <t>Aniso x6 Pcouple</t>
+  </si>
+  <si>
+    <t>Anneal</t>
+  </si>
+  <si>
+    <t>Mono-rotated</t>
+  </si>
+  <si>
+    <t>Williams7TL_TTK1995_2019ffb_1024xC16_properties_298K_1bar</t>
+  </si>
+  <si>
+    <t>Running 968721</t>
+  </si>
+  <si>
+    <t>B-torsion</t>
+  </si>
+  <si>
+    <t>TTK1995</t>
+  </si>
+  <si>
+    <t>5x0-4</t>
+  </si>
+  <si>
+    <t>±</t>
+  </si>
+  <si>
+    <t>+ FSC</t>
+  </si>
+  <si>
+    <t>from annealing</t>
+  </si>
+  <si>
+    <t>90900ps</t>
+  </si>
+  <si>
+    <t>PYS_1024xC16_mixedphase_90900ps-start_NVTeq_iter-0</t>
+  </si>
+</sst>
+</file>
+
+<file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="6">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+    <numFmt numFmtId="165" formatCode="0.0000"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="0.00000"/>
+    <numFmt numFmtId="168" formatCode="0.000000"/>
+    <numFmt numFmtId="169" formatCode="0.000E+00"/>
+  </numFmts>
+  <fonts count="38">
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="subscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF808080"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1" tint="0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0" tint="-0.34998626667073579"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <vertAlign val="superscript"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="4" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="9" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="0" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+  </fonts>
+  <fills count="4">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1" tint="0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+  </fills>
+  <borders count="13">
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+  </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
+  <cellXfs count="341">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="23" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="13" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="16" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="25" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="25" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="29" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="28" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="28" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="30" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="30" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="14" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="26" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="31" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="166" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="24" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="18" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="36" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+  </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="3">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
+</styleSheet>
+</file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
@@ -7569,4 +10994,5793 @@
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Slipstream">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="212745"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="B4DCFA"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4E67C8"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="5ECCF3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A7EA52"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="5DCEAF"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="FF8021"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F14124"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="56C7AA"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="59A8D1"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCFF03F4-0D0E-4240-A36F-5BB31F518425}">
+  <dimension ref="B2:E61"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P33" sqref="P33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.625" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="2" max="2" width="10.625" style="179"/>
+    <col min="3" max="3" width="12.375" style="183" customWidth="1"/>
+    <col min="4" max="4" width="15.625" style="183" customWidth="1"/>
+    <col min="5" max="5" width="10.625" style="18"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:5" s="56" customFormat="1">
+      <c r="B2" s="15"/>
+      <c r="C2" s="184" t="s">
+        <v>380</v>
+      </c>
+      <c r="D2" s="184" t="s">
+        <v>381</v>
+      </c>
+      <c r="E2" s="19"/>
+    </row>
+    <row r="3" spans="2:5">
+      <c r="B3" s="179">
+        <v>0</v>
+      </c>
+      <c r="C3" s="183">
+        <v>19.351900000000001</v>
+      </c>
+      <c r="D3" s="183">
+        <v>5.1878200000000004E-9</v>
+      </c>
+      <c r="E3" s="27">
+        <f t="shared" ref="E3:E21" si="0">C3-D3-C$21</f>
+        <v>18.065689994812178</v>
+      </c>
+    </row>
+    <row r="4" spans="2:5">
+      <c r="B4" s="179">
+        <v>10</v>
+      </c>
+      <c r="C4" s="183">
+        <v>18.228200000000001</v>
+      </c>
+      <c r="D4" s="183">
+        <v>7.6773200000000003E-4</v>
+      </c>
+      <c r="E4" s="27">
+        <f t="shared" si="0"/>
+        <v>16.941222268000001</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5">
+      <c r="B5" s="179">
+        <v>20</v>
+      </c>
+      <c r="C5" s="183">
+        <v>15.342499999999999</v>
+      </c>
+      <c r="D5" s="183">
+        <v>1.9854199999999999E-3</v>
+      </c>
+      <c r="E5" s="27">
+        <f t="shared" si="0"/>
+        <v>14.054304579999998</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5">
+      <c r="B6" s="179">
+        <v>30</v>
+      </c>
+      <c r="C6" s="183">
+        <v>11.7247</v>
+      </c>
+      <c r="D6" s="183">
+        <v>2.3831899999999999E-3</v>
+      </c>
+      <c r="E6" s="27">
+        <f t="shared" si="0"/>
+        <v>10.43610681</v>
+      </c>
+    </row>
+    <row r="7" spans="2:5">
+      <c r="B7" s="179">
+        <v>40</v>
+      </c>
+      <c r="C7" s="183">
+        <v>8.2703600000000002</v>
+      </c>
+      <c r="D7" s="183">
+        <v>1.9995E-3</v>
+      </c>
+      <c r="E7" s="27">
+        <f t="shared" si="0"/>
+        <v>6.9821504999999995</v>
+      </c>
+    </row>
+    <row r="8" spans="2:5">
+      <c r="B8" s="179">
+        <v>50</v>
+      </c>
+      <c r="C8" s="183">
+        <v>5.4973599999999996</v>
+      </c>
+      <c r="D8" s="183">
+        <v>1.2630499999999999E-3</v>
+      </c>
+      <c r="E8" s="27">
+        <f t="shared" si="0"/>
+        <v>4.2098869499999996</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5">
+      <c r="B9" s="179">
+        <v>60</v>
+      </c>
+      <c r="C9" s="183">
+        <v>3.7089599999999998</v>
+      </c>
+      <c r="D9" s="183">
+        <v>4.8211599999999999E-4</v>
+      </c>
+      <c r="E9" s="27">
+        <f t="shared" si="0"/>
+        <v>2.4222678839999996</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5">
+      <c r="B10" s="179">
+        <v>70</v>
+      </c>
+      <c r="C10" s="183">
+        <v>3.1956099999999998</v>
+      </c>
+      <c r="D10" s="183">
+        <v>1.0392500000000001E-4</v>
+      </c>
+      <c r="E10" s="27">
+        <f t="shared" si="0"/>
+        <v>1.9092960749999999</v>
+      </c>
+    </row>
+    <row r="11" spans="2:5">
+      <c r="B11" s="179">
+        <v>80</v>
+      </c>
+      <c r="C11" s="183">
+        <v>4.1715900000000001</v>
+      </c>
+      <c r="D11" s="183">
+        <v>5.0139100000000001E-4</v>
+      </c>
+      <c r="E11" s="27">
+        <f t="shared" si="0"/>
+        <v>2.8848786089999998</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="179">
+        <v>90</v>
+      </c>
+      <c r="C12" s="183">
+        <v>6.4642499999999998</v>
+      </c>
+      <c r="D12" s="183">
+        <v>1.2386999999999999E-3</v>
+      </c>
+      <c r="E12" s="27">
+        <f t="shared" si="0"/>
+        <v>5.1768012999999993</v>
+      </c>
+    </row>
+    <row r="13" spans="2:5">
+      <c r="B13" s="179">
+        <v>100</v>
+      </c>
+      <c r="C13" s="183">
+        <v>9.3593100000000007</v>
+      </c>
+      <c r="D13" s="183">
+        <v>1.3458000000000001E-3</v>
+      </c>
+      <c r="E13" s="27">
+        <f t="shared" si="0"/>
+        <v>8.0717542000000009</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="179">
+        <v>110</v>
+      </c>
+      <c r="C14" s="183">
+        <v>11.8248</v>
+      </c>
+      <c r="D14" s="183">
+        <v>5.9504600000000001E-4</v>
+      </c>
+      <c r="E14" s="27">
+        <f t="shared" si="0"/>
+        <v>10.537994953999998</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="179">
+        <v>120</v>
+      </c>
+      <c r="C15" s="183">
+        <v>12.906000000000001</v>
+      </c>
+      <c r="D15" s="183">
+        <v>5.5970699999999998E-6</v>
+      </c>
+      <c r="E15" s="27">
+        <f t="shared" si="0"/>
+        <v>11.61978440293</v>
+      </c>
+    </row>
+    <row r="16" spans="2:5">
+      <c r="B16" s="179">
+        <v>130</v>
+      </c>
+      <c r="C16" s="183">
+        <v>12.1631</v>
+      </c>
+      <c r="D16" s="183">
+        <v>4.2647200000000001E-4</v>
+      </c>
+      <c r="E16" s="27">
+        <f t="shared" si="0"/>
+        <v>10.876463528</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5">
+      <c r="B17" s="179">
+        <v>140</v>
+      </c>
+      <c r="C17" s="183">
+        <v>9.8968699999999998</v>
+      </c>
+      <c r="D17" s="183">
+        <v>1.27278E-3</v>
+      </c>
+      <c r="E17" s="27">
+        <f t="shared" si="0"/>
+        <v>8.6093872199999986</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5">
+      <c r="B18" s="179">
+        <v>150</v>
+      </c>
+      <c r="C18" s="183">
+        <v>6.8963200000000002</v>
+      </c>
+      <c r="D18" s="183">
+        <v>1.54448E-3</v>
+      </c>
+      <c r="E18" s="27">
+        <f t="shared" si="0"/>
+        <v>5.6085655200000009</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5">
+      <c r="B19" s="179">
+        <v>160</v>
+      </c>
+      <c r="C19" s="183">
+        <v>4.0312200000000002</v>
+      </c>
+      <c r="D19" s="183">
+        <v>1.0608200000000001E-3</v>
+      </c>
+      <c r="E19" s="27">
+        <f t="shared" si="0"/>
+        <v>2.74394918</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5">
+      <c r="B20" s="179">
+        <v>170</v>
+      </c>
+      <c r="C20" s="183">
+        <v>2.0109400000000002</v>
+      </c>
+      <c r="D20" s="183">
+        <v>3.3508099999999999E-4</v>
+      </c>
+      <c r="E20" s="27">
+        <f t="shared" si="0"/>
+        <v>0.7243949190000003</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5">
+      <c r="B21" s="179">
+        <v>180</v>
+      </c>
+      <c r="C21" s="183">
+        <v>1.2862100000000001</v>
+      </c>
+      <c r="D21" s="183">
+        <v>4.6980800000000004E-10</v>
+      </c>
+      <c r="E21" s="27">
+        <f t="shared" si="0"/>
+        <v>-4.6980797030471422E-10</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5">
+      <c r="B24" s="179">
+        <v>0</v>
+      </c>
+      <c r="C24" s="183">
+        <v>19.351900000000001</v>
+      </c>
+      <c r="D24" s="183">
+        <v>5.2364699999999998E-9</v>
+      </c>
+      <c r="E24" s="27">
+        <f>C24-D24-C$60</f>
+        <v>18.065679994763531</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5">
+      <c r="B25" s="179">
+        <v>5</v>
+      </c>
+      <c r="C25" s="183">
+        <v>19.0623</v>
+      </c>
+      <c r="D25" s="183">
+        <v>2.15164E-4</v>
+      </c>
+      <c r="E25" s="27">
+        <f t="shared" ref="E25:E60" si="1">C25-D25-C$60</f>
+        <v>17.775864836</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5">
+      <c r="B26" s="179">
+        <v>10</v>
+      </c>
+      <c r="C26" s="183">
+        <v>18.228200000000001</v>
+      </c>
+      <c r="D26" s="183">
+        <v>7.6795499999999996E-4</v>
+      </c>
+      <c r="E26" s="27">
+        <f t="shared" si="1"/>
+        <v>16.941212045</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5">
+      <c r="B27" s="179">
+        <v>15</v>
+      </c>
+      <c r="C27" s="183">
+        <v>16.944800000000001</v>
+      </c>
+      <c r="D27" s="183">
+        <v>1.4314799999999999E-3</v>
+      </c>
+      <c r="E27" s="27">
+        <f t="shared" si="1"/>
+        <v>15.65714852</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5">
+      <c r="B28" s="179">
+        <v>20</v>
+      </c>
+      <c r="C28" s="183">
+        <v>15.342499999999999</v>
+      </c>
+      <c r="D28" s="183">
+        <v>1.98482E-3</v>
+      </c>
+      <c r="E28" s="27">
+        <f t="shared" si="1"/>
+        <v>14.054295179999999</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5">
+      <c r="B29" s="179">
+        <v>25</v>
+      </c>
+      <c r="C29" s="183">
+        <v>13.5604</v>
+      </c>
+      <c r="D29" s="183">
+        <v>2.3084999999999998E-3</v>
+      </c>
+      <c r="E29" s="27">
+        <f t="shared" si="1"/>
+        <v>12.2718715</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5">
+      <c r="B30" s="179">
+        <v>30</v>
+      </c>
+      <c r="C30" s="183">
+        <v>11.7247</v>
+      </c>
+      <c r="D30" s="183">
+        <v>2.38404E-3</v>
+      </c>
+      <c r="E30" s="27">
+        <f t="shared" si="1"/>
+        <v>10.436095959999999</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5">
+      <c r="B31" s="179">
+        <v>35</v>
+      </c>
+      <c r="C31" s="183">
+        <v>9.9366099999999999</v>
+      </c>
+      <c r="D31" s="183">
+        <v>2.26078E-3</v>
+      </c>
+      <c r="E31" s="27">
+        <f t="shared" si="1"/>
+        <v>8.6481292199999995</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5">
+      <c r="B32" s="179">
+        <v>40</v>
+      </c>
+      <c r="C32" s="183">
+        <v>8.2703600000000002</v>
+      </c>
+      <c r="D32" s="183">
+        <v>2.0018599999999998E-3</v>
+      </c>
+      <c r="E32" s="27">
+        <f t="shared" si="1"/>
+        <v>6.98213814</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5">
+      <c r="B33" s="179">
+        <v>45</v>
+      </c>
+      <c r="C33" s="183">
+        <v>6.7778400000000003</v>
+      </c>
+      <c r="D33" s="183">
+        <v>1.6577300000000001E-3</v>
+      </c>
+      <c r="E33" s="27">
+        <f t="shared" si="1"/>
+        <v>5.4899622700000004</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5">
+      <c r="B34" s="179">
+        <v>50</v>
+      </c>
+      <c r="C34" s="183">
+        <v>5.4973599999999996</v>
+      </c>
+      <c r="D34" s="183">
+        <v>1.2629900000000001E-3</v>
+      </c>
+      <c r="E34" s="27">
+        <f t="shared" si="1"/>
+        <v>4.2098770099999996</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="179">
+        <v>55</v>
+      </c>
+      <c r="C35" s="183">
+        <v>4.4626200000000003</v>
+      </c>
+      <c r="D35" s="183">
+        <v>8.5509599999999996E-4</v>
+      </c>
+      <c r="E35" s="27">
+        <f t="shared" si="1"/>
+        <v>3.1755449039999997</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5">
+      <c r="B36" s="179">
+        <v>60</v>
+      </c>
+      <c r="C36" s="183">
+        <v>3.7089599999999998</v>
+      </c>
+      <c r="D36" s="183">
+        <v>4.8199199999999999E-4</v>
+      </c>
+      <c r="E36" s="27">
+        <f t="shared" si="1"/>
+        <v>2.422258008</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5">
+      <c r="B37" s="179">
+        <v>65</v>
+      </c>
+      <c r="C37" s="183">
+        <v>3.2745899999999999</v>
+      </c>
+      <c r="D37" s="183">
+        <v>2.0925100000000001E-4</v>
+      </c>
+      <c r="E37" s="27">
+        <f t="shared" si="1"/>
+        <v>1.9881607490000002</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5">
+      <c r="B38" s="179">
+        <v>70</v>
+      </c>
+      <c r="C38" s="183">
+        <v>3.1956099999999998</v>
+      </c>
+      <c r="D38" s="183">
+        <v>1.0379599999999999E-4</v>
+      </c>
+      <c r="E38" s="27">
+        <f t="shared" si="1"/>
+        <v>1.909286204</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5">
+      <c r="B39" s="179">
+        <v>75</v>
+      </c>
+      <c r="C39" s="183">
+        <v>3.4953799999999999</v>
+      </c>
+      <c r="D39" s="183">
+        <v>2.0722700000000001E-4</v>
+      </c>
+      <c r="E39" s="27">
+        <f t="shared" si="1"/>
+        <v>2.208952773</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5">
+      <c r="B40" s="179">
+        <v>80</v>
+      </c>
+      <c r="C40" s="183">
+        <v>4.1715999999999998</v>
+      </c>
+      <c r="D40" s="183">
+        <v>5.0274399999999996E-4</v>
+      </c>
+      <c r="E40" s="27">
+        <f t="shared" si="1"/>
+        <v>2.8848772559999993</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5">
+      <c r="B41" s="179">
+        <v>85</v>
+      </c>
+      <c r="C41" s="183">
+        <v>5.18642</v>
+      </c>
+      <c r="D41" s="183">
+        <v>8.9616000000000001E-4</v>
+      </c>
+      <c r="E41" s="27">
+        <f t="shared" si="1"/>
+        <v>3.89930384</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="B42" s="179">
+        <v>90</v>
+      </c>
+      <c r="C42" s="183">
+        <v>6.4642600000000003</v>
+      </c>
+      <c r="D42" s="183">
+        <v>1.24814E-3</v>
+      </c>
+      <c r="E42" s="27">
+        <f t="shared" si="1"/>
+        <v>5.1767918599999998</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5">
+      <c r="B43" s="179">
+        <v>95</v>
+      </c>
+      <c r="C43" s="183">
+        <v>7.89785</v>
+      </c>
+      <c r="D43" s="183">
+        <v>1.4139300000000001E-3</v>
+      </c>
+      <c r="E43" s="27">
+        <f t="shared" si="1"/>
+        <v>6.6102160699999999</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5">
+      <c r="B44" s="179">
+        <v>100</v>
+      </c>
+      <c r="C44" s="183">
+        <v>9.3592999999999993</v>
+      </c>
+      <c r="D44" s="183">
+        <v>1.34914E-3</v>
+      </c>
+      <c r="E44" s="27">
+        <f t="shared" si="1"/>
+        <v>8.0717308599999988</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5">
+      <c r="B45" s="179">
+        <v>105</v>
+      </c>
+      <c r="C45" s="183">
+        <v>10.712300000000001</v>
+      </c>
+      <c r="D45" s="183">
+        <v>1.0297399999999999E-3</v>
+      </c>
+      <c r="E45" s="27">
+        <f t="shared" si="1"/>
+        <v>9.4250502600000008</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5">
+      <c r="B46" s="179">
+        <v>110</v>
+      </c>
+      <c r="C46" s="183">
+        <v>11.8248</v>
+      </c>
+      <c r="D46" s="183">
+        <v>5.9785999999999997E-4</v>
+      </c>
+      <c r="E46" s="27">
+        <f t="shared" si="1"/>
+        <v>10.53798214</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5">
+      <c r="B47" s="179">
+        <v>115</v>
+      </c>
+      <c r="C47" s="183">
+        <v>12.582800000000001</v>
+      </c>
+      <c r="D47" s="183">
+        <v>1.9972499999999999E-4</v>
+      </c>
+      <c r="E47" s="27">
+        <f t="shared" si="1"/>
+        <v>11.296380275000001</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5">
+      <c r="B48" s="179">
+        <v>120</v>
+      </c>
+      <c r="C48" s="183">
+        <v>12.906000000000001</v>
+      </c>
+      <c r="D48" s="183">
+        <v>5.6466999999999997E-6</v>
+      </c>
+      <c r="E48" s="27">
+        <f t="shared" si="1"/>
+        <v>11.6197743533</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5">
+      <c r="B49" s="179">
+        <v>125</v>
+      </c>
+      <c r="C49" s="183">
+        <v>12.760300000000001</v>
+      </c>
+      <c r="D49" s="183">
+        <v>9.3731000000000001E-5</v>
+      </c>
+      <c r="E49" s="27">
+        <f t="shared" si="1"/>
+        <v>11.473986269000001</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5">
+      <c r="B50" s="179">
+        <v>130</v>
+      </c>
+      <c r="C50" s="183">
+        <v>12.1631</v>
+      </c>
+      <c r="D50" s="183">
+        <v>4.2578199999999998E-4</v>
+      </c>
+      <c r="E50" s="27">
+        <f t="shared" si="1"/>
+        <v>10.876454217999999</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5">
+      <c r="B51" s="179">
+        <v>135</v>
+      </c>
+      <c r="C51" s="183">
+        <v>11.177300000000001</v>
+      </c>
+      <c r="D51" s="183">
+        <v>8.6617499999999995E-4</v>
+      </c>
+      <c r="E51" s="27">
+        <f t="shared" si="1"/>
+        <v>9.890213825</v>
+      </c>
+    </row>
+    <row r="52" spans="2:5">
+      <c r="B52" s="179">
+        <v>140</v>
+      </c>
+      <c r="C52" s="183">
+        <v>9.8968699999999998</v>
+      </c>
+      <c r="D52" s="183">
+        <v>1.2724800000000001E-3</v>
+      </c>
+      <c r="E52" s="27">
+        <f t="shared" si="1"/>
+        <v>8.6093775199999989</v>
+      </c>
+    </row>
+    <row r="53" spans="2:5">
+      <c r="B53" s="179">
+        <v>145</v>
+      </c>
+      <c r="C53" s="183">
+        <v>8.4321300000000008</v>
+      </c>
+      <c r="D53" s="183">
+        <v>1.5136100000000001E-3</v>
+      </c>
+      <c r="E53" s="27">
+        <f t="shared" si="1"/>
+        <v>7.1443963900000007</v>
+      </c>
+    </row>
+    <row r="54" spans="2:5">
+      <c r="B54" s="179">
+        <v>150</v>
+      </c>
+      <c r="C54" s="183">
+        <v>6.8963200000000002</v>
+      </c>
+      <c r="D54" s="183">
+        <v>1.5525199999999999E-3</v>
+      </c>
+      <c r="E54" s="27">
+        <f t="shared" si="1"/>
+        <v>5.6085474800000004</v>
+      </c>
+    </row>
+    <row r="55" spans="2:5">
+      <c r="B55" s="179">
+        <v>155</v>
+      </c>
+      <c r="C55" s="183">
+        <v>5.3971600000000004</v>
+      </c>
+      <c r="D55" s="183">
+        <v>1.3734400000000001E-3</v>
+      </c>
+      <c r="E55" s="27">
+        <f t="shared" si="1"/>
+        <v>4.1095665600000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:5">
+      <c r="B56" s="179">
+        <v>160</v>
+      </c>
+      <c r="C56" s="183">
+        <v>4.0312299999999999</v>
+      </c>
+      <c r="D56" s="183">
+        <v>1.0658899999999999E-3</v>
+      </c>
+      <c r="E56" s="27">
+        <f t="shared" si="1"/>
+        <v>2.7439441100000002</v>
+      </c>
+    </row>
+    <row r="57" spans="2:5">
+      <c r="B57" s="179">
+        <v>165</v>
+      </c>
+      <c r="C57" s="183">
+        <v>2.88062</v>
+      </c>
+      <c r="D57" s="183">
+        <v>6.8289999999999996E-4</v>
+      </c>
+      <c r="E57" s="27">
+        <f t="shared" si="1"/>
+        <v>1.5937170999999999</v>
+      </c>
+    </row>
+    <row r="58" spans="2:5">
+      <c r="B58" s="179">
+        <v>170</v>
+      </c>
+      <c r="C58" s="183">
+        <v>2.0109300000000001</v>
+      </c>
+      <c r="D58" s="183">
+        <v>3.3138999999999998E-4</v>
+      </c>
+      <c r="E58" s="27">
+        <f t="shared" si="1"/>
+        <v>0.72437861000000026</v>
+      </c>
+    </row>
+    <row r="59" spans="2:5">
+      <c r="B59" s="179">
+        <v>175</v>
+      </c>
+      <c r="C59" s="183">
+        <v>1.4698100000000001</v>
+      </c>
+      <c r="D59" s="183">
+        <v>8.7598500000000005E-5</v>
+      </c>
+      <c r="E59" s="27">
+        <f t="shared" si="1"/>
+        <v>0.18350240150000019</v>
+      </c>
+    </row>
+    <row r="60" spans="2:5">
+      <c r="B60" s="179">
+        <v>180</v>
+      </c>
+      <c r="C60" s="183">
+        <v>1.2862199999999999</v>
+      </c>
+      <c r="D60" s="183">
+        <v>5.9488799999999998E-9</v>
+      </c>
+      <c r="E60" s="27">
+        <f t="shared" si="1"/>
+        <v>-5.9488800552287557E-9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:5">
+      <c r="E61" s="27"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB14C90-9A0C-E346-B9BD-40AE56D235C4}">
+  <dimension ref="B1:BH45"/>
+  <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="AP7" sqref="AP7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="7.875" defaultRowHeight="15" customHeight="1"/>
+  <cols>
+    <col min="1" max="1" width="5" style="3" customWidth="1"/>
+    <col min="2" max="4" width="7.875" style="3"/>
+    <col min="5" max="5" width="7.875" style="6"/>
+    <col min="6" max="7" width="7.875" style="3"/>
+    <col min="8" max="12" width="4" style="8" customWidth="1"/>
+    <col min="13" max="13" width="5" style="3" customWidth="1"/>
+    <col min="14" max="19" width="7.875" style="3"/>
+    <col min="20" max="24" width="4" style="8" customWidth="1"/>
+    <col min="25" max="25" width="5" style="3" customWidth="1"/>
+    <col min="26" max="28" width="7.875" style="3"/>
+    <col min="29" max="29" width="7.875" style="6"/>
+    <col min="30" max="30" width="7.875" style="7"/>
+    <col min="31" max="31" width="7.875" style="3"/>
+    <col min="32" max="36" width="4" style="8" customWidth="1"/>
+    <col min="37" max="37" width="5" style="3" customWidth="1"/>
+    <col min="38" max="38" width="10.875" style="3" customWidth="1"/>
+    <col min="39" max="39" width="7.875" style="3"/>
+    <col min="40" max="40" width="7.875" style="10"/>
+    <col min="41" max="41" width="7.875" style="3"/>
+    <col min="42" max="42" width="7.875" style="7"/>
+    <col min="43" max="43" width="7.875" style="3"/>
+    <col min="44" max="48" width="4" style="8" customWidth="1"/>
+    <col min="49" max="49" width="5" style="3" customWidth="1"/>
+    <col min="50" max="50" width="7.875" style="3"/>
+    <col min="51" max="52" width="8.875" style="3" customWidth="1"/>
+    <col min="53" max="53" width="7.875" style="3"/>
+    <col min="54" max="54" width="7.875" style="7"/>
+    <col min="55" max="55" width="7.875" style="3"/>
+    <col min="56" max="60" width="3.625" style="8" customWidth="1"/>
+    <col min="61" max="16384" width="7.875" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:60" s="89" customFormat="1" ht="25.5" customHeight="1">
+      <c r="B1" s="89" t="s">
+        <v>8</v>
+      </c>
+      <c r="E1" s="90"/>
+      <c r="N1" s="89" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z1" s="89" t="s">
+        <v>13</v>
+      </c>
+      <c r="AC1" s="90"/>
+      <c r="AD1" s="91"/>
+      <c r="AL1" s="89" t="s">
+        <v>19</v>
+      </c>
+      <c r="AN1" s="92"/>
+      <c r="AP1" s="91"/>
+      <c r="BB1" s="91"/>
+    </row>
+    <row r="2" spans="2:60" s="82" customFormat="1" ht="18" customHeight="1">
+      <c r="B2" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="C2" s="335" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="334" t="s">
+        <v>18</v>
+      </c>
+      <c r="I2" s="334"/>
+      <c r="J2" s="334"/>
+      <c r="K2" s="334"/>
+      <c r="L2" s="334"/>
+      <c r="N2" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="O2" s="335" t="s">
+        <v>17</v>
+      </c>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335"/>
+      <c r="R2" s="335"/>
+      <c r="S2" s="335"/>
+      <c r="T2" s="72"/>
+      <c r="U2" s="72"/>
+      <c r="V2" s="72"/>
+      <c r="W2" s="72"/>
+      <c r="X2" s="72"/>
+      <c r="Z2" s="82" t="s">
+        <v>46</v>
+      </c>
+      <c r="AA2" s="335" t="s">
+        <v>17</v>
+      </c>
+      <c r="AB2" s="335"/>
+      <c r="AC2" s="335"/>
+      <c r="AD2" s="335"/>
+      <c r="AE2" s="335"/>
+      <c r="AF2" s="72"/>
+      <c r="AG2" s="72"/>
+      <c r="AH2" s="72"/>
+      <c r="AI2" s="72"/>
+      <c r="AJ2" s="72"/>
+      <c r="AL2" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM2" s="335" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN2" s="335"/>
+      <c r="AO2" s="335"/>
+      <c r="AP2" s="335"/>
+      <c r="AQ2" s="335"/>
+      <c r="AR2" s="72"/>
+      <c r="AS2" s="72"/>
+      <c r="AT2" s="72"/>
+      <c r="AU2" s="72"/>
+      <c r="AV2" s="72"/>
+      <c r="AY2" s="84" t="s">
+        <v>20</v>
+      </c>
+      <c r="AZ2" s="84"/>
+      <c r="BA2" s="85"/>
+      <c r="BB2" s="85"/>
+      <c r="BC2" s="85"/>
+      <c r="BD2" s="72"/>
+      <c r="BE2" s="72"/>
+      <c r="BF2" s="72"/>
+      <c r="BG2" s="72"/>
+      <c r="BH2" s="72"/>
+    </row>
+    <row r="3" spans="2:60" s="82" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" s="82">
+        <v>10</v>
+      </c>
+      <c r="D3" s="82">
+        <v>15</v>
+      </c>
+      <c r="E3" s="82">
+        <v>20</v>
+      </c>
+      <c r="F3" s="82">
+        <v>25</v>
+      </c>
+      <c r="G3" s="82">
+        <v>30</v>
+      </c>
+      <c r="H3" s="72">
+        <v>10</v>
+      </c>
+      <c r="I3" s="72">
+        <v>15</v>
+      </c>
+      <c r="J3" s="72">
+        <v>20</v>
+      </c>
+      <c r="K3" s="72">
+        <v>25</v>
+      </c>
+      <c r="L3" s="72">
+        <v>30</v>
+      </c>
+      <c r="N3" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="82">
+        <v>10</v>
+      </c>
+      <c r="P3" s="82">
+        <v>15</v>
+      </c>
+      <c r="Q3" s="82">
+        <v>20</v>
+      </c>
+      <c r="R3" s="82">
+        <v>25</v>
+      </c>
+      <c r="S3" s="82">
+        <v>30</v>
+      </c>
+      <c r="T3" s="72">
+        <v>10</v>
+      </c>
+      <c r="U3" s="72">
+        <v>15</v>
+      </c>
+      <c r="V3" s="72">
+        <v>20</v>
+      </c>
+      <c r="W3" s="72">
+        <v>25</v>
+      </c>
+      <c r="X3" s="72">
+        <v>30</v>
+      </c>
+      <c r="Z3" s="86" t="s">
+        <v>23</v>
+      </c>
+      <c r="AA3" s="82">
+        <v>10</v>
+      </c>
+      <c r="AB3" s="82">
+        <v>15</v>
+      </c>
+      <c r="AC3" s="82">
+        <v>20</v>
+      </c>
+      <c r="AD3" s="95" t="s">
+        <v>164</v>
+      </c>
+      <c r="AE3" s="82">
+        <v>30</v>
+      </c>
+      <c r="AF3" s="72">
+        <v>10</v>
+      </c>
+      <c r="AG3" s="72">
+        <v>15</v>
+      </c>
+      <c r="AH3" s="72">
+        <v>20</v>
+      </c>
+      <c r="AI3" s="72">
+        <v>25</v>
+      </c>
+      <c r="AJ3" s="72">
+        <v>30</v>
+      </c>
+      <c r="AL3" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM3" s="82">
+        <v>10</v>
+      </c>
+      <c r="AN3" s="82">
+        <v>15</v>
+      </c>
+      <c r="AO3" s="82">
+        <v>20</v>
+      </c>
+      <c r="AP3" s="82">
+        <v>25</v>
+      </c>
+      <c r="AQ3" s="82">
+        <v>30</v>
+      </c>
+      <c r="AR3" s="72">
+        <v>10</v>
+      </c>
+      <c r="AS3" s="72">
+        <v>15</v>
+      </c>
+      <c r="AT3" s="72">
+        <v>20</v>
+      </c>
+      <c r="AU3" s="72">
+        <v>25</v>
+      </c>
+      <c r="AV3" s="72">
+        <v>30</v>
+      </c>
+      <c r="AY3" s="82" t="s">
+        <v>25</v>
+      </c>
+      <c r="AZ3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="BA3" s="103" t="s">
+        <v>263</v>
+      </c>
+      <c r="BD3" s="72"/>
+      <c r="BE3" s="72"/>
+      <c r="BF3" s="72"/>
+      <c r="BG3" s="72"/>
+      <c r="BH3" s="72"/>
+    </row>
+    <row r="4" spans="2:60" ht="15" customHeight="1">
+      <c r="B4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="6"/>
+      <c r="D4" s="6">
+        <v>631.04</v>
+      </c>
+      <c r="E4" s="6">
+        <v>626.12</v>
+      </c>
+      <c r="F4" s="6">
+        <v>621.14</v>
+      </c>
+      <c r="G4" s="6">
+        <v>616.11</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="6"/>
+      <c r="R4" s="10"/>
+      <c r="Z4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AA4" s="6">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="AC4" s="6">
+        <v>16.05</v>
+      </c>
+      <c r="AD4" s="94">
+        <f>0.5*(AC4+AE4)</f>
+        <v>15.495000000000001</v>
+      </c>
+      <c r="AE4" s="3">
+        <v>14.94</v>
+      </c>
+      <c r="AF4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ4" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AX4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AY4" s="3">
+        <v>143.5</v>
+      </c>
+      <c r="AZ4" s="13">
+        <f t="shared" ref="AZ4:AZ15" si="0">AY4-273.15</f>
+        <v>-129.64999999999998</v>
+      </c>
+    </row>
+    <row r="5" spans="2:60" ht="15" customHeight="1">
+      <c r="B5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" s="6">
+        <v>668.37</v>
+      </c>
+      <c r="D5" s="6">
+        <v>663.91</v>
+      </c>
+      <c r="E5" s="6">
+        <v>659.42</v>
+      </c>
+      <c r="F5" s="6">
+        <v>654.89</v>
+      </c>
+      <c r="G5" s="6">
+        <v>650.33000000000004</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q5" s="6"/>
+      <c r="R5" s="10">
+        <v>0.2949</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AA5" s="6">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="AC5" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AD5" s="94">
+        <f t="shared" ref="AD5:AD15" si="1">0.5*(AC5+AE5)</f>
+        <v>17.89</v>
+      </c>
+      <c r="AE5" s="3">
+        <v>17.38</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM5" s="7"/>
+      <c r="AN5" s="7"/>
+      <c r="AO5" s="7"/>
+      <c r="AQ5" s="7"/>
+      <c r="AX5" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AY5" s="3">
+        <v>177.8</v>
+      </c>
+      <c r="AZ5" s="13">
+        <f t="shared" si="0"/>
+        <v>-95.349999999999966</v>
+      </c>
+    </row>
+    <row r="6" spans="2:60" ht="15" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C6" s="6">
+        <v>692.4</v>
+      </c>
+      <c r="D6" s="6">
+        <v>688.2</v>
+      </c>
+      <c r="E6" s="6">
+        <v>683.99</v>
+      </c>
+      <c r="F6" s="6">
+        <v>679.75</v>
+      </c>
+      <c r="G6" s="6">
+        <v>675.49</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="10">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="W6" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AA6" s="6">
+        <v>21.12</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>20.14</v>
+      </c>
+      <c r="AD6" s="94">
+        <f t="shared" si="1"/>
+        <v>19.655000000000001</v>
+      </c>
+      <c r="AE6" s="3">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="AF6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM6" s="7"/>
+      <c r="AN6" s="7"/>
+      <c r="AO6" s="7"/>
+      <c r="AQ6" s="7"/>
+      <c r="AX6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AY6" s="3">
+        <v>182.6</v>
+      </c>
+      <c r="AZ6" s="13">
+        <f t="shared" si="0"/>
+        <v>-90.549999999999983</v>
+      </c>
+    </row>
+    <row r="7" spans="2:60" ht="15" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="6"/>
+      <c r="D7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="N7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="10">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="W7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AA7" s="6">
+        <v>22.57</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>21.62</v>
+      </c>
+      <c r="AD7" s="94">
+        <f t="shared" si="1"/>
+        <v>21.145000000000003</v>
+      </c>
+      <c r="AE7" s="3">
+        <v>20.67</v>
+      </c>
+      <c r="AF7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM7" s="7"/>
+      <c r="AN7" s="7">
+        <v>1.988</v>
+      </c>
+      <c r="AO7" s="7">
+        <v>2.14</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>2.3559999999999999</v>
+      </c>
+      <c r="AQ7" s="7">
+        <v>2.633</v>
+      </c>
+      <c r="AS7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV7" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX7" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AY7" s="3">
+        <v>216.4</v>
+      </c>
+      <c r="AZ7" s="13">
+        <f t="shared" si="0"/>
+        <v>-56.749999999999972</v>
+      </c>
+    </row>
+    <row r="8" spans="2:60" ht="15" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C8" s="6"/>
+      <c r="D8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="N8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="10"/>
+      <c r="Z8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AA8" s="6">
+        <v>23.79</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>22.85</v>
+      </c>
+      <c r="AD8" s="94">
+        <f t="shared" si="1"/>
+        <v>22.385000000000002</v>
+      </c>
+      <c r="AE8" s="3">
+        <v>21.92</v>
+      </c>
+      <c r="AF8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM8" s="7"/>
+      <c r="AN8" s="7">
+        <v>1.5249999999999999</v>
+      </c>
+      <c r="AO8" s="7">
+        <v>1.6259999999999999</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>1.772</v>
+      </c>
+      <c r="AQ8" s="7">
+        <v>1.9610000000000001</v>
+      </c>
+      <c r="AS8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV8" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AY8" s="3">
+        <v>219.7</v>
+      </c>
+      <c r="AZ8" s="13">
+        <f t="shared" si="0"/>
+        <v>-53.449999999999989</v>
+      </c>
+    </row>
+    <row r="9" spans="2:60" ht="15" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" s="6"/>
+      <c r="D9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="N9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="10">
+        <v>0.8498</v>
+      </c>
+      <c r="W9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA9" s="6">
+        <v>24.75</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>23.83</v>
+      </c>
+      <c r="AD9" s="94">
+        <f t="shared" si="1"/>
+        <v>23.369999999999997</v>
+      </c>
+      <c r="AE9" s="3">
+        <v>22.91</v>
+      </c>
+      <c r="AF9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM9" s="7"/>
+      <c r="AN9" s="7">
+        <v>1.165</v>
+      </c>
+      <c r="AO9" s="7">
+        <v>1.268</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="AQ9" s="7">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="AS9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV9" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX9" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AY9" s="3">
+        <v>243.5</v>
+      </c>
+      <c r="AZ9" s="13">
+        <f t="shared" si="0"/>
+        <v>-29.649999999999977</v>
+      </c>
+    </row>
+    <row r="10" spans="2:60" ht="15" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C10" s="6"/>
+      <c r="D10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="N10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="10"/>
+      <c r="Z10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AA10" s="6">
+        <v>25.56</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>24.66</v>
+      </c>
+      <c r="AD10" s="94">
+        <f t="shared" si="1"/>
+        <v>24.21</v>
+      </c>
+      <c r="AE10" s="3">
+        <v>23.76</v>
+      </c>
+      <c r="AF10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM10" s="7"/>
+      <c r="AN10" s="7">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="AO10" s="7">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="AQ10" s="7">
+        <v>1.248</v>
+      </c>
+      <c r="AS10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV10" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AY10" s="3">
+        <v>247.6</v>
+      </c>
+      <c r="AZ10" s="13">
+        <f t="shared" si="0"/>
+        <v>-25.549999999999983</v>
+      </c>
+    </row>
+    <row r="11" spans="2:60" ht="15" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" s="6"/>
+      <c r="D11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="N11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="10">
+        <v>1.3585</v>
+      </c>
+      <c r="W11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA11" s="6">
+        <v>26.24</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>25.35</v>
+      </c>
+      <c r="AD11" s="94">
+        <f t="shared" si="1"/>
+        <v>24.91</v>
+      </c>
+      <c r="AE11" s="3">
+        <v>24.47</v>
+      </c>
+      <c r="AF11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM11" s="7"/>
+      <c r="AN11" s="7">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="AO11" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>0.871</v>
+      </c>
+      <c r="AQ11" s="7">
+        <v>0.996</v>
+      </c>
+      <c r="AS11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX11" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AY11" s="3">
+        <v>263.60000000000002</v>
+      </c>
+      <c r="AZ11" s="13">
+        <f t="shared" si="0"/>
+        <v>-9.5499999999999545</v>
+      </c>
+    </row>
+    <row r="12" spans="2:60" ht="15" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="6"/>
+      <c r="D12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="N12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q12" s="6"/>
+      <c r="R12" s="10"/>
+      <c r="Z12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AA12" s="6">
+        <v>26.86</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>25.99</v>
+      </c>
+      <c r="AD12" s="94">
+        <f t="shared" si="1"/>
+        <v>25.549999999999997</v>
+      </c>
+      <c r="AE12" s="3">
+        <v>25.11</v>
+      </c>
+      <c r="AF12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM12" s="7"/>
+      <c r="AN12" s="7">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="AO12" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AP12" s="7">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AQ12" s="7">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="AS12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX12" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AY12" s="3">
+        <v>267.8</v>
+      </c>
+      <c r="AZ12" s="13">
+        <f t="shared" si="0"/>
+        <v>-5.3499999999999659</v>
+      </c>
+    </row>
+    <row r="13" spans="2:60" ht="15" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C13" s="6"/>
+      <c r="D13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="N13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q13" s="6"/>
+      <c r="R13" s="10">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="W13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="Z13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AA13" s="6">
+        <v>27.43</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>26.56</v>
+      </c>
+      <c r="AD13" s="94">
+        <f t="shared" si="1"/>
+        <v>26.125</v>
+      </c>
+      <c r="AE13" s="3">
+        <v>25.69</v>
+      </c>
+      <c r="AF13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AH13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM13" s="7"/>
+      <c r="AN13" s="7">
+        <v>0.443</v>
+      </c>
+      <c r="AO13" s="7">
+        <v>0.495</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AQ13" s="7">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="AS13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX13" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AY13" s="3">
+        <v>279</v>
+      </c>
+      <c r="AZ13" s="13">
+        <f t="shared" si="0"/>
+        <v>5.8500000000000227</v>
+      </c>
+    </row>
+    <row r="14" spans="2:60" ht="15" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="6">
+        <v>768.45</v>
+      </c>
+      <c r="F14" s="96">
+        <f>(E14+G14)/2</f>
+        <v>764.96500000000003</v>
+      </c>
+      <c r="G14" s="6">
+        <v>761.48</v>
+      </c>
+      <c r="J14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="L14" s="8" t="s">
+        <v>259</v>
+      </c>
+      <c r="N14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q14" s="6"/>
+      <c r="Z14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>27.07</v>
+      </c>
+      <c r="AD14" s="94">
+        <f t="shared" si="1"/>
+        <v>26.64</v>
+      </c>
+      <c r="AE14" s="3">
+        <v>26.21</v>
+      </c>
+      <c r="AH14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM14" s="7"/>
+      <c r="AN14" s="7">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="AO14" s="7">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AP14" s="7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AQ14" s="7">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="AS14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AT14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX14" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AY14" s="3">
+        <v>283.10000000000002</v>
+      </c>
+      <c r="AZ14" s="13">
+        <f t="shared" si="0"/>
+        <v>9.9500000000000455</v>
+      </c>
+    </row>
+    <row r="15" spans="2:60" ht="15" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="N15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q15" s="6"/>
+      <c r="Z15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>27.47</v>
+      </c>
+      <c r="AD15" s="94">
+        <f t="shared" si="1"/>
+        <v>27.045000000000002</v>
+      </c>
+      <c r="AE15" s="3">
+        <v>26.62</v>
+      </c>
+      <c r="AH15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AL15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM15" s="7"/>
+      <c r="AN15" s="11"/>
+      <c r="AO15" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="AQ15" s="7">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="AT15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AU15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AX15" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AY15" s="3">
+        <v>291.10000000000002</v>
+      </c>
+      <c r="AZ15" s="13">
+        <f t="shared" si="0"/>
+        <v>17.950000000000045</v>
+      </c>
+    </row>
+    <row r="16" spans="2:60" ht="15" customHeight="1">
+      <c r="Q16" s="6"/>
+      <c r="AM16" s="7"/>
+      <c r="AN16" s="11"/>
+      <c r="AO16" s="7"/>
+      <c r="AQ16" s="7"/>
+    </row>
+    <row r="17" spans="2:60" ht="15" customHeight="1">
+      <c r="B17" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="C17" s="333" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17" s="333"/>
+      <c r="E17" s="333"/>
+      <c r="F17" s="333"/>
+      <c r="G17" s="333"/>
+      <c r="N17" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="333" t="s">
+        <v>17</v>
+      </c>
+      <c r="P17" s="333"/>
+      <c r="Q17" s="333"/>
+      <c r="R17" s="333"/>
+      <c r="S17" s="333"/>
+      <c r="AL17" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM17" s="335" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN17" s="335"/>
+      <c r="AO17" s="335"/>
+      <c r="AP17" s="335"/>
+      <c r="AQ17" s="335"/>
+      <c r="AR17" s="72"/>
+      <c r="AS17" s="72"/>
+      <c r="AT17" s="72"/>
+      <c r="AU17" s="72"/>
+      <c r="AV17" s="72"/>
+    </row>
+    <row r="18" spans="2:60" s="82" customFormat="1" ht="15" customHeight="1">
+      <c r="B18" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="82">
+        <v>10</v>
+      </c>
+      <c r="D18" s="82">
+        <v>15</v>
+      </c>
+      <c r="E18" s="82">
+        <v>20</v>
+      </c>
+      <c r="F18" s="82">
+        <v>25</v>
+      </c>
+      <c r="G18" s="82">
+        <v>30</v>
+      </c>
+      <c r="H18" s="72">
+        <v>10</v>
+      </c>
+      <c r="I18" s="72">
+        <v>15</v>
+      </c>
+      <c r="J18" s="72">
+        <v>20</v>
+      </c>
+      <c r="K18" s="72">
+        <v>25</v>
+      </c>
+      <c r="L18" s="72">
+        <v>30</v>
+      </c>
+      <c r="N18" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O18" s="82">
+        <v>10</v>
+      </c>
+      <c r="P18" s="82">
+        <v>15</v>
+      </c>
+      <c r="Q18" s="82">
+        <v>20</v>
+      </c>
+      <c r="R18" s="82">
+        <v>25</v>
+      </c>
+      <c r="S18" s="82">
+        <v>30</v>
+      </c>
+      <c r="T18" s="72">
+        <v>10</v>
+      </c>
+      <c r="U18" s="72">
+        <v>15</v>
+      </c>
+      <c r="V18" s="72">
+        <v>20</v>
+      </c>
+      <c r="W18" s="72">
+        <v>25</v>
+      </c>
+      <c r="X18" s="72">
+        <v>30</v>
+      </c>
+      <c r="AC18" s="86"/>
+      <c r="AD18" s="87"/>
+      <c r="AF18" s="72"/>
+      <c r="AG18" s="72"/>
+      <c r="AH18" s="72"/>
+      <c r="AI18" s="72"/>
+      <c r="AJ18" s="72"/>
+      <c r="AL18" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AM18" s="82">
+        <v>10</v>
+      </c>
+      <c r="AN18" s="82">
+        <v>15</v>
+      </c>
+      <c r="AO18" s="82">
+        <v>20</v>
+      </c>
+      <c r="AP18" s="82">
+        <v>25</v>
+      </c>
+      <c r="AQ18" s="82">
+        <v>30</v>
+      </c>
+      <c r="AR18" s="72">
+        <v>10</v>
+      </c>
+      <c r="AS18" s="72">
+        <v>15</v>
+      </c>
+      <c r="AT18" s="72">
+        <v>20</v>
+      </c>
+      <c r="AU18" s="72">
+        <v>25</v>
+      </c>
+      <c r="AV18" s="72">
+        <v>30</v>
+      </c>
+      <c r="BB18" s="87"/>
+      <c r="BD18" s="72"/>
+      <c r="BE18" s="72"/>
+      <c r="BF18" s="72"/>
+      <c r="BG18" s="72"/>
+      <c r="BH18" s="72"/>
+    </row>
+    <row r="19" spans="2:60" ht="15" customHeight="1">
+      <c r="B19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C19" s="6"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="6">
+        <v>626.20000000000005</v>
+      </c>
+      <c r="F19" s="6"/>
+      <c r="G19" s="6"/>
+      <c r="J19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="AL19" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM19" s="7"/>
+      <c r="AN19" s="7"/>
+      <c r="AO19" s="7"/>
+      <c r="AQ19" s="7"/>
+      <c r="AR19" s="72"/>
+      <c r="AS19" s="72"/>
+      <c r="AT19" s="72"/>
+      <c r="AU19" s="72"/>
+      <c r="AV19" s="72"/>
+    </row>
+    <row r="20" spans="2:60" ht="15" customHeight="1">
+      <c r="B20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="C20" s="6"/>
+      <c r="D20" s="6"/>
+      <c r="F20" s="6">
+        <v>660.6</v>
+      </c>
+      <c r="G20" s="6"/>
+      <c r="K20" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="AL20" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM20" s="7"/>
+      <c r="AN20" s="7"/>
+      <c r="AO20" s="7"/>
+      <c r="AP20" s="88">
+        <v>4.18</v>
+      </c>
+      <c r="AQ20" s="7"/>
+      <c r="AR20" s="72"/>
+      <c r="AS20" s="72"/>
+      <c r="AT20" s="72"/>
+      <c r="AU20" s="72" t="s">
+        <v>251</v>
+      </c>
+      <c r="AV20" s="72"/>
+    </row>
+    <row r="21" spans="2:60" ht="15" customHeight="1">
+      <c r="B21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="C21" s="6"/>
+      <c r="D21" s="6"/>
+      <c r="F21" s="6">
+        <v>679.5</v>
+      </c>
+      <c r="G21" s="6"/>
+      <c r="K21" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N21" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="AL21" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM21" s="7"/>
+      <c r="AN21" s="7"/>
+      <c r="AO21" s="7">
+        <v>3.1</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>3.12</v>
+      </c>
+      <c r="AQ21" s="7">
+        <v>3.22</v>
+      </c>
+      <c r="AR21" s="72"/>
+      <c r="AS21" s="72"/>
+      <c r="AT21" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU21" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV21" s="72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="22" spans="2:60" ht="15" customHeight="1">
+      <c r="B22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C22" s="6"/>
+      <c r="D22" s="6"/>
+      <c r="F22" s="6">
+        <v>698.6</v>
+      </c>
+      <c r="G22" s="6"/>
+      <c r="K22" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10">
+        <v>0.54330000000000001</v>
+      </c>
+      <c r="R22" s="10">
+        <v>0.51049999999999995</v>
+      </c>
+      <c r="S22" s="10"/>
+      <c r="V22" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="W22" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL22" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM22" s="7"/>
+      <c r="AN22" s="7"/>
+      <c r="AO22" s="7"/>
+      <c r="AQ22" s="7"/>
+      <c r="AR22" s="72"/>
+      <c r="AS22" s="72"/>
+      <c r="AT22" s="72"/>
+      <c r="AU22" s="72"/>
+      <c r="AV22" s="72"/>
+    </row>
+    <row r="23" spans="2:60" ht="15" customHeight="1">
+      <c r="B23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C23" s="6"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="6">
+        <v>719.2</v>
+      </c>
+      <c r="F23" s="6"/>
+      <c r="G23" s="6"/>
+      <c r="J23" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N23" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="AL23" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM23" s="7"/>
+      <c r="AN23" s="7"/>
+      <c r="AO23" s="7"/>
+      <c r="AQ23" s="7"/>
+      <c r="AR23" s="72"/>
+      <c r="AS23" s="72"/>
+      <c r="AT23" s="72"/>
+      <c r="AU23" s="72"/>
+      <c r="AV23" s="72"/>
+    </row>
+    <row r="24" spans="2:60" ht="15" customHeight="1">
+      <c r="B24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" s="6"/>
+      <c r="D24" s="6"/>
+      <c r="F24" s="6">
+        <v>726.6</v>
+      </c>
+      <c r="G24" s="6"/>
+      <c r="K24" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N24" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10">
+        <v>0.91830000000000001</v>
+      </c>
+      <c r="R24" s="10">
+        <v>0.85050000000000003</v>
+      </c>
+      <c r="S24" s="10"/>
+      <c r="V24" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="W24" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL24" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM24" s="7"/>
+      <c r="AN24" s="7"/>
+      <c r="AO24" s="7">
+        <v>1.44</v>
+      </c>
+      <c r="AP24" s="7">
+        <v>1.55</v>
+      </c>
+      <c r="AQ24" s="7">
+        <v>1.68</v>
+      </c>
+      <c r="AR24" s="72"/>
+      <c r="AS24" s="72"/>
+      <c r="AT24" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="AU24" s="72" t="s">
+        <v>249</v>
+      </c>
+      <c r="AV24" s="72" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="25" spans="2:60" ht="15" customHeight="1">
+      <c r="B25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="6">
+        <v>740.2</v>
+      </c>
+      <c r="F25" s="6"/>
+      <c r="G25" s="6"/>
+      <c r="J25" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N25" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10">
+        <v>1.1739999999999999</v>
+      </c>
+      <c r="R25" s="10">
+        <v>1.081</v>
+      </c>
+      <c r="S25" s="10"/>
+      <c r="V25" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="W25" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL25" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM25" s="7"/>
+      <c r="AN25" s="7"/>
+      <c r="AO25" s="7"/>
+      <c r="AQ25" s="7"/>
+      <c r="AR25" s="72"/>
+      <c r="AS25" s="72"/>
+      <c r="AT25" s="72"/>
+      <c r="AU25" s="72"/>
+      <c r="AV25" s="72"/>
+    </row>
+    <row r="26" spans="2:60" ht="15" customHeight="1">
+      <c r="B26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="6"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="6">
+        <v>749.5</v>
+      </c>
+      <c r="F26" s="6"/>
+      <c r="G26" s="6"/>
+      <c r="J26" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N26" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="AL26" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM26" s="7"/>
+      <c r="AN26" s="7"/>
+      <c r="AO26" s="7"/>
+      <c r="AQ26" s="7"/>
+      <c r="AR26" s="72"/>
+      <c r="AS26" s="72"/>
+      <c r="AT26" s="72"/>
+      <c r="AU26" s="72"/>
+      <c r="AV26" s="72"/>
+    </row>
+    <row r="27" spans="2:60" ht="15" customHeight="1">
+      <c r="B27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C27" s="6"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="6">
+        <v>756.4</v>
+      </c>
+      <c r="F27" s="6"/>
+      <c r="G27" s="6"/>
+      <c r="J27" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N27" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10">
+        <v>1.863</v>
+      </c>
+      <c r="R27" s="10">
+        <v>1.6879999999999999</v>
+      </c>
+      <c r="S27" s="10"/>
+      <c r="V27" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="W27" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL27" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM27" s="7"/>
+      <c r="AN27" s="7"/>
+      <c r="AO27" s="87"/>
+      <c r="AQ27" s="7"/>
+      <c r="AR27" s="72"/>
+      <c r="AS27" s="72"/>
+      <c r="AT27" s="72"/>
+      <c r="AU27" s="72"/>
+      <c r="AV27" s="72"/>
+    </row>
+    <row r="28" spans="2:60" ht="15" customHeight="1">
+      <c r="B28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C28" s="6"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="6">
+        <v>759.6</v>
+      </c>
+      <c r="F28" s="6"/>
+      <c r="G28" s="6"/>
+      <c r="J28" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N28" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="AL28" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM28" s="7"/>
+      <c r="AN28" s="7"/>
+      <c r="AO28" s="7"/>
+      <c r="AQ28" s="7"/>
+      <c r="AR28" s="72"/>
+      <c r="AS28" s="72"/>
+      <c r="AT28" s="72"/>
+      <c r="AU28" s="72"/>
+      <c r="AV28" s="72"/>
+    </row>
+    <row r="29" spans="2:60" ht="15" customHeight="1">
+      <c r="B29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C29" s="6"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="6">
+        <v>768.5</v>
+      </c>
+      <c r="F29" s="6"/>
+      <c r="G29" s="6"/>
+      <c r="J29" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N29" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10">
+        <v>2.8410000000000002</v>
+      </c>
+      <c r="R29" s="10">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="S29" s="10"/>
+      <c r="V29" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="W29" s="8" t="s">
+        <v>239</v>
+      </c>
+      <c r="AL29" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM29" s="7"/>
+      <c r="AN29" s="7"/>
+      <c r="AO29" s="7"/>
+      <c r="AQ29" s="7"/>
+      <c r="AR29" s="72"/>
+      <c r="AS29" s="72"/>
+      <c r="AT29" s="72"/>
+      <c r="AU29" s="72"/>
+      <c r="AV29" s="72"/>
+    </row>
+    <row r="30" spans="2:60" ht="15" customHeight="1">
+      <c r="B30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C30" s="6"/>
+      <c r="D30" s="6"/>
+      <c r="F30" s="6">
+        <v>770.1</v>
+      </c>
+      <c r="G30" s="6"/>
+      <c r="K30" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="N30" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="AL30" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM30" s="7"/>
+      <c r="AN30" s="11"/>
+      <c r="AO30" s="7"/>
+      <c r="AQ30" s="7"/>
+      <c r="AR30" s="72"/>
+      <c r="AS30" s="72"/>
+      <c r="AT30" s="72"/>
+      <c r="AU30" s="72"/>
+      <c r="AV30" s="72"/>
+    </row>
+    <row r="32" spans="2:60" ht="15" customHeight="1">
+      <c r="B32" s="82" t="s">
+        <v>246</v>
+      </c>
+      <c r="C32" s="335" t="s">
+        <v>17</v>
+      </c>
+      <c r="D32" s="335"/>
+      <c r="E32" s="335"/>
+      <c r="F32" s="335"/>
+      <c r="G32" s="335"/>
+      <c r="H32" s="334" t="s">
+        <v>18</v>
+      </c>
+      <c r="I32" s="334"/>
+      <c r="J32" s="334"/>
+      <c r="K32" s="334"/>
+      <c r="L32" s="334"/>
+      <c r="N32" s="82" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="333" t="s">
+        <v>17</v>
+      </c>
+      <c r="P32" s="333"/>
+      <c r="Q32" s="333"/>
+      <c r="R32" s="333"/>
+      <c r="S32" s="333"/>
+      <c r="AL32" s="77" t="s">
+        <v>247</v>
+      </c>
+      <c r="AM32" s="335" t="s">
+        <v>17</v>
+      </c>
+      <c r="AN32" s="335"/>
+      <c r="AO32" s="335"/>
+      <c r="AP32" s="335"/>
+      <c r="AQ32" s="335"/>
+      <c r="AR32" s="72"/>
+      <c r="AS32" s="72"/>
+      <c r="AT32" s="72"/>
+      <c r="AU32" s="72"/>
+      <c r="AV32" s="72"/>
+    </row>
+    <row r="33" spans="2:60" s="82" customFormat="1" ht="15" customHeight="1">
+      <c r="B33" s="82" t="s">
+        <v>21</v>
+      </c>
+      <c r="C33" s="82">
+        <v>10</v>
+      </c>
+      <c r="D33" s="82">
+        <v>15</v>
+      </c>
+      <c r="E33" s="82">
+        <v>20</v>
+      </c>
+      <c r="F33" s="82">
+        <v>25</v>
+      </c>
+      <c r="G33" s="82">
+        <v>30</v>
+      </c>
+      <c r="H33" s="72">
+        <v>10</v>
+      </c>
+      <c r="I33" s="72">
+        <v>15</v>
+      </c>
+      <c r="J33" s="72">
+        <v>20</v>
+      </c>
+      <c r="K33" s="72">
+        <v>25</v>
+      </c>
+      <c r="L33" s="72">
+        <v>30</v>
+      </c>
+      <c r="N33" s="82" t="s">
+        <v>22</v>
+      </c>
+      <c r="O33" s="82">
+        <v>10</v>
+      </c>
+      <c r="P33" s="82">
+        <v>15</v>
+      </c>
+      <c r="Q33" s="82">
+        <v>20</v>
+      </c>
+      <c r="R33" s="82">
+        <v>25</v>
+      </c>
+      <c r="S33" s="82">
+        <v>30</v>
+      </c>
+      <c r="T33" s="72">
+        <v>10</v>
+      </c>
+      <c r="U33" s="72">
+        <v>15</v>
+      </c>
+      <c r="V33" s="72">
+        <v>20</v>
+      </c>
+      <c r="W33" s="72">
+        <v>25</v>
+      </c>
+      <c r="X33" s="72">
+        <v>30</v>
+      </c>
+      <c r="AC33" s="86"/>
+      <c r="AD33" s="87"/>
+      <c r="AF33" s="72"/>
+      <c r="AG33" s="72"/>
+      <c r="AH33" s="72"/>
+      <c r="AI33" s="72"/>
+      <c r="AJ33" s="72"/>
+      <c r="AL33" s="82" t="s">
+        <v>24</v>
+      </c>
+      <c r="AO33" s="73" t="s">
+        <v>252</v>
+      </c>
+      <c r="AP33" s="73" t="s">
+        <v>253</v>
+      </c>
+      <c r="AR33" s="72"/>
+      <c r="AS33" s="72"/>
+      <c r="AT33" s="72">
+        <v>22</v>
+      </c>
+      <c r="AU33" s="72"/>
+      <c r="AV33" s="72"/>
+      <c r="BB33" s="87"/>
+      <c r="BD33" s="72"/>
+      <c r="BE33" s="72"/>
+      <c r="BF33" s="72"/>
+      <c r="BG33" s="72"/>
+      <c r="BH33" s="72"/>
+    </row>
+    <row r="34" spans="2:60" ht="15" customHeight="1">
+      <c r="B34" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="C34" s="6"/>
+      <c r="D34" s="6"/>
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="72"/>
+      <c r="I34" s="72"/>
+      <c r="J34" s="72"/>
+      <c r="K34" s="72"/>
+      <c r="L34" s="72"/>
+      <c r="N34" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="AL34" s="71" t="s">
+        <v>27</v>
+      </c>
+      <c r="AM34" s="7"/>
+      <c r="AN34" s="7"/>
+      <c r="AO34" s="7"/>
+      <c r="AQ34" s="7"/>
+      <c r="AR34" s="72"/>
+      <c r="AS34" s="72"/>
+      <c r="AT34" s="72"/>
+      <c r="AU34" s="72"/>
+      <c r="AV34" s="72"/>
+    </row>
+    <row r="35" spans="2:60" ht="15" customHeight="1">
+      <c r="B35" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="C35" s="6"/>
+      <c r="D35" s="6"/>
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="72"/>
+      <c r="I35" s="72"/>
+      <c r="J35" s="72"/>
+      <c r="K35" s="72"/>
+      <c r="L35" s="72"/>
+      <c r="N35" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="AL35" s="71" t="s">
+        <v>30</v>
+      </c>
+      <c r="AM35" s="7"/>
+      <c r="AN35" s="7"/>
+      <c r="AO35" s="7">
+        <v>4.0199999999999996</v>
+      </c>
+      <c r="AP35" s="7">
+        <v>3.9</v>
+      </c>
+      <c r="AQ35" s="7"/>
+      <c r="AR35" s="72"/>
+      <c r="AS35" s="72"/>
+      <c r="AT35" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU35" s="72"/>
+      <c r="AV35" s="72"/>
+    </row>
+    <row r="36" spans="2:60" ht="15" customHeight="1">
+      <c r="B36" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="C36" s="6"/>
+      <c r="D36" s="6"/>
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="72"/>
+      <c r="I36" s="72"/>
+      <c r="J36" s="72"/>
+      <c r="K36" s="72"/>
+      <c r="L36" s="72"/>
+      <c r="N36" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="AL36" s="71" t="s">
+        <v>32</v>
+      </c>
+      <c r="AM36" s="7"/>
+      <c r="AN36" s="7"/>
+      <c r="AO36" s="7"/>
+      <c r="AQ36" s="7"/>
+      <c r="AR36" s="72"/>
+      <c r="AS36" s="72"/>
+      <c r="AT36" s="72"/>
+      <c r="AU36" s="72"/>
+      <c r="AV36" s="72"/>
+    </row>
+    <row r="37" spans="2:60" ht="15" customHeight="1">
+      <c r="B37" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="C37" s="6"/>
+      <c r="D37" s="6"/>
+      <c r="F37" s="6"/>
+      <c r="G37" s="6"/>
+      <c r="H37" s="72"/>
+      <c r="I37" s="72"/>
+      <c r="J37" s="72"/>
+      <c r="K37" s="72"/>
+      <c r="L37" s="72"/>
+      <c r="N37" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="76">
+        <v>0.50939999999999996</v>
+      </c>
+      <c r="S37" s="10"/>
+      <c r="W37" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL37" s="71" t="s">
+        <v>33</v>
+      </c>
+      <c r="AM37" s="7"/>
+      <c r="AN37" s="7"/>
+      <c r="AO37" s="7"/>
+      <c r="AQ37" s="7"/>
+      <c r="AR37" s="72"/>
+      <c r="AS37" s="72"/>
+      <c r="AT37" s="72"/>
+      <c r="AU37" s="72"/>
+      <c r="AV37" s="72"/>
+    </row>
+    <row r="38" spans="2:60" ht="15" customHeight="1">
+      <c r="B38" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="C38" s="6"/>
+      <c r="D38" s="6"/>
+      <c r="F38" s="6"/>
+      <c r="G38" s="6"/>
+      <c r="H38" s="72"/>
+      <c r="I38" s="72"/>
+      <c r="J38" s="72"/>
+      <c r="K38" s="72"/>
+      <c r="L38" s="72"/>
+      <c r="N38" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="O38" s="10"/>
+      <c r="P38" s="10"/>
+      <c r="Q38" s="10"/>
+      <c r="R38" s="76">
+        <v>0.66</v>
+      </c>
+      <c r="S38" s="10"/>
+      <c r="W38" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL38" s="71" t="s">
+        <v>35</v>
+      </c>
+      <c r="AM38" s="7"/>
+      <c r="AN38" s="7"/>
+      <c r="AO38" s="7"/>
+      <c r="AQ38" s="7"/>
+      <c r="AR38" s="72"/>
+      <c r="AS38" s="72"/>
+      <c r="AT38" s="72"/>
+      <c r="AU38" s="72"/>
+      <c r="AV38" s="72"/>
+    </row>
+    <row r="39" spans="2:60" ht="15" customHeight="1">
+      <c r="B39" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="C39" s="6"/>
+      <c r="D39" s="6"/>
+      <c r="F39" s="6"/>
+      <c r="G39" s="6"/>
+      <c r="H39" s="72"/>
+      <c r="I39" s="72"/>
+      <c r="J39" s="72"/>
+      <c r="K39" s="72"/>
+      <c r="L39" s="72"/>
+      <c r="N39" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="O39" s="10"/>
+      <c r="P39" s="10"/>
+      <c r="Q39" s="10"/>
+      <c r="R39" s="76">
+        <v>0.84589999999999999</v>
+      </c>
+      <c r="S39" s="10"/>
+      <c r="W39" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL39" s="71" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM39" s="7"/>
+      <c r="AN39" s="7"/>
+      <c r="AO39" s="7"/>
+      <c r="AQ39" s="7"/>
+      <c r="AR39" s="72"/>
+      <c r="AS39" s="72"/>
+      <c r="AT39" s="72"/>
+      <c r="AU39" s="72"/>
+      <c r="AV39" s="72"/>
+    </row>
+    <row r="40" spans="2:60" ht="15" customHeight="1">
+      <c r="B40" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="6"/>
+      <c r="D40" s="6"/>
+      <c r="F40" s="6"/>
+      <c r="G40" s="6"/>
+      <c r="H40" s="72"/>
+      <c r="I40" s="72"/>
+      <c r="J40" s="72"/>
+      <c r="K40" s="72"/>
+      <c r="L40" s="72"/>
+      <c r="N40" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="O40" s="10"/>
+      <c r="P40" s="10"/>
+      <c r="Q40" s="10"/>
+      <c r="R40" s="76">
+        <v>1.0841000000000001</v>
+      </c>
+      <c r="S40" s="10"/>
+      <c r="W40" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL40" s="71" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM40" s="7"/>
+      <c r="AN40" s="7"/>
+      <c r="AO40" s="7"/>
+      <c r="AQ40" s="7"/>
+      <c r="AR40" s="72"/>
+      <c r="AS40" s="72"/>
+      <c r="AT40" s="72"/>
+      <c r="AU40" s="72"/>
+      <c r="AV40" s="72"/>
+    </row>
+    <row r="41" spans="2:60" ht="15" customHeight="1">
+      <c r="B41" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="C41" s="6"/>
+      <c r="D41" s="6"/>
+      <c r="F41" s="6"/>
+      <c r="G41" s="6"/>
+      <c r="H41" s="72"/>
+      <c r="I41" s="72"/>
+      <c r="J41" s="72"/>
+      <c r="K41" s="72"/>
+      <c r="L41" s="72"/>
+      <c r="N41" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="O41" s="10"/>
+      <c r="P41" s="10"/>
+      <c r="Q41" s="10"/>
+      <c r="R41" s="76">
+        <v>1.3791</v>
+      </c>
+      <c r="S41" s="10"/>
+      <c r="W41" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL41" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="AM41" s="7"/>
+      <c r="AN41" s="7"/>
+      <c r="AO41" s="7"/>
+      <c r="AQ41" s="7"/>
+      <c r="AR41" s="72"/>
+      <c r="AS41" s="72"/>
+      <c r="AT41" s="72"/>
+      <c r="AU41" s="72"/>
+      <c r="AV41" s="72"/>
+    </row>
+    <row r="42" spans="2:60" ht="15" customHeight="1">
+      <c r="B42" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="C42" s="6"/>
+      <c r="D42" s="6"/>
+      <c r="F42" s="6"/>
+      <c r="G42" s="6"/>
+      <c r="H42" s="72"/>
+      <c r="I42" s="72"/>
+      <c r="J42" s="72"/>
+      <c r="K42" s="72"/>
+      <c r="L42" s="72"/>
+      <c r="N42" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="O42" s="10"/>
+      <c r="P42" s="10"/>
+      <c r="Q42" s="10"/>
+      <c r="R42" s="10"/>
+      <c r="S42" s="10"/>
+      <c r="AL42" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="AM42" s="7"/>
+      <c r="AN42" s="7"/>
+      <c r="AO42" s="87"/>
+      <c r="AQ42" s="7"/>
+      <c r="AR42" s="72"/>
+      <c r="AS42" s="72"/>
+      <c r="AT42" s="72"/>
+      <c r="AU42" s="72"/>
+      <c r="AV42" s="72"/>
+    </row>
+    <row r="43" spans="2:60" ht="15" customHeight="1">
+      <c r="B43" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C43" s="6"/>
+      <c r="D43" s="6"/>
+      <c r="F43" s="6"/>
+      <c r="G43" s="6"/>
+      <c r="H43" s="72"/>
+      <c r="I43" s="72"/>
+      <c r="J43" s="72"/>
+      <c r="K43" s="72"/>
+      <c r="L43" s="72"/>
+      <c r="N43" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="O43" s="10"/>
+      <c r="P43" s="10"/>
+      <c r="Q43" s="10"/>
+      <c r="R43" s="10"/>
+      <c r="S43" s="10"/>
+      <c r="AL43" s="71" t="s">
+        <v>40</v>
+      </c>
+      <c r="AM43" s="7"/>
+      <c r="AN43" s="7"/>
+      <c r="AO43" s="7"/>
+      <c r="AQ43" s="7"/>
+      <c r="AR43" s="72"/>
+      <c r="AS43" s="72"/>
+      <c r="AT43" s="72"/>
+      <c r="AU43" s="72"/>
+      <c r="AV43" s="72"/>
+    </row>
+    <row r="44" spans="2:60" ht="15" customHeight="1">
+      <c r="B44" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="C44" s="6"/>
+      <c r="D44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6"/>
+      <c r="H44" s="72"/>
+      <c r="I44" s="72"/>
+      <c r="J44" s="72"/>
+      <c r="K44" s="72"/>
+      <c r="L44" s="72"/>
+      <c r="N44" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="O44" s="10"/>
+      <c r="P44" s="10"/>
+      <c r="Q44" s="10"/>
+      <c r="R44" s="10"/>
+      <c r="S44" s="10"/>
+      <c r="AL44" s="71" t="s">
+        <v>41</v>
+      </c>
+      <c r="AM44" s="7"/>
+      <c r="AN44" s="7"/>
+      <c r="AO44" s="7"/>
+      <c r="AQ44" s="7"/>
+      <c r="AR44" s="72"/>
+      <c r="AS44" s="72"/>
+      <c r="AT44" s="72"/>
+      <c r="AU44" s="72"/>
+      <c r="AV44" s="72"/>
+    </row>
+    <row r="45" spans="2:60" ht="15" customHeight="1">
+      <c r="B45" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="C45" s="6"/>
+      <c r="D45" s="6"/>
+      <c r="F45" s="6"/>
+      <c r="G45" s="6"/>
+      <c r="H45" s="72"/>
+      <c r="I45" s="72"/>
+      <c r="J45" s="72"/>
+      <c r="K45" s="72"/>
+      <c r="L45" s="72"/>
+      <c r="N45" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="O45" s="10"/>
+      <c r="P45" s="10"/>
+      <c r="Q45" s="10"/>
+      <c r="R45" s="76">
+        <v>3.093</v>
+      </c>
+      <c r="S45" s="10"/>
+      <c r="W45" s="8" t="s">
+        <v>241</v>
+      </c>
+      <c r="AL45" s="71" t="s">
+        <v>42</v>
+      </c>
+      <c r="AM45" s="7"/>
+      <c r="AN45" s="11"/>
+      <c r="AO45" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AP45" s="7">
+        <v>0.35</v>
+      </c>
+      <c r="AQ45" s="7"/>
+      <c r="AR45" s="72"/>
+      <c r="AS45" s="72"/>
+      <c r="AT45" s="72" t="s">
+        <v>255</v>
+      </c>
+      <c r="AU45" s="72"/>
+      <c r="AV45" s="72"/>
+    </row>
+  </sheetData>
+  <mergeCells count="12">
+    <mergeCell ref="AA2:AE2"/>
+    <mergeCell ref="AM2:AQ2"/>
+    <mergeCell ref="O17:S17"/>
+    <mergeCell ref="AM17:AQ17"/>
+    <mergeCell ref="AM32:AQ32"/>
+    <mergeCell ref="O32:S32"/>
+    <mergeCell ref="C17:G17"/>
+    <mergeCell ref="H2:L2"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="O2:S2"/>
+    <mergeCell ref="C32:G32"/>
+    <mergeCell ref="H32:L32"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30BDCE98-34D0-4ABF-8516-E6ECC928D09D}">
+  <dimension ref="B2:D32"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C57" sqref="C57"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="2" width="8.875" style="85"/>
+    <col min="3" max="3" width="204.625" style="85" customWidth="1"/>
+    <col min="4" max="4" width="28.125" style="85" customWidth="1"/>
+    <col min="5" max="16384" width="8.875" style="85"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" s="99" customFormat="1">
+      <c r="B2" s="98"/>
+      <c r="C2" s="97" t="s">
+        <v>257</v>
+      </c>
+      <c r="D2" s="99" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="100">
+        <v>1</v>
+      </c>
+      <c r="C3" s="83" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="100">
+        <v>2</v>
+      </c>
+      <c r="C4" s="83" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="100">
+        <v>3</v>
+      </c>
+      <c r="C5" s="83" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="100">
+        <v>4</v>
+      </c>
+      <c r="C6" s="83" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="100">
+        <v>5</v>
+      </c>
+      <c r="C7" s="83" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="100">
+        <v>6</v>
+      </c>
+      <c r="C8" s="83" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="100">
+        <v>7</v>
+      </c>
+      <c r="C9" s="83" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10" s="100">
+        <v>8</v>
+      </c>
+      <c r="C10" s="83" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11" s="100">
+        <v>9</v>
+      </c>
+      <c r="C11" s="83" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12" s="100">
+        <v>10</v>
+      </c>
+      <c r="C12" s="83" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13" s="100">
+        <v>11</v>
+      </c>
+      <c r="C13" s="83" t="s">
+        <v>256</v>
+      </c>
+      <c r="D13" s="85" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14" s="100">
+        <v>12</v>
+      </c>
+      <c r="C14" s="83"/>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15" s="100">
+        <v>13</v>
+      </c>
+      <c r="C15" s="83"/>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16" s="100">
+        <v>14</v>
+      </c>
+      <c r="C16" s="83"/>
+    </row>
+    <row r="17" spans="2:3">
+      <c r="B17" s="100">
+        <v>15</v>
+      </c>
+      <c r="C17" s="83"/>
+    </row>
+    <row r="18" spans="2:3">
+      <c r="B18" s="100">
+        <v>16</v>
+      </c>
+      <c r="C18" s="83"/>
+    </row>
+    <row r="19" spans="2:3">
+      <c r="B19" s="100">
+        <v>17</v>
+      </c>
+      <c r="C19" s="83"/>
+    </row>
+    <row r="20" spans="2:3">
+      <c r="B20" s="100">
+        <v>18</v>
+      </c>
+      <c r="C20" s="83"/>
+    </row>
+    <row r="21" spans="2:3">
+      <c r="B21" s="100">
+        <v>19</v>
+      </c>
+      <c r="C21" s="83"/>
+    </row>
+    <row r="22" spans="2:3">
+      <c r="B22" s="100">
+        <v>20</v>
+      </c>
+      <c r="C22" s="83"/>
+    </row>
+    <row r="23" spans="2:3">
+      <c r="B23" s="100">
+        <v>21</v>
+      </c>
+      <c r="C23" s="83"/>
+    </row>
+    <row r="24" spans="2:3">
+      <c r="B24" s="100">
+        <v>22</v>
+      </c>
+      <c r="C24" s="83"/>
+    </row>
+    <row r="25" spans="2:3">
+      <c r="B25" s="100">
+        <v>23</v>
+      </c>
+      <c r="C25" s="83"/>
+    </row>
+    <row r="26" spans="2:3">
+      <c r="B26" s="100">
+        <v>24</v>
+      </c>
+      <c r="C26" s="83"/>
+    </row>
+    <row r="27" spans="2:3">
+      <c r="B27" s="100">
+        <v>25</v>
+      </c>
+      <c r="C27" s="83"/>
+    </row>
+    <row r="28" spans="2:3">
+      <c r="B28" s="100">
+        <v>26</v>
+      </c>
+      <c r="C28" s="83"/>
+    </row>
+    <row r="29" spans="2:3">
+      <c r="B29" s="100">
+        <v>27</v>
+      </c>
+      <c r="C29" s="83"/>
+    </row>
+    <row r="30" spans="2:3">
+      <c r="B30" s="100">
+        <v>28</v>
+      </c>
+      <c r="C30" s="83"/>
+    </row>
+    <row r="31" spans="2:3">
+      <c r="B31" s="100">
+        <v>29</v>
+      </c>
+      <c r="C31" s="83"/>
+    </row>
+    <row r="32" spans="2:3">
+      <c r="B32" s="100">
+        <v>30</v>
+      </c>
+      <c r="C32" s="83"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{33EDBDFB-84C9-0D42-9872-D0E4DAFE61DB}">
+  <dimension ref="B1:K10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="7" width="10.875" style="14"/>
+    <col min="8" max="8" width="10.875" style="16"/>
+    <col min="9" max="10" width="10.875" style="18"/>
+    <col min="11" max="11" width="10.875" style="22"/>
+    <col min="12" max="16384" width="10.875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:11">
+      <c r="D1" s="14" t="s">
+        <v>66</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>65</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="H1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="K1" s="22" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="2" spans="2:11" s="15" customFormat="1">
+      <c r="B2" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>61</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="E2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="G2" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>68</v>
+      </c>
+      <c r="I2" s="19" t="s">
+        <v>67</v>
+      </c>
+      <c r="J2" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="K2" s="23" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11">
+      <c r="B3" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C3" s="14">
+        <v>512</v>
+      </c>
+      <c r="D3" s="14">
+        <v>0.22639999999999999</v>
+      </c>
+      <c r="E3" s="6">
+        <v>770.1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G3" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H3" s="16">
+        <f>C3*D3/(E3*F3*0.0006022)</f>
+        <v>312.44136171957632</v>
+      </c>
+      <c r="I3" s="18">
+        <f>H3^(1/3)</f>
+        <v>6.7856195648525022</v>
+      </c>
+      <c r="J3" s="18">
+        <f>H3^(1/3)-G3</f>
+        <v>6.585619564852502</v>
+      </c>
+      <c r="K3" s="22">
+        <f>J3*10</f>
+        <v>65.856195648525016</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11">
+      <c r="B4" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="C4" s="14">
+        <v>512</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0.21240000000000001</v>
+      </c>
+      <c r="E4" s="6">
+        <v>768.5</v>
+      </c>
+      <c r="F4" s="14">
+        <v>0.8</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0.2</v>
+      </c>
+      <c r="H4" s="16">
+        <f>C4*D4/(E4*F4*0.0006022)</f>
+        <v>293.73105380034644</v>
+      </c>
+      <c r="I4" s="18">
+        <f>H4^(1/3)</f>
+        <v>6.6473715566333178</v>
+      </c>
+      <c r="J4" s="18">
+        <f>H4^(1/3)-G4</f>
+        <v>6.4473715566333176</v>
+      </c>
+      <c r="K4" s="22">
+        <f>J4*10</f>
+        <v>64.473715566333169</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11">
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="C6" s="14">
+        <v>1024</v>
+      </c>
+      <c r="D6" s="14">
+        <v>0.1142</v>
+      </c>
+      <c r="E6" s="6">
+        <v>698.6</v>
+      </c>
+      <c r="F6" s="14">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="H6" s="16">
+        <f>C6*D6/(E6*F6*0.0006022)</f>
+        <v>277.96923257721971</v>
+      </c>
+      <c r="I6" s="18">
+        <f>H6^(1/3)</f>
+        <v>6.5262780980799064</v>
+      </c>
+      <c r="J6" s="18">
+        <f>H6^(1/3)-G6</f>
+        <v>6.2762780980799064</v>
+      </c>
+      <c r="K6" s="22">
+        <f>J6*10</f>
+        <v>62.762780980799064</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" s="125" customFormat="1">
+      <c r="B7" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7" s="125">
+        <v>1024</v>
+      </c>
+      <c r="D7" s="125">
+        <v>0.1142</v>
+      </c>
+      <c r="E7" s="6">
+        <v>698.6</v>
+      </c>
+      <c r="F7" s="125">
+        <v>0.8</v>
+      </c>
+      <c r="G7" s="125">
+        <v>0.2</v>
+      </c>
+      <c r="H7" s="16">
+        <f>C7*D7/(E7*F7*0.0006022)</f>
+        <v>347.46154072152467</v>
+      </c>
+      <c r="I7" s="18">
+        <f>H7^(1/3)</f>
+        <v>7.0302199656493274</v>
+      </c>
+      <c r="J7" s="18">
+        <f>H7^(1/3)-G7</f>
+        <v>6.8302199656493272</v>
+      </c>
+      <c r="K7" s="22">
+        <f>J7*10</f>
+        <v>68.302199656493272</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11">
+      <c r="B8" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="C8" s="14">
+        <v>2048</v>
+      </c>
+      <c r="D8" s="14">
+        <v>0.1002</v>
+      </c>
+      <c r="E8" s="6">
+        <v>679.5</v>
+      </c>
+      <c r="F8" s="14">
+        <v>1</v>
+      </c>
+      <c r="G8" s="14">
+        <v>0.25</v>
+      </c>
+      <c r="H8" s="16">
+        <f>C8*D8/(E8*F8*0.0006022)</f>
+        <v>501.49598638692709</v>
+      </c>
+      <c r="I8" s="18">
+        <f>H8^(1/3)</f>
+        <v>7.9449131462311176</v>
+      </c>
+      <c r="J8" s="18">
+        <f>H8^(1/3)-G8</f>
+        <v>7.6949131462311176</v>
+      </c>
+      <c r="K8" s="22">
+        <f>J8*10</f>
+        <v>76.949131462311172</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11">
+      <c r="E10" s="6"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E95DD15-E630-164A-9911-8F448DFCB0FA}">
+  <dimension ref="B1:Q33"/>
+  <sheetViews>
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="R13" sqref="R13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="1" max="4" width="10.875" style="14"/>
+    <col min="5" max="5" width="10.875" style="27"/>
+    <col min="6" max="6" width="10.875" style="29"/>
+    <col min="7" max="7" width="12.125" style="31" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="15.625" style="36" customWidth="1"/>
+    <col min="10" max="11" width="10.875" style="31"/>
+    <col min="12" max="16384" width="10.875" style="14"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:17">
+      <c r="I1" s="336" t="s">
+        <v>119</v>
+      </c>
+      <c r="J1" s="336"/>
+      <c r="K1" s="336"/>
+      <c r="L1" s="336"/>
+      <c r="M1" s="336"/>
+      <c r="N1" s="336"/>
+      <c r="O1" s="336"/>
+    </row>
+    <row r="2" spans="2:17">
+      <c r="C2" s="320" t="s">
+        <v>111</v>
+      </c>
+      <c r="D2" s="320"/>
+      <c r="F2" s="29" t="s">
+        <v>115</v>
+      </c>
+      <c r="I2" s="336" t="s">
+        <v>117</v>
+      </c>
+      <c r="J2" s="336"/>
+      <c r="K2" s="336"/>
+      <c r="L2" s="14" t="s">
+        <v>118</v>
+      </c>
+      <c r="M2" s="14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17" s="15" customFormat="1">
+      <c r="B3" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>112</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>113</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F3" s="30" t="s">
+        <v>114</v>
+      </c>
+      <c r="G3" s="32" t="s">
+        <v>87</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>121</v>
+      </c>
+      <c r="I3" s="35"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="M3" s="15" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="C4" s="14">
+        <v>3.01</v>
+      </c>
+      <c r="D4" s="14">
+        <v>770</v>
+      </c>
+      <c r="E4" s="27">
+        <v>7.8543099999999999</v>
+      </c>
+      <c r="F4" s="29">
+        <f>1/332</f>
+        <v>3.0120481927710845E-3</v>
+      </c>
+      <c r="G4" s="37">
+        <f>2*PI()*F4*C4*1000/(D4*E4)</f>
+        <v>9.4191023645437116E-3</v>
+      </c>
+      <c r="H4" s="34">
+        <f>D4*E4*E4*(0.000001)/(C4*0.001)</f>
+        <v>15.78121026365349</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="29">
+        <f>1/300</f>
+        <v>3.3333333333333335E-3</v>
+      </c>
+      <c r="G5" s="37"/>
+      <c r="H5" s="34"/>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="37"/>
+      <c r="H6" s="34"/>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="G7" s="37"/>
+      <c r="H7" s="34"/>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="G8" s="37"/>
+      <c r="H8" s="34"/>
+    </row>
+    <row r="9" spans="2:17" s="15" customFormat="1">
+      <c r="E9" s="28"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="38"/>
+      <c r="H9" s="39"/>
+      <c r="I9" s="40"/>
+      <c r="J9" s="32"/>
+      <c r="K9" s="32"/>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G10" s="31">
+        <v>1E-3</v>
+      </c>
+      <c r="I10" s="36">
+        <f>1000/587.575</f>
+        <v>1.7019103944177338</v>
+      </c>
+      <c r="J10" s="31">
+        <f>1000/393.087</f>
+        <v>2.5439660940198991</v>
+      </c>
+      <c r="K10" s="31">
+        <f>1000/524.365</f>
+        <v>1.9070685495790145</v>
+      </c>
+      <c r="L10" s="14">
+        <f>1000/429.592</f>
+        <v>2.3277900892009162</v>
+      </c>
+      <c r="M10" s="14">
+        <f>1000/471.267</f>
+        <v>2.1219393677045071</v>
+      </c>
+      <c r="P10" s="29">
+        <f>SUM(I10:O10)/5</f>
+        <v>2.1205348989844142</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="G11" s="31">
+        <v>2E-3</v>
+      </c>
+      <c r="I11" s="36">
+        <f>1000/ 539.436</f>
+        <v>1.8537880304614447</v>
+      </c>
+      <c r="J11" s="31">
+        <f>1000/427.898</f>
+        <v>2.3370055480511711</v>
+      </c>
+      <c r="K11" s="31">
+        <f>1000/482.665</f>
+        <v>2.0718303585302436</v>
+      </c>
+      <c r="L11" s="14">
+        <f>1000/425.574</f>
+        <v>2.3497676079835705</v>
+      </c>
+      <c r="M11" s="14">
+        <f>1000/450.603</f>
+        <v>2.2192484293269241</v>
+      </c>
+      <c r="P11" s="29">
+        <f>SUM(I11:O11)/5</f>
+        <v>2.1663279948706711</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="G12" s="31">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="I12" s="36">
+        <f>1000/511.599</f>
+        <v>1.9546558926033866</v>
+      </c>
+      <c r="J12" s="31">
+        <f>1000/463.492</f>
+        <v>2.1575345421280194</v>
+      </c>
+      <c r="K12" s="31">
+        <f>1000/428.438</f>
+        <v>2.3340600040145834</v>
+      </c>
+      <c r="L12" s="14">
+        <f>1000/484.767</f>
+        <v>2.0628466871713629</v>
+      </c>
+      <c r="M12" s="14">
+        <f>1000/456.876</f>
+        <v>2.1887776989817809</v>
+      </c>
+      <c r="P12" s="29">
+        <f>SUM(I12:O12)/5</f>
+        <v>2.1395749649798268</v>
+      </c>
+      <c r="Q12" s="29"/>
+    </row>
+    <row r="13" spans="2:17">
+      <c r="G13" s="31">
+        <v>6.0000000000000001E-3</v>
+      </c>
+      <c r="I13" s="36">
+        <f>1000/468.013</f>
+        <v>2.1366927841747985</v>
+      </c>
+      <c r="J13" s="31">
+        <f>1000/484.467</f>
+        <v>2.0641240786266146</v>
+      </c>
+      <c r="K13" s="31">
+        <f>1000/495.902</f>
+        <v>2.01652745905441</v>
+      </c>
+      <c r="L13" s="14">
+        <f>1000/476.432</f>
+        <v>2.0989354199549988</v>
+      </c>
+      <c r="M13" s="14">
+        <f>1000/480.887</f>
+        <v>2.0794906079806692</v>
+      </c>
+      <c r="P13" s="29">
+        <f>SUM(I13:O13)/5</f>
+        <v>2.0791540699582982</v>
+      </c>
+      <c r="Q13" s="29"/>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="G14" s="31">
+        <v>1.2E-2</v>
+      </c>
+      <c r="I14" s="36">
+        <f>1000/561.938</f>
+        <v>1.7795557517021452</v>
+      </c>
+      <c r="J14" s="31">
+        <f>1000/567.598</f>
+        <v>1.7618102953146417</v>
+      </c>
+      <c r="K14" s="31">
+        <f>1000/573.548</f>
+        <v>1.7435332352305299</v>
+      </c>
+      <c r="L14" s="14">
+        <f>1000/580.314</f>
+        <v>1.7232050234872847</v>
+      </c>
+      <c r="M14" s="14">
+        <f>1000/559.257</f>
+        <v>1.7880866935952524</v>
+      </c>
+      <c r="P14" s="29">
+        <f>SUM(I14:O14)/5</f>
+        <v>1.7592381998659707</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="I15" s="36" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="16" spans="2:17">
+      <c r="I16" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9">
+      <c r="B17" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="G17" s="31">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I17" s="36">
+        <f>1000/447.965</f>
+        <v>2.232317256928555</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9">
+      <c r="G18" s="31">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I18" s="36">
+        <f>1000/462.314</f>
+        <v>2.1630320518089436</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9">
+      <c r="G19" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I19" s="36">
+        <f>1000/473.077</f>
+        <v>2.1138207945006839</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9">
+      <c r="G20" s="31">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I20" s="36">
+        <f>1000/490.985</f>
+        <v>2.0367220994531401</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9">
+      <c r="G21" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="I21" s="36">
+        <f>1000/537.393</f>
+        <v>1.8608355523797295</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9">
+      <c r="G22" s="31">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I22" s="36">
+        <f>1000/618.682</f>
+        <v>1.6163392502125487</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9">
+      <c r="G23" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="I23" s="36">
+        <f>1000/768.18</f>
+        <v>1.3017782290608972</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9">
+      <c r="I25" s="36" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9">
+      <c r="I26" s="36" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9">
+      <c r="G27" s="31">
+        <v>2.5000000000000001E-3</v>
+      </c>
+      <c r="I27" s="36">
+        <f>1000/450.232</f>
+        <v>2.2210771335666943</v>
+      </c>
+    </row>
+    <row r="28" spans="2:9">
+      <c r="G28" s="31">
+        <v>3.5000000000000001E-3</v>
+      </c>
+      <c r="I28" s="36">
+        <f>1000/467.009</f>
+        <v>2.1412863563657232</v>
+      </c>
+    </row>
+    <row r="29" spans="2:9">
+      <c r="G29" s="31">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="I29" s="36">
+        <f>1000/468.867</f>
+        <v>2.132800986207176</v>
+      </c>
+    </row>
+    <row r="30" spans="2:9">
+      <c r="G30" s="31">
+        <v>7.1000000000000004E-3</v>
+      </c>
+      <c r="I30" s="36">
+        <f>1000/490.496</f>
+        <v>2.0387526096033404</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9">
+      <c r="G31" s="31">
+        <v>0.01</v>
+      </c>
+      <c r="I31" s="36">
+        <f>1000/523.234</f>
+        <v>1.9111907865314561</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9">
+      <c r="G32" s="31">
+        <v>1.41E-2</v>
+      </c>
+      <c r="I32" s="36">
+        <f>1000/599.115</f>
+        <v>1.6691286313979787</v>
+      </c>
+    </row>
+    <row r="33" spans="7:9">
+      <c r="G33" s="31">
+        <v>0.02</v>
+      </c>
+      <c r="I33" s="36">
+        <f>1000/741.736</f>
+        <v>1.348188573832199</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="I2:K2"/>
+    <mergeCell ref="I1:O1"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C044A9FB-F8D3-4917-BFAB-FBE43DD433AF}">
+  <dimension ref="B3:BH17"/>
+  <sheetViews>
+    <sheetView topLeftCell="Z1" workbookViewId="0">
+      <selection activeCell="AL22" sqref="AL22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="8.875" defaultRowHeight="15.75"/>
+  <cols>
+    <col min="8" max="12" width="4" customWidth="1"/>
+    <col min="20" max="24" width="4" customWidth="1"/>
+    <col min="32" max="36" width="4" customWidth="1"/>
+    <col min="44" max="48" width="4" customWidth="1"/>
+    <col min="56" max="60" width="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B3" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8"/>
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+      <c r="T3" s="8"/>
+      <c r="U3" s="8"/>
+      <c r="V3" s="8"/>
+      <c r="W3" s="8"/>
+      <c r="X3" s="8"/>
+      <c r="AC3" s="6"/>
+      <c r="AD3" s="7"/>
+      <c r="AF3" s="8"/>
+      <c r="AG3" s="8"/>
+      <c r="AH3" s="8"/>
+      <c r="AI3" s="8"/>
+      <c r="AJ3" s="8"/>
+      <c r="AN3" s="10"/>
+      <c r="AP3" s="7"/>
+      <c r="AR3" s="8"/>
+      <c r="AS3" s="8"/>
+      <c r="AT3" s="8"/>
+      <c r="AU3" s="8"/>
+      <c r="AV3" s="8"/>
+      <c r="BB3" s="7"/>
+      <c r="BD3" s="8"/>
+      <c r="BE3" s="8"/>
+      <c r="BF3" s="8"/>
+      <c r="BG3" s="8"/>
+      <c r="BH3" s="8"/>
+    </row>
+    <row r="4" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="D4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>46</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="H4" s="334" t="s">
+        <v>18</v>
+      </c>
+      <c r="I4" s="334"/>
+      <c r="J4" s="334"/>
+      <c r="K4" s="334"/>
+      <c r="L4" s="334"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
+      <c r="R4" s="5"/>
+      <c r="S4" s="5"/>
+      <c r="T4" s="334" t="s">
+        <v>18</v>
+      </c>
+      <c r="U4" s="334"/>
+      <c r="V4" s="334"/>
+      <c r="W4" s="334"/>
+      <c r="X4" s="334"/>
+      <c r="AC4" s="6"/>
+      <c r="AD4" s="7"/>
+      <c r="AF4" s="334" t="s">
+        <v>18</v>
+      </c>
+      <c r="AG4" s="334"/>
+      <c r="AH4" s="334"/>
+      <c r="AI4" s="334"/>
+      <c r="AJ4" s="334"/>
+      <c r="AN4" s="10"/>
+      <c r="AP4" s="7"/>
+      <c r="AR4" s="334" t="s">
+        <v>18</v>
+      </c>
+      <c r="AS4" s="334"/>
+      <c r="AT4" s="334"/>
+      <c r="AU4" s="334"/>
+      <c r="AV4" s="334"/>
+      <c r="BB4" s="7"/>
+      <c r="BD4" s="334" t="s">
+        <v>18</v>
+      </c>
+      <c r="BE4" s="334"/>
+      <c r="BF4" s="334"/>
+      <c r="BG4" s="334"/>
+      <c r="BH4" s="334"/>
+    </row>
+    <row r="5" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B5" s="12" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="N5" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="R5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="S5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="T5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="U5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="V5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="W5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="X5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="Z5" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="AA5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AB5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="AC5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="AD5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AE5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AG5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AH5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AI5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AJ5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AL5" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="AM5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AN5" s="10" t="s">
+        <v>22</v>
+      </c>
+      <c r="AO5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="AP5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="AQ5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="AR5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="AS5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="AT5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AU5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="AV5" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="AX5" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="AY5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="AZ5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="BA5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="BB5" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="BC5" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="BD5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="BE5" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="BG5" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="BH5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" s="6">
+        <v>17.149999999999999</v>
+      </c>
+      <c r="H6" s="8"/>
+      <c r="I6" s="8"/>
+      <c r="J6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="8"/>
+      <c r="L6" s="8"/>
+      <c r="N6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" s="8"/>
+      <c r="U6" s="8"/>
+      <c r="V6" s="8"/>
+      <c r="W6" s="8"/>
+      <c r="X6" s="8"/>
+      <c r="Z6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC6" s="6">
+        <v>16.05</v>
+      </c>
+      <c r="AD6" s="7"/>
+      <c r="AF6" s="8"/>
+      <c r="AG6" s="8"/>
+      <c r="AH6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI6" s="8"/>
+      <c r="AJ6" s="8"/>
+      <c r="AL6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="AN6" s="10"/>
+      <c r="AP6" s="7"/>
+      <c r="AR6" s="8"/>
+      <c r="AS6" s="8"/>
+      <c r="AT6" s="8"/>
+      <c r="AU6" s="8"/>
+      <c r="AV6" s="8"/>
+      <c r="AX6" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="BA6" s="3">
+        <v>14.94</v>
+      </c>
+      <c r="BB6" s="7"/>
+      <c r="BD6" s="8"/>
+      <c r="BE6" s="8"/>
+      <c r="BF6" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG6" s="8"/>
+      <c r="BH6" s="8"/>
+    </row>
+    <row r="7" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="E7" s="6">
+        <v>19.420000000000002</v>
+      </c>
+      <c r="H7" s="8"/>
+      <c r="I7" s="8"/>
+      <c r="J7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="8"/>
+      <c r="L7" s="8"/>
+      <c r="N7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" s="8"/>
+      <c r="U7" s="8"/>
+      <c r="V7" s="8"/>
+      <c r="W7" s="8"/>
+      <c r="X7" s="8"/>
+      <c r="Z7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AC7" s="6">
+        <v>18.399999999999999</v>
+      </c>
+      <c r="AD7" s="7"/>
+      <c r="AF7" s="8"/>
+      <c r="AG7" s="8"/>
+      <c r="AH7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI7" s="8"/>
+      <c r="AJ7" s="8"/>
+      <c r="AL7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="AN7" s="10">
+        <v>0.2949</v>
+      </c>
+      <c r="AP7" s="7"/>
+      <c r="AR7" s="8"/>
+      <c r="AS7" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT7" s="8"/>
+      <c r="AU7" s="8"/>
+      <c r="AV7" s="8"/>
+      <c r="AX7" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="BA7" s="3">
+        <v>17.38</v>
+      </c>
+      <c r="BB7" s="7"/>
+      <c r="BD7" s="8"/>
+      <c r="BE7" s="8"/>
+      <c r="BF7" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG7" s="8"/>
+      <c r="BH7" s="8"/>
+    </row>
+    <row r="8" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E8" s="6">
+        <v>21.12</v>
+      </c>
+      <c r="H8" s="8"/>
+      <c r="I8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K8" s="8"/>
+      <c r="L8" s="8"/>
+      <c r="N8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="T8" s="8"/>
+      <c r="U8" s="8"/>
+      <c r="V8" s="8"/>
+      <c r="W8" s="8"/>
+      <c r="X8" s="8"/>
+      <c r="Z8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AC8" s="6">
+        <v>20.14</v>
+      </c>
+      <c r="AD8" s="7"/>
+      <c r="AF8" s="8"/>
+      <c r="AG8" s="8"/>
+      <c r="AH8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI8" s="8"/>
+      <c r="AJ8" s="8"/>
+      <c r="AL8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="AN8" s="10">
+        <v>0.38900000000000001</v>
+      </c>
+      <c r="AP8" s="7"/>
+      <c r="AR8" s="8"/>
+      <c r="AS8" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT8" s="8"/>
+      <c r="AU8" s="8"/>
+      <c r="AV8" s="8"/>
+      <c r="AX8" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="BA8" s="3">
+        <v>19.170000000000002</v>
+      </c>
+      <c r="BB8" s="7"/>
+      <c r="BD8" s="8"/>
+      <c r="BE8" s="8"/>
+      <c r="BF8" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG8" s="8"/>
+      <c r="BH8" s="8"/>
+    </row>
+    <row r="9" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E9" s="6">
+        <v>22.57</v>
+      </c>
+      <c r="H9" s="8"/>
+      <c r="I9" s="8"/>
+      <c r="J9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="8"/>
+      <c r="L9" s="8"/>
+      <c r="N9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="T9" s="8"/>
+      <c r="U9" s="8"/>
+      <c r="V9" s="8"/>
+      <c r="W9" s="8"/>
+      <c r="X9" s="8"/>
+      <c r="Z9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC9" s="6">
+        <v>21.62</v>
+      </c>
+      <c r="AD9" s="7"/>
+      <c r="AF9" s="8"/>
+      <c r="AG9" s="8"/>
+      <c r="AH9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI9" s="8"/>
+      <c r="AJ9" s="8"/>
+      <c r="AL9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="AN9" s="10">
+        <v>0.50919999999999999</v>
+      </c>
+      <c r="AP9" s="7"/>
+      <c r="AR9" s="8"/>
+      <c r="AS9" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT9" s="8"/>
+      <c r="AU9" s="8"/>
+      <c r="AV9" s="8"/>
+      <c r="AX9" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="BA9" s="3">
+        <v>20.67</v>
+      </c>
+      <c r="BB9" s="7"/>
+      <c r="BD9" s="8"/>
+      <c r="BE9" s="8"/>
+      <c r="BF9" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG9" s="8"/>
+      <c r="BH9" s="8"/>
+    </row>
+    <row r="10" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" s="6">
+        <v>23.79</v>
+      </c>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="N10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="T10" s="8"/>
+      <c r="U10" s="8"/>
+      <c r="V10" s="8"/>
+      <c r="W10" s="8"/>
+      <c r="X10" s="8"/>
+      <c r="Z10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC10" s="6">
+        <v>22.85</v>
+      </c>
+      <c r="AD10" s="7"/>
+      <c r="AF10" s="8"/>
+      <c r="AG10" s="8"/>
+      <c r="AH10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI10" s="8"/>
+      <c r="AJ10" s="8"/>
+      <c r="AL10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="AN10" s="10"/>
+      <c r="AP10" s="7"/>
+      <c r="AR10" s="8"/>
+      <c r="AS10" s="8"/>
+      <c r="AT10" s="8"/>
+      <c r="AU10" s="8"/>
+      <c r="AV10" s="8"/>
+      <c r="AX10" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="BA10" s="3">
+        <v>21.92</v>
+      </c>
+      <c r="BB10" s="7"/>
+      <c r="BD10" s="8"/>
+      <c r="BE10" s="8"/>
+      <c r="BF10" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG10" s="8"/>
+      <c r="BH10" s="8"/>
+    </row>
+    <row r="11" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="E11" s="6">
+        <v>24.75</v>
+      </c>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="N11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="R11" s="3">
+        <v>1.165</v>
+      </c>
+      <c r="T11" s="8"/>
+      <c r="U11" s="8"/>
+      <c r="V11" s="8"/>
+      <c r="W11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X11" s="8"/>
+      <c r="Z11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AC11" s="6">
+        <v>23.83</v>
+      </c>
+      <c r="AD11" s="7">
+        <v>1.268</v>
+      </c>
+      <c r="AF11" s="8"/>
+      <c r="AG11" s="8"/>
+      <c r="AH11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ11" s="8"/>
+      <c r="AL11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="AN11" s="10">
+        <v>0.8498</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="AR11" s="8"/>
+      <c r="AS11" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT11" s="8"/>
+      <c r="AU11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV11" s="8"/>
+      <c r="AX11" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="BA11" s="3">
+        <v>22.91</v>
+      </c>
+      <c r="BB11" s="7">
+        <v>1.5589999999999999</v>
+      </c>
+      <c r="BD11" s="8"/>
+      <c r="BE11" s="8"/>
+      <c r="BF11" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG11" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH11" s="8"/>
+    </row>
+    <row r="12" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="E12" s="6">
+        <v>25.56</v>
+      </c>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="N12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="R12" s="3">
+        <v>0.93100000000000005</v>
+      </c>
+      <c r="T12" s="8"/>
+      <c r="U12" s="8"/>
+      <c r="V12" s="8"/>
+      <c r="W12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" s="8"/>
+      <c r="Z12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AC12" s="6">
+        <v>24.66</v>
+      </c>
+      <c r="AD12" s="7">
+        <v>1.0089999999999999</v>
+      </c>
+      <c r="AF12" s="8"/>
+      <c r="AG12" s="8"/>
+      <c r="AH12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ12" s="8"/>
+      <c r="AL12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN12" s="10"/>
+      <c r="AP12" s="7">
+        <v>1.1120000000000001</v>
+      </c>
+      <c r="AR12" s="8"/>
+      <c r="AS12" s="8"/>
+      <c r="AT12" s="8"/>
+      <c r="AU12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV12" s="8"/>
+      <c r="AX12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="BA12" s="3">
+        <v>23.76</v>
+      </c>
+      <c r="BB12" s="7">
+        <v>1.248</v>
+      </c>
+      <c r="BD12" s="8"/>
+      <c r="BE12" s="8"/>
+      <c r="BF12" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG12" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH12" s="8"/>
+    </row>
+    <row r="13" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E13" s="6">
+        <v>26.24</v>
+      </c>
+      <c r="H13" s="8"/>
+      <c r="I13" s="8"/>
+      <c r="J13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="8"/>
+      <c r="L13" s="8"/>
+      <c r="N13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="R13" s="3">
+        <v>0.70799999999999996</v>
+      </c>
+      <c r="T13" s="8"/>
+      <c r="U13" s="8"/>
+      <c r="V13" s="8"/>
+      <c r="W13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X13" s="8"/>
+      <c r="Z13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AC13" s="6">
+        <v>25.35</v>
+      </c>
+      <c r="AD13" s="7">
+        <v>0.78800000000000003</v>
+      </c>
+      <c r="AF13" s="8"/>
+      <c r="AG13" s="8"/>
+      <c r="AH13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ13" s="8"/>
+      <c r="AL13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN13" s="10">
+        <v>1.3585</v>
+      </c>
+      <c r="AP13" s="7">
+        <v>0.871</v>
+      </c>
+      <c r="AR13" s="8"/>
+      <c r="AS13" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT13" s="8"/>
+      <c r="AU13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV13" s="8"/>
+      <c r="AX13" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="BA13" s="3">
+        <v>24.47</v>
+      </c>
+      <c r="BB13" s="7">
+        <v>0.996</v>
+      </c>
+      <c r="BD13" s="8"/>
+      <c r="BE13" s="8"/>
+      <c r="BF13" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG13" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH13" s="8"/>
+    </row>
+    <row r="14" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="6">
+        <v>26.86</v>
+      </c>
+      <c r="H14" s="8"/>
+      <c r="I14" s="8"/>
+      <c r="J14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="8"/>
+      <c r="L14" s="8"/>
+      <c r="N14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="R14" s="3">
+        <v>0.56499999999999995</v>
+      </c>
+      <c r="T14" s="8"/>
+      <c r="U14" s="8"/>
+      <c r="V14" s="8"/>
+      <c r="W14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X14" s="8"/>
+      <c r="Z14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AC14" s="6">
+        <v>25.99</v>
+      </c>
+      <c r="AD14" s="7">
+        <v>0.64</v>
+      </c>
+      <c r="AF14" s="8"/>
+      <c r="AG14" s="8"/>
+      <c r="AH14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ14" s="8"/>
+      <c r="AL14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="AN14" s="10"/>
+      <c r="AP14" s="7">
+        <v>0.70699999999999996</v>
+      </c>
+      <c r="AR14" s="8"/>
+      <c r="AS14" s="8"/>
+      <c r="AT14" s="8"/>
+      <c r="AU14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV14" s="8"/>
+      <c r="AX14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="BA14" s="3">
+        <v>25.11</v>
+      </c>
+      <c r="BB14" s="7">
+        <v>0.80500000000000005</v>
+      </c>
+      <c r="BD14" s="8"/>
+      <c r="BE14" s="8"/>
+      <c r="BF14" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG14" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH14" s="8"/>
+    </row>
+    <row r="15" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" s="6">
+        <v>27.43</v>
+      </c>
+      <c r="H15" s="8"/>
+      <c r="I15" s="8"/>
+      <c r="J15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="8"/>
+      <c r="L15" s="8"/>
+      <c r="N15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="R15" s="3">
+        <v>0.443</v>
+      </c>
+      <c r="T15" s="8"/>
+      <c r="U15" s="8"/>
+      <c r="V15" s="8"/>
+      <c r="W15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X15" s="8"/>
+      <c r="Z15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC15" s="6">
+        <v>26.56</v>
+      </c>
+      <c r="AD15" s="7">
+        <v>0.495</v>
+      </c>
+      <c r="AF15" s="8"/>
+      <c r="AG15" s="8"/>
+      <c r="AH15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ15" s="8"/>
+      <c r="AL15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="AN15" s="10">
+        <v>2.0779999999999998</v>
+      </c>
+      <c r="AP15" s="7">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="AR15" s="8"/>
+      <c r="AS15" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="AT15" s="8"/>
+      <c r="AU15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV15" s="8"/>
+      <c r="AX15" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="BA15" s="3">
+        <v>25.69</v>
+      </c>
+      <c r="BB15" s="7">
+        <v>0.63700000000000001</v>
+      </c>
+      <c r="BD15" s="8"/>
+      <c r="BE15" s="8"/>
+      <c r="BF15" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG15" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH15" s="8"/>
+    </row>
+    <row r="16" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="E16" s="6"/>
+      <c r="H16" s="8"/>
+      <c r="I16" s="8"/>
+      <c r="J16" s="8"/>
+      <c r="K16" s="8"/>
+      <c r="L16" s="8"/>
+      <c r="N16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="R16" s="3">
+        <v>0.35699999999999998</v>
+      </c>
+      <c r="T16" s="8"/>
+      <c r="U16" s="8"/>
+      <c r="V16" s="8"/>
+      <c r="W16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="X16" s="8"/>
+      <c r="Z16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AC16" s="6">
+        <v>27.07</v>
+      </c>
+      <c r="AD16" s="7">
+        <v>0.40400000000000003</v>
+      </c>
+      <c r="AF16" s="8"/>
+      <c r="AG16" s="8"/>
+      <c r="AH16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ16" s="8"/>
+      <c r="AL16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="AN16" s="10"/>
+      <c r="AP16" s="7">
+        <v>0.46100000000000002</v>
+      </c>
+      <c r="AR16" s="8"/>
+      <c r="AS16" s="8"/>
+      <c r="AT16" s="8"/>
+      <c r="AU16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV16" s="8"/>
+      <c r="AX16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="BA16" s="3">
+        <v>26.21</v>
+      </c>
+      <c r="BB16" s="7">
+        <v>0.53500000000000003</v>
+      </c>
+      <c r="BD16" s="8"/>
+      <c r="BE16" s="8"/>
+      <c r="BF16" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG16" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH16" s="8"/>
+    </row>
+    <row r="17" spans="2:60" s="3" customFormat="1" ht="15" customHeight="1">
+      <c r="B17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="E17" s="6"/>
+      <c r="F17" s="4"/>
+      <c r="H17" s="8"/>
+      <c r="I17" s="8"/>
+      <c r="J17" s="8"/>
+      <c r="K17" s="8"/>
+      <c r="L17" s="8"/>
+      <c r="N17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="R17" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="T17" s="8"/>
+      <c r="U17" s="8"/>
+      <c r="V17" s="8"/>
+      <c r="W17" s="8"/>
+      <c r="X17" s="8"/>
+      <c r="Z17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AC17" s="6">
+        <v>27.47</v>
+      </c>
+      <c r="AD17" s="7">
+        <v>0.34100000000000003</v>
+      </c>
+      <c r="AF17" s="8"/>
+      <c r="AG17" s="8"/>
+      <c r="AH17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ17" s="8"/>
+      <c r="AL17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="AN17" s="10"/>
+      <c r="AP17" s="7">
+        <v>0.38700000000000001</v>
+      </c>
+      <c r="AR17" s="8"/>
+      <c r="AS17" s="8"/>
+      <c r="AT17" s="8"/>
+      <c r="AU17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="AV17" s="8"/>
+      <c r="AX17" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="BA17" s="3">
+        <v>26.62</v>
+      </c>
+      <c r="BB17" s="7">
+        <v>0.44600000000000001</v>
+      </c>
+      <c r="BD17" s="8"/>
+      <c r="BE17" s="8"/>
+      <c r="BF17" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="BG17" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="BH17" s="8"/>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="BD4:BH4"/>
+    <mergeCell ref="H4:L4"/>
+    <mergeCell ref="T4:X4"/>
+    <mergeCell ref="AF4:AJ4"/>
+    <mergeCell ref="AR4:AV4"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>